--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,84 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>France Ligue 2</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Amiens SC</t>
+  </si>
+  <si>
+    <t>Grenoble Foot 38</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Pau</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Annecy</t>
+  </si>
+  <si>
+    <t>Red Star</t>
+  </si>
+  <si>
+    <t>Laval</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>['7', '60']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['43', '46', '57']</t>
+  </si>
+  <si>
+    <t>['60', '65']</t>
+  </si>
+  <si>
+    <t>['19', '33', '80', '83']</t>
+  </si>
+  <si>
+    <t>['16', '45+2']</t>
+  </si>
+  <si>
+    <t>['52', '84']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +348,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +860,1242 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7468868</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45520.625</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2">
+        <v>2.4</v>
+      </c>
+      <c r="R2">
+        <v>2.1</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>1.44</v>
+      </c>
+      <c r="U2">
+        <v>2.63</v>
+      </c>
+      <c r="V2">
+        <v>3.25</v>
+      </c>
+      <c r="W2">
+        <v>1.33</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>1.06</v>
+      </c>
+      <c r="Z2">
+        <v>1.75</v>
+      </c>
+      <c r="AA2">
+        <v>3.5</v>
+      </c>
+      <c r="AB2">
+        <v>4.2</v>
+      </c>
+      <c r="AC2">
+        <v>1.06</v>
+      </c>
+      <c r="AD2">
+        <v>8.5</v>
+      </c>
+      <c r="AE2">
+        <v>1.36</v>
+      </c>
+      <c r="AF2">
+        <v>3</v>
+      </c>
+      <c r="AG2">
+        <v>1.98</v>
+      </c>
+      <c r="AH2">
+        <v>1.78</v>
+      </c>
+      <c r="AI2">
+        <v>2</v>
+      </c>
+      <c r="AJ2">
+        <v>1.73</v>
+      </c>
+      <c r="AK2">
+        <v>1.16</v>
+      </c>
+      <c r="AL2">
+        <v>1.22</v>
+      </c>
+      <c r="AM2">
+        <v>2</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>6</v>
+      </c>
+      <c r="AV2">
+        <v>5</v>
+      </c>
+      <c r="AW2">
+        <v>6</v>
+      </c>
+      <c r="AX2">
+        <v>4</v>
+      </c>
+      <c r="AY2">
+        <v>12</v>
+      </c>
+      <c r="AZ2">
+        <v>9</v>
+      </c>
+      <c r="BA2">
+        <v>4</v>
+      </c>
+      <c r="BB2">
+        <v>6</v>
+      </c>
+      <c r="BC2">
+        <v>10</v>
+      </c>
+      <c r="BD2">
+        <v>1.41</v>
+      </c>
+      <c r="BE2">
+        <v>8.5</v>
+      </c>
+      <c r="BF2">
+        <v>3.59</v>
+      </c>
+      <c r="BG2">
+        <v>1.37</v>
+      </c>
+      <c r="BH2">
+        <v>2.95</v>
+      </c>
+      <c r="BI2">
+        <v>1.68</v>
+      </c>
+      <c r="BJ2">
+        <v>2.1</v>
+      </c>
+      <c r="BK2">
+        <v>2.18</v>
+      </c>
+      <c r="BL2">
+        <v>1.64</v>
+      </c>
+      <c r="BM2">
+        <v>2.95</v>
+      </c>
+      <c r="BN2">
+        <v>1.36</v>
+      </c>
+      <c r="BO2">
+        <v>4.2</v>
+      </c>
+      <c r="BP2">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7468869</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45520.625</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3">
+        <v>3.6</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>3.25</v>
+      </c>
+      <c r="T3">
+        <v>1.5</v>
+      </c>
+      <c r="U3">
+        <v>2.5</v>
+      </c>
+      <c r="V3">
+        <v>3.4</v>
+      </c>
+      <c r="W3">
+        <v>1.3</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>1.06</v>
+      </c>
+      <c r="Z3">
+        <v>3.1</v>
+      </c>
+      <c r="AA3">
+        <v>3.25</v>
+      </c>
+      <c r="AB3">
+        <v>2.15</v>
+      </c>
+      <c r="AC3">
+        <v>1.08</v>
+      </c>
+      <c r="AD3">
+        <v>7.5</v>
+      </c>
+      <c r="AE3">
+        <v>1.4</v>
+      </c>
+      <c r="AF3">
+        <v>2.8</v>
+      </c>
+      <c r="AG3">
+        <v>2.05</v>
+      </c>
+      <c r="AH3">
+        <v>1.73</v>
+      </c>
+      <c r="AI3">
+        <v>1.91</v>
+      </c>
+      <c r="AJ3">
+        <v>1.8</v>
+      </c>
+      <c r="AK3">
+        <v>1.53</v>
+      </c>
+      <c r="AL3">
+        <v>1.28</v>
+      </c>
+      <c r="AM3">
+        <v>1.4</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>3</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>-1</v>
+      </c>
+      <c r="AV3">
+        <v>-1</v>
+      </c>
+      <c r="AW3">
+        <v>-1</v>
+      </c>
+      <c r="AX3">
+        <v>-1</v>
+      </c>
+      <c r="AY3">
+        <v>-1</v>
+      </c>
+      <c r="AZ3">
+        <v>-1</v>
+      </c>
+      <c r="BA3">
+        <v>3</v>
+      </c>
+      <c r="BB3">
+        <v>4</v>
+      </c>
+      <c r="BC3">
+        <v>7</v>
+      </c>
+      <c r="BD3">
+        <v>2.1</v>
+      </c>
+      <c r="BE3">
+        <v>7.5</v>
+      </c>
+      <c r="BF3">
+        <v>1.95</v>
+      </c>
+      <c r="BG3">
+        <v>1.37</v>
+      </c>
+      <c r="BH3">
+        <v>2.95</v>
+      </c>
+      <c r="BI3">
+        <v>1.68</v>
+      </c>
+      <c r="BJ3">
+        <v>2.1</v>
+      </c>
+      <c r="BK3">
+        <v>2.18</v>
+      </c>
+      <c r="BL3">
+        <v>1.64</v>
+      </c>
+      <c r="BM3">
+        <v>2.95</v>
+      </c>
+      <c r="BN3">
+        <v>1.36</v>
+      </c>
+      <c r="BO3">
+        <v>4.2</v>
+      </c>
+      <c r="BP3">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7468870</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45520.625</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4">
+        <v>3.6</v>
+      </c>
+      <c r="R4">
+        <v>2.05</v>
+      </c>
+      <c r="S4">
+        <v>3.2</v>
+      </c>
+      <c r="T4">
+        <v>1.5</v>
+      </c>
+      <c r="U4">
+        <v>2.5</v>
+      </c>
+      <c r="V4">
+        <v>3.4</v>
+      </c>
+      <c r="W4">
+        <v>1.3</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>1.06</v>
+      </c>
+      <c r="Z4">
+        <v>2.75</v>
+      </c>
+      <c r="AA4">
+        <v>3.1</v>
+      </c>
+      <c r="AB4">
+        <v>2.6</v>
+      </c>
+      <c r="AC4">
+        <v>1.07</v>
+      </c>
+      <c r="AD4">
+        <v>8</v>
+      </c>
+      <c r="AE4">
+        <v>1.38</v>
+      </c>
+      <c r="AF4">
+        <v>2.9</v>
+      </c>
+      <c r="AG4">
+        <v>2.1</v>
+      </c>
+      <c r="AH4">
+        <v>1.68</v>
+      </c>
+      <c r="AI4">
+        <v>1.83</v>
+      </c>
+      <c r="AJ4">
+        <v>1.83</v>
+      </c>
+      <c r="AK4">
+        <v>1.53</v>
+      </c>
+      <c r="AL4">
+        <v>1.28</v>
+      </c>
+      <c r="AM4">
+        <v>1.4</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>3</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>-1</v>
+      </c>
+      <c r="AV4">
+        <v>-1</v>
+      </c>
+      <c r="AW4">
+        <v>-1</v>
+      </c>
+      <c r="AX4">
+        <v>-1</v>
+      </c>
+      <c r="AY4">
+        <v>-1</v>
+      </c>
+      <c r="AZ4">
+        <v>-1</v>
+      </c>
+      <c r="BA4">
+        <v>8</v>
+      </c>
+      <c r="BB4">
+        <v>2</v>
+      </c>
+      <c r="BC4">
+        <v>10</v>
+      </c>
+      <c r="BD4">
+        <v>2.44</v>
+      </c>
+      <c r="BE4">
+        <v>8</v>
+      </c>
+      <c r="BF4">
+        <v>1.75</v>
+      </c>
+      <c r="BG4">
+        <v>1.3</v>
+      </c>
+      <c r="BH4">
+        <v>3.25</v>
+      </c>
+      <c r="BI4">
+        <v>1.58</v>
+      </c>
+      <c r="BJ4">
+        <v>2.28</v>
+      </c>
+      <c r="BK4">
+        <v>2</v>
+      </c>
+      <c r="BL4">
+        <v>1.75</v>
+      </c>
+      <c r="BM4">
+        <v>2.7</v>
+      </c>
+      <c r="BN4">
+        <v>1.43</v>
+      </c>
+      <c r="BO4">
+        <v>3.75</v>
+      </c>
+      <c r="BP4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7468871</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45520.625</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5">
+        <v>3.1</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>3.75</v>
+      </c>
+      <c r="T5">
+        <v>1.5</v>
+      </c>
+      <c r="U5">
+        <v>2.5</v>
+      </c>
+      <c r="V5">
+        <v>3.4</v>
+      </c>
+      <c r="W5">
+        <v>1.3</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>1.06</v>
+      </c>
+      <c r="Z5">
+        <v>2.34</v>
+      </c>
+      <c r="AA5">
+        <v>3.26</v>
+      </c>
+      <c r="AB5">
+        <v>3.14</v>
+      </c>
+      <c r="AC5">
+        <v>1.07</v>
+      </c>
+      <c r="AD5">
+        <v>8</v>
+      </c>
+      <c r="AE5">
+        <v>1.4</v>
+      </c>
+      <c r="AF5">
+        <v>2.8</v>
+      </c>
+      <c r="AG5">
+        <v>2.2</v>
+      </c>
+      <c r="AH5">
+        <v>1.6</v>
+      </c>
+      <c r="AI5">
+        <v>1.91</v>
+      </c>
+      <c r="AJ5">
+        <v>1.8</v>
+      </c>
+      <c r="AK5">
+        <v>1.36</v>
+      </c>
+      <c r="AL5">
+        <v>1.28</v>
+      </c>
+      <c r="AM5">
+        <v>1.57</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>3</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>6</v>
+      </c>
+      <c r="AV5">
+        <v>3</v>
+      </c>
+      <c r="AW5">
+        <v>5</v>
+      </c>
+      <c r="AX5">
+        <v>7</v>
+      </c>
+      <c r="AY5">
+        <v>11</v>
+      </c>
+      <c r="AZ5">
+        <v>10</v>
+      </c>
+      <c r="BA5">
+        <v>6</v>
+      </c>
+      <c r="BB5">
+        <v>3</v>
+      </c>
+      <c r="BC5">
+        <v>9</v>
+      </c>
+      <c r="BD5">
+        <v>1.82</v>
+      </c>
+      <c r="BE5">
+        <v>8</v>
+      </c>
+      <c r="BF5">
+        <v>2.39</v>
+      </c>
+      <c r="BG5">
+        <v>1.33</v>
+      </c>
+      <c r="BH5">
+        <v>3.15</v>
+      </c>
+      <c r="BI5">
+        <v>1.61</v>
+      </c>
+      <c r="BJ5">
+        <v>2.23</v>
+      </c>
+      <c r="BK5">
+        <v>2.05</v>
+      </c>
+      <c r="BL5">
+        <v>1.72</v>
+      </c>
+      <c r="BM5">
+        <v>2.75</v>
+      </c>
+      <c r="BN5">
+        <v>1.41</v>
+      </c>
+      <c r="BO5">
+        <v>3.85</v>
+      </c>
+      <c r="BP5">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7468872</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45520.625</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6">
+        <v>3.1</v>
+      </c>
+      <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>1.53</v>
+      </c>
+      <c r="U6">
+        <v>2.38</v>
+      </c>
+      <c r="V6">
+        <v>3.5</v>
+      </c>
+      <c r="W6">
+        <v>1.29</v>
+      </c>
+      <c r="X6">
+        <v>11</v>
+      </c>
+      <c r="Y6">
+        <v>1.05</v>
+      </c>
+      <c r="Z6">
+        <v>2.05</v>
+      </c>
+      <c r="AA6">
+        <v>3.2</v>
+      </c>
+      <c r="AB6">
+        <v>3.4</v>
+      </c>
+      <c r="AC6">
+        <v>1.09</v>
+      </c>
+      <c r="AD6">
+        <v>7</v>
+      </c>
+      <c r="AE6">
+        <v>1.44</v>
+      </c>
+      <c r="AF6">
+        <v>2.65</v>
+      </c>
+      <c r="AG6">
+        <v>2.23</v>
+      </c>
+      <c r="AH6">
+        <v>1.62</v>
+      </c>
+      <c r="AI6">
+        <v>2</v>
+      </c>
+      <c r="AJ6">
+        <v>1.73</v>
+      </c>
+      <c r="AK6">
+        <v>1.3</v>
+      </c>
+      <c r="AL6">
+        <v>1.3</v>
+      </c>
+      <c r="AM6">
+        <v>1.62</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>3</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>-1</v>
+      </c>
+      <c r="AV6">
+        <v>-1</v>
+      </c>
+      <c r="AW6">
+        <v>-1</v>
+      </c>
+      <c r="AX6">
+        <v>-1</v>
+      </c>
+      <c r="AY6">
+        <v>-1</v>
+      </c>
+      <c r="AZ6">
+        <v>-1</v>
+      </c>
+      <c r="BA6">
+        <v>4</v>
+      </c>
+      <c r="BB6">
+        <v>4</v>
+      </c>
+      <c r="BC6">
+        <v>8</v>
+      </c>
+      <c r="BD6">
+        <v>1.75</v>
+      </c>
+      <c r="BE6">
+        <v>8</v>
+      </c>
+      <c r="BF6">
+        <v>2.44</v>
+      </c>
+      <c r="BG6">
+        <v>1.3</v>
+      </c>
+      <c r="BH6">
+        <v>3.25</v>
+      </c>
+      <c r="BI6">
+        <v>1.58</v>
+      </c>
+      <c r="BJ6">
+        <v>2.28</v>
+      </c>
+      <c r="BK6">
+        <v>2</v>
+      </c>
+      <c r="BL6">
+        <v>1.8</v>
+      </c>
+      <c r="BM6">
+        <v>2.7</v>
+      </c>
+      <c r="BN6">
+        <v>1.43</v>
+      </c>
+      <c r="BO6">
+        <v>3.75</v>
+      </c>
+      <c r="BP6">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7468873</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45520.625</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7">
+        <v>2.45</v>
+      </c>
+      <c r="R7">
+        <v>2.05</v>
+      </c>
+      <c r="S7">
+        <v>4.5</v>
+      </c>
+      <c r="T7">
+        <v>1.45</v>
+      </c>
+      <c r="U7">
+        <v>2.55</v>
+      </c>
+      <c r="V7">
+        <v>3.1</v>
+      </c>
+      <c r="W7">
+        <v>1.33</v>
+      </c>
+      <c r="X7">
+        <v>8.1</v>
+      </c>
+      <c r="Y7">
+        <v>1.06</v>
+      </c>
+      <c r="Z7">
+        <v>1.77</v>
+      </c>
+      <c r="AA7">
+        <v>3.5</v>
+      </c>
+      <c r="AB7">
+        <v>4.5</v>
+      </c>
+      <c r="AC7">
+        <v>1.07</v>
+      </c>
+      <c r="AD7">
+        <v>8</v>
+      </c>
+      <c r="AE7">
+        <v>1.38</v>
+      </c>
+      <c r="AF7">
+        <v>3</v>
+      </c>
+      <c r="AG7">
+        <v>2.12</v>
+      </c>
+      <c r="AH7">
+        <v>1.68</v>
+      </c>
+      <c r="AI7">
+        <v>1.93</v>
+      </c>
+      <c r="AJ7">
+        <v>1.75</v>
+      </c>
+      <c r="AK7">
+        <v>1.2</v>
+      </c>
+      <c r="AL7">
+        <v>1.25</v>
+      </c>
+      <c r="AM7">
+        <v>1.93</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>5</v>
+      </c>
+      <c r="AV7">
+        <v>4</v>
+      </c>
+      <c r="AW7">
+        <v>10</v>
+      </c>
+      <c r="AX7">
+        <v>5</v>
+      </c>
+      <c r="AY7">
+        <v>15</v>
+      </c>
+      <c r="AZ7">
+        <v>9</v>
+      </c>
+      <c r="BA7">
+        <v>3</v>
+      </c>
+      <c r="BB7">
+        <v>5</v>
+      </c>
+      <c r="BC7">
+        <v>8</v>
+      </c>
+      <c r="BD7">
+        <v>1.59</v>
+      </c>
+      <c r="BE7">
+        <v>8</v>
+      </c>
+      <c r="BF7">
+        <v>2.8</v>
+      </c>
+      <c r="BG7">
+        <v>1.42</v>
+      </c>
+      <c r="BH7">
+        <v>2.65</v>
+      </c>
+      <c r="BI7">
+        <v>1.8</v>
+      </c>
+      <c r="BJ7">
+        <v>2</v>
+      </c>
+      <c r="BK7">
+        <v>2.27</v>
+      </c>
+      <c r="BL7">
+        <v>1.56</v>
+      </c>
+      <c r="BM7">
+        <v>3.04</v>
+      </c>
+      <c r="BN7">
+        <v>1.31</v>
+      </c>
+      <c r="BO7">
+        <v>4.4</v>
+      </c>
+      <c r="BP7">
+        <v>1.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -241,7 +241,7 @@
     <t>Grenoble Foot 38</t>
   </si>
   <si>
-    <t>Guingamp</t>
+    <t>Caen</t>
   </si>
   <si>
     <t>Pau</t>
@@ -259,7 +259,7 @@
     <t>Laval</t>
   </si>
   <si>
-    <t>Troyes</t>
+    <t>Paris</t>
   </si>
   <si>
     <t>['7', '60']</t>
@@ -274,10 +274,7 @@
     <t>['43', '46', '57']</t>
   </si>
   <si>
-    <t>['60', '65']</t>
-  </si>
-  <si>
-    <t>['19', '33', '80', '83']</t>
+    <t>['61', '64']</t>
   </si>
   <si>
     <t>['16', '45+2']</t>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['76', '86']</t>
   </si>
 </sst>
 </file>
@@ -907,7 +907,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1319,7 +1319,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1731,7 +1731,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1895,7 +1895,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7468873</v>
+        <v>7468875</v>
       </c>
       <c r="C7" t="s">
         <v>68</v>
@@ -1904,7 +1904,7 @@
         <v>69</v>
       </c>
       <c r="E7" s="2">
-        <v>45520.625</v>
+        <v>45521.39583333334</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1916,97 +1916,97 @@
         <v>81</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>2</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q7">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="R7">
         <v>2.05</v>
       </c>
       <c r="S7">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T7">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="U7">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="V7">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="W7">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X7">
-        <v>8.1</v>
+        <v>10</v>
       </c>
       <c r="Y7">
         <v>1.06</v>
       </c>
       <c r="Z7">
-        <v>1.77</v>
+        <v>2.4</v>
       </c>
       <c r="AA7">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AB7">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="AC7">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AD7">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AE7">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AF7">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AG7">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AH7">
         <v>1.68</v>
       </c>
       <c r="AI7">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="AJ7">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AK7">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AL7">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM7">
-        <v>1.93</v>
+        <v>1.51</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -2015,11 +2015,11 @@
         <v>0</v>
       </c>
       <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
         <v>3</v>
       </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
       <c r="AR7">
         <v>0</v>
       </c>
@@ -2030,70 +2030,70 @@
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV7">
+        <v>6</v>
+      </c>
+      <c r="AW7">
         <v>4</v>
       </c>
-      <c r="AW7">
+      <c r="AX7">
+        <v>6</v>
+      </c>
+      <c r="AY7">
         <v>10</v>
       </c>
-      <c r="AX7">
-        <v>5</v>
-      </c>
-      <c r="AY7">
-        <v>15</v>
-      </c>
       <c r="AZ7">
+        <v>12</v>
+      </c>
+      <c r="BA7">
         <v>9</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <v>3</v>
       </c>
-      <c r="BB7">
-        <v>5</v>
-      </c>
       <c r="BC7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD7">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="BE7">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF7">
-        <v>2.8</v>
+        <v>2.34</v>
       </c>
       <c r="BG7">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="BH7">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="BI7">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="BJ7">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="BK7">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="BL7">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="BM7">
-        <v>3.04</v>
+        <v>2.75</v>
       </c>
       <c r="BN7">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="BO7">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="BP7">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -241,6 +241,9 @@
     <t>Grenoble Foot 38</t>
   </si>
   <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
     <t>Caen</t>
   </si>
   <si>
@@ -259,6 +262,9 @@
     <t>Laval</t>
   </si>
   <si>
+    <t>Troyes</t>
+  </si>
+  <si>
     <t>Paris</t>
   </si>
   <si>
@@ -275,6 +281,9 @@
   </si>
   <si>
     <t>['61', '64']</t>
+  </si>
+  <si>
+    <t>['19', '33', '80', '83']</t>
   </si>
   <si>
     <t>['16', '45+2']</t>
@@ -648,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP7"/>
+  <dimension ref="A1:BP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -883,7 +892,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -904,10 +913,10 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1089,7 +1098,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1110,10 +1119,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q3">
         <v>3.6</v>
@@ -1206,22 +1215,22 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY3">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AZ3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA3">
         <v>3</v>
@@ -1295,7 +1304,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1316,10 +1325,10 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1412,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY4">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ4">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA4">
         <v>8</v>
@@ -1501,7 +1510,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1522,10 +1531,10 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1707,7 +1716,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1728,10 +1737,10 @@
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1824,22 +1833,22 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ6">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA6">
         <v>4</v>
@@ -1895,7 +1904,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7468875</v>
+        <v>7468873</v>
       </c>
       <c r="C7" t="s">
         <v>68</v>
@@ -1904,7 +1913,7 @@
         <v>69</v>
       </c>
       <c r="E7" s="2">
-        <v>45521.39583333334</v>
+        <v>45520.625</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1913,186 +1922,392 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q7">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="R7">
         <v>2.05</v>
       </c>
       <c r="S7">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T7">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="U7">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="V7">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="W7">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X7">
-        <v>10</v>
+        <v>8.1</v>
       </c>
       <c r="Y7">
         <v>1.06</v>
       </c>
       <c r="Z7">
-        <v>2.4</v>
+        <v>1.77</v>
       </c>
       <c r="AA7">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AB7">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="AC7">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AD7">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AE7">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AF7">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AG7">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AH7">
         <v>1.68</v>
       </c>
       <c r="AI7">
+        <v>1.93</v>
+      </c>
+      <c r="AJ7">
+        <v>1.75</v>
+      </c>
+      <c r="AK7">
+        <v>1.2</v>
+      </c>
+      <c r="AL7">
+        <v>1.25</v>
+      </c>
+      <c r="AM7">
+        <v>1.93</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>5</v>
+      </c>
+      <c r="AV7">
+        <v>4</v>
+      </c>
+      <c r="AW7">
+        <v>10</v>
+      </c>
+      <c r="AX7">
+        <v>5</v>
+      </c>
+      <c r="AY7">
+        <v>15</v>
+      </c>
+      <c r="AZ7">
+        <v>9</v>
+      </c>
+      <c r="BA7">
+        <v>3</v>
+      </c>
+      <c r="BB7">
+        <v>5</v>
+      </c>
+      <c r="BC7">
+        <v>8</v>
+      </c>
+      <c r="BD7">
+        <v>1.59</v>
+      </c>
+      <c r="BE7">
+        <v>8</v>
+      </c>
+      <c r="BF7">
+        <v>2.8</v>
+      </c>
+      <c r="BG7">
+        <v>1.42</v>
+      </c>
+      <c r="BH7">
+        <v>2.65</v>
+      </c>
+      <c r="BI7">
+        <v>1.8</v>
+      </c>
+      <c r="BJ7">
+        <v>2</v>
+      </c>
+      <c r="BK7">
+        <v>2.27</v>
+      </c>
+      <c r="BL7">
+        <v>1.56</v>
+      </c>
+      <c r="BM7">
+        <v>3.04</v>
+      </c>
+      <c r="BN7">
+        <v>1.31</v>
+      </c>
+      <c r="BO7">
+        <v>4.4</v>
+      </c>
+      <c r="BP7">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7468875</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45521.39583333334</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8">
+        <v>3.1</v>
+      </c>
+      <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>3.75</v>
+      </c>
+      <c r="T8">
+        <v>1.5</v>
+      </c>
+      <c r="U8">
+        <v>2.5</v>
+      </c>
+      <c r="V8">
+        <v>3.4</v>
+      </c>
+      <c r="W8">
+        <v>1.3</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <v>1.06</v>
+      </c>
+      <c r="Z8">
+        <v>2.4</v>
+      </c>
+      <c r="AA8">
+        <v>3.2</v>
+      </c>
+      <c r="AB8">
+        <v>2.75</v>
+      </c>
+      <c r="AC8">
+        <v>1.04</v>
+      </c>
+      <c r="AD8">
+        <v>7.6</v>
+      </c>
+      <c r="AE8">
+        <v>1.36</v>
+      </c>
+      <c r="AF8">
+        <v>2.8</v>
+      </c>
+      <c r="AG8">
+        <v>2.1</v>
+      </c>
+      <c r="AH8">
+        <v>1.68</v>
+      </c>
+      <c r="AI8">
         <v>1.91</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ8">
         <v>1.8</v>
       </c>
-      <c r="AK7">
+      <c r="AK8">
         <v>1.32</v>
       </c>
-      <c r="AL7">
+      <c r="AL8">
         <v>1.3</v>
       </c>
-      <c r="AM7">
+      <c r="AM8">
         <v>1.51</v>
       </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
         <v>3</v>
       </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
         <v>6</v>
       </c>
-      <c r="AV7">
+      <c r="AV8">
         <v>6</v>
       </c>
-      <c r="AW7">
+      <c r="AW8">
         <v>4</v>
       </c>
-      <c r="AX7">
+      <c r="AX8">
         <v>6</v>
       </c>
-      <c r="AY7">
+      <c r="AY8">
         <v>10</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ8">
         <v>12</v>
       </c>
-      <c r="BA7">
+      <c r="BA8">
         <v>9</v>
       </c>
-      <c r="BB7">
+      <c r="BB8">
         <v>3</v>
       </c>
-      <c r="BC7">
+      <c r="BC8">
         <v>12</v>
       </c>
-      <c r="BD7">
+      <c r="BD8">
         <v>1.82</v>
       </c>
-      <c r="BE7">
+      <c r="BE8">
         <v>7.5</v>
       </c>
-      <c r="BF7">
+      <c r="BF8">
         <v>2.34</v>
       </c>
-      <c r="BG7">
+      <c r="BG8">
         <v>1.33</v>
       </c>
-      <c r="BH7">
+      <c r="BH8">
         <v>3.15</v>
       </c>
-      <c r="BI7">
+      <c r="BI8">
         <v>1.61</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ8">
         <v>2.23</v>
       </c>
-      <c r="BK7">
+      <c r="BK8">
         <v>2.05</v>
       </c>
-      <c r="BL7">
+      <c r="BL8">
         <v>1.72</v>
       </c>
-      <c r="BM7">
+      <c r="BM8">
         <v>2.75</v>
       </c>
-      <c r="BN7">
+      <c r="BN8">
         <v>1.41</v>
       </c>
-      <c r="BO7">
+      <c r="BO8">
         <v>3.85</v>
       </c>
-      <c r="BP7">
+      <c r="BP8">
         <v>1.24</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -247,6 +247,12 @@
     <t>Caen</t>
   </si>
   <si>
+    <t>Martigues</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
     <t>Pau</t>
   </si>
   <si>
@@ -268,6 +274,12 @@
     <t>Paris</t>
   </si>
   <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
     <t>['7', '60']</t>
   </si>
   <si>
@@ -286,6 +298,9 @@
     <t>['19', '33', '80', '83']</t>
   </si>
   <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -296,6 +311,12 @@
   </si>
   <si>
     <t>['76', '86']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['38']</t>
   </si>
 </sst>
 </file>
@@ -657,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP8"/>
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,7 +913,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -913,10 +934,10 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1098,7 +1119,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1119,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q3">
         <v>3.6</v>
@@ -1304,7 +1325,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1325,10 +1346,10 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1510,7 +1531,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1531,10 +1552,10 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1716,7 +1737,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1737,10 +1758,10 @@
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1922,7 +1943,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1943,10 +1964,10 @@
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q7">
         <v>2.45</v>
@@ -2128,7 +2149,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2149,10 +2170,10 @@
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2309,6 +2330,418 @@
       </c>
       <c r="BP8">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7468867</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45523.65625</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9">
+        <v>4.33</v>
+      </c>
+      <c r="R9">
+        <v>2.05</v>
+      </c>
+      <c r="S9">
+        <v>2.75</v>
+      </c>
+      <c r="T9">
+        <v>1.44</v>
+      </c>
+      <c r="U9">
+        <v>2.63</v>
+      </c>
+      <c r="V9">
+        <v>3.25</v>
+      </c>
+      <c r="W9">
+        <v>1.33</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <v>1.06</v>
+      </c>
+      <c r="Z9">
+        <v>3.85</v>
+      </c>
+      <c r="AA9">
+        <v>3.4</v>
+      </c>
+      <c r="AB9">
+        <v>1.94</v>
+      </c>
+      <c r="AC9">
+        <v>1.07</v>
+      </c>
+      <c r="AD9">
+        <v>8</v>
+      </c>
+      <c r="AE9">
+        <v>1.36</v>
+      </c>
+      <c r="AF9">
+        <v>2.95</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>1.7</v>
+      </c>
+      <c r="AI9">
+        <v>1.91</v>
+      </c>
+      <c r="AJ9">
+        <v>1.8</v>
+      </c>
+      <c r="AK9">
+        <v>1.83</v>
+      </c>
+      <c r="AL9">
+        <v>1.25</v>
+      </c>
+      <c r="AM9">
+        <v>1.25</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>3</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>2</v>
+      </c>
+      <c r="AV9">
+        <v>7</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>4</v>
+      </c>
+      <c r="AY9">
+        <v>3</v>
+      </c>
+      <c r="AZ9">
+        <v>11</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>12</v>
+      </c>
+      <c r="BC9">
+        <v>13</v>
+      </c>
+      <c r="BD9">
+        <v>2.45</v>
+      </c>
+      <c r="BE9">
+        <v>7.5</v>
+      </c>
+      <c r="BF9">
+        <v>1.75</v>
+      </c>
+      <c r="BG9">
+        <v>1.38</v>
+      </c>
+      <c r="BH9">
+        <v>2.85</v>
+      </c>
+      <c r="BI9">
+        <v>1.72</v>
+      </c>
+      <c r="BJ9">
+        <v>2.05</v>
+      </c>
+      <c r="BK9">
+        <v>2.23</v>
+      </c>
+      <c r="BL9">
+        <v>1.61</v>
+      </c>
+      <c r="BM9">
+        <v>3.05</v>
+      </c>
+      <c r="BN9">
+        <v>1.34</v>
+      </c>
+      <c r="BO9">
+        <v>4.35</v>
+      </c>
+      <c r="BP9">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7468874</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45523.65625</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10">
+        <v>2.6</v>
+      </c>
+      <c r="R10">
+        <v>2.1</v>
+      </c>
+      <c r="S10">
+        <v>4.75</v>
+      </c>
+      <c r="T10">
+        <v>1.44</v>
+      </c>
+      <c r="U10">
+        <v>2.63</v>
+      </c>
+      <c r="V10">
+        <v>3.25</v>
+      </c>
+      <c r="W10">
+        <v>1.33</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>1.06</v>
+      </c>
+      <c r="Z10">
+        <v>1.89</v>
+      </c>
+      <c r="AA10">
+        <v>3.4</v>
+      </c>
+      <c r="AB10">
+        <v>4</v>
+      </c>
+      <c r="AC10">
+        <v>1.07</v>
+      </c>
+      <c r="AD10">
+        <v>7.5</v>
+      </c>
+      <c r="AE10">
+        <v>1.34</v>
+      </c>
+      <c r="AF10">
+        <v>2.89</v>
+      </c>
+      <c r="AG10">
+        <v>2.1</v>
+      </c>
+      <c r="AH10">
+        <v>1.65</v>
+      </c>
+      <c r="AI10">
+        <v>2</v>
+      </c>
+      <c r="AJ10">
+        <v>1.73</v>
+      </c>
+      <c r="AK10">
+        <v>1.2</v>
+      </c>
+      <c r="AL10">
+        <v>1.25</v>
+      </c>
+      <c r="AM10">
+        <v>1.85</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>6</v>
+      </c>
+      <c r="AV10">
+        <v>3</v>
+      </c>
+      <c r="AW10">
+        <v>5</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>11</v>
+      </c>
+      <c r="AZ10">
+        <v>3</v>
+      </c>
+      <c r="BA10">
+        <v>9</v>
+      </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
+      <c r="BC10">
+        <v>10</v>
+      </c>
+      <c r="BD10">
+        <v>1.64</v>
+      </c>
+      <c r="BE10">
+        <v>8</v>
+      </c>
+      <c r="BF10">
+        <v>2.77</v>
+      </c>
+      <c r="BG10">
+        <v>1.35</v>
+      </c>
+      <c r="BH10">
+        <v>3.05</v>
+      </c>
+      <c r="BI10">
+        <v>1.64</v>
+      </c>
+      <c r="BJ10">
+        <v>2.17</v>
+      </c>
+      <c r="BK10">
+        <v>2.1</v>
+      </c>
+      <c r="BL10">
+        <v>1.68</v>
+      </c>
+      <c r="BM10">
+        <v>2.85</v>
+      </c>
+      <c r="BN10">
+        <v>1.38</v>
+      </c>
+      <c r="BO10">
+        <v>4</v>
+      </c>
+      <c r="BP10">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="111">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -253,33 +253,33 @@
     <t>Metz</t>
   </si>
   <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Laval</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
     <t>Pau</t>
   </si>
   <si>
-    <t>Rodez</t>
+    <t>Bastia</t>
   </si>
   <si>
     <t>Annecy</t>
   </si>
   <si>
+    <t>Paris</t>
+  </si>
+  <si>
     <t>Red Star</t>
   </si>
   <si>
-    <t>Laval</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Bastia</t>
-  </si>
-  <si>
     <t>['7', '60']</t>
   </si>
   <si>
@@ -301,6 +301,21 @@
     <t>['90+8']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['26', '84']</t>
+  </si>
+  <si>
+    <t>['79', '88', '90']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -317,6 +332,21 @@
   </si>
   <si>
     <t>['38']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['1', '30', '44']</t>
+  </si>
+  <si>
+    <t>['11', '45', '77', '87']</t>
+  </si>
+  <si>
+    <t>['40', '65']</t>
   </si>
 </sst>
 </file>
@@ -678,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP10"/>
+  <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -913,7 +943,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -937,7 +967,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1119,7 +1149,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1325,7 +1355,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1349,7 +1379,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1531,7 +1561,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1737,7 +1767,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1761,7 +1791,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1943,7 +1973,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -2173,7 +2203,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2355,7 +2385,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2379,7 +2409,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2561,7 +2591,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2585,7 +2615,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2742,6 +2772,1448 @@
       </c>
       <c r="BP10">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7468876</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45527.625</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>2.05</v>
+      </c>
+      <c r="S11">
+        <v>2.88</v>
+      </c>
+      <c r="T11">
+        <v>1.44</v>
+      </c>
+      <c r="U11">
+        <v>2.63</v>
+      </c>
+      <c r="V11">
+        <v>3.25</v>
+      </c>
+      <c r="W11">
+        <v>1.33</v>
+      </c>
+      <c r="X11">
+        <v>9</v>
+      </c>
+      <c r="Y11">
+        <v>1.07</v>
+      </c>
+      <c r="Z11">
+        <v>3.4</v>
+      </c>
+      <c r="AA11">
+        <v>3.1</v>
+      </c>
+      <c r="AB11">
+        <v>2.26</v>
+      </c>
+      <c r="AC11">
+        <v>1.08</v>
+      </c>
+      <c r="AD11">
+        <v>7.5</v>
+      </c>
+      <c r="AE11">
+        <v>1.38</v>
+      </c>
+      <c r="AF11">
+        <v>3</v>
+      </c>
+      <c r="AG11">
+        <v>2.13</v>
+      </c>
+      <c r="AH11">
+        <v>1.72</v>
+      </c>
+      <c r="AI11">
+        <v>1.83</v>
+      </c>
+      <c r="AJ11">
+        <v>1.83</v>
+      </c>
+      <c r="AK11">
+        <v>1.62</v>
+      </c>
+      <c r="AL11">
+        <v>1.3</v>
+      </c>
+      <c r="AM11">
+        <v>1.3</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>3</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>6</v>
+      </c>
+      <c r="AV11">
+        <v>2</v>
+      </c>
+      <c r="AW11">
+        <v>5</v>
+      </c>
+      <c r="AX11">
+        <v>3</v>
+      </c>
+      <c r="AY11">
+        <v>11</v>
+      </c>
+      <c r="AZ11">
+        <v>5</v>
+      </c>
+      <c r="BA11">
+        <v>15</v>
+      </c>
+      <c r="BB11">
+        <v>3</v>
+      </c>
+      <c r="BC11">
+        <v>18</v>
+      </c>
+      <c r="BD11">
+        <v>2.81</v>
+      </c>
+      <c r="BE11">
+        <v>6.6</v>
+      </c>
+      <c r="BF11">
+        <v>1.73</v>
+      </c>
+      <c r="BG11">
+        <v>1.29</v>
+      </c>
+      <c r="BH11">
+        <v>3.4</v>
+      </c>
+      <c r="BI11">
+        <v>1.53</v>
+      </c>
+      <c r="BJ11">
+        <v>2.4</v>
+      </c>
+      <c r="BK11">
+        <v>1.92</v>
+      </c>
+      <c r="BL11">
+        <v>1.82</v>
+      </c>
+      <c r="BM11">
+        <v>2.55</v>
+      </c>
+      <c r="BN11">
+        <v>1.48</v>
+      </c>
+      <c r="BO11">
+        <v>3.5</v>
+      </c>
+      <c r="BP11">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7468884</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45527.625</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12">
+        <v>3.95</v>
+      </c>
+      <c r="R12">
+        <v>1.99</v>
+      </c>
+      <c r="S12">
+        <v>3.27</v>
+      </c>
+      <c r="T12">
+        <v>1.56</v>
+      </c>
+      <c r="U12">
+        <v>2.49</v>
+      </c>
+      <c r="V12">
+        <v>3.55</v>
+      </c>
+      <c r="W12">
+        <v>1.27</v>
+      </c>
+      <c r="X12">
+        <v>9.9</v>
+      </c>
+      <c r="Y12">
+        <v>1.03</v>
+      </c>
+      <c r="Z12">
+        <v>3.13</v>
+      </c>
+      <c r="AA12">
+        <v>2.95</v>
+      </c>
+      <c r="AB12">
+        <v>2.49</v>
+      </c>
+      <c r="AC12">
+        <v>1.09</v>
+      </c>
+      <c r="AD12">
+        <v>6</v>
+      </c>
+      <c r="AE12">
+        <v>1.5</v>
+      </c>
+      <c r="AF12">
+        <v>2.4</v>
+      </c>
+      <c r="AG12">
+        <v>2.31</v>
+      </c>
+      <c r="AH12">
+        <v>1.54</v>
+      </c>
+      <c r="AI12">
+        <v>2.09</v>
+      </c>
+      <c r="AJ12">
+        <v>1.7</v>
+      </c>
+      <c r="AK12">
+        <v>1.55</v>
+      </c>
+      <c r="AL12">
+        <v>1.36</v>
+      </c>
+      <c r="AM12">
+        <v>1.38</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>2</v>
+      </c>
+      <c r="AV12">
+        <v>5</v>
+      </c>
+      <c r="AW12">
+        <v>10</v>
+      </c>
+      <c r="AX12">
+        <v>8</v>
+      </c>
+      <c r="AY12">
+        <v>12</v>
+      </c>
+      <c r="AZ12">
+        <v>13</v>
+      </c>
+      <c r="BA12">
+        <v>8</v>
+      </c>
+      <c r="BB12">
+        <v>5</v>
+      </c>
+      <c r="BC12">
+        <v>13</v>
+      </c>
+      <c r="BD12">
+        <v>2</v>
+      </c>
+      <c r="BE12">
+        <v>6.3</v>
+      </c>
+      <c r="BF12">
+        <v>2.3</v>
+      </c>
+      <c r="BG12">
+        <v>1.36</v>
+      </c>
+      <c r="BH12">
+        <v>3</v>
+      </c>
+      <c r="BI12">
+        <v>1.66</v>
+      </c>
+      <c r="BJ12">
+        <v>2.15</v>
+      </c>
+      <c r="BK12">
+        <v>2.12</v>
+      </c>
+      <c r="BL12">
+        <v>1.66</v>
+      </c>
+      <c r="BM12">
+        <v>2.88</v>
+      </c>
+      <c r="BN12">
+        <v>1.38</v>
+      </c>
+      <c r="BO12">
+        <v>4.1</v>
+      </c>
+      <c r="BP12">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7468878</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45527.625</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13">
+        <v>3.1</v>
+      </c>
+      <c r="R13">
+        <v>2.2</v>
+      </c>
+      <c r="S13">
+        <v>3.4</v>
+      </c>
+      <c r="T13">
+        <v>1.36</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>2.75</v>
+      </c>
+      <c r="W13">
+        <v>1.4</v>
+      </c>
+      <c r="X13">
+        <v>7</v>
+      </c>
+      <c r="Y13">
+        <v>1.1</v>
+      </c>
+      <c r="Z13">
+        <v>2.45</v>
+      </c>
+      <c r="AA13">
+        <v>3.42</v>
+      </c>
+      <c r="AB13">
+        <v>2.79</v>
+      </c>
+      <c r="AC13">
+        <v>1.05</v>
+      </c>
+      <c r="AD13">
+        <v>9.5</v>
+      </c>
+      <c r="AE13">
+        <v>1.28</v>
+      </c>
+      <c r="AF13">
+        <v>3.6</v>
+      </c>
+      <c r="AG13">
+        <v>1.86</v>
+      </c>
+      <c r="AH13">
+        <v>1.96</v>
+      </c>
+      <c r="AI13">
+        <v>1.67</v>
+      </c>
+      <c r="AJ13">
+        <v>2.1</v>
+      </c>
+      <c r="AK13">
+        <v>1.42</v>
+      </c>
+      <c r="AL13">
+        <v>1.25</v>
+      </c>
+      <c r="AM13">
+        <v>1.53</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>5</v>
+      </c>
+      <c r="AV13">
+        <v>5</v>
+      </c>
+      <c r="AW13">
+        <v>9</v>
+      </c>
+      <c r="AX13">
+        <v>5</v>
+      </c>
+      <c r="AY13">
+        <v>14</v>
+      </c>
+      <c r="AZ13">
+        <v>10</v>
+      </c>
+      <c r="BA13">
+        <v>7</v>
+      </c>
+      <c r="BB13">
+        <v>3</v>
+      </c>
+      <c r="BC13">
+        <v>10</v>
+      </c>
+      <c r="BD13">
+        <v>1.97</v>
+      </c>
+      <c r="BE13">
+        <v>6.45</v>
+      </c>
+      <c r="BF13">
+        <v>2.32</v>
+      </c>
+      <c r="BG13">
+        <v>1.27</v>
+      </c>
+      <c r="BH13">
+        <v>3.55</v>
+      </c>
+      <c r="BI13">
+        <v>1.5</v>
+      </c>
+      <c r="BJ13">
+        <v>2.48</v>
+      </c>
+      <c r="BK13">
+        <v>1.87</v>
+      </c>
+      <c r="BL13">
+        <v>1.87</v>
+      </c>
+      <c r="BM13">
+        <v>2.45</v>
+      </c>
+      <c r="BN13">
+        <v>1.5</v>
+      </c>
+      <c r="BO13">
+        <v>3.4</v>
+      </c>
+      <c r="BP13">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7468879</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45527.625</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14">
+        <v>3.06</v>
+      </c>
+      <c r="R14">
+        <v>2.24</v>
+      </c>
+      <c r="S14">
+        <v>3.48</v>
+      </c>
+      <c r="T14">
+        <v>1.37</v>
+      </c>
+      <c r="U14">
+        <v>3.06</v>
+      </c>
+      <c r="V14">
+        <v>2.85</v>
+      </c>
+      <c r="W14">
+        <v>1.42</v>
+      </c>
+      <c r="X14">
+        <v>6.95</v>
+      </c>
+      <c r="Y14">
+        <v>1.08</v>
+      </c>
+      <c r="Z14">
+        <v>2.46</v>
+      </c>
+      <c r="AA14">
+        <v>3.3</v>
+      </c>
+      <c r="AB14">
+        <v>2.85</v>
+      </c>
+      <c r="AC14">
+        <v>1.03</v>
+      </c>
+      <c r="AD14">
+        <v>9</v>
+      </c>
+      <c r="AE14">
+        <v>1.29</v>
+      </c>
+      <c r="AF14">
+        <v>3.3</v>
+      </c>
+      <c r="AG14">
+        <v>1.87</v>
+      </c>
+      <c r="AH14">
+        <v>1.84</v>
+      </c>
+      <c r="AI14">
+        <v>1.71</v>
+      </c>
+      <c r="AJ14">
+        <v>2.08</v>
+      </c>
+      <c r="AK14">
+        <v>1.43</v>
+      </c>
+      <c r="AL14">
+        <v>1.31</v>
+      </c>
+      <c r="AM14">
+        <v>1.56</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>3</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>3</v>
+      </c>
+      <c r="AV14">
+        <v>5</v>
+      </c>
+      <c r="AW14">
+        <v>3</v>
+      </c>
+      <c r="AX14">
+        <v>11</v>
+      </c>
+      <c r="AY14">
+        <v>6</v>
+      </c>
+      <c r="AZ14">
+        <v>16</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>7</v>
+      </c>
+      <c r="BC14">
+        <v>7</v>
+      </c>
+      <c r="BD14">
+        <v>1.96</v>
+      </c>
+      <c r="BE14">
+        <v>6.5</v>
+      </c>
+      <c r="BF14">
+        <v>2.33</v>
+      </c>
+      <c r="BG14">
+        <v>1.36</v>
+      </c>
+      <c r="BH14">
+        <v>3</v>
+      </c>
+      <c r="BI14">
+        <v>1.66</v>
+      </c>
+      <c r="BJ14">
+        <v>2.15</v>
+      </c>
+      <c r="BK14">
+        <v>2.12</v>
+      </c>
+      <c r="BL14">
+        <v>1.66</v>
+      </c>
+      <c r="BM14">
+        <v>2.88</v>
+      </c>
+      <c r="BN14">
+        <v>1.38</v>
+      </c>
+      <c r="BO14">
+        <v>4.1</v>
+      </c>
+      <c r="BP14">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7468880</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45527.625</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15">
+        <v>3.25</v>
+      </c>
+      <c r="R15">
+        <v>1.95</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <v>1.57</v>
+      </c>
+      <c r="U15">
+        <v>2.25</v>
+      </c>
+      <c r="V15">
+        <v>3.75</v>
+      </c>
+      <c r="W15">
+        <v>1.25</v>
+      </c>
+      <c r="X15">
+        <v>11</v>
+      </c>
+      <c r="Y15">
+        <v>1.05</v>
+      </c>
+      <c r="Z15">
+        <v>2.42</v>
+      </c>
+      <c r="AA15">
+        <v>3.1</v>
+      </c>
+      <c r="AB15">
+        <v>3.1</v>
+      </c>
+      <c r="AC15">
+        <v>1.1</v>
+      </c>
+      <c r="AD15">
+        <v>6.5</v>
+      </c>
+      <c r="AE15">
+        <v>1.52</v>
+      </c>
+      <c r="AF15">
+        <v>2.56</v>
+      </c>
+      <c r="AG15">
+        <v>2.25</v>
+      </c>
+      <c r="AH15">
+        <v>1.57</v>
+      </c>
+      <c r="AI15">
+        <v>2.1</v>
+      </c>
+      <c r="AJ15">
+        <v>1.67</v>
+      </c>
+      <c r="AK15">
+        <v>1.36</v>
+      </c>
+      <c r="AL15">
+        <v>1.3</v>
+      </c>
+      <c r="AM15">
+        <v>1.53</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>5</v>
+      </c>
+      <c r="AV15">
+        <v>4</v>
+      </c>
+      <c r="AW15">
+        <v>6</v>
+      </c>
+      <c r="AX15">
+        <v>5</v>
+      </c>
+      <c r="AY15">
+        <v>11</v>
+      </c>
+      <c r="AZ15">
+        <v>9</v>
+      </c>
+      <c r="BA15">
+        <v>6</v>
+      </c>
+      <c r="BB15">
+        <v>4</v>
+      </c>
+      <c r="BC15">
+        <v>10</v>
+      </c>
+      <c r="BD15">
+        <v>2.01</v>
+      </c>
+      <c r="BE15">
+        <v>6.35</v>
+      </c>
+      <c r="BF15">
+        <v>2.28</v>
+      </c>
+      <c r="BG15">
+        <v>1.33</v>
+      </c>
+      <c r="BH15">
+        <v>3.15</v>
+      </c>
+      <c r="BI15">
+        <v>1.6</v>
+      </c>
+      <c r="BJ15">
+        <v>2.25</v>
+      </c>
+      <c r="BK15">
+        <v>2.04</v>
+      </c>
+      <c r="BL15">
+        <v>1.73</v>
+      </c>
+      <c r="BM15">
+        <v>2.75</v>
+      </c>
+      <c r="BN15">
+        <v>1.42</v>
+      </c>
+      <c r="BO15">
+        <v>3.85</v>
+      </c>
+      <c r="BP15">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7468881</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45527.625</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="O16" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16">
+        <v>2.63</v>
+      </c>
+      <c r="R16">
+        <v>2.05</v>
+      </c>
+      <c r="S16">
+        <v>4.75</v>
+      </c>
+      <c r="T16">
+        <v>1.5</v>
+      </c>
+      <c r="U16">
+        <v>2.5</v>
+      </c>
+      <c r="V16">
+        <v>3.4</v>
+      </c>
+      <c r="W16">
+        <v>1.3</v>
+      </c>
+      <c r="X16">
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <v>1.06</v>
+      </c>
+      <c r="Z16">
+        <v>1.96</v>
+      </c>
+      <c r="AA16">
+        <v>3.32</v>
+      </c>
+      <c r="AB16">
+        <v>4.05</v>
+      </c>
+      <c r="AC16">
+        <v>1.08</v>
+      </c>
+      <c r="AD16">
+        <v>7.5</v>
+      </c>
+      <c r="AE16">
+        <v>1.42</v>
+      </c>
+      <c r="AF16">
+        <v>2.8</v>
+      </c>
+      <c r="AG16">
+        <v>2.33</v>
+      </c>
+      <c r="AH16">
+        <v>1.61</v>
+      </c>
+      <c r="AI16">
+        <v>2</v>
+      </c>
+      <c r="AJ16">
+        <v>1.73</v>
+      </c>
+      <c r="AK16">
+        <v>1.22</v>
+      </c>
+      <c r="AL16">
+        <v>1.28</v>
+      </c>
+      <c r="AM16">
+        <v>1.8</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>3</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>7</v>
+      </c>
+      <c r="AV16">
+        <v>6</v>
+      </c>
+      <c r="AW16">
+        <v>7</v>
+      </c>
+      <c r="AX16">
+        <v>2</v>
+      </c>
+      <c r="AY16">
+        <v>14</v>
+      </c>
+      <c r="AZ16">
+        <v>8</v>
+      </c>
+      <c r="BA16">
+        <v>17</v>
+      </c>
+      <c r="BB16">
+        <v>3</v>
+      </c>
+      <c r="BC16">
+        <v>20</v>
+      </c>
+      <c r="BD16">
+        <v>1.37</v>
+      </c>
+      <c r="BE16">
+        <v>7.5</v>
+      </c>
+      <c r="BF16">
+        <v>4.5</v>
+      </c>
+      <c r="BG16">
+        <v>1.36</v>
+      </c>
+      <c r="BH16">
+        <v>2.95</v>
+      </c>
+      <c r="BI16">
+        <v>1.67</v>
+      </c>
+      <c r="BJ16">
+        <v>2.12</v>
+      </c>
+      <c r="BK16">
+        <v>2.15</v>
+      </c>
+      <c r="BL16">
+        <v>1.65</v>
+      </c>
+      <c r="BM16">
+        <v>2.95</v>
+      </c>
+      <c r="BN16">
+        <v>1.37</v>
+      </c>
+      <c r="BO16">
+        <v>4.1</v>
+      </c>
+      <c r="BP16">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7468882</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45527.625</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17">
+        <v>2.3</v>
+      </c>
+      <c r="R17">
+        <v>2.22</v>
+      </c>
+      <c r="S17">
+        <v>5.57</v>
+      </c>
+      <c r="T17">
+        <v>1.42</v>
+      </c>
+      <c r="U17">
+        <v>2.84</v>
+      </c>
+      <c r="V17">
+        <v>3.12</v>
+      </c>
+      <c r="W17">
+        <v>1.36</v>
+      </c>
+      <c r="X17">
+        <v>7.8</v>
+      </c>
+      <c r="Y17">
+        <v>1.06</v>
+      </c>
+      <c r="Z17">
+        <v>1.65</v>
+      </c>
+      <c r="AA17">
+        <v>3.85</v>
+      </c>
+      <c r="AB17">
+        <v>5.15</v>
+      </c>
+      <c r="AC17">
+        <v>1.04</v>
+      </c>
+      <c r="AD17">
+        <v>8.5</v>
+      </c>
+      <c r="AE17">
+        <v>1.33</v>
+      </c>
+      <c r="AF17">
+        <v>3</v>
+      </c>
+      <c r="AG17">
+        <v>1.94</v>
+      </c>
+      <c r="AH17">
+        <v>1.77</v>
+      </c>
+      <c r="AI17">
+        <v>1.98</v>
+      </c>
+      <c r="AJ17">
+        <v>1.79</v>
+      </c>
+      <c r="AK17">
+        <v>1.17</v>
+      </c>
+      <c r="AL17">
+        <v>1.28</v>
+      </c>
+      <c r="AM17">
+        <v>2.12</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>3</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>5</v>
+      </c>
+      <c r="AV17">
+        <v>3</v>
+      </c>
+      <c r="AW17">
+        <v>4</v>
+      </c>
+      <c r="AX17">
+        <v>1</v>
+      </c>
+      <c r="AY17">
+        <v>9</v>
+      </c>
+      <c r="AZ17">
+        <v>4</v>
+      </c>
+      <c r="BA17">
+        <v>7</v>
+      </c>
+      <c r="BB17">
+        <v>1</v>
+      </c>
+      <c r="BC17">
+        <v>8</v>
+      </c>
+      <c r="BD17">
+        <v>1.31</v>
+      </c>
+      <c r="BE17">
+        <v>8.1</v>
+      </c>
+      <c r="BF17">
+        <v>5.05</v>
+      </c>
+      <c r="BG17">
+        <v>1.29</v>
+      </c>
+      <c r="BH17">
+        <v>3.4</v>
+      </c>
+      <c r="BI17">
+        <v>1.53</v>
+      </c>
+      <c r="BJ17">
+        <v>2.4</v>
+      </c>
+      <c r="BK17">
+        <v>1.92</v>
+      </c>
+      <c r="BL17">
+        <v>1.82</v>
+      </c>
+      <c r="BM17">
+        <v>2.55</v>
+      </c>
+      <c r="BN17">
+        <v>1.48</v>
+      </c>
+      <c r="BO17">
+        <v>3.5</v>
+      </c>
+      <c r="BP17">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -274,12 +274,12 @@
     <t>Paris</t>
   </si>
   <si>
+    <t>Lorient</t>
+  </si>
+  <si>
     <t>Red Star</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
     <t>['7', '60']</t>
   </si>
   <si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>['79', '88', '90']</t>
+  </si>
+  <si>
+    <t>['46', '68']</t>
   </si>
   <si>
     <t>['16', '45+2']</t>
@@ -708,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BP18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -967,7 +970,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1379,7 +1382,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1561,7 +1564,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1791,7 +1794,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2203,7 +2206,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2385,7 +2388,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2409,7 +2412,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2615,7 +2618,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2821,7 +2824,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3027,7 +3030,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3233,7 +3236,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3851,7 +3854,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4057,7 +4060,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4214,6 +4217,212 @@
       </c>
       <c r="BP17">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7468877</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45528.39583333334</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>100</v>
+      </c>
+      <c r="P18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q18">
+        <v>2.5</v>
+      </c>
+      <c r="R18">
+        <v>2.2</v>
+      </c>
+      <c r="S18">
+        <v>4.5</v>
+      </c>
+      <c r="T18">
+        <v>1.4</v>
+      </c>
+      <c r="U18">
+        <v>2.75</v>
+      </c>
+      <c r="V18">
+        <v>2.75</v>
+      </c>
+      <c r="W18">
+        <v>1.4</v>
+      </c>
+      <c r="X18">
+        <v>8</v>
+      </c>
+      <c r="Y18">
+        <v>1.08</v>
+      </c>
+      <c r="Z18">
+        <v>1.91</v>
+      </c>
+      <c r="AA18">
+        <v>3.3</v>
+      </c>
+      <c r="AB18">
+        <v>3.5</v>
+      </c>
+      <c r="AC18">
+        <v>1.06</v>
+      </c>
+      <c r="AD18">
+        <v>8.5</v>
+      </c>
+      <c r="AE18">
+        <v>1.33</v>
+      </c>
+      <c r="AF18">
+        <v>3.3</v>
+      </c>
+      <c r="AG18">
+        <v>1.73</v>
+      </c>
+      <c r="AH18">
+        <v>1.91</v>
+      </c>
+      <c r="AI18">
+        <v>1.8</v>
+      </c>
+      <c r="AJ18">
+        <v>1.91</v>
+      </c>
+      <c r="AK18">
+        <v>1.22</v>
+      </c>
+      <c r="AL18">
+        <v>1.25</v>
+      </c>
+      <c r="AM18">
+        <v>1.85</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>3</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>6</v>
+      </c>
+      <c r="AV18">
+        <v>4</v>
+      </c>
+      <c r="AW18">
+        <v>5</v>
+      </c>
+      <c r="AX18">
+        <v>3</v>
+      </c>
+      <c r="AY18">
+        <v>11</v>
+      </c>
+      <c r="AZ18">
+        <v>7</v>
+      </c>
+      <c r="BA18">
+        <v>9</v>
+      </c>
+      <c r="BB18">
+        <v>7</v>
+      </c>
+      <c r="BC18">
+        <v>16</v>
+      </c>
+      <c r="BD18">
+        <v>1.55</v>
+      </c>
+      <c r="BE18">
+        <v>8</v>
+      </c>
+      <c r="BF18">
+        <v>2.92</v>
+      </c>
+      <c r="BG18">
+        <v>1.33</v>
+      </c>
+      <c r="BH18">
+        <v>3.15</v>
+      </c>
+      <c r="BI18">
+        <v>1.6</v>
+      </c>
+      <c r="BJ18">
+        <v>2.25</v>
+      </c>
+      <c r="BK18">
+        <v>2.04</v>
+      </c>
+      <c r="BL18">
+        <v>1.73</v>
+      </c>
+      <c r="BM18">
+        <v>2.75</v>
+      </c>
+      <c r="BN18">
+        <v>1.42</v>
+      </c>
+      <c r="BO18">
+        <v>3.85</v>
+      </c>
+      <c r="BP18">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -3965,13 +3965,13 @@
         <v>8</v>
       </c>
       <c r="BA16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB16">
         <v>3</v>
       </c>
       <c r="BC16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BD16">
         <v>1.37</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="113">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>['46', '68']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
   <si>
     <t>['16', '45+2']</t>
@@ -711,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP18"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -970,7 +973,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1382,7 +1385,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1794,7 +1797,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2206,7 +2209,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2412,7 +2415,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2618,7 +2621,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2824,7 +2827,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3030,7 +3033,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3236,7 +3239,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3854,7 +3857,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4060,7 +4063,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4423,6 +4426,212 @@
       </c>
       <c r="BP18">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7468883</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45530.65625</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19">
+        <v>3.2</v>
+      </c>
+      <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
+        <v>3.75</v>
+      </c>
+      <c r="T19">
+        <v>1.53</v>
+      </c>
+      <c r="U19">
+        <v>2.38</v>
+      </c>
+      <c r="V19">
+        <v>3.5</v>
+      </c>
+      <c r="W19">
+        <v>1.29</v>
+      </c>
+      <c r="X19">
+        <v>11</v>
+      </c>
+      <c r="Y19">
+        <v>1.05</v>
+      </c>
+      <c r="Z19">
+        <v>2.33</v>
+      </c>
+      <c r="AA19">
+        <v>2.95</v>
+      </c>
+      <c r="AB19">
+        <v>3.15</v>
+      </c>
+      <c r="AC19">
+        <v>1.09</v>
+      </c>
+      <c r="AD19">
+        <v>7</v>
+      </c>
+      <c r="AE19">
+        <v>1.48</v>
+      </c>
+      <c r="AF19">
+        <v>2.65</v>
+      </c>
+      <c r="AG19">
+        <v>2.32</v>
+      </c>
+      <c r="AH19">
+        <v>1.58</v>
+      </c>
+      <c r="AI19">
+        <v>2</v>
+      </c>
+      <c r="AJ19">
+        <v>1.73</v>
+      </c>
+      <c r="AK19">
+        <v>1.35</v>
+      </c>
+      <c r="AL19">
+        <v>1.3</v>
+      </c>
+      <c r="AM19">
+        <v>1.55</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>3</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>3</v>
+      </c>
+      <c r="AV19">
+        <v>3</v>
+      </c>
+      <c r="AW19">
+        <v>2</v>
+      </c>
+      <c r="AX19">
+        <v>9</v>
+      </c>
+      <c r="AY19">
+        <v>5</v>
+      </c>
+      <c r="AZ19">
+        <v>12</v>
+      </c>
+      <c r="BA19">
+        <v>2</v>
+      </c>
+      <c r="BB19">
+        <v>8</v>
+      </c>
+      <c r="BC19">
+        <v>10</v>
+      </c>
+      <c r="BD19">
+        <v>1.75</v>
+      </c>
+      <c r="BE19">
+        <v>7.5</v>
+      </c>
+      <c r="BF19">
+        <v>2.45</v>
+      </c>
+      <c r="BG19">
+        <v>1.36</v>
+      </c>
+      <c r="BH19">
+        <v>2.95</v>
+      </c>
+      <c r="BI19">
+        <v>1.67</v>
+      </c>
+      <c r="BJ19">
+        <v>2.12</v>
+      </c>
+      <c r="BK19">
+        <v>2.15</v>
+      </c>
+      <c r="BL19">
+        <v>1.65</v>
+      </c>
+      <c r="BM19">
+        <v>2.95</v>
+      </c>
+      <c r="BN19">
+        <v>1.37</v>
+      </c>
+      <c r="BO19">
+        <v>4.1</v>
+      </c>
+      <c r="BP19">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -322,6 +322,21 @@
     <t>['3']</t>
   </si>
   <si>
+    <t>['52', '89']</t>
+  </si>
+  <si>
+    <t>['23', '45+1', '78']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -340,9 +355,6 @@
     <t>['38']</t>
   </si>
   <si>
-    <t>['23']</t>
-  </si>
-  <si>
     <t>['22']</t>
   </si>
   <si>
@@ -353,6 +365,21 @@
   </si>
   <si>
     <t>['40', '65']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['3', '40', '52', '60']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
 </sst>
 </file>
@@ -714,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -973,7 +1000,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1051,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1385,7 +1412,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1463,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1672,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1797,7 +1824,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1875,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2081,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2209,7 +2236,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2287,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8">
         <v>3</v>
@@ -2415,7 +2442,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2621,7 +2648,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2702,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2827,7 +2854,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3033,7 +3060,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3239,7 +3266,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3857,7 +3884,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4063,7 +4090,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4632,6 +4659,1448 @@
       </c>
       <c r="BP19">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7468890</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20">
+        <v>2.8</v>
+      </c>
+      <c r="R20">
+        <v>1.91</v>
+      </c>
+      <c r="S20">
+        <v>4.33</v>
+      </c>
+      <c r="T20">
+        <v>1.6</v>
+      </c>
+      <c r="U20">
+        <v>2.2</v>
+      </c>
+      <c r="V20">
+        <v>3.4</v>
+      </c>
+      <c r="W20">
+        <v>1.27</v>
+      </c>
+      <c r="X20">
+        <v>8.5</v>
+      </c>
+      <c r="Y20">
+        <v>1.04</v>
+      </c>
+      <c r="Z20">
+        <v>2.1</v>
+      </c>
+      <c r="AA20">
+        <v>2.95</v>
+      </c>
+      <c r="AB20">
+        <v>3.55</v>
+      </c>
+      <c r="AC20">
+        <v>1.07</v>
+      </c>
+      <c r="AD20">
+        <v>7</v>
+      </c>
+      <c r="AE20">
+        <v>1.44</v>
+      </c>
+      <c r="AF20">
+        <v>2.6</v>
+      </c>
+      <c r="AG20">
+        <v>2.5</v>
+      </c>
+      <c r="AH20">
+        <v>1.5</v>
+      </c>
+      <c r="AI20">
+        <v>2.1</v>
+      </c>
+      <c r="AJ20">
+        <v>1.73</v>
+      </c>
+      <c r="AK20">
+        <v>1.22</v>
+      </c>
+      <c r="AL20">
+        <v>1.32</v>
+      </c>
+      <c r="AM20">
+        <v>1.7</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>3</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0.67</v>
+      </c>
+      <c r="AS20">
+        <v>1.16</v>
+      </c>
+      <c r="AT20">
+        <v>1.83</v>
+      </c>
+      <c r="AU20">
+        <v>6</v>
+      </c>
+      <c r="AV20">
+        <v>5</v>
+      </c>
+      <c r="AW20">
+        <v>9</v>
+      </c>
+      <c r="AX20">
+        <v>1</v>
+      </c>
+      <c r="AY20">
+        <v>15</v>
+      </c>
+      <c r="AZ20">
+        <v>6</v>
+      </c>
+      <c r="BA20">
+        <v>7</v>
+      </c>
+      <c r="BB20">
+        <v>3</v>
+      </c>
+      <c r="BC20">
+        <v>10</v>
+      </c>
+      <c r="BD20">
+        <v>1.64</v>
+      </c>
+      <c r="BE20">
+        <v>7.5</v>
+      </c>
+      <c r="BF20">
+        <v>2.78</v>
+      </c>
+      <c r="BG20">
+        <v>1.44</v>
+      </c>
+      <c r="BH20">
+        <v>2.58</v>
+      </c>
+      <c r="BI20">
+        <v>1.82</v>
+      </c>
+      <c r="BJ20">
+        <v>1.98</v>
+      </c>
+      <c r="BK20">
+        <v>2.34</v>
+      </c>
+      <c r="BL20">
+        <v>1.53</v>
+      </c>
+      <c r="BM20">
+        <v>3.18</v>
+      </c>
+      <c r="BN20">
+        <v>1.28</v>
+      </c>
+      <c r="BO20">
+        <v>4.55</v>
+      </c>
+      <c r="BP20">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7468892</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>2.1</v>
+      </c>
+      <c r="S21">
+        <v>3.6</v>
+      </c>
+      <c r="T21">
+        <v>1.4</v>
+      </c>
+      <c r="U21">
+        <v>2.75</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>1.36</v>
+      </c>
+      <c r="X21">
+        <v>9</v>
+      </c>
+      <c r="Y21">
+        <v>1.07</v>
+      </c>
+      <c r="Z21">
+        <v>2.65</v>
+      </c>
+      <c r="AA21">
+        <v>3</v>
+      </c>
+      <c r="AB21">
+        <v>2.65</v>
+      </c>
+      <c r="AC21">
+        <v>1.04</v>
+      </c>
+      <c r="AD21">
+        <v>8.5</v>
+      </c>
+      <c r="AE21">
+        <v>1.3</v>
+      </c>
+      <c r="AF21">
+        <v>3.1</v>
+      </c>
+      <c r="AG21">
+        <v>2.1</v>
+      </c>
+      <c r="AH21">
+        <v>1.68</v>
+      </c>
+      <c r="AI21">
+        <v>1.8</v>
+      </c>
+      <c r="AJ21">
+        <v>1.91</v>
+      </c>
+      <c r="AK21">
+        <v>1.4</v>
+      </c>
+      <c r="AL21">
+        <v>1.35</v>
+      </c>
+      <c r="AM21">
+        <v>1.55</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>0.5</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>1.81</v>
+      </c>
+      <c r="AS21">
+        <v>1.63</v>
+      </c>
+      <c r="AT21">
+        <v>3.44</v>
+      </c>
+      <c r="AU21">
+        <v>3</v>
+      </c>
+      <c r="AV21">
+        <v>4</v>
+      </c>
+      <c r="AW21">
+        <v>3</v>
+      </c>
+      <c r="AX21">
+        <v>2</v>
+      </c>
+      <c r="AY21">
+        <v>6</v>
+      </c>
+      <c r="AZ21">
+        <v>6</v>
+      </c>
+      <c r="BA21">
+        <v>4</v>
+      </c>
+      <c r="BB21">
+        <v>4</v>
+      </c>
+      <c r="BC21">
+        <v>8</v>
+      </c>
+      <c r="BD21">
+        <v>1.75</v>
+      </c>
+      <c r="BE21">
+        <v>8</v>
+      </c>
+      <c r="BF21">
+        <v>2.44</v>
+      </c>
+      <c r="BG21">
+        <v>1.38</v>
+      </c>
+      <c r="BH21">
+        <v>2.8</v>
+      </c>
+      <c r="BI21">
+        <v>1.65</v>
+      </c>
+      <c r="BJ21">
+        <v>2.1</v>
+      </c>
+      <c r="BK21">
+        <v>2.05</v>
+      </c>
+      <c r="BL21">
+        <v>1.7</v>
+      </c>
+      <c r="BM21">
+        <v>2.6</v>
+      </c>
+      <c r="BN21">
+        <v>1.44</v>
+      </c>
+      <c r="BO21">
+        <v>3.4</v>
+      </c>
+      <c r="BP21">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7468889</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+      <c r="O22" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22">
+        <v>2.88</v>
+      </c>
+      <c r="R22">
+        <v>2.05</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <v>1.44</v>
+      </c>
+      <c r="U22">
+        <v>2.63</v>
+      </c>
+      <c r="V22">
+        <v>3.4</v>
+      </c>
+      <c r="W22">
+        <v>1.3</v>
+      </c>
+      <c r="X22">
+        <v>10</v>
+      </c>
+      <c r="Y22">
+        <v>1.06</v>
+      </c>
+      <c r="Z22">
+        <v>1.8</v>
+      </c>
+      <c r="AA22">
+        <v>3.3</v>
+      </c>
+      <c r="AB22">
+        <v>4.4</v>
+      </c>
+      <c r="AC22">
+        <v>1.05</v>
+      </c>
+      <c r="AD22">
+        <v>8</v>
+      </c>
+      <c r="AE22">
+        <v>1.37</v>
+      </c>
+      <c r="AF22">
+        <v>2.76</v>
+      </c>
+      <c r="AG22">
+        <v>2.05</v>
+      </c>
+      <c r="AH22">
+        <v>1.73</v>
+      </c>
+      <c r="AI22">
+        <v>1.83</v>
+      </c>
+      <c r="AJ22">
+        <v>1.83</v>
+      </c>
+      <c r="AK22">
+        <v>1.27</v>
+      </c>
+      <c r="AL22">
+        <v>1.31</v>
+      </c>
+      <c r="AM22">
+        <v>1.82</v>
+      </c>
+      <c r="AN22">
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>1.5</v>
+      </c>
+      <c r="AQ22">
+        <v>1.5</v>
+      </c>
+      <c r="AR22">
+        <v>1.64</v>
+      </c>
+      <c r="AS22">
+        <v>1.26</v>
+      </c>
+      <c r="AT22">
+        <v>2.9</v>
+      </c>
+      <c r="AU22">
+        <v>7</v>
+      </c>
+      <c r="AV22">
+        <v>7</v>
+      </c>
+      <c r="AW22">
+        <v>7</v>
+      </c>
+      <c r="AX22">
+        <v>5</v>
+      </c>
+      <c r="AY22">
+        <v>14</v>
+      </c>
+      <c r="AZ22">
+        <v>12</v>
+      </c>
+      <c r="BA22">
+        <v>8</v>
+      </c>
+      <c r="BB22">
+        <v>4</v>
+      </c>
+      <c r="BC22">
+        <v>12</v>
+      </c>
+      <c r="BD22">
+        <v>1.55</v>
+      </c>
+      <c r="BE22">
+        <v>8.5</v>
+      </c>
+      <c r="BF22">
+        <v>3.01</v>
+      </c>
+      <c r="BG22">
+        <v>1.29</v>
+      </c>
+      <c r="BH22">
+        <v>3.14</v>
+      </c>
+      <c r="BI22">
+        <v>1.56</v>
+      </c>
+      <c r="BJ22">
+        <v>2.27</v>
+      </c>
+      <c r="BK22">
+        <v>2</v>
+      </c>
+      <c r="BL22">
+        <v>1.8</v>
+      </c>
+      <c r="BM22">
+        <v>2.57</v>
+      </c>
+      <c r="BN22">
+        <v>1.44</v>
+      </c>
+      <c r="BO22">
+        <v>3.48</v>
+      </c>
+      <c r="BP22">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7468886</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23">
+        <v>3.25</v>
+      </c>
+      <c r="R23">
+        <v>2.1</v>
+      </c>
+      <c r="S23">
+        <v>3.4</v>
+      </c>
+      <c r="T23">
+        <v>1.44</v>
+      </c>
+      <c r="U23">
+        <v>2.63</v>
+      </c>
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>1.36</v>
+      </c>
+      <c r="X23">
+        <v>9</v>
+      </c>
+      <c r="Y23">
+        <v>1.07</v>
+      </c>
+      <c r="Z23">
+        <v>2.8</v>
+      </c>
+      <c r="AA23">
+        <v>2.95</v>
+      </c>
+      <c r="AB23">
+        <v>2.55</v>
+      </c>
+      <c r="AC23">
+        <v>1.07</v>
+      </c>
+      <c r="AD23">
+        <v>10.25</v>
+      </c>
+      <c r="AE23">
+        <v>1.32</v>
+      </c>
+      <c r="AF23">
+        <v>3.43</v>
+      </c>
+      <c r="AG23">
+        <v>2.16</v>
+      </c>
+      <c r="AH23">
+        <v>1.66</v>
+      </c>
+      <c r="AI23">
+        <v>1.73</v>
+      </c>
+      <c r="AJ23">
+        <v>2</v>
+      </c>
+      <c r="AK23">
+        <v>1.45</v>
+      </c>
+      <c r="AL23">
+        <v>1.38</v>
+      </c>
+      <c r="AM23">
+        <v>1.45</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>2</v>
+      </c>
+      <c r="AR23">
+        <v>0.67</v>
+      </c>
+      <c r="AS23">
+        <v>0.75</v>
+      </c>
+      <c r="AT23">
+        <v>1.42</v>
+      </c>
+      <c r="AU23">
+        <v>2</v>
+      </c>
+      <c r="AV23">
+        <v>5</v>
+      </c>
+      <c r="AW23">
+        <v>6</v>
+      </c>
+      <c r="AX23">
+        <v>5</v>
+      </c>
+      <c r="AY23">
+        <v>8</v>
+      </c>
+      <c r="AZ23">
+        <v>10</v>
+      </c>
+      <c r="BA23">
+        <v>8</v>
+      </c>
+      <c r="BB23">
+        <v>3</v>
+      </c>
+      <c r="BC23">
+        <v>11</v>
+      </c>
+      <c r="BD23">
+        <v>1.95</v>
+      </c>
+      <c r="BE23">
+        <v>7.5</v>
+      </c>
+      <c r="BF23">
+        <v>2.1</v>
+      </c>
+      <c r="BG23">
+        <v>1.35</v>
+      </c>
+      <c r="BH23">
+        <v>2.84</v>
+      </c>
+      <c r="BI23">
+        <v>1.65</v>
+      </c>
+      <c r="BJ23">
+        <v>2.11</v>
+      </c>
+      <c r="BK23">
+        <v>2.05</v>
+      </c>
+      <c r="BL23">
+        <v>1.7</v>
+      </c>
+      <c r="BM23">
+        <v>2.84</v>
+      </c>
+      <c r="BN23">
+        <v>1.37</v>
+      </c>
+      <c r="BO23">
+        <v>3.92</v>
+      </c>
+      <c r="BP23">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7468887</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q24">
+        <v>2.62</v>
+      </c>
+      <c r="R24">
+        <v>2.2</v>
+      </c>
+      <c r="S24">
+        <v>3.8</v>
+      </c>
+      <c r="T24">
+        <v>1.36</v>
+      </c>
+      <c r="U24">
+        <v>2.9</v>
+      </c>
+      <c r="V24">
+        <v>2.62</v>
+      </c>
+      <c r="W24">
+        <v>1.42</v>
+      </c>
+      <c r="X24">
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <v>1.09</v>
+      </c>
+      <c r="Z24">
+        <v>2.1</v>
+      </c>
+      <c r="AA24">
+        <v>3.25</v>
+      </c>
+      <c r="AB24">
+        <v>3.35</v>
+      </c>
+      <c r="AC24">
+        <v>1.02</v>
+      </c>
+      <c r="AD24">
+        <v>10</v>
+      </c>
+      <c r="AE24">
+        <v>1.29</v>
+      </c>
+      <c r="AF24">
+        <v>3.4</v>
+      </c>
+      <c r="AG24">
+        <v>1.83</v>
+      </c>
+      <c r="AH24">
+        <v>1.93</v>
+      </c>
+      <c r="AI24">
+        <v>1.73</v>
+      </c>
+      <c r="AJ24">
+        <v>2</v>
+      </c>
+      <c r="AK24">
+        <v>1.33</v>
+      </c>
+      <c r="AL24">
+        <v>1.3</v>
+      </c>
+      <c r="AM24">
+        <v>1.73</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>3</v>
+      </c>
+      <c r="AP24">
+        <v>0.5</v>
+      </c>
+      <c r="AQ24">
+        <v>2</v>
+      </c>
+      <c r="AR24">
+        <v>1.39</v>
+      </c>
+      <c r="AS24">
+        <v>1.65</v>
+      </c>
+      <c r="AT24">
+        <v>3.04</v>
+      </c>
+      <c r="AU24">
+        <v>2</v>
+      </c>
+      <c r="AV24">
+        <v>5</v>
+      </c>
+      <c r="AW24">
+        <v>8</v>
+      </c>
+      <c r="AX24">
+        <v>3</v>
+      </c>
+      <c r="AY24">
+        <v>10</v>
+      </c>
+      <c r="AZ24">
+        <v>8</v>
+      </c>
+      <c r="BA24">
+        <v>6</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>6</v>
+      </c>
+      <c r="BD24">
+        <v>1.75</v>
+      </c>
+      <c r="BE24">
+        <v>8</v>
+      </c>
+      <c r="BF24">
+        <v>2.44</v>
+      </c>
+      <c r="BG24">
+        <v>1.25</v>
+      </c>
+      <c r="BH24">
+        <v>3.42</v>
+      </c>
+      <c r="BI24">
+        <v>1.49</v>
+      </c>
+      <c r="BJ24">
+        <v>2.44</v>
+      </c>
+      <c r="BK24">
+        <v>1.95</v>
+      </c>
+      <c r="BL24">
+        <v>1.78</v>
+      </c>
+      <c r="BM24">
+        <v>2.39</v>
+      </c>
+      <c r="BN24">
+        <v>1.51</v>
+      </c>
+      <c r="BO24">
+        <v>3.2</v>
+      </c>
+      <c r="BP24">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7468885</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q25">
+        <v>2.83</v>
+      </c>
+      <c r="R25">
+        <v>2.12</v>
+      </c>
+      <c r="S25">
+        <v>3.74</v>
+      </c>
+      <c r="T25">
+        <v>1.41</v>
+      </c>
+      <c r="U25">
+        <v>2.78</v>
+      </c>
+      <c r="V25">
+        <v>2.86</v>
+      </c>
+      <c r="W25">
+        <v>1.39</v>
+      </c>
+      <c r="X25">
+        <v>7.3</v>
+      </c>
+      <c r="Y25">
+        <v>1.07</v>
+      </c>
+      <c r="Z25">
+        <v>2.15</v>
+      </c>
+      <c r="AA25">
+        <v>3.2</v>
+      </c>
+      <c r="AB25">
+        <v>3.2</v>
+      </c>
+      <c r="AC25">
+        <v>1.02</v>
+      </c>
+      <c r="AD25">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE25">
+        <v>1.28</v>
+      </c>
+      <c r="AF25">
+        <v>3.18</v>
+      </c>
+      <c r="AG25">
+        <v>1.97</v>
+      </c>
+      <c r="AH25">
+        <v>1.79</v>
+      </c>
+      <c r="AI25">
+        <v>1.77</v>
+      </c>
+      <c r="AJ25">
+        <v>1.98</v>
+      </c>
+      <c r="AK25">
+        <v>1.36</v>
+      </c>
+      <c r="AL25">
+        <v>1.32</v>
+      </c>
+      <c r="AM25">
+        <v>1.65</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>1.19</v>
+      </c>
+      <c r="AS25">
+        <v>1.31</v>
+      </c>
+      <c r="AT25">
+        <v>2.5</v>
+      </c>
+      <c r="AU25">
+        <v>5</v>
+      </c>
+      <c r="AV25">
+        <v>6</v>
+      </c>
+      <c r="AW25">
+        <v>3</v>
+      </c>
+      <c r="AX25">
+        <v>6</v>
+      </c>
+      <c r="AY25">
+        <v>8</v>
+      </c>
+      <c r="AZ25">
+        <v>12</v>
+      </c>
+      <c r="BA25">
+        <v>5</v>
+      </c>
+      <c r="BB25">
+        <v>11</v>
+      </c>
+      <c r="BC25">
+        <v>16</v>
+      </c>
+      <c r="BD25">
+        <v>1.69</v>
+      </c>
+      <c r="BE25">
+        <v>8</v>
+      </c>
+      <c r="BF25">
+        <v>2.54</v>
+      </c>
+      <c r="BG25">
+        <v>1.28</v>
+      </c>
+      <c r="BH25">
+        <v>3.2</v>
+      </c>
+      <c r="BI25">
+        <v>1.53</v>
+      </c>
+      <c r="BJ25">
+        <v>2.34</v>
+      </c>
+      <c r="BK25">
+        <v>2.05</v>
+      </c>
+      <c r="BL25">
+        <v>1.7</v>
+      </c>
+      <c r="BM25">
+        <v>2.49</v>
+      </c>
+      <c r="BN25">
+        <v>1.47</v>
+      </c>
+      <c r="BO25">
+        <v>3.34</v>
+      </c>
+      <c r="BP25">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7468888</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q26">
+        <v>3.35</v>
+      </c>
+      <c r="R26">
+        <v>2.12</v>
+      </c>
+      <c r="S26">
+        <v>3.1</v>
+      </c>
+      <c r="T26">
+        <v>1.4</v>
+      </c>
+      <c r="U26">
+        <v>2.82</v>
+      </c>
+      <c r="V26">
+        <v>2.86</v>
+      </c>
+      <c r="W26">
+        <v>1.39</v>
+      </c>
+      <c r="X26">
+        <v>7.2</v>
+      </c>
+      <c r="Y26">
+        <v>1.08</v>
+      </c>
+      <c r="Z26">
+        <v>2.65</v>
+      </c>
+      <c r="AA26">
+        <v>3.05</v>
+      </c>
+      <c r="AB26">
+        <v>2.6</v>
+      </c>
+      <c r="AC26">
+        <v>1.02</v>
+      </c>
+      <c r="AD26">
+        <v>8.9</v>
+      </c>
+      <c r="AE26">
+        <v>1.28</v>
+      </c>
+      <c r="AF26">
+        <v>3.22</v>
+      </c>
+      <c r="AG26">
+        <v>1.93</v>
+      </c>
+      <c r="AH26">
+        <v>1.83</v>
+      </c>
+      <c r="AI26">
+        <v>1.74</v>
+      </c>
+      <c r="AJ26">
+        <v>2.02</v>
+      </c>
+      <c r="AK26">
+        <v>1.52</v>
+      </c>
+      <c r="AL26">
+        <v>1.32</v>
+      </c>
+      <c r="AM26">
+        <v>1.46</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>1.5</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>2.13</v>
+      </c>
+      <c r="AS26">
+        <v>0.73</v>
+      </c>
+      <c r="AT26">
+        <v>2.86</v>
+      </c>
+      <c r="AU26">
+        <v>4</v>
+      </c>
+      <c r="AV26">
+        <v>2</v>
+      </c>
+      <c r="AW26">
+        <v>7</v>
+      </c>
+      <c r="AX26">
+        <v>5</v>
+      </c>
+      <c r="AY26">
+        <v>11</v>
+      </c>
+      <c r="AZ26">
+        <v>7</v>
+      </c>
+      <c r="BA26">
+        <v>3</v>
+      </c>
+      <c r="BB26">
+        <v>9</v>
+      </c>
+      <c r="BC26">
+        <v>12</v>
+      </c>
+      <c r="BD26">
+        <v>2.1</v>
+      </c>
+      <c r="BE26">
+        <v>8</v>
+      </c>
+      <c r="BF26">
+        <v>2</v>
+      </c>
+      <c r="BG26">
+        <v>1.23</v>
+      </c>
+      <c r="BH26">
+        <v>3.56</v>
+      </c>
+      <c r="BI26">
+        <v>1.45</v>
+      </c>
+      <c r="BJ26">
+        <v>2.55</v>
+      </c>
+      <c r="BK26">
+        <v>1.92</v>
+      </c>
+      <c r="BL26">
+        <v>1.88</v>
+      </c>
+      <c r="BM26">
+        <v>2.29</v>
+      </c>
+      <c r="BN26">
+        <v>1.55</v>
+      </c>
+      <c r="BO26">
+        <v>3.04</v>
+      </c>
+      <c r="BP26">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -337,6 +337,12 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -380,6 +386,9 @@
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
 </sst>
 </file>
@@ -741,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,7 +1009,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1412,7 +1421,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1824,7 +1833,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1905,7 +1914,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2236,7 +2245,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2442,7 +2451,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2523,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2648,7 +2657,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3060,7 +3069,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3266,7 +3275,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3884,7 +3893,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4090,7 +4099,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4708,7 +4717,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -4914,7 +4923,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5120,7 +5129,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5326,7 +5335,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5532,7 +5541,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5738,7 +5747,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>2.83</v>
@@ -6101,6 +6110,418 @@
       </c>
       <c r="BP26">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7468891</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45535.39583333334</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>2.05</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>1.44</v>
+      </c>
+      <c r="U27">
+        <v>2.63</v>
+      </c>
+      <c r="V27">
+        <v>3.25</v>
+      </c>
+      <c r="W27">
+        <v>1.33</v>
+      </c>
+      <c r="X27">
+        <v>10</v>
+      </c>
+      <c r="Y27">
+        <v>1.06</v>
+      </c>
+      <c r="Z27">
+        <v>3.1</v>
+      </c>
+      <c r="AA27">
+        <v>3.2</v>
+      </c>
+      <c r="AB27">
+        <v>2.3</v>
+      </c>
+      <c r="AC27">
+        <v>1.04</v>
+      </c>
+      <c r="AD27">
+        <v>7.8</v>
+      </c>
+      <c r="AE27">
+        <v>1.35</v>
+      </c>
+      <c r="AF27">
+        <v>2.84</v>
+      </c>
+      <c r="AG27">
+        <v>2.14</v>
+      </c>
+      <c r="AH27">
+        <v>1.67</v>
+      </c>
+      <c r="AI27">
+        <v>1.83</v>
+      </c>
+      <c r="AJ27">
+        <v>1.83</v>
+      </c>
+      <c r="AK27">
+        <v>1.63</v>
+      </c>
+      <c r="AL27">
+        <v>1.33</v>
+      </c>
+      <c r="AM27">
+        <v>1.35</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>3</v>
+      </c>
+      <c r="AP27">
+        <v>3</v>
+      </c>
+      <c r="AQ27">
+        <v>1.5</v>
+      </c>
+      <c r="AR27">
+        <v>1.55</v>
+      </c>
+      <c r="AS27">
+        <v>1.86</v>
+      </c>
+      <c r="AT27">
+        <v>3.41</v>
+      </c>
+      <c r="AU27">
+        <v>8</v>
+      </c>
+      <c r="AV27">
+        <v>9</v>
+      </c>
+      <c r="AW27">
+        <v>3</v>
+      </c>
+      <c r="AX27">
+        <v>6</v>
+      </c>
+      <c r="AY27">
+        <v>11</v>
+      </c>
+      <c r="AZ27">
+        <v>15</v>
+      </c>
+      <c r="BA27">
+        <v>9</v>
+      </c>
+      <c r="BB27">
+        <v>12</v>
+      </c>
+      <c r="BC27">
+        <v>21</v>
+      </c>
+      <c r="BD27">
+        <v>2.1</v>
+      </c>
+      <c r="BE27">
+        <v>7.5</v>
+      </c>
+      <c r="BF27">
+        <v>1.95</v>
+      </c>
+      <c r="BG27">
+        <v>1.36</v>
+      </c>
+      <c r="BH27">
+        <v>3</v>
+      </c>
+      <c r="BI27">
+        <v>1.66</v>
+      </c>
+      <c r="BJ27">
+        <v>2.15</v>
+      </c>
+      <c r="BK27">
+        <v>2.05</v>
+      </c>
+      <c r="BL27">
+        <v>1.7</v>
+      </c>
+      <c r="BM27">
+        <v>2.88</v>
+      </c>
+      <c r="BN27">
+        <v>1.38</v>
+      </c>
+      <c r="BO27">
+        <v>4.1</v>
+      </c>
+      <c r="BP27">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7468893</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45535.39583333334</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28">
+        <v>2.6</v>
+      </c>
+      <c r="R28">
+        <v>2.1</v>
+      </c>
+      <c r="S28">
+        <v>4.33</v>
+      </c>
+      <c r="T28">
+        <v>1.4</v>
+      </c>
+      <c r="U28">
+        <v>2.75</v>
+      </c>
+      <c r="V28">
+        <v>3</v>
+      </c>
+      <c r="W28">
+        <v>1.36</v>
+      </c>
+      <c r="X28">
+        <v>8</v>
+      </c>
+      <c r="Y28">
+        <v>1.08</v>
+      </c>
+      <c r="Z28">
+        <v>1.93</v>
+      </c>
+      <c r="AA28">
+        <v>3.2</v>
+      </c>
+      <c r="AB28">
+        <v>4.1</v>
+      </c>
+      <c r="AC28">
+        <v>1.07</v>
+      </c>
+      <c r="AD28">
+        <v>10.25</v>
+      </c>
+      <c r="AE28">
+        <v>1.32</v>
+      </c>
+      <c r="AF28">
+        <v>3.42</v>
+      </c>
+      <c r="AG28">
+        <v>2.14</v>
+      </c>
+      <c r="AH28">
+        <v>1.67</v>
+      </c>
+      <c r="AI28">
+        <v>1.83</v>
+      </c>
+      <c r="AJ28">
+        <v>1.83</v>
+      </c>
+      <c r="AK28">
+        <v>1.25</v>
+      </c>
+      <c r="AL28">
+        <v>1.29</v>
+      </c>
+      <c r="AM28">
+        <v>1.91</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28">
+        <v>0.5</v>
+      </c>
+      <c r="AR28">
+        <v>1.92</v>
+      </c>
+      <c r="AS28">
+        <v>1.41</v>
+      </c>
+      <c r="AT28">
+        <v>3.33</v>
+      </c>
+      <c r="AU28">
+        <v>4</v>
+      </c>
+      <c r="AV28">
+        <v>5</v>
+      </c>
+      <c r="AW28">
+        <v>13</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>17</v>
+      </c>
+      <c r="AZ28">
+        <v>5</v>
+      </c>
+      <c r="BA28">
+        <v>4</v>
+      </c>
+      <c r="BB28">
+        <v>3</v>
+      </c>
+      <c r="BC28">
+        <v>7</v>
+      </c>
+      <c r="BD28">
+        <v>1.75</v>
+      </c>
+      <c r="BE28">
+        <v>8</v>
+      </c>
+      <c r="BF28">
+        <v>2.52</v>
+      </c>
+      <c r="BG28">
+        <v>1.32</v>
+      </c>
+      <c r="BH28">
+        <v>3.2</v>
+      </c>
+      <c r="BI28">
+        <v>1.58</v>
+      </c>
+      <c r="BJ28">
+        <v>2.28</v>
+      </c>
+      <c r="BK28">
+        <v>1.95</v>
+      </c>
+      <c r="BL28">
+        <v>1.78</v>
+      </c>
+      <c r="BM28">
+        <v>2.7</v>
+      </c>
+      <c r="BN28">
+        <v>1.43</v>
+      </c>
+      <c r="BO28">
+        <v>3.8</v>
+      </c>
+      <c r="BP28">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="133">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,21 @@
     <t>['90+4']</t>
   </si>
   <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['12', '77']</t>
+  </si>
+  <si>
+    <t>['19', '61', '79']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['33', '68', '70']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -355,9 +370,6 @@
     <t>['76', '86']</t>
   </si>
   <si>
-    <t>['61']</t>
-  </si>
-  <si>
     <t>['38']</t>
   </si>
   <si>
@@ -389,6 +401,18 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['38', '71']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP28"/>
+  <dimension ref="A1:BP35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1009,7 +1033,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1087,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1421,7 +1445,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1708,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1833,7 +1857,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2120,7 +2144,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2245,7 +2269,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2451,7 +2475,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2657,7 +2681,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3069,7 +3093,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3147,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ12">
         <v>3</v>
@@ -3275,7 +3299,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3765,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3893,7 +3917,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -3971,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4099,7 +4123,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4180,7 +4204,7 @@
         <v>3</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4592,7 +4616,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4717,7 +4741,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -4798,7 +4822,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -4923,7 +4947,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5001,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ21">
         <v>3</v>
@@ -5129,7 +5153,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5210,7 +5234,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.64</v>
@@ -5335,7 +5359,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5541,7 +5565,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5747,7 +5771,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>2.83</v>
@@ -6365,7 +6389,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6522,6 +6546,1448 @@
       </c>
       <c r="BP28">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7468902</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>109</v>
+      </c>
+      <c r="P29" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q29">
+        <v>3.2</v>
+      </c>
+      <c r="R29">
+        <v>1.77</v>
+      </c>
+      <c r="S29">
+        <v>4.2</v>
+      </c>
+      <c r="T29">
+        <v>1.67</v>
+      </c>
+      <c r="U29">
+        <v>2.1</v>
+      </c>
+      <c r="V29">
+        <v>4</v>
+      </c>
+      <c r="W29">
+        <v>1.2</v>
+      </c>
+      <c r="X29">
+        <v>11.75</v>
+      </c>
+      <c r="Y29">
+        <v>1.02</v>
+      </c>
+      <c r="Z29">
+        <v>2.4</v>
+      </c>
+      <c r="AA29">
+        <v>2.7</v>
+      </c>
+      <c r="AB29">
+        <v>3.2</v>
+      </c>
+      <c r="AC29">
+        <v>1.14</v>
+      </c>
+      <c r="AD29">
+        <v>5.5</v>
+      </c>
+      <c r="AE29">
+        <v>1.62</v>
+      </c>
+      <c r="AF29">
+        <v>2.23</v>
+      </c>
+      <c r="AG29">
+        <v>2.85</v>
+      </c>
+      <c r="AH29">
+        <v>1.37</v>
+      </c>
+      <c r="AI29">
+        <v>2.25</v>
+      </c>
+      <c r="AJ29">
+        <v>1.55</v>
+      </c>
+      <c r="AK29">
+        <v>1.3</v>
+      </c>
+      <c r="AL29">
+        <v>1.36</v>
+      </c>
+      <c r="AM29">
+        <v>1.57</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0.5</v>
+      </c>
+      <c r="AQ29">
+        <v>0.5</v>
+      </c>
+      <c r="AR29">
+        <v>1.48</v>
+      </c>
+      <c r="AS29">
+        <v>1.4</v>
+      </c>
+      <c r="AT29">
+        <v>2.88</v>
+      </c>
+      <c r="AU29">
+        <v>5</v>
+      </c>
+      <c r="AV29">
+        <v>4</v>
+      </c>
+      <c r="AW29">
+        <v>5</v>
+      </c>
+      <c r="AX29">
+        <v>1</v>
+      </c>
+      <c r="AY29">
+        <v>10</v>
+      </c>
+      <c r="AZ29">
+        <v>5</v>
+      </c>
+      <c r="BA29">
+        <v>6</v>
+      </c>
+      <c r="BB29">
+        <v>5</v>
+      </c>
+      <c r="BC29">
+        <v>11</v>
+      </c>
+      <c r="BD29">
+        <v>1.69</v>
+      </c>
+      <c r="BE29">
+        <v>7.5</v>
+      </c>
+      <c r="BF29">
+        <v>2.55</v>
+      </c>
+      <c r="BG29">
+        <v>1.45</v>
+      </c>
+      <c r="BH29">
+        <v>2.63</v>
+      </c>
+      <c r="BI29">
+        <v>1.85</v>
+      </c>
+      <c r="BJ29">
+        <v>1.95</v>
+      </c>
+      <c r="BK29">
+        <v>2.4</v>
+      </c>
+      <c r="BL29">
+        <v>1.53</v>
+      </c>
+      <c r="BM29">
+        <v>3.35</v>
+      </c>
+      <c r="BN29">
+        <v>1.3</v>
+      </c>
+      <c r="BO29">
+        <v>4.8</v>
+      </c>
+      <c r="BP29">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7468901</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>110</v>
+      </c>
+      <c r="P30" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q30">
+        <v>2.2</v>
+      </c>
+      <c r="R30">
+        <v>2.2</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>1.44</v>
+      </c>
+      <c r="U30">
+        <v>2.63</v>
+      </c>
+      <c r="V30">
+        <v>3.25</v>
+      </c>
+      <c r="W30">
+        <v>1.33</v>
+      </c>
+      <c r="X30">
+        <v>9</v>
+      </c>
+      <c r="Y30">
+        <v>1.07</v>
+      </c>
+      <c r="Z30">
+        <v>1.53</v>
+      </c>
+      <c r="AA30">
+        <v>3.9</v>
+      </c>
+      <c r="AB30">
+        <v>6</v>
+      </c>
+      <c r="AC30">
+        <v>1.03</v>
+      </c>
+      <c r="AD30">
+        <v>9</v>
+      </c>
+      <c r="AE30">
+        <v>1.29</v>
+      </c>
+      <c r="AF30">
+        <v>3.3</v>
+      </c>
+      <c r="AG30">
+        <v>1.86</v>
+      </c>
+      <c r="AH30">
+        <v>1.84</v>
+      </c>
+      <c r="AI30">
+        <v>2.1</v>
+      </c>
+      <c r="AJ30">
+        <v>1.67</v>
+      </c>
+      <c r="AK30">
+        <v>1.1</v>
+      </c>
+      <c r="AL30">
+        <v>1.22</v>
+      </c>
+      <c r="AM30">
+        <v>2.4</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>1.5</v>
+      </c>
+      <c r="AP30">
+        <v>3</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>1.49</v>
+      </c>
+      <c r="AS30">
+        <v>1.41</v>
+      </c>
+      <c r="AT30">
+        <v>2.9</v>
+      </c>
+      <c r="AU30">
+        <v>9</v>
+      </c>
+      <c r="AV30">
+        <v>4</v>
+      </c>
+      <c r="AW30">
+        <v>6</v>
+      </c>
+      <c r="AX30">
+        <v>2</v>
+      </c>
+      <c r="AY30">
+        <v>15</v>
+      </c>
+      <c r="AZ30">
+        <v>6</v>
+      </c>
+      <c r="BA30">
+        <v>13</v>
+      </c>
+      <c r="BB30">
+        <v>1</v>
+      </c>
+      <c r="BC30">
+        <v>14</v>
+      </c>
+      <c r="BD30">
+        <v>1.26</v>
+      </c>
+      <c r="BE30">
+        <v>10</v>
+      </c>
+      <c r="BF30">
+        <v>4.86</v>
+      </c>
+      <c r="BG30">
+        <v>1.25</v>
+      </c>
+      <c r="BH30">
+        <v>3.7</v>
+      </c>
+      <c r="BI30">
+        <v>1.47</v>
+      </c>
+      <c r="BJ30">
+        <v>2.55</v>
+      </c>
+      <c r="BK30">
+        <v>1.85</v>
+      </c>
+      <c r="BL30">
+        <v>1.95</v>
+      </c>
+      <c r="BM30">
+        <v>2.38</v>
+      </c>
+      <c r="BN30">
+        <v>1.54</v>
+      </c>
+      <c r="BO30">
+        <v>3.25</v>
+      </c>
+      <c r="BP30">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7468900</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>90</v>
+      </c>
+      <c r="P31" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q31">
+        <v>2.1</v>
+      </c>
+      <c r="R31">
+        <v>2.25</v>
+      </c>
+      <c r="S31">
+        <v>6.5</v>
+      </c>
+      <c r="T31">
+        <v>1.4</v>
+      </c>
+      <c r="U31">
+        <v>2.75</v>
+      </c>
+      <c r="V31">
+        <v>2.75</v>
+      </c>
+      <c r="W31">
+        <v>1.4</v>
+      </c>
+      <c r="X31">
+        <v>8</v>
+      </c>
+      <c r="Y31">
+        <v>1.08</v>
+      </c>
+      <c r="Z31">
+        <v>1.9</v>
+      </c>
+      <c r="AA31">
+        <v>3.15</v>
+      </c>
+      <c r="AB31">
+        <v>4.1</v>
+      </c>
+      <c r="AC31">
+        <v>1.03</v>
+      </c>
+      <c r="AD31">
+        <v>9</v>
+      </c>
+      <c r="AE31">
+        <v>1.25</v>
+      </c>
+      <c r="AF31">
+        <v>3.6</v>
+      </c>
+      <c r="AG31">
+        <v>1.98</v>
+      </c>
+      <c r="AH31">
+        <v>1.88</v>
+      </c>
+      <c r="AI31">
+        <v>2</v>
+      </c>
+      <c r="AJ31">
+        <v>1.73</v>
+      </c>
+      <c r="AK31">
+        <v>1.08</v>
+      </c>
+      <c r="AL31">
+        <v>1.22</v>
+      </c>
+      <c r="AM31">
+        <v>2.45</v>
+      </c>
+      <c r="AN31">
+        <v>0.5</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0.33</v>
+      </c>
+      <c r="AQ31">
+        <v>1.5</v>
+      </c>
+      <c r="AR31">
+        <v>1.38</v>
+      </c>
+      <c r="AS31">
+        <v>0.83</v>
+      </c>
+      <c r="AT31">
+        <v>2.21</v>
+      </c>
+      <c r="AU31">
+        <v>2</v>
+      </c>
+      <c r="AV31">
+        <v>5</v>
+      </c>
+      <c r="AW31">
+        <v>2</v>
+      </c>
+      <c r="AX31">
+        <v>2</v>
+      </c>
+      <c r="AY31">
+        <v>4</v>
+      </c>
+      <c r="AZ31">
+        <v>7</v>
+      </c>
+      <c r="BA31">
+        <v>3</v>
+      </c>
+      <c r="BB31">
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <v>6</v>
+      </c>
+      <c r="BD31">
+        <v>1.37</v>
+      </c>
+      <c r="BE31">
+        <v>9</v>
+      </c>
+      <c r="BF31">
+        <v>3.7</v>
+      </c>
+      <c r="BG31">
+        <v>1.3</v>
+      </c>
+      <c r="BH31">
+        <v>3.3</v>
+      </c>
+      <c r="BI31">
+        <v>1.56</v>
+      </c>
+      <c r="BJ31">
+        <v>2.33</v>
+      </c>
+      <c r="BK31">
+        <v>2</v>
+      </c>
+      <c r="BL31">
+        <v>1.8</v>
+      </c>
+      <c r="BM31">
+        <v>2.63</v>
+      </c>
+      <c r="BN31">
+        <v>1.45</v>
+      </c>
+      <c r="BO31">
+        <v>3.65</v>
+      </c>
+      <c r="BP31">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7468899</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q32">
+        <v>2.75</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+      <c r="T32">
+        <v>1.48</v>
+      </c>
+      <c r="U32">
+        <v>2.45</v>
+      </c>
+      <c r="V32">
+        <v>3.2</v>
+      </c>
+      <c r="W32">
+        <v>1.3</v>
+      </c>
+      <c r="X32">
+        <v>8.4</v>
+      </c>
+      <c r="Y32">
+        <v>1.05</v>
+      </c>
+      <c r="Z32">
+        <v>2.2</v>
+      </c>
+      <c r="AA32">
+        <v>3.05</v>
+      </c>
+      <c r="AB32">
+        <v>3.15</v>
+      </c>
+      <c r="AC32">
+        <v>1.07</v>
+      </c>
+      <c r="AD32">
+        <v>8</v>
+      </c>
+      <c r="AE32">
+        <v>1.4</v>
+      </c>
+      <c r="AF32">
+        <v>2.9</v>
+      </c>
+      <c r="AG32">
+        <v>2.09</v>
+      </c>
+      <c r="AH32">
+        <v>1.66</v>
+      </c>
+      <c r="AI32">
+        <v>1.9</v>
+      </c>
+      <c r="AJ32">
+        <v>1.77</v>
+      </c>
+      <c r="AK32">
+        <v>1.28</v>
+      </c>
+      <c r="AL32">
+        <v>1.28</v>
+      </c>
+      <c r="AM32">
+        <v>1.7</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>1.5</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>2.15</v>
+      </c>
+      <c r="AS32">
+        <v>1.1</v>
+      </c>
+      <c r="AT32">
+        <v>3.25</v>
+      </c>
+      <c r="AU32">
+        <v>6</v>
+      </c>
+      <c r="AV32">
+        <v>5</v>
+      </c>
+      <c r="AW32">
+        <v>4</v>
+      </c>
+      <c r="AX32">
+        <v>6</v>
+      </c>
+      <c r="AY32">
+        <v>10</v>
+      </c>
+      <c r="AZ32">
+        <v>11</v>
+      </c>
+      <c r="BA32">
+        <v>6</v>
+      </c>
+      <c r="BB32">
+        <v>7</v>
+      </c>
+      <c r="BC32">
+        <v>13</v>
+      </c>
+      <c r="BD32">
+        <v>1.45</v>
+      </c>
+      <c r="BE32">
+        <v>8.5</v>
+      </c>
+      <c r="BF32">
+        <v>3.29</v>
+      </c>
+      <c r="BG32">
+        <v>1.29</v>
+      </c>
+      <c r="BH32">
+        <v>3.4</v>
+      </c>
+      <c r="BI32">
+        <v>1.53</v>
+      </c>
+      <c r="BJ32">
+        <v>2.4</v>
+      </c>
+      <c r="BK32">
+        <v>1.95</v>
+      </c>
+      <c r="BL32">
+        <v>1.85</v>
+      </c>
+      <c r="BM32">
+        <v>2.55</v>
+      </c>
+      <c r="BN32">
+        <v>1.48</v>
+      </c>
+      <c r="BO32">
+        <v>3.5</v>
+      </c>
+      <c r="BP32">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7468897</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>112</v>
+      </c>
+      <c r="P33" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q33">
+        <v>3.3</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>3.2</v>
+      </c>
+      <c r="T33">
+        <v>1.45</v>
+      </c>
+      <c r="U33">
+        <v>2.55</v>
+      </c>
+      <c r="V33">
+        <v>3</v>
+      </c>
+      <c r="W33">
+        <v>1.33</v>
+      </c>
+      <c r="X33">
+        <v>8.1</v>
+      </c>
+      <c r="Y33">
+        <v>1.06</v>
+      </c>
+      <c r="Z33">
+        <v>2.95</v>
+      </c>
+      <c r="AA33">
+        <v>3.05</v>
+      </c>
+      <c r="AB33">
+        <v>2.35</v>
+      </c>
+      <c r="AC33">
+        <v>1.07</v>
+      </c>
+      <c r="AD33">
+        <v>8</v>
+      </c>
+      <c r="AE33">
+        <v>1.38</v>
+      </c>
+      <c r="AF33">
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <v>2.07</v>
+      </c>
+      <c r="AH33">
+        <v>1.67</v>
+      </c>
+      <c r="AI33">
+        <v>1.77</v>
+      </c>
+      <c r="AJ33">
+        <v>1.9</v>
+      </c>
+      <c r="AK33">
+        <v>1.48</v>
+      </c>
+      <c r="AL33">
+        <v>1.28</v>
+      </c>
+      <c r="AM33">
+        <v>1.44</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>3</v>
+      </c>
+      <c r="AR33">
+        <v>1.69</v>
+      </c>
+      <c r="AS33">
+        <v>1.53</v>
+      </c>
+      <c r="AT33">
+        <v>3.22</v>
+      </c>
+      <c r="AU33">
+        <v>9</v>
+      </c>
+      <c r="AV33">
+        <v>6</v>
+      </c>
+      <c r="AW33">
+        <v>9</v>
+      </c>
+      <c r="AX33">
+        <v>3</v>
+      </c>
+      <c r="AY33">
+        <v>18</v>
+      </c>
+      <c r="AZ33">
+        <v>9</v>
+      </c>
+      <c r="BA33">
+        <v>5</v>
+      </c>
+      <c r="BB33">
+        <v>5</v>
+      </c>
+      <c r="BC33">
+        <v>10</v>
+      </c>
+      <c r="BD33">
+        <v>1.85</v>
+      </c>
+      <c r="BE33">
+        <v>8</v>
+      </c>
+      <c r="BF33">
+        <v>2.28</v>
+      </c>
+      <c r="BG33">
+        <v>1.26</v>
+      </c>
+      <c r="BH33">
+        <v>3.65</v>
+      </c>
+      <c r="BI33">
+        <v>1.48</v>
+      </c>
+      <c r="BJ33">
+        <v>2.55</v>
+      </c>
+      <c r="BK33">
+        <v>1.88</v>
+      </c>
+      <c r="BL33">
+        <v>1.92</v>
+      </c>
+      <c r="BM33">
+        <v>2.43</v>
+      </c>
+      <c r="BN33">
+        <v>1.52</v>
+      </c>
+      <c r="BO33">
+        <v>3.3</v>
+      </c>
+      <c r="BP33">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7468896</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>90</v>
+      </c>
+      <c r="P34" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q34">
+        <v>2.4</v>
+      </c>
+      <c r="R34">
+        <v>2.05</v>
+      </c>
+      <c r="S34">
+        <v>4.75</v>
+      </c>
+      <c r="T34">
+        <v>1.45</v>
+      </c>
+      <c r="U34">
+        <v>2.55</v>
+      </c>
+      <c r="V34">
+        <v>3.1</v>
+      </c>
+      <c r="W34">
+        <v>1.33</v>
+      </c>
+      <c r="X34">
+        <v>8.1</v>
+      </c>
+      <c r="Y34">
+        <v>1.06</v>
+      </c>
+      <c r="Z34">
+        <v>1.73</v>
+      </c>
+      <c r="AA34">
+        <v>3.4</v>
+      </c>
+      <c r="AB34">
+        <v>4.7</v>
+      </c>
+      <c r="AC34">
+        <v>1.07</v>
+      </c>
+      <c r="AD34">
+        <v>8</v>
+      </c>
+      <c r="AE34">
+        <v>1.38</v>
+      </c>
+      <c r="AF34">
+        <v>3</v>
+      </c>
+      <c r="AG34">
+        <v>2.03</v>
+      </c>
+      <c r="AH34">
+        <v>1.7</v>
+      </c>
+      <c r="AI34">
+        <v>1.95</v>
+      </c>
+      <c r="AJ34">
+        <v>1.73</v>
+      </c>
+      <c r="AK34">
+        <v>1.18</v>
+      </c>
+      <c r="AL34">
+        <v>1.25</v>
+      </c>
+      <c r="AM34">
+        <v>2</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>2</v>
+      </c>
+      <c r="AQ34">
+        <v>0.33</v>
+      </c>
+      <c r="AR34">
+        <v>1.55</v>
+      </c>
+      <c r="AS34">
+        <v>1.04</v>
+      </c>
+      <c r="AT34">
+        <v>2.59</v>
+      </c>
+      <c r="AU34">
+        <v>4</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>4</v>
+      </c>
+      <c r="AX34">
+        <v>1</v>
+      </c>
+      <c r="AY34">
+        <v>8</v>
+      </c>
+      <c r="AZ34">
+        <v>4</v>
+      </c>
+      <c r="BA34">
+        <v>5</v>
+      </c>
+      <c r="BB34">
+        <v>6</v>
+      </c>
+      <c r="BC34">
+        <v>11</v>
+      </c>
+      <c r="BD34">
+        <v>1.45</v>
+      </c>
+      <c r="BE34">
+        <v>8.5</v>
+      </c>
+      <c r="BF34">
+        <v>3.29</v>
+      </c>
+      <c r="BG34">
+        <v>1.32</v>
+      </c>
+      <c r="BH34">
+        <v>3.2</v>
+      </c>
+      <c r="BI34">
+        <v>1.58</v>
+      </c>
+      <c r="BJ34">
+        <v>2.28</v>
+      </c>
+      <c r="BK34">
+        <v>2.02</v>
+      </c>
+      <c r="BL34">
+        <v>1.74</v>
+      </c>
+      <c r="BM34">
+        <v>2.7</v>
+      </c>
+      <c r="BN34">
+        <v>1.43</v>
+      </c>
+      <c r="BO34">
+        <v>3.75</v>
+      </c>
+      <c r="BP34">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7468898</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45548.625</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35" t="s">
+        <v>113</v>
+      </c>
+      <c r="P35" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q35">
+        <v>2.5</v>
+      </c>
+      <c r="R35">
+        <v>2.2</v>
+      </c>
+      <c r="S35">
+        <v>4.5</v>
+      </c>
+      <c r="T35">
+        <v>1.4</v>
+      </c>
+      <c r="U35">
+        <v>2.75</v>
+      </c>
+      <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="W35">
+        <v>1.36</v>
+      </c>
+      <c r="X35">
+        <v>8</v>
+      </c>
+      <c r="Y35">
+        <v>1.08</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>3.1</v>
+      </c>
+      <c r="AB35">
+        <v>3.85</v>
+      </c>
+      <c r="AC35">
+        <v>1.06</v>
+      </c>
+      <c r="AD35">
+        <v>8.5</v>
+      </c>
+      <c r="AE35">
+        <v>1.33</v>
+      </c>
+      <c r="AF35">
+        <v>3.25</v>
+      </c>
+      <c r="AG35">
+        <v>2.03</v>
+      </c>
+      <c r="AH35">
+        <v>1.83</v>
+      </c>
+      <c r="AI35">
+        <v>1.83</v>
+      </c>
+      <c r="AJ35">
+        <v>1.83</v>
+      </c>
+      <c r="AK35">
+        <v>1.22</v>
+      </c>
+      <c r="AL35">
+        <v>1.32</v>
+      </c>
+      <c r="AM35">
+        <v>1.9</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>3</v>
+      </c>
+      <c r="AQ35">
+        <v>1.5</v>
+      </c>
+      <c r="AR35">
+        <v>0.82</v>
+      </c>
+      <c r="AS35">
+        <v>1.24</v>
+      </c>
+      <c r="AT35">
+        <v>2.06</v>
+      </c>
+      <c r="AU35">
+        <v>10</v>
+      </c>
+      <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>7</v>
+      </c>
+      <c r="AX35">
+        <v>5</v>
+      </c>
+      <c r="AY35">
+        <v>17</v>
+      </c>
+      <c r="AZ35">
+        <v>9</v>
+      </c>
+      <c r="BA35">
+        <v>5</v>
+      </c>
+      <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
+        <v>8</v>
+      </c>
+      <c r="BD35">
+        <v>1.37</v>
+      </c>
+      <c r="BE35">
+        <v>9</v>
+      </c>
+      <c r="BF35">
+        <v>3.7</v>
+      </c>
+      <c r="BG35">
+        <v>1.3</v>
+      </c>
+      <c r="BH35">
+        <v>3.3</v>
+      </c>
+      <c r="BI35">
+        <v>1.56</v>
+      </c>
+      <c r="BJ35">
+        <v>2.33</v>
+      </c>
+      <c r="BK35">
+        <v>2</v>
+      </c>
+      <c r="BL35">
+        <v>1.8</v>
+      </c>
+      <c r="BM35">
+        <v>2.63</v>
+      </c>
+      <c r="BN35">
+        <v>1.45</v>
+      </c>
+      <c r="BO35">
+        <v>3.65</v>
+      </c>
+      <c r="BP35">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="135">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,15 +328,15 @@
     <t>['23', '45+1', '78']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
     <t>['55']</t>
   </si>
   <si>
-    <t>['23']</t>
-  </si>
-  <si>
     <t>['37']</t>
   </si>
   <si>
@@ -349,13 +349,16 @@
     <t>['12', '77']</t>
   </si>
   <si>
+    <t>['33', '68', '70']</t>
+  </si>
+  <si>
     <t>['19', '61', '79']</t>
   </si>
   <si>
     <t>['61']</t>
   </si>
   <si>
-    <t>['33', '68', '70']</t>
+    <t>['31']</t>
   </si>
   <si>
     <t>['16', '45+2']</t>
@@ -391,12 +394,12 @@
     <t>['3', '40', '52', '60']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['50']</t>
   </si>
   <si>
-    <t>['52']</t>
-  </si>
-  <si>
     <t>['68']</t>
   </si>
   <si>
@@ -413,6 +416,9 @@
   </si>
   <si>
     <t>['38', '71']</t>
+  </si>
+  <si>
+    <t>['13', '25']</t>
   </si>
 </sst>
 </file>
@@ -774,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP35"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1033,7 +1039,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1445,7 +1451,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1857,7 +1863,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2269,7 +2275,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2475,7 +2481,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2681,7 +2687,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2887,7 +2893,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3093,7 +3099,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3299,7 +3305,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3917,7 +3923,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4123,7 +4129,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4201,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4741,7 +4747,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -4947,7 +4953,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5153,7 +5159,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5317,7 +5323,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7468886</v>
+        <v>7468888</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5332,190 +5338,190 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
       <c r="O23" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" t="s">
         <v>90</v>
       </c>
-      <c r="P23" t="s">
-        <v>125</v>
-      </c>
       <c r="Q23">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="R23">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S23">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T23">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U23">
-        <v>2.63</v>
+        <v>2.82</v>
       </c>
       <c r="V23">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="W23">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X23">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="Y23">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z23">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AA23">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AB23">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AC23">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AD23">
-        <v>10.25</v>
+        <v>8.9</v>
       </c>
       <c r="AE23">
+        <v>1.28</v>
+      </c>
+      <c r="AF23">
+        <v>3.22</v>
+      </c>
+      <c r="AG23">
+        <v>1.93</v>
+      </c>
+      <c r="AH23">
+        <v>1.83</v>
+      </c>
+      <c r="AI23">
+        <v>1.74</v>
+      </c>
+      <c r="AJ23">
+        <v>2.02</v>
+      </c>
+      <c r="AK23">
+        <v>1.52</v>
+      </c>
+      <c r="AL23">
         <v>1.32</v>
       </c>
-      <c r="AF23">
-        <v>3.43</v>
-      </c>
-      <c r="AG23">
-        <v>2.16</v>
-      </c>
-      <c r="AH23">
-        <v>1.66</v>
-      </c>
-      <c r="AI23">
-        <v>1.73</v>
-      </c>
-      <c r="AJ23">
-        <v>2</v>
-      </c>
-      <c r="AK23">
-        <v>1.45</v>
-      </c>
-      <c r="AL23">
-        <v>1.38</v>
-      </c>
       <c r="AM23">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="AN23">
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR23">
-        <v>0.67</v>
+        <v>2.13</v>
       </c>
       <c r="AS23">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="AT23">
-        <v>1.42</v>
+        <v>2.86</v>
       </c>
       <c r="AU23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX23">
         <v>5</v>
       </c>
       <c r="AY23">
+        <v>11</v>
+      </c>
+      <c r="AZ23">
+        <v>7</v>
+      </c>
+      <c r="BA23">
+        <v>3</v>
+      </c>
+      <c r="BB23">
+        <v>9</v>
+      </c>
+      <c r="BC23">
+        <v>12</v>
+      </c>
+      <c r="BD23">
+        <v>2.1</v>
+      </c>
+      <c r="BE23">
         <v>8</v>
       </c>
-      <c r="AZ23">
-        <v>10</v>
-      </c>
-      <c r="BA23">
-        <v>8</v>
-      </c>
-      <c r="BB23">
-        <v>3</v>
-      </c>
-      <c r="BC23">
-        <v>11</v>
-      </c>
-      <c r="BD23">
-        <v>1.95</v>
-      </c>
-      <c r="BE23">
-        <v>7.5</v>
-      </c>
       <c r="BF23">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BG23">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="BH23">
-        <v>2.84</v>
+        <v>3.56</v>
       </c>
       <c r="BI23">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="BJ23">
-        <v>2.11</v>
+        <v>2.55</v>
       </c>
       <c r="BK23">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="BL23">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="BM23">
-        <v>2.84</v>
+        <v>2.29</v>
       </c>
       <c r="BN23">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="BO23">
-        <v>3.92</v>
+        <v>3.04</v>
       </c>
       <c r="BP23">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5562,7 +5568,7 @@
         <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P24" t="s">
         <v>126</v>
@@ -5729,7 +5735,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7468885</v>
+        <v>7468886</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5744,10 +5750,10 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5759,157 +5765,157 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="P25" t="s">
         <v>127</v>
       </c>
       <c r="Q25">
-        <v>2.83</v>
+        <v>3.25</v>
       </c>
       <c r="R25">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S25">
-        <v>3.74</v>
+        <v>3.4</v>
       </c>
       <c r="T25">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U25">
-        <v>2.78</v>
+        <v>2.63</v>
       </c>
       <c r="V25">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="W25">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="X25">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="Y25">
         <v>1.07</v>
       </c>
       <c r="Z25">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="AA25">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="AB25">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="AC25">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AD25">
-        <v>8.800000000000001</v>
+        <v>10.25</v>
       </c>
       <c r="AE25">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AF25">
-        <v>3.18</v>
+        <v>3.43</v>
       </c>
       <c r="AG25">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="AH25">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="AI25">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AJ25">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AK25">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AL25">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AM25">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO25">
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR25">
-        <v>1.19</v>
+        <v>0.67</v>
       </c>
       <c r="AS25">
-        <v>1.31</v>
+        <v>0.75</v>
       </c>
       <c r="AT25">
-        <v>2.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU25">
+        <v>2</v>
+      </c>
+      <c r="AV25">
         <v>5</v>
       </c>
-      <c r="AV25">
+      <c r="AW25">
         <v>6</v>
       </c>
-      <c r="AW25">
-        <v>3</v>
-      </c>
       <c r="AX25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY25">
         <v>8</v>
       </c>
       <c r="AZ25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB25">
+        <v>3</v>
+      </c>
+      <c r="BC25">
         <v>11</v>
       </c>
-      <c r="BC25">
-        <v>16</v>
-      </c>
       <c r="BD25">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="BE25">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF25">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="BG25">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="BH25">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="BI25">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="BJ25">
-        <v>2.34</v>
+        <v>2.11</v>
       </c>
       <c r="BK25">
         <v>2.05</v>
@@ -5918,16 +5924,16 @@
         <v>1.7</v>
       </c>
       <c r="BM25">
-        <v>2.49</v>
+        <v>2.84</v>
       </c>
       <c r="BN25">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="BO25">
-        <v>3.34</v>
+        <v>3.92</v>
       </c>
       <c r="BP25">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -5935,7 +5941,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7468888</v>
+        <v>7468885</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -5950,49 +5956,49 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" t="s">
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="Q26">
-        <v>3.35</v>
+        <v>2.83</v>
       </c>
       <c r="R26">
         <v>2.12</v>
       </c>
       <c r="S26">
-        <v>3.1</v>
+        <v>3.74</v>
       </c>
       <c r="T26">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="U26">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="V26">
         <v>2.86</v>
@@ -6001,139 +6007,139 @@
         <v>1.39</v>
       </c>
       <c r="X26">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y26">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z26">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="AA26">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AB26">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AC26">
         <v>1.02</v>
       </c>
       <c r="AD26">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE26">
         <v>1.28</v>
       </c>
       <c r="AF26">
-        <v>3.22</v>
+        <v>3.18</v>
       </c>
       <c r="AG26">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AH26">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AI26">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="AJ26">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AK26">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="AL26">
         <v>1.32</v>
       </c>
       <c r="AM26">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR26">
-        <v>2.13</v>
+        <v>1.19</v>
       </c>
       <c r="AS26">
-        <v>0.73</v>
+        <v>1.31</v>
       </c>
       <c r="AT26">
-        <v>2.86</v>
+        <v>2.5</v>
       </c>
       <c r="AU26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX26">
+        <v>6</v>
+      </c>
+      <c r="AY26">
+        <v>8</v>
+      </c>
+      <c r="AZ26">
+        <v>12</v>
+      </c>
+      <c r="BA26">
         <v>5</v>
       </c>
-      <c r="AY26">
+      <c r="BB26">
         <v>11</v>
       </c>
-      <c r="AZ26">
-        <v>7</v>
-      </c>
-      <c r="BA26">
-        <v>3</v>
-      </c>
-      <c r="BB26">
-        <v>9</v>
-      </c>
       <c r="BC26">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BD26">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="BE26">
         <v>8</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="BG26">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="BH26">
-        <v>3.56</v>
+        <v>3.2</v>
       </c>
       <c r="BI26">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="BJ26">
-        <v>2.55</v>
+        <v>2.34</v>
       </c>
       <c r="BK26">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="BL26">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="BM26">
-        <v>2.29</v>
+        <v>2.49</v>
       </c>
       <c r="BN26">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="BO26">
-        <v>3.04</v>
+        <v>3.34</v>
       </c>
       <c r="BP26">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6389,7 +6395,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6595,7 +6601,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6801,7 +6807,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -6915,10 +6921,10 @@
         <v>13</v>
       </c>
       <c r="BB30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD30">
         <v>1.26</v>
@@ -7007,7 +7013,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7171,7 +7177,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7468899</v>
+        <v>7468898</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7186,10 +7192,10 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -7216,160 +7222,160 @@
         <v>90</v>
       </c>
       <c r="Q32">
+        <v>2.5</v>
+      </c>
+      <c r="R32">
+        <v>2.2</v>
+      </c>
+      <c r="S32">
+        <v>4.5</v>
+      </c>
+      <c r="T32">
+        <v>1.4</v>
+      </c>
+      <c r="U32">
         <v>2.75</v>
       </c>
-      <c r="R32">
-        <v>2</v>
-      </c>
-      <c r="S32">
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>1.36</v>
+      </c>
+      <c r="X32">
+        <v>8</v>
+      </c>
+      <c r="Y32">
+        <v>1.08</v>
+      </c>
+      <c r="Z32">
+        <v>2</v>
+      </c>
+      <c r="AA32">
+        <v>3.1</v>
+      </c>
+      <c r="AB32">
+        <v>3.85</v>
+      </c>
+      <c r="AC32">
+        <v>1.06</v>
+      </c>
+      <c r="AD32">
+        <v>8.5</v>
+      </c>
+      <c r="AE32">
+        <v>1.33</v>
+      </c>
+      <c r="AF32">
+        <v>3.25</v>
+      </c>
+      <c r="AG32">
+        <v>2.03</v>
+      </c>
+      <c r="AH32">
+        <v>1.83</v>
+      </c>
+      <c r="AI32">
+        <v>1.83</v>
+      </c>
+      <c r="AJ32">
+        <v>1.83</v>
+      </c>
+      <c r="AK32">
+        <v>1.22</v>
+      </c>
+      <c r="AL32">
+        <v>1.32</v>
+      </c>
+      <c r="AM32">
+        <v>1.9</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <v>3</v>
+      </c>
+      <c r="AQ32">
+        <v>1.5</v>
+      </c>
+      <c r="AR32">
+        <v>0.82</v>
+      </c>
+      <c r="AS32">
+        <v>1.24</v>
+      </c>
+      <c r="AT32">
+        <v>2.06</v>
+      </c>
+      <c r="AU32">
+        <v>10</v>
+      </c>
+      <c r="AV32">
         <v>4</v>
       </c>
-      <c r="T32">
-        <v>1.48</v>
-      </c>
-      <c r="U32">
-        <v>2.45</v>
-      </c>
-      <c r="V32">
-        <v>3.2</v>
-      </c>
-      <c r="W32">
+      <c r="AW32">
+        <v>7</v>
+      </c>
+      <c r="AX32">
+        <v>5</v>
+      </c>
+      <c r="AY32">
+        <v>17</v>
+      </c>
+      <c r="AZ32">
+        <v>9</v>
+      </c>
+      <c r="BA32">
+        <v>5</v>
+      </c>
+      <c r="BB32">
+        <v>3</v>
+      </c>
+      <c r="BC32">
+        <v>8</v>
+      </c>
+      <c r="BD32">
+        <v>1.37</v>
+      </c>
+      <c r="BE32">
+        <v>9</v>
+      </c>
+      <c r="BF32">
+        <v>3.7</v>
+      </c>
+      <c r="BG32">
         <v>1.3</v>
       </c>
-      <c r="X32">
-        <v>8.4</v>
-      </c>
-      <c r="Y32">
-        <v>1.05</v>
-      </c>
-      <c r="Z32">
-        <v>2.2</v>
-      </c>
-      <c r="AA32">
-        <v>3.05</v>
-      </c>
-      <c r="AB32">
-        <v>3.15</v>
-      </c>
-      <c r="AC32">
-        <v>1.07</v>
-      </c>
-      <c r="AD32">
-        <v>8</v>
-      </c>
-      <c r="AE32">
-        <v>1.4</v>
-      </c>
-      <c r="AF32">
-        <v>2.9</v>
-      </c>
-      <c r="AG32">
-        <v>2.09</v>
-      </c>
-      <c r="AH32">
-        <v>1.66</v>
-      </c>
-      <c r="AI32">
-        <v>1.9</v>
-      </c>
-      <c r="AJ32">
-        <v>1.77</v>
-      </c>
-      <c r="AK32">
-        <v>1.28</v>
-      </c>
-      <c r="AL32">
-        <v>1.28</v>
-      </c>
-      <c r="AM32">
-        <v>1.7</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1.5</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>2.15</v>
-      </c>
-      <c r="AS32">
-        <v>1.1</v>
-      </c>
-      <c r="AT32">
-        <v>3.25</v>
-      </c>
-      <c r="AU32">
-        <v>6</v>
-      </c>
-      <c r="AV32">
-        <v>5</v>
-      </c>
-      <c r="AW32">
-        <v>4</v>
-      </c>
-      <c r="AX32">
-        <v>6</v>
-      </c>
-      <c r="AY32">
-        <v>10</v>
-      </c>
-      <c r="AZ32">
-        <v>11</v>
-      </c>
-      <c r="BA32">
-        <v>6</v>
-      </c>
-      <c r="BB32">
-        <v>7</v>
-      </c>
-      <c r="BC32">
-        <v>13</v>
-      </c>
-      <c r="BD32">
+      <c r="BH32">
+        <v>3.3</v>
+      </c>
+      <c r="BI32">
+        <v>1.56</v>
+      </c>
+      <c r="BJ32">
+        <v>2.33</v>
+      </c>
+      <c r="BK32">
+        <v>2</v>
+      </c>
+      <c r="BL32">
+        <v>1.8</v>
+      </c>
+      <c r="BM32">
+        <v>2.63</v>
+      </c>
+      <c r="BN32">
         <v>1.45</v>
       </c>
-      <c r="BE32">
-        <v>8.5</v>
-      </c>
-      <c r="BF32">
-        <v>3.29</v>
-      </c>
-      <c r="BG32">
-        <v>1.29</v>
-      </c>
-      <c r="BH32">
-        <v>3.4</v>
-      </c>
-      <c r="BI32">
-        <v>1.53</v>
-      </c>
-      <c r="BJ32">
-        <v>2.4</v>
-      </c>
-      <c r="BK32">
-        <v>1.95</v>
-      </c>
-      <c r="BL32">
-        <v>1.85</v>
-      </c>
-      <c r="BM32">
-        <v>2.55</v>
-      </c>
-      <c r="BN32">
-        <v>1.48</v>
-      </c>
       <c r="BO32">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="BP32">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -7377,7 +7383,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7468897</v>
+        <v>7468899</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -7392,25 +7398,25 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>3</v>
@@ -7419,43 +7425,43 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="Q33">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="R33">
         <v>2</v>
       </c>
       <c r="S33">
+        <v>4</v>
+      </c>
+      <c r="T33">
+        <v>1.48</v>
+      </c>
+      <c r="U33">
+        <v>2.45</v>
+      </c>
+      <c r="V33">
         <v>3.2</v>
       </c>
-      <c r="T33">
-        <v>1.45</v>
-      </c>
-      <c r="U33">
-        <v>2.55</v>
-      </c>
-      <c r="V33">
-        <v>3</v>
-      </c>
       <c r="W33">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X33">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="Y33">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z33">
-        <v>2.95</v>
+        <v>2.2</v>
       </c>
       <c r="AA33">
         <v>3.05</v>
       </c>
       <c r="AB33">
-        <v>2.35</v>
+        <v>3.15</v>
       </c>
       <c r="AC33">
         <v>1.07</v>
@@ -7464,118 +7470,118 @@
         <v>8</v>
       </c>
       <c r="AE33">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AF33">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AG33">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="AH33">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AI33">
+        <v>1.9</v>
+      </c>
+      <c r="AJ33">
         <v>1.77</v>
       </c>
-      <c r="AJ33">
-        <v>1.9</v>
-      </c>
       <c r="AK33">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AL33">
         <v>1.28</v>
       </c>
       <c r="AM33">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="AN33">
         <v>0</v>
       </c>
       <c r="AO33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR33">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="AS33">
+        <v>1.1</v>
+      </c>
+      <c r="AT33">
+        <v>3.25</v>
+      </c>
+      <c r="AU33">
+        <v>6</v>
+      </c>
+      <c r="AV33">
+        <v>5</v>
+      </c>
+      <c r="AW33">
+        <v>4</v>
+      </c>
+      <c r="AX33">
+        <v>6</v>
+      </c>
+      <c r="AY33">
+        <v>10</v>
+      </c>
+      <c r="AZ33">
+        <v>11</v>
+      </c>
+      <c r="BA33">
+        <v>6</v>
+      </c>
+      <c r="BB33">
+        <v>7</v>
+      </c>
+      <c r="BC33">
+        <v>13</v>
+      </c>
+      <c r="BD33">
+        <v>1.45</v>
+      </c>
+      <c r="BE33">
+        <v>8.5</v>
+      </c>
+      <c r="BF33">
+        <v>3.29</v>
+      </c>
+      <c r="BG33">
+        <v>1.29</v>
+      </c>
+      <c r="BH33">
+        <v>3.4</v>
+      </c>
+      <c r="BI33">
         <v>1.53</v>
       </c>
-      <c r="AT33">
-        <v>3.22</v>
-      </c>
-      <c r="AU33">
-        <v>9</v>
-      </c>
-      <c r="AV33">
-        <v>6</v>
-      </c>
-      <c r="AW33">
-        <v>9</v>
-      </c>
-      <c r="AX33">
-        <v>3</v>
-      </c>
-      <c r="AY33">
-        <v>18</v>
-      </c>
-      <c r="AZ33">
-        <v>9</v>
-      </c>
-      <c r="BA33">
-        <v>5</v>
-      </c>
-      <c r="BB33">
-        <v>5</v>
-      </c>
-      <c r="BC33">
-        <v>10</v>
-      </c>
-      <c r="BD33">
+      <c r="BJ33">
+        <v>2.4</v>
+      </c>
+      <c r="BK33">
+        <v>1.95</v>
+      </c>
+      <c r="BL33">
         <v>1.85</v>
       </c>
-      <c r="BE33">
-        <v>8</v>
-      </c>
-      <c r="BF33">
-        <v>2.28</v>
-      </c>
-      <c r="BG33">
-        <v>1.26</v>
-      </c>
-      <c r="BH33">
-        <v>3.65</v>
-      </c>
-      <c r="BI33">
+      <c r="BM33">
+        <v>2.55</v>
+      </c>
+      <c r="BN33">
         <v>1.48</v>
       </c>
-      <c r="BJ33">
-        <v>2.55</v>
-      </c>
-      <c r="BK33">
-        <v>1.88</v>
-      </c>
-      <c r="BL33">
-        <v>1.92</v>
-      </c>
-      <c r="BM33">
-        <v>2.43</v>
-      </c>
-      <c r="BN33">
-        <v>1.52</v>
-      </c>
       <c r="BO33">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="BP33">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="34" spans="1:68">
@@ -7789,7 +7795,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7468898</v>
+        <v>7468897</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7804,25 +7810,25 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -7831,112 +7837,112 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="Q35">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="R35">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="T35">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="U35">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="V35">
         <v>3</v>
       </c>
       <c r="W35">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X35">
+        <v>8.1</v>
+      </c>
+      <c r="Y35">
+        <v>1.06</v>
+      </c>
+      <c r="Z35">
+        <v>2.95</v>
+      </c>
+      <c r="AA35">
+        <v>3.05</v>
+      </c>
+      <c r="AB35">
+        <v>2.35</v>
+      </c>
+      <c r="AC35">
+        <v>1.07</v>
+      </c>
+      <c r="AD35">
         <v>8</v>
       </c>
-      <c r="Y35">
-        <v>1.08</v>
-      </c>
-      <c r="Z35">
-        <v>2</v>
-      </c>
-      <c r="AA35">
-        <v>3.1</v>
-      </c>
-      <c r="AB35">
-        <v>3.85</v>
-      </c>
-      <c r="AC35">
-        <v>1.06</v>
-      </c>
-      <c r="AD35">
-        <v>8.5</v>
-      </c>
       <c r="AE35">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AF35">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AG35">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="AH35">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AI35">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AJ35">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AK35">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="AL35">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AM35">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="AN35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO35">
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AR35">
-        <v>0.82</v>
+        <v>1.69</v>
       </c>
       <c r="AS35">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="AT35">
-        <v>2.06</v>
+        <v>3.22</v>
       </c>
       <c r="AU35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ35">
         <v>9</v>
@@ -7945,48 +7951,254 @@
         <v>5</v>
       </c>
       <c r="BB35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC35">
+        <v>10</v>
+      </c>
+      <c r="BD35">
+        <v>1.85</v>
+      </c>
+      <c r="BE35">
         <v>8</v>
       </c>
-      <c r="BD35">
-        <v>1.37</v>
-      </c>
-      <c r="BE35">
-        <v>9</v>
-      </c>
       <c r="BF35">
-        <v>3.7</v>
+        <v>2.28</v>
       </c>
       <c r="BG35">
+        <v>1.26</v>
+      </c>
+      <c r="BH35">
+        <v>3.65</v>
+      </c>
+      <c r="BI35">
+        <v>1.48</v>
+      </c>
+      <c r="BJ35">
+        <v>2.55</v>
+      </c>
+      <c r="BK35">
+        <v>1.88</v>
+      </c>
+      <c r="BL35">
+        <v>1.92</v>
+      </c>
+      <c r="BM35">
+        <v>2.43</v>
+      </c>
+      <c r="BN35">
+        <v>1.52</v>
+      </c>
+      <c r="BO35">
+        <v>3.3</v>
+      </c>
+      <c r="BP35">
         <v>1.3</v>
       </c>
-      <c r="BH35">
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7468895</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45549.39583333334</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>114</v>
+      </c>
+      <c r="P36" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q36">
+        <v>3.1</v>
+      </c>
+      <c r="R36">
+        <v>2.05</v>
+      </c>
+      <c r="S36">
+        <v>3.75</v>
+      </c>
+      <c r="T36">
+        <v>1.5</v>
+      </c>
+      <c r="U36">
+        <v>2.5</v>
+      </c>
+      <c r="V36">
+        <v>3.4</v>
+      </c>
+      <c r="W36">
+        <v>1.3</v>
+      </c>
+      <c r="X36">
+        <v>10</v>
+      </c>
+      <c r="Y36">
+        <v>1.06</v>
+      </c>
+      <c r="Z36">
+        <v>2.25</v>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>3.2</v>
+      </c>
+      <c r="AC36">
+        <v>1.08</v>
+      </c>
+      <c r="AD36">
+        <v>7.5</v>
+      </c>
+      <c r="AE36">
+        <v>1.42</v>
+      </c>
+      <c r="AF36">
+        <v>2.8</v>
+      </c>
+      <c r="AG36">
+        <v>2.2</v>
+      </c>
+      <c r="AH36">
+        <v>1.6</v>
+      </c>
+      <c r="AI36">
+        <v>1.91</v>
+      </c>
+      <c r="AJ36">
+        <v>1.8</v>
+      </c>
+      <c r="AK36">
+        <v>1.38</v>
+      </c>
+      <c r="AL36">
+        <v>1.3</v>
+      </c>
+      <c r="AM36">
+        <v>1.53</v>
+      </c>
+      <c r="AN36">
+        <v>3</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <v>1.5</v>
+      </c>
+      <c r="AQ36">
+        <v>3</v>
+      </c>
+      <c r="AR36">
+        <v>1.66</v>
+      </c>
+      <c r="AS36">
+        <v>1.27</v>
+      </c>
+      <c r="AT36">
+        <v>2.93</v>
+      </c>
+      <c r="AU36">
+        <v>7</v>
+      </c>
+      <c r="AV36">
+        <v>7</v>
+      </c>
+      <c r="AW36">
+        <v>3</v>
+      </c>
+      <c r="AX36">
+        <v>1</v>
+      </c>
+      <c r="AY36">
+        <v>10</v>
+      </c>
+      <c r="AZ36">
+        <v>8</v>
+      </c>
+      <c r="BA36">
+        <v>5</v>
+      </c>
+      <c r="BB36">
+        <v>2</v>
+      </c>
+      <c r="BC36">
+        <v>7</v>
+      </c>
+      <c r="BD36">
+        <v>1.75</v>
+      </c>
+      <c r="BE36">
+        <v>8</v>
+      </c>
+      <c r="BF36">
+        <v>2.44</v>
+      </c>
+      <c r="BG36">
+        <v>1.3</v>
+      </c>
+      <c r="BH36">
         <v>3.3</v>
       </c>
-      <c r="BI35">
+      <c r="BI36">
         <v>1.56</v>
       </c>
-      <c r="BJ35">
+      <c r="BJ36">
         <v>2.33</v>
       </c>
-      <c r="BK35">
-        <v>2</v>
-      </c>
-      <c r="BL35">
+      <c r="BK36">
+        <v>2</v>
+      </c>
+      <c r="BL36">
         <v>1.8</v>
       </c>
-      <c r="BM35">
+      <c r="BM36">
         <v>2.63</v>
       </c>
-      <c r="BN35">
+      <c r="BN36">
         <v>1.45</v>
       </c>
-      <c r="BO35">
+      <c r="BO36">
         <v>3.65</v>
       </c>
-      <c r="BP35">
+      <c r="BP36">
         <v>1.26</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="137">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,9 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['42', '45', '59']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -419,6 +422,9 @@
   </si>
   <si>
     <t>['13', '25']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -780,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1039,7 +1045,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1451,7 +1457,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1863,7 +1869,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1941,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2275,7 +2281,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2687,7 +2693,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3099,7 +3105,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3305,7 +3311,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3923,7 +3929,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4129,7 +4135,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4747,7 +4753,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -4953,7 +4959,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5159,7 +5165,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5571,7 +5577,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5777,7 +5783,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5983,7 +5989,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6061,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6395,7 +6401,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6601,7 +6607,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6807,7 +6813,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7013,7 +7019,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7837,7 +7843,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8043,7 +8049,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8200,6 +8206,212 @@
       </c>
       <c r="BP36">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7468894</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45551.65625</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>115</v>
+      </c>
+      <c r="P37" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q37">
+        <v>3.4</v>
+      </c>
+      <c r="R37">
+        <v>2.1</v>
+      </c>
+      <c r="S37">
+        <v>3.2</v>
+      </c>
+      <c r="T37">
+        <v>1.4</v>
+      </c>
+      <c r="U37">
+        <v>2.75</v>
+      </c>
+      <c r="V37">
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <v>1.36</v>
+      </c>
+      <c r="X37">
+        <v>8</v>
+      </c>
+      <c r="Y37">
+        <v>1.08</v>
+      </c>
+      <c r="Z37">
+        <v>2.73</v>
+      </c>
+      <c r="AA37">
+        <v>3.12</v>
+      </c>
+      <c r="AB37">
+        <v>2.49</v>
+      </c>
+      <c r="AC37">
+        <v>1.06</v>
+      </c>
+      <c r="AD37">
+        <v>7.2</v>
+      </c>
+      <c r="AE37">
+        <v>1.27</v>
+      </c>
+      <c r="AF37">
+        <v>3.4</v>
+      </c>
+      <c r="AG37">
+        <v>1.96</v>
+      </c>
+      <c r="AH37">
+        <v>1.76</v>
+      </c>
+      <c r="AI37">
+        <v>1.73</v>
+      </c>
+      <c r="AJ37">
+        <v>2</v>
+      </c>
+      <c r="AK37">
+        <v>1.4</v>
+      </c>
+      <c r="AL37">
+        <v>1.35</v>
+      </c>
+      <c r="AM37">
+        <v>1.4</v>
+      </c>
+      <c r="AN37">
+        <v>2</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>2.33</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>1.13</v>
+      </c>
+      <c r="AS37">
+        <v>2.07</v>
+      </c>
+      <c r="AT37">
+        <v>3.2</v>
+      </c>
+      <c r="AU37">
+        <v>6</v>
+      </c>
+      <c r="AV37">
+        <v>6</v>
+      </c>
+      <c r="AW37">
+        <v>6</v>
+      </c>
+      <c r="AX37">
+        <v>4</v>
+      </c>
+      <c r="AY37">
+        <v>12</v>
+      </c>
+      <c r="AZ37">
+        <v>10</v>
+      </c>
+      <c r="BA37">
+        <v>9</v>
+      </c>
+      <c r="BB37">
+        <v>5</v>
+      </c>
+      <c r="BC37">
+        <v>14</v>
+      </c>
+      <c r="BD37">
+        <v>2.1</v>
+      </c>
+      <c r="BE37">
+        <v>8</v>
+      </c>
+      <c r="BF37">
+        <v>1.95</v>
+      </c>
+      <c r="BG37">
+        <v>1.29</v>
+      </c>
+      <c r="BH37">
+        <v>3.4</v>
+      </c>
+      <c r="BI37">
+        <v>1.53</v>
+      </c>
+      <c r="BJ37">
+        <v>2.4</v>
+      </c>
+      <c r="BK37">
+        <v>2</v>
+      </c>
+      <c r="BL37">
+        <v>1.8</v>
+      </c>
+      <c r="BM37">
+        <v>2.55</v>
+      </c>
+      <c r="BN37">
+        <v>1.48</v>
+      </c>
+      <c r="BO37">
+        <v>3.5</v>
+      </c>
+      <c r="BP37">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="148">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,21 @@
     <t>['42', '45', '59']</t>
   </si>
   <si>
+    <t>['21', '35']</t>
+  </si>
+  <si>
+    <t>['22', '80']</t>
+  </si>
+  <si>
+    <t>['21', '42', '52']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -425,6 +440,24 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['18', '68', '85']</t>
+  </si>
+  <si>
+    <t>['55', '60', '66', '70']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['4', '65']</t>
+  </si>
+  <si>
+    <t>['39', '75']</t>
+  </si>
+  <si>
+    <t>['15', '37', '69']</t>
   </si>
 </sst>
 </file>
@@ -786,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1045,7 +1078,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1126,7 +1159,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1332,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1457,7 +1490,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1535,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1869,7 +1902,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1950,7 +1983,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2153,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>0.33</v>
@@ -2281,7 +2314,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2359,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2693,7 +2726,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2980,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3105,7 +3138,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3311,7 +3344,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3801,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3929,7 +3962,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4135,7 +4168,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4422,7 +4455,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4625,10 +4658,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4753,7 +4786,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -4959,7 +4992,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5040,7 +5073,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5165,7 +5198,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5243,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5449,10 +5482,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>2.13</v>
@@ -5577,7 +5610,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5655,10 +5688,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.39</v>
@@ -5783,7 +5816,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5989,7 +6022,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6070,7 +6103,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>1.19</v>
@@ -6401,7 +6434,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6482,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>1.92</v>
@@ -6607,7 +6640,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6688,7 +6721,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR29">
         <v>1.48</v>
@@ -6813,7 +6846,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7019,7 +7052,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7715,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ34">
         <v>0.33</v>
@@ -7843,7 +7876,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8049,7 +8082,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8255,7 +8288,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8412,6 +8445,1654 @@
       </c>
       <c r="BP37">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7468909</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45555.625</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q38">
+        <v>3.2</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>3.25</v>
+      </c>
+      <c r="T38">
+        <v>1.42</v>
+      </c>
+      <c r="U38">
+        <v>2.62</v>
+      </c>
+      <c r="V38">
+        <v>2.95</v>
+      </c>
+      <c r="W38">
+        <v>1.35</v>
+      </c>
+      <c r="X38">
+        <v>7.1</v>
+      </c>
+      <c r="Y38">
+        <v>1.08</v>
+      </c>
+      <c r="Z38">
+        <v>2.65</v>
+      </c>
+      <c r="AA38">
+        <v>3.3</v>
+      </c>
+      <c r="AB38">
+        <v>2.55</v>
+      </c>
+      <c r="AC38">
+        <v>1.06</v>
+      </c>
+      <c r="AD38">
+        <v>8.5</v>
+      </c>
+      <c r="AE38">
+        <v>1.33</v>
+      </c>
+      <c r="AF38">
+        <v>3.2</v>
+      </c>
+      <c r="AG38">
+        <v>1.91</v>
+      </c>
+      <c r="AH38">
+        <v>1.84</v>
+      </c>
+      <c r="AI38">
+        <v>1.73</v>
+      </c>
+      <c r="AJ38">
+        <v>1.95</v>
+      </c>
+      <c r="AK38">
+        <v>1.45</v>
+      </c>
+      <c r="AL38">
+        <v>1.28</v>
+      </c>
+      <c r="AM38">
+        <v>1.48</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>1</v>
+      </c>
+      <c r="AR38">
+        <v>1.59</v>
+      </c>
+      <c r="AS38">
+        <v>0.84</v>
+      </c>
+      <c r="AT38">
+        <v>2.43</v>
+      </c>
+      <c r="AU38">
+        <v>4</v>
+      </c>
+      <c r="AV38">
+        <v>6</v>
+      </c>
+      <c r="AW38">
+        <v>6</v>
+      </c>
+      <c r="AX38">
+        <v>9</v>
+      </c>
+      <c r="AY38">
+        <v>10</v>
+      </c>
+      <c r="AZ38">
+        <v>15</v>
+      </c>
+      <c r="BA38">
+        <v>4</v>
+      </c>
+      <c r="BB38">
+        <v>4</v>
+      </c>
+      <c r="BC38">
+        <v>8</v>
+      </c>
+      <c r="BD38">
+        <v>2.24</v>
+      </c>
+      <c r="BE38">
+        <v>6.6</v>
+      </c>
+      <c r="BF38">
+        <v>2.02</v>
+      </c>
+      <c r="BG38">
+        <v>1.22</v>
+      </c>
+      <c r="BH38">
+        <v>4</v>
+      </c>
+      <c r="BI38">
+        <v>1.42</v>
+      </c>
+      <c r="BJ38">
+        <v>2.75</v>
+      </c>
+      <c r="BK38">
+        <v>1.74</v>
+      </c>
+      <c r="BL38">
+        <v>2.02</v>
+      </c>
+      <c r="BM38">
+        <v>2.23</v>
+      </c>
+      <c r="BN38">
+        <v>1.61</v>
+      </c>
+      <c r="BO38">
+        <v>3</v>
+      </c>
+      <c r="BP38">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7468903</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45555.625</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39" t="s">
+        <v>90</v>
+      </c>
+      <c r="P39" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q39">
+        <v>3.4</v>
+      </c>
+      <c r="R39">
+        <v>2.1</v>
+      </c>
+      <c r="S39">
+        <v>3.2</v>
+      </c>
+      <c r="T39">
+        <v>1.44</v>
+      </c>
+      <c r="U39">
+        <v>2.63</v>
+      </c>
+      <c r="V39">
+        <v>3.25</v>
+      </c>
+      <c r="W39">
+        <v>1.33</v>
+      </c>
+      <c r="X39">
+        <v>9</v>
+      </c>
+      <c r="Y39">
+        <v>1.07</v>
+      </c>
+      <c r="Z39">
+        <v>2.88</v>
+      </c>
+      <c r="AA39">
+        <v>3.15</v>
+      </c>
+      <c r="AB39">
+        <v>2.45</v>
+      </c>
+      <c r="AC39">
+        <v>1.05</v>
+      </c>
+      <c r="AD39">
+        <v>8</v>
+      </c>
+      <c r="AE39">
+        <v>1.3</v>
+      </c>
+      <c r="AF39">
+        <v>3.2</v>
+      </c>
+      <c r="AG39">
+        <v>2.16</v>
+      </c>
+      <c r="AH39">
+        <v>1.66</v>
+      </c>
+      <c r="AI39">
+        <v>1.83</v>
+      </c>
+      <c r="AJ39">
+        <v>1.83</v>
+      </c>
+      <c r="AK39">
+        <v>1.51</v>
+      </c>
+      <c r="AL39">
+        <v>1.33</v>
+      </c>
+      <c r="AM39">
+        <v>1.45</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>1.5</v>
+      </c>
+      <c r="AR39">
+        <v>0.8</v>
+      </c>
+      <c r="AS39">
+        <v>1.08</v>
+      </c>
+      <c r="AT39">
+        <v>1.88</v>
+      </c>
+      <c r="AU39">
+        <v>7</v>
+      </c>
+      <c r="AV39">
+        <v>6</v>
+      </c>
+      <c r="AW39">
+        <v>2</v>
+      </c>
+      <c r="AX39">
+        <v>6</v>
+      </c>
+      <c r="AY39">
+        <v>9</v>
+      </c>
+      <c r="AZ39">
+        <v>12</v>
+      </c>
+      <c r="BA39">
+        <v>2</v>
+      </c>
+      <c r="BB39">
+        <v>5</v>
+      </c>
+      <c r="BC39">
+        <v>7</v>
+      </c>
+      <c r="BD39">
+        <v>2.39</v>
+      </c>
+      <c r="BE39">
+        <v>6.35</v>
+      </c>
+      <c r="BF39">
+        <v>1.96</v>
+      </c>
+      <c r="BG39">
+        <v>1.32</v>
+      </c>
+      <c r="BH39">
+        <v>3.2</v>
+      </c>
+      <c r="BI39">
+        <v>1.58</v>
+      </c>
+      <c r="BJ39">
+        <v>2.28</v>
+      </c>
+      <c r="BK39">
+        <v>2.02</v>
+      </c>
+      <c r="BL39">
+        <v>1.74</v>
+      </c>
+      <c r="BM39">
+        <v>2.7</v>
+      </c>
+      <c r="BN39">
+        <v>1.43</v>
+      </c>
+      <c r="BO39">
+        <v>3.8</v>
+      </c>
+      <c r="BP39">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7468904</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45555.625</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P40" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q40">
+        <v>3.72</v>
+      </c>
+      <c r="R40">
+        <v>2.11</v>
+      </c>
+      <c r="S40">
+        <v>3.13</v>
+      </c>
+      <c r="T40">
+        <v>1.44</v>
+      </c>
+      <c r="U40">
+        <v>2.7</v>
+      </c>
+      <c r="V40">
+        <v>3.23</v>
+      </c>
+      <c r="W40">
+        <v>1.32</v>
+      </c>
+      <c r="X40">
+        <v>8.4</v>
+      </c>
+      <c r="Y40">
+        <v>1.05</v>
+      </c>
+      <c r="Z40">
+        <v>3.05</v>
+      </c>
+      <c r="AA40">
+        <v>3</v>
+      </c>
+      <c r="AB40">
+        <v>2.45</v>
+      </c>
+      <c r="AC40">
+        <v>1.08</v>
+      </c>
+      <c r="AD40">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AE40">
+        <v>1.4</v>
+      </c>
+      <c r="AF40">
+        <v>3</v>
+      </c>
+      <c r="AG40">
+        <v>2.18</v>
+      </c>
+      <c r="AH40">
+        <v>1.65</v>
+      </c>
+      <c r="AI40">
+        <v>1.89</v>
+      </c>
+      <c r="AJ40">
+        <v>1.87</v>
+      </c>
+      <c r="AK40">
+        <v>1.52</v>
+      </c>
+      <c r="AL40">
+        <v>1.35</v>
+      </c>
+      <c r="AM40">
+        <v>1.42</v>
+      </c>
+      <c r="AN40">
+        <v>2</v>
+      </c>
+      <c r="AO40">
+        <v>3</v>
+      </c>
+      <c r="AP40">
+        <v>2.33</v>
+      </c>
+      <c r="AQ40">
+        <v>2</v>
+      </c>
+      <c r="AR40">
+        <v>1.41</v>
+      </c>
+      <c r="AS40">
+        <v>1.29</v>
+      </c>
+      <c r="AT40">
+        <v>2.7</v>
+      </c>
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>6</v>
+      </c>
+      <c r="AW40">
+        <v>9</v>
+      </c>
+      <c r="AX40">
+        <v>4</v>
+      </c>
+      <c r="AY40">
+        <v>15</v>
+      </c>
+      <c r="AZ40">
+        <v>10</v>
+      </c>
+      <c r="BA40">
+        <v>3</v>
+      </c>
+      <c r="BB40">
+        <v>6</v>
+      </c>
+      <c r="BC40">
+        <v>9</v>
+      </c>
+      <c r="BD40">
+        <v>2.1</v>
+      </c>
+      <c r="BE40">
+        <v>7.5</v>
+      </c>
+      <c r="BF40">
+        <v>1.95</v>
+      </c>
+      <c r="BG40">
+        <v>1.36</v>
+      </c>
+      <c r="BH40">
+        <v>3</v>
+      </c>
+      <c r="BI40">
+        <v>1.65</v>
+      </c>
+      <c r="BJ40">
+        <v>2.16</v>
+      </c>
+      <c r="BK40">
+        <v>2.12</v>
+      </c>
+      <c r="BL40">
+        <v>1.67</v>
+      </c>
+      <c r="BM40">
+        <v>2.88</v>
+      </c>
+      <c r="BN40">
+        <v>1.38</v>
+      </c>
+      <c r="BO40">
+        <v>4.1</v>
+      </c>
+      <c r="BP40">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7468905</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45555.625</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41" t="s">
+        <v>117</v>
+      </c>
+      <c r="P41" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q41">
+        <v>2.5</v>
+      </c>
+      <c r="R41">
+        <v>2.05</v>
+      </c>
+      <c r="S41">
+        <v>4.33</v>
+      </c>
+      <c r="T41">
+        <v>1.42</v>
+      </c>
+      <c r="U41">
+        <v>2.65</v>
+      </c>
+      <c r="V41">
+        <v>2.88</v>
+      </c>
+      <c r="W41">
+        <v>1.36</v>
+      </c>
+      <c r="X41">
+        <v>7.8</v>
+      </c>
+      <c r="Y41">
+        <v>1.06</v>
+      </c>
+      <c r="Z41">
+        <v>1.82</v>
+      </c>
+      <c r="AA41">
+        <v>3.5</v>
+      </c>
+      <c r="AB41">
+        <v>4.25</v>
+      </c>
+      <c r="AC41">
+        <v>1.06</v>
+      </c>
+      <c r="AD41">
+        <v>8.5</v>
+      </c>
+      <c r="AE41">
+        <v>1.35</v>
+      </c>
+      <c r="AF41">
+        <v>3.1</v>
+      </c>
+      <c r="AG41">
+        <v>2.07</v>
+      </c>
+      <c r="AH41">
+        <v>1.71</v>
+      </c>
+      <c r="AI41">
+        <v>1.83</v>
+      </c>
+      <c r="AJ41">
+        <v>1.85</v>
+      </c>
+      <c r="AK41">
+        <v>1.22</v>
+      </c>
+      <c r="AL41">
+        <v>1.25</v>
+      </c>
+      <c r="AM41">
+        <v>1.85</v>
+      </c>
+      <c r="AN41">
+        <v>1.5</v>
+      </c>
+      <c r="AO41">
+        <v>2</v>
+      </c>
+      <c r="AP41">
+        <v>1.33</v>
+      </c>
+      <c r="AQ41">
+        <v>1.67</v>
+      </c>
+      <c r="AR41">
+        <v>1.73</v>
+      </c>
+      <c r="AS41">
+        <v>1.38</v>
+      </c>
+      <c r="AT41">
+        <v>3.11</v>
+      </c>
+      <c r="AU41">
+        <v>9</v>
+      </c>
+      <c r="AV41">
+        <v>5</v>
+      </c>
+      <c r="AW41">
+        <v>3</v>
+      </c>
+      <c r="AX41">
+        <v>1</v>
+      </c>
+      <c r="AY41">
+        <v>12</v>
+      </c>
+      <c r="AZ41">
+        <v>6</v>
+      </c>
+      <c r="BA41">
+        <v>6</v>
+      </c>
+      <c r="BB41">
+        <v>4</v>
+      </c>
+      <c r="BC41">
+        <v>10</v>
+      </c>
+      <c r="BD41">
+        <v>1.68</v>
+      </c>
+      <c r="BE41">
+        <v>8.5</v>
+      </c>
+      <c r="BF41">
+        <v>2.68</v>
+      </c>
+      <c r="BG41">
+        <v>1.29</v>
+      </c>
+      <c r="BH41">
+        <v>3.4</v>
+      </c>
+      <c r="BI41">
+        <v>1.53</v>
+      </c>
+      <c r="BJ41">
+        <v>2.4</v>
+      </c>
+      <c r="BK41">
+        <v>2</v>
+      </c>
+      <c r="BL41">
+        <v>1.8</v>
+      </c>
+      <c r="BM41">
+        <v>2.55</v>
+      </c>
+      <c r="BN41">
+        <v>1.48</v>
+      </c>
+      <c r="BO41">
+        <v>3.5</v>
+      </c>
+      <c r="BP41">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7468906</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45555.625</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42" t="s">
+        <v>118</v>
+      </c>
+      <c r="P42" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q42">
+        <v>3.25</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
+        <v>3.2</v>
+      </c>
+      <c r="T42">
+        <v>1.44</v>
+      </c>
+      <c r="U42">
+        <v>2.6</v>
+      </c>
+      <c r="V42">
+        <v>2.95</v>
+      </c>
+      <c r="W42">
+        <v>1.35</v>
+      </c>
+      <c r="X42">
+        <v>7.9</v>
+      </c>
+      <c r="Y42">
+        <v>1.06</v>
+      </c>
+      <c r="Z42">
+        <v>2.65</v>
+      </c>
+      <c r="AA42">
+        <v>3.1</v>
+      </c>
+      <c r="AB42">
+        <v>2.7</v>
+      </c>
+      <c r="AC42">
+        <v>1.07</v>
+      </c>
+      <c r="AD42">
+        <v>8</v>
+      </c>
+      <c r="AE42">
+        <v>1.36</v>
+      </c>
+      <c r="AF42">
+        <v>3.1</v>
+      </c>
+      <c r="AG42">
+        <v>2.08</v>
+      </c>
+      <c r="AH42">
+        <v>1.71</v>
+      </c>
+      <c r="AI42">
+        <v>1.75</v>
+      </c>
+      <c r="AJ42">
+        <v>1.93</v>
+      </c>
+      <c r="AK42">
+        <v>1.48</v>
+      </c>
+      <c r="AL42">
+        <v>1.3</v>
+      </c>
+      <c r="AM42">
+        <v>1.44</v>
+      </c>
+      <c r="AN42">
+        <v>1.5</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>2</v>
+      </c>
+      <c r="AQ42">
+        <v>0.67</v>
+      </c>
+      <c r="AR42">
+        <v>1.75</v>
+      </c>
+      <c r="AS42">
+        <v>1.42</v>
+      </c>
+      <c r="AT42">
+        <v>3.17</v>
+      </c>
+      <c r="AU42">
+        <v>7</v>
+      </c>
+      <c r="AV42">
+        <v>5</v>
+      </c>
+      <c r="AW42">
+        <v>6</v>
+      </c>
+      <c r="AX42">
+        <v>8</v>
+      </c>
+      <c r="AY42">
+        <v>13</v>
+      </c>
+      <c r="AZ42">
+        <v>13</v>
+      </c>
+      <c r="BA42">
+        <v>5</v>
+      </c>
+      <c r="BB42">
+        <v>5</v>
+      </c>
+      <c r="BC42">
+        <v>10</v>
+      </c>
+      <c r="BD42">
+        <v>2.19</v>
+      </c>
+      <c r="BE42">
+        <v>6.4</v>
+      </c>
+      <c r="BF42">
+        <v>2.08</v>
+      </c>
+      <c r="BG42">
+        <v>1.29</v>
+      </c>
+      <c r="BH42">
+        <v>3.4</v>
+      </c>
+      <c r="BI42">
+        <v>1.53</v>
+      </c>
+      <c r="BJ42">
+        <v>2.4</v>
+      </c>
+      <c r="BK42">
+        <v>1.98</v>
+      </c>
+      <c r="BL42">
+        <v>1.82</v>
+      </c>
+      <c r="BM42">
+        <v>2.55</v>
+      </c>
+      <c r="BN42">
+        <v>1.48</v>
+      </c>
+      <c r="BO42">
+        <v>3.5</v>
+      </c>
+      <c r="BP42">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7468907</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45555.625</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q43">
+        <v>2.75</v>
+      </c>
+      <c r="R43">
+        <v>2.2</v>
+      </c>
+      <c r="S43">
+        <v>3.75</v>
+      </c>
+      <c r="T43">
+        <v>1.4</v>
+      </c>
+      <c r="U43">
+        <v>2.75</v>
+      </c>
+      <c r="V43">
+        <v>2.75</v>
+      </c>
+      <c r="W43">
+        <v>1.4</v>
+      </c>
+      <c r="X43">
+        <v>8</v>
+      </c>
+      <c r="Y43">
+        <v>1.08</v>
+      </c>
+      <c r="Z43">
+        <v>2</v>
+      </c>
+      <c r="AA43">
+        <v>3.4</v>
+      </c>
+      <c r="AB43">
+        <v>3.6</v>
+      </c>
+      <c r="AC43">
+        <v>1.03</v>
+      </c>
+      <c r="AD43">
+        <v>9</v>
+      </c>
+      <c r="AE43">
+        <v>1.25</v>
+      </c>
+      <c r="AF43">
+        <v>3.6</v>
+      </c>
+      <c r="AG43">
+        <v>2.1</v>
+      </c>
+      <c r="AH43">
+        <v>1.68</v>
+      </c>
+      <c r="AI43">
+        <v>1.73</v>
+      </c>
+      <c r="AJ43">
+        <v>2</v>
+      </c>
+      <c r="AK43">
+        <v>1.36</v>
+      </c>
+      <c r="AL43">
+        <v>1.31</v>
+      </c>
+      <c r="AM43">
+        <v>1.66</v>
+      </c>
+      <c r="AN43">
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <v>0.5</v>
+      </c>
+      <c r="AP43">
+        <v>1.5</v>
+      </c>
+      <c r="AQ43">
+        <v>1.33</v>
+      </c>
+      <c r="AR43">
+        <v>0.8</v>
+      </c>
+      <c r="AS43">
+        <v>1.14</v>
+      </c>
+      <c r="AT43">
+        <v>1.94</v>
+      </c>
+      <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
+        <v>6</v>
+      </c>
+      <c r="AW43">
+        <v>8</v>
+      </c>
+      <c r="AX43">
+        <v>4</v>
+      </c>
+      <c r="AY43">
+        <v>11</v>
+      </c>
+      <c r="AZ43">
+        <v>10</v>
+      </c>
+      <c r="BA43">
+        <v>2</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
+      <c r="BC43">
+        <v>7</v>
+      </c>
+      <c r="BD43">
+        <v>1.91</v>
+      </c>
+      <c r="BE43">
+        <v>6.45</v>
+      </c>
+      <c r="BF43">
+        <v>2.46</v>
+      </c>
+      <c r="BG43">
+        <v>1.27</v>
+      </c>
+      <c r="BH43">
+        <v>3.55</v>
+      </c>
+      <c r="BI43">
+        <v>1.5</v>
+      </c>
+      <c r="BJ43">
+        <v>2.48</v>
+      </c>
+      <c r="BK43">
+        <v>1.9</v>
+      </c>
+      <c r="BL43">
+        <v>1.9</v>
+      </c>
+      <c r="BM43">
+        <v>2.45</v>
+      </c>
+      <c r="BN43">
+        <v>1.5</v>
+      </c>
+      <c r="BO43">
+        <v>3.4</v>
+      </c>
+      <c r="BP43">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7468911</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45555.625</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>4.33</v>
+      </c>
+      <c r="T44">
+        <v>1.53</v>
+      </c>
+      <c r="U44">
+        <v>2.38</v>
+      </c>
+      <c r="V44">
+        <v>3.5</v>
+      </c>
+      <c r="W44">
+        <v>1.29</v>
+      </c>
+      <c r="X44">
+        <v>11</v>
+      </c>
+      <c r="Y44">
+        <v>1.05</v>
+      </c>
+      <c r="Z44">
+        <v>2</v>
+      </c>
+      <c r="AA44">
+        <v>3.25</v>
+      </c>
+      <c r="AB44">
+        <v>3.75</v>
+      </c>
+      <c r="AC44">
+        <v>1.08</v>
+      </c>
+      <c r="AD44">
+        <v>6.5</v>
+      </c>
+      <c r="AE44">
+        <v>1.48</v>
+      </c>
+      <c r="AF44">
+        <v>2.5</v>
+      </c>
+      <c r="AG44">
+        <v>2.43</v>
+      </c>
+      <c r="AH44">
+        <v>1.52</v>
+      </c>
+      <c r="AI44">
+        <v>2.2</v>
+      </c>
+      <c r="AJ44">
+        <v>1.62</v>
+      </c>
+      <c r="AK44">
+        <v>1.28</v>
+      </c>
+      <c r="AL44">
+        <v>1.35</v>
+      </c>
+      <c r="AM44">
+        <v>1.72</v>
+      </c>
+      <c r="AN44">
+        <v>0.5</v>
+      </c>
+      <c r="AO44">
+        <v>0.5</v>
+      </c>
+      <c r="AP44">
+        <v>1.33</v>
+      </c>
+      <c r="AQ44">
+        <v>0.33</v>
+      </c>
+      <c r="AR44">
+        <v>1.25</v>
+      </c>
+      <c r="AS44">
+        <v>1.25</v>
+      </c>
+      <c r="AT44">
+        <v>2.5</v>
+      </c>
+      <c r="AU44">
+        <v>8</v>
+      </c>
+      <c r="AV44">
+        <v>3</v>
+      </c>
+      <c r="AW44">
+        <v>4</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>12</v>
+      </c>
+      <c r="AZ44">
+        <v>3</v>
+      </c>
+      <c r="BA44">
+        <v>10</v>
+      </c>
+      <c r="BB44">
+        <v>1</v>
+      </c>
+      <c r="BC44">
+        <v>11</v>
+      </c>
+      <c r="BD44">
+        <v>1.62</v>
+      </c>
+      <c r="BE44">
+        <v>8.4</v>
+      </c>
+      <c r="BF44">
+        <v>2.86</v>
+      </c>
+      <c r="BG44">
+        <v>1.37</v>
+      </c>
+      <c r="BH44">
+        <v>2.95</v>
+      </c>
+      <c r="BI44">
+        <v>1.67</v>
+      </c>
+      <c r="BJ44">
+        <v>2.12</v>
+      </c>
+      <c r="BK44">
+        <v>2.16</v>
+      </c>
+      <c r="BL44">
+        <v>1.65</v>
+      </c>
+      <c r="BM44">
+        <v>2.95</v>
+      </c>
+      <c r="BN44">
+        <v>1.37</v>
+      </c>
+      <c r="BO44">
+        <v>4.1</v>
+      </c>
+      <c r="BP44">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7468910</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45555.625</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>120</v>
+      </c>
+      <c r="P45" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q45">
+        <v>3.5</v>
+      </c>
+      <c r="R45">
+        <v>1.95</v>
+      </c>
+      <c r="S45">
+        <v>3.5</v>
+      </c>
+      <c r="T45">
+        <v>1.53</v>
+      </c>
+      <c r="U45">
+        <v>2.38</v>
+      </c>
+      <c r="V45">
+        <v>3.5</v>
+      </c>
+      <c r="W45">
+        <v>1.29</v>
+      </c>
+      <c r="X45">
+        <v>11</v>
+      </c>
+      <c r="Y45">
+        <v>1.05</v>
+      </c>
+      <c r="Z45">
+        <v>2.75</v>
+      </c>
+      <c r="AA45">
+        <v>2.88</v>
+      </c>
+      <c r="AB45">
+        <v>2.8</v>
+      </c>
+      <c r="AC45">
+        <v>1.07</v>
+      </c>
+      <c r="AD45">
+        <v>7</v>
+      </c>
+      <c r="AE45">
+        <v>1.5</v>
+      </c>
+      <c r="AF45">
+        <v>2.4</v>
+      </c>
+      <c r="AG45">
+        <v>2.5</v>
+      </c>
+      <c r="AH45">
+        <v>1.5</v>
+      </c>
+      <c r="AI45">
+        <v>2</v>
+      </c>
+      <c r="AJ45">
+        <v>1.73</v>
+      </c>
+      <c r="AK45">
+        <v>1.46</v>
+      </c>
+      <c r="AL45">
+        <v>1.36</v>
+      </c>
+      <c r="AM45">
+        <v>1.47</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>3</v>
+      </c>
+      <c r="AP45">
+        <v>3</v>
+      </c>
+      <c r="AQ45">
+        <v>1.5</v>
+      </c>
+      <c r="AR45">
+        <v>1.53</v>
+      </c>
+      <c r="AS45">
+        <v>0.82</v>
+      </c>
+      <c r="AT45">
+        <v>2.35</v>
+      </c>
+      <c r="AU45">
+        <v>6</v>
+      </c>
+      <c r="AV45">
+        <v>4</v>
+      </c>
+      <c r="AW45">
+        <v>3</v>
+      </c>
+      <c r="AX45">
+        <v>10</v>
+      </c>
+      <c r="AY45">
+        <v>9</v>
+      </c>
+      <c r="AZ45">
+        <v>14</v>
+      </c>
+      <c r="BA45">
+        <v>5</v>
+      </c>
+      <c r="BB45">
+        <v>8</v>
+      </c>
+      <c r="BC45">
+        <v>13</v>
+      </c>
+      <c r="BD45">
+        <v>1.97</v>
+      </c>
+      <c r="BE45">
+        <v>6.45</v>
+      </c>
+      <c r="BF45">
+        <v>2.32</v>
+      </c>
+      <c r="BG45">
+        <v>1.27</v>
+      </c>
+      <c r="BH45">
+        <v>3.55</v>
+      </c>
+      <c r="BI45">
+        <v>1.5</v>
+      </c>
+      <c r="BJ45">
+        <v>2.48</v>
+      </c>
+      <c r="BK45">
+        <v>1.95</v>
+      </c>
+      <c r="BL45">
+        <v>1.85</v>
+      </c>
+      <c r="BM45">
+        <v>2.45</v>
+      </c>
+      <c r="BN45">
+        <v>1.5</v>
+      </c>
+      <c r="BO45">
+        <v>3.4</v>
+      </c>
+      <c r="BP45">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,9 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['27']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -458,6 +461,9 @@
   </si>
   <si>
     <t>['15', '37', '69']</t>
+  </si>
+  <si>
+    <t>['85']</t>
   </si>
 </sst>
 </file>
@@ -819,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1078,7 +1084,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1490,7 +1496,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1902,7 +1908,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2314,7 +2320,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2601,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2726,7 +2732,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3138,7 +3144,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3344,7 +3350,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3962,7 +3968,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4168,7 +4174,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4786,7 +4792,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -4992,7 +4998,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5198,7 +5204,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5610,7 +5616,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5816,7 +5822,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6022,7 +6028,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6309,7 +6315,7 @@
         <v>3</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
         <v>1.55</v>
@@ -6434,7 +6440,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6640,7 +6646,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6846,7 +6852,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7052,7 +7058,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7876,7 +7882,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8082,7 +8088,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8288,7 +8294,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8494,7 +8500,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8700,7 +8706,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -8906,7 +8912,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q40">
         <v>3.72</v>
@@ -9112,7 +9118,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9318,7 +9324,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9524,7 +9530,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10093,6 +10099,212 @@
       </c>
       <c r="BP45">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7468908</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45556.39583333334</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>121</v>
+      </c>
+      <c r="P46" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q46">
+        <v>3.2</v>
+      </c>
+      <c r="R46">
+        <v>2.1</v>
+      </c>
+      <c r="S46">
+        <v>3.5</v>
+      </c>
+      <c r="T46">
+        <v>1.44</v>
+      </c>
+      <c r="U46">
+        <v>2.63</v>
+      </c>
+      <c r="V46">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <v>1.36</v>
+      </c>
+      <c r="X46">
+        <v>9</v>
+      </c>
+      <c r="Y46">
+        <v>1.07</v>
+      </c>
+      <c r="Z46">
+        <v>999.99</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>999.99</v>
+      </c>
+      <c r="AC46">
+        <v>1.06</v>
+      </c>
+      <c r="AD46">
+        <v>7.2</v>
+      </c>
+      <c r="AE46">
+        <v>1.27</v>
+      </c>
+      <c r="AF46">
+        <v>3.4</v>
+      </c>
+      <c r="AG46">
+        <v>2.05</v>
+      </c>
+      <c r="AH46">
+        <v>1.67</v>
+      </c>
+      <c r="AI46">
+        <v>1.8</v>
+      </c>
+      <c r="AJ46">
+        <v>1.91</v>
+      </c>
+      <c r="AK46">
+        <v>1.3</v>
+      </c>
+      <c r="AL46">
+        <v>1.33</v>
+      </c>
+      <c r="AM46">
+        <v>1.55</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>1.5</v>
+      </c>
+      <c r="AP46">
+        <v>1</v>
+      </c>
+      <c r="AQ46">
+        <v>1.33</v>
+      </c>
+      <c r="AR46">
+        <v>1.88</v>
+      </c>
+      <c r="AS46">
+        <v>1.98</v>
+      </c>
+      <c r="AT46">
+        <v>3.86</v>
+      </c>
+      <c r="AU46">
+        <v>2</v>
+      </c>
+      <c r="AV46">
+        <v>6</v>
+      </c>
+      <c r="AW46">
+        <v>4</v>
+      </c>
+      <c r="AX46">
+        <v>7</v>
+      </c>
+      <c r="AY46">
+        <v>6</v>
+      </c>
+      <c r="AZ46">
+        <v>13</v>
+      </c>
+      <c r="BA46">
+        <v>1</v>
+      </c>
+      <c r="BB46">
+        <v>10</v>
+      </c>
+      <c r="BC46">
+        <v>11</v>
+      </c>
+      <c r="BD46">
+        <v>2</v>
+      </c>
+      <c r="BE46">
+        <v>8</v>
+      </c>
+      <c r="BF46">
+        <v>2.1</v>
+      </c>
+      <c r="BG46">
+        <v>1.29</v>
+      </c>
+      <c r="BH46">
+        <v>3.4</v>
+      </c>
+      <c r="BI46">
+        <v>1.53</v>
+      </c>
+      <c r="BJ46">
+        <v>2.4</v>
+      </c>
+      <c r="BK46">
+        <v>2</v>
+      </c>
+      <c r="BL46">
+        <v>1.8</v>
+      </c>
+      <c r="BM46">
+        <v>2.55</v>
+      </c>
+      <c r="BN46">
+        <v>1.48</v>
+      </c>
+      <c r="BO46">
+        <v>3.5</v>
+      </c>
+      <c r="BP46">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,33 @@
     <t>['27']</t>
   </si>
   <si>
+    <t>['13', '81']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['35', '37', '45+3', '48', '70', '81']</t>
+  </si>
+  <si>
+    <t>['10', '75']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['58', '71']</t>
+  </si>
+  <si>
+    <t>['65', '83']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -451,9 +478,6 @@
     <t>['55', '60', '66', '70']</t>
   </si>
   <si>
-    <t>['10']</t>
-  </si>
-  <si>
     <t>['4', '65']</t>
   </si>
   <si>
@@ -464,6 +488,18 @@
   </si>
   <si>
     <t>['85']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['76', '83', '85']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1120,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1162,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ2">
         <v>0.67</v>
@@ -1496,7 +1532,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1574,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ4">
         <v>1.67</v>
@@ -1908,7 +1944,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1989,7 +2025,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2195,7 +2231,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2320,7 +2356,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2398,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2607,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2732,7 +2768,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2810,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3144,7 +3180,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3225,7 +3261,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3350,7 +3386,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3968,7 +4004,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4046,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4174,7 +4210,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4252,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4461,7 +4497,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4792,7 +4828,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -4873,7 +4909,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -4998,7 +5034,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5076,7 +5112,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -5204,7 +5240,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5488,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -5616,7 +5652,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5694,7 +5730,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -5822,7 +5858,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5903,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6028,7 +6064,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6315,7 +6351,7 @@
         <v>3</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.55</v>
@@ -6440,7 +6476,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6518,10 +6554,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>1.92</v>
@@ -6646,7 +6682,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6852,7 +6888,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7058,7 +7094,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7136,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7345,7 +7381,7 @@
         <v>3</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>0.82</v>
@@ -7548,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -7757,7 +7793,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ34">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -7882,7 +7918,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -7963,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="AQ35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>1.69</v>
@@ -8088,7 +8124,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8166,7 +8202,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>3</v>
@@ -8294,7 +8330,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8500,7 +8536,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8706,7 +8742,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -8787,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>0.8</v>
@@ -8912,7 +8948,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="Q40">
         <v>3.72</v>
@@ -9118,7 +9154,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9324,7 +9360,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9402,7 +9438,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ42">
         <v>0.67</v>
@@ -9530,7 +9566,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9611,7 +9647,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR43">
         <v>0.8</v>
@@ -9814,7 +9850,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
         <v>0.33</v>
@@ -10148,7 +10184,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10226,10 +10262,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.88</v>
@@ -10305,6 +10341,1860 @@
       </c>
       <c r="BP46">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7468912</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>122</v>
+      </c>
+      <c r="P47" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q47">
+        <v>2.55</v>
+      </c>
+      <c r="R47">
+        <v>2.05</v>
+      </c>
+      <c r="S47">
+        <v>4.2</v>
+      </c>
+      <c r="T47">
+        <v>1.42</v>
+      </c>
+      <c r="U47">
+        <v>2.65</v>
+      </c>
+      <c r="V47">
+        <v>2.95</v>
+      </c>
+      <c r="W47">
+        <v>1.35</v>
+      </c>
+      <c r="X47">
+        <v>7.6</v>
+      </c>
+      <c r="Y47">
+        <v>1.07</v>
+      </c>
+      <c r="Z47">
+        <v>1.98</v>
+      </c>
+      <c r="AA47">
+        <v>3.2</v>
+      </c>
+      <c r="AB47">
+        <v>3.6</v>
+      </c>
+      <c r="AC47">
+        <v>1.01</v>
+      </c>
+      <c r="AD47">
+        <v>7.9</v>
+      </c>
+      <c r="AE47">
+        <v>1.32</v>
+      </c>
+      <c r="AF47">
+        <v>3.23</v>
+      </c>
+      <c r="AG47">
+        <v>2</v>
+      </c>
+      <c r="AH47">
+        <v>1.7</v>
+      </c>
+      <c r="AI47">
+        <v>1.83</v>
+      </c>
+      <c r="AJ47">
+        <v>1.83</v>
+      </c>
+      <c r="AK47">
+        <v>1.22</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>1.85</v>
+      </c>
+      <c r="AN47">
+        <v>1.33</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>1.75</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>1.49</v>
+      </c>
+      <c r="AS47">
+        <v>1.25</v>
+      </c>
+      <c r="AT47">
+        <v>2.74</v>
+      </c>
+      <c r="AU47">
+        <v>4</v>
+      </c>
+      <c r="AV47">
+        <v>5</v>
+      </c>
+      <c r="AW47">
+        <v>8</v>
+      </c>
+      <c r="AX47">
+        <v>3</v>
+      </c>
+      <c r="AY47">
+        <v>12</v>
+      </c>
+      <c r="AZ47">
+        <v>8</v>
+      </c>
+      <c r="BA47">
+        <v>10</v>
+      </c>
+      <c r="BB47">
+        <v>2</v>
+      </c>
+      <c r="BC47">
+        <v>12</v>
+      </c>
+      <c r="BD47">
+        <v>1.48</v>
+      </c>
+      <c r="BE47">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF47">
+        <v>3.24</v>
+      </c>
+      <c r="BG47">
+        <v>1.19</v>
+      </c>
+      <c r="BH47">
+        <v>3.64</v>
+      </c>
+      <c r="BI47">
+        <v>1.41</v>
+      </c>
+      <c r="BJ47">
+        <v>2.6</v>
+      </c>
+      <c r="BK47">
+        <v>1.78</v>
+      </c>
+      <c r="BL47">
+        <v>2.03</v>
+      </c>
+      <c r="BM47">
+        <v>2.24</v>
+      </c>
+      <c r="BN47">
+        <v>1.64</v>
+      </c>
+      <c r="BO47">
+        <v>2.82</v>
+      </c>
+      <c r="BP47">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7468913</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>123</v>
+      </c>
+      <c r="P48" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q48">
+        <v>2.1</v>
+      </c>
+      <c r="R48">
+        <v>2.2</v>
+      </c>
+      <c r="S48">
+        <v>5</v>
+      </c>
+      <c r="T48">
+        <v>1.36</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <v>2.67</v>
+      </c>
+      <c r="W48">
+        <v>1.44</v>
+      </c>
+      <c r="X48">
+        <v>6.6</v>
+      </c>
+      <c r="Y48">
+        <v>1.09</v>
+      </c>
+      <c r="Z48">
+        <v>1.67</v>
+      </c>
+      <c r="AA48">
+        <v>3.6</v>
+      </c>
+      <c r="AB48">
+        <v>4.5</v>
+      </c>
+      <c r="AC48">
+        <v>1.02</v>
+      </c>
+      <c r="AD48">
+        <v>12.9</v>
+      </c>
+      <c r="AE48">
+        <v>1.27</v>
+      </c>
+      <c r="AF48">
+        <v>3.74</v>
+      </c>
+      <c r="AG48">
+        <v>1.85</v>
+      </c>
+      <c r="AH48">
+        <v>1.85</v>
+      </c>
+      <c r="AI48">
+        <v>1.8</v>
+      </c>
+      <c r="AJ48">
+        <v>2</v>
+      </c>
+      <c r="AK48">
+        <v>1.15</v>
+      </c>
+      <c r="AL48">
+        <v>1.2</v>
+      </c>
+      <c r="AM48">
+        <v>2.2</v>
+      </c>
+      <c r="AN48">
+        <v>1.5</v>
+      </c>
+      <c r="AO48">
+        <v>0.33</v>
+      </c>
+      <c r="AP48">
+        <v>2</v>
+      </c>
+      <c r="AQ48">
+        <v>0.25</v>
+      </c>
+      <c r="AR48">
+        <v>1.82</v>
+      </c>
+      <c r="AS48">
+        <v>0.93</v>
+      </c>
+      <c r="AT48">
+        <v>2.75</v>
+      </c>
+      <c r="AU48">
+        <v>3</v>
+      </c>
+      <c r="AV48">
+        <v>4</v>
+      </c>
+      <c r="AW48">
+        <v>6</v>
+      </c>
+      <c r="AX48">
+        <v>9</v>
+      </c>
+      <c r="AY48">
+        <v>9</v>
+      </c>
+      <c r="AZ48">
+        <v>13</v>
+      </c>
+      <c r="BA48">
+        <v>2</v>
+      </c>
+      <c r="BB48">
+        <v>7</v>
+      </c>
+      <c r="BC48">
+        <v>9</v>
+      </c>
+      <c r="BD48">
+        <v>1.46</v>
+      </c>
+      <c r="BE48">
+        <v>7.4</v>
+      </c>
+      <c r="BF48">
+        <v>3.66</v>
+      </c>
+      <c r="BG48">
+        <v>1.18</v>
+      </c>
+      <c r="BH48">
+        <v>3.7</v>
+      </c>
+      <c r="BI48">
+        <v>1.4</v>
+      </c>
+      <c r="BJ48">
+        <v>2.64</v>
+      </c>
+      <c r="BK48">
+        <v>1.76</v>
+      </c>
+      <c r="BL48">
+        <v>2.03</v>
+      </c>
+      <c r="BM48">
+        <v>2.21</v>
+      </c>
+      <c r="BN48">
+        <v>1.64</v>
+      </c>
+      <c r="BO48">
+        <v>2.78</v>
+      </c>
+      <c r="BP48">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7468914</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>6</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>6</v>
+      </c>
+      <c r="O49" t="s">
+        <v>124</v>
+      </c>
+      <c r="P49" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="R49">
+        <v>2.25</v>
+      </c>
+      <c r="S49">
+        <v>7</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49">
+        <v>2.75</v>
+      </c>
+      <c r="V49">
+        <v>2.75</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>8</v>
+      </c>
+      <c r="Y49">
+        <v>1.08</v>
+      </c>
+      <c r="Z49">
+        <v>1.42</v>
+      </c>
+      <c r="AA49">
+        <v>4</v>
+      </c>
+      <c r="AB49">
+        <v>6.6</v>
+      </c>
+      <c r="AC49">
+        <v>1.05</v>
+      </c>
+      <c r="AD49">
+        <v>9.5</v>
+      </c>
+      <c r="AE49">
+        <v>1.3</v>
+      </c>
+      <c r="AF49">
+        <v>3.4</v>
+      </c>
+      <c r="AG49">
+        <v>1.9</v>
+      </c>
+      <c r="AH49">
+        <v>1.8</v>
+      </c>
+      <c r="AI49">
+        <v>2.2</v>
+      </c>
+      <c r="AJ49">
+        <v>1.62</v>
+      </c>
+      <c r="AK49">
+        <v>1.09</v>
+      </c>
+      <c r="AL49">
+        <v>1.17</v>
+      </c>
+      <c r="AM49">
+        <v>2.7</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>1.5</v>
+      </c>
+      <c r="AP49">
+        <v>1.5</v>
+      </c>
+      <c r="AQ49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
+        <v>1.53</v>
+      </c>
+      <c r="AS49">
+        <v>1.16</v>
+      </c>
+      <c r="AT49">
+        <v>2.69</v>
+      </c>
+      <c r="AU49">
+        <v>10</v>
+      </c>
+      <c r="AV49">
+        <v>6</v>
+      </c>
+      <c r="AW49">
+        <v>8</v>
+      </c>
+      <c r="AX49">
+        <v>4</v>
+      </c>
+      <c r="AY49">
+        <v>18</v>
+      </c>
+      <c r="AZ49">
+        <v>10</v>
+      </c>
+      <c r="BA49">
+        <v>5</v>
+      </c>
+      <c r="BB49">
+        <v>5</v>
+      </c>
+      <c r="BC49">
+        <v>10</v>
+      </c>
+      <c r="BD49">
+        <v>1.21</v>
+      </c>
+      <c r="BE49">
+        <v>9.1</v>
+      </c>
+      <c r="BF49">
+        <v>6.35</v>
+      </c>
+      <c r="BG49">
+        <v>1.32</v>
+      </c>
+      <c r="BH49">
+        <v>3.2</v>
+      </c>
+      <c r="BI49">
+        <v>1.58</v>
+      </c>
+      <c r="BJ49">
+        <v>2.28</v>
+      </c>
+      <c r="BK49">
+        <v>2.02</v>
+      </c>
+      <c r="BL49">
+        <v>1.74</v>
+      </c>
+      <c r="BM49">
+        <v>2.7</v>
+      </c>
+      <c r="BN49">
+        <v>1.43</v>
+      </c>
+      <c r="BO49">
+        <v>3.8</v>
+      </c>
+      <c r="BP49">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7468915</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>85</v>
+      </c>
+      <c r="H50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>125</v>
+      </c>
+      <c r="P50" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q50">
+        <v>2.8</v>
+      </c>
+      <c r="R50">
+        <v>1.95</v>
+      </c>
+      <c r="S50">
+        <v>4</v>
+      </c>
+      <c r="T50">
+        <v>1.48</v>
+      </c>
+      <c r="U50">
+        <v>2.45</v>
+      </c>
+      <c r="V50">
+        <v>3.2</v>
+      </c>
+      <c r="W50">
+        <v>1.3</v>
+      </c>
+      <c r="X50">
+        <v>8.6</v>
+      </c>
+      <c r="Y50">
+        <v>1.05</v>
+      </c>
+      <c r="Z50">
+        <v>2.17</v>
+      </c>
+      <c r="AA50">
+        <v>3.1</v>
+      </c>
+      <c r="AB50">
+        <v>3.2</v>
+      </c>
+      <c r="AC50">
+        <v>1.02</v>
+      </c>
+      <c r="AD50">
+        <v>7</v>
+      </c>
+      <c r="AE50">
+        <v>1.37</v>
+      </c>
+      <c r="AF50">
+        <v>2.96</v>
+      </c>
+      <c r="AG50">
+        <v>2.2</v>
+      </c>
+      <c r="AH50">
+        <v>1.6</v>
+      </c>
+      <c r="AI50">
+        <v>1.85</v>
+      </c>
+      <c r="AJ50">
+        <v>1.8</v>
+      </c>
+      <c r="AK50">
+        <v>1.3</v>
+      </c>
+      <c r="AL50">
+        <v>1.3</v>
+      </c>
+      <c r="AM50">
+        <v>1.65</v>
+      </c>
+      <c r="AN50">
+        <v>1.5</v>
+      </c>
+      <c r="AO50">
+        <v>3</v>
+      </c>
+      <c r="AP50">
+        <v>2</v>
+      </c>
+      <c r="AQ50">
+        <v>2</v>
+      </c>
+      <c r="AR50">
+        <v>1.61</v>
+      </c>
+      <c r="AS50">
+        <v>1.49</v>
+      </c>
+      <c r="AT50">
+        <v>3.1</v>
+      </c>
+      <c r="AU50">
+        <v>9</v>
+      </c>
+      <c r="AV50">
+        <v>6</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>3</v>
+      </c>
+      <c r="AY50">
+        <v>9</v>
+      </c>
+      <c r="AZ50">
+        <v>9</v>
+      </c>
+      <c r="BA50">
+        <v>2</v>
+      </c>
+      <c r="BB50">
+        <v>2</v>
+      </c>
+      <c r="BC50">
+        <v>4</v>
+      </c>
+      <c r="BD50">
+        <v>1.68</v>
+      </c>
+      <c r="BE50">
+        <v>6.65</v>
+      </c>
+      <c r="BF50">
+        <v>2.88</v>
+      </c>
+      <c r="BG50">
+        <v>1.27</v>
+      </c>
+      <c r="BH50">
+        <v>3.04</v>
+      </c>
+      <c r="BI50">
+        <v>1.6</v>
+      </c>
+      <c r="BJ50">
+        <v>2.29</v>
+      </c>
+      <c r="BK50">
+        <v>2</v>
+      </c>
+      <c r="BL50">
+        <v>1.8</v>
+      </c>
+      <c r="BM50">
+        <v>2.57</v>
+      </c>
+      <c r="BN50">
+        <v>1.49</v>
+      </c>
+      <c r="BO50">
+        <v>3.35</v>
+      </c>
+      <c r="BP50">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7468916</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>126</v>
+      </c>
+      <c r="P51" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q51">
+        <v>4.33</v>
+      </c>
+      <c r="R51">
+        <v>2.25</v>
+      </c>
+      <c r="S51">
+        <v>2.5</v>
+      </c>
+      <c r="T51">
+        <v>1.36</v>
+      </c>
+      <c r="U51">
+        <v>3</v>
+      </c>
+      <c r="V51">
+        <v>2.63</v>
+      </c>
+      <c r="W51">
+        <v>1.44</v>
+      </c>
+      <c r="X51">
+        <v>7</v>
+      </c>
+      <c r="Y51">
+        <v>1.1</v>
+      </c>
+      <c r="Z51">
+        <v>3.6</v>
+      </c>
+      <c r="AA51">
+        <v>3.3</v>
+      </c>
+      <c r="AB51">
+        <v>1.93</v>
+      </c>
+      <c r="AC51">
+        <v>1.05</v>
+      </c>
+      <c r="AD51">
+        <v>9.5</v>
+      </c>
+      <c r="AE51">
+        <v>1.21</v>
+      </c>
+      <c r="AF51">
+        <v>3.5</v>
+      </c>
+      <c r="AG51">
+        <v>1.75</v>
+      </c>
+      <c r="AH51">
+        <v>1.95</v>
+      </c>
+      <c r="AI51">
+        <v>1.73</v>
+      </c>
+      <c r="AJ51">
+        <v>2</v>
+      </c>
+      <c r="AK51">
+        <v>1.85</v>
+      </c>
+      <c r="AL51">
+        <v>1.22</v>
+      </c>
+      <c r="AM51">
+        <v>1.25</v>
+      </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="AO51">
+        <v>1.33</v>
+      </c>
+      <c r="AP51">
+        <v>3</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>1.48</v>
+      </c>
+      <c r="AS51">
+        <v>1.93</v>
+      </c>
+      <c r="AT51">
+        <v>3.41</v>
+      </c>
+      <c r="AU51">
+        <v>8</v>
+      </c>
+      <c r="AV51">
+        <v>3</v>
+      </c>
+      <c r="AW51">
+        <v>5</v>
+      </c>
+      <c r="AX51">
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <v>13</v>
+      </c>
+      <c r="AZ51">
+        <v>6</v>
+      </c>
+      <c r="BA51">
+        <v>7</v>
+      </c>
+      <c r="BB51">
+        <v>1</v>
+      </c>
+      <c r="BC51">
+        <v>8</v>
+      </c>
+      <c r="BD51">
+        <v>3.02</v>
+      </c>
+      <c r="BE51">
+        <v>6.7</v>
+      </c>
+      <c r="BF51">
+        <v>1.63</v>
+      </c>
+      <c r="BG51">
+        <v>1.29</v>
+      </c>
+      <c r="BH51">
+        <v>3.4</v>
+      </c>
+      <c r="BI51">
+        <v>1.52</v>
+      </c>
+      <c r="BJ51">
+        <v>2.43</v>
+      </c>
+      <c r="BK51">
+        <v>1.87</v>
+      </c>
+      <c r="BL51">
+        <v>1.87</v>
+      </c>
+      <c r="BM51">
+        <v>2.37</v>
+      </c>
+      <c r="BN51">
+        <v>1.54</v>
+      </c>
+      <c r="BO51">
+        <v>3.1</v>
+      </c>
+      <c r="BP51">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7468917</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>127</v>
+      </c>
+      <c r="P52" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>1.91</v>
+      </c>
+      <c r="S52">
+        <v>3.75</v>
+      </c>
+      <c r="T52">
+        <v>1.55</v>
+      </c>
+      <c r="U52">
+        <v>2.3</v>
+      </c>
+      <c r="V52">
+        <v>3.55</v>
+      </c>
+      <c r="W52">
+        <v>1.25</v>
+      </c>
+      <c r="X52">
+        <v>9.9</v>
+      </c>
+      <c r="Y52">
+        <v>1.03</v>
+      </c>
+      <c r="Z52">
+        <v>2.34</v>
+      </c>
+      <c r="AA52">
+        <v>2.9</v>
+      </c>
+      <c r="AB52">
+        <v>3</v>
+      </c>
+      <c r="AC52">
+        <v>1.1</v>
+      </c>
+      <c r="AD52">
+        <v>6.84</v>
+      </c>
+      <c r="AE52">
+        <v>1.49</v>
+      </c>
+      <c r="AF52">
+        <v>2.5</v>
+      </c>
+      <c r="AG52">
+        <v>2.55</v>
+      </c>
+      <c r="AH52">
+        <v>1.45</v>
+      </c>
+      <c r="AI52">
+        <v>2.05</v>
+      </c>
+      <c r="AJ52">
+        <v>1.75</v>
+      </c>
+      <c r="AK52">
+        <v>1.3</v>
+      </c>
+      <c r="AL52">
+        <v>1.3</v>
+      </c>
+      <c r="AM52">
+        <v>1.57</v>
+      </c>
+      <c r="AN52">
+        <v>3</v>
+      </c>
+      <c r="AO52">
+        <v>1.5</v>
+      </c>
+      <c r="AP52">
+        <v>3</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>1.34</v>
+      </c>
+      <c r="AS52">
+        <v>1.37</v>
+      </c>
+      <c r="AT52">
+        <v>2.71</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AV52">
+        <v>2</v>
+      </c>
+      <c r="AW52">
+        <v>3</v>
+      </c>
+      <c r="AX52">
+        <v>5</v>
+      </c>
+      <c r="AY52">
+        <v>7</v>
+      </c>
+      <c r="AZ52">
+        <v>7</v>
+      </c>
+      <c r="BA52">
+        <v>6</v>
+      </c>
+      <c r="BB52">
+        <v>3</v>
+      </c>
+      <c r="BC52">
+        <v>9</v>
+      </c>
+      <c r="BD52">
+        <v>1.68</v>
+      </c>
+      <c r="BE52">
+        <v>6.5</v>
+      </c>
+      <c r="BF52">
+        <v>2.9</v>
+      </c>
+      <c r="BG52">
+        <v>1.36</v>
+      </c>
+      <c r="BH52">
+        <v>2.78</v>
+      </c>
+      <c r="BI52">
+        <v>1.74</v>
+      </c>
+      <c r="BJ52">
+        <v>2.08</v>
+      </c>
+      <c r="BK52">
+        <v>2.19</v>
+      </c>
+      <c r="BL52">
+        <v>1.66</v>
+      </c>
+      <c r="BM52">
+        <v>2.78</v>
+      </c>
+      <c r="BN52">
+        <v>1.32</v>
+      </c>
+      <c r="BO52">
+        <v>3.94</v>
+      </c>
+      <c r="BP52">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7468918</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53" t="s">
+        <v>128</v>
+      </c>
+      <c r="P53" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q53">
+        <v>3.25</v>
+      </c>
+      <c r="R53">
+        <v>1.91</v>
+      </c>
+      <c r="S53">
+        <v>3.45</v>
+      </c>
+      <c r="T53">
+        <v>1.5</v>
+      </c>
+      <c r="U53">
+        <v>2.4</v>
+      </c>
+      <c r="V53">
+        <v>3.3</v>
+      </c>
+      <c r="W53">
+        <v>1.28</v>
+      </c>
+      <c r="X53">
+        <v>9</v>
+      </c>
+      <c r="Y53">
+        <v>1.04</v>
+      </c>
+      <c r="Z53">
+        <v>2.6</v>
+      </c>
+      <c r="AA53">
+        <v>3</v>
+      </c>
+      <c r="AB53">
+        <v>2.6</v>
+      </c>
+      <c r="AC53">
+        <v>1.03</v>
+      </c>
+      <c r="AD53">
+        <v>6.7</v>
+      </c>
+      <c r="AE53">
+        <v>1.4</v>
+      </c>
+      <c r="AF53">
+        <v>2.84</v>
+      </c>
+      <c r="AG53">
+        <v>2.3</v>
+      </c>
+      <c r="AH53">
+        <v>1.55</v>
+      </c>
+      <c r="AI53">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53">
+        <v>1.77</v>
+      </c>
+      <c r="AK53">
+        <v>1.42</v>
+      </c>
+      <c r="AL53">
+        <v>1.3</v>
+      </c>
+      <c r="AM53">
+        <v>1.48</v>
+      </c>
+      <c r="AN53">
+        <v>2</v>
+      </c>
+      <c r="AO53">
+        <v>2</v>
+      </c>
+      <c r="AP53">
+        <v>2.25</v>
+      </c>
+      <c r="AQ53">
+        <v>1.33</v>
+      </c>
+      <c r="AR53">
+        <v>1.76</v>
+      </c>
+      <c r="AS53">
+        <v>0.98</v>
+      </c>
+      <c r="AT53">
+        <v>2.74</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
+        <v>4</v>
+      </c>
+      <c r="AX53">
+        <v>6</v>
+      </c>
+      <c r="AY53">
+        <v>8</v>
+      </c>
+      <c r="AZ53">
+        <v>11</v>
+      </c>
+      <c r="BA53">
+        <v>5</v>
+      </c>
+      <c r="BB53">
+        <v>2</v>
+      </c>
+      <c r="BC53">
+        <v>7</v>
+      </c>
+      <c r="BD53">
+        <v>1.73</v>
+      </c>
+      <c r="BE53">
+        <v>6.55</v>
+      </c>
+      <c r="BF53">
+        <v>2.76</v>
+      </c>
+      <c r="BG53">
+        <v>1.28</v>
+      </c>
+      <c r="BH53">
+        <v>2.97</v>
+      </c>
+      <c r="BI53">
+        <v>1.64</v>
+      </c>
+      <c r="BJ53">
+        <v>2.24</v>
+      </c>
+      <c r="BK53">
+        <v>2.04</v>
+      </c>
+      <c r="BL53">
+        <v>1.76</v>
+      </c>
+      <c r="BM53">
+        <v>2.6</v>
+      </c>
+      <c r="BN53">
+        <v>1.41</v>
+      </c>
+      <c r="BO53">
+        <v>3.44</v>
+      </c>
+      <c r="BP53">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7468919</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" t="s">
+        <v>87</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>129</v>
+      </c>
+      <c r="P54" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q54">
+        <v>2.55</v>
+      </c>
+      <c r="R54">
+        <v>2.1</v>
+      </c>
+      <c r="S54">
+        <v>4</v>
+      </c>
+      <c r="T54">
+        <v>1.4</v>
+      </c>
+      <c r="U54">
+        <v>2.7</v>
+      </c>
+      <c r="V54">
+        <v>2.85</v>
+      </c>
+      <c r="W54">
+        <v>1.36</v>
+      </c>
+      <c r="X54">
+        <v>7.3</v>
+      </c>
+      <c r="Y54">
+        <v>1.07</v>
+      </c>
+      <c r="Z54">
+        <v>2.06</v>
+      </c>
+      <c r="AA54">
+        <v>3.2</v>
+      </c>
+      <c r="AB54">
+        <v>3.3</v>
+      </c>
+      <c r="AC54">
+        <v>1.06</v>
+      </c>
+      <c r="AD54">
+        <v>8.5</v>
+      </c>
+      <c r="AE54">
+        <v>1.33</v>
+      </c>
+      <c r="AF54">
+        <v>3.3</v>
+      </c>
+      <c r="AG54">
+        <v>1.9</v>
+      </c>
+      <c r="AH54">
+        <v>1.8</v>
+      </c>
+      <c r="AI54">
+        <v>1.75</v>
+      </c>
+      <c r="AJ54">
+        <v>1.93</v>
+      </c>
+      <c r="AK54">
+        <v>1.28</v>
+      </c>
+      <c r="AL54">
+        <v>1.25</v>
+      </c>
+      <c r="AM54">
+        <v>1.77</v>
+      </c>
+      <c r="AN54">
+        <v>0.33</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>0.5</v>
+      </c>
+      <c r="AQ54">
+        <v>1</v>
+      </c>
+      <c r="AR54">
+        <v>1.19</v>
+      </c>
+      <c r="AS54">
+        <v>1.25</v>
+      </c>
+      <c r="AT54">
+        <v>2.44</v>
+      </c>
+      <c r="AU54">
+        <v>5</v>
+      </c>
+      <c r="AV54">
+        <v>5</v>
+      </c>
+      <c r="AW54">
+        <v>3</v>
+      </c>
+      <c r="AX54">
+        <v>3</v>
+      </c>
+      <c r="AY54">
+        <v>8</v>
+      </c>
+      <c r="AZ54">
+        <v>8</v>
+      </c>
+      <c r="BA54">
+        <v>6</v>
+      </c>
+      <c r="BB54">
+        <v>4</v>
+      </c>
+      <c r="BC54">
+        <v>10</v>
+      </c>
+      <c r="BD54">
+        <v>1.55</v>
+      </c>
+      <c r="BE54">
+        <v>6.9</v>
+      </c>
+      <c r="BF54">
+        <v>3.3</v>
+      </c>
+      <c r="BG54">
+        <v>1.27</v>
+      </c>
+      <c r="BH54">
+        <v>3.55</v>
+      </c>
+      <c r="BI54">
+        <v>1.5</v>
+      </c>
+      <c r="BJ54">
+        <v>2.48</v>
+      </c>
+      <c r="BK54">
+        <v>1.87</v>
+      </c>
+      <c r="BL54">
+        <v>1.87</v>
+      </c>
+      <c r="BM54">
+        <v>2.45</v>
+      </c>
+      <c r="BN54">
+        <v>1.5</v>
+      </c>
+      <c r="BO54">
+        <v>3.4</v>
+      </c>
+      <c r="BP54">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7468920</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s">
+        <v>80</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>130</v>
+      </c>
+      <c r="P55" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q55">
+        <v>2.55</v>
+      </c>
+      <c r="R55">
+        <v>2.1</v>
+      </c>
+      <c r="S55">
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>1.4</v>
+      </c>
+      <c r="U55">
+        <v>2.7</v>
+      </c>
+      <c r="V55">
+        <v>2.88</v>
+      </c>
+      <c r="W55">
+        <v>1.36</v>
+      </c>
+      <c r="X55">
+        <v>7.4</v>
+      </c>
+      <c r="Y55">
+        <v>1.07</v>
+      </c>
+      <c r="Z55">
+        <v>2.1</v>
+      </c>
+      <c r="AA55">
+        <v>3.2</v>
+      </c>
+      <c r="AB55">
+        <v>3.2</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>8.1</v>
+      </c>
+      <c r="AE55">
+        <v>1.31</v>
+      </c>
+      <c r="AF55">
+        <v>3.32</v>
+      </c>
+      <c r="AG55">
+        <v>1.95</v>
+      </c>
+      <c r="AH55">
+        <v>1.75</v>
+      </c>
+      <c r="AI55">
+        <v>1.77</v>
+      </c>
+      <c r="AJ55">
+        <v>1.91</v>
+      </c>
+      <c r="AK55">
+        <v>1.25</v>
+      </c>
+      <c r="AL55">
+        <v>1.25</v>
+      </c>
+      <c r="AM55">
+        <v>1.77</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>1.33</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>1.75</v>
+      </c>
+      <c r="AR55">
+        <v>1.98</v>
+      </c>
+      <c r="AS55">
+        <v>1.24</v>
+      </c>
+      <c r="AT55">
+        <v>3.22</v>
+      </c>
+      <c r="AU55">
+        <v>7</v>
+      </c>
+      <c r="AV55">
+        <v>7</v>
+      </c>
+      <c r="AW55">
+        <v>7</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>14</v>
+      </c>
+      <c r="AZ55">
+        <v>7</v>
+      </c>
+      <c r="BA55">
+        <v>3</v>
+      </c>
+      <c r="BB55">
+        <v>9</v>
+      </c>
+      <c r="BC55">
+        <v>12</v>
+      </c>
+      <c r="BD55">
+        <v>1.52</v>
+      </c>
+      <c r="BE55">
+        <v>7.3</v>
+      </c>
+      <c r="BF55">
+        <v>3.35</v>
+      </c>
+      <c r="BG55">
+        <v>1.16</v>
+      </c>
+      <c r="BH55">
+        <v>3.92</v>
+      </c>
+      <c r="BI55">
+        <v>1.33</v>
+      </c>
+      <c r="BJ55">
+        <v>2.72</v>
+      </c>
+      <c r="BK55">
+        <v>1.69</v>
+      </c>
+      <c r="BL55">
+        <v>2.13</v>
+      </c>
+      <c r="BM55">
+        <v>2.11</v>
+      </c>
+      <c r="BN55">
+        <v>1.7</v>
+      </c>
+      <c r="BO55">
+        <v>2.71</v>
+      </c>
+      <c r="BP55">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,24 @@
     <t>['15']</t>
   </si>
   <si>
+    <t>['69', '78', '90+2']</t>
+  </si>
+  <si>
+    <t>['29', '41', '80']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['39', '51']</t>
+  </si>
+  <si>
+    <t>['71', '83']</t>
+  </si>
+  <si>
+    <t>['45+1', '62', '84']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -454,9 +472,6 @@
     <t>['5']</t>
   </si>
   <si>
-    <t>['9']</t>
-  </si>
-  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -500,6 +515,18 @@
   </si>
   <si>
     <t>['76', '83', '85']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['10', '82']</t>
+  </si>
+  <si>
+    <t>['30']</t>
   </si>
 </sst>
 </file>
@@ -861,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1120,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1201,7 +1228,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1407,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1532,7 +1559,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1613,7 +1640,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ4">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1944,7 +1971,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2022,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ6">
         <v>1.75</v>
@@ -2356,7 +2383,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2640,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2768,7 +2795,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3055,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3180,7 +3207,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3258,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3386,7 +3413,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3876,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -4004,7 +4031,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4210,7 +4237,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4291,7 +4318,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4703,7 +4730,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4828,7 +4855,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5034,7 +5061,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5240,7 +5267,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5527,7 +5554,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>2.13</v>
@@ -5652,7 +5679,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5733,7 +5760,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.39</v>
@@ -5858,7 +5885,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5936,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ25">
         <v>1.33</v>
@@ -6064,7 +6091,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6142,10 +6169,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
         <v>1.19</v>
@@ -6476,7 +6503,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6682,7 +6709,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6760,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>1.48</v>
@@ -6888,7 +6915,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7094,7 +7121,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7175,7 +7202,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.38</v>
@@ -7790,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0.25</v>
@@ -7918,7 +7945,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8124,7 +8151,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8330,7 +8357,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8408,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -8536,7 +8563,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8617,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -8742,7 +8769,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -8820,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9026,7 +9053,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -9154,7 +9181,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9235,7 +9262,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.73</v>
@@ -9360,7 +9387,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9441,7 +9468,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
         <v>1.75</v>
@@ -9566,7 +9593,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9853,7 +9880,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10059,7 +10086,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.53</v>
@@ -10184,7 +10211,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10390,7 +10417,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -11626,7 +11653,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11832,7 +11859,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12038,7 +12065,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12195,6 +12222,1242 @@
       </c>
       <c r="BP55">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7468927</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56" t="s">
+        <v>71</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>131</v>
+      </c>
+      <c r="P56" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q56">
+        <v>2.25</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>5.75</v>
+      </c>
+      <c r="T56">
+        <v>1.5</v>
+      </c>
+      <c r="U56">
+        <v>2.4</v>
+      </c>
+      <c r="V56">
+        <v>3.45</v>
+      </c>
+      <c r="W56">
+        <v>1.25</v>
+      </c>
+      <c r="X56">
+        <v>9.1</v>
+      </c>
+      <c r="Y56">
+        <v>1.04</v>
+      </c>
+      <c r="Z56">
+        <v>1.6</v>
+      </c>
+      <c r="AA56">
+        <v>3.75</v>
+      </c>
+      <c r="AB56">
+        <v>6.25</v>
+      </c>
+      <c r="AC56">
+        <v>1.08</v>
+      </c>
+      <c r="AD56">
+        <v>8.6</v>
+      </c>
+      <c r="AE56">
+        <v>1.46</v>
+      </c>
+      <c r="AF56">
+        <v>2.72</v>
+      </c>
+      <c r="AG56">
+        <v>2.07</v>
+      </c>
+      <c r="AH56">
+        <v>1.67</v>
+      </c>
+      <c r="AI56">
+        <v>2.35</v>
+      </c>
+      <c r="AJ56">
+        <v>1.52</v>
+      </c>
+      <c r="AK56">
+        <v>1.16</v>
+      </c>
+      <c r="AL56">
+        <v>1.25</v>
+      </c>
+      <c r="AM56">
+        <v>2.3</v>
+      </c>
+      <c r="AN56">
+        <v>3</v>
+      </c>
+      <c r="AO56">
+        <v>0.33</v>
+      </c>
+      <c r="AP56">
+        <v>3</v>
+      </c>
+      <c r="AQ56">
+        <v>0.25</v>
+      </c>
+      <c r="AR56">
+        <v>1.76</v>
+      </c>
+      <c r="AS56">
+        <v>1.08</v>
+      </c>
+      <c r="AT56">
+        <v>2.84</v>
+      </c>
+      <c r="AU56">
+        <v>11</v>
+      </c>
+      <c r="AV56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
+        <v>11</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>22</v>
+      </c>
+      <c r="AZ56">
+        <v>6</v>
+      </c>
+      <c r="BA56">
+        <v>8</v>
+      </c>
+      <c r="BB56">
+        <v>3</v>
+      </c>
+      <c r="BC56">
+        <v>11</v>
+      </c>
+      <c r="BD56">
+        <v>1.41</v>
+      </c>
+      <c r="BE56">
+        <v>8.5</v>
+      </c>
+      <c r="BF56">
+        <v>3.68</v>
+      </c>
+      <c r="BG56">
+        <v>1.55</v>
+      </c>
+      <c r="BH56">
+        <v>2.28</v>
+      </c>
+      <c r="BI56">
+        <v>2</v>
+      </c>
+      <c r="BJ56">
+        <v>1.8</v>
+      </c>
+      <c r="BK56">
+        <v>2.5</v>
+      </c>
+      <c r="BL56">
+        <v>1.47</v>
+      </c>
+      <c r="BM56">
+        <v>3.4</v>
+      </c>
+      <c r="BN56">
+        <v>1.27</v>
+      </c>
+      <c r="BO56">
+        <v>4.8</v>
+      </c>
+      <c r="BP56">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7468926</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>132</v>
+      </c>
+      <c r="P57" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q57">
+        <v>2.88</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>3.6</v>
+      </c>
+      <c r="T57">
+        <v>1.45</v>
+      </c>
+      <c r="U57">
+        <v>2.55</v>
+      </c>
+      <c r="V57">
+        <v>2.95</v>
+      </c>
+      <c r="W57">
+        <v>1.35</v>
+      </c>
+      <c r="X57">
+        <v>9</v>
+      </c>
+      <c r="Y57">
+        <v>1.07</v>
+      </c>
+      <c r="Z57">
+        <v>2.43</v>
+      </c>
+      <c r="AA57">
+        <v>3.34</v>
+      </c>
+      <c r="AB57">
+        <v>2.93</v>
+      </c>
+      <c r="AC57">
+        <v>1.05</v>
+      </c>
+      <c r="AD57">
+        <v>8</v>
+      </c>
+      <c r="AE57">
+        <v>1.29</v>
+      </c>
+      <c r="AF57">
+        <v>3.3</v>
+      </c>
+      <c r="AG57">
+        <v>2.02</v>
+      </c>
+      <c r="AH57">
+        <v>1.71</v>
+      </c>
+      <c r="AI57">
+        <v>1.8</v>
+      </c>
+      <c r="AJ57">
+        <v>2</v>
+      </c>
+      <c r="AK57">
+        <v>1.36</v>
+      </c>
+      <c r="AL57">
+        <v>1.3</v>
+      </c>
+      <c r="AM57">
+        <v>1.57</v>
+      </c>
+      <c r="AN57">
+        <v>0.5</v>
+      </c>
+      <c r="AO57">
+        <v>0.67</v>
+      </c>
+      <c r="AP57">
+        <v>1.33</v>
+      </c>
+      <c r="AQ57">
+        <v>0.5</v>
+      </c>
+      <c r="AR57">
+        <v>1.54</v>
+      </c>
+      <c r="AS57">
+        <v>1.49</v>
+      </c>
+      <c r="AT57">
+        <v>3.03</v>
+      </c>
+      <c r="AU57">
+        <v>6</v>
+      </c>
+      <c r="AV57">
+        <v>3</v>
+      </c>
+      <c r="AW57">
+        <v>1</v>
+      </c>
+      <c r="AX57">
+        <v>3</v>
+      </c>
+      <c r="AY57">
+        <v>7</v>
+      </c>
+      <c r="AZ57">
+        <v>6</v>
+      </c>
+      <c r="BA57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>4</v>
+      </c>
+      <c r="BC57">
+        <v>7</v>
+      </c>
+      <c r="BD57">
+        <v>1.75</v>
+      </c>
+      <c r="BE57">
+        <v>8</v>
+      </c>
+      <c r="BF57">
+        <v>2.44</v>
+      </c>
+      <c r="BG57">
+        <v>1.21</v>
+      </c>
+      <c r="BH57">
+        <v>3.44</v>
+      </c>
+      <c r="BI57">
+        <v>1.44</v>
+      </c>
+      <c r="BJ57">
+        <v>2.5</v>
+      </c>
+      <c r="BK57">
+        <v>2</v>
+      </c>
+      <c r="BL57">
+        <v>1.74</v>
+      </c>
+      <c r="BM57">
+        <v>2.28</v>
+      </c>
+      <c r="BN57">
+        <v>1.53</v>
+      </c>
+      <c r="BO57">
+        <v>2.97</v>
+      </c>
+      <c r="BP57">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7468924</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>133</v>
+      </c>
+      <c r="P58" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q58">
+        <v>2.88</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>3.6</v>
+      </c>
+      <c r="T58">
+        <v>1.42</v>
+      </c>
+      <c r="U58">
+        <v>2.62</v>
+      </c>
+      <c r="V58">
+        <v>2.9</v>
+      </c>
+      <c r="W58">
+        <v>1.36</v>
+      </c>
+      <c r="X58">
+        <v>9</v>
+      </c>
+      <c r="Y58">
+        <v>1.07</v>
+      </c>
+      <c r="Z58">
+        <v>2.44</v>
+      </c>
+      <c r="AA58">
+        <v>3.36</v>
+      </c>
+      <c r="AB58">
+        <v>2.9</v>
+      </c>
+      <c r="AC58">
+        <v>1.05</v>
+      </c>
+      <c r="AD58">
+        <v>8</v>
+      </c>
+      <c r="AE58">
+        <v>1.29</v>
+      </c>
+      <c r="AF58">
+        <v>3.3</v>
+      </c>
+      <c r="AG58">
+        <v>2.19</v>
+      </c>
+      <c r="AH58">
+        <v>1.6</v>
+      </c>
+      <c r="AI58">
+        <v>1.8</v>
+      </c>
+      <c r="AJ58">
+        <v>2</v>
+      </c>
+      <c r="AK58">
+        <v>1.36</v>
+      </c>
+      <c r="AL58">
+        <v>1.3</v>
+      </c>
+      <c r="AM58">
+        <v>1.57</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>1.5</v>
+      </c>
+      <c r="AP58">
+        <v>0.25</v>
+      </c>
+      <c r="AQ58">
+        <v>1.33</v>
+      </c>
+      <c r="AR58">
+        <v>1</v>
+      </c>
+      <c r="AS58">
+        <v>0.97</v>
+      </c>
+      <c r="AT58">
+        <v>1.97</v>
+      </c>
+      <c r="AU58">
+        <v>3</v>
+      </c>
+      <c r="AV58">
+        <v>8</v>
+      </c>
+      <c r="AW58">
+        <v>4</v>
+      </c>
+      <c r="AX58">
+        <v>7</v>
+      </c>
+      <c r="AY58">
+        <v>7</v>
+      </c>
+      <c r="AZ58">
+        <v>15</v>
+      </c>
+      <c r="BA58">
+        <v>7</v>
+      </c>
+      <c r="BB58">
+        <v>10</v>
+      </c>
+      <c r="BC58">
+        <v>17</v>
+      </c>
+      <c r="BD58">
+        <v>1.82</v>
+      </c>
+      <c r="BE58">
+        <v>8</v>
+      </c>
+      <c r="BF58">
+        <v>2.33</v>
+      </c>
+      <c r="BG58">
+        <v>1.28</v>
+      </c>
+      <c r="BH58">
+        <v>3.3</v>
+      </c>
+      <c r="BI58">
+        <v>1.5</v>
+      </c>
+      <c r="BJ58">
+        <v>2.4</v>
+      </c>
+      <c r="BK58">
+        <v>1.92</v>
+      </c>
+      <c r="BL58">
+        <v>1.88</v>
+      </c>
+      <c r="BM58">
+        <v>2.32</v>
+      </c>
+      <c r="BN58">
+        <v>1.54</v>
+      </c>
+      <c r="BO58">
+        <v>3</v>
+      </c>
+      <c r="BP58">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7468923</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" t="s">
+        <v>84</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59" t="s">
+        <v>134</v>
+      </c>
+      <c r="P59" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q59">
+        <v>2.62</v>
+      </c>
+      <c r="R59">
+        <v>2.05</v>
+      </c>
+      <c r="S59">
+        <v>4</v>
+      </c>
+      <c r="T59">
+        <v>1.42</v>
+      </c>
+      <c r="U59">
+        <v>2.62</v>
+      </c>
+      <c r="V59">
+        <v>2.9</v>
+      </c>
+      <c r="W59">
+        <v>1.36</v>
+      </c>
+      <c r="X59">
+        <v>9</v>
+      </c>
+      <c r="Y59">
+        <v>1.07</v>
+      </c>
+      <c r="Z59">
+        <v>2.03</v>
+      </c>
+      <c r="AA59">
+        <v>3.48</v>
+      </c>
+      <c r="AB59">
+        <v>3.68</v>
+      </c>
+      <c r="AC59">
+        <v>1.07</v>
+      </c>
+      <c r="AD59">
+        <v>8</v>
+      </c>
+      <c r="AE59">
+        <v>1.36</v>
+      </c>
+      <c r="AF59">
+        <v>3.1</v>
+      </c>
+      <c r="AG59">
+        <v>2.06</v>
+      </c>
+      <c r="AH59">
+        <v>1.68</v>
+      </c>
+      <c r="AI59">
+        <v>1.8</v>
+      </c>
+      <c r="AJ59">
+        <v>1.85</v>
+      </c>
+      <c r="AK59">
+        <v>1.25</v>
+      </c>
+      <c r="AL59">
+        <v>1.28</v>
+      </c>
+      <c r="AM59">
+        <v>1.75</v>
+      </c>
+      <c r="AN59">
+        <v>2.33</v>
+      </c>
+      <c r="AO59">
+        <v>1.67</v>
+      </c>
+      <c r="AP59">
+        <v>2</v>
+      </c>
+      <c r="AQ59">
+        <v>1.5</v>
+      </c>
+      <c r="AR59">
+        <v>1.53</v>
+      </c>
+      <c r="AS59">
+        <v>1.33</v>
+      </c>
+      <c r="AT59">
+        <v>2.86</v>
+      </c>
+      <c r="AU59">
+        <v>10</v>
+      </c>
+      <c r="AV59">
+        <v>3</v>
+      </c>
+      <c r="AW59">
+        <v>7</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>17</v>
+      </c>
+      <c r="AZ59">
+        <v>7</v>
+      </c>
+      <c r="BA59">
+        <v>3</v>
+      </c>
+      <c r="BB59">
+        <v>3</v>
+      </c>
+      <c r="BC59">
+        <v>6</v>
+      </c>
+      <c r="BD59">
+        <v>1.82</v>
+      </c>
+      <c r="BE59">
+        <v>7.5</v>
+      </c>
+      <c r="BF59">
+        <v>2.34</v>
+      </c>
+      <c r="BG59">
+        <v>1.28</v>
+      </c>
+      <c r="BH59">
+        <v>2.97</v>
+      </c>
+      <c r="BI59">
+        <v>1.7</v>
+      </c>
+      <c r="BJ59">
+        <v>2.05</v>
+      </c>
+      <c r="BK59">
+        <v>2.02</v>
+      </c>
+      <c r="BL59">
+        <v>1.74</v>
+      </c>
+      <c r="BM59">
+        <v>2.6</v>
+      </c>
+      <c r="BN59">
+        <v>1.41</v>
+      </c>
+      <c r="BO59">
+        <v>3.52</v>
+      </c>
+      <c r="BP59">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7468922</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>135</v>
+      </c>
+      <c r="P60" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q60">
+        <v>2.88</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>3.75</v>
+      </c>
+      <c r="T60">
+        <v>1.48</v>
+      </c>
+      <c r="U60">
+        <v>2.5</v>
+      </c>
+      <c r="V60">
+        <v>3.2</v>
+      </c>
+      <c r="W60">
+        <v>1.3</v>
+      </c>
+      <c r="X60">
+        <v>10</v>
+      </c>
+      <c r="Y60">
+        <v>1.06</v>
+      </c>
+      <c r="Z60">
+        <v>2.32</v>
+      </c>
+      <c r="AA60">
+        <v>3.3</v>
+      </c>
+      <c r="AB60">
+        <v>3.14</v>
+      </c>
+      <c r="AC60">
+        <v>1.05</v>
+      </c>
+      <c r="AD60">
+        <v>8</v>
+      </c>
+      <c r="AE60">
+        <v>1.36</v>
+      </c>
+      <c r="AF60">
+        <v>2.87</v>
+      </c>
+      <c r="AG60">
+        <v>1.99</v>
+      </c>
+      <c r="AH60">
+        <v>1.73</v>
+      </c>
+      <c r="AI60">
+        <v>1.87</v>
+      </c>
+      <c r="AJ60">
+        <v>1.9</v>
+      </c>
+      <c r="AK60">
+        <v>1.36</v>
+      </c>
+      <c r="AL60">
+        <v>1.28</v>
+      </c>
+      <c r="AM60">
+        <v>1.57</v>
+      </c>
+      <c r="AN60">
+        <v>3</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>3</v>
+      </c>
+      <c r="AQ60">
+        <v>0.75</v>
+      </c>
+      <c r="AR60">
+        <v>1.51</v>
+      </c>
+      <c r="AS60">
+        <v>1.04</v>
+      </c>
+      <c r="AT60">
+        <v>2.55</v>
+      </c>
+      <c r="AU60">
+        <v>11</v>
+      </c>
+      <c r="AV60">
+        <v>4</v>
+      </c>
+      <c r="AW60">
+        <v>3</v>
+      </c>
+      <c r="AX60">
+        <v>6</v>
+      </c>
+      <c r="AY60">
+        <v>14</v>
+      </c>
+      <c r="AZ60">
+        <v>10</v>
+      </c>
+      <c r="BA60">
+        <v>5</v>
+      </c>
+      <c r="BB60">
+        <v>4</v>
+      </c>
+      <c r="BC60">
+        <v>9</v>
+      </c>
+      <c r="BD60">
+        <v>1.95</v>
+      </c>
+      <c r="BE60">
+        <v>8</v>
+      </c>
+      <c r="BF60">
+        <v>2.1</v>
+      </c>
+      <c r="BG60">
+        <v>1.15</v>
+      </c>
+      <c r="BH60">
+        <v>3.98</v>
+      </c>
+      <c r="BI60">
+        <v>1.33</v>
+      </c>
+      <c r="BJ60">
+        <v>2.73</v>
+      </c>
+      <c r="BK60">
+        <v>1.7</v>
+      </c>
+      <c r="BL60">
+        <v>2.05</v>
+      </c>
+      <c r="BM60">
+        <v>2.08</v>
+      </c>
+      <c r="BN60">
+        <v>1.7</v>
+      </c>
+      <c r="BO60">
+        <v>2.67</v>
+      </c>
+      <c r="BP60">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7468921</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>136</v>
+      </c>
+      <c r="P61" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q61">
+        <v>2.95</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>3.6</v>
+      </c>
+      <c r="T61">
+        <v>1.45</v>
+      </c>
+      <c r="U61">
+        <v>2.55</v>
+      </c>
+      <c r="V61">
+        <v>3</v>
+      </c>
+      <c r="W61">
+        <v>1.33</v>
+      </c>
+      <c r="X61">
+        <v>9</v>
+      </c>
+      <c r="Y61">
+        <v>1.07</v>
+      </c>
+      <c r="Z61">
+        <v>2.31</v>
+      </c>
+      <c r="AA61">
+        <v>3.34</v>
+      </c>
+      <c r="AB61">
+        <v>3.13</v>
+      </c>
+      <c r="AC61">
+        <v>1.07</v>
+      </c>
+      <c r="AD61">
+        <v>8</v>
+      </c>
+      <c r="AE61">
+        <v>1.38</v>
+      </c>
+      <c r="AF61">
+        <v>3</v>
+      </c>
+      <c r="AG61">
+        <v>2.06</v>
+      </c>
+      <c r="AH61">
+        <v>1.68</v>
+      </c>
+      <c r="AI61">
+        <v>1.8</v>
+      </c>
+      <c r="AJ61">
+        <v>1.85</v>
+      </c>
+      <c r="AK61">
+        <v>1.36</v>
+      </c>
+      <c r="AL61">
+        <v>1.28</v>
+      </c>
+      <c r="AM61">
+        <v>1.57</v>
+      </c>
+      <c r="AN61">
+        <v>2.33</v>
+      </c>
+      <c r="AO61">
+        <v>1.5</v>
+      </c>
+      <c r="AP61">
+        <v>2.5</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>1.29</v>
+      </c>
+      <c r="AS61">
+        <v>1.43</v>
+      </c>
+      <c r="AT61">
+        <v>2.72</v>
+      </c>
+      <c r="AU61">
+        <v>6</v>
+      </c>
+      <c r="AV61">
+        <v>4</v>
+      </c>
+      <c r="AW61">
+        <v>3</v>
+      </c>
+      <c r="AX61">
+        <v>4</v>
+      </c>
+      <c r="AY61">
+        <v>9</v>
+      </c>
+      <c r="AZ61">
+        <v>8</v>
+      </c>
+      <c r="BA61">
+        <v>5</v>
+      </c>
+      <c r="BB61">
+        <v>8</v>
+      </c>
+      <c r="BC61">
+        <v>13</v>
+      </c>
+      <c r="BD61">
+        <v>1.69</v>
+      </c>
+      <c r="BE61">
+        <v>8</v>
+      </c>
+      <c r="BF61">
+        <v>2.54</v>
+      </c>
+      <c r="BG61">
+        <v>1.29</v>
+      </c>
+      <c r="BH61">
+        <v>3.3</v>
+      </c>
+      <c r="BI61">
+        <v>1.51</v>
+      </c>
+      <c r="BJ61">
+        <v>2.4</v>
+      </c>
+      <c r="BK61">
+        <v>1.88</v>
+      </c>
+      <c r="BL61">
+        <v>1.92</v>
+      </c>
+      <c r="BM61">
+        <v>2.33</v>
+      </c>
+      <c r="BN61">
+        <v>1.53</v>
+      </c>
+      <c r="BO61">
+        <v>3</v>
+      </c>
+      <c r="BP61">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="175">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,12 @@
     <t>['45+1', '62', '84']</t>
   </si>
   <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['42', '80']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -527,6 +533,12 @@
   </si>
   <si>
     <t>['30']</t>
+  </si>
+  <si>
+    <t>['20', '45+1', '57']</t>
+  </si>
+  <si>
+    <t>['78']</t>
   </si>
 </sst>
 </file>
@@ -888,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1147,7 +1159,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1559,7 +1571,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1971,7 +1983,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2383,7 +2395,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2464,7 +2476,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2795,7 +2807,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3079,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3207,7 +3219,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3413,7 +3425,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3494,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="AQ13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4031,7 +4043,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4237,7 +4249,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4727,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0.25</v>
@@ -4855,7 +4867,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5061,7 +5073,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5142,7 +5154,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5267,7 +5279,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5679,7 +5691,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5885,7 +5897,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6091,7 +6103,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6503,7 +6515,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6915,7 +6927,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7121,7 +7133,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7945,7 +7957,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8151,7 +8163,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8232,7 +8244,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.66</v>
@@ -8357,7 +8369,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8563,7 +8575,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8641,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>0.75</v>
@@ -8769,7 +8781,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9056,7 +9068,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR40">
         <v>1.41</v>
@@ -9181,7 +9193,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9387,7 +9399,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9593,7 +9605,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9671,7 +9683,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>1.75</v>
@@ -10211,7 +10223,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10417,7 +10429,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -11653,7 +11665,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11859,7 +11871,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12065,7 +12077,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12477,7 +12489,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12683,7 +12695,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12889,7 +12901,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13095,7 +13107,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13458,6 +13470,418 @@
       </c>
       <c r="BP61">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7468925</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45563.375</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>137</v>
+      </c>
+      <c r="P62" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q62">
+        <v>3.6</v>
+      </c>
+      <c r="R62">
+        <v>2.15</v>
+      </c>
+      <c r="S62">
+        <v>2.8</v>
+      </c>
+      <c r="T62">
+        <v>1.38</v>
+      </c>
+      <c r="U62">
+        <v>2.8</v>
+      </c>
+      <c r="V62">
+        <v>2.8</v>
+      </c>
+      <c r="W62">
+        <v>1.38</v>
+      </c>
+      <c r="X62">
+        <v>6.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.08</v>
+      </c>
+      <c r="Z62">
+        <v>3.05</v>
+      </c>
+      <c r="AA62">
+        <v>3.44</v>
+      </c>
+      <c r="AB62">
+        <v>2.29</v>
+      </c>
+      <c r="AC62">
+        <v>1.03</v>
+      </c>
+      <c r="AD62">
+        <v>9</v>
+      </c>
+      <c r="AE62">
+        <v>1.29</v>
+      </c>
+      <c r="AF62">
+        <v>3.3</v>
+      </c>
+      <c r="AG62">
+        <v>1.96</v>
+      </c>
+      <c r="AH62">
+        <v>1.86</v>
+      </c>
+      <c r="AI62">
+        <v>1.73</v>
+      </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
+      <c r="AK62">
+        <v>1.62</v>
+      </c>
+      <c r="AL62">
+        <v>1.33</v>
+      </c>
+      <c r="AM62">
+        <v>1.38</v>
+      </c>
+      <c r="AN62">
+        <v>1.5</v>
+      </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
+      <c r="AP62">
+        <v>1</v>
+      </c>
+      <c r="AQ62">
+        <v>2.25</v>
+      </c>
+      <c r="AR62">
+        <v>1.16</v>
+      </c>
+      <c r="AS62">
+        <v>1.35</v>
+      </c>
+      <c r="AT62">
+        <v>2.51</v>
+      </c>
+      <c r="AU62">
+        <v>5</v>
+      </c>
+      <c r="AV62">
+        <v>6</v>
+      </c>
+      <c r="AW62">
+        <v>7</v>
+      </c>
+      <c r="AX62">
+        <v>3</v>
+      </c>
+      <c r="AY62">
+        <v>12</v>
+      </c>
+      <c r="AZ62">
+        <v>9</v>
+      </c>
+      <c r="BA62">
+        <v>6</v>
+      </c>
+      <c r="BB62">
+        <v>7</v>
+      </c>
+      <c r="BC62">
+        <v>13</v>
+      </c>
+      <c r="BD62">
+        <v>2.29</v>
+      </c>
+      <c r="BE62">
+        <v>7.5</v>
+      </c>
+      <c r="BF62">
+        <v>1.85</v>
+      </c>
+      <c r="BG62">
+        <v>1.35</v>
+      </c>
+      <c r="BH62">
+        <v>3.05</v>
+      </c>
+      <c r="BI62">
+        <v>1.7</v>
+      </c>
+      <c r="BJ62">
+        <v>2.05</v>
+      </c>
+      <c r="BK62">
+        <v>2.1</v>
+      </c>
+      <c r="BL62">
+        <v>1.68</v>
+      </c>
+      <c r="BM62">
+        <v>2.85</v>
+      </c>
+      <c r="BN62">
+        <v>1.38</v>
+      </c>
+      <c r="BO62">
+        <v>4</v>
+      </c>
+      <c r="BP62">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7468928</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45563.625</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s">
+        <v>78</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>138</v>
+      </c>
+      <c r="P63" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q63">
+        <v>3.75</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>2.75</v>
+      </c>
+      <c r="T63">
+        <v>1.42</v>
+      </c>
+      <c r="U63">
+        <v>2.62</v>
+      </c>
+      <c r="V63">
+        <v>3</v>
+      </c>
+      <c r="W63">
+        <v>1.33</v>
+      </c>
+      <c r="X63">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y63">
+        <v>1.06</v>
+      </c>
+      <c r="Z63">
+        <v>3.5</v>
+      </c>
+      <c r="AA63">
+        <v>3.4</v>
+      </c>
+      <c r="AB63">
+        <v>1.95</v>
+      </c>
+      <c r="AC63">
+        <v>1.05</v>
+      </c>
+      <c r="AD63">
+        <v>8</v>
+      </c>
+      <c r="AE63">
+        <v>1.29</v>
+      </c>
+      <c r="AF63">
+        <v>3.3</v>
+      </c>
+      <c r="AG63">
+        <v>2.07</v>
+      </c>
+      <c r="AH63">
+        <v>1.72</v>
+      </c>
+      <c r="AI63">
+        <v>1.87</v>
+      </c>
+      <c r="AJ63">
+        <v>1.9</v>
+      </c>
+      <c r="AK63">
+        <v>1.67</v>
+      </c>
+      <c r="AL63">
+        <v>1.25</v>
+      </c>
+      <c r="AM63">
+        <v>1.3</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>3</v>
+      </c>
+      <c r="AP63">
+        <v>1</v>
+      </c>
+      <c r="AQ63">
+        <v>2</v>
+      </c>
+      <c r="AR63">
+        <v>1.33</v>
+      </c>
+      <c r="AS63">
+        <v>1.3</v>
+      </c>
+      <c r="AT63">
+        <v>2.63</v>
+      </c>
+      <c r="AU63">
+        <v>6</v>
+      </c>
+      <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>1</v>
+      </c>
+      <c r="AX63">
+        <v>7</v>
+      </c>
+      <c r="AY63">
+        <v>7</v>
+      </c>
+      <c r="AZ63">
+        <v>10</v>
+      </c>
+      <c r="BA63">
+        <v>1</v>
+      </c>
+      <c r="BB63">
+        <v>2</v>
+      </c>
+      <c r="BC63">
+        <v>3</v>
+      </c>
+      <c r="BD63">
+        <v>2.1</v>
+      </c>
+      <c r="BE63">
+        <v>8</v>
+      </c>
+      <c r="BF63">
+        <v>1.91</v>
+      </c>
+      <c r="BG63">
+        <v>1.3</v>
+      </c>
+      <c r="BH63">
+        <v>3.35</v>
+      </c>
+      <c r="BI63">
+        <v>1.55</v>
+      </c>
+      <c r="BJ63">
+        <v>2.38</v>
+      </c>
+      <c r="BK63">
+        <v>1.95</v>
+      </c>
+      <c r="BL63">
+        <v>1.85</v>
+      </c>
+      <c r="BM63">
+        <v>2.6</v>
+      </c>
+      <c r="BN63">
+        <v>1.46</v>
+      </c>
+      <c r="BO63">
+        <v>3.6</v>
+      </c>
+      <c r="BP63">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,12 +391,12 @@
     <t>['35', '37', '45+3', '48', '70', '81']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['10', '75']</t>
   </si>
   <si>
-    <t>['34']</t>
-  </si>
-  <si>
     <t>['58', '71']</t>
   </si>
   <si>
@@ -433,6 +433,9 @@
     <t>['42', '80']</t>
   </si>
   <si>
+    <t>['6', '67', '78']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -539,6 +542,9 @@
   </si>
   <si>
     <t>['78']</t>
+  </si>
+  <si>
+    <t>['51']</t>
   </si>
 </sst>
 </file>
@@ -900,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,7 +1165,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1571,7 +1577,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1983,7 +1989,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2267,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7">
         <v>0.25</v>
@@ -2395,7 +2401,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2807,7 +2813,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3219,7 +3225,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3425,7 +3431,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4043,7 +4049,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4249,7 +4255,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4867,7 +4873,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5073,7 +5079,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5279,7 +5285,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5357,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5691,7 +5697,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5897,7 +5903,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6103,7 +6109,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6515,7 +6521,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6927,7 +6933,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7133,7 +7139,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7957,7 +7963,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8163,7 +8169,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8369,7 +8375,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8575,7 +8581,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8781,7 +8787,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9193,7 +9199,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9271,7 +9277,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
         <v>1.5</v>
@@ -9399,7 +9405,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9605,7 +9611,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10223,7 +10229,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10396,7 +10402,7 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45559.64583333334</v>
+        <v>45558.875</v>
       </c>
       <c r="F47">
         <v>6</v>
@@ -10429,7 +10435,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -10522,22 +10528,22 @@
         <v>2.74</v>
       </c>
       <c r="AU47">
+        <v>2</v>
+      </c>
+      <c r="AV47">
         <v>4</v>
       </c>
-      <c r="AV47">
-        <v>5</v>
-      </c>
       <c r="AW47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX47">
         <v>3</v>
       </c>
       <c r="AY47">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA47">
         <v>10</v>
@@ -10602,7 +10608,7 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45559.64583333334</v>
+        <v>45558.875</v>
       </c>
       <c r="F48">
         <v>6</v>
@@ -10728,22 +10734,22 @@
         <v>2.75</v>
       </c>
       <c r="AU48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV48">
         <v>4</v>
       </c>
       <c r="AW48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ48">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA48">
         <v>2</v>
@@ -10808,7 +10814,7 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45559.64583333334</v>
+        <v>45558.875</v>
       </c>
       <c r="F49">
         <v>6</v>
@@ -10934,7 +10940,7 @@
         <v>2.69</v>
       </c>
       <c r="AU49">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV49">
         <v>6</v>
@@ -10943,13 +10949,13 @@
         <v>8</v>
       </c>
       <c r="AX49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY49">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA49">
         <v>5</v>
@@ -11005,7 +11011,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7468915</v>
+        <v>7468916</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -11014,16 +11020,16 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45559.64583333334</v>
+        <v>45558.875</v>
       </c>
       <c r="F50">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -11035,13 +11041,13 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O50" t="s">
         <v>125</v>
@@ -11050,160 +11056,160 @@
         <v>90</v>
       </c>
       <c r="Q50">
-        <v>2.8</v>
+        <v>4.33</v>
       </c>
       <c r="R50">
+        <v>2.25</v>
+      </c>
+      <c r="S50">
+        <v>2.5</v>
+      </c>
+      <c r="T50">
+        <v>1.36</v>
+      </c>
+      <c r="U50">
+        <v>3</v>
+      </c>
+      <c r="V50">
+        <v>2.63</v>
+      </c>
+      <c r="W50">
+        <v>1.44</v>
+      </c>
+      <c r="X50">
+        <v>7</v>
+      </c>
+      <c r="Y50">
+        <v>1.1</v>
+      </c>
+      <c r="Z50">
+        <v>3.6</v>
+      </c>
+      <c r="AA50">
+        <v>3.3</v>
+      </c>
+      <c r="AB50">
+        <v>1.93</v>
+      </c>
+      <c r="AC50">
+        <v>1.05</v>
+      </c>
+      <c r="AD50">
+        <v>9.5</v>
+      </c>
+      <c r="AE50">
+        <v>1.21</v>
+      </c>
+      <c r="AF50">
+        <v>3.5</v>
+      </c>
+      <c r="AG50">
+        <v>1.75</v>
+      </c>
+      <c r="AH50">
         <v>1.95</v>
       </c>
-      <c r="S50">
+      <c r="AI50">
+        <v>1.73</v>
+      </c>
+      <c r="AJ50">
+        <v>2</v>
+      </c>
+      <c r="AK50">
+        <v>1.85</v>
+      </c>
+      <c r="AL50">
+        <v>1.22</v>
+      </c>
+      <c r="AM50">
+        <v>1.25</v>
+      </c>
+      <c r="AN50">
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <v>1.33</v>
+      </c>
+      <c r="AP50">
+        <v>3</v>
+      </c>
+      <c r="AQ50">
+        <v>1</v>
+      </c>
+      <c r="AR50">
+        <v>1.48</v>
+      </c>
+      <c r="AS50">
+        <v>1.93</v>
+      </c>
+      <c r="AT50">
+        <v>3.41</v>
+      </c>
+      <c r="AU50">
+        <v>8</v>
+      </c>
+      <c r="AV50">
         <v>4</v>
       </c>
-      <c r="T50">
-        <v>1.48</v>
-      </c>
-      <c r="U50">
-        <v>2.45</v>
-      </c>
-      <c r="V50">
-        <v>3.2</v>
-      </c>
-      <c r="W50">
-        <v>1.3</v>
-      </c>
-      <c r="X50">
-        <v>8.6</v>
-      </c>
-      <c r="Y50">
-        <v>1.05</v>
-      </c>
-      <c r="Z50">
-        <v>2.17</v>
-      </c>
-      <c r="AA50">
+      <c r="AW50">
+        <v>4</v>
+      </c>
+      <c r="AX50">
+        <v>2</v>
+      </c>
+      <c r="AY50">
+        <v>12</v>
+      </c>
+      <c r="AZ50">
+        <v>6</v>
+      </c>
+      <c r="BA50">
+        <v>7</v>
+      </c>
+      <c r="BB50">
+        <v>1</v>
+      </c>
+      <c r="BC50">
+        <v>8</v>
+      </c>
+      <c r="BD50">
+        <v>3.02</v>
+      </c>
+      <c r="BE50">
+        <v>6.7</v>
+      </c>
+      <c r="BF50">
+        <v>1.63</v>
+      </c>
+      <c r="BG50">
+        <v>1.29</v>
+      </c>
+      <c r="BH50">
+        <v>3.4</v>
+      </c>
+      <c r="BI50">
+        <v>1.52</v>
+      </c>
+      <c r="BJ50">
+        <v>2.43</v>
+      </c>
+      <c r="BK50">
+        <v>1.87</v>
+      </c>
+      <c r="BL50">
+        <v>1.87</v>
+      </c>
+      <c r="BM50">
+        <v>2.37</v>
+      </c>
+      <c r="BN50">
+        <v>1.54</v>
+      </c>
+      <c r="BO50">
         <v>3.1</v>
       </c>
-      <c r="AB50">
-        <v>3.2</v>
-      </c>
-      <c r="AC50">
-        <v>1.02</v>
-      </c>
-      <c r="AD50">
-        <v>7</v>
-      </c>
-      <c r="AE50">
-        <v>1.37</v>
-      </c>
-      <c r="AF50">
-        <v>2.96</v>
-      </c>
-      <c r="AG50">
-        <v>2.2</v>
-      </c>
-      <c r="AH50">
-        <v>1.6</v>
-      </c>
-      <c r="AI50">
-        <v>1.85</v>
-      </c>
-      <c r="AJ50">
-        <v>1.8</v>
-      </c>
-      <c r="AK50">
-        <v>1.3</v>
-      </c>
-      <c r="AL50">
-        <v>1.3</v>
-      </c>
-      <c r="AM50">
-        <v>1.65</v>
-      </c>
-      <c r="AN50">
-        <v>1.5</v>
-      </c>
-      <c r="AO50">
-        <v>3</v>
-      </c>
-      <c r="AP50">
-        <v>2</v>
-      </c>
-      <c r="AQ50">
-        <v>2</v>
-      </c>
-      <c r="AR50">
-        <v>1.61</v>
-      </c>
-      <c r="AS50">
-        <v>1.49</v>
-      </c>
-      <c r="AT50">
-        <v>3.1</v>
-      </c>
-      <c r="AU50">
-        <v>9</v>
-      </c>
-      <c r="AV50">
-        <v>6</v>
-      </c>
-      <c r="AW50">
-        <v>0</v>
-      </c>
-      <c r="AX50">
-        <v>3</v>
-      </c>
-      <c r="AY50">
-        <v>9</v>
-      </c>
-      <c r="AZ50">
-        <v>9</v>
-      </c>
-      <c r="BA50">
-        <v>2</v>
-      </c>
-      <c r="BB50">
-        <v>2</v>
-      </c>
-      <c r="BC50">
-        <v>4</v>
-      </c>
-      <c r="BD50">
-        <v>1.68</v>
-      </c>
-      <c r="BE50">
-        <v>6.65</v>
-      </c>
-      <c r="BF50">
-        <v>2.88</v>
-      </c>
-      <c r="BG50">
-        <v>1.27</v>
-      </c>
-      <c r="BH50">
-        <v>3.04</v>
-      </c>
-      <c r="BI50">
-        <v>1.6</v>
-      </c>
-      <c r="BJ50">
-        <v>2.29</v>
-      </c>
-      <c r="BK50">
-        <v>2</v>
-      </c>
-      <c r="BL50">
-        <v>1.8</v>
-      </c>
-      <c r="BM50">
-        <v>2.57</v>
-      </c>
-      <c r="BN50">
-        <v>1.49</v>
-      </c>
-      <c r="BO50">
-        <v>3.35</v>
-      </c>
       <c r="BP50">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11211,7 +11217,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7468916</v>
+        <v>7468915</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11226,10 +11232,10 @@
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -11241,13 +11247,13 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" t="s">
         <v>126</v>
@@ -11256,160 +11262,160 @@
         <v>90</v>
       </c>
       <c r="Q51">
-        <v>4.33</v>
+        <v>2.8</v>
       </c>
       <c r="R51">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="T51">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="U51">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="V51">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="W51">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X51">
+        <v>8.6</v>
+      </c>
+      <c r="Y51">
+        <v>1.05</v>
+      </c>
+      <c r="Z51">
+        <v>2.17</v>
+      </c>
+      <c r="AA51">
+        <v>3.1</v>
+      </c>
+      <c r="AB51">
+        <v>3.2</v>
+      </c>
+      <c r="AC51">
+        <v>1.02</v>
+      </c>
+      <c r="AD51">
         <v>7</v>
       </c>
-      <c r="Y51">
-        <v>1.1</v>
-      </c>
-      <c r="Z51">
-        <v>3.6</v>
-      </c>
-      <c r="AA51">
-        <v>3.3</v>
-      </c>
-      <c r="AB51">
-        <v>1.93</v>
-      </c>
-      <c r="AC51">
-        <v>1.05</v>
-      </c>
-      <c r="AD51">
-        <v>9.5</v>
-      </c>
       <c r="AE51">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="AF51">
-        <v>3.5</v>
+        <v>2.96</v>
       </c>
       <c r="AG51">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AH51">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="AI51">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AJ51">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK51">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="AL51">
+        <v>1.3</v>
+      </c>
+      <c r="AM51">
+        <v>1.65</v>
+      </c>
+      <c r="AN51">
+        <v>1.5</v>
+      </c>
+      <c r="AO51">
+        <v>3</v>
+      </c>
+      <c r="AP51">
+        <v>2</v>
+      </c>
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AR51">
+        <v>1.61</v>
+      </c>
+      <c r="AS51">
+        <v>1.49</v>
+      </c>
+      <c r="AT51">
+        <v>3.1</v>
+      </c>
+      <c r="AU51">
+        <v>9</v>
+      </c>
+      <c r="AV51">
+        <v>6</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <v>9</v>
+      </c>
+      <c r="AZ51">
+        <v>9</v>
+      </c>
+      <c r="BA51">
+        <v>2</v>
+      </c>
+      <c r="BB51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>4</v>
+      </c>
+      <c r="BD51">
+        <v>1.68</v>
+      </c>
+      <c r="BE51">
+        <v>6.65</v>
+      </c>
+      <c r="BF51">
+        <v>2.88</v>
+      </c>
+      <c r="BG51">
+        <v>1.27</v>
+      </c>
+      <c r="BH51">
+        <v>3.04</v>
+      </c>
+      <c r="BI51">
+        <v>1.6</v>
+      </c>
+      <c r="BJ51">
+        <v>2.29</v>
+      </c>
+      <c r="BK51">
+        <v>2</v>
+      </c>
+      <c r="BL51">
+        <v>1.8</v>
+      </c>
+      <c r="BM51">
+        <v>2.57</v>
+      </c>
+      <c r="BN51">
+        <v>1.49</v>
+      </c>
+      <c r="BO51">
+        <v>3.35</v>
+      </c>
+      <c r="BP51">
         <v>1.22</v>
-      </c>
-      <c r="AM51">
-        <v>1.25</v>
-      </c>
-      <c r="AN51">
-        <v>3</v>
-      </c>
-      <c r="AO51">
-        <v>1.33</v>
-      </c>
-      <c r="AP51">
-        <v>3</v>
-      </c>
-      <c r="AQ51">
-        <v>1</v>
-      </c>
-      <c r="AR51">
-        <v>1.48</v>
-      </c>
-      <c r="AS51">
-        <v>1.93</v>
-      </c>
-      <c r="AT51">
-        <v>3.41</v>
-      </c>
-      <c r="AU51">
-        <v>8</v>
-      </c>
-      <c r="AV51">
-        <v>3</v>
-      </c>
-      <c r="AW51">
-        <v>5</v>
-      </c>
-      <c r="AX51">
-        <v>3</v>
-      </c>
-      <c r="AY51">
-        <v>13</v>
-      </c>
-      <c r="AZ51">
-        <v>6</v>
-      </c>
-      <c r="BA51">
-        <v>7</v>
-      </c>
-      <c r="BB51">
-        <v>1</v>
-      </c>
-      <c r="BC51">
-        <v>8</v>
-      </c>
-      <c r="BD51">
-        <v>3.02</v>
-      </c>
-      <c r="BE51">
-        <v>6.7</v>
-      </c>
-      <c r="BF51">
-        <v>1.63</v>
-      </c>
-      <c r="BG51">
-        <v>1.29</v>
-      </c>
-      <c r="BH51">
-        <v>3.4</v>
-      </c>
-      <c r="BI51">
-        <v>1.52</v>
-      </c>
-      <c r="BJ51">
-        <v>2.43</v>
-      </c>
-      <c r="BK51">
-        <v>1.87</v>
-      </c>
-      <c r="BL51">
-        <v>1.87</v>
-      </c>
-      <c r="BM51">
-        <v>2.37</v>
-      </c>
-      <c r="BN51">
-        <v>1.54</v>
-      </c>
-      <c r="BO51">
-        <v>3.1</v>
-      </c>
-      <c r="BP51">
-        <v>1.34</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11665,7 +11671,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11871,7 +11877,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12077,7 +12083,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12489,7 +12495,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12695,7 +12701,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12901,7 +12907,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13107,7 +13113,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13519,7 +13525,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13725,7 +13731,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13882,6 +13888,212 @@
       </c>
       <c r="BP63">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7468929</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45565.65625</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>75</v>
+      </c>
+      <c r="H64" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64" t="s">
+        <v>139</v>
+      </c>
+      <c r="P64" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q64">
+        <v>2.7</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>1.4</v>
+      </c>
+      <c r="U64">
+        <v>2.75</v>
+      </c>
+      <c r="V64">
+        <v>2.75</v>
+      </c>
+      <c r="W64">
+        <v>1.4</v>
+      </c>
+      <c r="X64">
+        <v>7</v>
+      </c>
+      <c r="Y64">
+        <v>1.08</v>
+      </c>
+      <c r="Z64">
+        <v>2.05</v>
+      </c>
+      <c r="AA64">
+        <v>3.3</v>
+      </c>
+      <c r="AB64">
+        <v>3.5</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>8</v>
+      </c>
+      <c r="AE64">
+        <v>1.29</v>
+      </c>
+      <c r="AF64">
+        <v>3.3</v>
+      </c>
+      <c r="AG64">
+        <v>1.95</v>
+      </c>
+      <c r="AH64">
+        <v>1.75</v>
+      </c>
+      <c r="AI64">
+        <v>1.8</v>
+      </c>
+      <c r="AJ64">
+        <v>2</v>
+      </c>
+      <c r="AK64">
+        <v>1.25</v>
+      </c>
+      <c r="AL64">
+        <v>1.3</v>
+      </c>
+      <c r="AM64">
+        <v>1.75</v>
+      </c>
+      <c r="AN64">
+        <v>1.33</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>1.75</v>
+      </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <v>1.73</v>
+      </c>
+      <c r="AS64">
+        <v>1.71</v>
+      </c>
+      <c r="AT64">
+        <v>3.44</v>
+      </c>
+      <c r="AU64">
+        <v>11</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>5</v>
+      </c>
+      <c r="AX64">
+        <v>3</v>
+      </c>
+      <c r="AY64">
+        <v>16</v>
+      </c>
+      <c r="AZ64">
+        <v>6</v>
+      </c>
+      <c r="BA64">
+        <v>7</v>
+      </c>
+      <c r="BB64">
+        <v>6</v>
+      </c>
+      <c r="BC64">
+        <v>13</v>
+      </c>
+      <c r="BD64">
+        <v>1.82</v>
+      </c>
+      <c r="BE64">
+        <v>8</v>
+      </c>
+      <c r="BF64">
+        <v>2.33</v>
+      </c>
+      <c r="BG64">
+        <v>1.33</v>
+      </c>
+      <c r="BH64">
+        <v>3.15</v>
+      </c>
+      <c r="BI64">
+        <v>1.61</v>
+      </c>
+      <c r="BJ64">
+        <v>2.23</v>
+      </c>
+      <c r="BK64">
+        <v>1.95</v>
+      </c>
+      <c r="BL64">
+        <v>1.78</v>
+      </c>
+      <c r="BM64">
+        <v>2.75</v>
+      </c>
+      <c r="BN64">
+        <v>1.41</v>
+      </c>
+      <c r="BO64">
+        <v>3.85</v>
+      </c>
+      <c r="BP64">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="157">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,126 +382,90 @@
     <t>['27']</t>
   </si>
   <si>
-    <t>['13', '81']</t>
-  </si>
-  <si>
-    <t>['11']</t>
-  </si>
-  <si>
-    <t>['35', '37', '45+3', '48', '70', '81']</t>
-  </si>
-  <si>
-    <t>['34']</t>
-  </si>
-  <si>
-    <t>['10', '75']</t>
-  </si>
-  <si>
-    <t>['58', '71']</t>
-  </si>
-  <si>
-    <t>['65', '83']</t>
+    <t>['69', '78', '90+2']</t>
+  </si>
+  <si>
+    <t>['29', '41', '80']</t>
+  </si>
+  <si>
+    <t>['42', '80']</t>
+  </si>
+  <si>
+    <t>['6', '67', '78']</t>
+  </si>
+  <si>
+    <t>['16', '45+2']</t>
+  </si>
+  <si>
+    <t>['52', '84']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['76', '86']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['1', '30', '44']</t>
+  </si>
+  <si>
+    <t>['11', '45', '77', '87']</t>
+  </si>
+  <si>
+    <t>['40', '65']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['3', '40', '52', '60']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['38', '71']</t>
+  </si>
+  <si>
+    <t>['13', '25']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['18', '68', '85']</t>
+  </si>
+  <si>
+    <t>['55', '60', '66', '70']</t>
   </si>
   <si>
     <t>['10']</t>
   </si>
   <si>
-    <t>['15']</t>
-  </si>
-  <si>
-    <t>['69', '78', '90+2']</t>
-  </si>
-  <si>
-    <t>['29', '41', '80']</t>
-  </si>
-  <si>
-    <t>['9']</t>
-  </si>
-  <si>
-    <t>['39', '51']</t>
-  </si>
-  <si>
-    <t>['71', '83']</t>
-  </si>
-  <si>
-    <t>['45+1', '62', '84']</t>
-  </si>
-  <si>
-    <t>['32']</t>
-  </si>
-  <si>
-    <t>['42', '80']</t>
-  </si>
-  <si>
-    <t>['6', '67', '78']</t>
-  </si>
-  <si>
-    <t>['16', '45+2']</t>
-  </si>
-  <si>
-    <t>['52', '84']</t>
-  </si>
-  <si>
-    <t>['90+2']</t>
-  </si>
-  <si>
-    <t>['76', '86']</t>
-  </si>
-  <si>
-    <t>['38']</t>
-  </si>
-  <si>
-    <t>['22']</t>
-  </si>
-  <si>
-    <t>['1', '30', '44']</t>
-  </si>
-  <si>
-    <t>['11', '45', '77', '87']</t>
-  </si>
-  <si>
-    <t>['40', '65']</t>
-  </si>
-  <si>
-    <t>['12']</t>
-  </si>
-  <si>
-    <t>['3', '40', '52', '60']</t>
-  </si>
-  <si>
-    <t>['52']</t>
-  </si>
-  <si>
-    <t>['50']</t>
-  </si>
-  <si>
-    <t>['68']</t>
-  </si>
-  <si>
-    <t>['5']</t>
-  </si>
-  <si>
-    <t>['47']</t>
-  </si>
-  <si>
-    <t>['84']</t>
-  </si>
-  <si>
-    <t>['38', '71']</t>
-  </si>
-  <si>
-    <t>['13', '25']</t>
-  </si>
-  <si>
-    <t>['4']</t>
-  </si>
-  <si>
-    <t>['18', '68', '85']</t>
-  </si>
-  <si>
-    <t>['55', '60', '66', '70']</t>
-  </si>
-  <si>
     <t>['4', '65']</t>
   </si>
   <si>
@@ -514,31 +478,7 @@
     <t>['85']</t>
   </si>
   <si>
-    <t>['26']</t>
-  </si>
-  <si>
-    <t>['36']</t>
-  </si>
-  <si>
-    <t>['65']</t>
-  </si>
-  <si>
-    <t>['76', '83', '85']</t>
-  </si>
-  <si>
     <t>['76']</t>
-  </si>
-  <si>
-    <t>['70']</t>
-  </si>
-  <si>
-    <t>['10', '82']</t>
-  </si>
-  <si>
-    <t>['30']</t>
-  </si>
-  <si>
-    <t>['20', '45+1', '57']</t>
   </si>
   <si>
     <t>['78']</t>
@@ -906,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1105,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1243,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ2">
         <v>0.5</v>
@@ -1452,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1577,7 +1517,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1655,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1989,7 +1929,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2067,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ6">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2276,7 +2216,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2401,7 +2341,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2479,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2685,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2813,7 +2753,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2891,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3100,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3225,7 +3165,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3306,7 +3246,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3431,7 +3371,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3921,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -4049,7 +3989,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4127,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4255,7 +4195,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4333,10 +4273,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4542,7 +4482,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4745,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>0.25</v>
@@ -4873,7 +4813,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -4954,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -5079,7 +5019,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5157,10 +5097,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ21">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5285,7 +5225,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5569,10 +5509,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>2.13</v>
@@ -5697,7 +5637,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5775,10 +5715,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.39</v>
@@ -5903,7 +5843,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5981,10 +5921,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6109,7 +6049,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6187,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
         <v>0.5</v>
@@ -6396,7 +6336,7 @@
         <v>3</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
         <v>1.55</v>
@@ -6521,7 +6461,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6599,10 +6539,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>1.92</v>
@@ -6727,7 +6667,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6933,7 +6873,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7139,7 +7079,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7217,10 +7157,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>1.38</v>
@@ -7426,7 +7366,7 @@
         <v>3</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>0.82</v>
@@ -7629,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -7835,10 +7775,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ34">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -7963,7 +7903,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8044,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR35">
         <v>1.69</v>
@@ -8169,7 +8109,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8247,7 +8187,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8375,7 +8315,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8453,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -8581,7 +8521,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8662,7 +8602,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -8787,7 +8727,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -8865,10 +8805,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>0.8</v>
@@ -8993,7 +8933,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>3.72</v>
@@ -9071,10 +9011,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>1.41</v>
@@ -9199,7 +9139,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9280,7 +9220,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR41">
         <v>1.73</v>
@@ -9405,7 +9345,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9483,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>0.5</v>
@@ -9611,7 +9551,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9689,10 +9629,10 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>0.8</v>
@@ -9895,7 +9835,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ44">
         <v>0.25</v>
@@ -10104,7 +10044,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.53</v>
@@ -10229,7 +10169,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10307,10 +10247,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.88</v>
@@ -10393,7 +10333,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7468912</v>
+        <v>7468927</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10402,31 +10342,31 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45558.875</v>
+        <v>45561.875</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>3</v>
@@ -10435,163 +10375,163 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="Q47">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="R47">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="T47">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="U47">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="V47">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="W47">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="X47">
-        <v>7.6</v>
+        <v>9.1</v>
       </c>
       <c r="Y47">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="Z47">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="AA47">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AB47">
-        <v>3.6</v>
+        <v>6.25</v>
       </c>
       <c r="AC47">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="AD47">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="AE47">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AF47">
-        <v>3.23</v>
+        <v>2.72</v>
       </c>
       <c r="AG47">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AH47">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AI47">
-        <v>1.83</v>
+        <v>2.35</v>
       </c>
       <c r="AJ47">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="AK47">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AL47">
         <v>1.25</v>
       </c>
       <c r="AM47">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="AN47">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR47">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="AS47">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="AT47">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="AU47">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW47">
         <v>7</v>
       </c>
       <c r="AX47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY47">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA47">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD47">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="BE47">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="BF47">
-        <v>3.24</v>
+        <v>3.68</v>
       </c>
       <c r="BG47">
-        <v>1.19</v>
+        <v>1.55</v>
       </c>
       <c r="BH47">
-        <v>3.64</v>
+        <v>2.28</v>
       </c>
       <c r="BI47">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="BJ47">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="BK47">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="BL47">
-        <v>2.03</v>
+        <v>1.47</v>
       </c>
       <c r="BM47">
-        <v>2.24</v>
+        <v>3.4</v>
       </c>
       <c r="BN47">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="BO47">
-        <v>2.82</v>
+        <v>4.8</v>
       </c>
       <c r="BP47">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10599,7 +10539,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7468913</v>
+        <v>7468926</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10608,94 +10548,94 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45558.875</v>
+        <v>45561.875</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O48" t="s">
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="Q48">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="R48">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="T48">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="U48">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="V48">
-        <v>2.67</v>
+        <v>2.95</v>
       </c>
       <c r="W48">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="X48">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="Y48">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="Z48">
-        <v>1.67</v>
+        <v>2.43</v>
       </c>
       <c r="AA48">
-        <v>3.6</v>
+        <v>3.34</v>
       </c>
       <c r="AB48">
-        <v>4.5</v>
+        <v>2.93</v>
       </c>
       <c r="AC48">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD48">
-        <v>12.9</v>
+        <v>8</v>
       </c>
       <c r="AE48">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AF48">
-        <v>3.74</v>
+        <v>3.3</v>
       </c>
       <c r="AG48">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="AH48">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AI48">
         <v>1.8</v>
@@ -10704,100 +10644,100 @@
         <v>2</v>
       </c>
       <c r="AK48">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="AL48">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AM48">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="AN48">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AO48">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
-        <v>1.82</v>
+        <v>1.54</v>
       </c>
       <c r="AS48">
-        <v>0.93</v>
+        <v>1.49</v>
       </c>
       <c r="AT48">
-        <v>2.75</v>
+        <v>3.03</v>
       </c>
       <c r="AU48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV48">
+        <v>3</v>
+      </c>
+      <c r="AW48">
+        <v>1</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>5</v>
+      </c>
+      <c r="AZ48">
+        <v>6</v>
+      </c>
+      <c r="BA48">
+        <v>3</v>
+      </c>
+      <c r="BB48">
         <v>4</v>
       </c>
-      <c r="AW48">
-        <v>5</v>
-      </c>
-      <c r="AX48">
+      <c r="BC48">
         <v>7</v>
       </c>
-      <c r="AY48">
-        <v>7</v>
-      </c>
-      <c r="AZ48">
-        <v>11</v>
-      </c>
-      <c r="BA48">
-        <v>2</v>
-      </c>
-      <c r="BB48">
-        <v>7</v>
-      </c>
-      <c r="BC48">
-        <v>9</v>
-      </c>
       <c r="BD48">
-        <v>1.46</v>
+        <v>1.75</v>
       </c>
       <c r="BE48">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="BF48">
-        <v>3.66</v>
+        <v>2.44</v>
       </c>
       <c r="BG48">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="BH48">
-        <v>3.7</v>
+        <v>3.44</v>
       </c>
       <c r="BI48">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="BJ48">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="BK48">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="BL48">
-        <v>2.03</v>
+        <v>1.74</v>
       </c>
       <c r="BM48">
-        <v>2.21</v>
+        <v>2.28</v>
       </c>
       <c r="BN48">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="BO48">
-        <v>2.78</v>
+        <v>2.97</v>
       </c>
       <c r="BP48">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10805,7 +10745,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7468914</v>
+        <v>7468928</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10814,196 +10754,196 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45558.875</v>
+        <v>45563.625</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" t="s">
         <v>78</v>
       </c>
-      <c r="H49" t="s">
-        <v>77</v>
-      </c>
       <c r="I49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O49" t="s">
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="Q49">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="R49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="T49">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="U49">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="V49">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W49">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X49">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y49">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z49">
-        <v>1.42</v>
+        <v>3.5</v>
       </c>
       <c r="AA49">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AB49">
-        <v>6.6</v>
+        <v>1.95</v>
       </c>
       <c r="AC49">
         <v>1.05</v>
       </c>
       <c r="AD49">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE49">
+        <v>1.29</v>
+      </c>
+      <c r="AF49">
+        <v>3.3</v>
+      </c>
+      <c r="AG49">
+        <v>2.07</v>
+      </c>
+      <c r="AH49">
+        <v>1.72</v>
+      </c>
+      <c r="AI49">
+        <v>1.87</v>
+      </c>
+      <c r="AJ49">
+        <v>1.9</v>
+      </c>
+      <c r="AK49">
+        <v>1.67</v>
+      </c>
+      <c r="AL49">
+        <v>1.25</v>
+      </c>
+      <c r="AM49">
         <v>1.3</v>
       </c>
-      <c r="AF49">
-        <v>3.4</v>
-      </c>
-      <c r="AG49">
-        <v>1.9</v>
-      </c>
-      <c r="AH49">
-        <v>1.8</v>
-      </c>
-      <c r="AI49">
-        <v>2.2</v>
-      </c>
-      <c r="AJ49">
-        <v>1.62</v>
-      </c>
-      <c r="AK49">
-        <v>1.09</v>
-      </c>
-      <c r="AL49">
-        <v>1.17</v>
-      </c>
-      <c r="AM49">
-        <v>2.7</v>
-      </c>
       <c r="AN49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO49">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR49">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AT49">
-        <v>2.69</v>
+        <v>2.63</v>
       </c>
       <c r="AU49">
         <v>6</v>
       </c>
       <c r="AV49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW49">
+        <v>1</v>
+      </c>
+      <c r="AX49">
+        <v>7</v>
+      </c>
+      <c r="AY49">
+        <v>7</v>
+      </c>
+      <c r="AZ49">
+        <v>10</v>
+      </c>
+      <c r="BA49">
+        <v>1</v>
+      </c>
+      <c r="BB49">
+        <v>2</v>
+      </c>
+      <c r="BC49">
+        <v>3</v>
+      </c>
+      <c r="BD49">
+        <v>2.1</v>
+      </c>
+      <c r="BE49">
         <v>8</v>
       </c>
-      <c r="AX49">
-        <v>3</v>
-      </c>
-      <c r="AY49">
-        <v>14</v>
-      </c>
-      <c r="AZ49">
-        <v>9</v>
-      </c>
-      <c r="BA49">
-        <v>5</v>
-      </c>
-      <c r="BB49">
-        <v>5</v>
-      </c>
-      <c r="BC49">
-        <v>10</v>
-      </c>
-      <c r="BD49">
-        <v>1.21</v>
-      </c>
-      <c r="BE49">
-        <v>9.1</v>
-      </c>
       <c r="BF49">
-        <v>6.35</v>
+        <v>1.91</v>
       </c>
       <c r="BG49">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BH49">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="BI49">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="BJ49">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="BK49">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="BL49">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="BM49">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="BN49">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="BO49">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="BP49">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -11011,7 +10951,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7468916</v>
+        <v>7468929</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -11020,16 +10960,16 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45558.875</v>
+        <v>45564.875</v>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H50" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -11041,3058 +10981,174 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O50" t="s">
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="Q50">
-        <v>4.33</v>
+        <v>2.7</v>
       </c>
       <c r="R50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="T50">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V50">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W50">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X50">
         <v>7</v>
       </c>
       <c r="Y50">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z50">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="AA50">
         <v>3.3</v>
       </c>
       <c r="AB50">
-        <v>1.93</v>
+        <v>3.5</v>
       </c>
       <c r="AC50">
         <v>1.05</v>
       </c>
       <c r="AD50">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE50">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AF50">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AG50">
+        <v>1.95</v>
+      </c>
+      <c r="AH50">
         <v>1.75</v>
       </c>
-      <c r="AH50">
-        <v>1.95</v>
-      </c>
       <c r="AI50">
+        <v>1.8</v>
+      </c>
+      <c r="AJ50">
+        <v>2</v>
+      </c>
+      <c r="AK50">
+        <v>1.25</v>
+      </c>
+      <c r="AL50">
+        <v>1.3</v>
+      </c>
+      <c r="AM50">
+        <v>1.75</v>
+      </c>
+      <c r="AN50">
+        <v>1.33</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>1.75</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
         <v>1.73</v>
       </c>
-      <c r="AJ50">
-        <v>2</v>
-      </c>
-      <c r="AK50">
-        <v>1.85</v>
-      </c>
-      <c r="AL50">
-        <v>1.22</v>
-      </c>
-      <c r="AM50">
-        <v>1.25</v>
-      </c>
-      <c r="AN50">
-        <v>3</v>
-      </c>
-      <c r="AO50">
-        <v>1.33</v>
-      </c>
-      <c r="AP50">
-        <v>3</v>
-      </c>
-      <c r="AQ50">
-        <v>1</v>
-      </c>
-      <c r="AR50">
-        <v>1.48</v>
-      </c>
       <c r="AS50">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="AT50">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="AU50">
         <v>8</v>
       </c>
       <c r="AV50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX50">
         <v>2</v>
       </c>
       <c r="AY50">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA50">
         <v>7</v>
       </c>
       <c r="BB50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC50">
+        <v>13</v>
+      </c>
+      <c r="BD50">
+        <v>1.82</v>
+      </c>
+      <c r="BE50">
         <v>8</v>
       </c>
-      <c r="BD50">
-        <v>3.02</v>
-      </c>
-      <c r="BE50">
-        <v>6.7</v>
-      </c>
       <c r="BF50">
-        <v>1.63</v>
+        <v>2.33</v>
       </c>
       <c r="BG50">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="BH50">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BI50">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="BJ50">
-        <v>2.43</v>
+        <v>2.23</v>
       </c>
       <c r="BK50">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="BL50">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="BM50">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="BN50">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="BO50">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="BP50">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:68">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>7468915</v>
-      </c>
-      <c r="C51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="2">
-        <v>45559.64583333334</v>
-      </c>
-      <c r="F51">
-        <v>6</v>
-      </c>
-      <c r="G51" t="s">
-        <v>85</v>
-      </c>
-      <c r="H51" t="s">
-        <v>75</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
-        <v>2</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>2</v>
-      </c>
-      <c r="O51" t="s">
-        <v>126</v>
-      </c>
-      <c r="P51" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q51">
-        <v>2.8</v>
-      </c>
-      <c r="R51">
-        <v>1.95</v>
-      </c>
-      <c r="S51">
-        <v>4</v>
-      </c>
-      <c r="T51">
-        <v>1.48</v>
-      </c>
-      <c r="U51">
-        <v>2.45</v>
-      </c>
-      <c r="V51">
-        <v>3.2</v>
-      </c>
-      <c r="W51">
-        <v>1.3</v>
-      </c>
-      <c r="X51">
-        <v>8.6</v>
-      </c>
-      <c r="Y51">
-        <v>1.05</v>
-      </c>
-      <c r="Z51">
-        <v>2.17</v>
-      </c>
-      <c r="AA51">
-        <v>3.1</v>
-      </c>
-      <c r="AB51">
-        <v>3.2</v>
-      </c>
-      <c r="AC51">
-        <v>1.02</v>
-      </c>
-      <c r="AD51">
-        <v>7</v>
-      </c>
-      <c r="AE51">
-        <v>1.37</v>
-      </c>
-      <c r="AF51">
-        <v>2.96</v>
-      </c>
-      <c r="AG51">
-        <v>2.2</v>
-      </c>
-      <c r="AH51">
-        <v>1.6</v>
-      </c>
-      <c r="AI51">
-        <v>1.85</v>
-      </c>
-      <c r="AJ51">
-        <v>1.8</v>
-      </c>
-      <c r="AK51">
-        <v>1.3</v>
-      </c>
-      <c r="AL51">
-        <v>1.3</v>
-      </c>
-      <c r="AM51">
-        <v>1.65</v>
-      </c>
-      <c r="AN51">
-        <v>1.5</v>
-      </c>
-      <c r="AO51">
-        <v>3</v>
-      </c>
-      <c r="AP51">
-        <v>2</v>
-      </c>
-      <c r="AQ51">
-        <v>2</v>
-      </c>
-      <c r="AR51">
-        <v>1.61</v>
-      </c>
-      <c r="AS51">
-        <v>1.49</v>
-      </c>
-      <c r="AT51">
-        <v>3.1</v>
-      </c>
-      <c r="AU51">
-        <v>9</v>
-      </c>
-      <c r="AV51">
-        <v>6</v>
-      </c>
-      <c r="AW51">
-        <v>0</v>
-      </c>
-      <c r="AX51">
-        <v>3</v>
-      </c>
-      <c r="AY51">
-        <v>9</v>
-      </c>
-      <c r="AZ51">
-        <v>9</v>
-      </c>
-      <c r="BA51">
-        <v>2</v>
-      </c>
-      <c r="BB51">
-        <v>2</v>
-      </c>
-      <c r="BC51">
-        <v>4</v>
-      </c>
-      <c r="BD51">
-        <v>1.68</v>
-      </c>
-      <c r="BE51">
-        <v>6.65</v>
-      </c>
-      <c r="BF51">
-        <v>2.88</v>
-      </c>
-      <c r="BG51">
-        <v>1.27</v>
-      </c>
-      <c r="BH51">
-        <v>3.04</v>
-      </c>
-      <c r="BI51">
-        <v>1.6</v>
-      </c>
-      <c r="BJ51">
-        <v>2.29</v>
-      </c>
-      <c r="BK51">
-        <v>2</v>
-      </c>
-      <c r="BL51">
-        <v>1.8</v>
-      </c>
-      <c r="BM51">
-        <v>2.57</v>
-      </c>
-      <c r="BN51">
-        <v>1.49</v>
-      </c>
-      <c r="BO51">
-        <v>3.35</v>
-      </c>
-      <c r="BP51">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:68">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>7468917</v>
-      </c>
-      <c r="C52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="2">
-        <v>45559.64583333334</v>
-      </c>
-      <c r="F52">
-        <v>6</v>
-      </c>
-      <c r="G52" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>2</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>2</v>
-      </c>
-      <c r="O52" t="s">
-        <v>127</v>
-      </c>
-      <c r="P52" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q52">
-        <v>3</v>
-      </c>
-      <c r="R52">
-        <v>1.91</v>
-      </c>
-      <c r="S52">
-        <v>3.75</v>
-      </c>
-      <c r="T52">
-        <v>1.55</v>
-      </c>
-      <c r="U52">
-        <v>2.3</v>
-      </c>
-      <c r="V52">
-        <v>3.55</v>
-      </c>
-      <c r="W52">
-        <v>1.25</v>
-      </c>
-      <c r="X52">
-        <v>9.9</v>
-      </c>
-      <c r="Y52">
-        <v>1.03</v>
-      </c>
-      <c r="Z52">
-        <v>2.34</v>
-      </c>
-      <c r="AA52">
-        <v>2.9</v>
-      </c>
-      <c r="AB52">
-        <v>3</v>
-      </c>
-      <c r="AC52">
-        <v>1.1</v>
-      </c>
-      <c r="AD52">
-        <v>6.84</v>
-      </c>
-      <c r="AE52">
-        <v>1.49</v>
-      </c>
-      <c r="AF52">
-        <v>2.5</v>
-      </c>
-      <c r="AG52">
-        <v>2.55</v>
-      </c>
-      <c r="AH52">
-        <v>1.45</v>
-      </c>
-      <c r="AI52">
-        <v>2.05</v>
-      </c>
-      <c r="AJ52">
-        <v>1.75</v>
-      </c>
-      <c r="AK52">
-        <v>1.3</v>
-      </c>
-      <c r="AL52">
-        <v>1.3</v>
-      </c>
-      <c r="AM52">
-        <v>1.57</v>
-      </c>
-      <c r="AN52">
-        <v>3</v>
-      </c>
-      <c r="AO52">
-        <v>1.5</v>
-      </c>
-      <c r="AP52">
-        <v>3</v>
-      </c>
-      <c r="AQ52">
-        <v>1</v>
-      </c>
-      <c r="AR52">
-        <v>1.34</v>
-      </c>
-      <c r="AS52">
-        <v>1.37</v>
-      </c>
-      <c r="AT52">
-        <v>2.71</v>
-      </c>
-      <c r="AU52">
-        <v>4</v>
-      </c>
-      <c r="AV52">
-        <v>2</v>
-      </c>
-      <c r="AW52">
-        <v>3</v>
-      </c>
-      <c r="AX52">
-        <v>5</v>
-      </c>
-      <c r="AY52">
-        <v>7</v>
-      </c>
-      <c r="AZ52">
-        <v>7</v>
-      </c>
-      <c r="BA52">
-        <v>6</v>
-      </c>
-      <c r="BB52">
-        <v>3</v>
-      </c>
-      <c r="BC52">
-        <v>9</v>
-      </c>
-      <c r="BD52">
-        <v>1.68</v>
-      </c>
-      <c r="BE52">
-        <v>6.5</v>
-      </c>
-      <c r="BF52">
-        <v>2.9</v>
-      </c>
-      <c r="BG52">
-        <v>1.36</v>
-      </c>
-      <c r="BH52">
-        <v>2.78</v>
-      </c>
-      <c r="BI52">
-        <v>1.74</v>
-      </c>
-      <c r="BJ52">
-        <v>2.08</v>
-      </c>
-      <c r="BK52">
-        <v>2.19</v>
-      </c>
-      <c r="BL52">
-        <v>1.66</v>
-      </c>
-      <c r="BM52">
-        <v>2.78</v>
-      </c>
-      <c r="BN52">
-        <v>1.32</v>
-      </c>
-      <c r="BO52">
-        <v>3.94</v>
-      </c>
-      <c r="BP52">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:68">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>7468918</v>
-      </c>
-      <c r="C53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="2">
-        <v>45559.64583333334</v>
-      </c>
-      <c r="F53">
-        <v>6</v>
-      </c>
-      <c r="G53" t="s">
-        <v>72</v>
-      </c>
-      <c r="H53" t="s">
-        <v>83</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
-        <v>2</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>3</v>
-      </c>
-      <c r="O53" t="s">
-        <v>128</v>
-      </c>
-      <c r="P53" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q53">
-        <v>3.25</v>
-      </c>
-      <c r="R53">
-        <v>1.91</v>
-      </c>
-      <c r="S53">
-        <v>3.45</v>
-      </c>
-      <c r="T53">
-        <v>1.5</v>
-      </c>
-      <c r="U53">
-        <v>2.4</v>
-      </c>
-      <c r="V53">
-        <v>3.3</v>
-      </c>
-      <c r="W53">
-        <v>1.28</v>
-      </c>
-      <c r="X53">
-        <v>9</v>
-      </c>
-      <c r="Y53">
-        <v>1.04</v>
-      </c>
-      <c r="Z53">
-        <v>2.6</v>
-      </c>
-      <c r="AA53">
-        <v>3</v>
-      </c>
-      <c r="AB53">
-        <v>2.6</v>
-      </c>
-      <c r="AC53">
-        <v>1.03</v>
-      </c>
-      <c r="AD53">
-        <v>6.7</v>
-      </c>
-      <c r="AE53">
-        <v>1.4</v>
-      </c>
-      <c r="AF53">
-        <v>2.84</v>
-      </c>
-      <c r="AG53">
-        <v>2.3</v>
-      </c>
-      <c r="AH53">
-        <v>1.55</v>
-      </c>
-      <c r="AI53">
-        <v>1.91</v>
-      </c>
-      <c r="AJ53">
-        <v>1.77</v>
-      </c>
-      <c r="AK53">
-        <v>1.42</v>
-      </c>
-      <c r="AL53">
-        <v>1.3</v>
-      </c>
-      <c r="AM53">
-        <v>1.48</v>
-      </c>
-      <c r="AN53">
-        <v>2</v>
-      </c>
-      <c r="AO53">
-        <v>2</v>
-      </c>
-      <c r="AP53">
-        <v>2.25</v>
-      </c>
-      <c r="AQ53">
-        <v>1.33</v>
-      </c>
-      <c r="AR53">
-        <v>1.76</v>
-      </c>
-      <c r="AS53">
-        <v>0.98</v>
-      </c>
-      <c r="AT53">
-        <v>2.74</v>
-      </c>
-      <c r="AU53">
-        <v>4</v>
-      </c>
-      <c r="AV53">
-        <v>5</v>
-      </c>
-      <c r="AW53">
-        <v>4</v>
-      </c>
-      <c r="AX53">
-        <v>6</v>
-      </c>
-      <c r="AY53">
-        <v>8</v>
-      </c>
-      <c r="AZ53">
-        <v>11</v>
-      </c>
-      <c r="BA53">
-        <v>5</v>
-      </c>
-      <c r="BB53">
-        <v>2</v>
-      </c>
-      <c r="BC53">
-        <v>7</v>
-      </c>
-      <c r="BD53">
-        <v>1.73</v>
-      </c>
-      <c r="BE53">
-        <v>6.55</v>
-      </c>
-      <c r="BF53">
-        <v>2.76</v>
-      </c>
-      <c r="BG53">
-        <v>1.28</v>
-      </c>
-      <c r="BH53">
-        <v>2.97</v>
-      </c>
-      <c r="BI53">
-        <v>1.64</v>
-      </c>
-      <c r="BJ53">
-        <v>2.24</v>
-      </c>
-      <c r="BK53">
-        <v>2.04</v>
-      </c>
-      <c r="BL53">
-        <v>1.76</v>
-      </c>
-      <c r="BM53">
-        <v>2.6</v>
-      </c>
-      <c r="BN53">
-        <v>1.41</v>
-      </c>
-      <c r="BO53">
-        <v>3.44</v>
-      </c>
-      <c r="BP53">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:68">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>7468919</v>
-      </c>
-      <c r="C54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="2">
-        <v>45559.64583333334</v>
-      </c>
-      <c r="F54">
-        <v>6</v>
-      </c>
-      <c r="G54" t="s">
-        <v>70</v>
-      </c>
-      <c r="H54" t="s">
-        <v>87</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>2</v>
-      </c>
-      <c r="O54" t="s">
-        <v>129</v>
-      </c>
-      <c r="P54" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q54">
-        <v>2.55</v>
-      </c>
-      <c r="R54">
-        <v>2.1</v>
-      </c>
-      <c r="S54">
-        <v>4</v>
-      </c>
-      <c r="T54">
-        <v>1.4</v>
-      </c>
-      <c r="U54">
-        <v>2.7</v>
-      </c>
-      <c r="V54">
-        <v>2.85</v>
-      </c>
-      <c r="W54">
-        <v>1.36</v>
-      </c>
-      <c r="X54">
-        <v>7.3</v>
-      </c>
-      <c r="Y54">
-        <v>1.07</v>
-      </c>
-      <c r="Z54">
-        <v>2.06</v>
-      </c>
-      <c r="AA54">
-        <v>3.2</v>
-      </c>
-      <c r="AB54">
-        <v>3.3</v>
-      </c>
-      <c r="AC54">
-        <v>1.06</v>
-      </c>
-      <c r="AD54">
-        <v>8.5</v>
-      </c>
-      <c r="AE54">
-        <v>1.33</v>
-      </c>
-      <c r="AF54">
-        <v>3.3</v>
-      </c>
-      <c r="AG54">
-        <v>1.9</v>
-      </c>
-      <c r="AH54">
-        <v>1.8</v>
-      </c>
-      <c r="AI54">
-        <v>1.75</v>
-      </c>
-      <c r="AJ54">
-        <v>1.93</v>
-      </c>
-      <c r="AK54">
-        <v>1.28</v>
-      </c>
-      <c r="AL54">
-        <v>1.25</v>
-      </c>
-      <c r="AM54">
-        <v>1.77</v>
-      </c>
-      <c r="AN54">
-        <v>0.33</v>
-      </c>
-      <c r="AO54">
-        <v>1</v>
-      </c>
-      <c r="AP54">
-        <v>0.5</v>
-      </c>
-      <c r="AQ54">
-        <v>1</v>
-      </c>
-      <c r="AR54">
-        <v>1.19</v>
-      </c>
-      <c r="AS54">
-        <v>1.25</v>
-      </c>
-      <c r="AT54">
-        <v>2.44</v>
-      </c>
-      <c r="AU54">
-        <v>5</v>
-      </c>
-      <c r="AV54">
-        <v>5</v>
-      </c>
-      <c r="AW54">
-        <v>3</v>
-      </c>
-      <c r="AX54">
-        <v>3</v>
-      </c>
-      <c r="AY54">
-        <v>8</v>
-      </c>
-      <c r="AZ54">
-        <v>8</v>
-      </c>
-      <c r="BA54">
-        <v>6</v>
-      </c>
-      <c r="BB54">
-        <v>4</v>
-      </c>
-      <c r="BC54">
-        <v>10</v>
-      </c>
-      <c r="BD54">
-        <v>1.55</v>
-      </c>
-      <c r="BE54">
-        <v>6.9</v>
-      </c>
-      <c r="BF54">
-        <v>3.3</v>
-      </c>
-      <c r="BG54">
-        <v>1.27</v>
-      </c>
-      <c r="BH54">
-        <v>3.55</v>
-      </c>
-      <c r="BI54">
-        <v>1.5</v>
-      </c>
-      <c r="BJ54">
-        <v>2.48</v>
-      </c>
-      <c r="BK54">
-        <v>1.87</v>
-      </c>
-      <c r="BL54">
-        <v>1.87</v>
-      </c>
-      <c r="BM54">
-        <v>2.45</v>
-      </c>
-      <c r="BN54">
-        <v>1.5</v>
-      </c>
-      <c r="BO54">
-        <v>3.4</v>
-      </c>
-      <c r="BP54">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:68">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>7468920</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="2">
-        <v>45559.64583333334</v>
-      </c>
-      <c r="F55">
-        <v>6</v>
-      </c>
-      <c r="G55" t="s">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s">
-        <v>80</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>3</v>
-      </c>
-      <c r="N55">
-        <v>4</v>
-      </c>
-      <c r="O55" t="s">
-        <v>130</v>
-      </c>
-      <c r="P55" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q55">
-        <v>2.55</v>
-      </c>
-      <c r="R55">
-        <v>2.1</v>
-      </c>
-      <c r="S55">
-        <v>4</v>
-      </c>
-      <c r="T55">
-        <v>1.4</v>
-      </c>
-      <c r="U55">
-        <v>2.7</v>
-      </c>
-      <c r="V55">
-        <v>2.88</v>
-      </c>
-      <c r="W55">
-        <v>1.36</v>
-      </c>
-      <c r="X55">
-        <v>7.4</v>
-      </c>
-      <c r="Y55">
-        <v>1.07</v>
-      </c>
-      <c r="Z55">
-        <v>2.1</v>
-      </c>
-      <c r="AA55">
-        <v>3.2</v>
-      </c>
-      <c r="AB55">
-        <v>3.2</v>
-      </c>
-      <c r="AC55">
-        <v>1.01</v>
-      </c>
-      <c r="AD55">
-        <v>8.1</v>
-      </c>
-      <c r="AE55">
-        <v>1.31</v>
-      </c>
-      <c r="AF55">
-        <v>3.32</v>
-      </c>
-      <c r="AG55">
-        <v>1.95</v>
-      </c>
-      <c r="AH55">
-        <v>1.75</v>
-      </c>
-      <c r="AI55">
-        <v>1.77</v>
-      </c>
-      <c r="AJ55">
-        <v>1.91</v>
-      </c>
-      <c r="AK55">
-        <v>1.25</v>
-      </c>
-      <c r="AL55">
-        <v>1.25</v>
-      </c>
-      <c r="AM55">
-        <v>1.77</v>
-      </c>
-      <c r="AN55">
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <v>1.33</v>
-      </c>
-      <c r="AP55">
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <v>1.75</v>
-      </c>
-      <c r="AR55">
-        <v>1.98</v>
-      </c>
-      <c r="AS55">
-        <v>1.24</v>
-      </c>
-      <c r="AT55">
-        <v>3.22</v>
-      </c>
-      <c r="AU55">
-        <v>7</v>
-      </c>
-      <c r="AV55">
-        <v>7</v>
-      </c>
-      <c r="AW55">
-        <v>7</v>
-      </c>
-      <c r="AX55">
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <v>14</v>
-      </c>
-      <c r="AZ55">
-        <v>7</v>
-      </c>
-      <c r="BA55">
-        <v>3</v>
-      </c>
-      <c r="BB55">
-        <v>9</v>
-      </c>
-      <c r="BC55">
-        <v>12</v>
-      </c>
-      <c r="BD55">
-        <v>1.52</v>
-      </c>
-      <c r="BE55">
-        <v>7.3</v>
-      </c>
-      <c r="BF55">
-        <v>3.35</v>
-      </c>
-      <c r="BG55">
-        <v>1.16</v>
-      </c>
-      <c r="BH55">
-        <v>3.92</v>
-      </c>
-      <c r="BI55">
-        <v>1.33</v>
-      </c>
-      <c r="BJ55">
-        <v>2.72</v>
-      </c>
-      <c r="BK55">
-        <v>1.69</v>
-      </c>
-      <c r="BL55">
-        <v>2.13</v>
-      </c>
-      <c r="BM55">
-        <v>2.11</v>
-      </c>
-      <c r="BN55">
-        <v>1.7</v>
-      </c>
-      <c r="BO55">
-        <v>2.71</v>
-      </c>
-      <c r="BP55">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:68">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>7468927</v>
-      </c>
-      <c r="C56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="2">
-        <v>45562.625</v>
-      </c>
-      <c r="F56">
-        <v>7</v>
-      </c>
-      <c r="G56" t="s">
-        <v>86</v>
-      </c>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>3</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>3</v>
-      </c>
-      <c r="O56" t="s">
-        <v>131</v>
-      </c>
-      <c r="P56" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q56">
-        <v>2.25</v>
-      </c>
-      <c r="R56">
-        <v>2</v>
-      </c>
-      <c r="S56">
-        <v>5.75</v>
-      </c>
-      <c r="T56">
-        <v>1.5</v>
-      </c>
-      <c r="U56">
-        <v>2.4</v>
-      </c>
-      <c r="V56">
-        <v>3.45</v>
-      </c>
-      <c r="W56">
-        <v>1.25</v>
-      </c>
-      <c r="X56">
-        <v>9.1</v>
-      </c>
-      <c r="Y56">
-        <v>1.04</v>
-      </c>
-      <c r="Z56">
-        <v>1.6</v>
-      </c>
-      <c r="AA56">
-        <v>3.75</v>
-      </c>
-      <c r="AB56">
-        <v>6.25</v>
-      </c>
-      <c r="AC56">
-        <v>1.08</v>
-      </c>
-      <c r="AD56">
-        <v>8.6</v>
-      </c>
-      <c r="AE56">
-        <v>1.46</v>
-      </c>
-      <c r="AF56">
-        <v>2.72</v>
-      </c>
-      <c r="AG56">
-        <v>2.07</v>
-      </c>
-      <c r="AH56">
-        <v>1.67</v>
-      </c>
-      <c r="AI56">
-        <v>2.35</v>
-      </c>
-      <c r="AJ56">
-        <v>1.52</v>
-      </c>
-      <c r="AK56">
-        <v>1.16</v>
-      </c>
-      <c r="AL56">
-        <v>1.25</v>
-      </c>
-      <c r="AM56">
-        <v>2.3</v>
-      </c>
-      <c r="AN56">
-        <v>3</v>
-      </c>
-      <c r="AO56">
-        <v>0.33</v>
-      </c>
-      <c r="AP56">
-        <v>3</v>
-      </c>
-      <c r="AQ56">
-        <v>0.25</v>
-      </c>
-      <c r="AR56">
-        <v>1.76</v>
-      </c>
-      <c r="AS56">
-        <v>1.08</v>
-      </c>
-      <c r="AT56">
-        <v>2.84</v>
-      </c>
-      <c r="AU56">
-        <v>11</v>
-      </c>
-      <c r="AV56">
-        <v>4</v>
-      </c>
-      <c r="AW56">
-        <v>11</v>
-      </c>
-      <c r="AX56">
-        <v>2</v>
-      </c>
-      <c r="AY56">
-        <v>22</v>
-      </c>
-      <c r="AZ56">
-        <v>6</v>
-      </c>
-      <c r="BA56">
-        <v>8</v>
-      </c>
-      <c r="BB56">
-        <v>3</v>
-      </c>
-      <c r="BC56">
-        <v>11</v>
-      </c>
-      <c r="BD56">
-        <v>1.41</v>
-      </c>
-      <c r="BE56">
-        <v>8.5</v>
-      </c>
-      <c r="BF56">
-        <v>3.68</v>
-      </c>
-      <c r="BG56">
-        <v>1.55</v>
-      </c>
-      <c r="BH56">
-        <v>2.28</v>
-      </c>
-      <c r="BI56">
-        <v>2</v>
-      </c>
-      <c r="BJ56">
-        <v>1.8</v>
-      </c>
-      <c r="BK56">
-        <v>2.5</v>
-      </c>
-      <c r="BL56">
-        <v>1.47</v>
-      </c>
-      <c r="BM56">
-        <v>3.4</v>
-      </c>
-      <c r="BN56">
-        <v>1.27</v>
-      </c>
-      <c r="BO56">
-        <v>4.8</v>
-      </c>
-      <c r="BP56">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:68">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>7468926</v>
-      </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="2">
-        <v>45562.625</v>
-      </c>
-      <c r="F57">
-        <v>7</v>
-      </c>
-      <c r="G57" t="s">
-        <v>80</v>
-      </c>
-      <c r="H57" t="s">
-        <v>82</v>
-      </c>
-      <c r="I57">
-        <v>2</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>2</v>
-      </c>
-      <c r="L57">
-        <v>3</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>4</v>
-      </c>
-      <c r="O57" t="s">
-        <v>132</v>
-      </c>
-      <c r="P57" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q57">
-        <v>2.88</v>
-      </c>
-      <c r="R57">
-        <v>2</v>
-      </c>
-      <c r="S57">
-        <v>3.6</v>
-      </c>
-      <c r="T57">
-        <v>1.45</v>
-      </c>
-      <c r="U57">
-        <v>2.55</v>
-      </c>
-      <c r="V57">
-        <v>2.95</v>
-      </c>
-      <c r="W57">
-        <v>1.35</v>
-      </c>
-      <c r="X57">
-        <v>9</v>
-      </c>
-      <c r="Y57">
-        <v>1.07</v>
-      </c>
-      <c r="Z57">
-        <v>2.43</v>
-      </c>
-      <c r="AA57">
-        <v>3.34</v>
-      </c>
-      <c r="AB57">
-        <v>2.93</v>
-      </c>
-      <c r="AC57">
-        <v>1.05</v>
-      </c>
-      <c r="AD57">
-        <v>8</v>
-      </c>
-      <c r="AE57">
-        <v>1.29</v>
-      </c>
-      <c r="AF57">
-        <v>3.3</v>
-      </c>
-      <c r="AG57">
-        <v>2.02</v>
-      </c>
-      <c r="AH57">
-        <v>1.71</v>
-      </c>
-      <c r="AI57">
-        <v>1.8</v>
-      </c>
-      <c r="AJ57">
-        <v>2</v>
-      </c>
-      <c r="AK57">
-        <v>1.36</v>
-      </c>
-      <c r="AL57">
-        <v>1.3</v>
-      </c>
-      <c r="AM57">
-        <v>1.57</v>
-      </c>
-      <c r="AN57">
-        <v>0.5</v>
-      </c>
-      <c r="AO57">
-        <v>0.67</v>
-      </c>
-      <c r="AP57">
-        <v>1.33</v>
-      </c>
-      <c r="AQ57">
-        <v>0.5</v>
-      </c>
-      <c r="AR57">
-        <v>1.54</v>
-      </c>
-      <c r="AS57">
-        <v>1.49</v>
-      </c>
-      <c r="AT57">
-        <v>3.03</v>
-      </c>
-      <c r="AU57">
-        <v>6</v>
-      </c>
-      <c r="AV57">
-        <v>3</v>
-      </c>
-      <c r="AW57">
-        <v>1</v>
-      </c>
-      <c r="AX57">
-        <v>3</v>
-      </c>
-      <c r="AY57">
-        <v>7</v>
-      </c>
-      <c r="AZ57">
-        <v>6</v>
-      </c>
-      <c r="BA57">
-        <v>3</v>
-      </c>
-      <c r="BB57">
-        <v>4</v>
-      </c>
-      <c r="BC57">
-        <v>7</v>
-      </c>
-      <c r="BD57">
-        <v>1.75</v>
-      </c>
-      <c r="BE57">
-        <v>8</v>
-      </c>
-      <c r="BF57">
-        <v>2.44</v>
-      </c>
-      <c r="BG57">
-        <v>1.21</v>
-      </c>
-      <c r="BH57">
-        <v>3.44</v>
-      </c>
-      <c r="BI57">
-        <v>1.44</v>
-      </c>
-      <c r="BJ57">
-        <v>2.5</v>
-      </c>
-      <c r="BK57">
-        <v>2</v>
-      </c>
-      <c r="BL57">
-        <v>1.74</v>
-      </c>
-      <c r="BM57">
-        <v>2.28</v>
-      </c>
-      <c r="BN57">
-        <v>1.53</v>
-      </c>
-      <c r="BO57">
-        <v>2.97</v>
-      </c>
-      <c r="BP57">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:68">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>7468924</v>
-      </c>
-      <c r="C58" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" s="2">
-        <v>45562.625</v>
-      </c>
-      <c r="F58">
-        <v>7</v>
-      </c>
-      <c r="G58" t="s">
-        <v>77</v>
-      </c>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>2</v>
-      </c>
-      <c r="O58" t="s">
-        <v>133</v>
-      </c>
-      <c r="P58" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q58">
-        <v>2.88</v>
-      </c>
-      <c r="R58">
-        <v>2</v>
-      </c>
-      <c r="S58">
-        <v>3.6</v>
-      </c>
-      <c r="T58">
-        <v>1.42</v>
-      </c>
-      <c r="U58">
-        <v>2.62</v>
-      </c>
-      <c r="V58">
-        <v>2.9</v>
-      </c>
-      <c r="W58">
-        <v>1.36</v>
-      </c>
-      <c r="X58">
-        <v>9</v>
-      </c>
-      <c r="Y58">
-        <v>1.07</v>
-      </c>
-      <c r="Z58">
-        <v>2.44</v>
-      </c>
-      <c r="AA58">
-        <v>3.36</v>
-      </c>
-      <c r="AB58">
-        <v>2.9</v>
-      </c>
-      <c r="AC58">
-        <v>1.05</v>
-      </c>
-      <c r="AD58">
-        <v>8</v>
-      </c>
-      <c r="AE58">
-        <v>1.29</v>
-      </c>
-      <c r="AF58">
-        <v>3.3</v>
-      </c>
-      <c r="AG58">
-        <v>2.19</v>
-      </c>
-      <c r="AH58">
-        <v>1.6</v>
-      </c>
-      <c r="AI58">
-        <v>1.8</v>
-      </c>
-      <c r="AJ58">
-        <v>2</v>
-      </c>
-      <c r="AK58">
-        <v>1.36</v>
-      </c>
-      <c r="AL58">
-        <v>1.3</v>
-      </c>
-      <c r="AM58">
-        <v>1.57</v>
-      </c>
-      <c r="AN58">
-        <v>0</v>
-      </c>
-      <c r="AO58">
-        <v>1.5</v>
-      </c>
-      <c r="AP58">
-        <v>0.25</v>
-      </c>
-      <c r="AQ58">
-        <v>1.33</v>
-      </c>
-      <c r="AR58">
-        <v>1</v>
-      </c>
-      <c r="AS58">
-        <v>0.97</v>
-      </c>
-      <c r="AT58">
-        <v>1.97</v>
-      </c>
-      <c r="AU58">
-        <v>3</v>
-      </c>
-      <c r="AV58">
-        <v>8</v>
-      </c>
-      <c r="AW58">
-        <v>4</v>
-      </c>
-      <c r="AX58">
-        <v>7</v>
-      </c>
-      <c r="AY58">
-        <v>7</v>
-      </c>
-      <c r="AZ58">
-        <v>15</v>
-      </c>
-      <c r="BA58">
-        <v>7</v>
-      </c>
-      <c r="BB58">
-        <v>10</v>
-      </c>
-      <c r="BC58">
-        <v>17</v>
-      </c>
-      <c r="BD58">
-        <v>1.82</v>
-      </c>
-      <c r="BE58">
-        <v>8</v>
-      </c>
-      <c r="BF58">
-        <v>2.33</v>
-      </c>
-      <c r="BG58">
-        <v>1.28</v>
-      </c>
-      <c r="BH58">
-        <v>3.3</v>
-      </c>
-      <c r="BI58">
-        <v>1.5</v>
-      </c>
-      <c r="BJ58">
-        <v>2.4</v>
-      </c>
-      <c r="BK58">
-        <v>1.92</v>
-      </c>
-      <c r="BL58">
-        <v>1.88</v>
-      </c>
-      <c r="BM58">
-        <v>2.32</v>
-      </c>
-      <c r="BN58">
-        <v>1.54</v>
-      </c>
-      <c r="BO58">
-        <v>3</v>
-      </c>
-      <c r="BP58">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:68">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>7468923</v>
-      </c>
-      <c r="C59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="2">
-        <v>45562.625</v>
-      </c>
-      <c r="F59">
-        <v>7</v>
-      </c>
-      <c r="G59" t="s">
-        <v>83</v>
-      </c>
-      <c r="H59" t="s">
-        <v>84</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59">
-        <v>2</v>
-      </c>
-      <c r="L59">
-        <v>2</v>
-      </c>
-      <c r="M59">
-        <v>2</v>
-      </c>
-      <c r="N59">
-        <v>4</v>
-      </c>
-      <c r="O59" t="s">
-        <v>134</v>
-      </c>
-      <c r="P59" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q59">
-        <v>2.62</v>
-      </c>
-      <c r="R59">
-        <v>2.05</v>
-      </c>
-      <c r="S59">
-        <v>4</v>
-      </c>
-      <c r="T59">
-        <v>1.42</v>
-      </c>
-      <c r="U59">
-        <v>2.62</v>
-      </c>
-      <c r="V59">
-        <v>2.9</v>
-      </c>
-      <c r="W59">
-        <v>1.36</v>
-      </c>
-      <c r="X59">
-        <v>9</v>
-      </c>
-      <c r="Y59">
-        <v>1.07</v>
-      </c>
-      <c r="Z59">
-        <v>2.03</v>
-      </c>
-      <c r="AA59">
-        <v>3.48</v>
-      </c>
-      <c r="AB59">
-        <v>3.68</v>
-      </c>
-      <c r="AC59">
-        <v>1.07</v>
-      </c>
-      <c r="AD59">
-        <v>8</v>
-      </c>
-      <c r="AE59">
-        <v>1.36</v>
-      </c>
-      <c r="AF59">
-        <v>3.1</v>
-      </c>
-      <c r="AG59">
-        <v>2.06</v>
-      </c>
-      <c r="AH59">
-        <v>1.68</v>
-      </c>
-      <c r="AI59">
-        <v>1.8</v>
-      </c>
-      <c r="AJ59">
-        <v>1.85</v>
-      </c>
-      <c r="AK59">
-        <v>1.25</v>
-      </c>
-      <c r="AL59">
-        <v>1.28</v>
-      </c>
-      <c r="AM59">
-        <v>1.75</v>
-      </c>
-      <c r="AN59">
-        <v>2.33</v>
-      </c>
-      <c r="AO59">
-        <v>1.67</v>
-      </c>
-      <c r="AP59">
-        <v>2</v>
-      </c>
-      <c r="AQ59">
-        <v>1.5</v>
-      </c>
-      <c r="AR59">
-        <v>1.53</v>
-      </c>
-      <c r="AS59">
-        <v>1.33</v>
-      </c>
-      <c r="AT59">
-        <v>2.86</v>
-      </c>
-      <c r="AU59">
-        <v>10</v>
-      </c>
-      <c r="AV59">
-        <v>3</v>
-      </c>
-      <c r="AW59">
-        <v>7</v>
-      </c>
-      <c r="AX59">
-        <v>4</v>
-      </c>
-      <c r="AY59">
-        <v>17</v>
-      </c>
-      <c r="AZ59">
-        <v>7</v>
-      </c>
-      <c r="BA59">
-        <v>3</v>
-      </c>
-      <c r="BB59">
-        <v>3</v>
-      </c>
-      <c r="BC59">
-        <v>6</v>
-      </c>
-      <c r="BD59">
-        <v>1.82</v>
-      </c>
-      <c r="BE59">
-        <v>7.5</v>
-      </c>
-      <c r="BF59">
-        <v>2.34</v>
-      </c>
-      <c r="BG59">
-        <v>1.28</v>
-      </c>
-      <c r="BH59">
-        <v>2.97</v>
-      </c>
-      <c r="BI59">
-        <v>1.7</v>
-      </c>
-      <c r="BJ59">
-        <v>2.05</v>
-      </c>
-      <c r="BK59">
-        <v>2.02</v>
-      </c>
-      <c r="BL59">
-        <v>1.74</v>
-      </c>
-      <c r="BM59">
-        <v>2.6</v>
-      </c>
-      <c r="BN59">
-        <v>1.41</v>
-      </c>
-      <c r="BO59">
-        <v>3.52</v>
-      </c>
-      <c r="BP59">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:68">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>7468922</v>
-      </c>
-      <c r="C60" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="2">
-        <v>45562.625</v>
-      </c>
-      <c r="F60">
-        <v>7</v>
-      </c>
-      <c r="G60" t="s">
-        <v>73</v>
-      </c>
-      <c r="H60" t="s">
-        <v>81</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60">
-        <v>2</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>3</v>
-      </c>
-      <c r="O60" t="s">
-        <v>135</v>
-      </c>
-      <c r="P60" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q60">
-        <v>2.88</v>
-      </c>
-      <c r="R60">
-        <v>2</v>
-      </c>
-      <c r="S60">
-        <v>3.75</v>
-      </c>
-      <c r="T60">
-        <v>1.48</v>
-      </c>
-      <c r="U60">
-        <v>2.5</v>
-      </c>
-      <c r="V60">
-        <v>3.2</v>
-      </c>
-      <c r="W60">
-        <v>1.3</v>
-      </c>
-      <c r="X60">
-        <v>10</v>
-      </c>
-      <c r="Y60">
-        <v>1.06</v>
-      </c>
-      <c r="Z60">
-        <v>2.32</v>
-      </c>
-      <c r="AA60">
-        <v>3.3</v>
-      </c>
-      <c r="AB60">
-        <v>3.14</v>
-      </c>
-      <c r="AC60">
-        <v>1.05</v>
-      </c>
-      <c r="AD60">
-        <v>8</v>
-      </c>
-      <c r="AE60">
-        <v>1.36</v>
-      </c>
-      <c r="AF60">
-        <v>2.87</v>
-      </c>
-      <c r="AG60">
-        <v>1.99</v>
-      </c>
-      <c r="AH60">
-        <v>1.73</v>
-      </c>
-      <c r="AI60">
-        <v>1.87</v>
-      </c>
-      <c r="AJ60">
-        <v>1.9</v>
-      </c>
-      <c r="AK60">
-        <v>1.36</v>
-      </c>
-      <c r="AL60">
-        <v>1.28</v>
-      </c>
-      <c r="AM60">
-        <v>1.57</v>
-      </c>
-      <c r="AN60">
-        <v>3</v>
-      </c>
-      <c r="AO60">
-        <v>1</v>
-      </c>
-      <c r="AP60">
-        <v>3</v>
-      </c>
-      <c r="AQ60">
-        <v>0.75</v>
-      </c>
-      <c r="AR60">
-        <v>1.51</v>
-      </c>
-      <c r="AS60">
-        <v>1.04</v>
-      </c>
-      <c r="AT60">
-        <v>2.55</v>
-      </c>
-      <c r="AU60">
-        <v>11</v>
-      </c>
-      <c r="AV60">
-        <v>4</v>
-      </c>
-      <c r="AW60">
-        <v>3</v>
-      </c>
-      <c r="AX60">
-        <v>6</v>
-      </c>
-      <c r="AY60">
-        <v>14</v>
-      </c>
-      <c r="AZ60">
-        <v>10</v>
-      </c>
-      <c r="BA60">
-        <v>5</v>
-      </c>
-      <c r="BB60">
-        <v>4</v>
-      </c>
-      <c r="BC60">
-        <v>9</v>
-      </c>
-      <c r="BD60">
-        <v>1.95</v>
-      </c>
-      <c r="BE60">
-        <v>8</v>
-      </c>
-      <c r="BF60">
-        <v>2.1</v>
-      </c>
-      <c r="BG60">
-        <v>1.15</v>
-      </c>
-      <c r="BH60">
-        <v>3.98</v>
-      </c>
-      <c r="BI60">
-        <v>1.33</v>
-      </c>
-      <c r="BJ60">
-        <v>2.73</v>
-      </c>
-      <c r="BK60">
-        <v>1.7</v>
-      </c>
-      <c r="BL60">
-        <v>2.05</v>
-      </c>
-      <c r="BM60">
-        <v>2.08</v>
-      </c>
-      <c r="BN60">
-        <v>1.7</v>
-      </c>
-      <c r="BO60">
-        <v>2.67</v>
-      </c>
-      <c r="BP60">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:68">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>7468921</v>
-      </c>
-      <c r="C61" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="2">
-        <v>45562.625</v>
-      </c>
-      <c r="F61">
-        <v>7</v>
-      </c>
-      <c r="G61" t="s">
-        <v>74</v>
-      </c>
-      <c r="H61" t="s">
-        <v>70</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61">
-        <v>3</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>3</v>
-      </c>
-      <c r="O61" t="s">
-        <v>136</v>
-      </c>
-      <c r="P61" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q61">
-        <v>2.95</v>
-      </c>
-      <c r="R61">
-        <v>2</v>
-      </c>
-      <c r="S61">
-        <v>3.6</v>
-      </c>
-      <c r="T61">
-        <v>1.45</v>
-      </c>
-      <c r="U61">
-        <v>2.55</v>
-      </c>
-      <c r="V61">
-        <v>3</v>
-      </c>
-      <c r="W61">
-        <v>1.33</v>
-      </c>
-      <c r="X61">
-        <v>9</v>
-      </c>
-      <c r="Y61">
-        <v>1.07</v>
-      </c>
-      <c r="Z61">
-        <v>2.31</v>
-      </c>
-      <c r="AA61">
-        <v>3.34</v>
-      </c>
-      <c r="AB61">
-        <v>3.13</v>
-      </c>
-      <c r="AC61">
-        <v>1.07</v>
-      </c>
-      <c r="AD61">
-        <v>8</v>
-      </c>
-      <c r="AE61">
-        <v>1.38</v>
-      </c>
-      <c r="AF61">
-        <v>3</v>
-      </c>
-      <c r="AG61">
-        <v>2.06</v>
-      </c>
-      <c r="AH61">
-        <v>1.68</v>
-      </c>
-      <c r="AI61">
-        <v>1.8</v>
-      </c>
-      <c r="AJ61">
-        <v>1.85</v>
-      </c>
-      <c r="AK61">
-        <v>1.36</v>
-      </c>
-      <c r="AL61">
-        <v>1.28</v>
-      </c>
-      <c r="AM61">
-        <v>1.57</v>
-      </c>
-      <c r="AN61">
-        <v>2.33</v>
-      </c>
-      <c r="AO61">
-        <v>1.5</v>
-      </c>
-      <c r="AP61">
-        <v>2.5</v>
-      </c>
-      <c r="AQ61">
-        <v>1</v>
-      </c>
-      <c r="AR61">
-        <v>1.29</v>
-      </c>
-      <c r="AS61">
-        <v>1.43</v>
-      </c>
-      <c r="AT61">
-        <v>2.72</v>
-      </c>
-      <c r="AU61">
-        <v>6</v>
-      </c>
-      <c r="AV61">
-        <v>4</v>
-      </c>
-      <c r="AW61">
-        <v>3</v>
-      </c>
-      <c r="AX61">
-        <v>4</v>
-      </c>
-      <c r="AY61">
-        <v>9</v>
-      </c>
-      <c r="AZ61">
-        <v>8</v>
-      </c>
-      <c r="BA61">
-        <v>5</v>
-      </c>
-      <c r="BB61">
-        <v>8</v>
-      </c>
-      <c r="BC61">
-        <v>13</v>
-      </c>
-      <c r="BD61">
-        <v>1.69</v>
-      </c>
-      <c r="BE61">
-        <v>8</v>
-      </c>
-      <c r="BF61">
-        <v>2.54</v>
-      </c>
-      <c r="BG61">
-        <v>1.29</v>
-      </c>
-      <c r="BH61">
-        <v>3.3</v>
-      </c>
-      <c r="BI61">
-        <v>1.51</v>
-      </c>
-      <c r="BJ61">
-        <v>2.4</v>
-      </c>
-      <c r="BK61">
-        <v>1.88</v>
-      </c>
-      <c r="BL61">
-        <v>1.92</v>
-      </c>
-      <c r="BM61">
-        <v>2.33</v>
-      </c>
-      <c r="BN61">
-        <v>1.53</v>
-      </c>
-      <c r="BO61">
-        <v>3</v>
-      </c>
-      <c r="BP61">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:68">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>7468925</v>
-      </c>
-      <c r="C62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="2">
-        <v>45563.375</v>
-      </c>
-      <c r="F62">
-        <v>7</v>
-      </c>
-      <c r="G62" t="s">
-        <v>87</v>
-      </c>
-      <c r="H62" t="s">
-        <v>85</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>2</v>
-      </c>
-      <c r="K62">
-        <v>3</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>3</v>
-      </c>
-      <c r="N62">
-        <v>4</v>
-      </c>
-      <c r="O62" t="s">
-        <v>137</v>
-      </c>
-      <c r="P62" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q62">
-        <v>3.6</v>
-      </c>
-      <c r="R62">
-        <v>2.15</v>
-      </c>
-      <c r="S62">
-        <v>2.8</v>
-      </c>
-      <c r="T62">
-        <v>1.38</v>
-      </c>
-      <c r="U62">
-        <v>2.8</v>
-      </c>
-      <c r="V62">
-        <v>2.8</v>
-      </c>
-      <c r="W62">
-        <v>1.38</v>
-      </c>
-      <c r="X62">
-        <v>6.5</v>
-      </c>
-      <c r="Y62">
-        <v>1.08</v>
-      </c>
-      <c r="Z62">
-        <v>3.05</v>
-      </c>
-      <c r="AA62">
-        <v>3.44</v>
-      </c>
-      <c r="AB62">
-        <v>2.29</v>
-      </c>
-      <c r="AC62">
-        <v>1.03</v>
-      </c>
-      <c r="AD62">
-        <v>9</v>
-      </c>
-      <c r="AE62">
-        <v>1.29</v>
-      </c>
-      <c r="AF62">
-        <v>3.3</v>
-      </c>
-      <c r="AG62">
-        <v>1.96</v>
-      </c>
-      <c r="AH62">
-        <v>1.86</v>
-      </c>
-      <c r="AI62">
-        <v>1.73</v>
-      </c>
-      <c r="AJ62">
-        <v>2</v>
-      </c>
-      <c r="AK62">
-        <v>1.62</v>
-      </c>
-      <c r="AL62">
-        <v>1.33</v>
-      </c>
-      <c r="AM62">
-        <v>1.38</v>
-      </c>
-      <c r="AN62">
-        <v>1.5</v>
-      </c>
-      <c r="AO62">
-        <v>2</v>
-      </c>
-      <c r="AP62">
-        <v>1</v>
-      </c>
-      <c r="AQ62">
-        <v>2.25</v>
-      </c>
-      <c r="AR62">
-        <v>1.16</v>
-      </c>
-      <c r="AS62">
-        <v>1.35</v>
-      </c>
-      <c r="AT62">
-        <v>2.51</v>
-      </c>
-      <c r="AU62">
-        <v>5</v>
-      </c>
-      <c r="AV62">
-        <v>6</v>
-      </c>
-      <c r="AW62">
-        <v>7</v>
-      </c>
-      <c r="AX62">
-        <v>3</v>
-      </c>
-      <c r="AY62">
-        <v>12</v>
-      </c>
-      <c r="AZ62">
-        <v>9</v>
-      </c>
-      <c r="BA62">
-        <v>6</v>
-      </c>
-      <c r="BB62">
-        <v>7</v>
-      </c>
-      <c r="BC62">
-        <v>13</v>
-      </c>
-      <c r="BD62">
-        <v>2.29</v>
-      </c>
-      <c r="BE62">
-        <v>7.5</v>
-      </c>
-      <c r="BF62">
-        <v>1.85</v>
-      </c>
-      <c r="BG62">
-        <v>1.35</v>
-      </c>
-      <c r="BH62">
-        <v>3.05</v>
-      </c>
-      <c r="BI62">
-        <v>1.7</v>
-      </c>
-      <c r="BJ62">
-        <v>2.05</v>
-      </c>
-      <c r="BK62">
-        <v>2.1</v>
-      </c>
-      <c r="BL62">
-        <v>1.68</v>
-      </c>
-      <c r="BM62">
-        <v>2.85</v>
-      </c>
-      <c r="BN62">
-        <v>1.38</v>
-      </c>
-      <c r="BO62">
-        <v>4</v>
-      </c>
-      <c r="BP62">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:68">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>7468928</v>
-      </c>
-      <c r="C63" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="2">
-        <v>45563.625</v>
-      </c>
-      <c r="F63">
-        <v>7</v>
-      </c>
-      <c r="G63" t="s">
-        <v>79</v>
-      </c>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <v>2</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>3</v>
-      </c>
-      <c r="O63" t="s">
-        <v>138</v>
-      </c>
-      <c r="P63" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q63">
-        <v>3.75</v>
-      </c>
-      <c r="R63">
-        <v>2</v>
-      </c>
-      <c r="S63">
-        <v>2.75</v>
-      </c>
-      <c r="T63">
-        <v>1.42</v>
-      </c>
-      <c r="U63">
-        <v>2.62</v>
-      </c>
-      <c r="V63">
-        <v>3</v>
-      </c>
-      <c r="W63">
-        <v>1.33</v>
-      </c>
-      <c r="X63">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="Y63">
-        <v>1.06</v>
-      </c>
-      <c r="Z63">
-        <v>3.5</v>
-      </c>
-      <c r="AA63">
-        <v>3.4</v>
-      </c>
-      <c r="AB63">
-        <v>1.95</v>
-      </c>
-      <c r="AC63">
-        <v>1.05</v>
-      </c>
-      <c r="AD63">
-        <v>8</v>
-      </c>
-      <c r="AE63">
-        <v>1.29</v>
-      </c>
-      <c r="AF63">
-        <v>3.3</v>
-      </c>
-      <c r="AG63">
-        <v>2.07</v>
-      </c>
-      <c r="AH63">
-        <v>1.72</v>
-      </c>
-      <c r="AI63">
-        <v>1.87</v>
-      </c>
-      <c r="AJ63">
-        <v>1.9</v>
-      </c>
-      <c r="AK63">
-        <v>1.67</v>
-      </c>
-      <c r="AL63">
-        <v>1.25</v>
-      </c>
-      <c r="AM63">
-        <v>1.3</v>
-      </c>
-      <c r="AN63">
-        <v>0</v>
-      </c>
-      <c r="AO63">
-        <v>3</v>
-      </c>
-      <c r="AP63">
-        <v>1</v>
-      </c>
-      <c r="AQ63">
-        <v>2</v>
-      </c>
-      <c r="AR63">
-        <v>1.33</v>
-      </c>
-      <c r="AS63">
-        <v>1.3</v>
-      </c>
-      <c r="AT63">
-        <v>2.63</v>
-      </c>
-      <c r="AU63">
-        <v>6</v>
-      </c>
-      <c r="AV63">
-        <v>3</v>
-      </c>
-      <c r="AW63">
-        <v>1</v>
-      </c>
-      <c r="AX63">
-        <v>7</v>
-      </c>
-      <c r="AY63">
-        <v>7</v>
-      </c>
-      <c r="AZ63">
-        <v>10</v>
-      </c>
-      <c r="BA63">
-        <v>1</v>
-      </c>
-      <c r="BB63">
-        <v>2</v>
-      </c>
-      <c r="BC63">
-        <v>3</v>
-      </c>
-      <c r="BD63">
-        <v>2.1</v>
-      </c>
-      <c r="BE63">
-        <v>8</v>
-      </c>
-      <c r="BF63">
-        <v>1.91</v>
-      </c>
-      <c r="BG63">
-        <v>1.3</v>
-      </c>
-      <c r="BH63">
-        <v>3.35</v>
-      </c>
-      <c r="BI63">
-        <v>1.55</v>
-      </c>
-      <c r="BJ63">
-        <v>2.38</v>
-      </c>
-      <c r="BK63">
-        <v>1.95</v>
-      </c>
-      <c r="BL63">
-        <v>1.85</v>
-      </c>
-      <c r="BM63">
-        <v>2.6</v>
-      </c>
-      <c r="BN63">
-        <v>1.46</v>
-      </c>
-      <c r="BO63">
-        <v>3.6</v>
-      </c>
-      <c r="BP63">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:68">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>7468929</v>
-      </c>
-      <c r="C64" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="2">
-        <v>45565.65625</v>
-      </c>
-      <c r="F64">
-        <v>7</v>
-      </c>
-      <c r="G64" t="s">
-        <v>75</v>
-      </c>
-      <c r="H64" t="s">
-        <v>76</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>3</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>4</v>
-      </c>
-      <c r="O64" t="s">
-        <v>139</v>
-      </c>
-      <c r="P64" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q64">
-        <v>2.7</v>
-      </c>
-      <c r="R64">
-        <v>2</v>
-      </c>
-      <c r="S64">
-        <v>4</v>
-      </c>
-      <c r="T64">
-        <v>1.4</v>
-      </c>
-      <c r="U64">
-        <v>2.75</v>
-      </c>
-      <c r="V64">
-        <v>2.75</v>
-      </c>
-      <c r="W64">
-        <v>1.4</v>
-      </c>
-      <c r="X64">
-        <v>7</v>
-      </c>
-      <c r="Y64">
-        <v>1.08</v>
-      </c>
-      <c r="Z64">
-        <v>2.05</v>
-      </c>
-      <c r="AA64">
-        <v>3.3</v>
-      </c>
-      <c r="AB64">
-        <v>3.5</v>
-      </c>
-      <c r="AC64">
-        <v>1.05</v>
-      </c>
-      <c r="AD64">
-        <v>8</v>
-      </c>
-      <c r="AE64">
-        <v>1.29</v>
-      </c>
-      <c r="AF64">
-        <v>3.3</v>
-      </c>
-      <c r="AG64">
-        <v>1.95</v>
-      </c>
-      <c r="AH64">
-        <v>1.75</v>
-      </c>
-      <c r="AI64">
-        <v>1.8</v>
-      </c>
-      <c r="AJ64">
-        <v>2</v>
-      </c>
-      <c r="AK64">
-        <v>1.25</v>
-      </c>
-      <c r="AL64">
-        <v>1.3</v>
-      </c>
-      <c r="AM64">
-        <v>1.75</v>
-      </c>
-      <c r="AN64">
-        <v>1.33</v>
-      </c>
-      <c r="AO64">
-        <v>0</v>
-      </c>
-      <c r="AP64">
-        <v>1.75</v>
-      </c>
-      <c r="AQ64">
-        <v>0</v>
-      </c>
-      <c r="AR64">
-        <v>1.73</v>
-      </c>
-      <c r="AS64">
-        <v>1.71</v>
-      </c>
-      <c r="AT64">
-        <v>3.44</v>
-      </c>
-      <c r="AU64">
-        <v>11</v>
-      </c>
-      <c r="AV64">
-        <v>3</v>
-      </c>
-      <c r="AW64">
-        <v>5</v>
-      </c>
-      <c r="AX64">
-        <v>3</v>
-      </c>
-      <c r="AY64">
-        <v>16</v>
-      </c>
-      <c r="AZ64">
-        <v>6</v>
-      </c>
-      <c r="BA64">
-        <v>7</v>
-      </c>
-      <c r="BB64">
-        <v>6</v>
-      </c>
-      <c r="BC64">
-        <v>13</v>
-      </c>
-      <c r="BD64">
-        <v>1.82</v>
-      </c>
-      <c r="BE64">
-        <v>8</v>
-      </c>
-      <c r="BF64">
-        <v>2.33</v>
-      </c>
-      <c r="BG64">
-        <v>1.33</v>
-      </c>
-      <c r="BH64">
-        <v>3.15</v>
-      </c>
-      <c r="BI64">
-        <v>1.61</v>
-      </c>
-      <c r="BJ64">
-        <v>2.23</v>
-      </c>
-      <c r="BK64">
-        <v>1.95</v>
-      </c>
-      <c r="BL64">
-        <v>1.78</v>
-      </c>
-      <c r="BM64">
-        <v>2.75</v>
-      </c>
-      <c r="BN64">
-        <v>1.41</v>
-      </c>
-      <c r="BO64">
-        <v>3.85</v>
-      </c>
-      <c r="BP64">
         <v>1.24</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,12 +382,54 @@
     <t>['27']</t>
   </si>
   <si>
+    <t>['13', '81']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['35', '37', '45+3', '48', '70', '81']</t>
+  </si>
+  <si>
+    <t>['10', '75']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['58', '71']</t>
+  </si>
+  <si>
+    <t>['65', '83']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['69', '78', '90+2']</t>
   </si>
   <si>
     <t>['29', '41', '80']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['39', '51']</t>
+  </si>
+  <si>
+    <t>['71', '83']</t>
+  </si>
+  <si>
+    <t>['45+1', '62', '84']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
     <t>['42', '80']</t>
   </si>
   <si>
@@ -439,9 +481,6 @@
     <t>['5']</t>
   </si>
   <si>
-    <t>['9']</t>
-  </si>
-  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -463,9 +502,6 @@
     <t>['55', '60', '66', '70']</t>
   </si>
   <si>
-    <t>['10']</t>
-  </si>
-  <si>
     <t>['4', '65']</t>
   </si>
   <si>
@@ -478,7 +514,31 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['76', '83', '85']</t>
+  </si>
+  <si>
     <t>['76']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['10', '82']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['20', '45+1', '57']</t>
   </si>
   <si>
     <t>['78']</t>
@@ -846,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,7 +1165,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1183,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ2">
         <v>0.5</v>
@@ -1210,10 +1270,10 @@
         <v>4</v>
       </c>
       <c r="AY2">
+        <v>14</v>
+      </c>
+      <c r="AZ2">
         <v>12</v>
-      </c>
-      <c r="AZ2">
-        <v>9</v>
       </c>
       <c r="BA2">
         <v>4</v>
@@ -1392,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1517,7 +1577,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1595,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ4">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1828,10 +1888,10 @@
         <v>7</v>
       </c>
       <c r="AY5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA5">
         <v>6</v>
@@ -1929,7 +1989,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2007,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2216,7 +2276,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2240,10 +2300,10 @@
         <v>5</v>
       </c>
       <c r="AY7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA7">
         <v>3</v>
@@ -2341,7 +2401,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2419,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2446,10 +2506,10 @@
         <v>6</v>
       </c>
       <c r="AY8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA8">
         <v>9</v>
@@ -2625,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2655,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="AZ9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA9">
         <v>1</v>
@@ -2753,7 +2813,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2831,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2858,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="AY10">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA10">
         <v>9</v>
@@ -3040,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3064,10 +3124,10 @@
         <v>3</v>
       </c>
       <c r="AY11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA11">
         <v>15</v>
@@ -3165,7 +3225,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3246,7 +3306,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3270,10 +3330,10 @@
         <v>8</v>
       </c>
       <c r="AY12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA12">
         <v>8</v>
@@ -3371,7 +3431,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3476,10 +3536,10 @@
         <v>5</v>
       </c>
       <c r="AY13">
+        <v>16</v>
+      </c>
+      <c r="AZ13">
         <v>14</v>
-      </c>
-      <c r="AZ13">
-        <v>10</v>
       </c>
       <c r="BA13">
         <v>7</v>
@@ -3682,10 +3742,10 @@
         <v>11</v>
       </c>
       <c r="AY14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ14">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA14">
         <v>0</v>
@@ -3861,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3888,10 +3948,10 @@
         <v>5</v>
       </c>
       <c r="AY15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA15">
         <v>6</v>
@@ -3989,7 +4049,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4067,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4094,10 +4154,10 @@
         <v>2</v>
       </c>
       <c r="AY16">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AZ16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA16">
         <v>19</v>
@@ -4195,7 +4255,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4273,10 +4333,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4300,10 +4360,10 @@
         <v>1</v>
       </c>
       <c r="AY17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA17">
         <v>7</v>
@@ -4482,7 +4542,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4506,10 +4566,10 @@
         <v>3</v>
       </c>
       <c r="AY18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA18">
         <v>9</v>
@@ -4685,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0.25</v>
@@ -4712,10 +4772,10 @@
         <v>9</v>
       </c>
       <c r="AY19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ19">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA19">
         <v>2</v>
@@ -4813,7 +4873,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -4894,7 +4954,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -4918,10 +4978,10 @@
         <v>1</v>
       </c>
       <c r="AY20">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA20">
         <v>7</v>
@@ -5019,7 +5079,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5097,10 +5157,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5124,10 +5184,10 @@
         <v>2</v>
       </c>
       <c r="AY21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA21">
         <v>4</v>
@@ -5225,7 +5285,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5330,10 +5390,10 @@
         <v>5</v>
       </c>
       <c r="AY22">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ22">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA22">
         <v>8</v>
@@ -5509,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>2.13</v>
@@ -5536,10 +5596,10 @@
         <v>5</v>
       </c>
       <c r="AY23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ23">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA23">
         <v>3</v>
@@ -5637,7 +5697,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5715,10 +5775,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.39</v>
@@ -5742,10 +5802,10 @@
         <v>3</v>
       </c>
       <c r="AY24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA24">
         <v>6</v>
@@ -5843,7 +5903,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5921,10 +5981,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -5948,7 +6008,7 @@
         <v>5</v>
       </c>
       <c r="AY25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ25">
         <v>10</v>
@@ -6049,7 +6109,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6127,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
         <v>0.5</v>
@@ -6336,7 +6396,7 @@
         <v>3</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.55</v>
@@ -6360,10 +6420,10 @@
         <v>6</v>
       </c>
       <c r="AY27">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ27">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA27">
         <v>9</v>
@@ -6461,7 +6521,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6539,10 +6599,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>1.92</v>
@@ -6566,10 +6626,10 @@
         <v>0</v>
       </c>
       <c r="AY28">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA28">
         <v>4</v>
@@ -6667,7 +6727,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -6775,7 +6835,7 @@
         <v>10</v>
       </c>
       <c r="AZ29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA29">
         <v>6</v>
@@ -6873,7 +6933,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -6978,10 +7038,10 @@
         <v>2</v>
       </c>
       <c r="AY30">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA30">
         <v>13</v>
@@ -7079,7 +7139,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7157,10 +7217,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.38</v>
@@ -7184,10 +7244,10 @@
         <v>2</v>
       </c>
       <c r="AY31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA31">
         <v>3</v>
@@ -7366,7 +7426,7 @@
         <v>3</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>0.82</v>
@@ -7390,7 +7450,7 @@
         <v>5</v>
       </c>
       <c r="AY32">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ32">
         <v>9</v>
@@ -7569,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -7599,7 +7659,7 @@
         <v>10</v>
       </c>
       <c r="AZ33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA33">
         <v>6</v>
@@ -7775,10 +7835,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -7802,10 +7862,10 @@
         <v>1</v>
       </c>
       <c r="AY34">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ34">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA34">
         <v>5</v>
@@ -7903,7 +7963,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -7984,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="AQ35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>1.69</v>
@@ -8008,10 +8068,10 @@
         <v>3</v>
       </c>
       <c r="AY35">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ35">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA35">
         <v>5</v>
@@ -8109,7 +8169,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8187,7 +8247,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8214,10 +8274,10 @@
         <v>1</v>
       </c>
       <c r="AY36">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA36">
         <v>5</v>
@@ -8315,7 +8375,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8393,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -8420,10 +8480,10 @@
         <v>4</v>
       </c>
       <c r="AY37">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA37">
         <v>9</v>
@@ -8521,7 +8581,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8602,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -8626,10 +8686,10 @@
         <v>9</v>
       </c>
       <c r="AY38">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ38">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA38">
         <v>4</v>
@@ -8727,7 +8787,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -8805,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>0.8</v>
@@ -8832,10 +8892,10 @@
         <v>6</v>
       </c>
       <c r="AY39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ39">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA39">
         <v>2</v>
@@ -8933,7 +8993,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="Q40">
         <v>3.72</v>
@@ -9011,10 +9071,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR40">
         <v>1.41</v>
@@ -9041,7 +9101,7 @@
         <v>15</v>
       </c>
       <c r="AZ40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA40">
         <v>3</v>
@@ -9139,7 +9199,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9220,7 +9280,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ41">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.73</v>
@@ -9244,10 +9304,10 @@
         <v>1</v>
       </c>
       <c r="AY41">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ41">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA41">
         <v>6</v>
@@ -9345,7 +9405,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9423,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ42">
         <v>0.5</v>
@@ -9450,10 +9510,10 @@
         <v>8</v>
       </c>
       <c r="AY42">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ42">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA42">
         <v>5</v>
@@ -9551,7 +9611,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9629,10 +9689,10 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR43">
         <v>0.8</v>
@@ -9656,10 +9716,10 @@
         <v>4</v>
       </c>
       <c r="AY43">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ43">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA43">
         <v>2</v>
@@ -9835,7 +9895,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
         <v>0.25</v>
@@ -9862,10 +9922,10 @@
         <v>0</v>
       </c>
       <c r="AY44">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA44">
         <v>10</v>
@@ -10044,7 +10104,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.53</v>
@@ -10068,10 +10128,10 @@
         <v>10</v>
       </c>
       <c r="AY45">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ45">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA45">
         <v>5</v>
@@ -10169,7 +10229,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10247,10 +10307,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.88</v>
@@ -10274,10 +10334,10 @@
         <v>7</v>
       </c>
       <c r="AY46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ46">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA46">
         <v>1</v>
@@ -10333,7 +10393,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7468927</v>
+        <v>7468912</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10342,31 +10402,31 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45561.875</v>
+        <v>45559.64583333334</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>3</v>
@@ -10375,163 +10435,163 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="Q47">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S47">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="T47">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="U47">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="V47">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="W47">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="X47">
-        <v>9.1</v>
+        <v>7.6</v>
       </c>
       <c r="Y47">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="Z47">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="AA47">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AB47">
-        <v>6.25</v>
+        <v>3.6</v>
       </c>
       <c r="AC47">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AD47">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="AE47">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AF47">
-        <v>2.72</v>
+        <v>3.23</v>
       </c>
       <c r="AG47">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AH47">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AI47">
-        <v>2.35</v>
+        <v>1.83</v>
       </c>
       <c r="AJ47">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="AK47">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="AL47">
         <v>1.25</v>
       </c>
       <c r="AM47">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="AN47">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO47">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR47">
-        <v>1.76</v>
+        <v>1.49</v>
       </c>
       <c r="AS47">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="AT47">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="AU47">
+        <v>4</v>
+      </c>
+      <c r="AV47">
+        <v>5</v>
+      </c>
+      <c r="AW47">
         <v>8</v>
       </c>
-      <c r="AV47">
-        <v>3</v>
-      </c>
-      <c r="AW47">
-        <v>7</v>
-      </c>
       <c r="AX47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY47">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ47">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA47">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD47">
+        <v>1.48</v>
+      </c>
+      <c r="BE47">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF47">
+        <v>3.24</v>
+      </c>
+      <c r="BG47">
+        <v>1.19</v>
+      </c>
+      <c r="BH47">
+        <v>3.64</v>
+      </c>
+      <c r="BI47">
         <v>1.41</v>
       </c>
-      <c r="BE47">
-        <v>8.5</v>
-      </c>
-      <c r="BF47">
-        <v>3.68</v>
-      </c>
-      <c r="BG47">
-        <v>1.55</v>
-      </c>
-      <c r="BH47">
-        <v>2.28</v>
-      </c>
-      <c r="BI47">
-        <v>2</v>
-      </c>
       <c r="BJ47">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="BK47">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="BL47">
-        <v>1.47</v>
+        <v>2.03</v>
       </c>
       <c r="BM47">
-        <v>3.4</v>
+        <v>2.24</v>
       </c>
       <c r="BN47">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="BO47">
-        <v>4.8</v>
+        <v>2.82</v>
       </c>
       <c r="BP47">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10539,7 +10599,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7468926</v>
+        <v>7468913</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10548,94 +10608,94 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45561.875</v>
+        <v>45559.64583333334</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O48" t="s">
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="Q48">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S48">
+        <v>5</v>
+      </c>
+      <c r="T48">
+        <v>1.36</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <v>2.67</v>
+      </c>
+      <c r="W48">
+        <v>1.44</v>
+      </c>
+      <c r="X48">
+        <v>6.6</v>
+      </c>
+      <c r="Y48">
+        <v>1.09</v>
+      </c>
+      <c r="Z48">
+        <v>1.67</v>
+      </c>
+      <c r="AA48">
         <v>3.6</v>
       </c>
-      <c r="T48">
-        <v>1.45</v>
-      </c>
-      <c r="U48">
-        <v>2.55</v>
-      </c>
-      <c r="V48">
-        <v>2.95</v>
-      </c>
-      <c r="W48">
-        <v>1.35</v>
-      </c>
-      <c r="X48">
-        <v>9</v>
-      </c>
-      <c r="Y48">
-        <v>1.07</v>
-      </c>
-      <c r="Z48">
-        <v>2.43</v>
-      </c>
-      <c r="AA48">
-        <v>3.34</v>
-      </c>
       <c r="AB48">
-        <v>2.93</v>
+        <v>4.5</v>
       </c>
       <c r="AC48">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD48">
-        <v>8</v>
+        <v>12.9</v>
       </c>
       <c r="AE48">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AF48">
-        <v>3.3</v>
+        <v>3.74</v>
       </c>
       <c r="AG48">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="AH48">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="AI48">
         <v>1.8</v>
@@ -10644,100 +10704,100 @@
         <v>2</v>
       </c>
       <c r="AK48">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AL48">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AM48">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="AN48">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO48">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AR48">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
       <c r="AS48">
-        <v>1.49</v>
+        <v>0.93</v>
       </c>
       <c r="AT48">
-        <v>3.03</v>
+        <v>2.75</v>
       </c>
       <c r="AU48">
+        <v>3</v>
+      </c>
+      <c r="AV48">
         <v>4</v>
       </c>
-      <c r="AV48">
-        <v>3</v>
-      </c>
       <c r="AW48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX48">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AY48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ48">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BA48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD48">
-        <v>1.75</v>
+        <v>1.46</v>
       </c>
       <c r="BE48">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="BF48">
-        <v>2.44</v>
+        <v>3.66</v>
       </c>
       <c r="BG48">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="BH48">
-        <v>3.44</v>
+        <v>3.7</v>
       </c>
       <c r="BI48">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="BJ48">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="BK48">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="BL48">
-        <v>1.74</v>
+        <v>2.03</v>
       </c>
       <c r="BM48">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="BN48">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="BO48">
-        <v>2.97</v>
+        <v>2.78</v>
       </c>
       <c r="BP48">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10745,7 +10805,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7468928</v>
+        <v>7468914</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10754,196 +10814,196 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45563.625</v>
+        <v>45559.64583333334</v>
       </c>
       <c r="F49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O49" t="s">
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="Q49">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S49">
+        <v>7</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49">
         <v>2.75</v>
       </c>
-      <c r="T49">
+      <c r="V49">
+        <v>2.75</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>8</v>
+      </c>
+      <c r="Y49">
+        <v>1.08</v>
+      </c>
+      <c r="Z49">
         <v>1.42</v>
       </c>
-      <c r="U49">
-        <v>2.62</v>
-      </c>
-      <c r="V49">
-        <v>3</v>
-      </c>
-      <c r="W49">
-        <v>1.33</v>
-      </c>
-      <c r="X49">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="Y49">
-        <v>1.06</v>
-      </c>
-      <c r="Z49">
-        <v>3.5</v>
-      </c>
       <c r="AA49">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AB49">
-        <v>1.95</v>
+        <v>6.6</v>
       </c>
       <c r="AC49">
         <v>1.05</v>
       </c>
       <c r="AD49">
+        <v>9.5</v>
+      </c>
+      <c r="AE49">
+        <v>1.3</v>
+      </c>
+      <c r="AF49">
+        <v>3.4</v>
+      </c>
+      <c r="AG49">
+        <v>1.9</v>
+      </c>
+      <c r="AH49">
+        <v>1.8</v>
+      </c>
+      <c r="AI49">
+        <v>2.2</v>
+      </c>
+      <c r="AJ49">
+        <v>1.62</v>
+      </c>
+      <c r="AK49">
+        <v>1.09</v>
+      </c>
+      <c r="AL49">
+        <v>1.17</v>
+      </c>
+      <c r="AM49">
+        <v>2.7</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>1.5</v>
+      </c>
+      <c r="AP49">
+        <v>1.5</v>
+      </c>
+      <c r="AQ49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
+        <v>1.53</v>
+      </c>
+      <c r="AS49">
+        <v>1.16</v>
+      </c>
+      <c r="AT49">
+        <v>2.69</v>
+      </c>
+      <c r="AU49">
+        <v>10</v>
+      </c>
+      <c r="AV49">
+        <v>6</v>
+      </c>
+      <c r="AW49">
         <v>8</v>
       </c>
-      <c r="AE49">
-        <v>1.29</v>
-      </c>
-      <c r="AF49">
-        <v>3.3</v>
-      </c>
-      <c r="AG49">
-        <v>2.07</v>
-      </c>
-      <c r="AH49">
-        <v>1.72</v>
-      </c>
-      <c r="AI49">
-        <v>1.87</v>
-      </c>
-      <c r="AJ49">
-        <v>1.9</v>
-      </c>
-      <c r="AK49">
-        <v>1.67</v>
-      </c>
-      <c r="AL49">
-        <v>1.25</v>
-      </c>
-      <c r="AM49">
-        <v>1.3</v>
-      </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <v>3</v>
-      </c>
-      <c r="AP49">
-        <v>1</v>
-      </c>
-      <c r="AQ49">
-        <v>2</v>
-      </c>
-      <c r="AR49">
-        <v>1.33</v>
-      </c>
-      <c r="AS49">
-        <v>1.3</v>
-      </c>
-      <c r="AT49">
-        <v>2.63</v>
-      </c>
-      <c r="AU49">
-        <v>6</v>
-      </c>
-      <c r="AV49">
-        <v>3</v>
-      </c>
-      <c r="AW49">
-        <v>1</v>
-      </c>
       <c r="AX49">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY49">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AZ49">
+        <v>13</v>
+      </c>
+      <c r="BA49">
+        <v>5</v>
+      </c>
+      <c r="BB49">
+        <v>5</v>
+      </c>
+      <c r="BC49">
         <v>10</v>
       </c>
-      <c r="BA49">
-        <v>1</v>
-      </c>
-      <c r="BB49">
-        <v>2</v>
-      </c>
-      <c r="BC49">
-        <v>3</v>
-      </c>
       <c r="BD49">
-        <v>2.1</v>
+        <v>1.21</v>
       </c>
       <c r="BE49">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="BF49">
-        <v>1.91</v>
+        <v>6.35</v>
       </c>
       <c r="BG49">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BH49">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="BI49">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="BJ49">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="BK49">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="BL49">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="BM49">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BN49">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="BO49">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="BP49">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -10951,7 +11011,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7468929</v>
+        <v>7468915</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -10960,17 +11020,17 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45564.875</v>
+        <v>45559.64583333334</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G50" t="s">
+        <v>85</v>
+      </c>
+      <c r="H50" t="s">
         <v>75</v>
       </c>
-      <c r="H50" t="s">
-        <v>76</v>
-      </c>
       <c r="I50">
         <v>1</v>
       </c>
@@ -10981,174 +11041,3058 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O50" t="s">
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="Q50">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
         <v>4</v>
       </c>
       <c r="T50">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="U50">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="V50">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="W50">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
+        <v>8.6</v>
+      </c>
+      <c r="Y50">
+        <v>1.05</v>
+      </c>
+      <c r="Z50">
+        <v>2.17</v>
+      </c>
+      <c r="AA50">
+        <v>3.1</v>
+      </c>
+      <c r="AB50">
+        <v>3.2</v>
+      </c>
+      <c r="AC50">
+        <v>1.02</v>
+      </c>
+      <c r="AD50">
         <v>7</v>
       </c>
-      <c r="Y50">
-        <v>1.08</v>
-      </c>
-      <c r="Z50">
-        <v>2.05</v>
-      </c>
-      <c r="AA50">
-        <v>3.3</v>
-      </c>
-      <c r="AB50">
-        <v>3.5</v>
-      </c>
-      <c r="AC50">
-        <v>1.05</v>
-      </c>
-      <c r="AD50">
-        <v>8</v>
-      </c>
       <c r="AE50">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AF50">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="AG50">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AH50">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AI50">
+        <v>1.85</v>
+      </c>
+      <c r="AJ50">
         <v>1.8</v>
       </c>
-      <c r="AJ50">
-        <v>2</v>
-      </c>
       <c r="AK50">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AL50">
         <v>1.3</v>
       </c>
       <c r="AM50">
+        <v>1.65</v>
+      </c>
+      <c r="AN50">
+        <v>1.5</v>
+      </c>
+      <c r="AO50">
+        <v>3</v>
+      </c>
+      <c r="AP50">
+        <v>2</v>
+      </c>
+      <c r="AQ50">
+        <v>2</v>
+      </c>
+      <c r="AR50">
+        <v>1.61</v>
+      </c>
+      <c r="AS50">
+        <v>1.49</v>
+      </c>
+      <c r="AT50">
+        <v>3.1</v>
+      </c>
+      <c r="AU50">
+        <v>9</v>
+      </c>
+      <c r="AV50">
+        <v>6</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>3</v>
+      </c>
+      <c r="AY50">
+        <v>11</v>
+      </c>
+      <c r="AZ50">
+        <v>10</v>
+      </c>
+      <c r="BA50">
+        <v>2</v>
+      </c>
+      <c r="BB50">
+        <v>2</v>
+      </c>
+      <c r="BC50">
+        <v>4</v>
+      </c>
+      <c r="BD50">
+        <v>1.68</v>
+      </c>
+      <c r="BE50">
+        <v>6.65</v>
+      </c>
+      <c r="BF50">
+        <v>2.88</v>
+      </c>
+      <c r="BG50">
+        <v>1.27</v>
+      </c>
+      <c r="BH50">
+        <v>3.04</v>
+      </c>
+      <c r="BI50">
+        <v>1.6</v>
+      </c>
+      <c r="BJ50">
+        <v>2.29</v>
+      </c>
+      <c r="BK50">
+        <v>2</v>
+      </c>
+      <c r="BL50">
+        <v>1.8</v>
+      </c>
+      <c r="BM50">
+        <v>2.57</v>
+      </c>
+      <c r="BN50">
+        <v>1.49</v>
+      </c>
+      <c r="BO50">
+        <v>3.35</v>
+      </c>
+      <c r="BP50">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7468916</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>126</v>
+      </c>
+      <c r="P51" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q51">
+        <v>4.33</v>
+      </c>
+      <c r="R51">
+        <v>2.25</v>
+      </c>
+      <c r="S51">
+        <v>2.5</v>
+      </c>
+      <c r="T51">
+        <v>1.36</v>
+      </c>
+      <c r="U51">
+        <v>3</v>
+      </c>
+      <c r="V51">
+        <v>2.63</v>
+      </c>
+      <c r="W51">
+        <v>1.44</v>
+      </c>
+      <c r="X51">
+        <v>7</v>
+      </c>
+      <c r="Y51">
+        <v>1.1</v>
+      </c>
+      <c r="Z51">
+        <v>3.6</v>
+      </c>
+      <c r="AA51">
+        <v>3.3</v>
+      </c>
+      <c r="AB51">
+        <v>1.93</v>
+      </c>
+      <c r="AC51">
+        <v>1.05</v>
+      </c>
+      <c r="AD51">
+        <v>9.5</v>
+      </c>
+      <c r="AE51">
+        <v>1.21</v>
+      </c>
+      <c r="AF51">
+        <v>3.5</v>
+      </c>
+      <c r="AG51">
         <v>1.75</v>
       </c>
-      <c r="AN50">
+      <c r="AH51">
+        <v>1.95</v>
+      </c>
+      <c r="AI51">
+        <v>1.73</v>
+      </c>
+      <c r="AJ51">
+        <v>2</v>
+      </c>
+      <c r="AK51">
+        <v>1.85</v>
+      </c>
+      <c r="AL51">
+        <v>1.22</v>
+      </c>
+      <c r="AM51">
+        <v>1.25</v>
+      </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="AO51">
         <v>1.33</v>
       </c>
-      <c r="AO50">
-        <v>0</v>
-      </c>
-      <c r="AP50">
+      <c r="AP51">
+        <v>3</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>1.48</v>
+      </c>
+      <c r="AS51">
+        <v>1.93</v>
+      </c>
+      <c r="AT51">
+        <v>3.41</v>
+      </c>
+      <c r="AU51">
+        <v>8</v>
+      </c>
+      <c r="AV51">
+        <v>3</v>
+      </c>
+      <c r="AW51">
+        <v>5</v>
+      </c>
+      <c r="AX51">
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <v>20</v>
+      </c>
+      <c r="AZ51">
+        <v>8</v>
+      </c>
+      <c r="BA51">
+        <v>7</v>
+      </c>
+      <c r="BB51">
+        <v>1</v>
+      </c>
+      <c r="BC51">
+        <v>8</v>
+      </c>
+      <c r="BD51">
+        <v>3.02</v>
+      </c>
+      <c r="BE51">
+        <v>6.7</v>
+      </c>
+      <c r="BF51">
+        <v>1.63</v>
+      </c>
+      <c r="BG51">
+        <v>1.29</v>
+      </c>
+      <c r="BH51">
+        <v>3.4</v>
+      </c>
+      <c r="BI51">
+        <v>1.52</v>
+      </c>
+      <c r="BJ51">
+        <v>2.43</v>
+      </c>
+      <c r="BK51">
+        <v>1.87</v>
+      </c>
+      <c r="BL51">
+        <v>1.87</v>
+      </c>
+      <c r="BM51">
+        <v>2.37</v>
+      </c>
+      <c r="BN51">
+        <v>1.54</v>
+      </c>
+      <c r="BO51">
+        <v>3.1</v>
+      </c>
+      <c r="BP51">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7468917</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>127</v>
+      </c>
+      <c r="P52" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>1.91</v>
+      </c>
+      <c r="S52">
+        <v>3.75</v>
+      </c>
+      <c r="T52">
+        <v>1.55</v>
+      </c>
+      <c r="U52">
+        <v>2.3</v>
+      </c>
+      <c r="V52">
+        <v>3.55</v>
+      </c>
+      <c r="W52">
+        <v>1.25</v>
+      </c>
+      <c r="X52">
+        <v>9.9</v>
+      </c>
+      <c r="Y52">
+        <v>1.03</v>
+      </c>
+      <c r="Z52">
+        <v>2.34</v>
+      </c>
+      <c r="AA52">
+        <v>2.9</v>
+      </c>
+      <c r="AB52">
+        <v>3</v>
+      </c>
+      <c r="AC52">
+        <v>1.1</v>
+      </c>
+      <c r="AD52">
+        <v>6.84</v>
+      </c>
+      <c r="AE52">
+        <v>1.49</v>
+      </c>
+      <c r="AF52">
+        <v>2.5</v>
+      </c>
+      <c r="AG52">
+        <v>2.55</v>
+      </c>
+      <c r="AH52">
+        <v>1.45</v>
+      </c>
+      <c r="AI52">
+        <v>2.05</v>
+      </c>
+      <c r="AJ52">
         <v>1.75</v>
       </c>
-      <c r="AQ50">
-        <v>0</v>
-      </c>
-      <c r="AR50">
+      <c r="AK52">
+        <v>1.3</v>
+      </c>
+      <c r="AL52">
+        <v>1.3</v>
+      </c>
+      <c r="AM52">
+        <v>1.57</v>
+      </c>
+      <c r="AN52">
+        <v>3</v>
+      </c>
+      <c r="AO52">
+        <v>1.5</v>
+      </c>
+      <c r="AP52">
+        <v>3</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>1.34</v>
+      </c>
+      <c r="AS52">
+        <v>1.37</v>
+      </c>
+      <c r="AT52">
+        <v>2.71</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AV52">
+        <v>2</v>
+      </c>
+      <c r="AW52">
+        <v>3</v>
+      </c>
+      <c r="AX52">
+        <v>5</v>
+      </c>
+      <c r="AY52">
+        <v>13</v>
+      </c>
+      <c r="AZ52">
+        <v>8</v>
+      </c>
+      <c r="BA52">
+        <v>6</v>
+      </c>
+      <c r="BB52">
+        <v>3</v>
+      </c>
+      <c r="BC52">
+        <v>9</v>
+      </c>
+      <c r="BD52">
+        <v>1.68</v>
+      </c>
+      <c r="BE52">
+        <v>6.5</v>
+      </c>
+      <c r="BF52">
+        <v>2.9</v>
+      </c>
+      <c r="BG52">
+        <v>1.36</v>
+      </c>
+      <c r="BH52">
+        <v>2.78</v>
+      </c>
+      <c r="BI52">
+        <v>1.74</v>
+      </c>
+      <c r="BJ52">
+        <v>2.08</v>
+      </c>
+      <c r="BK52">
+        <v>2.19</v>
+      </c>
+      <c r="BL52">
+        <v>1.66</v>
+      </c>
+      <c r="BM52">
+        <v>2.78</v>
+      </c>
+      <c r="BN52">
+        <v>1.32</v>
+      </c>
+      <c r="BO52">
+        <v>3.94</v>
+      </c>
+      <c r="BP52">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7468918</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53" t="s">
+        <v>128</v>
+      </c>
+      <c r="P53" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q53">
+        <v>3.25</v>
+      </c>
+      <c r="R53">
+        <v>1.91</v>
+      </c>
+      <c r="S53">
+        <v>3.45</v>
+      </c>
+      <c r="T53">
+        <v>1.5</v>
+      </c>
+      <c r="U53">
+        <v>2.4</v>
+      </c>
+      <c r="V53">
+        <v>3.3</v>
+      </c>
+      <c r="W53">
+        <v>1.28</v>
+      </c>
+      <c r="X53">
+        <v>9</v>
+      </c>
+      <c r="Y53">
+        <v>1.04</v>
+      </c>
+      <c r="Z53">
+        <v>2.6</v>
+      </c>
+      <c r="AA53">
+        <v>3</v>
+      </c>
+      <c r="AB53">
+        <v>2.6</v>
+      </c>
+      <c r="AC53">
+        <v>1.03</v>
+      </c>
+      <c r="AD53">
+        <v>6.7</v>
+      </c>
+      <c r="AE53">
+        <v>1.4</v>
+      </c>
+      <c r="AF53">
+        <v>2.84</v>
+      </c>
+      <c r="AG53">
+        <v>2.3</v>
+      </c>
+      <c r="AH53">
+        <v>1.55</v>
+      </c>
+      <c r="AI53">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53">
+        <v>1.77</v>
+      </c>
+      <c r="AK53">
+        <v>1.42</v>
+      </c>
+      <c r="AL53">
+        <v>1.3</v>
+      </c>
+      <c r="AM53">
+        <v>1.48</v>
+      </c>
+      <c r="AN53">
+        <v>2</v>
+      </c>
+      <c r="AO53">
+        <v>2</v>
+      </c>
+      <c r="AP53">
+        <v>2.25</v>
+      </c>
+      <c r="AQ53">
+        <v>1.33</v>
+      </c>
+      <c r="AR53">
+        <v>1.76</v>
+      </c>
+      <c r="AS53">
+        <v>0.98</v>
+      </c>
+      <c r="AT53">
+        <v>2.74</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
+        <v>4</v>
+      </c>
+      <c r="AX53">
+        <v>6</v>
+      </c>
+      <c r="AY53">
+        <v>14</v>
+      </c>
+      <c r="AZ53">
+        <v>12</v>
+      </c>
+      <c r="BA53">
+        <v>5</v>
+      </c>
+      <c r="BB53">
+        <v>2</v>
+      </c>
+      <c r="BC53">
+        <v>7</v>
+      </c>
+      <c r="BD53">
         <v>1.73</v>
       </c>
-      <c r="AS50">
+      <c r="BE53">
+        <v>6.55</v>
+      </c>
+      <c r="BF53">
+        <v>2.76</v>
+      </c>
+      <c r="BG53">
+        <v>1.28</v>
+      </c>
+      <c r="BH53">
+        <v>2.97</v>
+      </c>
+      <c r="BI53">
+        <v>1.64</v>
+      </c>
+      <c r="BJ53">
+        <v>2.24</v>
+      </c>
+      <c r="BK53">
+        <v>2.04</v>
+      </c>
+      <c r="BL53">
+        <v>1.76</v>
+      </c>
+      <c r="BM53">
+        <v>2.6</v>
+      </c>
+      <c r="BN53">
+        <v>1.41</v>
+      </c>
+      <c r="BO53">
+        <v>3.44</v>
+      </c>
+      <c r="BP53">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7468919</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" t="s">
+        <v>87</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>129</v>
+      </c>
+      <c r="P54" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q54">
+        <v>2.55</v>
+      </c>
+      <c r="R54">
+        <v>2.1</v>
+      </c>
+      <c r="S54">
+        <v>4</v>
+      </c>
+      <c r="T54">
+        <v>1.4</v>
+      </c>
+      <c r="U54">
+        <v>2.7</v>
+      </c>
+      <c r="V54">
+        <v>2.85</v>
+      </c>
+      <c r="W54">
+        <v>1.36</v>
+      </c>
+      <c r="X54">
+        <v>7.3</v>
+      </c>
+      <c r="Y54">
+        <v>1.07</v>
+      </c>
+      <c r="Z54">
+        <v>2.06</v>
+      </c>
+      <c r="AA54">
+        <v>3.2</v>
+      </c>
+      <c r="AB54">
+        <v>3.3</v>
+      </c>
+      <c r="AC54">
+        <v>1.06</v>
+      </c>
+      <c r="AD54">
+        <v>8.5</v>
+      </c>
+      <c r="AE54">
+        <v>1.33</v>
+      </c>
+      <c r="AF54">
+        <v>3.3</v>
+      </c>
+      <c r="AG54">
+        <v>1.9</v>
+      </c>
+      <c r="AH54">
+        <v>1.8</v>
+      </c>
+      <c r="AI54">
+        <v>1.75</v>
+      </c>
+      <c r="AJ54">
+        <v>1.93</v>
+      </c>
+      <c r="AK54">
+        <v>1.28</v>
+      </c>
+      <c r="AL54">
+        <v>1.25</v>
+      </c>
+      <c r="AM54">
+        <v>1.77</v>
+      </c>
+      <c r="AN54">
+        <v>0.33</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>0.5</v>
+      </c>
+      <c r="AQ54">
+        <v>1</v>
+      </c>
+      <c r="AR54">
+        <v>1.19</v>
+      </c>
+      <c r="AS54">
+        <v>1.25</v>
+      </c>
+      <c r="AT54">
+        <v>2.44</v>
+      </c>
+      <c r="AU54">
+        <v>5</v>
+      </c>
+      <c r="AV54">
+        <v>5</v>
+      </c>
+      <c r="AW54">
+        <v>3</v>
+      </c>
+      <c r="AX54">
+        <v>3</v>
+      </c>
+      <c r="AY54">
+        <v>12</v>
+      </c>
+      <c r="AZ54">
+        <v>8</v>
+      </c>
+      <c r="BA54">
+        <v>6</v>
+      </c>
+      <c r="BB54">
+        <v>4</v>
+      </c>
+      <c r="BC54">
+        <v>10</v>
+      </c>
+      <c r="BD54">
+        <v>1.55</v>
+      </c>
+      <c r="BE54">
+        <v>6.9</v>
+      </c>
+      <c r="BF54">
+        <v>3.3</v>
+      </c>
+      <c r="BG54">
+        <v>1.27</v>
+      </c>
+      <c r="BH54">
+        <v>3.55</v>
+      </c>
+      <c r="BI54">
+        <v>1.5</v>
+      </c>
+      <c r="BJ54">
+        <v>2.48</v>
+      </c>
+      <c r="BK54">
+        <v>1.87</v>
+      </c>
+      <c r="BL54">
+        <v>1.87</v>
+      </c>
+      <c r="BM54">
+        <v>2.45</v>
+      </c>
+      <c r="BN54">
+        <v>1.5</v>
+      </c>
+      <c r="BO54">
+        <v>3.4</v>
+      </c>
+      <c r="BP54">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7468920</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s">
+        <v>80</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>130</v>
+      </c>
+      <c r="P55" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q55">
+        <v>2.55</v>
+      </c>
+      <c r="R55">
+        <v>2.1</v>
+      </c>
+      <c r="S55">
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>1.4</v>
+      </c>
+      <c r="U55">
+        <v>2.7</v>
+      </c>
+      <c r="V55">
+        <v>2.88</v>
+      </c>
+      <c r="W55">
+        <v>1.36</v>
+      </c>
+      <c r="X55">
+        <v>7.4</v>
+      </c>
+      <c r="Y55">
+        <v>1.07</v>
+      </c>
+      <c r="Z55">
+        <v>2.1</v>
+      </c>
+      <c r="AA55">
+        <v>3.2</v>
+      </c>
+      <c r="AB55">
+        <v>3.2</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>8.1</v>
+      </c>
+      <c r="AE55">
+        <v>1.31</v>
+      </c>
+      <c r="AF55">
+        <v>3.32</v>
+      </c>
+      <c r="AG55">
+        <v>1.95</v>
+      </c>
+      <c r="AH55">
+        <v>1.75</v>
+      </c>
+      <c r="AI55">
+        <v>1.77</v>
+      </c>
+      <c r="AJ55">
+        <v>1.91</v>
+      </c>
+      <c r="AK55">
+        <v>1.25</v>
+      </c>
+      <c r="AL55">
+        <v>1.25</v>
+      </c>
+      <c r="AM55">
+        <v>1.77</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>1.33</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>1.75</v>
+      </c>
+      <c r="AR55">
+        <v>1.98</v>
+      </c>
+      <c r="AS55">
+        <v>1.24</v>
+      </c>
+      <c r="AT55">
+        <v>3.22</v>
+      </c>
+      <c r="AU55">
+        <v>7</v>
+      </c>
+      <c r="AV55">
+        <v>7</v>
+      </c>
+      <c r="AW55">
+        <v>7</v>
+      </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>18</v>
+      </c>
+      <c r="AZ55">
+        <v>11</v>
+      </c>
+      <c r="BA55">
+        <v>3</v>
+      </c>
+      <c r="BB55">
+        <v>9</v>
+      </c>
+      <c r="BC55">
+        <v>12</v>
+      </c>
+      <c r="BD55">
+        <v>1.52</v>
+      </c>
+      <c r="BE55">
+        <v>7.3</v>
+      </c>
+      <c r="BF55">
+        <v>3.35</v>
+      </c>
+      <c r="BG55">
+        <v>1.16</v>
+      </c>
+      <c r="BH55">
+        <v>3.92</v>
+      </c>
+      <c r="BI55">
+        <v>1.33</v>
+      </c>
+      <c r="BJ55">
+        <v>2.72</v>
+      </c>
+      <c r="BK55">
+        <v>1.69</v>
+      </c>
+      <c r="BL55">
+        <v>2.13</v>
+      </c>
+      <c r="BM55">
+        <v>2.11</v>
+      </c>
+      <c r="BN55">
+        <v>1.7</v>
+      </c>
+      <c r="BO55">
+        <v>2.71</v>
+      </c>
+      <c r="BP55">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7468927</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56" t="s">
+        <v>71</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>131</v>
+      </c>
+      <c r="P56" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q56">
+        <v>2.25</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>5.75</v>
+      </c>
+      <c r="T56">
+        <v>1.5</v>
+      </c>
+      <c r="U56">
+        <v>2.4</v>
+      </c>
+      <c r="V56">
+        <v>3.45</v>
+      </c>
+      <c r="W56">
+        <v>1.25</v>
+      </c>
+      <c r="X56">
+        <v>9.1</v>
+      </c>
+      <c r="Y56">
+        <v>1.04</v>
+      </c>
+      <c r="Z56">
+        <v>1.6</v>
+      </c>
+      <c r="AA56">
+        <v>3.75</v>
+      </c>
+      <c r="AB56">
+        <v>6.25</v>
+      </c>
+      <c r="AC56">
+        <v>1.08</v>
+      </c>
+      <c r="AD56">
+        <v>8.6</v>
+      </c>
+      <c r="AE56">
+        <v>1.46</v>
+      </c>
+      <c r="AF56">
+        <v>2.72</v>
+      </c>
+      <c r="AG56">
+        <v>2.07</v>
+      </c>
+      <c r="AH56">
+        <v>1.67</v>
+      </c>
+      <c r="AI56">
+        <v>2.35</v>
+      </c>
+      <c r="AJ56">
+        <v>1.52</v>
+      </c>
+      <c r="AK56">
+        <v>1.16</v>
+      </c>
+      <c r="AL56">
+        <v>1.25</v>
+      </c>
+      <c r="AM56">
+        <v>2.3</v>
+      </c>
+      <c r="AN56">
+        <v>3</v>
+      </c>
+      <c r="AO56">
+        <v>0.33</v>
+      </c>
+      <c r="AP56">
+        <v>3</v>
+      </c>
+      <c r="AQ56">
+        <v>0.25</v>
+      </c>
+      <c r="AR56">
+        <v>1.76</v>
+      </c>
+      <c r="AS56">
+        <v>1.08</v>
+      </c>
+      <c r="AT56">
+        <v>2.84</v>
+      </c>
+      <c r="AU56">
+        <v>11</v>
+      </c>
+      <c r="AV56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
+        <v>11</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>31</v>
+      </c>
+      <c r="AZ56">
+        <v>8</v>
+      </c>
+      <c r="BA56">
+        <v>8</v>
+      </c>
+      <c r="BB56">
+        <v>3</v>
+      </c>
+      <c r="BC56">
+        <v>11</v>
+      </c>
+      <c r="BD56">
+        <v>1.41</v>
+      </c>
+      <c r="BE56">
+        <v>8.5</v>
+      </c>
+      <c r="BF56">
+        <v>3.68</v>
+      </c>
+      <c r="BG56">
+        <v>1.55</v>
+      </c>
+      <c r="BH56">
+        <v>2.28</v>
+      </c>
+      <c r="BI56">
+        <v>2</v>
+      </c>
+      <c r="BJ56">
+        <v>1.8</v>
+      </c>
+      <c r="BK56">
+        <v>2.5</v>
+      </c>
+      <c r="BL56">
+        <v>1.47</v>
+      </c>
+      <c r="BM56">
+        <v>3.4</v>
+      </c>
+      <c r="BN56">
+        <v>1.27</v>
+      </c>
+      <c r="BO56">
+        <v>4.8</v>
+      </c>
+      <c r="BP56">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7468926</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>132</v>
+      </c>
+      <c r="P57" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q57">
+        <v>2.88</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>3.6</v>
+      </c>
+      <c r="T57">
+        <v>1.45</v>
+      </c>
+      <c r="U57">
+        <v>2.55</v>
+      </c>
+      <c r="V57">
+        <v>2.95</v>
+      </c>
+      <c r="W57">
+        <v>1.35</v>
+      </c>
+      <c r="X57">
+        <v>9</v>
+      </c>
+      <c r="Y57">
+        <v>1.07</v>
+      </c>
+      <c r="Z57">
+        <v>2.43</v>
+      </c>
+      <c r="AA57">
+        <v>3.34</v>
+      </c>
+      <c r="AB57">
+        <v>2.93</v>
+      </c>
+      <c r="AC57">
+        <v>1.05</v>
+      </c>
+      <c r="AD57">
+        <v>8</v>
+      </c>
+      <c r="AE57">
+        <v>1.29</v>
+      </c>
+      <c r="AF57">
+        <v>3.3</v>
+      </c>
+      <c r="AG57">
+        <v>2.02</v>
+      </c>
+      <c r="AH57">
         <v>1.71</v>
       </c>
-      <c r="AT50">
+      <c r="AI57">
+        <v>1.8</v>
+      </c>
+      <c r="AJ57">
+        <v>2</v>
+      </c>
+      <c r="AK57">
+        <v>1.36</v>
+      </c>
+      <c r="AL57">
+        <v>1.3</v>
+      </c>
+      <c r="AM57">
+        <v>1.57</v>
+      </c>
+      <c r="AN57">
+        <v>0.5</v>
+      </c>
+      <c r="AO57">
+        <v>0.67</v>
+      </c>
+      <c r="AP57">
+        <v>1.33</v>
+      </c>
+      <c r="AQ57">
+        <v>0.5</v>
+      </c>
+      <c r="AR57">
+        <v>1.54</v>
+      </c>
+      <c r="AS57">
+        <v>1.49</v>
+      </c>
+      <c r="AT57">
+        <v>3.03</v>
+      </c>
+      <c r="AU57">
+        <v>6</v>
+      </c>
+      <c r="AV57">
+        <v>3</v>
+      </c>
+      <c r="AW57">
+        <v>1</v>
+      </c>
+      <c r="AX57">
+        <v>3</v>
+      </c>
+      <c r="AY57">
+        <v>8</v>
+      </c>
+      <c r="AZ57">
+        <v>10</v>
+      </c>
+      <c r="BA57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>4</v>
+      </c>
+      <c r="BC57">
+        <v>7</v>
+      </c>
+      <c r="BD57">
+        <v>1.75</v>
+      </c>
+      <c r="BE57">
+        <v>8</v>
+      </c>
+      <c r="BF57">
+        <v>2.44</v>
+      </c>
+      <c r="BG57">
+        <v>1.21</v>
+      </c>
+      <c r="BH57">
         <v>3.44</v>
       </c>
-      <c r="AU50">
+      <c r="BI57">
+        <v>1.44</v>
+      </c>
+      <c r="BJ57">
+        <v>2.5</v>
+      </c>
+      <c r="BK57">
+        <v>2</v>
+      </c>
+      <c r="BL57">
+        <v>1.74</v>
+      </c>
+      <c r="BM57">
+        <v>2.28</v>
+      </c>
+      <c r="BN57">
+        <v>1.53</v>
+      </c>
+      <c r="BO57">
+        <v>2.97</v>
+      </c>
+      <c r="BP57">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7468924</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>133</v>
+      </c>
+      <c r="P58" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q58">
+        <v>2.88</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>3.6</v>
+      </c>
+      <c r="T58">
+        <v>1.42</v>
+      </c>
+      <c r="U58">
+        <v>2.62</v>
+      </c>
+      <c r="V58">
+        <v>2.9</v>
+      </c>
+      <c r="W58">
+        <v>1.36</v>
+      </c>
+      <c r="X58">
+        <v>9</v>
+      </c>
+      <c r="Y58">
+        <v>1.07</v>
+      </c>
+      <c r="Z58">
+        <v>2.44</v>
+      </c>
+      <c r="AA58">
+        <v>3.36</v>
+      </c>
+      <c r="AB58">
+        <v>2.9</v>
+      </c>
+      <c r="AC58">
+        <v>1.05</v>
+      </c>
+      <c r="AD58">
         <v>8</v>
       </c>
-      <c r="AV50">
-        <v>3</v>
-      </c>
-      <c r="AW50">
+      <c r="AE58">
+        <v>1.29</v>
+      </c>
+      <c r="AF58">
+        <v>3.3</v>
+      </c>
+      <c r="AG58">
+        <v>2.19</v>
+      </c>
+      <c r="AH58">
+        <v>1.6</v>
+      </c>
+      <c r="AI58">
+        <v>1.8</v>
+      </c>
+      <c r="AJ58">
+        <v>2</v>
+      </c>
+      <c r="AK58">
+        <v>1.36</v>
+      </c>
+      <c r="AL58">
+        <v>1.3</v>
+      </c>
+      <c r="AM58">
+        <v>1.57</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>1.5</v>
+      </c>
+      <c r="AP58">
+        <v>0.25</v>
+      </c>
+      <c r="AQ58">
+        <v>1.33</v>
+      </c>
+      <c r="AR58">
+        <v>1</v>
+      </c>
+      <c r="AS58">
+        <v>0.97</v>
+      </c>
+      <c r="AT58">
+        <v>1.97</v>
+      </c>
+      <c r="AU58">
+        <v>3</v>
+      </c>
+      <c r="AV58">
+        <v>8</v>
+      </c>
+      <c r="AW58">
+        <v>4</v>
+      </c>
+      <c r="AX58">
+        <v>7</v>
+      </c>
+      <c r="AY58">
+        <v>8</v>
+      </c>
+      <c r="AZ58">
+        <v>22</v>
+      </c>
+      <c r="BA58">
+        <v>7</v>
+      </c>
+      <c r="BB58">
+        <v>9</v>
+      </c>
+      <c r="BC58">
+        <v>16</v>
+      </c>
+      <c r="BD58">
+        <v>1.82</v>
+      </c>
+      <c r="BE58">
+        <v>8</v>
+      </c>
+      <c r="BF58">
+        <v>2.33</v>
+      </c>
+      <c r="BG58">
+        <v>1.28</v>
+      </c>
+      <c r="BH58">
+        <v>3.3</v>
+      </c>
+      <c r="BI58">
+        <v>1.5</v>
+      </c>
+      <c r="BJ58">
+        <v>2.4</v>
+      </c>
+      <c r="BK58">
+        <v>1.92</v>
+      </c>
+      <c r="BL58">
+        <v>1.88</v>
+      </c>
+      <c r="BM58">
+        <v>2.32</v>
+      </c>
+      <c r="BN58">
+        <v>1.54</v>
+      </c>
+      <c r="BO58">
+        <v>3</v>
+      </c>
+      <c r="BP58">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7468923</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" t="s">
+        <v>84</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59" t="s">
+        <v>134</v>
+      </c>
+      <c r="P59" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q59">
+        <v>2.62</v>
+      </c>
+      <c r="R59">
+        <v>2.05</v>
+      </c>
+      <c r="S59">
+        <v>4</v>
+      </c>
+      <c r="T59">
+        <v>1.42</v>
+      </c>
+      <c r="U59">
+        <v>2.62</v>
+      </c>
+      <c r="V59">
+        <v>2.9</v>
+      </c>
+      <c r="W59">
+        <v>1.36</v>
+      </c>
+      <c r="X59">
+        <v>9</v>
+      </c>
+      <c r="Y59">
+        <v>1.07</v>
+      </c>
+      <c r="Z59">
+        <v>2.03</v>
+      </c>
+      <c r="AA59">
+        <v>3.48</v>
+      </c>
+      <c r="AB59">
+        <v>3.68</v>
+      </c>
+      <c r="AC59">
+        <v>1.07</v>
+      </c>
+      <c r="AD59">
+        <v>8</v>
+      </c>
+      <c r="AE59">
+        <v>1.36</v>
+      </c>
+      <c r="AF59">
+        <v>3.1</v>
+      </c>
+      <c r="AG59">
+        <v>2.06</v>
+      </c>
+      <c r="AH59">
+        <v>1.68</v>
+      </c>
+      <c r="AI59">
+        <v>1.8</v>
+      </c>
+      <c r="AJ59">
+        <v>1.85</v>
+      </c>
+      <c r="AK59">
+        <v>1.25</v>
+      </c>
+      <c r="AL59">
+        <v>1.28</v>
+      </c>
+      <c r="AM59">
+        <v>1.75</v>
+      </c>
+      <c r="AN59">
+        <v>2.33</v>
+      </c>
+      <c r="AO59">
+        <v>1.67</v>
+      </c>
+      <c r="AP59">
+        <v>2</v>
+      </c>
+      <c r="AQ59">
+        <v>1.5</v>
+      </c>
+      <c r="AR59">
+        <v>1.53</v>
+      </c>
+      <c r="AS59">
+        <v>1.33</v>
+      </c>
+      <c r="AT59">
+        <v>2.86</v>
+      </c>
+      <c r="AU59">
+        <v>10</v>
+      </c>
+      <c r="AV59">
+        <v>3</v>
+      </c>
+      <c r="AW59">
+        <v>7</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>19</v>
+      </c>
+      <c r="AZ59">
+        <v>10</v>
+      </c>
+      <c r="BA59">
+        <v>3</v>
+      </c>
+      <c r="BB59">
+        <v>3</v>
+      </c>
+      <c r="BC59">
+        <v>6</v>
+      </c>
+      <c r="BD59">
+        <v>1.82</v>
+      </c>
+      <c r="BE59">
+        <v>7.5</v>
+      </c>
+      <c r="BF59">
+        <v>2.34</v>
+      </c>
+      <c r="BG59">
+        <v>1.28</v>
+      </c>
+      <c r="BH59">
+        <v>2.97</v>
+      </c>
+      <c r="BI59">
+        <v>1.7</v>
+      </c>
+      <c r="BJ59">
+        <v>2.05</v>
+      </c>
+      <c r="BK59">
+        <v>2.02</v>
+      </c>
+      <c r="BL59">
+        <v>1.74</v>
+      </c>
+      <c r="BM59">
+        <v>2.6</v>
+      </c>
+      <c r="BN59">
+        <v>1.41</v>
+      </c>
+      <c r="BO59">
+        <v>3.52</v>
+      </c>
+      <c r="BP59">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7468922</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>135</v>
+      </c>
+      <c r="P60" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q60">
+        <v>2.88</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>3.75</v>
+      </c>
+      <c r="T60">
+        <v>1.48</v>
+      </c>
+      <c r="U60">
+        <v>2.5</v>
+      </c>
+      <c r="V60">
+        <v>3.2</v>
+      </c>
+      <c r="W60">
+        <v>1.3</v>
+      </c>
+      <c r="X60">
+        <v>10</v>
+      </c>
+      <c r="Y60">
+        <v>1.06</v>
+      </c>
+      <c r="Z60">
+        <v>2.32</v>
+      </c>
+      <c r="AA60">
+        <v>3.3</v>
+      </c>
+      <c r="AB60">
+        <v>3.14</v>
+      </c>
+      <c r="AC60">
+        <v>1.05</v>
+      </c>
+      <c r="AD60">
+        <v>8</v>
+      </c>
+      <c r="AE60">
+        <v>1.36</v>
+      </c>
+      <c r="AF60">
+        <v>2.87</v>
+      </c>
+      <c r="AG60">
+        <v>1.99</v>
+      </c>
+      <c r="AH60">
+        <v>1.73</v>
+      </c>
+      <c r="AI60">
+        <v>1.87</v>
+      </c>
+      <c r="AJ60">
+        <v>1.9</v>
+      </c>
+      <c r="AK60">
+        <v>1.36</v>
+      </c>
+      <c r="AL60">
+        <v>1.28</v>
+      </c>
+      <c r="AM60">
+        <v>1.57</v>
+      </c>
+      <c r="AN60">
+        <v>3</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>3</v>
+      </c>
+      <c r="AQ60">
+        <v>0.75</v>
+      </c>
+      <c r="AR60">
+        <v>1.51</v>
+      </c>
+      <c r="AS60">
+        <v>1.04</v>
+      </c>
+      <c r="AT60">
+        <v>2.55</v>
+      </c>
+      <c r="AU60">
+        <v>11</v>
+      </c>
+      <c r="AV60">
+        <v>4</v>
+      </c>
+      <c r="AW60">
+        <v>3</v>
+      </c>
+      <c r="AX60">
+        <v>6</v>
+      </c>
+      <c r="AY60">
+        <v>20</v>
+      </c>
+      <c r="AZ60">
+        <v>13</v>
+      </c>
+      <c r="BA60">
         <v>5</v>
       </c>
-      <c r="AX50">
-        <v>2</v>
-      </c>
-      <c r="AY50">
+      <c r="BB60">
+        <v>4</v>
+      </c>
+      <c r="BC60">
+        <v>9</v>
+      </c>
+      <c r="BD60">
+        <v>1.95</v>
+      </c>
+      <c r="BE60">
+        <v>8</v>
+      </c>
+      <c r="BF60">
+        <v>2.1</v>
+      </c>
+      <c r="BG60">
+        <v>1.15</v>
+      </c>
+      <c r="BH60">
+        <v>3.98</v>
+      </c>
+      <c r="BI60">
+        <v>1.33</v>
+      </c>
+      <c r="BJ60">
+        <v>2.73</v>
+      </c>
+      <c r="BK60">
+        <v>1.7</v>
+      </c>
+      <c r="BL60">
+        <v>2.05</v>
+      </c>
+      <c r="BM60">
+        <v>2.08</v>
+      </c>
+      <c r="BN60">
+        <v>1.7</v>
+      </c>
+      <c r="BO60">
+        <v>2.67</v>
+      </c>
+      <c r="BP60">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7468921</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45562.625</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>136</v>
+      </c>
+      <c r="P61" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q61">
+        <v>2.95</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>3.6</v>
+      </c>
+      <c r="T61">
+        <v>1.45</v>
+      </c>
+      <c r="U61">
+        <v>2.55</v>
+      </c>
+      <c r="V61">
+        <v>3</v>
+      </c>
+      <c r="W61">
+        <v>1.33</v>
+      </c>
+      <c r="X61">
+        <v>9</v>
+      </c>
+      <c r="Y61">
+        <v>1.07</v>
+      </c>
+      <c r="Z61">
+        <v>2.31</v>
+      </c>
+      <c r="AA61">
+        <v>3.34</v>
+      </c>
+      <c r="AB61">
+        <v>3.13</v>
+      </c>
+      <c r="AC61">
+        <v>1.07</v>
+      </c>
+      <c r="AD61">
+        <v>8</v>
+      </c>
+      <c r="AE61">
+        <v>1.38</v>
+      </c>
+      <c r="AF61">
+        <v>3</v>
+      </c>
+      <c r="AG61">
+        <v>2.06</v>
+      </c>
+      <c r="AH61">
+        <v>1.68</v>
+      </c>
+      <c r="AI61">
+        <v>1.8</v>
+      </c>
+      <c r="AJ61">
+        <v>1.85</v>
+      </c>
+      <c r="AK61">
+        <v>1.36</v>
+      </c>
+      <c r="AL61">
+        <v>1.28</v>
+      </c>
+      <c r="AM61">
+        <v>1.57</v>
+      </c>
+      <c r="AN61">
+        <v>2.33</v>
+      </c>
+      <c r="AO61">
+        <v>1.5</v>
+      </c>
+      <c r="AP61">
+        <v>2.5</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>1.29</v>
+      </c>
+      <c r="AS61">
+        <v>1.43</v>
+      </c>
+      <c r="AT61">
+        <v>2.72</v>
+      </c>
+      <c r="AU61">
+        <v>6</v>
+      </c>
+      <c r="AV61">
+        <v>4</v>
+      </c>
+      <c r="AW61">
+        <v>3</v>
+      </c>
+      <c r="AX61">
+        <v>4</v>
+      </c>
+      <c r="AY61">
+        <v>11</v>
+      </c>
+      <c r="AZ61">
+        <v>8</v>
+      </c>
+      <c r="BA61">
+        <v>5</v>
+      </c>
+      <c r="BB61">
+        <v>8</v>
+      </c>
+      <c r="BC61">
         <v>13</v>
       </c>
-      <c r="AZ50">
+      <c r="BD61">
+        <v>1.69</v>
+      </c>
+      <c r="BE61">
+        <v>8</v>
+      </c>
+      <c r="BF61">
+        <v>2.54</v>
+      </c>
+      <c r="BG61">
+        <v>1.29</v>
+      </c>
+      <c r="BH61">
+        <v>3.3</v>
+      </c>
+      <c r="BI61">
+        <v>1.51</v>
+      </c>
+      <c r="BJ61">
+        <v>2.4</v>
+      </c>
+      <c r="BK61">
+        <v>1.88</v>
+      </c>
+      <c r="BL61">
+        <v>1.92</v>
+      </c>
+      <c r="BM61">
+        <v>2.33</v>
+      </c>
+      <c r="BN61">
+        <v>1.53</v>
+      </c>
+      <c r="BO61">
+        <v>3</v>
+      </c>
+      <c r="BP61">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7468925</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45563.375</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>137</v>
+      </c>
+      <c r="P62" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q62">
+        <v>3.6</v>
+      </c>
+      <c r="R62">
+        <v>2.15</v>
+      </c>
+      <c r="S62">
+        <v>2.8</v>
+      </c>
+      <c r="T62">
+        <v>1.38</v>
+      </c>
+      <c r="U62">
+        <v>2.8</v>
+      </c>
+      <c r="V62">
+        <v>2.8</v>
+      </c>
+      <c r="W62">
+        <v>1.38</v>
+      </c>
+      <c r="X62">
+        <v>6.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.08</v>
+      </c>
+      <c r="Z62">
+        <v>3.05</v>
+      </c>
+      <c r="AA62">
+        <v>3.44</v>
+      </c>
+      <c r="AB62">
+        <v>2.29</v>
+      </c>
+      <c r="AC62">
+        <v>1.03</v>
+      </c>
+      <c r="AD62">
+        <v>9</v>
+      </c>
+      <c r="AE62">
+        <v>1.29</v>
+      </c>
+      <c r="AF62">
+        <v>3.3</v>
+      </c>
+      <c r="AG62">
+        <v>1.96</v>
+      </c>
+      <c r="AH62">
+        <v>1.86</v>
+      </c>
+      <c r="AI62">
+        <v>1.73</v>
+      </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
+      <c r="AK62">
+        <v>1.62</v>
+      </c>
+      <c r="AL62">
+        <v>1.33</v>
+      </c>
+      <c r="AM62">
+        <v>1.38</v>
+      </c>
+      <c r="AN62">
+        <v>1.5</v>
+      </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
+      <c r="AP62">
+        <v>1</v>
+      </c>
+      <c r="AQ62">
+        <v>2.25</v>
+      </c>
+      <c r="AR62">
+        <v>1.16</v>
+      </c>
+      <c r="AS62">
+        <v>1.35</v>
+      </c>
+      <c r="AT62">
+        <v>2.51</v>
+      </c>
+      <c r="AU62">
         <v>5</v>
       </c>
-      <c r="BA50">
+      <c r="AV62">
+        <v>6</v>
+      </c>
+      <c r="AW62">
         <v>7</v>
       </c>
-      <c r="BB50">
+      <c r="AX62">
+        <v>3</v>
+      </c>
+      <c r="AY62">
+        <v>13</v>
+      </c>
+      <c r="AZ62">
+        <v>11</v>
+      </c>
+      <c r="BA62">
         <v>6</v>
       </c>
-      <c r="BC50">
+      <c r="BB62">
+        <v>7</v>
+      </c>
+      <c r="BC62">
         <v>13</v>
       </c>
-      <c r="BD50">
+      <c r="BD62">
+        <v>2.29</v>
+      </c>
+      <c r="BE62">
+        <v>7.5</v>
+      </c>
+      <c r="BF62">
+        <v>1.85</v>
+      </c>
+      <c r="BG62">
+        <v>1.35</v>
+      </c>
+      <c r="BH62">
+        <v>3.05</v>
+      </c>
+      <c r="BI62">
+        <v>1.7</v>
+      </c>
+      <c r="BJ62">
+        <v>2.05</v>
+      </c>
+      <c r="BK62">
+        <v>2.1</v>
+      </c>
+      <c r="BL62">
+        <v>1.68</v>
+      </c>
+      <c r="BM62">
+        <v>2.85</v>
+      </c>
+      <c r="BN62">
+        <v>1.38</v>
+      </c>
+      <c r="BO62">
+        <v>4</v>
+      </c>
+      <c r="BP62">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7468928</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45563.625</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s">
+        <v>78</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>138</v>
+      </c>
+      <c r="P63" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q63">
+        <v>3.75</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>2.75</v>
+      </c>
+      <c r="T63">
+        <v>1.42</v>
+      </c>
+      <c r="U63">
+        <v>2.62</v>
+      </c>
+      <c r="V63">
+        <v>3</v>
+      </c>
+      <c r="W63">
+        <v>1.33</v>
+      </c>
+      <c r="X63">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y63">
+        <v>1.06</v>
+      </c>
+      <c r="Z63">
+        <v>3.5</v>
+      </c>
+      <c r="AA63">
+        <v>3.4</v>
+      </c>
+      <c r="AB63">
+        <v>1.95</v>
+      </c>
+      <c r="AC63">
+        <v>1.05</v>
+      </c>
+      <c r="AD63">
+        <v>8</v>
+      </c>
+      <c r="AE63">
+        <v>1.29</v>
+      </c>
+      <c r="AF63">
+        <v>3.3</v>
+      </c>
+      <c r="AG63">
+        <v>2.07</v>
+      </c>
+      <c r="AH63">
+        <v>1.72</v>
+      </c>
+      <c r="AI63">
+        <v>1.87</v>
+      </c>
+      <c r="AJ63">
+        <v>1.9</v>
+      </c>
+      <c r="AK63">
+        <v>1.67</v>
+      </c>
+      <c r="AL63">
+        <v>1.25</v>
+      </c>
+      <c r="AM63">
+        <v>1.3</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>3</v>
+      </c>
+      <c r="AP63">
+        <v>1</v>
+      </c>
+      <c r="AQ63">
+        <v>2</v>
+      </c>
+      <c r="AR63">
+        <v>1.33</v>
+      </c>
+      <c r="AS63">
+        <v>1.3</v>
+      </c>
+      <c r="AT63">
+        <v>2.63</v>
+      </c>
+      <c r="AU63">
+        <v>6</v>
+      </c>
+      <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>1</v>
+      </c>
+      <c r="AX63">
+        <v>7</v>
+      </c>
+      <c r="AY63">
+        <v>7</v>
+      </c>
+      <c r="AZ63">
+        <v>13</v>
+      </c>
+      <c r="BA63">
+        <v>1</v>
+      </c>
+      <c r="BB63">
+        <v>2</v>
+      </c>
+      <c r="BC63">
+        <v>3</v>
+      </c>
+      <c r="BD63">
+        <v>2.1</v>
+      </c>
+      <c r="BE63">
+        <v>8</v>
+      </c>
+      <c r="BF63">
+        <v>1.91</v>
+      </c>
+      <c r="BG63">
+        <v>1.3</v>
+      </c>
+      <c r="BH63">
+        <v>3.35</v>
+      </c>
+      <c r="BI63">
+        <v>1.55</v>
+      </c>
+      <c r="BJ63">
+        <v>2.38</v>
+      </c>
+      <c r="BK63">
+        <v>1.95</v>
+      </c>
+      <c r="BL63">
+        <v>1.85</v>
+      </c>
+      <c r="BM63">
+        <v>2.6</v>
+      </c>
+      <c r="BN63">
+        <v>1.46</v>
+      </c>
+      <c r="BO63">
+        <v>3.6</v>
+      </c>
+      <c r="BP63">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7468929</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45565.65625</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>75</v>
+      </c>
+      <c r="H64" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64" t="s">
+        <v>139</v>
+      </c>
+      <c r="P64" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q64">
+        <v>2.7</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>1.4</v>
+      </c>
+      <c r="U64">
+        <v>2.75</v>
+      </c>
+      <c r="V64">
+        <v>2.75</v>
+      </c>
+      <c r="W64">
+        <v>1.4</v>
+      </c>
+      <c r="X64">
+        <v>7</v>
+      </c>
+      <c r="Y64">
+        <v>1.08</v>
+      </c>
+      <c r="Z64">
+        <v>2.05</v>
+      </c>
+      <c r="AA64">
+        <v>3.3</v>
+      </c>
+      <c r="AB64">
+        <v>3.5</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>8</v>
+      </c>
+      <c r="AE64">
+        <v>1.29</v>
+      </c>
+      <c r="AF64">
+        <v>3.3</v>
+      </c>
+      <c r="AG64">
+        <v>1.95</v>
+      </c>
+      <c r="AH64">
+        <v>1.75</v>
+      </c>
+      <c r="AI64">
+        <v>1.8</v>
+      </c>
+      <c r="AJ64">
+        <v>2</v>
+      </c>
+      <c r="AK64">
+        <v>1.25</v>
+      </c>
+      <c r="AL64">
+        <v>1.3</v>
+      </c>
+      <c r="AM64">
+        <v>1.75</v>
+      </c>
+      <c r="AN64">
+        <v>1.33</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>1.75</v>
+      </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <v>1.73</v>
+      </c>
+      <c r="AS64">
+        <v>1.71</v>
+      </c>
+      <c r="AT64">
+        <v>3.44</v>
+      </c>
+      <c r="AU64">
+        <v>11</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>5</v>
+      </c>
+      <c r="AX64">
+        <v>3</v>
+      </c>
+      <c r="AY64">
+        <v>17</v>
+      </c>
+      <c r="AZ64">
+        <v>10</v>
+      </c>
+      <c r="BA64">
+        <v>7</v>
+      </c>
+      <c r="BB64">
+        <v>6</v>
+      </c>
+      <c r="BC64">
+        <v>13</v>
+      </c>
+      <c r="BD64">
         <v>1.82</v>
       </c>
-      <c r="BE50">
+      <c r="BE64">
         <v>8</v>
       </c>
-      <c r="BF50">
+      <c r="BF64">
         <v>2.33</v>
       </c>
-      <c r="BG50">
+      <c r="BG64">
         <v>1.33</v>
       </c>
-      <c r="BH50">
+      <c r="BH64">
         <v>3.15</v>
       </c>
-      <c r="BI50">
+      <c r="BI64">
         <v>1.61</v>
       </c>
-      <c r="BJ50">
+      <c r="BJ64">
         <v>2.23</v>
       </c>
-      <c r="BK50">
+      <c r="BK64">
         <v>1.95</v>
       </c>
-      <c r="BL50">
+      <c r="BL64">
         <v>1.78</v>
       </c>
-      <c r="BM50">
+      <c r="BM64">
         <v>2.75</v>
       </c>
-      <c r="BN50">
+      <c r="BN64">
         <v>1.41</v>
       </c>
-      <c r="BO50">
+      <c r="BO64">
         <v>3.85</v>
       </c>
-      <c r="BP50">
+      <c r="BP64">
         <v>1.24</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,18 @@
     <t>['6', '67', '78']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['53', '64']</t>
+  </si>
+  <si>
+    <t>['54', '81']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -484,9 +496,6 @@
     <t>['47']</t>
   </si>
   <si>
-    <t>['84']</t>
-  </si>
-  <si>
     <t>['38', '71']</t>
   </si>
   <si>
@@ -545,6 +554,9 @@
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1177,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1577,7 +1589,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1655,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1864,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1989,7 +2001,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2070,7 +2082,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ6">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2276,7 +2288,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2401,7 +2413,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2813,7 +2825,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3225,7 +3237,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3431,7 +3443,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3509,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -4049,7 +4061,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4127,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4255,7 +4267,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4333,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4542,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4873,7 +4885,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -4954,7 +4966,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -5079,7 +5091,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5285,7 +5297,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5366,7 +5378,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR22">
         <v>1.64</v>
@@ -5569,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ23">
         <v>0.75</v>
@@ -5697,7 +5709,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5903,7 +5915,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6109,7 +6121,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6521,7 +6533,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6602,7 +6614,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
         <v>1.92</v>
@@ -6933,7 +6945,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7014,7 +7026,7 @@
         <v>3</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7139,7 +7151,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7629,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -7838,7 +7850,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -7963,7 +7975,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8041,7 +8053,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8169,7 +8181,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8247,7 +8259,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8375,7 +8387,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8581,7 +8593,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8787,7 +8799,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -8868,7 +8880,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR39">
         <v>0.8</v>
@@ -9199,7 +9211,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9405,7 +9417,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9483,7 +9495,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ42">
         <v>0.5</v>
@@ -9611,7 +9623,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9692,7 +9704,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
         <v>0.8</v>
@@ -10229,7 +10241,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10435,7 +10447,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -10719,10 +10731,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ48">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR48">
         <v>1.82</v>
@@ -11131,7 +11143,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ50">
         <v>2</v>
@@ -11546,7 +11558,7 @@
         <v>3</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>1.34</v>
@@ -11671,7 +11683,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11749,7 +11761,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ53">
         <v>1.33</v>
@@ -11877,7 +11889,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -11958,7 +11970,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR54">
         <v>1.19</v>
@@ -12083,7 +12095,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12161,10 +12173,10 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ55">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>1.98</v>
@@ -12495,7 +12507,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12701,7 +12713,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12907,7 +12919,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13113,7 +13125,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13525,7 +13537,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13731,7 +13743,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13937,7 +13949,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14094,6 +14106,830 @@
       </c>
       <c r="BP64">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7468938</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>85</v>
+      </c>
+      <c r="H65" t="s">
+        <v>80</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>140</v>
+      </c>
+      <c r="P65" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q65">
+        <v>2.25</v>
+      </c>
+      <c r="R65">
+        <v>2.1</v>
+      </c>
+      <c r="S65">
+        <v>5</v>
+      </c>
+      <c r="T65">
+        <v>1.43</v>
+      </c>
+      <c r="U65">
+        <v>2.79</v>
+      </c>
+      <c r="V65">
+        <v>3.19</v>
+      </c>
+      <c r="W65">
+        <v>1.35</v>
+      </c>
+      <c r="X65">
+        <v>8.1</v>
+      </c>
+      <c r="Y65">
+        <v>1.06</v>
+      </c>
+      <c r="Z65">
+        <v>1.73</v>
+      </c>
+      <c r="AA65">
+        <v>3.5</v>
+      </c>
+      <c r="AB65">
+        <v>4.3</v>
+      </c>
+      <c r="AC65">
+        <v>1.05</v>
+      </c>
+      <c r="AD65">
+        <v>8</v>
+      </c>
+      <c r="AE65">
+        <v>1.3</v>
+      </c>
+      <c r="AF65">
+        <v>3.2</v>
+      </c>
+      <c r="AG65">
+        <v>2.12</v>
+      </c>
+      <c r="AH65">
+        <v>1.64</v>
+      </c>
+      <c r="AI65">
+        <v>2</v>
+      </c>
+      <c r="AJ65">
+        <v>1.8</v>
+      </c>
+      <c r="AK65">
+        <v>1.17</v>
+      </c>
+      <c r="AL65">
+        <v>1.28</v>
+      </c>
+      <c r="AM65">
+        <v>2.11</v>
+      </c>
+      <c r="AN65">
+        <v>2</v>
+      </c>
+      <c r="AO65">
+        <v>1.75</v>
+      </c>
+      <c r="AP65">
+        <v>2.25</v>
+      </c>
+      <c r="AQ65">
+        <v>1.4</v>
+      </c>
+      <c r="AR65">
+        <v>1.6</v>
+      </c>
+      <c r="AS65">
+        <v>1.29</v>
+      </c>
+      <c r="AT65">
+        <v>2.89</v>
+      </c>
+      <c r="AU65">
+        <v>8</v>
+      </c>
+      <c r="AV65">
+        <v>2</v>
+      </c>
+      <c r="AW65">
+        <v>7</v>
+      </c>
+      <c r="AX65">
+        <v>2</v>
+      </c>
+      <c r="AY65">
+        <v>21</v>
+      </c>
+      <c r="AZ65">
+        <v>7</v>
+      </c>
+      <c r="BA65">
+        <v>11</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>15</v>
+      </c>
+      <c r="BD65">
+        <v>1.55</v>
+      </c>
+      <c r="BE65">
+        <v>8</v>
+      </c>
+      <c r="BF65">
+        <v>2.92</v>
+      </c>
+      <c r="BG65">
+        <v>1.27</v>
+      </c>
+      <c r="BH65">
+        <v>3.55</v>
+      </c>
+      <c r="BI65">
+        <v>1.5</v>
+      </c>
+      <c r="BJ65">
+        <v>2.48</v>
+      </c>
+      <c r="BK65">
+        <v>1.95</v>
+      </c>
+      <c r="BL65">
+        <v>1.85</v>
+      </c>
+      <c r="BM65">
+        <v>2.45</v>
+      </c>
+      <c r="BN65">
+        <v>1.5</v>
+      </c>
+      <c r="BO65">
+        <v>3.4</v>
+      </c>
+      <c r="BP65">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7468937</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" t="s">
+        <v>87</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
+        <v>141</v>
+      </c>
+      <c r="P66" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q66">
+        <v>2.69</v>
+      </c>
+      <c r="R66">
+        <v>2.24</v>
+      </c>
+      <c r="S66">
+        <v>4.12</v>
+      </c>
+      <c r="T66">
+        <v>1.37</v>
+      </c>
+      <c r="U66">
+        <v>2.99</v>
+      </c>
+      <c r="V66">
+        <v>2.87</v>
+      </c>
+      <c r="W66">
+        <v>1.39</v>
+      </c>
+      <c r="X66">
+        <v>7.1</v>
+      </c>
+      <c r="Y66">
+        <v>1.08</v>
+      </c>
+      <c r="Z66">
+        <v>2.05</v>
+      </c>
+      <c r="AA66">
+        <v>3.4</v>
+      </c>
+      <c r="AB66">
+        <v>3.2</v>
+      </c>
+      <c r="AC66">
+        <v>1.06</v>
+      </c>
+      <c r="AD66">
+        <v>8.5</v>
+      </c>
+      <c r="AE66">
+        <v>1.3</v>
+      </c>
+      <c r="AF66">
+        <v>3.35</v>
+      </c>
+      <c r="AG66">
+        <v>2</v>
+      </c>
+      <c r="AH66">
+        <v>1.84</v>
+      </c>
+      <c r="AI66">
+        <v>1.77</v>
+      </c>
+      <c r="AJ66">
+        <v>2</v>
+      </c>
+      <c r="AK66">
+        <v>1.31</v>
+      </c>
+      <c r="AL66">
+        <v>1.3</v>
+      </c>
+      <c r="AM66">
+        <v>1.76</v>
+      </c>
+      <c r="AN66">
+        <v>2</v>
+      </c>
+      <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AP66">
+        <v>2.25</v>
+      </c>
+      <c r="AQ66">
+        <v>0.8</v>
+      </c>
+      <c r="AR66">
+        <v>1.59</v>
+      </c>
+      <c r="AS66">
+        <v>1.27</v>
+      </c>
+      <c r="AT66">
+        <v>2.86</v>
+      </c>
+      <c r="AU66">
+        <v>5</v>
+      </c>
+      <c r="AV66">
+        <v>0</v>
+      </c>
+      <c r="AW66">
+        <v>5</v>
+      </c>
+      <c r="AX66">
+        <v>4</v>
+      </c>
+      <c r="AY66">
+        <v>13</v>
+      </c>
+      <c r="AZ66">
+        <v>9</v>
+      </c>
+      <c r="BA66">
+        <v>3</v>
+      </c>
+      <c r="BB66">
+        <v>5</v>
+      </c>
+      <c r="BC66">
+        <v>8</v>
+      </c>
+      <c r="BD66">
+        <v>1.41</v>
+      </c>
+      <c r="BE66">
+        <v>9</v>
+      </c>
+      <c r="BF66">
+        <v>3.58</v>
+      </c>
+      <c r="BG66">
+        <v>1.27</v>
+      </c>
+      <c r="BH66">
+        <v>3.55</v>
+      </c>
+      <c r="BI66">
+        <v>1.5</v>
+      </c>
+      <c r="BJ66">
+        <v>2.48</v>
+      </c>
+      <c r="BK66">
+        <v>1.95</v>
+      </c>
+      <c r="BL66">
+        <v>1.85</v>
+      </c>
+      <c r="BM66">
+        <v>2.45</v>
+      </c>
+      <c r="BN66">
+        <v>1.5</v>
+      </c>
+      <c r="BO66">
+        <v>3.4</v>
+      </c>
+      <c r="BP66">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7468933</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s">
+        <v>79</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67" t="s">
+        <v>142</v>
+      </c>
+      <c r="P67" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q67">
+        <v>2.5</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>4.33</v>
+      </c>
+      <c r="T67">
+        <v>1.44</v>
+      </c>
+      <c r="U67">
+        <v>2.6</v>
+      </c>
+      <c r="V67">
+        <v>3</v>
+      </c>
+      <c r="W67">
+        <v>1.33</v>
+      </c>
+      <c r="X67">
+        <v>7.7</v>
+      </c>
+      <c r="Y67">
+        <v>1.07</v>
+      </c>
+      <c r="Z67">
+        <v>1.99</v>
+      </c>
+      <c r="AA67">
+        <v>3.4</v>
+      </c>
+      <c r="AB67">
+        <v>3.4</v>
+      </c>
+      <c r="AC67">
+        <v>1.05</v>
+      </c>
+      <c r="AD67">
+        <v>8</v>
+      </c>
+      <c r="AE67">
+        <v>1.3</v>
+      </c>
+      <c r="AF67">
+        <v>3.2</v>
+      </c>
+      <c r="AG67">
+        <v>1.96</v>
+      </c>
+      <c r="AH67">
+        <v>1.75</v>
+      </c>
+      <c r="AI67">
+        <v>1.87</v>
+      </c>
+      <c r="AJ67">
+        <v>1.9</v>
+      </c>
+      <c r="AK67">
+        <v>1.25</v>
+      </c>
+      <c r="AL67">
+        <v>1.25</v>
+      </c>
+      <c r="AM67">
+        <v>1.8</v>
+      </c>
+      <c r="AN67">
+        <v>2.25</v>
+      </c>
+      <c r="AO67">
+        <v>0.25</v>
+      </c>
+      <c r="AP67">
+        <v>2.4</v>
+      </c>
+      <c r="AQ67">
+        <v>0.2</v>
+      </c>
+      <c r="AR67">
+        <v>1.61</v>
+      </c>
+      <c r="AS67">
+        <v>1.14</v>
+      </c>
+      <c r="AT67">
+        <v>2.75</v>
+      </c>
+      <c r="AU67">
+        <v>8</v>
+      </c>
+      <c r="AV67">
+        <v>12</v>
+      </c>
+      <c r="AW67">
+        <v>2</v>
+      </c>
+      <c r="AX67">
+        <v>4</v>
+      </c>
+      <c r="AY67">
+        <v>13</v>
+      </c>
+      <c r="AZ67">
+        <v>22</v>
+      </c>
+      <c r="BA67">
+        <v>5</v>
+      </c>
+      <c r="BB67">
+        <v>8</v>
+      </c>
+      <c r="BC67">
+        <v>13</v>
+      </c>
+      <c r="BD67">
+        <v>1.64</v>
+      </c>
+      <c r="BE67">
+        <v>8</v>
+      </c>
+      <c r="BF67">
+        <v>2.77</v>
+      </c>
+      <c r="BG67">
+        <v>1.27</v>
+      </c>
+      <c r="BH67">
+        <v>3.55</v>
+      </c>
+      <c r="BI67">
+        <v>1.5</v>
+      </c>
+      <c r="BJ67">
+        <v>2.48</v>
+      </c>
+      <c r="BK67">
+        <v>1.95</v>
+      </c>
+      <c r="BL67">
+        <v>1.85</v>
+      </c>
+      <c r="BM67">
+        <v>2.45</v>
+      </c>
+      <c r="BN67">
+        <v>1.5</v>
+      </c>
+      <c r="BO67">
+        <v>3.4</v>
+      </c>
+      <c r="BP67">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7468934</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45569.625</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>81</v>
+      </c>
+      <c r="H68" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>143</v>
+      </c>
+      <c r="P68" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q68">
+        <v>2.88</v>
+      </c>
+      <c r="R68">
+        <v>2.05</v>
+      </c>
+      <c r="S68">
+        <v>3.5</v>
+      </c>
+      <c r="T68">
+        <v>1.4</v>
+      </c>
+      <c r="U68">
+        <v>2.75</v>
+      </c>
+      <c r="V68">
+        <v>2.8</v>
+      </c>
+      <c r="W68">
+        <v>1.38</v>
+      </c>
+      <c r="X68">
+        <v>7.2</v>
+      </c>
+      <c r="Y68">
+        <v>1.08</v>
+      </c>
+      <c r="Z68">
+        <v>2.16</v>
+      </c>
+      <c r="AA68">
+        <v>3.4</v>
+      </c>
+      <c r="AB68">
+        <v>2.9</v>
+      </c>
+      <c r="AC68">
+        <v>1.05</v>
+      </c>
+      <c r="AD68">
+        <v>9</v>
+      </c>
+      <c r="AE68">
+        <v>1.3</v>
+      </c>
+      <c r="AF68">
+        <v>3.4</v>
+      </c>
+      <c r="AG68">
+        <v>2.01</v>
+      </c>
+      <c r="AH68">
+        <v>1.83</v>
+      </c>
+      <c r="AI68">
+        <v>1.7</v>
+      </c>
+      <c r="AJ68">
+        <v>2</v>
+      </c>
+      <c r="AK68">
+        <v>1.36</v>
+      </c>
+      <c r="AL68">
+        <v>1.25</v>
+      </c>
+      <c r="AM68">
+        <v>1.6</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>0.75</v>
+      </c>
+      <c r="AQ68">
+        <v>0.75</v>
+      </c>
+      <c r="AR68">
+        <v>1.95</v>
+      </c>
+      <c r="AS68">
+        <v>1.22</v>
+      </c>
+      <c r="AT68">
+        <v>3.17</v>
+      </c>
+      <c r="AU68">
+        <v>7</v>
+      </c>
+      <c r="AV68">
+        <v>3</v>
+      </c>
+      <c r="AW68">
+        <v>4</v>
+      </c>
+      <c r="AX68">
+        <v>2</v>
+      </c>
+      <c r="AY68">
+        <v>13</v>
+      </c>
+      <c r="AZ68">
+        <v>5</v>
+      </c>
+      <c r="BA68">
+        <v>6</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>6</v>
+      </c>
+      <c r="BD68">
+        <v>1.82</v>
+      </c>
+      <c r="BE68">
+        <v>8</v>
+      </c>
+      <c r="BF68">
+        <v>2.33</v>
+      </c>
+      <c r="BG68">
+        <v>1.25</v>
+      </c>
+      <c r="BH68">
+        <v>3.7</v>
+      </c>
+      <c r="BI68">
+        <v>1.47</v>
+      </c>
+      <c r="BJ68">
+        <v>2.55</v>
+      </c>
+      <c r="BK68">
+        <v>1.82</v>
+      </c>
+      <c r="BL68">
+        <v>1.98</v>
+      </c>
+      <c r="BM68">
+        <v>2.38</v>
+      </c>
+      <c r="BN68">
+        <v>1.54</v>
+      </c>
+      <c r="BO68">
+        <v>3.25</v>
+      </c>
+      <c r="BP68">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,18 @@
     <t>['54', '81']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['9', '15', '53', '56']</t>
+  </si>
+  <si>
+    <t>['15', '21', '43']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -463,9 +475,6 @@
     <t>['38']</t>
   </si>
   <si>
-    <t>['22']</t>
-  </si>
-  <si>
     <t>['1', '30', '44']</t>
   </si>
   <si>
@@ -557,6 +566,18 @@
   </si>
   <si>
     <t>['44']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['35', '87']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['45+2', '76']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,7 +1198,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1255,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>0.5</v>
@@ -1461,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3">
         <v>0.75</v>
@@ -1589,7 +1610,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2001,7 +2022,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2413,7 +2434,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2491,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
         <v>2.25</v>
@@ -2700,7 +2721,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2825,7 +2846,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2903,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -3237,7 +3258,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3318,7 +3339,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3443,7 +3464,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4061,7 +4082,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4267,7 +4288,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4885,7 +4906,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -4963,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
         <v>0.2</v>
@@ -5091,7 +5112,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5169,7 +5190,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>2.25</v>
@@ -5297,7 +5318,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5709,7 +5730,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5787,7 +5808,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -5915,7 +5936,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6121,7 +6142,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6408,7 +6429,7 @@
         <v>3</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR27">
         <v>1.55</v>
@@ -6533,7 +6554,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6611,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ28">
         <v>1.4</v>
@@ -6945,7 +6966,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7229,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>1.33</v>
@@ -7975,7 +7996,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8056,7 +8077,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.69</v>
@@ -8181,7 +8202,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8387,7 +8408,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8593,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8799,7 +8820,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9211,7 +9232,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9417,7 +9438,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9623,7 +9644,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9907,7 +9928,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
         <v>0.25</v>
@@ -10241,7 +10262,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10319,10 +10340,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR46">
         <v>1.88</v>
@@ -10447,7 +10468,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -10525,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
         <v>0</v>
@@ -10937,7 +10958,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11146,7 +11167,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.61</v>
@@ -11352,7 +11373,7 @@
         <v>3</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR51">
         <v>1.48</v>
@@ -11555,7 +11576,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ52">
         <v>0.75</v>
@@ -11683,7 +11704,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11889,7 +11910,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -11967,7 +11988,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>0.8</v>
@@ -12095,7 +12116,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12507,7 +12528,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12713,7 +12734,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12919,7 +12940,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13125,7 +13146,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13537,7 +13558,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13743,7 +13764,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13949,7 +13970,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14122,7 +14143,7 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45569.625</v>
+        <v>45568.875</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -14251,7 +14272,7 @@
         <v>8</v>
       </c>
       <c r="AV65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW65">
         <v>7</v>
@@ -14260,10 +14281,10 @@
         <v>2</v>
       </c>
       <c r="AY65">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ65">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA65">
         <v>11</v>
@@ -14328,7 +14349,7 @@
         <v>69</v>
       </c>
       <c r="E66" s="2">
-        <v>45569.625</v>
+        <v>45568.875</v>
       </c>
       <c r="F66">
         <v>8</v>
@@ -14460,16 +14481,16 @@
         <v>0</v>
       </c>
       <c r="AW66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY66">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ66">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BA66">
         <v>3</v>
@@ -14534,7 +14555,7 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45569.625</v>
+        <v>45568.875</v>
       </c>
       <c r="F67">
         <v>8</v>
@@ -14660,22 +14681,22 @@
         <v>2.75</v>
       </c>
       <c r="AU67">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV67">
+        <v>5</v>
+      </c>
+      <c r="AW67">
+        <v>1</v>
+      </c>
+      <c r="AX67">
+        <v>7</v>
+      </c>
+      <c r="AY67">
+        <v>6</v>
+      </c>
+      <c r="AZ67">
         <v>12</v>
-      </c>
-      <c r="AW67">
-        <v>2</v>
-      </c>
-      <c r="AX67">
-        <v>4</v>
-      </c>
-      <c r="AY67">
-        <v>13</v>
-      </c>
-      <c r="AZ67">
-        <v>22</v>
       </c>
       <c r="BA67">
         <v>5</v>
@@ -14740,7 +14761,7 @@
         <v>69</v>
       </c>
       <c r="E68" s="2">
-        <v>45569.625</v>
+        <v>45568.875</v>
       </c>
       <c r="F68">
         <v>8</v>
@@ -14773,7 +14794,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14866,22 +14887,22 @@
         <v>3.17</v>
       </c>
       <c r="AU68">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW68">
+        <v>5</v>
+      </c>
+      <c r="AX68">
+        <v>2</v>
+      </c>
+      <c r="AY68">
+        <v>9</v>
+      </c>
+      <c r="AZ68">
         <v>4</v>
-      </c>
-      <c r="AX68">
-        <v>2</v>
-      </c>
-      <c r="AY68">
-        <v>13</v>
-      </c>
-      <c r="AZ68">
-        <v>5</v>
       </c>
       <c r="BA68">
         <v>6</v>
@@ -14930,6 +14951,830 @@
       </c>
       <c r="BP68">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7468936</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" t="s">
+        <v>77</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>144</v>
+      </c>
+      <c r="P69" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q69">
+        <v>2.5</v>
+      </c>
+      <c r="R69">
+        <v>1.9</v>
+      </c>
+      <c r="S69">
+        <v>5.25</v>
+      </c>
+      <c r="T69">
+        <v>1.57</v>
+      </c>
+      <c r="U69">
+        <v>2.25</v>
+      </c>
+      <c r="V69">
+        <v>3.75</v>
+      </c>
+      <c r="W69">
+        <v>1.22</v>
+      </c>
+      <c r="X69">
+        <v>10.7</v>
+      </c>
+      <c r="Y69">
+        <v>1.02</v>
+      </c>
+      <c r="Z69">
+        <v>1.75</v>
+      </c>
+      <c r="AA69">
+        <v>3</v>
+      </c>
+      <c r="AB69">
+        <v>4.75</v>
+      </c>
+      <c r="AC69">
+        <v>1.11</v>
+      </c>
+      <c r="AD69">
+        <v>6.25</v>
+      </c>
+      <c r="AE69">
+        <v>1.57</v>
+      </c>
+      <c r="AF69">
+        <v>2.4</v>
+      </c>
+      <c r="AG69">
+        <v>2.75</v>
+      </c>
+      <c r="AH69">
+        <v>1.4</v>
+      </c>
+      <c r="AI69">
+        <v>2.3</v>
+      </c>
+      <c r="AJ69">
+        <v>1.53</v>
+      </c>
+      <c r="AK69">
+        <v>1.17</v>
+      </c>
+      <c r="AL69">
+        <v>1.28</v>
+      </c>
+      <c r="AM69">
+        <v>1.93</v>
+      </c>
+      <c r="AN69">
+        <v>3</v>
+      </c>
+      <c r="AO69">
+        <v>1</v>
+      </c>
+      <c r="AP69">
+        <v>2.5</v>
+      </c>
+      <c r="AQ69">
+        <v>1</v>
+      </c>
+      <c r="AR69">
+        <v>1.23</v>
+      </c>
+      <c r="AS69">
+        <v>1.23</v>
+      </c>
+      <c r="AT69">
+        <v>2.46</v>
+      </c>
+      <c r="AU69">
+        <v>-1</v>
+      </c>
+      <c r="AV69">
+        <v>-1</v>
+      </c>
+      <c r="AW69">
+        <v>-1</v>
+      </c>
+      <c r="AX69">
+        <v>-1</v>
+      </c>
+      <c r="AY69">
+        <v>-1</v>
+      </c>
+      <c r="AZ69">
+        <v>-1</v>
+      </c>
+      <c r="BA69">
+        <v>-1</v>
+      </c>
+      <c r="BB69">
+        <v>-1</v>
+      </c>
+      <c r="BC69">
+        <v>-1</v>
+      </c>
+      <c r="BD69">
+        <v>1.45</v>
+      </c>
+      <c r="BE69">
+        <v>8.5</v>
+      </c>
+      <c r="BF69">
+        <v>3.33</v>
+      </c>
+      <c r="BG69">
+        <v>1.36</v>
+      </c>
+      <c r="BH69">
+        <v>2.95</v>
+      </c>
+      <c r="BI69">
+        <v>1.67</v>
+      </c>
+      <c r="BJ69">
+        <v>2.12</v>
+      </c>
+      <c r="BK69">
+        <v>2.15</v>
+      </c>
+      <c r="BL69">
+        <v>1.65</v>
+      </c>
+      <c r="BM69">
+        <v>2.95</v>
+      </c>
+      <c r="BN69">
+        <v>1.37</v>
+      </c>
+      <c r="BO69">
+        <v>4.1</v>
+      </c>
+      <c r="BP69">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7468931</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45570.375</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" t="s">
+        <v>86</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>145</v>
+      </c>
+      <c r="P70" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q70">
+        <v>3.75</v>
+      </c>
+      <c r="R70">
+        <v>2.2</v>
+      </c>
+      <c r="S70">
+        <v>2.75</v>
+      </c>
+      <c r="T70">
+        <v>1.36</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>2.75</v>
+      </c>
+      <c r="W70">
+        <v>1.4</v>
+      </c>
+      <c r="X70">
+        <v>8</v>
+      </c>
+      <c r="Y70">
+        <v>1.08</v>
+      </c>
+      <c r="Z70">
+        <v>3.4</v>
+      </c>
+      <c r="AA70">
+        <v>3.4</v>
+      </c>
+      <c r="AB70">
+        <v>2.05</v>
+      </c>
+      <c r="AC70">
+        <v>1.05</v>
+      </c>
+      <c r="AD70">
+        <v>9.5</v>
+      </c>
+      <c r="AE70">
+        <v>1.28</v>
+      </c>
+      <c r="AF70">
+        <v>3.6</v>
+      </c>
+      <c r="AG70">
+        <v>2.15</v>
+      </c>
+      <c r="AH70">
+        <v>1.63</v>
+      </c>
+      <c r="AI70">
+        <v>1.73</v>
+      </c>
+      <c r="AJ70">
+        <v>2</v>
+      </c>
+      <c r="AK70">
+        <v>1.73</v>
+      </c>
+      <c r="AL70">
+        <v>1.22</v>
+      </c>
+      <c r="AM70">
+        <v>1.33</v>
+      </c>
+      <c r="AN70">
+        <v>1.75</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AP70">
+        <v>1.4</v>
+      </c>
+      <c r="AQ70">
+        <v>1.4</v>
+      </c>
+      <c r="AR70">
+        <v>1.55</v>
+      </c>
+      <c r="AS70">
+        <v>1.64</v>
+      </c>
+      <c r="AT70">
+        <v>3.19</v>
+      </c>
+      <c r="AU70">
+        <v>2</v>
+      </c>
+      <c r="AV70">
+        <v>7</v>
+      </c>
+      <c r="AW70">
+        <v>3</v>
+      </c>
+      <c r="AX70">
+        <v>4</v>
+      </c>
+      <c r="AY70">
+        <v>5</v>
+      </c>
+      <c r="AZ70">
+        <v>16</v>
+      </c>
+      <c r="BA70">
+        <v>0</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
+        <v>4</v>
+      </c>
+      <c r="BD70">
+        <v>2</v>
+      </c>
+      <c r="BE70">
+        <v>8</v>
+      </c>
+      <c r="BF70">
+        <v>2</v>
+      </c>
+      <c r="BG70">
+        <v>1.27</v>
+      </c>
+      <c r="BH70">
+        <v>3.55</v>
+      </c>
+      <c r="BI70">
+        <v>1.5</v>
+      </c>
+      <c r="BJ70">
+        <v>2.48</v>
+      </c>
+      <c r="BK70">
+        <v>1.92</v>
+      </c>
+      <c r="BL70">
+        <v>1.88</v>
+      </c>
+      <c r="BM70">
+        <v>2.45</v>
+      </c>
+      <c r="BN70">
+        <v>1.5</v>
+      </c>
+      <c r="BO70">
+        <v>3.4</v>
+      </c>
+      <c r="BP70">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7468930</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45570.375</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>5</v>
+      </c>
+      <c r="O71" t="s">
+        <v>146</v>
+      </c>
+      <c r="P71" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q71">
+        <v>3.5</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>3.4</v>
+      </c>
+      <c r="T71">
+        <v>1.5</v>
+      </c>
+      <c r="U71">
+        <v>2.5</v>
+      </c>
+      <c r="V71">
+        <v>3.4</v>
+      </c>
+      <c r="W71">
+        <v>1.3</v>
+      </c>
+      <c r="X71">
+        <v>10</v>
+      </c>
+      <c r="Y71">
+        <v>1.06</v>
+      </c>
+      <c r="Z71">
+        <v>2.7</v>
+      </c>
+      <c r="AA71">
+        <v>3.1</v>
+      </c>
+      <c r="AB71">
+        <v>2.6</v>
+      </c>
+      <c r="AC71">
+        <v>1.08</v>
+      </c>
+      <c r="AD71">
+        <v>7.5</v>
+      </c>
+      <c r="AE71">
+        <v>1.42</v>
+      </c>
+      <c r="AF71">
+        <v>2.8</v>
+      </c>
+      <c r="AG71">
+        <v>2.01</v>
+      </c>
+      <c r="AH71">
+        <v>1.81</v>
+      </c>
+      <c r="AI71">
+        <v>1.91</v>
+      </c>
+      <c r="AJ71">
+        <v>1.8</v>
+      </c>
+      <c r="AK71">
+        <v>1.45</v>
+      </c>
+      <c r="AL71">
+        <v>1.3</v>
+      </c>
+      <c r="AM71">
+        <v>1.44</v>
+      </c>
+      <c r="AN71">
+        <v>0.5</v>
+      </c>
+      <c r="AO71">
+        <v>2</v>
+      </c>
+      <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>1.5</v>
+      </c>
+      <c r="AR71">
+        <v>1.24</v>
+      </c>
+      <c r="AS71">
+        <v>1.43</v>
+      </c>
+      <c r="AT71">
+        <v>2.67</v>
+      </c>
+      <c r="AU71">
+        <v>7</v>
+      </c>
+      <c r="AV71">
+        <v>7</v>
+      </c>
+      <c r="AW71">
+        <v>3</v>
+      </c>
+      <c r="AX71">
+        <v>11</v>
+      </c>
+      <c r="AY71">
+        <v>10</v>
+      </c>
+      <c r="AZ71">
+        <v>22</v>
+      </c>
+      <c r="BA71">
+        <v>3</v>
+      </c>
+      <c r="BB71">
+        <v>10</v>
+      </c>
+      <c r="BC71">
+        <v>13</v>
+      </c>
+      <c r="BD71">
+        <v>1.75</v>
+      </c>
+      <c r="BE71">
+        <v>8</v>
+      </c>
+      <c r="BF71">
+        <v>2.44</v>
+      </c>
+      <c r="BG71">
+        <v>1.33</v>
+      </c>
+      <c r="BH71">
+        <v>3.15</v>
+      </c>
+      <c r="BI71">
+        <v>1.6</v>
+      </c>
+      <c r="BJ71">
+        <v>2.25</v>
+      </c>
+      <c r="BK71">
+        <v>2.04</v>
+      </c>
+      <c r="BL71">
+        <v>1.73</v>
+      </c>
+      <c r="BM71">
+        <v>2.75</v>
+      </c>
+      <c r="BN71">
+        <v>1.42</v>
+      </c>
+      <c r="BO71">
+        <v>3.85</v>
+      </c>
+      <c r="BP71">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7468932</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45570.625</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s">
+        <v>73</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>4</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>5</v>
+      </c>
+      <c r="O72" t="s">
+        <v>147</v>
+      </c>
+      <c r="P72" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q72">
+        <v>2.2</v>
+      </c>
+      <c r="R72">
+        <v>2.1</v>
+      </c>
+      <c r="S72">
+        <v>5.25</v>
+      </c>
+      <c r="T72">
+        <v>1.44</v>
+      </c>
+      <c r="U72">
+        <v>2.6</v>
+      </c>
+      <c r="V72">
+        <v>3</v>
+      </c>
+      <c r="W72">
+        <v>1.33</v>
+      </c>
+      <c r="X72">
+        <v>7.9</v>
+      </c>
+      <c r="Y72">
+        <v>1.06</v>
+      </c>
+      <c r="Z72">
+        <v>1.57</v>
+      </c>
+      <c r="AA72">
+        <v>3.9</v>
+      </c>
+      <c r="AB72">
+        <v>5.95</v>
+      </c>
+      <c r="AC72">
+        <v>1.07</v>
+      </c>
+      <c r="AD72">
+        <v>8</v>
+      </c>
+      <c r="AE72">
+        <v>1.38</v>
+      </c>
+      <c r="AF72">
+        <v>3</v>
+      </c>
+      <c r="AG72">
+        <v>2.02</v>
+      </c>
+      <c r="AH72">
+        <v>1.71</v>
+      </c>
+      <c r="AI72">
+        <v>2</v>
+      </c>
+      <c r="AJ72">
+        <v>1.7</v>
+      </c>
+      <c r="AK72">
+        <v>1.13</v>
+      </c>
+      <c r="AL72">
+        <v>1.22</v>
+      </c>
+      <c r="AM72">
+        <v>2.25</v>
+      </c>
+      <c r="AN72">
+        <v>1.5</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>1.8</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>1.72</v>
+      </c>
+      <c r="AS72">
+        <v>1.25</v>
+      </c>
+      <c r="AT72">
+        <v>2.97</v>
+      </c>
+      <c r="AU72">
+        <v>7</v>
+      </c>
+      <c r="AV72">
+        <v>5</v>
+      </c>
+      <c r="AW72">
+        <v>6</v>
+      </c>
+      <c r="AX72">
+        <v>1</v>
+      </c>
+      <c r="AY72">
+        <v>15</v>
+      </c>
+      <c r="AZ72">
+        <v>7</v>
+      </c>
+      <c r="BA72">
+        <v>2</v>
+      </c>
+      <c r="BB72">
+        <v>1</v>
+      </c>
+      <c r="BC72">
+        <v>3</v>
+      </c>
+      <c r="BD72">
+        <v>1.41</v>
+      </c>
+      <c r="BE72">
+        <v>8.5</v>
+      </c>
+      <c r="BF72">
+        <v>3.5</v>
+      </c>
+      <c r="BG72">
+        <v>1.29</v>
+      </c>
+      <c r="BH72">
+        <v>3.4</v>
+      </c>
+      <c r="BI72">
+        <v>1.53</v>
+      </c>
+      <c r="BJ72">
+        <v>2.4</v>
+      </c>
+      <c r="BK72">
+        <v>2</v>
+      </c>
+      <c r="BL72">
+        <v>1.8</v>
+      </c>
+      <c r="BM72">
+        <v>2.55</v>
+      </c>
+      <c r="BN72">
+        <v>1.48</v>
+      </c>
+      <c r="BO72">
+        <v>3.5</v>
+      </c>
+      <c r="BP72">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -448,18 +448,18 @@
     <t>['54', '81']</t>
   </si>
   <si>
+    <t>['15', '21', '43']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['9', '15', '53', '56']</t>
+  </si>
+  <si>
     <t>['22']</t>
   </si>
   <si>
-    <t>['17']</t>
-  </si>
-  <si>
-    <t>['9', '15', '53', '56']</t>
-  </si>
-  <si>
-    <t>['15', '21', '43']</t>
-  </si>
-  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -568,16 +568,16 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['45+2', '76']</t>
+  </si>
+  <si>
+    <t>['35', '87']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['45+1']</t>
-  </si>
-  <si>
-    <t>['35', '87']</t>
-  </si>
-  <si>
-    <t>['88']</t>
-  </si>
-  <si>
-    <t>['45+2', '76']</t>
   </si>
 </sst>
 </file>
@@ -3258,7 +3258,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -14143,10 +14143,10 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45568.875</v>
+        <v>45569.625</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G65" t="s">
         <v>85</v>
@@ -14272,7 +14272,7 @@
         <v>8</v>
       </c>
       <c r="AV65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW65">
         <v>7</v>
@@ -14281,10 +14281,10 @@
         <v>2</v>
       </c>
       <c r="AY65">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA65">
         <v>11</v>
@@ -14349,7 +14349,7 @@
         <v>69</v>
       </c>
       <c r="E66" s="2">
-        <v>45568.875</v>
+        <v>45569.625</v>
       </c>
       <c r="F66">
         <v>8</v>
@@ -14481,16 +14481,16 @@
         <v>0</v>
       </c>
       <c r="AW66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY66">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ66">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BA66">
         <v>3</v>
@@ -14555,7 +14555,7 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45568.875</v>
+        <v>45569.625</v>
       </c>
       <c r="F67">
         <v>8</v>
@@ -14681,22 +14681,22 @@
         <v>2.75</v>
       </c>
       <c r="AU67">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV67">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AW67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY67">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AZ67">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="BA67">
         <v>5</v>
@@ -14761,7 +14761,7 @@
         <v>69</v>
       </c>
       <c r="E68" s="2">
-        <v>45568.875</v>
+        <v>45569.625</v>
       </c>
       <c r="F68">
         <v>8</v>
@@ -14887,22 +14887,22 @@
         <v>3.17</v>
       </c>
       <c r="AU68">
+        <v>7</v>
+      </c>
+      <c r="AV68">
+        <v>3</v>
+      </c>
+      <c r="AW68">
         <v>4</v>
       </c>
-      <c r="AV68">
-        <v>2</v>
-      </c>
-      <c r="AW68">
+      <c r="AX68">
+        <v>2</v>
+      </c>
+      <c r="AY68">
+        <v>13</v>
+      </c>
+      <c r="AZ68">
         <v>5</v>
-      </c>
-      <c r="AX68">
-        <v>2</v>
-      </c>
-      <c r="AY68">
-        <v>9</v>
-      </c>
-      <c r="AZ68">
-        <v>4</v>
       </c>
       <c r="BA68">
         <v>6</v>
@@ -14958,7 +14958,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7468936</v>
+        <v>7468932</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -14973,28 +14973,28 @@
         <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O69" t="s">
         <v>144</v>
@@ -15003,160 +15003,160 @@
         <v>184</v>
       </c>
       <c r="Q69">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S69">
         <v>5.25</v>
       </c>
       <c r="T69">
+        <v>1.44</v>
+      </c>
+      <c r="U69">
+        <v>2.6</v>
+      </c>
+      <c r="V69">
+        <v>3</v>
+      </c>
+      <c r="W69">
+        <v>1.33</v>
+      </c>
+      <c r="X69">
+        <v>7.9</v>
+      </c>
+      <c r="Y69">
+        <v>1.06</v>
+      </c>
+      <c r="Z69">
         <v>1.57</v>
       </c>
-      <c r="U69">
+      <c r="AA69">
+        <v>3.9</v>
+      </c>
+      <c r="AB69">
+        <v>5.95</v>
+      </c>
+      <c r="AC69">
+        <v>1.07</v>
+      </c>
+      <c r="AD69">
+        <v>8</v>
+      </c>
+      <c r="AE69">
+        <v>1.38</v>
+      </c>
+      <c r="AF69">
+        <v>3</v>
+      </c>
+      <c r="AG69">
+        <v>2.02</v>
+      </c>
+      <c r="AH69">
+        <v>1.71</v>
+      </c>
+      <c r="AI69">
+        <v>2</v>
+      </c>
+      <c r="AJ69">
+        <v>1.7</v>
+      </c>
+      <c r="AK69">
+        <v>1.13</v>
+      </c>
+      <c r="AL69">
+        <v>1.22</v>
+      </c>
+      <c r="AM69">
         <v>2.25</v>
       </c>
-      <c r="V69">
-        <v>3.75</v>
-      </c>
-      <c r="W69">
-        <v>1.22</v>
-      </c>
-      <c r="X69">
-        <v>10.7</v>
-      </c>
-      <c r="Y69">
-        <v>1.02</v>
-      </c>
-      <c r="Z69">
-        <v>1.75</v>
-      </c>
-      <c r="AA69">
-        <v>3</v>
-      </c>
-      <c r="AB69">
-        <v>4.75</v>
-      </c>
-      <c r="AC69">
-        <v>1.11</v>
-      </c>
-      <c r="AD69">
-        <v>6.25</v>
-      </c>
-      <c r="AE69">
-        <v>1.57</v>
-      </c>
-      <c r="AF69">
-        <v>2.4</v>
-      </c>
-      <c r="AG69">
-        <v>2.75</v>
-      </c>
-      <c r="AH69">
-        <v>1.4</v>
-      </c>
-      <c r="AI69">
-        <v>2.3</v>
-      </c>
-      <c r="AJ69">
-        <v>1.53</v>
-      </c>
-      <c r="AK69">
-        <v>1.17</v>
-      </c>
-      <c r="AL69">
-        <v>1.28</v>
-      </c>
-      <c r="AM69">
-        <v>1.93</v>
-      </c>
       <c r="AN69">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR69">
-        <v>1.23</v>
+        <v>1.72</v>
       </c>
       <c r="AS69">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>2.46</v>
+        <v>2.97</v>
       </c>
       <c r="AU69">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV69">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW69">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY69">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ69">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA69">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC69">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BD69">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="BE69">
         <v>8.5</v>
       </c>
       <c r="BF69">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="BG69">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="BH69">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="BI69">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="BJ69">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="BK69">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="BL69">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="BM69">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="BN69">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="BO69">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="BP69">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15576,7 +15576,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7468932</v>
+        <v>7468936</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15585,34 +15585,34 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45570.625</v>
+        <v>45570.375</v>
       </c>
       <c r="F72">
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H72" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O72" t="s">
         <v>147</v>
@@ -15621,160 +15621,160 @@
         <v>187</v>
       </c>
       <c r="Q72">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R72">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S72">
         <v>5.25</v>
       </c>
       <c r="T72">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="U72">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="V72">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="W72">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="X72">
-        <v>7.9</v>
+        <v>10.7</v>
       </c>
       <c r="Y72">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="Z72">
+        <v>1.75</v>
+      </c>
+      <c r="AA72">
+        <v>3</v>
+      </c>
+      <c r="AB72">
+        <v>4.75</v>
+      </c>
+      <c r="AC72">
+        <v>1.11</v>
+      </c>
+      <c r="AD72">
+        <v>6.25</v>
+      </c>
+      <c r="AE72">
         <v>1.57</v>
       </c>
-      <c r="AA72">
-        <v>3.9</v>
-      </c>
-      <c r="AB72">
-        <v>5.95</v>
-      </c>
-      <c r="AC72">
-        <v>1.07</v>
-      </c>
-      <c r="AD72">
-        <v>8</v>
-      </c>
-      <c r="AE72">
-        <v>1.38</v>
-      </c>
       <c r="AF72">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AG72">
-        <v>2.02</v>
+        <v>2.75</v>
       </c>
       <c r="AH72">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="AI72">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AJ72">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AK72">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AL72">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM72">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="AN72">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AQ72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR72">
-        <v>1.72</v>
+        <v>1.23</v>
       </c>
       <c r="AS72">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT72">
-        <v>2.97</v>
+        <v>2.46</v>
       </c>
       <c r="AU72">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW72">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY72">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AZ72">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BA72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD72">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="BE72">
         <v>8.5</v>
       </c>
       <c r="BF72">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="BG72">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BH72">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="BI72">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="BJ72">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="BK72">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="BL72">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BM72">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="BN72">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="BO72">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="BP72">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -448,18 +448,18 @@
     <t>['54', '81']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['9', '15', '53', '56']</t>
+  </si>
+  <si>
     <t>['15', '21', '43']</t>
   </si>
   <si>
-    <t>['17']</t>
-  </si>
-  <si>
-    <t>['9', '15', '53', '56']</t>
-  </si>
-  <si>
-    <t>['22']</t>
-  </si>
-  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -568,16 +568,16 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['35', '87']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['45+2', '76']</t>
-  </si>
-  <si>
-    <t>['35', '87']</t>
-  </si>
-  <si>
-    <t>['88']</t>
-  </si>
-  <si>
-    <t>['45+1']</t>
   </si>
 </sst>
 </file>
@@ -3258,7 +3258,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -14958,7 +14958,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7468932</v>
+        <v>7468936</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -14967,34 +14967,34 @@
         <v>69</v>
       </c>
       <c r="E69" s="2">
-        <v>45569.875</v>
+        <v>45570.375</v>
       </c>
       <c r="F69">
         <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H69" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="K69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O69" t="s">
         <v>144</v>
@@ -15003,160 +15003,160 @@
         <v>184</v>
       </c>
       <c r="Q69">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R69">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
         <v>5.25</v>
       </c>
       <c r="T69">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="U69">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="V69">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="W69">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="X69">
-        <v>7.9</v>
+        <v>10.7</v>
       </c>
       <c r="Y69">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="Z69">
+        <v>1.75</v>
+      </c>
+      <c r="AA69">
+        <v>3</v>
+      </c>
+      <c r="AB69">
+        <v>4.75</v>
+      </c>
+      <c r="AC69">
+        <v>1.11</v>
+      </c>
+      <c r="AD69">
+        <v>6.25</v>
+      </c>
+      <c r="AE69">
         <v>1.57</v>
       </c>
-      <c r="AA69">
-        <v>3.9</v>
-      </c>
-      <c r="AB69">
-        <v>5.95</v>
-      </c>
-      <c r="AC69">
-        <v>1.07</v>
-      </c>
-      <c r="AD69">
-        <v>8</v>
-      </c>
-      <c r="AE69">
-        <v>1.38</v>
-      </c>
       <c r="AF69">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AG69">
-        <v>2.02</v>
+        <v>2.75</v>
       </c>
       <c r="AH69">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="AI69">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AJ69">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AK69">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AL69">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM69">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="AN69">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AQ69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR69">
-        <v>1.72</v>
+        <v>1.23</v>
       </c>
       <c r="AS69">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT69">
-        <v>2.97</v>
+        <v>2.46</v>
       </c>
       <c r="AU69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV69">
+        <v>2</v>
+      </c>
+      <c r="AW69">
+        <v>2</v>
+      </c>
+      <c r="AX69">
+        <v>2</v>
+      </c>
+      <c r="AY69">
         <v>4</v>
       </c>
-      <c r="AW69">
+      <c r="AZ69">
         <v>4</v>
       </c>
-      <c r="AX69">
-        <v>1</v>
-      </c>
-      <c r="AY69">
-        <v>7</v>
-      </c>
-      <c r="AZ69">
-        <v>5</v>
-      </c>
       <c r="BA69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD69">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="BE69">
         <v>8.5</v>
       </c>
       <c r="BF69">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="BG69">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BH69">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="BI69">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="BJ69">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="BK69">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="BL69">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BM69">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="BN69">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="BO69">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="BP69">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15576,7 +15576,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7468936</v>
+        <v>7468932</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15585,34 +15585,34 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45570.375</v>
+        <v>45570.625</v>
       </c>
       <c r="F72">
         <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O72" t="s">
         <v>147</v>
@@ -15621,160 +15621,160 @@
         <v>187</v>
       </c>
       <c r="Q72">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S72">
         <v>5.25</v>
       </c>
       <c r="T72">
+        <v>1.44</v>
+      </c>
+      <c r="U72">
+        <v>2.6</v>
+      </c>
+      <c r="V72">
+        <v>3</v>
+      </c>
+      <c r="W72">
+        <v>1.33</v>
+      </c>
+      <c r="X72">
+        <v>7.9</v>
+      </c>
+      <c r="Y72">
+        <v>1.06</v>
+      </c>
+      <c r="Z72">
         <v>1.57</v>
       </c>
-      <c r="U72">
+      <c r="AA72">
+        <v>3.9</v>
+      </c>
+      <c r="AB72">
+        <v>5.95</v>
+      </c>
+      <c r="AC72">
+        <v>1.07</v>
+      </c>
+      <c r="AD72">
+        <v>8</v>
+      </c>
+      <c r="AE72">
+        <v>1.38</v>
+      </c>
+      <c r="AF72">
+        <v>3</v>
+      </c>
+      <c r="AG72">
+        <v>2.02</v>
+      </c>
+      <c r="AH72">
+        <v>1.71</v>
+      </c>
+      <c r="AI72">
+        <v>2</v>
+      </c>
+      <c r="AJ72">
+        <v>1.7</v>
+      </c>
+      <c r="AK72">
+        <v>1.13</v>
+      </c>
+      <c r="AL72">
+        <v>1.22</v>
+      </c>
+      <c r="AM72">
         <v>2.25</v>
       </c>
-      <c r="V72">
-        <v>3.75</v>
-      </c>
-      <c r="W72">
-        <v>1.22</v>
-      </c>
-      <c r="X72">
-        <v>10.7</v>
-      </c>
-      <c r="Y72">
-        <v>1.02</v>
-      </c>
-      <c r="Z72">
-        <v>1.75</v>
-      </c>
-      <c r="AA72">
-        <v>3</v>
-      </c>
-      <c r="AB72">
-        <v>4.75</v>
-      </c>
-      <c r="AC72">
-        <v>1.11</v>
-      </c>
-      <c r="AD72">
-        <v>6.25</v>
-      </c>
-      <c r="AE72">
-        <v>1.57</v>
-      </c>
-      <c r="AF72">
-        <v>2.4</v>
-      </c>
-      <c r="AG72">
-        <v>2.75</v>
-      </c>
-      <c r="AH72">
-        <v>1.4</v>
-      </c>
-      <c r="AI72">
-        <v>2.3</v>
-      </c>
-      <c r="AJ72">
-        <v>1.53</v>
-      </c>
-      <c r="AK72">
-        <v>1.17</v>
-      </c>
-      <c r="AL72">
-        <v>1.28</v>
-      </c>
-      <c r="AM72">
-        <v>1.93</v>
-      </c>
       <c r="AN72">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR72">
-        <v>1.23</v>
+        <v>1.72</v>
       </c>
       <c r="AS72">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AT72">
-        <v>2.46</v>
+        <v>2.97</v>
       </c>
       <c r="AU72">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV72">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW72">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY72">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AZ72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD72">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="BE72">
         <v>8.5</v>
       </c>
       <c r="BF72">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="BG72">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="BH72">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="BI72">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="BJ72">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="BK72">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="BL72">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="BM72">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="BN72">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="BO72">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="BP72">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,15 +328,15 @@
     <t>['23', '45+1', '78']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
     <t>['23']</t>
   </si>
   <si>
-    <t>['62']</t>
-  </si>
-  <si>
-    <t>['55']</t>
-  </si>
-  <si>
     <t>['37']</t>
   </si>
   <si>
@@ -349,21 +349,27 @@
     <t>['12', '77']</t>
   </si>
   <si>
+    <t>['19', '61', '79']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
     <t>['33', '68', '70']</t>
   </si>
   <si>
-    <t>['19', '61', '79']</t>
-  </si>
-  <si>
-    <t>['61']</t>
-  </si>
-  <si>
     <t>['31']</t>
   </si>
   <si>
     <t>['42', '45', '59']</t>
   </si>
   <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['21', '35']</t>
   </si>
   <si>
@@ -373,12 +379,6 @@
     <t>['21', '42', '52']</t>
   </si>
   <si>
-    <t>['80']</t>
-  </si>
-  <si>
-    <t>['6']</t>
-  </si>
-  <si>
     <t>['27']</t>
   </si>
   <si>
@@ -418,15 +418,15 @@
     <t>['9']</t>
   </si>
   <si>
+    <t>['71', '83']</t>
+  </si>
+  <si>
+    <t>['45+1', '62', '84']</t>
+  </si>
+  <si>
     <t>['39', '51']</t>
   </si>
   <si>
-    <t>['71', '83']</t>
-  </si>
-  <si>
-    <t>['45+1', '62', '84']</t>
-  </si>
-  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -439,27 +439,36 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['53', '64']</t>
+  </si>
+  <si>
+    <t>['54', '81']</t>
+  </si>
+  <si>
     <t>['84']</t>
   </si>
   <si>
-    <t>['53', '64']</t>
-  </si>
-  <si>
-    <t>['54', '81']</t>
+    <t>['9', '15', '53', '56']</t>
+  </si>
+  <si>
+    <t>['17']</t>
   </si>
   <si>
     <t>['22']</t>
   </si>
   <si>
-    <t>['17']</t>
-  </si>
-  <si>
-    <t>['9', '15', '53', '56']</t>
-  </si>
-  <si>
     <t>['15', '21', '43']</t>
   </si>
   <si>
+    <t>['15', '26', '34']</t>
+  </si>
+  <si>
+    <t>['31', '90+2']</t>
+  </si>
+  <si>
+    <t>['65', '81']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -490,12 +499,12 @@
     <t>['3', '40', '52', '60']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
-    <t>['50']</t>
-  </si>
-  <si>
     <t>['68']</t>
   </si>
   <si>
@@ -517,18 +526,18 @@
     <t>['18', '68', '85']</t>
   </si>
   <si>
+    <t>['15', '37', '69']</t>
+  </si>
+  <si>
+    <t>['4', '65']</t>
+  </si>
+  <si>
     <t>['55', '60', '66', '70']</t>
   </si>
   <si>
-    <t>['4', '65']</t>
-  </si>
-  <si>
     <t>['39', '75']</t>
   </si>
   <si>
-    <t>['15', '37', '69']</t>
-  </si>
-  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -550,12 +559,12 @@
     <t>['70']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
     <t>['10', '82']</t>
   </si>
   <si>
-    <t>['30']</t>
-  </si>
-  <si>
     <t>['20', '45+1', '57']</t>
   </si>
   <si>
@@ -568,16 +577,28 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['35', '87']</t>
+  </si>
+  <si>
     <t>['45+1']</t>
   </si>
   <si>
-    <t>['35', '87']</t>
-  </si>
-  <si>
-    <t>['88']</t>
-  </si>
-  <si>
     <t>['45+2', '76']</t>
+  </si>
+  <si>
+    <t>['56', '68']</t>
+  </si>
+  <si>
+    <t>['11', '63']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['9', '12']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1219,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1279,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1485,7 +1506,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1610,7 +1631,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2022,7 +2043,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2100,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ6">
         <v>1.4</v>
@@ -2306,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
         <v>0.2</v>
@@ -2434,7 +2455,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2640,7 +2661,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2718,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ9">
         <v>1.4</v>
@@ -2846,7 +2867,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3052,7 +3073,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3258,7 +3279,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3336,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3464,7 +3485,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3545,7 +3566,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3751,7 +3772,7 @@
         <v>3</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3954,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -4082,7 +4103,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4288,7 +4309,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4369,7 +4390,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4906,7 +4927,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5112,7 +5133,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5318,7 +5339,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5396,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22">
         <v>0.8</v>
@@ -5482,7 +5503,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7468888</v>
+        <v>7468886</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5497,190 +5518,190 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="Q23">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="R23">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S23">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T23">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U23">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="V23">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="W23">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="X23">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="Y23">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z23">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AA23">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AB23">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AC23">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AD23">
-        <v>8.9</v>
+        <v>10.25</v>
       </c>
       <c r="AE23">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AF23">
-        <v>3.22</v>
+        <v>3.43</v>
       </c>
       <c r="AG23">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="AH23">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
       <c r="AI23">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AJ23">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AK23">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AL23">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AM23">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AN23">
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="AQ23">
+        <v>1.33</v>
+      </c>
+      <c r="AR23">
+        <v>0.67</v>
+      </c>
+      <c r="AS23">
         <v>0.75</v>
       </c>
-      <c r="AR23">
-        <v>2.13</v>
-      </c>
-      <c r="AS23">
-        <v>0.73</v>
-      </c>
       <c r="AT23">
-        <v>2.86</v>
+        <v>1.42</v>
       </c>
       <c r="AU23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX23">
         <v>5</v>
       </c>
       <c r="AY23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BC23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD23">
+        <v>1.95</v>
+      </c>
+      <c r="BE23">
+        <v>7.5</v>
+      </c>
+      <c r="BF23">
         <v>2.1</v>
       </c>
-      <c r="BE23">
-        <v>8</v>
-      </c>
-      <c r="BF23">
-        <v>2</v>
-      </c>
       <c r="BG23">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="BH23">
-        <v>3.56</v>
+        <v>2.84</v>
       </c>
       <c r="BI23">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="BJ23">
-        <v>2.55</v>
+        <v>2.11</v>
       </c>
       <c r="BK23">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="BL23">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="BM23">
-        <v>2.29</v>
+        <v>2.84</v>
       </c>
       <c r="BN23">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="BO23">
-        <v>3.04</v>
+        <v>3.92</v>
       </c>
       <c r="BP23">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5727,10 +5748,10 @@
         <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5894,7 +5915,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7468886</v>
+        <v>7468885</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5909,10 +5930,10 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5924,157 +5945,157 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q25">
-        <v>3.25</v>
+        <v>2.83</v>
       </c>
       <c r="R25">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S25">
-        <v>3.4</v>
+        <v>3.74</v>
       </c>
       <c r="T25">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U25">
-        <v>2.63</v>
+        <v>2.78</v>
       </c>
       <c r="V25">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="W25">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X25">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="Y25">
         <v>1.07</v>
       </c>
       <c r="Z25">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="AA25">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AB25">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="AC25">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AD25">
-        <v>10.25</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE25">
+        <v>1.28</v>
+      </c>
+      <c r="AF25">
+        <v>3.18</v>
+      </c>
+      <c r="AG25">
+        <v>1.97</v>
+      </c>
+      <c r="AH25">
+        <v>1.79</v>
+      </c>
+      <c r="AI25">
+        <v>1.77</v>
+      </c>
+      <c r="AJ25">
+        <v>1.98</v>
+      </c>
+      <c r="AK25">
+        <v>1.36</v>
+      </c>
+      <c r="AL25">
         <v>1.32</v>
       </c>
-      <c r="AF25">
-        <v>3.43</v>
-      </c>
-      <c r="AG25">
-        <v>2.16</v>
-      </c>
-      <c r="AH25">
-        <v>1.66</v>
-      </c>
-      <c r="AI25">
-        <v>1.73</v>
-      </c>
-      <c r="AJ25">
-        <v>2</v>
-      </c>
-      <c r="AK25">
-        <v>1.45</v>
-      </c>
-      <c r="AL25">
-        <v>1.38</v>
-      </c>
       <c r="AM25">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO25">
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.25</v>
+        <v>2.6</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR25">
-        <v>0.67</v>
+        <v>1.19</v>
       </c>
       <c r="AS25">
-        <v>0.75</v>
+        <v>1.31</v>
       </c>
       <c r="AT25">
-        <v>1.42</v>
+        <v>2.5</v>
       </c>
       <c r="AU25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV25">
+        <v>6</v>
+      </c>
+      <c r="AW25">
+        <v>3</v>
+      </c>
+      <c r="AX25">
+        <v>6</v>
+      </c>
+      <c r="AY25">
+        <v>8</v>
+      </c>
+      <c r="AZ25">
+        <v>12</v>
+      </c>
+      <c r="BA25">
         <v>5</v>
       </c>
-      <c r="AW25">
-        <v>6</v>
-      </c>
-      <c r="AX25">
-        <v>5</v>
-      </c>
-      <c r="AY25">
-        <v>12</v>
-      </c>
-      <c r="AZ25">
-        <v>10</v>
-      </c>
-      <c r="BA25">
+      <c r="BB25">
+        <v>11</v>
+      </c>
+      <c r="BC25">
+        <v>16</v>
+      </c>
+      <c r="BD25">
+        <v>1.69</v>
+      </c>
+      <c r="BE25">
         <v>8</v>
       </c>
-      <c r="BB25">
-        <v>3</v>
-      </c>
-      <c r="BC25">
-        <v>11</v>
-      </c>
-      <c r="BD25">
-        <v>1.95</v>
-      </c>
-      <c r="BE25">
-        <v>7.5</v>
-      </c>
       <c r="BF25">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="BG25">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="BH25">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="BI25">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="BJ25">
-        <v>2.11</v>
+        <v>2.34</v>
       </c>
       <c r="BK25">
         <v>2.05</v>
@@ -6083,16 +6104,16 @@
         <v>1.7</v>
       </c>
       <c r="BM25">
-        <v>2.84</v>
+        <v>2.49</v>
       </c>
       <c r="BN25">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="BO25">
-        <v>3.92</v>
+        <v>3.34</v>
       </c>
       <c r="BP25">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -6100,7 +6121,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7468885</v>
+        <v>7468888</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6115,49 +6136,49 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" t="s">
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="Q26">
-        <v>2.83</v>
+        <v>3.35</v>
       </c>
       <c r="R26">
         <v>2.12</v>
       </c>
       <c r="S26">
-        <v>3.74</v>
+        <v>3.1</v>
       </c>
       <c r="T26">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="U26">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="V26">
         <v>2.86</v>
@@ -6166,139 +6187,139 @@
         <v>1.39</v>
       </c>
       <c r="X26">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Y26">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z26">
-        <v>2.15</v>
+        <v>2.65</v>
       </c>
       <c r="AA26">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="AB26">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="AC26">
         <v>1.02</v>
       </c>
       <c r="AD26">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="AE26">
         <v>1.28</v>
       </c>
       <c r="AF26">
-        <v>3.18</v>
+        <v>3.22</v>
       </c>
       <c r="AG26">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AH26">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AI26">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AJ26">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="AK26">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="AL26">
         <v>1.32</v>
       </c>
       <c r="AM26">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="AN26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR26">
-        <v>1.19</v>
+        <v>2.13</v>
       </c>
       <c r="AS26">
-        <v>1.31</v>
+        <v>0.73</v>
       </c>
       <c r="AT26">
-        <v>2.5</v>
+        <v>2.86</v>
       </c>
       <c r="AU26">
+        <v>4</v>
+      </c>
+      <c r="AV26">
+        <v>2</v>
+      </c>
+      <c r="AW26">
+        <v>7</v>
+      </c>
+      <c r="AX26">
         <v>5</v>
       </c>
-      <c r="AV26">
-        <v>6</v>
-      </c>
-      <c r="AW26">
-        <v>3</v>
-      </c>
-      <c r="AX26">
-        <v>6</v>
-      </c>
       <c r="AY26">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ26">
+        <v>13</v>
+      </c>
+      <c r="BA26">
+        <v>3</v>
+      </c>
+      <c r="BB26">
+        <v>9</v>
+      </c>
+      <c r="BC26">
         <v>12</v>
       </c>
-      <c r="BA26">
-        <v>5</v>
-      </c>
-      <c r="BB26">
-        <v>11</v>
-      </c>
-      <c r="BC26">
-        <v>16</v>
-      </c>
       <c r="BD26">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="BE26">
         <v>8</v>
       </c>
       <c r="BF26">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="BG26">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="BH26">
-        <v>3.2</v>
+        <v>3.56</v>
       </c>
       <c r="BI26">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="BJ26">
-        <v>2.34</v>
+        <v>2.55</v>
       </c>
       <c r="BK26">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="BL26">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="BM26">
-        <v>2.49</v>
+        <v>2.29</v>
       </c>
       <c r="BN26">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="BO26">
-        <v>3.34</v>
+        <v>3.04</v>
       </c>
       <c r="BP26">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6554,7 +6575,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6838,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -6966,7 +6987,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7172,7 +7193,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7253,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.38</v>
@@ -7336,7 +7357,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7468898</v>
+        <v>7468899</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7351,10 +7372,10 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -7381,160 +7402,160 @@
         <v>90</v>
       </c>
       <c r="Q32">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+      <c r="T32">
+        <v>1.48</v>
+      </c>
+      <c r="U32">
+        <v>2.45</v>
+      </c>
+      <c r="V32">
+        <v>3.2</v>
+      </c>
+      <c r="W32">
+        <v>1.3</v>
+      </c>
+      <c r="X32">
+        <v>8.4</v>
+      </c>
+      <c r="Y32">
+        <v>1.05</v>
+      </c>
+      <c r="Z32">
         <v>2.2</v>
       </c>
-      <c r="S32">
-        <v>4.5</v>
-      </c>
-      <c r="T32">
+      <c r="AA32">
+        <v>3.05</v>
+      </c>
+      <c r="AB32">
+        <v>3.15</v>
+      </c>
+      <c r="AC32">
+        <v>1.07</v>
+      </c>
+      <c r="AD32">
+        <v>8</v>
+      </c>
+      <c r="AE32">
         <v>1.4</v>
       </c>
-      <c r="U32">
-        <v>2.75</v>
-      </c>
-      <c r="V32">
-        <v>3</v>
-      </c>
-      <c r="W32">
-        <v>1.36</v>
-      </c>
-      <c r="X32">
-        <v>8</v>
-      </c>
-      <c r="Y32">
-        <v>1.08</v>
-      </c>
-      <c r="Z32">
-        <v>2</v>
-      </c>
-      <c r="AA32">
-        <v>3.1</v>
-      </c>
-      <c r="AB32">
-        <v>3.85</v>
-      </c>
-      <c r="AC32">
-        <v>1.06</v>
-      </c>
-      <c r="AD32">
+      <c r="AF32">
+        <v>2.9</v>
+      </c>
+      <c r="AG32">
+        <v>2.09</v>
+      </c>
+      <c r="AH32">
+        <v>1.66</v>
+      </c>
+      <c r="AI32">
+        <v>1.9</v>
+      </c>
+      <c r="AJ32">
+        <v>1.77</v>
+      </c>
+      <c r="AK32">
+        <v>1.28</v>
+      </c>
+      <c r="AL32">
+        <v>1.28</v>
+      </c>
+      <c r="AM32">
+        <v>1.7</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>2.25</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>2.15</v>
+      </c>
+      <c r="AS32">
+        <v>1.1</v>
+      </c>
+      <c r="AT32">
+        <v>3.25</v>
+      </c>
+      <c r="AU32">
+        <v>6</v>
+      </c>
+      <c r="AV32">
+        <v>5</v>
+      </c>
+      <c r="AW32">
+        <v>4</v>
+      </c>
+      <c r="AX32">
+        <v>6</v>
+      </c>
+      <c r="AY32">
+        <v>10</v>
+      </c>
+      <c r="AZ32">
+        <v>13</v>
+      </c>
+      <c r="BA32">
+        <v>6</v>
+      </c>
+      <c r="BB32">
+        <v>7</v>
+      </c>
+      <c r="BC32">
+        <v>13</v>
+      </c>
+      <c r="BD32">
+        <v>1.45</v>
+      </c>
+      <c r="BE32">
         <v>8.5</v>
       </c>
-      <c r="AE32">
-        <v>1.33</v>
-      </c>
-      <c r="AF32">
-        <v>3.25</v>
-      </c>
-      <c r="AG32">
-        <v>2.03</v>
-      </c>
-      <c r="AH32">
-        <v>1.83</v>
-      </c>
-      <c r="AI32">
-        <v>1.83</v>
-      </c>
-      <c r="AJ32">
-        <v>1.83</v>
-      </c>
-      <c r="AK32">
-        <v>1.22</v>
-      </c>
-      <c r="AL32">
-        <v>1.32</v>
-      </c>
-      <c r="AM32">
-        <v>1.9</v>
-      </c>
-      <c r="AN32">
-        <v>3</v>
-      </c>
-      <c r="AO32">
-        <v>3</v>
-      </c>
-      <c r="AP32">
-        <v>3</v>
-      </c>
-      <c r="AQ32">
-        <v>1</v>
-      </c>
-      <c r="AR32">
-        <v>0.82</v>
-      </c>
-      <c r="AS32">
-        <v>1.24</v>
-      </c>
-      <c r="AT32">
-        <v>2.06</v>
-      </c>
-      <c r="AU32">
-        <v>10</v>
-      </c>
-      <c r="AV32">
-        <v>4</v>
-      </c>
-      <c r="AW32">
-        <v>7</v>
-      </c>
-      <c r="AX32">
-        <v>5</v>
-      </c>
-      <c r="AY32">
-        <v>19</v>
-      </c>
-      <c r="AZ32">
-        <v>9</v>
-      </c>
-      <c r="BA32">
-        <v>5</v>
-      </c>
-      <c r="BB32">
-        <v>3</v>
-      </c>
-      <c r="BC32">
-        <v>8</v>
-      </c>
-      <c r="BD32">
-        <v>1.37</v>
-      </c>
-      <c r="BE32">
-        <v>9</v>
-      </c>
       <c r="BF32">
-        <v>3.7</v>
+        <v>3.29</v>
       </c>
       <c r="BG32">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BH32">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BI32">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="BJ32">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="BK32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BL32">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BM32">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="BN32">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="BO32">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="BP32">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -7542,7 +7563,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7468899</v>
+        <v>7468897</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -7557,25 +7578,25 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33">
         <v>3</v>
@@ -7584,43 +7605,43 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="Q33">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="R33">
         <v>2</v>
       </c>
       <c r="S33">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="T33">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="U33">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="V33">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="W33">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X33">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="Y33">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z33">
-        <v>2.2</v>
+        <v>2.95</v>
       </c>
       <c r="AA33">
         <v>3.05</v>
       </c>
       <c r="AB33">
-        <v>3.15</v>
+        <v>2.35</v>
       </c>
       <c r="AC33">
         <v>1.07</v>
@@ -7629,118 +7650,118 @@
         <v>8</v>
       </c>
       <c r="AE33">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AF33">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AG33">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="AH33">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="AI33">
+        <v>1.77</v>
+      </c>
+      <c r="AJ33">
         <v>1.9</v>
       </c>
-      <c r="AJ33">
-        <v>1.77</v>
-      </c>
       <c r="AK33">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AL33">
         <v>1.28</v>
       </c>
       <c r="AM33">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="AN33">
         <v>0</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
-        <v>2.15</v>
+        <v>1.69</v>
       </c>
       <c r="AS33">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="AT33">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="AU33">
+        <v>9</v>
+      </c>
+      <c r="AV33">
         <v>6</v>
       </c>
-      <c r="AV33">
+      <c r="AW33">
+        <v>9</v>
+      </c>
+      <c r="AX33">
+        <v>3</v>
+      </c>
+      <c r="AY33">
+        <v>21</v>
+      </c>
+      <c r="AZ33">
+        <v>15</v>
+      </c>
+      <c r="BA33">
         <v>5</v>
       </c>
-      <c r="AW33">
-        <v>4</v>
-      </c>
-      <c r="AX33">
-        <v>6</v>
-      </c>
-      <c r="AY33">
+      <c r="BB33">
+        <v>5</v>
+      </c>
+      <c r="BC33">
         <v>10</v>
       </c>
-      <c r="AZ33">
-        <v>13</v>
-      </c>
-      <c r="BA33">
-        <v>6</v>
-      </c>
-      <c r="BB33">
-        <v>7</v>
-      </c>
-      <c r="BC33">
-        <v>13</v>
-      </c>
       <c r="BD33">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="BE33">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF33">
-        <v>3.29</v>
+        <v>2.28</v>
       </c>
       <c r="BG33">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="BH33">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="BI33">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="BJ33">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BK33">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="BL33">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="BM33">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="BN33">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BO33">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="BP33">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="34" spans="1:68">
@@ -7868,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ34">
         <v>0.2</v>
@@ -7954,7 +7975,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7468897</v>
+        <v>7468898</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7969,25 +7990,25 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -7996,163 +8017,163 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="Q35">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S35">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="T35">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="U35">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="V35">
         <v>3</v>
       </c>
       <c r="W35">
+        <v>1.36</v>
+      </c>
+      <c r="X35">
+        <v>8</v>
+      </c>
+      <c r="Y35">
+        <v>1.08</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>3.1</v>
+      </c>
+      <c r="AB35">
+        <v>3.85</v>
+      </c>
+      <c r="AC35">
+        <v>1.06</v>
+      </c>
+      <c r="AD35">
+        <v>8.5</v>
+      </c>
+      <c r="AE35">
         <v>1.33</v>
       </c>
-      <c r="X35">
-        <v>8.1</v>
-      </c>
-      <c r="Y35">
-        <v>1.06</v>
-      </c>
-      <c r="Z35">
-        <v>2.95</v>
-      </c>
-      <c r="AA35">
-        <v>3.05</v>
-      </c>
-      <c r="AB35">
-        <v>2.35</v>
-      </c>
-      <c r="AC35">
-        <v>1.07</v>
-      </c>
-      <c r="AD35">
-        <v>8</v>
-      </c>
-      <c r="AE35">
-        <v>1.38</v>
-      </c>
       <c r="AF35">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AG35">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AH35">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AI35">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AJ35">
+        <v>1.83</v>
+      </c>
+      <c r="AK35">
+        <v>1.22</v>
+      </c>
+      <c r="AL35">
+        <v>1.32</v>
+      </c>
+      <c r="AM35">
         <v>1.9</v>
       </c>
-      <c r="AK35">
-        <v>1.48</v>
-      </c>
-      <c r="AL35">
-        <v>1.28</v>
-      </c>
-      <c r="AM35">
-        <v>1.44</v>
-      </c>
       <c r="AN35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO35">
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR35">
-        <v>1.69</v>
+        <v>0.82</v>
       </c>
       <c r="AS35">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="AT35">
-        <v>3.22</v>
+        <v>2.06</v>
       </c>
       <c r="AU35">
+        <v>10</v>
+      </c>
+      <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>7</v>
+      </c>
+      <c r="AX35">
+        <v>5</v>
+      </c>
+      <c r="AY35">
+        <v>19</v>
+      </c>
+      <c r="AZ35">
         <v>9</v>
-      </c>
-      <c r="AV35">
-        <v>6</v>
-      </c>
-      <c r="AW35">
-        <v>9</v>
-      </c>
-      <c r="AX35">
-        <v>3</v>
-      </c>
-      <c r="AY35">
-        <v>21</v>
-      </c>
-      <c r="AZ35">
-        <v>15</v>
       </c>
       <c r="BA35">
         <v>5</v>
       </c>
       <c r="BB35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD35">
-        <v>1.85</v>
+        <v>1.37</v>
       </c>
       <c r="BE35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF35">
-        <v>2.28</v>
+        <v>3.7</v>
       </c>
       <c r="BG35">
+        <v>1.3</v>
+      </c>
+      <c r="BH35">
+        <v>3.3</v>
+      </c>
+      <c r="BI35">
+        <v>1.56</v>
+      </c>
+      <c r="BJ35">
+        <v>2.33</v>
+      </c>
+      <c r="BK35">
+        <v>2</v>
+      </c>
+      <c r="BL35">
+        <v>1.8</v>
+      </c>
+      <c r="BM35">
+        <v>2.63</v>
+      </c>
+      <c r="BN35">
+        <v>1.45</v>
+      </c>
+      <c r="BO35">
+        <v>3.65</v>
+      </c>
+      <c r="BP35">
         <v>1.26</v>
-      </c>
-      <c r="BH35">
-        <v>3.65</v>
-      </c>
-      <c r="BI35">
-        <v>1.48</v>
-      </c>
-      <c r="BJ35">
-        <v>2.55</v>
-      </c>
-      <c r="BK35">
-        <v>1.88</v>
-      </c>
-      <c r="BL35">
-        <v>1.92</v>
-      </c>
-      <c r="BM35">
-        <v>2.43</v>
-      </c>
-      <c r="BN35">
-        <v>1.52</v>
-      </c>
-      <c r="BO35">
-        <v>3.3</v>
-      </c>
-      <c r="BP35">
-        <v>1.3</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8202,7 +8223,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8283,7 +8304,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.66</v>
@@ -8408,7 +8429,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8486,10 +8507,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR37">
         <v>1.13</v>
@@ -8614,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8695,7 +8716,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -8778,7 +8799,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7468903</v>
+        <v>7468911</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8793,10 +8814,10 @@
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -8808,175 +8829,175 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>116</v>
+      </c>
+      <c r="P39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>4.33</v>
+      </c>
+      <c r="T39">
+        <v>1.53</v>
+      </c>
+      <c r="U39">
+        <v>2.38</v>
+      </c>
+      <c r="V39">
+        <v>3.5</v>
+      </c>
+      <c r="W39">
+        <v>1.29</v>
+      </c>
+      <c r="X39">
+        <v>11</v>
+      </c>
+      <c r="Y39">
+        <v>1.05</v>
+      </c>
+      <c r="Z39">
+        <v>2</v>
+      </c>
+      <c r="AA39">
+        <v>3.25</v>
+      </c>
+      <c r="AB39">
+        <v>3.75</v>
+      </c>
+      <c r="AC39">
+        <v>1.08</v>
+      </c>
+      <c r="AD39">
+        <v>6.5</v>
+      </c>
+      <c r="AE39">
+        <v>1.48</v>
+      </c>
+      <c r="AF39">
+        <v>2.5</v>
+      </c>
+      <c r="AG39">
+        <v>2.43</v>
+      </c>
+      <c r="AH39">
+        <v>1.52</v>
+      </c>
+      <c r="AI39">
+        <v>2.2</v>
+      </c>
+      <c r="AJ39">
+        <v>1.62</v>
+      </c>
+      <c r="AK39">
+        <v>1.28</v>
+      </c>
+      <c r="AL39">
+        <v>1.35</v>
+      </c>
+      <c r="AM39">
+        <v>1.72</v>
+      </c>
+      <c r="AN39">
+        <v>0.5</v>
+      </c>
+      <c r="AO39">
+        <v>0.5</v>
+      </c>
+      <c r="AP39">
+        <v>1.4</v>
+      </c>
+      <c r="AQ39">
+        <v>0.25</v>
+      </c>
+      <c r="AR39">
+        <v>1.25</v>
+      </c>
+      <c r="AS39">
+        <v>1.25</v>
+      </c>
+      <c r="AT39">
+        <v>2.5</v>
+      </c>
+      <c r="AU39">
+        <v>8</v>
+      </c>
+      <c r="AV39">
+        <v>3</v>
+      </c>
+      <c r="AW39">
         <v>4</v>
       </c>
-      <c r="N39">
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>18</v>
+      </c>
+      <c r="AZ39">
         <v>4</v>
       </c>
-      <c r="O39" t="s">
-        <v>90</v>
-      </c>
-      <c r="P39" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q39">
-        <v>3.4</v>
-      </c>
-      <c r="R39">
-        <v>2.1</v>
-      </c>
-      <c r="S39">
-        <v>3.2</v>
-      </c>
-      <c r="T39">
-        <v>1.44</v>
-      </c>
-      <c r="U39">
-        <v>2.63</v>
-      </c>
-      <c r="V39">
-        <v>3.25</v>
-      </c>
-      <c r="W39">
-        <v>1.33</v>
-      </c>
-      <c r="X39">
-        <v>9</v>
-      </c>
-      <c r="Y39">
-        <v>1.07</v>
-      </c>
-      <c r="Z39">
-        <v>2.88</v>
-      </c>
-      <c r="AA39">
-        <v>3.15</v>
-      </c>
-      <c r="AB39">
-        <v>2.45</v>
-      </c>
-      <c r="AC39">
-        <v>1.05</v>
-      </c>
-      <c r="AD39">
-        <v>8</v>
-      </c>
-      <c r="AE39">
-        <v>1.3</v>
-      </c>
-      <c r="AF39">
-        <v>3.2</v>
-      </c>
-      <c r="AG39">
+      <c r="BA39">
+        <v>10</v>
+      </c>
+      <c r="BB39">
+        <v>1</v>
+      </c>
+      <c r="BC39">
+        <v>11</v>
+      </c>
+      <c r="BD39">
+        <v>1.62</v>
+      </c>
+      <c r="BE39">
+        <v>8.4</v>
+      </c>
+      <c r="BF39">
+        <v>2.86</v>
+      </c>
+      <c r="BG39">
+        <v>1.37</v>
+      </c>
+      <c r="BH39">
+        <v>2.95</v>
+      </c>
+      <c r="BI39">
+        <v>1.67</v>
+      </c>
+      <c r="BJ39">
+        <v>2.12</v>
+      </c>
+      <c r="BK39">
         <v>2.16</v>
       </c>
-      <c r="AH39">
-        <v>1.66</v>
-      </c>
-      <c r="AI39">
-        <v>1.83</v>
-      </c>
-      <c r="AJ39">
-        <v>1.83</v>
-      </c>
-      <c r="AK39">
-        <v>1.51</v>
-      </c>
-      <c r="AL39">
-        <v>1.33</v>
-      </c>
-      <c r="AM39">
-        <v>1.45</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>0.25</v>
-      </c>
-      <c r="AQ39">
-        <v>0.75</v>
-      </c>
-      <c r="AR39">
-        <v>0.8</v>
-      </c>
-      <c r="AS39">
-        <v>1.08</v>
-      </c>
-      <c r="AT39">
-        <v>1.88</v>
-      </c>
-      <c r="AU39">
-        <v>7</v>
-      </c>
-      <c r="AV39">
-        <v>6</v>
-      </c>
-      <c r="AW39">
-        <v>2</v>
-      </c>
-      <c r="AX39">
-        <v>6</v>
-      </c>
-      <c r="AY39">
-        <v>13</v>
-      </c>
-      <c r="AZ39">
-        <v>19</v>
-      </c>
-      <c r="BA39">
-        <v>2</v>
-      </c>
-      <c r="BB39">
-        <v>5</v>
-      </c>
-      <c r="BC39">
-        <v>7</v>
-      </c>
-      <c r="BD39">
-        <v>2.39</v>
-      </c>
-      <c r="BE39">
-        <v>6.35</v>
-      </c>
-      <c r="BF39">
-        <v>1.96</v>
-      </c>
-      <c r="BG39">
-        <v>1.32</v>
-      </c>
-      <c r="BH39">
-        <v>3.2</v>
-      </c>
-      <c r="BI39">
-        <v>1.58</v>
-      </c>
-      <c r="BJ39">
-        <v>2.28</v>
-      </c>
-      <c r="BK39">
-        <v>2.02</v>
-      </c>
       <c r="BL39">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="BM39">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="BN39">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="BO39">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="BP39">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -8984,7 +9005,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7468904</v>
+        <v>7468910</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -8999,190 +9020,190 @@
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="Q40">
-        <v>3.72</v>
+        <v>3.5</v>
       </c>
       <c r="R40">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>3.13</v>
+        <v>3.5</v>
       </c>
       <c r="T40">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U40">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="V40">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="W40">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="X40">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="Y40">
         <v>1.05</v>
       </c>
       <c r="Z40">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="AA40">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AB40">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="AC40">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD40">
-        <v>8.949999999999999</v>
+        <v>7</v>
       </c>
       <c r="AE40">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AF40">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AG40">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="AH40">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AI40">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AJ40">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="AK40">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AL40">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AM40">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AN40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO40">
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ40">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AR40">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AS40">
-        <v>1.29</v>
+        <v>0.82</v>
       </c>
       <c r="AT40">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="AU40">
         <v>6</v>
       </c>
       <c r="AV40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW40">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AX40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AY40">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC40">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD40">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="BE40">
-        <v>7.5</v>
+        <v>6.45</v>
       </c>
       <c r="BF40">
+        <v>2.32</v>
+      </c>
+      <c r="BG40">
+        <v>1.27</v>
+      </c>
+      <c r="BH40">
+        <v>3.55</v>
+      </c>
+      <c r="BI40">
+        <v>1.5</v>
+      </c>
+      <c r="BJ40">
+        <v>2.48</v>
+      </c>
+      <c r="BK40">
         <v>1.95</v>
       </c>
-      <c r="BG40">
-        <v>1.36</v>
-      </c>
-      <c r="BH40">
-        <v>3</v>
-      </c>
-      <c r="BI40">
-        <v>1.65</v>
-      </c>
-      <c r="BJ40">
-        <v>2.16</v>
-      </c>
-      <c r="BK40">
-        <v>2.12</v>
-      </c>
       <c r="BL40">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="BM40">
-        <v>2.88</v>
+        <v>2.45</v>
       </c>
       <c r="BN40">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BO40">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="BP40">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9190,7 +9211,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7468905</v>
+        <v>7468907</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9205,190 +9226,190 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41">
         <v>2</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q41">
+        <v>2.75</v>
+      </c>
+      <c r="R41">
+        <v>2.2</v>
+      </c>
+      <c r="S41">
+        <v>3.75</v>
+      </c>
+      <c r="T41">
+        <v>1.4</v>
+      </c>
+      <c r="U41">
+        <v>2.75</v>
+      </c>
+      <c r="V41">
+        <v>2.75</v>
+      </c>
+      <c r="W41">
+        <v>1.4</v>
+      </c>
+      <c r="X41">
+        <v>8</v>
+      </c>
+      <c r="Y41">
+        <v>1.08</v>
+      </c>
+      <c r="Z41">
+        <v>2</v>
+      </c>
+      <c r="AA41">
+        <v>3.4</v>
+      </c>
+      <c r="AB41">
+        <v>3.6</v>
+      </c>
+      <c r="AC41">
+        <v>1.03</v>
+      </c>
+      <c r="AD41">
+        <v>9</v>
+      </c>
+      <c r="AE41">
+        <v>1.25</v>
+      </c>
+      <c r="AF41">
+        <v>3.6</v>
+      </c>
+      <c r="AG41">
+        <v>2.1</v>
+      </c>
+      <c r="AH41">
+        <v>1.68</v>
+      </c>
+      <c r="AI41">
+        <v>1.73</v>
+      </c>
+      <c r="AJ41">
+        <v>2</v>
+      </c>
+      <c r="AK41">
+        <v>1.36</v>
+      </c>
+      <c r="AL41">
+        <v>1.31</v>
+      </c>
+      <c r="AM41">
+        <v>1.66</v>
+      </c>
+      <c r="AN41">
+        <v>3</v>
+      </c>
+      <c r="AO41">
+        <v>0.5</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AQ41">
+        <v>1.4</v>
+      </c>
+      <c r="AR41">
+        <v>0.8</v>
+      </c>
+      <c r="AS41">
+        <v>1.14</v>
+      </c>
+      <c r="AT41">
+        <v>1.94</v>
+      </c>
+      <c r="AU41">
+        <v>3</v>
+      </c>
+      <c r="AV41">
+        <v>6</v>
+      </c>
+      <c r="AW41">
+        <v>8</v>
+      </c>
+      <c r="AX41">
         <v>4</v>
       </c>
-      <c r="O41" t="s">
-        <v>117</v>
-      </c>
-      <c r="P41" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q41">
-        <v>2.5</v>
-      </c>
-      <c r="R41">
-        <v>2.05</v>
-      </c>
-      <c r="S41">
-        <v>4.33</v>
-      </c>
-      <c r="T41">
-        <v>1.42</v>
-      </c>
-      <c r="U41">
-        <v>2.65</v>
-      </c>
-      <c r="V41">
-        <v>2.88</v>
-      </c>
-      <c r="W41">
-        <v>1.36</v>
-      </c>
-      <c r="X41">
-        <v>7.8</v>
-      </c>
-      <c r="Y41">
-        <v>1.06</v>
-      </c>
-      <c r="Z41">
-        <v>1.82</v>
-      </c>
-      <c r="AA41">
-        <v>3.5</v>
-      </c>
-      <c r="AB41">
-        <v>4.25</v>
-      </c>
-      <c r="AC41">
-        <v>1.06</v>
-      </c>
-      <c r="AD41">
-        <v>8.5</v>
-      </c>
-      <c r="AE41">
-        <v>1.35</v>
-      </c>
-      <c r="AF41">
-        <v>3.1</v>
-      </c>
-      <c r="AG41">
-        <v>2.07</v>
-      </c>
-      <c r="AH41">
-        <v>1.71</v>
-      </c>
-      <c r="AI41">
-        <v>1.83</v>
-      </c>
-      <c r="AJ41">
-        <v>1.85</v>
-      </c>
-      <c r="AK41">
-        <v>1.22</v>
-      </c>
-      <c r="AL41">
-        <v>1.25</v>
-      </c>
-      <c r="AM41">
-        <v>1.85</v>
-      </c>
-      <c r="AN41">
+      <c r="AY41">
+        <v>14</v>
+      </c>
+      <c r="AZ41">
+        <v>14</v>
+      </c>
+      <c r="BA41">
+        <v>2</v>
+      </c>
+      <c r="BB41">
+        <v>5</v>
+      </c>
+      <c r="BC41">
+        <v>7</v>
+      </c>
+      <c r="BD41">
+        <v>1.91</v>
+      </c>
+      <c r="BE41">
+        <v>6.45</v>
+      </c>
+      <c r="BF41">
+        <v>2.46</v>
+      </c>
+      <c r="BG41">
+        <v>1.27</v>
+      </c>
+      <c r="BH41">
+        <v>3.55</v>
+      </c>
+      <c r="BI41">
         <v>1.5</v>
       </c>
-      <c r="AO41">
-        <v>2</v>
-      </c>
-      <c r="AP41">
-        <v>1.75</v>
-      </c>
-      <c r="AQ41">
+      <c r="BJ41">
+        <v>2.48</v>
+      </c>
+      <c r="BK41">
+        <v>1.9</v>
+      </c>
+      <c r="BL41">
+        <v>1.9</v>
+      </c>
+      <c r="BM41">
+        <v>2.45</v>
+      </c>
+      <c r="BN41">
         <v>1.5</v>
       </c>
-      <c r="AR41">
-        <v>1.73</v>
-      </c>
-      <c r="AS41">
-        <v>1.38</v>
-      </c>
-      <c r="AT41">
-        <v>3.11</v>
-      </c>
-      <c r="AU41">
-        <v>9</v>
-      </c>
-      <c r="AV41">
-        <v>5</v>
-      </c>
-      <c r="AW41">
-        <v>3</v>
-      </c>
-      <c r="AX41">
-        <v>1</v>
-      </c>
-      <c r="AY41">
-        <v>15</v>
-      </c>
-      <c r="AZ41">
-        <v>9</v>
-      </c>
-      <c r="BA41">
-        <v>6</v>
-      </c>
-      <c r="BB41">
-        <v>4</v>
-      </c>
-      <c r="BC41">
-        <v>10</v>
-      </c>
-      <c r="BD41">
-        <v>1.68</v>
-      </c>
-      <c r="BE41">
-        <v>8.5</v>
-      </c>
-      <c r="BF41">
-        <v>2.68</v>
-      </c>
-      <c r="BG41">
+      <c r="BO41">
+        <v>3.4</v>
+      </c>
+      <c r="BP41">
         <v>1.29</v>
-      </c>
-      <c r="BH41">
-        <v>3.4</v>
-      </c>
-      <c r="BI41">
-        <v>1.53</v>
-      </c>
-      <c r="BJ41">
-        <v>2.4</v>
-      </c>
-      <c r="BK41">
-        <v>2</v>
-      </c>
-      <c r="BL41">
-        <v>1.8</v>
-      </c>
-      <c r="BM41">
-        <v>2.55</v>
-      </c>
-      <c r="BN41">
-        <v>1.48</v>
-      </c>
-      <c r="BO41">
-        <v>3.5</v>
-      </c>
-      <c r="BP41">
-        <v>1.27</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9396,7 +9417,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7468906</v>
+        <v>7468904</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9411,10 +9432,10 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -9426,175 +9447,175 @@
         <v>3</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O42" t="s">
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="Q42">
-        <v>3.25</v>
+        <v>3.72</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="S42">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="T42">
         <v>1.44</v>
       </c>
       <c r="U42">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="V42">
-        <v>2.95</v>
+        <v>3.23</v>
       </c>
       <c r="W42">
+        <v>1.32</v>
+      </c>
+      <c r="X42">
+        <v>8.4</v>
+      </c>
+      <c r="Y42">
+        <v>1.05</v>
+      </c>
+      <c r="Z42">
+        <v>3.05</v>
+      </c>
+      <c r="AA42">
+        <v>3</v>
+      </c>
+      <c r="AB42">
+        <v>2.45</v>
+      </c>
+      <c r="AC42">
+        <v>1.08</v>
+      </c>
+      <c r="AD42">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AE42">
+        <v>1.4</v>
+      </c>
+      <c r="AF42">
+        <v>3</v>
+      </c>
+      <c r="AG42">
+        <v>2.18</v>
+      </c>
+      <c r="AH42">
+        <v>1.65</v>
+      </c>
+      <c r="AI42">
+        <v>1.89</v>
+      </c>
+      <c r="AJ42">
+        <v>1.87</v>
+      </c>
+      <c r="AK42">
+        <v>1.52</v>
+      </c>
+      <c r="AL42">
         <v>1.35</v>
       </c>
-      <c r="X42">
-        <v>7.9</v>
-      </c>
-      <c r="Y42">
-        <v>1.06</v>
-      </c>
-      <c r="Z42">
-        <v>2.65</v>
-      </c>
-      <c r="AA42">
-        <v>3.1</v>
-      </c>
-      <c r="AB42">
+      <c r="AM42">
+        <v>1.42</v>
+      </c>
+      <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42">
+        <v>3</v>
+      </c>
+      <c r="AP42">
+        <v>1.8</v>
+      </c>
+      <c r="AQ42">
+        <v>2.25</v>
+      </c>
+      <c r="AR42">
+        <v>1.41</v>
+      </c>
+      <c r="AS42">
+        <v>1.29</v>
+      </c>
+      <c r="AT42">
         <v>2.7</v>
       </c>
-      <c r="AC42">
-        <v>1.07</v>
-      </c>
-      <c r="AD42">
-        <v>8</v>
-      </c>
-      <c r="AE42">
+      <c r="AU42">
+        <v>6</v>
+      </c>
+      <c r="AV42">
+        <v>6</v>
+      </c>
+      <c r="AW42">
+        <v>9</v>
+      </c>
+      <c r="AX42">
+        <v>4</v>
+      </c>
+      <c r="AY42">
+        <v>15</v>
+      </c>
+      <c r="AZ42">
+        <v>15</v>
+      </c>
+      <c r="BA42">
+        <v>3</v>
+      </c>
+      <c r="BB42">
+        <v>6</v>
+      </c>
+      <c r="BC42">
+        <v>9</v>
+      </c>
+      <c r="BD42">
+        <v>2.1</v>
+      </c>
+      <c r="BE42">
+        <v>7.5</v>
+      </c>
+      <c r="BF42">
+        <v>1.95</v>
+      </c>
+      <c r="BG42">
         <v>1.36</v>
       </c>
-      <c r="AF42">
-        <v>3.1</v>
-      </c>
-      <c r="AG42">
-        <v>2.08</v>
-      </c>
-      <c r="AH42">
-        <v>1.71</v>
-      </c>
-      <c r="AI42">
-        <v>1.75</v>
-      </c>
-      <c r="AJ42">
-        <v>1.93</v>
-      </c>
-      <c r="AK42">
-        <v>1.48</v>
-      </c>
-      <c r="AL42">
-        <v>1.3</v>
-      </c>
-      <c r="AM42">
-        <v>1.44</v>
-      </c>
-      <c r="AN42">
-        <v>1.5</v>
-      </c>
-      <c r="AO42">
-        <v>1</v>
-      </c>
-      <c r="AP42">
-        <v>2.4</v>
-      </c>
-      <c r="AQ42">
-        <v>0.5</v>
-      </c>
-      <c r="AR42">
-        <v>1.75</v>
-      </c>
-      <c r="AS42">
-        <v>1.42</v>
-      </c>
-      <c r="AT42">
-        <v>3.17</v>
-      </c>
-      <c r="AU42">
-        <v>7</v>
-      </c>
-      <c r="AV42">
-        <v>5</v>
-      </c>
-      <c r="AW42">
-        <v>6</v>
-      </c>
-      <c r="AX42">
-        <v>8</v>
-      </c>
-      <c r="AY42">
-        <v>16</v>
-      </c>
-      <c r="AZ42">
-        <v>16</v>
-      </c>
-      <c r="BA42">
-        <v>5</v>
-      </c>
-      <c r="BB42">
-        <v>5</v>
-      </c>
-      <c r="BC42">
-        <v>10</v>
-      </c>
-      <c r="BD42">
-        <v>2.19</v>
-      </c>
-      <c r="BE42">
-        <v>6.4</v>
-      </c>
-      <c r="BF42">
-        <v>2.08</v>
-      </c>
-      <c r="BG42">
-        <v>1.29</v>
-      </c>
       <c r="BH42">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BI42">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="BJ42">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="BK42">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="BL42">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="BM42">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="BN42">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="BO42">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="BP42">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9602,7 +9623,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7468907</v>
+        <v>7468905</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9617,190 +9638,190 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <v>2</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O43" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q43">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R43">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S43">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="T43">
+        <v>1.42</v>
+      </c>
+      <c r="U43">
+        <v>2.65</v>
+      </c>
+      <c r="V43">
+        <v>2.88</v>
+      </c>
+      <c r="W43">
+        <v>1.36</v>
+      </c>
+      <c r="X43">
+        <v>7.8</v>
+      </c>
+      <c r="Y43">
+        <v>1.06</v>
+      </c>
+      <c r="Z43">
+        <v>1.82</v>
+      </c>
+      <c r="AA43">
+        <v>3.5</v>
+      </c>
+      <c r="AB43">
+        <v>4.25</v>
+      </c>
+      <c r="AC43">
+        <v>1.06</v>
+      </c>
+      <c r="AD43">
+        <v>8.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.35</v>
+      </c>
+      <c r="AF43">
+        <v>3.1</v>
+      </c>
+      <c r="AG43">
+        <v>2.07</v>
+      </c>
+      <c r="AH43">
+        <v>1.71</v>
+      </c>
+      <c r="AI43">
+        <v>1.83</v>
+      </c>
+      <c r="AJ43">
+        <v>1.85</v>
+      </c>
+      <c r="AK43">
+        <v>1.22</v>
+      </c>
+      <c r="AL43">
+        <v>1.25</v>
+      </c>
+      <c r="AM43">
+        <v>1.85</v>
+      </c>
+      <c r="AN43">
+        <v>1.5</v>
+      </c>
+      <c r="AO43">
+        <v>2</v>
+      </c>
+      <c r="AP43">
         <v>1.4</v>
       </c>
-      <c r="U43">
-        <v>2.75</v>
-      </c>
-      <c r="V43">
-        <v>2.75</v>
-      </c>
-      <c r="W43">
-        <v>1.4</v>
-      </c>
-      <c r="X43">
-        <v>8</v>
-      </c>
-      <c r="Y43">
-        <v>1.08</v>
-      </c>
-      <c r="Z43">
-        <v>2</v>
-      </c>
-      <c r="AA43">
+      <c r="AQ43">
+        <v>1.5</v>
+      </c>
+      <c r="AR43">
+        <v>1.73</v>
+      </c>
+      <c r="AS43">
+        <v>1.38</v>
+      </c>
+      <c r="AT43">
+        <v>3.11</v>
+      </c>
+      <c r="AU43">
+        <v>9</v>
+      </c>
+      <c r="AV43">
+        <v>5</v>
+      </c>
+      <c r="AW43">
+        <v>3</v>
+      </c>
+      <c r="AX43">
+        <v>1</v>
+      </c>
+      <c r="AY43">
+        <v>15</v>
+      </c>
+      <c r="AZ43">
+        <v>9</v>
+      </c>
+      <c r="BA43">
+        <v>6</v>
+      </c>
+      <c r="BB43">
+        <v>4</v>
+      </c>
+      <c r="BC43">
+        <v>10</v>
+      </c>
+      <c r="BD43">
+        <v>1.68</v>
+      </c>
+      <c r="BE43">
+        <v>8.5</v>
+      </c>
+      <c r="BF43">
+        <v>2.68</v>
+      </c>
+      <c r="BG43">
+        <v>1.29</v>
+      </c>
+      <c r="BH43">
         <v>3.4</v>
       </c>
-      <c r="AB43">
-        <v>3.6</v>
-      </c>
-      <c r="AC43">
-        <v>1.03</v>
-      </c>
-      <c r="AD43">
-        <v>9</v>
-      </c>
-      <c r="AE43">
-        <v>1.25</v>
-      </c>
-      <c r="AF43">
-        <v>3.6</v>
-      </c>
-      <c r="AG43">
-        <v>2.1</v>
-      </c>
-      <c r="AH43">
-        <v>1.68</v>
-      </c>
-      <c r="AI43">
-        <v>1.73</v>
-      </c>
-      <c r="AJ43">
-        <v>2</v>
-      </c>
-      <c r="AK43">
-        <v>1.36</v>
-      </c>
-      <c r="AL43">
-        <v>1.31</v>
-      </c>
-      <c r="AM43">
-        <v>1.66</v>
-      </c>
-      <c r="AN43">
-        <v>3</v>
-      </c>
-      <c r="AO43">
-        <v>0.5</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43">
-        <v>1.4</v>
-      </c>
-      <c r="AR43">
-        <v>0.8</v>
-      </c>
-      <c r="AS43">
-        <v>1.14</v>
-      </c>
-      <c r="AT43">
-        <v>1.94</v>
-      </c>
-      <c r="AU43">
-        <v>3</v>
-      </c>
-      <c r="AV43">
-        <v>6</v>
-      </c>
-      <c r="AW43">
-        <v>8</v>
-      </c>
-      <c r="AX43">
-        <v>4</v>
-      </c>
-      <c r="AY43">
-        <v>14</v>
-      </c>
-      <c r="AZ43">
-        <v>14</v>
-      </c>
-      <c r="BA43">
-        <v>2</v>
-      </c>
-      <c r="BB43">
-        <v>5</v>
-      </c>
-      <c r="BC43">
-        <v>7</v>
-      </c>
-      <c r="BD43">
-        <v>1.91</v>
-      </c>
-      <c r="BE43">
-        <v>6.45</v>
-      </c>
-      <c r="BF43">
-        <v>2.46</v>
-      </c>
-      <c r="BG43">
+      <c r="BI43">
+        <v>1.53</v>
+      </c>
+      <c r="BJ43">
+        <v>2.4</v>
+      </c>
+      <c r="BK43">
+        <v>2</v>
+      </c>
+      <c r="BL43">
+        <v>1.8</v>
+      </c>
+      <c r="BM43">
+        <v>2.55</v>
+      </c>
+      <c r="BN43">
+        <v>1.48</v>
+      </c>
+      <c r="BO43">
+        <v>3.5</v>
+      </c>
+      <c r="BP43">
         <v>1.27</v>
-      </c>
-      <c r="BH43">
-        <v>3.55</v>
-      </c>
-      <c r="BI43">
-        <v>1.5</v>
-      </c>
-      <c r="BJ43">
-        <v>2.48</v>
-      </c>
-      <c r="BK43">
-        <v>1.9</v>
-      </c>
-      <c r="BL43">
-        <v>1.9</v>
-      </c>
-      <c r="BM43">
-        <v>2.45</v>
-      </c>
-      <c r="BN43">
-        <v>1.5</v>
-      </c>
-      <c r="BO43">
-        <v>3.4</v>
-      </c>
-      <c r="BP43">
-        <v>1.29</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -9808,7 +9829,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7468911</v>
+        <v>7468903</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9823,10 +9844,10 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -9838,175 +9859,175 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O44" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="P44" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="Q44">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S44">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="T44">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U44">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V44">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W44">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X44">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y44">
+        <v>1.07</v>
+      </c>
+      <c r="Z44">
+        <v>2.88</v>
+      </c>
+      <c r="AA44">
+        <v>3.15</v>
+      </c>
+      <c r="AB44">
+        <v>2.45</v>
+      </c>
+      <c r="AC44">
         <v>1.05</v>
       </c>
-      <c r="Z44">
-        <v>2</v>
-      </c>
-      <c r="AA44">
-        <v>3.25</v>
-      </c>
-      <c r="AB44">
-        <v>3.75</v>
-      </c>
-      <c r="AC44">
+      <c r="AD44">
+        <v>8</v>
+      </c>
+      <c r="AE44">
+        <v>1.3</v>
+      </c>
+      <c r="AF44">
+        <v>3.2</v>
+      </c>
+      <c r="AG44">
+        <v>2.16</v>
+      </c>
+      <c r="AH44">
+        <v>1.66</v>
+      </c>
+      <c r="AI44">
+        <v>1.83</v>
+      </c>
+      <c r="AJ44">
+        <v>1.83</v>
+      </c>
+      <c r="AK44">
+        <v>1.51</v>
+      </c>
+      <c r="AL44">
+        <v>1.33</v>
+      </c>
+      <c r="AM44">
+        <v>1.45</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0.2</v>
+      </c>
+      <c r="AQ44">
+        <v>0.75</v>
+      </c>
+      <c r="AR44">
+        <v>0.8</v>
+      </c>
+      <c r="AS44">
         <v>1.08</v>
       </c>
-      <c r="AD44">
-        <v>6.5</v>
-      </c>
-      <c r="AE44">
-        <v>1.48</v>
-      </c>
-      <c r="AF44">
-        <v>2.5</v>
-      </c>
-      <c r="AG44">
-        <v>2.43</v>
-      </c>
-      <c r="AH44">
-        <v>1.52</v>
-      </c>
-      <c r="AI44">
-        <v>2.2</v>
-      </c>
-      <c r="AJ44">
-        <v>1.62</v>
-      </c>
-      <c r="AK44">
-        <v>1.28</v>
-      </c>
-      <c r="AL44">
-        <v>1.35</v>
-      </c>
-      <c r="AM44">
-        <v>1.72</v>
-      </c>
-      <c r="AN44">
-        <v>0.5</v>
-      </c>
-      <c r="AO44">
-        <v>0.5</v>
-      </c>
-      <c r="AP44">
-        <v>1.4</v>
-      </c>
-      <c r="AQ44">
-        <v>0.25</v>
-      </c>
-      <c r="AR44">
-        <v>1.25</v>
-      </c>
-      <c r="AS44">
-        <v>1.25</v>
-      </c>
       <c r="AT44">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="AU44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AY44">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ44">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="BA44">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BB44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC44">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD44">
-        <v>1.62</v>
+        <v>2.39</v>
       </c>
       <c r="BE44">
-        <v>8.4</v>
+        <v>6.35</v>
       </c>
       <c r="BF44">
-        <v>2.86</v>
+        <v>1.96</v>
       </c>
       <c r="BG44">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="BH44">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="BI44">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="BJ44">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="BK44">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="BL44">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="BM44">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BN44">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="BO44">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="BP44">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -10014,7 +10035,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7468910</v>
+        <v>7468906</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -10029,190 +10050,190 @@
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O45" t="s">
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="Q45">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T45">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U45">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="V45">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="W45">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="X45">
-        <v>11</v>
+        <v>7.9</v>
       </c>
       <c r="Y45">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z45">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AA45">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="AB45">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AC45">
         <v>1.07</v>
       </c>
       <c r="AD45">
+        <v>8</v>
+      </c>
+      <c r="AE45">
+        <v>1.36</v>
+      </c>
+      <c r="AF45">
+        <v>3.1</v>
+      </c>
+      <c r="AG45">
+        <v>2.08</v>
+      </c>
+      <c r="AH45">
+        <v>1.71</v>
+      </c>
+      <c r="AI45">
+        <v>1.75</v>
+      </c>
+      <c r="AJ45">
+        <v>1.93</v>
+      </c>
+      <c r="AK45">
+        <v>1.48</v>
+      </c>
+      <c r="AL45">
+        <v>1.3</v>
+      </c>
+      <c r="AM45">
+        <v>1.44</v>
+      </c>
+      <c r="AN45">
+        <v>1.5</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>2.4</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>1.75</v>
+      </c>
+      <c r="AS45">
+        <v>1.42</v>
+      </c>
+      <c r="AT45">
+        <v>3.17</v>
+      </c>
+      <c r="AU45">
         <v>7</v>
       </c>
-      <c r="AE45">
-        <v>1.5</v>
-      </c>
-      <c r="AF45">
-        <v>2.4</v>
-      </c>
-      <c r="AG45">
-        <v>2.5</v>
-      </c>
-      <c r="AH45">
-        <v>1.5</v>
-      </c>
-      <c r="AI45">
-        <v>2</v>
-      </c>
-      <c r="AJ45">
-        <v>1.73</v>
-      </c>
-      <c r="AK45">
-        <v>1.46</v>
-      </c>
-      <c r="AL45">
-        <v>1.36</v>
-      </c>
-      <c r="AM45">
-        <v>1.47</v>
-      </c>
-      <c r="AN45">
-        <v>3</v>
-      </c>
-      <c r="AO45">
-        <v>3</v>
-      </c>
-      <c r="AP45">
-        <v>3</v>
-      </c>
-      <c r="AQ45">
-        <v>1</v>
-      </c>
-      <c r="AR45">
-        <v>1.53</v>
-      </c>
-      <c r="AS45">
-        <v>0.82</v>
-      </c>
-      <c r="AT45">
-        <v>2.35</v>
-      </c>
-      <c r="AU45">
+      <c r="AV45">
+        <v>5</v>
+      </c>
+      <c r="AW45">
         <v>6</v>
       </c>
-      <c r="AV45">
-        <v>4</v>
-      </c>
-      <c r="AW45">
-        <v>3</v>
-      </c>
       <c r="AX45">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY45">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA45">
         <v>5</v>
       </c>
       <c r="BB45">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC45">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD45">
-        <v>1.97</v>
+        <v>2.19</v>
       </c>
       <c r="BE45">
-        <v>6.45</v>
+        <v>6.4</v>
       </c>
       <c r="BF45">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="BG45">
+        <v>1.29</v>
+      </c>
+      <c r="BH45">
+        <v>3.4</v>
+      </c>
+      <c r="BI45">
+        <v>1.53</v>
+      </c>
+      <c r="BJ45">
+        <v>2.4</v>
+      </c>
+      <c r="BK45">
+        <v>1.98</v>
+      </c>
+      <c r="BL45">
+        <v>1.82</v>
+      </c>
+      <c r="BM45">
+        <v>2.55</v>
+      </c>
+      <c r="BN45">
+        <v>1.48</v>
+      </c>
+      <c r="BO45">
+        <v>3.5</v>
+      </c>
+      <c r="BP45">
         <v>1.27</v>
-      </c>
-      <c r="BH45">
-        <v>3.55</v>
-      </c>
-      <c r="BI45">
-        <v>1.5</v>
-      </c>
-      <c r="BJ45">
-        <v>2.48</v>
-      </c>
-      <c r="BK45">
-        <v>1.95</v>
-      </c>
-      <c r="BL45">
-        <v>1.85</v>
-      </c>
-      <c r="BM45">
-        <v>2.45</v>
-      </c>
-      <c r="BN45">
-        <v>1.5</v>
-      </c>
-      <c r="BO45">
-        <v>3.4</v>
-      </c>
-      <c r="BP45">
-        <v>1.29</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -10262,7 +10283,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10468,7 +10489,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -11704,7 +11725,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11910,7 +11931,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12116,7 +12137,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12528,7 +12549,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12606,10 +12627,10 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.54</v>
@@ -12734,7 +12755,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12812,10 +12833,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1</v>
@@ -12898,7 +12919,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7468923</v>
+        <v>7468922</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12913,73 +12934,73 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L59">
         <v>2</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O59" t="s">
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q59">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T59">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="U59">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="V59">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="W59">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X59">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y59">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z59">
-        <v>2.03</v>
+        <v>2.32</v>
       </c>
       <c r="AA59">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="AB59">
-        <v>3.68</v>
+        <v>3.14</v>
       </c>
       <c r="AC59">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD59">
         <v>8</v>
@@ -12988,115 +13009,115 @@
         <v>1.36</v>
       </c>
       <c r="AF59">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="AG59">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="AH59">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AI59">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AJ59">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AK59">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AL59">
         <v>1.28</v>
       </c>
       <c r="AM59">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AN59">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO59">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR59">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="AS59">
+        <v>1.04</v>
+      </c>
+      <c r="AT59">
+        <v>2.55</v>
+      </c>
+      <c r="AU59">
+        <v>11</v>
+      </c>
+      <c r="AV59">
+        <v>4</v>
+      </c>
+      <c r="AW59">
+        <v>3</v>
+      </c>
+      <c r="AX59">
+        <v>6</v>
+      </c>
+      <c r="AY59">
+        <v>20</v>
+      </c>
+      <c r="AZ59">
+        <v>13</v>
+      </c>
+      <c r="BA59">
+        <v>5</v>
+      </c>
+      <c r="BB59">
+        <v>4</v>
+      </c>
+      <c r="BC59">
+        <v>9</v>
+      </c>
+      <c r="BD59">
+        <v>1.95</v>
+      </c>
+      <c r="BE59">
+        <v>8</v>
+      </c>
+      <c r="BF59">
+        <v>2.1</v>
+      </c>
+      <c r="BG59">
+        <v>1.15</v>
+      </c>
+      <c r="BH59">
+        <v>3.98</v>
+      </c>
+      <c r="BI59">
         <v>1.33</v>
       </c>
-      <c r="AT59">
-        <v>2.86</v>
-      </c>
-      <c r="AU59">
-        <v>10</v>
-      </c>
-      <c r="AV59">
-        <v>3</v>
-      </c>
-      <c r="AW59">
-        <v>7</v>
-      </c>
-      <c r="AX59">
-        <v>4</v>
-      </c>
-      <c r="AY59">
-        <v>19</v>
-      </c>
-      <c r="AZ59">
-        <v>10</v>
-      </c>
-      <c r="BA59">
-        <v>3</v>
-      </c>
-      <c r="BB59">
-        <v>3</v>
-      </c>
-      <c r="BC59">
-        <v>6</v>
-      </c>
-      <c r="BD59">
-        <v>1.82</v>
-      </c>
-      <c r="BE59">
-        <v>7.5</v>
-      </c>
-      <c r="BF59">
-        <v>2.34</v>
-      </c>
-      <c r="BG59">
-        <v>1.28</v>
-      </c>
-      <c r="BH59">
-        <v>2.97</v>
-      </c>
-      <c r="BI59">
+      <c r="BJ59">
+        <v>2.73</v>
+      </c>
+      <c r="BK59">
         <v>1.7</v>
       </c>
-      <c r="BJ59">
+      <c r="BL59">
         <v>2.05</v>
       </c>
-      <c r="BK59">
-        <v>2.02</v>
-      </c>
-      <c r="BL59">
-        <v>1.74</v>
-      </c>
       <c r="BM59">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="BN59">
-        <v>1.41</v>
+        <v>1.7</v>
       </c>
       <c r="BO59">
-        <v>3.52</v>
+        <v>2.67</v>
       </c>
       <c r="BP59">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13104,7 +13125,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7468922</v>
+        <v>7468921</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13119,25 +13140,25 @@
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
         <v>3</v>
@@ -13146,67 +13167,67 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="Q60">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="R60">
         <v>2</v>
       </c>
       <c r="S60">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T60">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="U60">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="V60">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="W60">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y60">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z60">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="AA60">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="AB60">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="AC60">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD60">
         <v>8</v>
       </c>
       <c r="AE60">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AF60">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AG60">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="AH60">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AI60">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AJ60">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AK60">
         <v>1.36</v>
@@ -13218,28 +13239,28 @@
         <v>1.57</v>
       </c>
       <c r="AN60">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ60">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR60">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="AS60">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="AT60">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="AU60">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AV60">
         <v>4</v>
@@ -13248,61 +13269,61 @@
         <v>3</v>
       </c>
       <c r="AX60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY60">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AZ60">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA60">
         <v>5</v>
       </c>
       <c r="BB60">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC60">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD60">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="BE60">
         <v>8</v>
       </c>
       <c r="BF60">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="BG60">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="BH60">
-        <v>3.98</v>
+        <v>3.3</v>
       </c>
       <c r="BI60">
+        <v>1.51</v>
+      </c>
+      <c r="BJ60">
+        <v>2.4</v>
+      </c>
+      <c r="BK60">
+        <v>1.88</v>
+      </c>
+      <c r="BL60">
+        <v>1.92</v>
+      </c>
+      <c r="BM60">
+        <v>2.33</v>
+      </c>
+      <c r="BN60">
+        <v>1.53</v>
+      </c>
+      <c r="BO60">
+        <v>3</v>
+      </c>
+      <c r="BP60">
         <v>1.33</v>
-      </c>
-      <c r="BJ60">
-        <v>2.73</v>
-      </c>
-      <c r="BK60">
-        <v>1.7</v>
-      </c>
-      <c r="BL60">
-        <v>2.05</v>
-      </c>
-      <c r="BM60">
-        <v>2.08</v>
-      </c>
-      <c r="BN60">
-        <v>1.7</v>
-      </c>
-      <c r="BO60">
-        <v>2.67</v>
-      </c>
-      <c r="BP60">
-        <v>1.39</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13310,7 +13331,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7468921</v>
+        <v>7468923</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13325,55 +13346,55 @@
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H61" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O61" t="s">
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="Q61">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S61">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T61">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="U61">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="V61">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="W61">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X61">
         <v>9</v>
@@ -13382,13 +13403,13 @@
         <v>1.07</v>
       </c>
       <c r="Z61">
-        <v>2.31</v>
+        <v>2.03</v>
       </c>
       <c r="AA61">
-        <v>3.34</v>
+        <v>3.48</v>
       </c>
       <c r="AB61">
-        <v>3.13</v>
+        <v>3.68</v>
       </c>
       <c r="AC61">
         <v>1.07</v>
@@ -13397,10 +13418,10 @@
         <v>8</v>
       </c>
       <c r="AE61">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AF61">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AG61">
         <v>2.06</v>
@@ -13415,100 +13436,100 @@
         <v>1.85</v>
       </c>
       <c r="AK61">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AL61">
         <v>1.28</v>
       </c>
       <c r="AM61">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AN61">
         <v>2.33</v>
       </c>
       <c r="AO61">
+        <v>1.67</v>
+      </c>
+      <c r="AP61">
+        <v>1.8</v>
+      </c>
+      <c r="AQ61">
         <v>1.5</v>
       </c>
-      <c r="AP61">
-        <v>2.5</v>
-      </c>
-      <c r="AQ61">
-        <v>1</v>
-      </c>
       <c r="AR61">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="AS61">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT61">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="AU61">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW61">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX61">
         <v>4</v>
       </c>
       <c r="AY61">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ61">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB61">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BC61">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD61">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="BE61">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF61">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="BG61">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="BH61">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="BI61">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="BJ61">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="BK61">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="BL61">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="BM61">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="BN61">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="BO61">
-        <v>3</v>
+        <v>3.52</v>
       </c>
       <c r="BP61">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13558,7 +13579,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13764,7 +13785,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13845,7 +13866,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.33</v>
@@ -13970,7 +13991,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14048,10 +14069,10 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ64">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR64">
         <v>1.73</v>
@@ -14340,7 +14361,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7468937</v>
+        <v>7468933</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14355,133 +14376,133 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O66" t="s">
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="Q66">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="R66">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>4.12</v>
+        <v>4.33</v>
       </c>
       <c r="T66">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="U66">
-        <v>2.99</v>
+        <v>2.6</v>
       </c>
       <c r="V66">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="W66">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="X66">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="Y66">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z66">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="AA66">
         <v>3.4</v>
       </c>
       <c r="AB66">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AC66">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD66">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE66">
         <v>1.3</v>
       </c>
       <c r="AF66">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AG66">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="AH66">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AI66">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="AJ66">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AK66">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AL66">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM66">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AN66">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AP66">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ66">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AR66">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="AS66">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AT66">
-        <v>2.86</v>
+        <v>2.75</v>
       </c>
       <c r="AU66">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV66">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AW66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX66">
         <v>4</v>
@@ -14490,25 +14511,25 @@
         <v>13</v>
       </c>
       <c r="AZ66">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="BA66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB66">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC66">
+        <v>13</v>
+      </c>
+      <c r="BD66">
+        <v>1.64</v>
+      </c>
+      <c r="BE66">
         <v>8</v>
       </c>
-      <c r="BD66">
-        <v>1.41</v>
-      </c>
-      <c r="BE66">
-        <v>9</v>
-      </c>
       <c r="BF66">
-        <v>3.58</v>
+        <v>2.77</v>
       </c>
       <c r="BG66">
         <v>1.27</v>
@@ -14546,7 +14567,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7468933</v>
+        <v>7468934</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14561,10 +14582,10 @@
         <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -14588,163 +14609,163 @@
         <v>142</v>
       </c>
       <c r="P67" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="Q67">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S67">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="T67">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U67">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="V67">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="W67">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X67">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="Y67">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z67">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="AA67">
         <v>3.4</v>
       </c>
       <c r="AB67">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AC67">
         <v>1.05</v>
       </c>
       <c r="AD67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE67">
         <v>1.3</v>
       </c>
       <c r="AF67">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AG67">
-        <v>1.96</v>
+        <v>2.01</v>
       </c>
       <c r="AH67">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AI67">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="AJ67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AK67">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AL67">
         <v>1.25</v>
       </c>
       <c r="AM67">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AN67">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AO67">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AP67">
-        <v>2.4</v>
+        <v>0.75</v>
       </c>
       <c r="AQ67">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AR67">
-        <v>1.61</v>
+        <v>1.95</v>
       </c>
       <c r="AS67">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AT67">
-        <v>2.75</v>
+        <v>3.17</v>
       </c>
       <c r="AU67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV67">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AW67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY67">
         <v>13</v>
       </c>
       <c r="AZ67">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="BA67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB67">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BC67">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD67">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="BE67">
         <v>8</v>
       </c>
       <c r="BF67">
-        <v>2.77</v>
+        <v>2.33</v>
       </c>
       <c r="BG67">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="BH67">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="BI67">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="BJ67">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BK67">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="BL67">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="BM67">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="BN67">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="BO67">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="BP67">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14752,7 +14773,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7468934</v>
+        <v>7468937</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14767,190 +14788,190 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O68" t="s">
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="Q68">
-        <v>2.88</v>
+        <v>2.69</v>
       </c>
       <c r="R68">
-        <v>2.05</v>
+        <v>2.24</v>
       </c>
       <c r="S68">
-        <v>3.5</v>
+        <v>4.12</v>
       </c>
       <c r="T68">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U68">
-        <v>2.75</v>
+        <v>2.99</v>
       </c>
       <c r="V68">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="W68">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X68">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Y68">
         <v>1.08</v>
       </c>
       <c r="Z68">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AA68">
         <v>3.4</v>
       </c>
       <c r="AB68">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AC68">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD68">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE68">
         <v>1.3</v>
       </c>
       <c r="AF68">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AG68">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="AH68">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AI68">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="AJ68">
         <v>2</v>
       </c>
       <c r="AK68">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AL68">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM68">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="AN68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO68">
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR68">
-        <v>1.95</v>
+        <v>1.59</v>
       </c>
       <c r="AS68">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AT68">
-        <v>3.17</v>
+        <v>2.86</v>
       </c>
       <c r="AU68">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW68">
+        <v>5</v>
+      </c>
+      <c r="AX68">
         <v>4</v>
-      </c>
-      <c r="AX68">
-        <v>2</v>
       </c>
       <c r="AY68">
         <v>13</v>
       </c>
       <c r="AZ68">
+        <v>9</v>
+      </c>
+      <c r="BA68">
+        <v>3</v>
+      </c>
+      <c r="BB68">
         <v>5</v>
       </c>
-      <c r="BA68">
-        <v>6</v>
-      </c>
-      <c r="BB68">
-        <v>0</v>
-      </c>
       <c r="BC68">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD68">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="BE68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF68">
-        <v>2.33</v>
+        <v>3.58</v>
       </c>
       <c r="BG68">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="BH68">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="BI68">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="BJ68">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BK68">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BL68">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="BM68">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="BN68">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="BO68">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="BP68">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -14958,7 +14979,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7468936</v>
+        <v>7468930</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -14970,193 +14991,193 @@
         <v>45570.375</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>2</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O69" t="s">
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q69">
+        <v>3.5</v>
+      </c>
+      <c r="R69">
+        <v>2</v>
+      </c>
+      <c r="S69">
+        <v>3.4</v>
+      </c>
+      <c r="T69">
+        <v>1.5</v>
+      </c>
+      <c r="U69">
         <v>2.5</v>
       </c>
-      <c r="R69">
-        <v>1.9</v>
-      </c>
-      <c r="S69">
-        <v>5.25</v>
-      </c>
-      <c r="T69">
-        <v>1.57</v>
-      </c>
-      <c r="U69">
+      <c r="V69">
+        <v>3.4</v>
+      </c>
+      <c r="W69">
+        <v>1.3</v>
+      </c>
+      <c r="X69">
+        <v>10</v>
+      </c>
+      <c r="Y69">
+        <v>1.06</v>
+      </c>
+      <c r="Z69">
+        <v>2.7</v>
+      </c>
+      <c r="AA69">
+        <v>3.1</v>
+      </c>
+      <c r="AB69">
+        <v>2.6</v>
+      </c>
+      <c r="AC69">
+        <v>1.08</v>
+      </c>
+      <c r="AD69">
+        <v>7.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.42</v>
+      </c>
+      <c r="AF69">
+        <v>2.8</v>
+      </c>
+      <c r="AG69">
+        <v>2.01</v>
+      </c>
+      <c r="AH69">
+        <v>1.81</v>
+      </c>
+      <c r="AI69">
+        <v>1.91</v>
+      </c>
+      <c r="AJ69">
+        <v>1.8</v>
+      </c>
+      <c r="AK69">
+        <v>1.45</v>
+      </c>
+      <c r="AL69">
+        <v>1.3</v>
+      </c>
+      <c r="AM69">
+        <v>1.44</v>
+      </c>
+      <c r="AN69">
+        <v>0.5</v>
+      </c>
+      <c r="AO69">
+        <v>2</v>
+      </c>
+      <c r="AP69">
+        <v>1</v>
+      </c>
+      <c r="AQ69">
+        <v>1.5</v>
+      </c>
+      <c r="AR69">
+        <v>1.24</v>
+      </c>
+      <c r="AS69">
+        <v>1.43</v>
+      </c>
+      <c r="AT69">
+        <v>2.67</v>
+      </c>
+      <c r="AU69">
+        <v>7</v>
+      </c>
+      <c r="AV69">
+        <v>7</v>
+      </c>
+      <c r="AW69">
+        <v>3</v>
+      </c>
+      <c r="AX69">
+        <v>11</v>
+      </c>
+      <c r="AY69">
+        <v>10</v>
+      </c>
+      <c r="AZ69">
+        <v>22</v>
+      </c>
+      <c r="BA69">
+        <v>3</v>
+      </c>
+      <c r="BB69">
+        <v>10</v>
+      </c>
+      <c r="BC69">
+        <v>13</v>
+      </c>
+      <c r="BD69">
+        <v>1.75</v>
+      </c>
+      <c r="BE69">
+        <v>8</v>
+      </c>
+      <c r="BF69">
+        <v>2.44</v>
+      </c>
+      <c r="BG69">
+        <v>1.33</v>
+      </c>
+      <c r="BH69">
+        <v>3.15</v>
+      </c>
+      <c r="BI69">
+        <v>1.6</v>
+      </c>
+      <c r="BJ69">
         <v>2.25</v>
       </c>
-      <c r="V69">
-        <v>3.75</v>
-      </c>
-      <c r="W69">
-        <v>1.22</v>
-      </c>
-      <c r="X69">
-        <v>10.7</v>
-      </c>
-      <c r="Y69">
-        <v>1.02</v>
-      </c>
-      <c r="Z69">
-        <v>1.75</v>
-      </c>
-      <c r="AA69">
-        <v>3</v>
-      </c>
-      <c r="AB69">
-        <v>4.75</v>
-      </c>
-      <c r="AC69">
-        <v>1.11</v>
-      </c>
-      <c r="AD69">
-        <v>6.25</v>
-      </c>
-      <c r="AE69">
-        <v>1.57</v>
-      </c>
-      <c r="AF69">
-        <v>2.4</v>
-      </c>
-      <c r="AG69">
+      <c r="BK69">
+        <v>2.04</v>
+      </c>
+      <c r="BL69">
+        <v>1.73</v>
+      </c>
+      <c r="BM69">
         <v>2.75</v>
       </c>
-      <c r="AH69">
-        <v>1.4</v>
-      </c>
-      <c r="AI69">
-        <v>2.3</v>
-      </c>
-      <c r="AJ69">
-        <v>1.53</v>
-      </c>
-      <c r="AK69">
-        <v>1.17</v>
-      </c>
-      <c r="AL69">
-        <v>1.28</v>
-      </c>
-      <c r="AM69">
-        <v>1.93</v>
-      </c>
-      <c r="AN69">
-        <v>3</v>
-      </c>
-      <c r="AO69">
-        <v>1</v>
-      </c>
-      <c r="AP69">
-        <v>2.5</v>
-      </c>
-      <c r="AQ69">
-        <v>1</v>
-      </c>
-      <c r="AR69">
-        <v>1.23</v>
-      </c>
-      <c r="AS69">
-        <v>1.23</v>
-      </c>
-      <c r="AT69">
-        <v>2.46</v>
-      </c>
-      <c r="AU69">
-        <v>2</v>
-      </c>
-      <c r="AV69">
-        <v>2</v>
-      </c>
-      <c r="AW69">
-        <v>2</v>
-      </c>
-      <c r="AX69">
-        <v>2</v>
-      </c>
-      <c r="AY69">
-        <v>4</v>
-      </c>
-      <c r="AZ69">
-        <v>4</v>
-      </c>
-      <c r="BA69">
-        <v>1</v>
-      </c>
-      <c r="BB69">
-        <v>0</v>
-      </c>
-      <c r="BC69">
-        <v>1</v>
-      </c>
-      <c r="BD69">
-        <v>1.45</v>
-      </c>
-      <c r="BE69">
-        <v>8.5</v>
-      </c>
-      <c r="BF69">
-        <v>3.33</v>
-      </c>
-      <c r="BG69">
-        <v>1.36</v>
-      </c>
-      <c r="BH69">
-        <v>2.95</v>
-      </c>
-      <c r="BI69">
-        <v>1.67</v>
-      </c>
-      <c r="BJ69">
-        <v>2.12</v>
-      </c>
-      <c r="BK69">
-        <v>2.15</v>
-      </c>
-      <c r="BL69">
-        <v>1.65</v>
-      </c>
-      <c r="BM69">
-        <v>2.95</v>
-      </c>
       <c r="BN69">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="BO69">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="BP69">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15206,7 +15227,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15370,7 +15391,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7468930</v>
+        <v>7468936</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15382,193 +15403,193 @@
         <v>45570.375</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H71" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71">
         <v>2</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M71">
         <v>1</v>
       </c>
       <c r="N71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O71" t="s">
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q71">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="T71">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U71">
+        <v>2.25</v>
+      </c>
+      <c r="V71">
+        <v>3.75</v>
+      </c>
+      <c r="W71">
+        <v>1.22</v>
+      </c>
+      <c r="X71">
+        <v>10.7</v>
+      </c>
+      <c r="Y71">
+        <v>1.02</v>
+      </c>
+      <c r="Z71">
+        <v>1.75</v>
+      </c>
+      <c r="AA71">
+        <v>3</v>
+      </c>
+      <c r="AB71">
+        <v>4.75</v>
+      </c>
+      <c r="AC71">
+        <v>1.11</v>
+      </c>
+      <c r="AD71">
+        <v>6.25</v>
+      </c>
+      <c r="AE71">
+        <v>1.57</v>
+      </c>
+      <c r="AF71">
+        <v>2.4</v>
+      </c>
+      <c r="AG71">
+        <v>2.75</v>
+      </c>
+      <c r="AH71">
+        <v>1.4</v>
+      </c>
+      <c r="AI71">
+        <v>2.3</v>
+      </c>
+      <c r="AJ71">
+        <v>1.53</v>
+      </c>
+      <c r="AK71">
+        <v>1.17</v>
+      </c>
+      <c r="AL71">
+        <v>1.28</v>
+      </c>
+      <c r="AM71">
+        <v>1.93</v>
+      </c>
+      <c r="AN71">
+        <v>3</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
         <v>2.5</v>
       </c>
-      <c r="V71">
-        <v>3.4</v>
-      </c>
-      <c r="W71">
-        <v>1.3</v>
-      </c>
-      <c r="X71">
-        <v>10</v>
-      </c>
-      <c r="Y71">
-        <v>1.06</v>
-      </c>
-      <c r="Z71">
-        <v>2.7</v>
-      </c>
-      <c r="AA71">
-        <v>3.1</v>
-      </c>
-      <c r="AB71">
-        <v>2.6</v>
-      </c>
-      <c r="AC71">
-        <v>1.08</v>
-      </c>
-      <c r="AD71">
-        <v>7.5</v>
-      </c>
-      <c r="AE71">
-        <v>1.42</v>
-      </c>
-      <c r="AF71">
-        <v>2.8</v>
-      </c>
-      <c r="AG71">
-        <v>2.01</v>
-      </c>
-      <c r="AH71">
-        <v>1.81</v>
-      </c>
-      <c r="AI71">
-        <v>1.91</v>
-      </c>
-      <c r="AJ71">
-        <v>1.8</v>
-      </c>
-      <c r="AK71">
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <v>1.23</v>
+      </c>
+      <c r="AS71">
+        <v>1.23</v>
+      </c>
+      <c r="AT71">
+        <v>2.46</v>
+      </c>
+      <c r="AU71">
+        <v>2</v>
+      </c>
+      <c r="AV71">
+        <v>2</v>
+      </c>
+      <c r="AW71">
+        <v>2</v>
+      </c>
+      <c r="AX71">
+        <v>2</v>
+      </c>
+      <c r="AY71">
+        <v>4</v>
+      </c>
+      <c r="AZ71">
+        <v>4</v>
+      </c>
+      <c r="BA71">
+        <v>1</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>1</v>
+      </c>
+      <c r="BD71">
         <v>1.45</v>
       </c>
-      <c r="AL71">
-        <v>1.3</v>
-      </c>
-      <c r="AM71">
-        <v>1.44</v>
-      </c>
-      <c r="AN71">
-        <v>0.5</v>
-      </c>
-      <c r="AO71">
-        <v>2</v>
-      </c>
-      <c r="AP71">
-        <v>1</v>
-      </c>
-      <c r="AQ71">
-        <v>1.5</v>
-      </c>
-      <c r="AR71">
-        <v>1.24</v>
-      </c>
-      <c r="AS71">
-        <v>1.43</v>
-      </c>
-      <c r="AT71">
-        <v>2.67</v>
-      </c>
-      <c r="AU71">
-        <v>7</v>
-      </c>
-      <c r="AV71">
-        <v>7</v>
-      </c>
-      <c r="AW71">
-        <v>3</v>
-      </c>
-      <c r="AX71">
-        <v>11</v>
-      </c>
-      <c r="AY71">
-        <v>10</v>
-      </c>
-      <c r="AZ71">
-        <v>22</v>
-      </c>
-      <c r="BA71">
-        <v>3</v>
-      </c>
-      <c r="BB71">
-        <v>10</v>
-      </c>
-      <c r="BC71">
-        <v>13</v>
-      </c>
-      <c r="BD71">
-        <v>1.75</v>
-      </c>
       <c r="BE71">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF71">
-        <v>2.44</v>
+        <v>3.33</v>
       </c>
       <c r="BG71">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="BH71">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="BI71">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="BJ71">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="BK71">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="BL71">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="BM71">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="BN71">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="BO71">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="BP71">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -15618,7 +15639,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15775,6 +15796,1242 @@
       </c>
       <c r="BP72">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7468944</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45583.625</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s">
+        <v>72</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>5</v>
+      </c>
+      <c r="O73" t="s">
+        <v>148</v>
+      </c>
+      <c r="P73" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q73">
+        <v>2.88</v>
+      </c>
+      <c r="R73">
+        <v>2.05</v>
+      </c>
+      <c r="S73">
+        <v>4</v>
+      </c>
+      <c r="T73">
+        <v>1.5</v>
+      </c>
+      <c r="U73">
+        <v>2.5</v>
+      </c>
+      <c r="V73">
+        <v>3.4</v>
+      </c>
+      <c r="W73">
+        <v>1.3</v>
+      </c>
+      <c r="X73">
+        <v>10</v>
+      </c>
+      <c r="Y73">
+        <v>1.06</v>
+      </c>
+      <c r="Z73">
+        <v>2.1</v>
+      </c>
+      <c r="AA73">
+        <v>3.2</v>
+      </c>
+      <c r="AB73">
+        <v>3.1</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>2.23</v>
+      </c>
+      <c r="AH73">
+        <v>1.62</v>
+      </c>
+      <c r="AI73">
+        <v>1.91</v>
+      </c>
+      <c r="AJ73">
+        <v>1.8</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1.33</v>
+      </c>
+      <c r="AO73">
+        <v>1.33</v>
+      </c>
+      <c r="AP73">
+        <v>1.75</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AR73">
+        <v>1.45</v>
+      </c>
+      <c r="AS73">
+        <v>1.4</v>
+      </c>
+      <c r="AT73">
+        <v>2.85</v>
+      </c>
+      <c r="AU73">
+        <v>4</v>
+      </c>
+      <c r="AV73">
+        <v>7</v>
+      </c>
+      <c r="AW73">
+        <v>0</v>
+      </c>
+      <c r="AX73">
+        <v>6</v>
+      </c>
+      <c r="AY73">
+        <v>4</v>
+      </c>
+      <c r="AZ73">
+        <v>14</v>
+      </c>
+      <c r="BA73">
+        <v>0</v>
+      </c>
+      <c r="BB73">
+        <v>3</v>
+      </c>
+      <c r="BC73">
+        <v>3</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>0</v>
+      </c>
+      <c r="BJ73">
+        <v>0</v>
+      </c>
+      <c r="BK73">
+        <v>0</v>
+      </c>
+      <c r="BL73">
+        <v>0</v>
+      </c>
+      <c r="BM73">
+        <v>0</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
+      <c r="BO73">
+        <v>0</v>
+      </c>
+      <c r="BP73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7468946</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45583.625</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>74</v>
+      </c>
+      <c r="H74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>149</v>
+      </c>
+      <c r="P74" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q74">
+        <v>4</v>
+      </c>
+      <c r="R74">
+        <v>2.05</v>
+      </c>
+      <c r="S74">
+        <v>3</v>
+      </c>
+      <c r="T74">
+        <v>1.44</v>
+      </c>
+      <c r="U74">
+        <v>2.63</v>
+      </c>
+      <c r="V74">
+        <v>3.25</v>
+      </c>
+      <c r="W74">
+        <v>1.33</v>
+      </c>
+      <c r="X74">
+        <v>10</v>
+      </c>
+      <c r="Y74">
+        <v>1.06</v>
+      </c>
+      <c r="Z74">
+        <v>2.8</v>
+      </c>
+      <c r="AA74">
+        <v>3.2</v>
+      </c>
+      <c r="AB74">
+        <v>2.25</v>
+      </c>
+      <c r="AC74">
+        <v>1.07</v>
+      </c>
+      <c r="AD74">
+        <v>8</v>
+      </c>
+      <c r="AE74">
+        <v>1.36</v>
+      </c>
+      <c r="AF74">
+        <v>2.95</v>
+      </c>
+      <c r="AG74">
+        <v>2.1</v>
+      </c>
+      <c r="AH74">
+        <v>1.68</v>
+      </c>
+      <c r="AI74">
+        <v>1.91</v>
+      </c>
+      <c r="AJ74">
+        <v>1.8</v>
+      </c>
+      <c r="AK74">
+        <v>1.63</v>
+      </c>
+      <c r="AL74">
+        <v>1.28</v>
+      </c>
+      <c r="AM74">
+        <v>1.33</v>
+      </c>
+      <c r="AN74">
+        <v>2.5</v>
+      </c>
+      <c r="AO74">
+        <v>2</v>
+      </c>
+      <c r="AP74">
+        <v>2.6</v>
+      </c>
+      <c r="AQ74">
+        <v>1.5</v>
+      </c>
+      <c r="AR74">
+        <v>1.29</v>
+      </c>
+      <c r="AS74">
+        <v>1.32</v>
+      </c>
+      <c r="AT74">
+        <v>2.61</v>
+      </c>
+      <c r="AU74">
+        <v>6</v>
+      </c>
+      <c r="AV74">
+        <v>8</v>
+      </c>
+      <c r="AW74">
+        <v>6</v>
+      </c>
+      <c r="AX74">
+        <v>5</v>
+      </c>
+      <c r="AY74">
+        <v>14</v>
+      </c>
+      <c r="AZ74">
+        <v>14</v>
+      </c>
+      <c r="BA74">
+        <v>3</v>
+      </c>
+      <c r="BB74">
+        <v>10</v>
+      </c>
+      <c r="BC74">
+        <v>13</v>
+      </c>
+      <c r="BD74">
+        <v>2.04</v>
+      </c>
+      <c r="BE74">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="BF74">
+        <v>2.11</v>
+      </c>
+      <c r="BG74">
+        <v>1.29</v>
+      </c>
+      <c r="BH74">
+        <v>3.4</v>
+      </c>
+      <c r="BI74">
+        <v>1.53</v>
+      </c>
+      <c r="BJ74">
+        <v>2.4</v>
+      </c>
+      <c r="BK74">
+        <v>1.92</v>
+      </c>
+      <c r="BL74">
+        <v>1.82</v>
+      </c>
+      <c r="BM74">
+        <v>2.55</v>
+      </c>
+      <c r="BN74">
+        <v>1.48</v>
+      </c>
+      <c r="BO74">
+        <v>3.5</v>
+      </c>
+      <c r="BP74">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7468947</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45583.625</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>83</v>
+      </c>
+      <c r="H75" t="s">
+        <v>70</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>90</v>
+      </c>
+      <c r="P75" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q75">
+        <v>3</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>1.5</v>
+      </c>
+      <c r="U75">
+        <v>2.5</v>
+      </c>
+      <c r="V75">
+        <v>3.5</v>
+      </c>
+      <c r="W75">
+        <v>1.29</v>
+      </c>
+      <c r="X75">
+        <v>11</v>
+      </c>
+      <c r="Y75">
+        <v>1.05</v>
+      </c>
+      <c r="Z75">
+        <v>2.2</v>
+      </c>
+      <c r="AA75">
+        <v>3.2</v>
+      </c>
+      <c r="AB75">
+        <v>2.88</v>
+      </c>
+      <c r="AC75">
+        <v>1.09</v>
+      </c>
+      <c r="AD75">
+        <v>7</v>
+      </c>
+      <c r="AE75">
+        <v>1.42</v>
+      </c>
+      <c r="AF75">
+        <v>2.75</v>
+      </c>
+      <c r="AG75">
+        <v>2.38</v>
+      </c>
+      <c r="AH75">
+        <v>1.55</v>
+      </c>
+      <c r="AI75">
+        <v>2</v>
+      </c>
+      <c r="AJ75">
+        <v>1.73</v>
+      </c>
+      <c r="AK75">
+        <v>1.3</v>
+      </c>
+      <c r="AL75">
+        <v>1.28</v>
+      </c>
+      <c r="AM75">
+        <v>1.66</v>
+      </c>
+      <c r="AN75">
+        <v>2</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
+        <v>1.8</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>1.7</v>
+      </c>
+      <c r="AS75">
+        <v>1.33</v>
+      </c>
+      <c r="AT75">
+        <v>3.03</v>
+      </c>
+      <c r="AU75">
+        <v>5</v>
+      </c>
+      <c r="AV75">
+        <v>3</v>
+      </c>
+      <c r="AW75">
+        <v>9</v>
+      </c>
+      <c r="AX75">
+        <v>1</v>
+      </c>
+      <c r="AY75">
+        <v>19</v>
+      </c>
+      <c r="AZ75">
+        <v>7</v>
+      </c>
+      <c r="BA75">
+        <v>11</v>
+      </c>
+      <c r="BB75">
+        <v>5</v>
+      </c>
+      <c r="BC75">
+        <v>16</v>
+      </c>
+      <c r="BD75">
+        <v>1.85</v>
+      </c>
+      <c r="BE75">
+        <v>8</v>
+      </c>
+      <c r="BF75">
+        <v>2.28</v>
+      </c>
+      <c r="BG75">
+        <v>1.27</v>
+      </c>
+      <c r="BH75">
+        <v>3.55</v>
+      </c>
+      <c r="BI75">
+        <v>1.5</v>
+      </c>
+      <c r="BJ75">
+        <v>2.48</v>
+      </c>
+      <c r="BK75">
+        <v>1.87</v>
+      </c>
+      <c r="BL75">
+        <v>1.87</v>
+      </c>
+      <c r="BM75">
+        <v>2.45</v>
+      </c>
+      <c r="BN75">
+        <v>1.5</v>
+      </c>
+      <c r="BO75">
+        <v>3.4</v>
+      </c>
+      <c r="BP75">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7468943</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45583.625</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s">
+        <v>76</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>150</v>
+      </c>
+      <c r="P76" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q76">
+        <v>3.5</v>
+      </c>
+      <c r="R76">
+        <v>2.1</v>
+      </c>
+      <c r="S76">
+        <v>3.1</v>
+      </c>
+      <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.75</v>
+      </c>
+      <c r="V76">
+        <v>3</v>
+      </c>
+      <c r="W76">
+        <v>1.36</v>
+      </c>
+      <c r="X76">
+        <v>8</v>
+      </c>
+      <c r="Y76">
+        <v>1.08</v>
+      </c>
+      <c r="Z76">
+        <v>2.6</v>
+      </c>
+      <c r="AA76">
+        <v>3.2</v>
+      </c>
+      <c r="AB76">
+        <v>2.4</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>2</v>
+      </c>
+      <c r="AH76">
+        <v>1.85</v>
+      </c>
+      <c r="AI76">
+        <v>1.73</v>
+      </c>
+      <c r="AJ76">
+        <v>2</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>1</v>
+      </c>
+      <c r="AQ76">
+        <v>0.25</v>
+      </c>
+      <c r="AR76">
+        <v>1.25</v>
+      </c>
+      <c r="AS76">
+        <v>1.49</v>
+      </c>
+      <c r="AT76">
+        <v>2.74</v>
+      </c>
+      <c r="AU76">
+        <v>10</v>
+      </c>
+      <c r="AV76">
+        <v>3</v>
+      </c>
+      <c r="AW76">
+        <v>8</v>
+      </c>
+      <c r="AX76">
+        <v>3</v>
+      </c>
+      <c r="AY76">
+        <v>21</v>
+      </c>
+      <c r="AZ76">
+        <v>10</v>
+      </c>
+      <c r="BA76">
+        <v>10</v>
+      </c>
+      <c r="BB76">
+        <v>7</v>
+      </c>
+      <c r="BC76">
+        <v>17</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>0</v>
+      </c>
+      <c r="BJ76">
+        <v>0</v>
+      </c>
+      <c r="BK76">
+        <v>0</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
+      </c>
+      <c r="BM76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BO76">
+        <v>0</v>
+      </c>
+      <c r="BP76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7468940</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45583.625</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>75</v>
+      </c>
+      <c r="H77" t="s">
+        <v>82</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>90</v>
+      </c>
+      <c r="P77" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q77">
+        <v>2.4</v>
+      </c>
+      <c r="R77">
+        <v>2.25</v>
+      </c>
+      <c r="S77">
+        <v>4.5</v>
+      </c>
+      <c r="T77">
+        <v>1.36</v>
+      </c>
+      <c r="U77">
+        <v>3</v>
+      </c>
+      <c r="V77">
+        <v>2.75</v>
+      </c>
+      <c r="W77">
+        <v>1.4</v>
+      </c>
+      <c r="X77">
+        <v>7</v>
+      </c>
+      <c r="Y77">
+        <v>1.1</v>
+      </c>
+      <c r="Z77">
+        <v>1.83</v>
+      </c>
+      <c r="AA77">
+        <v>3.4</v>
+      </c>
+      <c r="AB77">
+        <v>3.6</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>4.61</v>
+      </c>
+      <c r="AF77">
+        <v>1.18</v>
+      </c>
+      <c r="AG77">
+        <v>1.85</v>
+      </c>
+      <c r="AH77">
+        <v>2</v>
+      </c>
+      <c r="AI77">
+        <v>1.8</v>
+      </c>
+      <c r="AJ77">
+        <v>1.91</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1.75</v>
+      </c>
+      <c r="AO77">
+        <v>0.5</v>
+      </c>
+      <c r="AP77">
+        <v>1.4</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
+        <v>1.85</v>
+      </c>
+      <c r="AS77">
+        <v>1.41</v>
+      </c>
+      <c r="AT77">
+        <v>3.26</v>
+      </c>
+      <c r="AU77">
+        <v>6</v>
+      </c>
+      <c r="AV77">
+        <v>7</v>
+      </c>
+      <c r="AW77">
+        <v>7</v>
+      </c>
+      <c r="AX77">
+        <v>4</v>
+      </c>
+      <c r="AY77">
+        <v>15</v>
+      </c>
+      <c r="AZ77">
+        <v>13</v>
+      </c>
+      <c r="BA77">
+        <v>6</v>
+      </c>
+      <c r="BB77">
+        <v>4</v>
+      </c>
+      <c r="BC77">
+        <v>10</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>0</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>0</v>
+      </c>
+      <c r="BJ77">
+        <v>0</v>
+      </c>
+      <c r="BK77">
+        <v>0</v>
+      </c>
+      <c r="BL77">
+        <v>0</v>
+      </c>
+      <c r="BM77">
+        <v>0</v>
+      </c>
+      <c r="BN77">
+        <v>0</v>
+      </c>
+      <c r="BO77">
+        <v>0</v>
+      </c>
+      <c r="BP77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7468939</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45583.625</v>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s">
+        <v>81</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>90</v>
+      </c>
+      <c r="P78" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q78">
+        <v>4.33</v>
+      </c>
+      <c r="R78">
+        <v>2.1</v>
+      </c>
+      <c r="S78">
+        <v>2.63</v>
+      </c>
+      <c r="T78">
+        <v>1.4</v>
+      </c>
+      <c r="U78">
+        <v>2.75</v>
+      </c>
+      <c r="V78">
+        <v>3</v>
+      </c>
+      <c r="W78">
+        <v>1.36</v>
+      </c>
+      <c r="X78">
+        <v>8</v>
+      </c>
+      <c r="Y78">
+        <v>1.08</v>
+      </c>
+      <c r="Z78">
+        <v>3.1</v>
+      </c>
+      <c r="AA78">
+        <v>3.2</v>
+      </c>
+      <c r="AB78">
+        <v>2.1</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>2.05</v>
+      </c>
+      <c r="AH78">
+        <v>1.73</v>
+      </c>
+      <c r="AI78">
+        <v>1.83</v>
+      </c>
+      <c r="AJ78">
+        <v>1.83</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>0.25</v>
+      </c>
+      <c r="AO78">
+        <v>0.75</v>
+      </c>
+      <c r="AP78">
+        <v>0.2</v>
+      </c>
+      <c r="AQ78">
+        <v>1.2</v>
+      </c>
+      <c r="AR78">
+        <v>1</v>
+      </c>
+      <c r="AS78">
+        <v>1.14</v>
+      </c>
+      <c r="AT78">
+        <v>2.14</v>
+      </c>
+      <c r="AU78">
+        <v>6</v>
+      </c>
+      <c r="AV78">
+        <v>7</v>
+      </c>
+      <c r="AW78">
+        <v>4</v>
+      </c>
+      <c r="AX78">
+        <v>6</v>
+      </c>
+      <c r="AY78">
+        <v>12</v>
+      </c>
+      <c r="AZ78">
+        <v>13</v>
+      </c>
+      <c r="BA78">
+        <v>4</v>
+      </c>
+      <c r="BB78">
+        <v>4</v>
+      </c>
+      <c r="BC78">
+        <v>8</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>0</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>0</v>
+      </c>
+      <c r="BI78">
+        <v>0</v>
+      </c>
+      <c r="BJ78">
+        <v>0</v>
+      </c>
+      <c r="BK78">
+        <v>2.38</v>
+      </c>
+      <c r="BL78">
+        <v>0</v>
+      </c>
+      <c r="BM78">
+        <v>0</v>
+      </c>
+      <c r="BN78">
+        <v>0</v>
+      </c>
+      <c r="BO78">
+        <v>0</v>
+      </c>
+      <c r="BP78">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,15 +328,15 @@
     <t>['23', '45+1', '78']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
     <t>['55']</t>
   </si>
   <si>
-    <t>['23']</t>
-  </si>
-  <si>
     <t>['37']</t>
   </si>
   <si>
@@ -349,36 +349,36 @@
     <t>['12', '77']</t>
   </si>
   <si>
+    <t>['33', '68', '70']</t>
+  </si>
+  <si>
     <t>['19', '61', '79']</t>
   </si>
   <si>
     <t>['61']</t>
   </si>
   <si>
-    <t>['33', '68', '70']</t>
-  </si>
-  <si>
     <t>['31']</t>
   </si>
   <si>
     <t>['42', '45', '59']</t>
   </si>
   <si>
+    <t>['21', '35']</t>
+  </si>
+  <si>
+    <t>['22', '80']</t>
+  </si>
+  <si>
+    <t>['21', '42', '52']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
     <t>['6']</t>
   </si>
   <si>
-    <t>['21', '35']</t>
-  </si>
-  <si>
-    <t>['22', '80']</t>
-  </si>
-  <si>
-    <t>['21', '42', '52']</t>
-  </si>
-  <si>
     <t>['27']</t>
   </si>
   <si>
@@ -418,15 +418,15 @@
     <t>['9']</t>
   </si>
   <si>
+    <t>['39', '51']</t>
+  </si>
+  <si>
     <t>['71', '83']</t>
   </si>
   <si>
     <t>['45+1', '62', '84']</t>
   </si>
   <si>
-    <t>['39', '51']</t>
-  </si>
-  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -439,34 +439,37 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['53', '64']</t>
   </si>
   <si>
     <t>['54', '81']</t>
   </si>
   <si>
-    <t>['84']</t>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['17']</t>
   </si>
   <si>
     <t>['9', '15', '53', '56']</t>
   </si>
   <si>
-    <t>['17']</t>
-  </si>
-  <si>
-    <t>['22']</t>
-  </si>
-  <si>
     <t>['15', '21', '43']</t>
   </si>
   <si>
+    <t>['65', '81']</t>
+  </si>
+  <si>
     <t>['15', '26', '34']</t>
   </si>
   <si>
     <t>['31', '90+2']</t>
   </si>
   <si>
-    <t>['65', '81']</t>
+    <t>['2', '38', '90+3']</t>
   </si>
   <si>
     <t>['16', '45+2']</t>
@@ -499,12 +502,12 @@
     <t>['3', '40', '52', '60']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['50']</t>
   </si>
   <si>
-    <t>['52']</t>
-  </si>
-  <si>
     <t>['68']</t>
   </si>
   <si>
@@ -526,18 +529,18 @@
     <t>['18', '68', '85']</t>
   </si>
   <si>
+    <t>['55', '60', '66', '70']</t>
+  </si>
+  <si>
+    <t>['4', '65']</t>
+  </si>
+  <si>
+    <t>['39', '75']</t>
+  </si>
+  <si>
     <t>['15', '37', '69']</t>
   </si>
   <si>
-    <t>['4', '65']</t>
-  </si>
-  <si>
-    <t>['55', '60', '66', '70']</t>
-  </si>
-  <si>
-    <t>['39', '75']</t>
-  </si>
-  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -559,12 +562,12 @@
     <t>['70']</t>
   </si>
   <si>
+    <t>['10', '82']</t>
+  </si>
+  <si>
     <t>['30']</t>
   </si>
   <si>
-    <t>['10', '82']</t>
-  </si>
-  <si>
     <t>['20', '45+1', '57']</t>
   </si>
   <si>
@@ -577,28 +580,31 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['35', '87']</t>
+  </si>
+  <si>
     <t>['88']</t>
   </si>
   <si>
-    <t>['35', '87']</t>
-  </si>
-  <si>
-    <t>['45+1']</t>
-  </si>
-  <si>
     <t>['45+2', '76']</t>
   </si>
   <si>
+    <t>['9', '12']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['11', '63']</t>
+  </si>
+  <si>
     <t>['56', '68']</t>
   </si>
   <si>
-    <t>['11', '63']</t>
-  </si>
-  <si>
-    <t>['58']</t>
-  </si>
-  <si>
-    <t>['9', '12']</t>
+    <t>['42']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1225,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1300,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1503,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.5</v>
+        <v>1.22</v>
       </c>
       <c r="AQ3">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1631,7 +1637,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1709,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1915,10 +1921,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2043,7 +2049,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2121,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.6</v>
+        <v>1.78</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2327,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AQ7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2455,7 +2461,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2533,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AQ8">
         <v>2.25</v>
@@ -2661,7 +2667,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2739,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ9">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2867,7 +2873,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2945,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3073,7 +3079,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3148,22 +3154,22 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11">
         <v>1</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3279,7 +3285,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3354,22 +3360,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AU12">
         <v>2</v>
@@ -3485,7 +3491,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3560,22 +3566,22 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -3763,25 +3769,25 @@
         <v>1.56</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
-        <v>0.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -3969,25 +3975,25 @@
         <v>1.53</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AU15">
         <v>5</v>
@@ -4103,7 +4109,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4175,25 +4181,25 @@
         <v>1.8</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4309,7 +4315,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4381,7 +4387,7 @@
         <v>2.12</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -4390,16 +4396,16 @@
         <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>3.76</v>
       </c>
       <c r="AU17">
         <v>5</v>
@@ -4587,25 +4593,25 @@
         <v>1.85</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.75</v>
+        <v>1.78</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AU18">
         <v>6</v>
@@ -4796,22 +4802,22 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ19">
-        <v>0.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AU19">
         <v>3</v>
@@ -4927,7 +4933,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -4999,25 +5005,25 @@
         <v>1.7</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>1.22</v>
       </c>
       <c r="AQ20">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
-        <v>0.67</v>
+        <v>1.04</v>
       </c>
       <c r="AS20">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="AT20">
-        <v>1.83</v>
+        <v>2.41</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5133,7 +5139,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5205,7 +5211,7 @@
         <v>1.55</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO21">
         <v>3</v>
@@ -5217,13 +5223,13 @@
         <v>2.25</v>
       </c>
       <c r="AR21">
-        <v>1.81</v>
+        <v>1.31</v>
       </c>
       <c r="AS21">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AT21">
-        <v>3.44</v>
+        <v>2.96</v>
       </c>
       <c r="AU21">
         <v>3</v>
@@ -5339,7 +5345,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5414,22 +5420,22 @@
         <v>3</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AQ22">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR22">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AS22">
-        <v>1.26</v>
+        <v>1.03</v>
       </c>
       <c r="AT22">
-        <v>2.9</v>
+        <v>2.61</v>
       </c>
       <c r="AU22">
         <v>7</v>
@@ -5503,7 +5509,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7468886</v>
+        <v>7468888</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5518,190 +5524,190 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
       <c r="O23" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" t="s">
         <v>90</v>
       </c>
-      <c r="P23" t="s">
-        <v>161</v>
-      </c>
       <c r="Q23">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="R23">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S23">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T23">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U23">
-        <v>2.63</v>
+        <v>2.82</v>
       </c>
       <c r="V23">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="W23">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X23">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="Y23">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z23">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AA23">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AB23">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AC23">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AD23">
-        <v>10.25</v>
+        <v>8.9</v>
       </c>
       <c r="AE23">
+        <v>1.28</v>
+      </c>
+      <c r="AF23">
+        <v>3.22</v>
+      </c>
+      <c r="AG23">
+        <v>1.93</v>
+      </c>
+      <c r="AH23">
+        <v>1.83</v>
+      </c>
+      <c r="AI23">
+        <v>1.74</v>
+      </c>
+      <c r="AJ23">
+        <v>2.02</v>
+      </c>
+      <c r="AK23">
+        <v>1.52</v>
+      </c>
+      <c r="AL23">
         <v>1.32</v>
       </c>
-      <c r="AF23">
-        <v>3.43</v>
-      </c>
-      <c r="AG23">
-        <v>2.16</v>
-      </c>
-      <c r="AH23">
-        <v>1.66</v>
-      </c>
-      <c r="AI23">
-        <v>1.73</v>
-      </c>
-      <c r="AJ23">
-        <v>2</v>
-      </c>
-      <c r="AK23">
-        <v>1.45</v>
-      </c>
-      <c r="AL23">
-        <v>1.38</v>
-      </c>
       <c r="AM23">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="AN23">
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR23">
-        <v>0.67</v>
+        <v>1.48</v>
       </c>
       <c r="AS23">
-        <v>0.75</v>
+        <v>1.21</v>
       </c>
       <c r="AT23">
-        <v>1.42</v>
+        <v>2.69</v>
       </c>
       <c r="AU23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX23">
         <v>5</v>
       </c>
       <c r="AY23">
+        <v>13</v>
+      </c>
+      <c r="AZ23">
+        <v>13</v>
+      </c>
+      <c r="BA23">
+        <v>3</v>
+      </c>
+      <c r="BB23">
+        <v>9</v>
+      </c>
+      <c r="BC23">
         <v>12</v>
       </c>
-      <c r="AZ23">
-        <v>10</v>
-      </c>
-      <c r="BA23">
+      <c r="BD23">
+        <v>2.1</v>
+      </c>
+      <c r="BE23">
         <v>8</v>
       </c>
-      <c r="BB23">
-        <v>3</v>
-      </c>
-      <c r="BC23">
-        <v>11</v>
-      </c>
-      <c r="BD23">
-        <v>1.95</v>
-      </c>
-      <c r="BE23">
-        <v>7.5</v>
-      </c>
       <c r="BF23">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BG23">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="BH23">
-        <v>2.84</v>
+        <v>3.56</v>
       </c>
       <c r="BI23">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="BJ23">
-        <v>2.11</v>
+        <v>2.55</v>
       </c>
       <c r="BK23">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="BL23">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="BM23">
-        <v>2.84</v>
+        <v>2.29</v>
       </c>
       <c r="BN23">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="BO23">
-        <v>3.92</v>
+        <v>3.04</v>
       </c>
       <c r="BP23">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5748,7 +5754,7 @@
         <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P24" t="s">
         <v>162</v>
@@ -5826,22 +5832,22 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AR24">
-        <v>1.39</v>
+        <v>1.73</v>
       </c>
       <c r="AS24">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AT24">
-        <v>3.04</v>
+        <v>3.63</v>
       </c>
       <c r="AU24">
         <v>2</v>
@@ -5915,7 +5921,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7468885</v>
+        <v>7468886</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5930,10 +5936,10 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5945,157 +5951,157 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="P25" t="s">
         <v>163</v>
       </c>
       <c r="Q25">
-        <v>2.83</v>
+        <v>3.25</v>
       </c>
       <c r="R25">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S25">
-        <v>3.74</v>
+        <v>3.4</v>
       </c>
       <c r="T25">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U25">
-        <v>2.78</v>
+        <v>2.63</v>
       </c>
       <c r="V25">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="W25">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="X25">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="Y25">
         <v>1.07</v>
       </c>
       <c r="Z25">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="AA25">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="AB25">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="AC25">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AD25">
-        <v>8.800000000000001</v>
+        <v>10.25</v>
       </c>
       <c r="AE25">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AF25">
-        <v>3.18</v>
+        <v>3.43</v>
       </c>
       <c r="AG25">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="AH25">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="AI25">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AJ25">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AK25">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AL25">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AM25">
+        <v>1.45</v>
+      </c>
+      <c r="AN25">
+        <v>1.5</v>
+      </c>
+      <c r="AO25">
+        <v>2</v>
+      </c>
+      <c r="AP25">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ25">
+        <v>1.63</v>
+      </c>
+      <c r="AR25">
+        <v>0.96</v>
+      </c>
+      <c r="AS25">
+        <v>1.15</v>
+      </c>
+      <c r="AT25">
+        <v>2.11</v>
+      </c>
+      <c r="AU25">
+        <v>2</v>
+      </c>
+      <c r="AV25">
+        <v>5</v>
+      </c>
+      <c r="AW25">
+        <v>6</v>
+      </c>
+      <c r="AX25">
+        <v>5</v>
+      </c>
+      <c r="AY25">
+        <v>12</v>
+      </c>
+      <c r="AZ25">
+        <v>10</v>
+      </c>
+      <c r="BA25">
+        <v>8</v>
+      </c>
+      <c r="BB25">
+        <v>3</v>
+      </c>
+      <c r="BC25">
+        <v>11</v>
+      </c>
+      <c r="BD25">
+        <v>1.95</v>
+      </c>
+      <c r="BE25">
+        <v>7.5</v>
+      </c>
+      <c r="BF25">
+        <v>2.1</v>
+      </c>
+      <c r="BG25">
+        <v>1.35</v>
+      </c>
+      <c r="BH25">
+        <v>2.84</v>
+      </c>
+      <c r="BI25">
         <v>1.65</v>
       </c>
-      <c r="AN25">
-        <v>3</v>
-      </c>
-      <c r="AO25">
-        <v>1</v>
-      </c>
-      <c r="AP25">
-        <v>2.6</v>
-      </c>
-      <c r="AQ25">
-        <v>1</v>
-      </c>
-      <c r="AR25">
-        <v>1.19</v>
-      </c>
-      <c r="AS25">
-        <v>1.31</v>
-      </c>
-      <c r="AT25">
-        <v>2.5</v>
-      </c>
-      <c r="AU25">
-        <v>5</v>
-      </c>
-      <c r="AV25">
-        <v>6</v>
-      </c>
-      <c r="AW25">
-        <v>3</v>
-      </c>
-      <c r="AX25">
-        <v>6</v>
-      </c>
-      <c r="AY25">
-        <v>8</v>
-      </c>
-      <c r="AZ25">
-        <v>12</v>
-      </c>
-      <c r="BA25">
-        <v>5</v>
-      </c>
-      <c r="BB25">
-        <v>11</v>
-      </c>
-      <c r="BC25">
-        <v>16</v>
-      </c>
-      <c r="BD25">
-        <v>1.69</v>
-      </c>
-      <c r="BE25">
-        <v>8</v>
-      </c>
-      <c r="BF25">
-        <v>2.54</v>
-      </c>
-      <c r="BG25">
-        <v>1.28</v>
-      </c>
-      <c r="BH25">
-        <v>3.2</v>
-      </c>
-      <c r="BI25">
-        <v>1.53</v>
-      </c>
       <c r="BJ25">
-        <v>2.34</v>
+        <v>2.11</v>
       </c>
       <c r="BK25">
         <v>2.05</v>
@@ -6104,16 +6110,16 @@
         <v>1.7</v>
       </c>
       <c r="BM25">
-        <v>2.49</v>
+        <v>2.84</v>
       </c>
       <c r="BN25">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="BO25">
-        <v>3.34</v>
+        <v>3.92</v>
       </c>
       <c r="BP25">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -6121,7 +6127,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7468888</v>
+        <v>7468885</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6136,49 +6142,49 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" t="s">
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="Q26">
-        <v>3.35</v>
+        <v>2.83</v>
       </c>
       <c r="R26">
         <v>2.12</v>
       </c>
       <c r="S26">
-        <v>3.1</v>
+        <v>3.74</v>
       </c>
       <c r="T26">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="U26">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="V26">
         <v>2.86</v>
@@ -6187,139 +6193,139 @@
         <v>1.39</v>
       </c>
       <c r="X26">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y26">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z26">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="AA26">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AB26">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AC26">
         <v>1.02</v>
       </c>
       <c r="AD26">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE26">
         <v>1.28</v>
       </c>
       <c r="AF26">
-        <v>3.22</v>
+        <v>3.18</v>
       </c>
       <c r="AG26">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AH26">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AI26">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="AJ26">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AK26">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="AL26">
         <v>1.32</v>
       </c>
       <c r="AM26">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP26">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="AQ26">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AR26">
-        <v>2.13</v>
+        <v>1.13</v>
       </c>
       <c r="AS26">
-        <v>0.73</v>
+        <v>1.06</v>
       </c>
       <c r="AT26">
-        <v>2.86</v>
+        <v>2.19</v>
       </c>
       <c r="AU26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX26">
+        <v>6</v>
+      </c>
+      <c r="AY26">
+        <v>8</v>
+      </c>
+      <c r="AZ26">
+        <v>12</v>
+      </c>
+      <c r="BA26">
         <v>5</v>
       </c>
-      <c r="AY26">
-        <v>13</v>
-      </c>
-      <c r="AZ26">
-        <v>13</v>
-      </c>
-      <c r="BA26">
-        <v>3</v>
-      </c>
       <c r="BB26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC26">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BD26">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="BE26">
         <v>8</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="BG26">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="BH26">
-        <v>3.56</v>
+        <v>3.2</v>
       </c>
       <c r="BI26">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="BJ26">
-        <v>2.55</v>
+        <v>2.34</v>
       </c>
       <c r="BK26">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="BL26">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="BM26">
-        <v>2.29</v>
+        <v>2.49</v>
       </c>
       <c r="BN26">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="BO26">
-        <v>3.04</v>
+        <v>3.34</v>
       </c>
       <c r="BP26">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6441,25 +6447,25 @@
         <v>1.35</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO27">
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AR27">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="AS27">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AT27">
-        <v>3.41</v>
+        <v>2.99</v>
       </c>
       <c r="AU27">
         <v>8</v>
@@ -6575,7 +6581,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6647,25 +6653,25 @@
         <v>1.91</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO28">
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR28">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AS28">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AT28">
-        <v>3.33</v>
+        <v>3.04</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -6853,25 +6859,25 @@
         <v>1.57</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR29">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="AS29">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT29">
-        <v>2.88</v>
+        <v>2.61</v>
       </c>
       <c r="AU29">
         <v>5</v>
@@ -6987,7 +6993,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7059,25 +7065,25 @@
         <v>2.4</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO30">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
-        <v>1.49</v>
+        <v>1.82</v>
       </c>
       <c r="AS30">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="AT30">
-        <v>2.9</v>
+        <v>3.02</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7193,7 +7199,7 @@
         <v>90</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>2.1</v>
@@ -7265,25 +7271,25 @@
         <v>2.45</v>
       </c>
       <c r="AN31">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP31">
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="AR31">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AS31">
-        <v>0.83</v>
+        <v>1.44</v>
       </c>
       <c r="AT31">
-        <v>2.21</v>
+        <v>2.63</v>
       </c>
       <c r="AU31">
         <v>2</v>
@@ -7357,7 +7363,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7468899</v>
+        <v>7468898</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7372,10 +7378,10 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -7402,160 +7408,160 @@
         <v>90</v>
       </c>
       <c r="Q32">
+        <v>2.5</v>
+      </c>
+      <c r="R32">
+        <v>2.2</v>
+      </c>
+      <c r="S32">
+        <v>4.5</v>
+      </c>
+      <c r="T32">
+        <v>1.4</v>
+      </c>
+      <c r="U32">
         <v>2.75</v>
       </c>
-      <c r="R32">
-        <v>2</v>
-      </c>
-      <c r="S32">
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>1.36</v>
+      </c>
+      <c r="X32">
+        <v>8</v>
+      </c>
+      <c r="Y32">
+        <v>1.08</v>
+      </c>
+      <c r="Z32">
+        <v>2</v>
+      </c>
+      <c r="AA32">
+        <v>3.1</v>
+      </c>
+      <c r="AB32">
+        <v>3.85</v>
+      </c>
+      <c r="AC32">
+        <v>1.06</v>
+      </c>
+      <c r="AD32">
+        <v>8.5</v>
+      </c>
+      <c r="AE32">
+        <v>1.33</v>
+      </c>
+      <c r="AF32">
+        <v>3.25</v>
+      </c>
+      <c r="AG32">
+        <v>2.03</v>
+      </c>
+      <c r="AH32">
+        <v>1.83</v>
+      </c>
+      <c r="AI32">
+        <v>1.83</v>
+      </c>
+      <c r="AJ32">
+        <v>1.83</v>
+      </c>
+      <c r="AK32">
+        <v>1.22</v>
+      </c>
+      <c r="AL32">
+        <v>1.32</v>
+      </c>
+      <c r="AM32">
+        <v>1.9</v>
+      </c>
+      <c r="AN32">
+        <v>1.67</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>1.75</v>
+      </c>
+      <c r="AQ32">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR32">
+        <v>1.22</v>
+      </c>
+      <c r="AS32">
+        <v>0.95</v>
+      </c>
+      <c r="AT32">
+        <v>2.17</v>
+      </c>
+      <c r="AU32">
+        <v>10</v>
+      </c>
+      <c r="AV32">
         <v>4</v>
       </c>
-      <c r="T32">
-        <v>1.48</v>
-      </c>
-      <c r="U32">
-        <v>2.45</v>
-      </c>
-      <c r="V32">
-        <v>3.2</v>
-      </c>
-      <c r="W32">
+      <c r="AW32">
+        <v>7</v>
+      </c>
+      <c r="AX32">
+        <v>5</v>
+      </c>
+      <c r="AY32">
+        <v>19</v>
+      </c>
+      <c r="AZ32">
+        <v>9</v>
+      </c>
+      <c r="BA32">
+        <v>5</v>
+      </c>
+      <c r="BB32">
+        <v>3</v>
+      </c>
+      <c r="BC32">
+        <v>8</v>
+      </c>
+      <c r="BD32">
+        <v>1.37</v>
+      </c>
+      <c r="BE32">
+        <v>9</v>
+      </c>
+      <c r="BF32">
+        <v>3.7</v>
+      </c>
+      <c r="BG32">
         <v>1.3</v>
       </c>
-      <c r="X32">
-        <v>8.4</v>
-      </c>
-      <c r="Y32">
-        <v>1.05</v>
-      </c>
-      <c r="Z32">
-        <v>2.2</v>
-      </c>
-      <c r="AA32">
-        <v>3.05</v>
-      </c>
-      <c r="AB32">
-        <v>3.15</v>
-      </c>
-      <c r="AC32">
-        <v>1.07</v>
-      </c>
-      <c r="AD32">
-        <v>8</v>
-      </c>
-      <c r="AE32">
-        <v>1.4</v>
-      </c>
-      <c r="AF32">
-        <v>2.9</v>
-      </c>
-      <c r="AG32">
-        <v>2.09</v>
-      </c>
-      <c r="AH32">
-        <v>1.66</v>
-      </c>
-      <c r="AI32">
-        <v>1.9</v>
-      </c>
-      <c r="AJ32">
-        <v>1.77</v>
-      </c>
-      <c r="AK32">
-        <v>1.28</v>
-      </c>
-      <c r="AL32">
-        <v>1.28</v>
-      </c>
-      <c r="AM32">
-        <v>1.7</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>2.25</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>2.15</v>
-      </c>
-      <c r="AS32">
-        <v>1.1</v>
-      </c>
-      <c r="AT32">
-        <v>3.25</v>
-      </c>
-      <c r="AU32">
-        <v>6</v>
-      </c>
-      <c r="AV32">
-        <v>5</v>
-      </c>
-      <c r="AW32">
-        <v>4</v>
-      </c>
-      <c r="AX32">
-        <v>6</v>
-      </c>
-      <c r="AY32">
-        <v>10</v>
-      </c>
-      <c r="AZ32">
-        <v>13</v>
-      </c>
-      <c r="BA32">
-        <v>6</v>
-      </c>
-      <c r="BB32">
-        <v>7</v>
-      </c>
-      <c r="BC32">
-        <v>13</v>
-      </c>
-      <c r="BD32">
+      <c r="BH32">
+        <v>3.3</v>
+      </c>
+      <c r="BI32">
+        <v>1.56</v>
+      </c>
+      <c r="BJ32">
+        <v>2.33</v>
+      </c>
+      <c r="BK32">
+        <v>2</v>
+      </c>
+      <c r="BL32">
+        <v>1.8</v>
+      </c>
+      <c r="BM32">
+        <v>2.63</v>
+      </c>
+      <c r="BN32">
         <v>1.45</v>
       </c>
-      <c r="BE32">
-        <v>8.5</v>
-      </c>
-      <c r="BF32">
-        <v>3.29</v>
-      </c>
-      <c r="BG32">
-        <v>1.29</v>
-      </c>
-      <c r="BH32">
-        <v>3.4</v>
-      </c>
-      <c r="BI32">
-        <v>1.53</v>
-      </c>
-      <c r="BJ32">
-        <v>2.4</v>
-      </c>
-      <c r="BK32">
-        <v>1.95</v>
-      </c>
-      <c r="BL32">
-        <v>1.85</v>
-      </c>
-      <c r="BM32">
-        <v>2.55</v>
-      </c>
-      <c r="BN32">
-        <v>1.48</v>
-      </c>
       <c r="BO32">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="BP32">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -7563,7 +7569,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7468897</v>
+        <v>7468899</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -7578,25 +7584,25 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>3</v>
@@ -7605,43 +7611,43 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="Q33">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="R33">
         <v>2</v>
       </c>
       <c r="S33">
+        <v>4</v>
+      </c>
+      <c r="T33">
+        <v>1.48</v>
+      </c>
+      <c r="U33">
+        <v>2.45</v>
+      </c>
+      <c r="V33">
         <v>3.2</v>
       </c>
-      <c r="T33">
-        <v>1.45</v>
-      </c>
-      <c r="U33">
-        <v>2.55</v>
-      </c>
-      <c r="V33">
-        <v>3</v>
-      </c>
       <c r="W33">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X33">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="Y33">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z33">
-        <v>2.95</v>
+        <v>2.2</v>
       </c>
       <c r="AA33">
         <v>3.05</v>
       </c>
       <c r="AB33">
-        <v>2.35</v>
+        <v>3.15</v>
       </c>
       <c r="AC33">
         <v>1.07</v>
@@ -7650,118 +7656,118 @@
         <v>8</v>
       </c>
       <c r="AE33">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AF33">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AG33">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="AH33">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AI33">
+        <v>1.9</v>
+      </c>
+      <c r="AJ33">
         <v>1.77</v>
       </c>
-      <c r="AJ33">
-        <v>1.9</v>
-      </c>
       <c r="AK33">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AL33">
         <v>1.28</v>
       </c>
       <c r="AM33">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP33">
-        <v>0.75</v>
+        <v>1.88</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AS33">
+        <v>1.38</v>
+      </c>
+      <c r="AT33">
+        <v>3.02</v>
+      </c>
+      <c r="AU33">
+        <v>6</v>
+      </c>
+      <c r="AV33">
+        <v>5</v>
+      </c>
+      <c r="AW33">
+        <v>4</v>
+      </c>
+      <c r="AX33">
+        <v>6</v>
+      </c>
+      <c r="AY33">
+        <v>10</v>
+      </c>
+      <c r="AZ33">
+        <v>13</v>
+      </c>
+      <c r="BA33">
+        <v>6</v>
+      </c>
+      <c r="BB33">
+        <v>7</v>
+      </c>
+      <c r="BC33">
+        <v>13</v>
+      </c>
+      <c r="BD33">
+        <v>1.45</v>
+      </c>
+      <c r="BE33">
+        <v>8.5</v>
+      </c>
+      <c r="BF33">
+        <v>3.29</v>
+      </c>
+      <c r="BG33">
+        <v>1.29</v>
+      </c>
+      <c r="BH33">
+        <v>3.4</v>
+      </c>
+      <c r="BI33">
         <v>1.53</v>
       </c>
-      <c r="AT33">
-        <v>3.22</v>
-      </c>
-      <c r="AU33">
-        <v>9</v>
-      </c>
-      <c r="AV33">
-        <v>6</v>
-      </c>
-      <c r="AW33">
-        <v>9</v>
-      </c>
-      <c r="AX33">
-        <v>3</v>
-      </c>
-      <c r="AY33">
-        <v>21</v>
-      </c>
-      <c r="AZ33">
-        <v>15</v>
-      </c>
-      <c r="BA33">
-        <v>5</v>
-      </c>
-      <c r="BB33">
-        <v>5</v>
-      </c>
-      <c r="BC33">
-        <v>10</v>
-      </c>
-      <c r="BD33">
+      <c r="BJ33">
+        <v>2.4</v>
+      </c>
+      <c r="BK33">
+        <v>1.95</v>
+      </c>
+      <c r="BL33">
         <v>1.85</v>
       </c>
-      <c r="BE33">
-        <v>8</v>
-      </c>
-      <c r="BF33">
-        <v>2.28</v>
-      </c>
-      <c r="BG33">
-        <v>1.26</v>
-      </c>
-      <c r="BH33">
-        <v>3.65</v>
-      </c>
-      <c r="BI33">
+      <c r="BM33">
+        <v>2.55</v>
+      </c>
+      <c r="BN33">
         <v>1.48</v>
       </c>
-      <c r="BJ33">
-        <v>2.55</v>
-      </c>
-      <c r="BK33">
-        <v>1.88</v>
-      </c>
-      <c r="BL33">
-        <v>1.92</v>
-      </c>
-      <c r="BM33">
-        <v>2.43</v>
-      </c>
-      <c r="BN33">
-        <v>1.52</v>
-      </c>
       <c r="BO33">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="BP33">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="34" spans="1:68">
@@ -7883,25 +7889,25 @@
         <v>2</v>
       </c>
       <c r="AN34">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO34">
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="AQ34">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AR34">
-        <v>1.55</v>
+        <v>1.17</v>
       </c>
       <c r="AS34">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="AT34">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="AU34">
         <v>4</v>
@@ -7975,7 +7981,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7468898</v>
+        <v>7468897</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7990,25 +7996,25 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -8017,163 +8023,163 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="Q35">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="R35">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="T35">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="U35">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="V35">
         <v>3</v>
       </c>
       <c r="W35">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X35">
+        <v>8.1</v>
+      </c>
+      <c r="Y35">
+        <v>1.06</v>
+      </c>
+      <c r="Z35">
+        <v>2.95</v>
+      </c>
+      <c r="AA35">
+        <v>3.05</v>
+      </c>
+      <c r="AB35">
+        <v>2.35</v>
+      </c>
+      <c r="AC35">
+        <v>1.07</v>
+      </c>
+      <c r="AD35">
         <v>8</v>
       </c>
-      <c r="Y35">
-        <v>1.08</v>
-      </c>
-      <c r="Z35">
-        <v>2</v>
-      </c>
-      <c r="AA35">
-        <v>3.1</v>
-      </c>
-      <c r="AB35">
-        <v>3.85</v>
-      </c>
-      <c r="AC35">
-        <v>1.06</v>
-      </c>
-      <c r="AD35">
-        <v>8.5</v>
-      </c>
       <c r="AE35">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AF35">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AG35">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="AH35">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AI35">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AJ35">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AK35">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="AL35">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AM35">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="AN35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AR35">
-        <v>0.82</v>
+        <v>1.13</v>
       </c>
       <c r="AS35">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="AT35">
-        <v>2.06</v>
+        <v>2.8</v>
       </c>
       <c r="AU35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ35">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA35">
         <v>5</v>
       </c>
       <c r="BB35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC35">
+        <v>10</v>
+      </c>
+      <c r="BD35">
+        <v>1.85</v>
+      </c>
+      <c r="BE35">
         <v>8</v>
       </c>
-      <c r="BD35">
-        <v>1.37</v>
-      </c>
-      <c r="BE35">
-        <v>9</v>
-      </c>
       <c r="BF35">
-        <v>3.7</v>
+        <v>2.28</v>
       </c>
       <c r="BG35">
+        <v>1.26</v>
+      </c>
+      <c r="BH35">
+        <v>3.65</v>
+      </c>
+      <c r="BI35">
+        <v>1.48</v>
+      </c>
+      <c r="BJ35">
+        <v>2.55</v>
+      </c>
+      <c r="BK35">
+        <v>1.88</v>
+      </c>
+      <c r="BL35">
+        <v>1.92</v>
+      </c>
+      <c r="BM35">
+        <v>2.43</v>
+      </c>
+      <c r="BN35">
+        <v>1.52</v>
+      </c>
+      <c r="BO35">
+        <v>3.3</v>
+      </c>
+      <c r="BP35">
         <v>1.3</v>
-      </c>
-      <c r="BH35">
-        <v>3.3</v>
-      </c>
-      <c r="BI35">
-        <v>1.56</v>
-      </c>
-      <c r="BJ35">
-        <v>2.33</v>
-      </c>
-      <c r="BK35">
-        <v>2</v>
-      </c>
-      <c r="BL35">
-        <v>1.8</v>
-      </c>
-      <c r="BM35">
-        <v>2.63</v>
-      </c>
-      <c r="BN35">
-        <v>1.45</v>
-      </c>
-      <c r="BO35">
-        <v>3.65</v>
-      </c>
-      <c r="BP35">
-        <v>1.26</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8223,7 +8229,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8298,22 +8304,22 @@
         <v>3</v>
       </c>
       <c r="AO36">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AP36">
         <v>2.25</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR36">
-        <v>1.66</v>
+        <v>1.41</v>
       </c>
       <c r="AS36">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="AT36">
-        <v>2.93</v>
+        <v>3.09</v>
       </c>
       <c r="AU36">
         <v>7</v>
@@ -8429,7 +8435,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8501,25 +8507,25 @@
         <v>1.4</v>
       </c>
       <c r="AN37">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>2.6</v>
+        <v>1.78</v>
       </c>
       <c r="AQ37">
-        <v>0.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR37">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AS37">
-        <v>2.07</v>
+        <v>1.52</v>
       </c>
       <c r="AT37">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU37">
         <v>6</v>
@@ -8635,7 +8641,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8707,25 +8713,25 @@
         <v>1.48</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO38">
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ38">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR38">
-        <v>1.59</v>
+        <v>1.1</v>
       </c>
       <c r="AS38">
-        <v>0.84</v>
+        <v>1.41</v>
       </c>
       <c r="AT38">
-        <v>2.43</v>
+        <v>2.51</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -8799,7 +8805,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7468911</v>
+        <v>7468903</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8814,10 +8820,10 @@
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -8829,175 +8835,175 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O39" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="Q39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S39">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="T39">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U39">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V39">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W39">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X39">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y39">
+        <v>1.07</v>
+      </c>
+      <c r="Z39">
+        <v>2.88</v>
+      </c>
+      <c r="AA39">
+        <v>3.15</v>
+      </c>
+      <c r="AB39">
+        <v>2.45</v>
+      </c>
+      <c r="AC39">
         <v>1.05</v>
       </c>
-      <c r="Z39">
-        <v>2</v>
-      </c>
-      <c r="AA39">
-        <v>3.25</v>
-      </c>
-      <c r="AB39">
-        <v>3.75</v>
-      </c>
-      <c r="AC39">
-        <v>1.08</v>
-      </c>
       <c r="AD39">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE39">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AF39">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="AG39">
-        <v>2.43</v>
+        <v>2.16</v>
       </c>
       <c r="AH39">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="AI39">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AJ39">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AK39">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="AL39">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AM39">
-        <v>1.72</v>
+        <v>1.45</v>
       </c>
       <c r="AN39">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AO39">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ39">
-        <v>0.25</v>
+        <v>1.78</v>
       </c>
       <c r="AR39">
-        <v>1.25</v>
+        <v>0.98</v>
       </c>
       <c r="AS39">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT39">
-        <v>2.5</v>
+        <v>2.21</v>
       </c>
       <c r="AU39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AY39">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ39">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="BA39">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BB39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC39">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD39">
-        <v>1.62</v>
+        <v>2.39</v>
       </c>
       <c r="BE39">
-        <v>8.4</v>
+        <v>6.35</v>
       </c>
       <c r="BF39">
-        <v>2.86</v>
+        <v>1.96</v>
       </c>
       <c r="BG39">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="BH39">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="BI39">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="BJ39">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="BK39">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="BL39">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="BM39">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BN39">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="BO39">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="BP39">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -9005,7 +9011,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7468910</v>
+        <v>7468904</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -9020,190 +9026,190 @@
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="Q40">
-        <v>3.5</v>
+        <v>3.72</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="S40">
-        <v>3.5</v>
+        <v>3.13</v>
       </c>
       <c r="T40">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U40">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="V40">
-        <v>3.5</v>
+        <v>3.23</v>
       </c>
       <c r="W40">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="X40">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="Y40">
         <v>1.05</v>
       </c>
       <c r="Z40">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="AA40">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AB40">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="AC40">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD40">
-        <v>7</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="AE40">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AF40">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AG40">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="AH40">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AI40">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AJ40">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="AK40">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AL40">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AM40">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AN40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO40">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AP40">
-        <v>3</v>
+        <v>1.63</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="AR40">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="AS40">
-        <v>0.82</v>
+        <v>1.45</v>
       </c>
       <c r="AT40">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="AU40">
         <v>6</v>
       </c>
       <c r="AV40">
+        <v>6</v>
+      </c>
+      <c r="AW40">
+        <v>9</v>
+      </c>
+      <c r="AX40">
         <v>4</v>
       </c>
-      <c r="AW40">
-        <v>3</v>
-      </c>
-      <c r="AX40">
-        <v>10</v>
-      </c>
       <c r="AY40">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ40">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC40">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD40">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="BE40">
-        <v>6.45</v>
+        <v>7.5</v>
       </c>
       <c r="BF40">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="BG40">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="BH40">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="BI40">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="BJ40">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="BK40">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="BL40">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="BM40">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="BN40">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="BO40">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="BP40">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9211,7 +9217,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7468907</v>
+        <v>7468905</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9226,190 +9232,190 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>2</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O41" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q41">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R41">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S41">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="T41">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="U41">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="V41">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="W41">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X41">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y41">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z41">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AA41">
+        <v>3.5</v>
+      </c>
+      <c r="AB41">
+        <v>4.25</v>
+      </c>
+      <c r="AC41">
+        <v>1.06</v>
+      </c>
+      <c r="AD41">
+        <v>8.5</v>
+      </c>
+      <c r="AE41">
+        <v>1.35</v>
+      </c>
+      <c r="AF41">
+        <v>3.1</v>
+      </c>
+      <c r="AG41">
+        <v>2.07</v>
+      </c>
+      <c r="AH41">
+        <v>1.71</v>
+      </c>
+      <c r="AI41">
+        <v>1.83</v>
+      </c>
+      <c r="AJ41">
+        <v>1.85</v>
+      </c>
+      <c r="AK41">
+        <v>1.22</v>
+      </c>
+      <c r="AL41">
+        <v>1.25</v>
+      </c>
+      <c r="AM41">
+        <v>1.85</v>
+      </c>
+      <c r="AN41">
+        <v>2.25</v>
+      </c>
+      <c r="AO41">
+        <v>1.75</v>
+      </c>
+      <c r="AP41">
+        <v>1.44</v>
+      </c>
+      <c r="AQ41">
+        <v>1.88</v>
+      </c>
+      <c r="AR41">
+        <v>1.61</v>
+      </c>
+      <c r="AS41">
+        <v>1.6</v>
+      </c>
+      <c r="AT41">
+        <v>3.21</v>
+      </c>
+      <c r="AU41">
+        <v>9</v>
+      </c>
+      <c r="AV41">
+        <v>5</v>
+      </c>
+      <c r="AW41">
+        <v>3</v>
+      </c>
+      <c r="AX41">
+        <v>1</v>
+      </c>
+      <c r="AY41">
+        <v>15</v>
+      </c>
+      <c r="AZ41">
+        <v>9</v>
+      </c>
+      <c r="BA41">
+        <v>6</v>
+      </c>
+      <c r="BB41">
+        <v>4</v>
+      </c>
+      <c r="BC41">
+        <v>10</v>
+      </c>
+      <c r="BD41">
+        <v>1.68</v>
+      </c>
+      <c r="BE41">
+        <v>8.5</v>
+      </c>
+      <c r="BF41">
+        <v>2.68</v>
+      </c>
+      <c r="BG41">
+        <v>1.29</v>
+      </c>
+      <c r="BH41">
         <v>3.4</v>
       </c>
-      <c r="AB41">
-        <v>3.6</v>
-      </c>
-      <c r="AC41">
-        <v>1.03</v>
-      </c>
-      <c r="AD41">
-        <v>9</v>
-      </c>
-      <c r="AE41">
-        <v>1.25</v>
-      </c>
-      <c r="AF41">
-        <v>3.6</v>
-      </c>
-      <c r="AG41">
-        <v>2.1</v>
-      </c>
-      <c r="AH41">
-        <v>1.68</v>
-      </c>
-      <c r="AI41">
-        <v>1.73</v>
-      </c>
-      <c r="AJ41">
-        <v>2</v>
-      </c>
-      <c r="AK41">
-        <v>1.36</v>
-      </c>
-      <c r="AL41">
-        <v>1.31</v>
-      </c>
-      <c r="AM41">
-        <v>1.66</v>
-      </c>
-      <c r="AN41">
-        <v>3</v>
-      </c>
-      <c r="AO41">
-        <v>0.5</v>
-      </c>
-      <c r="AP41">
-        <v>1</v>
-      </c>
-      <c r="AQ41">
-        <v>1.4</v>
-      </c>
-      <c r="AR41">
-        <v>0.8</v>
-      </c>
-      <c r="AS41">
-        <v>1.14</v>
-      </c>
-      <c r="AT41">
-        <v>1.94</v>
-      </c>
-      <c r="AU41">
-        <v>3</v>
-      </c>
-      <c r="AV41">
-        <v>6</v>
-      </c>
-      <c r="AW41">
-        <v>8</v>
-      </c>
-      <c r="AX41">
-        <v>4</v>
-      </c>
-      <c r="AY41">
-        <v>14</v>
-      </c>
-      <c r="AZ41">
-        <v>14</v>
-      </c>
-      <c r="BA41">
-        <v>2</v>
-      </c>
-      <c r="BB41">
-        <v>5</v>
-      </c>
-      <c r="BC41">
-        <v>7</v>
-      </c>
-      <c r="BD41">
-        <v>1.91</v>
-      </c>
-      <c r="BE41">
-        <v>6.45</v>
-      </c>
-      <c r="BF41">
-        <v>2.46</v>
-      </c>
-      <c r="BG41">
+      <c r="BI41">
+        <v>1.53</v>
+      </c>
+      <c r="BJ41">
+        <v>2.4</v>
+      </c>
+      <c r="BK41">
+        <v>2</v>
+      </c>
+      <c r="BL41">
+        <v>1.8</v>
+      </c>
+      <c r="BM41">
+        <v>2.55</v>
+      </c>
+      <c r="BN41">
+        <v>1.48</v>
+      </c>
+      <c r="BO41">
+        <v>3.5</v>
+      </c>
+      <c r="BP41">
         <v>1.27</v>
-      </c>
-      <c r="BH41">
-        <v>3.55</v>
-      </c>
-      <c r="BI41">
-        <v>1.5</v>
-      </c>
-      <c r="BJ41">
-        <v>2.48</v>
-      </c>
-      <c r="BK41">
-        <v>1.9</v>
-      </c>
-      <c r="BL41">
-        <v>1.9</v>
-      </c>
-      <c r="BM41">
-        <v>2.45</v>
-      </c>
-      <c r="BN41">
-        <v>1.5</v>
-      </c>
-      <c r="BO41">
-        <v>3.4</v>
-      </c>
-      <c r="BP41">
-        <v>1.29</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9417,7 +9423,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7468904</v>
+        <v>7468906</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9432,10 +9438,10 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -9447,175 +9453,175 @@
         <v>3</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O42" t="s">
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="Q42">
-        <v>3.72</v>
+        <v>3.25</v>
       </c>
       <c r="R42">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="T42">
         <v>1.44</v>
       </c>
       <c r="U42">
+        <v>2.6</v>
+      </c>
+      <c r="V42">
+        <v>2.95</v>
+      </c>
+      <c r="W42">
+        <v>1.35</v>
+      </c>
+      <c r="X42">
+        <v>7.9</v>
+      </c>
+      <c r="Y42">
+        <v>1.06</v>
+      </c>
+      <c r="Z42">
+        <v>2.65</v>
+      </c>
+      <c r="AA42">
+        <v>3.1</v>
+      </c>
+      <c r="AB42">
         <v>2.7</v>
       </c>
-      <c r="V42">
-        <v>3.23</v>
-      </c>
-      <c r="W42">
-        <v>1.32</v>
-      </c>
-      <c r="X42">
-        <v>8.4</v>
-      </c>
-      <c r="Y42">
-        <v>1.05</v>
-      </c>
-      <c r="Z42">
-        <v>3.05</v>
-      </c>
-      <c r="AA42">
-        <v>3</v>
-      </c>
-      <c r="AB42">
-        <v>2.45</v>
-      </c>
       <c r="AC42">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD42">
-        <v>8.949999999999999</v>
+        <v>8</v>
       </c>
       <c r="AE42">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AF42">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AG42">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AH42">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AI42">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="AJ42">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AK42">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AL42">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AM42">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AQ42">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR42">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="AS42">
+        <v>1.45</v>
+      </c>
+      <c r="AT42">
+        <v>2.81</v>
+      </c>
+      <c r="AU42">
+        <v>7</v>
+      </c>
+      <c r="AV42">
+        <v>5</v>
+      </c>
+      <c r="AW42">
+        <v>6</v>
+      </c>
+      <c r="AX42">
+        <v>8</v>
+      </c>
+      <c r="AY42">
+        <v>16</v>
+      </c>
+      <c r="AZ42">
+        <v>16</v>
+      </c>
+      <c r="BA42">
+        <v>5</v>
+      </c>
+      <c r="BB42">
+        <v>5</v>
+      </c>
+      <c r="BC42">
+        <v>10</v>
+      </c>
+      <c r="BD42">
+        <v>2.19</v>
+      </c>
+      <c r="BE42">
+        <v>6.4</v>
+      </c>
+      <c r="BF42">
+        <v>2.08</v>
+      </c>
+      <c r="BG42">
         <v>1.29</v>
       </c>
-      <c r="AT42">
-        <v>2.7</v>
-      </c>
-      <c r="AU42">
-        <v>6</v>
-      </c>
-      <c r="AV42">
-        <v>6</v>
-      </c>
-      <c r="AW42">
-        <v>9</v>
-      </c>
-      <c r="AX42">
-        <v>4</v>
-      </c>
-      <c r="AY42">
-        <v>15</v>
-      </c>
-      <c r="AZ42">
-        <v>15</v>
-      </c>
-      <c r="BA42">
-        <v>3</v>
-      </c>
-      <c r="BB42">
-        <v>6</v>
-      </c>
-      <c r="BC42">
-        <v>9</v>
-      </c>
-      <c r="BD42">
-        <v>2.1</v>
-      </c>
-      <c r="BE42">
-        <v>7.5</v>
-      </c>
-      <c r="BF42">
-        <v>1.95</v>
-      </c>
-      <c r="BG42">
-        <v>1.36</v>
-      </c>
       <c r="BH42">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="BI42">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="BJ42">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="BK42">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="BL42">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="BM42">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="BN42">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="BO42">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="BP42">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9623,7 +9629,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7468905</v>
+        <v>7468907</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9638,190 +9644,190 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43">
         <v>2</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O43" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q43">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R43">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S43">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="T43">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="U43">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="V43">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="W43">
+        <v>1.4</v>
+      </c>
+      <c r="X43">
+        <v>8</v>
+      </c>
+      <c r="Y43">
+        <v>1.08</v>
+      </c>
+      <c r="Z43">
+        <v>2</v>
+      </c>
+      <c r="AA43">
+        <v>3.4</v>
+      </c>
+      <c r="AB43">
+        <v>3.6</v>
+      </c>
+      <c r="AC43">
+        <v>1.03</v>
+      </c>
+      <c r="AD43">
+        <v>9</v>
+      </c>
+      <c r="AE43">
+        <v>1.25</v>
+      </c>
+      <c r="AF43">
+        <v>3.6</v>
+      </c>
+      <c r="AG43">
+        <v>2.1</v>
+      </c>
+      <c r="AH43">
+        <v>1.68</v>
+      </c>
+      <c r="AI43">
+        <v>1.73</v>
+      </c>
+      <c r="AJ43">
+        <v>2</v>
+      </c>
+      <c r="AK43">
         <v>1.36</v>
       </c>
-      <c r="X43">
-        <v>7.8</v>
-      </c>
-      <c r="Y43">
-        <v>1.06</v>
-      </c>
-      <c r="Z43">
-        <v>1.82</v>
-      </c>
-      <c r="AA43">
-        <v>3.5</v>
-      </c>
-      <c r="AB43">
-        <v>4.25</v>
-      </c>
-      <c r="AC43">
-        <v>1.06</v>
-      </c>
-      <c r="AD43">
-        <v>8.5</v>
-      </c>
-      <c r="AE43">
-        <v>1.35</v>
-      </c>
-      <c r="AF43">
-        <v>3.1</v>
-      </c>
-      <c r="AG43">
-        <v>2.07</v>
-      </c>
-      <c r="AH43">
-        <v>1.71</v>
-      </c>
-      <c r="AI43">
-        <v>1.83</v>
-      </c>
-      <c r="AJ43">
-        <v>1.85</v>
-      </c>
-      <c r="AK43">
-        <v>1.22</v>
-      </c>
       <c r="AL43">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AM43">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="AN43">
         <v>1.5</v>
       </c>
       <c r="AO43">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AQ43">
+        <v>1.56</v>
+      </c>
+      <c r="AR43">
+        <v>1.14</v>
+      </c>
+      <c r="AS43">
+        <v>1.34</v>
+      </c>
+      <c r="AT43">
+        <v>2.48</v>
+      </c>
+      <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
+        <v>6</v>
+      </c>
+      <c r="AW43">
+        <v>8</v>
+      </c>
+      <c r="AX43">
+        <v>4</v>
+      </c>
+      <c r="AY43">
+        <v>14</v>
+      </c>
+      <c r="AZ43">
+        <v>14</v>
+      </c>
+      <c r="BA43">
+        <v>2</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
+      <c r="BC43">
+        <v>7</v>
+      </c>
+      <c r="BD43">
+        <v>1.91</v>
+      </c>
+      <c r="BE43">
+        <v>6.45</v>
+      </c>
+      <c r="BF43">
+        <v>2.46</v>
+      </c>
+      <c r="BG43">
+        <v>1.27</v>
+      </c>
+      <c r="BH43">
+        <v>3.55</v>
+      </c>
+      <c r="BI43">
         <v>1.5</v>
       </c>
-      <c r="AR43">
-        <v>1.73</v>
-      </c>
-      <c r="AS43">
-        <v>1.38</v>
-      </c>
-      <c r="AT43">
-        <v>3.11</v>
-      </c>
-      <c r="AU43">
-        <v>9</v>
-      </c>
-      <c r="AV43">
-        <v>5</v>
-      </c>
-      <c r="AW43">
-        <v>3</v>
-      </c>
-      <c r="AX43">
-        <v>1</v>
-      </c>
-      <c r="AY43">
-        <v>15</v>
-      </c>
-      <c r="AZ43">
-        <v>9</v>
-      </c>
-      <c r="BA43">
-        <v>6</v>
-      </c>
-      <c r="BB43">
-        <v>4</v>
-      </c>
-      <c r="BC43">
-        <v>10</v>
-      </c>
-      <c r="BD43">
-        <v>1.68</v>
-      </c>
-      <c r="BE43">
-        <v>8.5</v>
-      </c>
-      <c r="BF43">
-        <v>2.68</v>
-      </c>
-      <c r="BG43">
+      <c r="BJ43">
+        <v>2.48</v>
+      </c>
+      <c r="BK43">
+        <v>1.9</v>
+      </c>
+      <c r="BL43">
+        <v>1.9</v>
+      </c>
+      <c r="BM43">
+        <v>2.45</v>
+      </c>
+      <c r="BN43">
+        <v>1.5</v>
+      </c>
+      <c r="BO43">
+        <v>3.4</v>
+      </c>
+      <c r="BP43">
         <v>1.29</v>
-      </c>
-      <c r="BH43">
-        <v>3.4</v>
-      </c>
-      <c r="BI43">
-        <v>1.53</v>
-      </c>
-      <c r="BJ43">
-        <v>2.4</v>
-      </c>
-      <c r="BK43">
-        <v>2</v>
-      </c>
-      <c r="BL43">
-        <v>1.8</v>
-      </c>
-      <c r="BM43">
-        <v>2.55</v>
-      </c>
-      <c r="BN43">
-        <v>1.48</v>
-      </c>
-      <c r="BO43">
-        <v>3.5</v>
-      </c>
-      <c r="BP43">
-        <v>1.27</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -9829,7 +9835,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7468903</v>
+        <v>7468911</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9844,10 +9850,10 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -9859,175 +9865,175 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>4.33</v>
+      </c>
+      <c r="T44">
+        <v>1.53</v>
+      </c>
+      <c r="U44">
+        <v>2.38</v>
+      </c>
+      <c r="V44">
+        <v>3.5</v>
+      </c>
+      <c r="W44">
+        <v>1.29</v>
+      </c>
+      <c r="X44">
+        <v>11</v>
+      </c>
+      <c r="Y44">
+        <v>1.05</v>
+      </c>
+      <c r="Z44">
+        <v>2</v>
+      </c>
+      <c r="AA44">
+        <v>3.25</v>
+      </c>
+      <c r="AB44">
+        <v>3.75</v>
+      </c>
+      <c r="AC44">
+        <v>1.08</v>
+      </c>
+      <c r="AD44">
+        <v>6.5</v>
+      </c>
+      <c r="AE44">
+        <v>1.48</v>
+      </c>
+      <c r="AF44">
+        <v>2.5</v>
+      </c>
+      <c r="AG44">
+        <v>2.43</v>
+      </c>
+      <c r="AH44">
+        <v>1.52</v>
+      </c>
+      <c r="AI44">
+        <v>2.2</v>
+      </c>
+      <c r="AJ44">
+        <v>1.62</v>
+      </c>
+      <c r="AK44">
+        <v>1.28</v>
+      </c>
+      <c r="AL44">
+        <v>1.35</v>
+      </c>
+      <c r="AM44">
+        <v>1.72</v>
+      </c>
+      <c r="AN44">
+        <v>0.25</v>
+      </c>
+      <c r="AO44">
+        <v>1.75</v>
+      </c>
+      <c r="AP44">
+        <v>0.89</v>
+      </c>
+      <c r="AQ44">
+        <v>1.22</v>
+      </c>
+      <c r="AR44">
+        <v>1.48</v>
+      </c>
+      <c r="AS44">
+        <v>1.3</v>
+      </c>
+      <c r="AT44">
+        <v>2.78</v>
+      </c>
+      <c r="AU44">
+        <v>8</v>
+      </c>
+      <c r="AV44">
+        <v>3</v>
+      </c>
+      <c r="AW44">
         <v>4</v>
       </c>
-      <c r="N44">
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>18</v>
+      </c>
+      <c r="AZ44">
         <v>4</v>
       </c>
-      <c r="O44" t="s">
-        <v>90</v>
-      </c>
-      <c r="P44" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q44">
-        <v>3.4</v>
-      </c>
-      <c r="R44">
-        <v>2.1</v>
-      </c>
-      <c r="S44">
-        <v>3.2</v>
-      </c>
-      <c r="T44">
-        <v>1.44</v>
-      </c>
-      <c r="U44">
-        <v>2.63</v>
-      </c>
-      <c r="V44">
-        <v>3.25</v>
-      </c>
-      <c r="W44">
-        <v>1.33</v>
-      </c>
-      <c r="X44">
-        <v>9</v>
-      </c>
-      <c r="Y44">
-        <v>1.07</v>
-      </c>
-      <c r="Z44">
-        <v>2.88</v>
-      </c>
-      <c r="AA44">
-        <v>3.15</v>
-      </c>
-      <c r="AB44">
-        <v>2.45</v>
-      </c>
-      <c r="AC44">
-        <v>1.05</v>
-      </c>
-      <c r="AD44">
-        <v>8</v>
-      </c>
-      <c r="AE44">
-        <v>1.3</v>
-      </c>
-      <c r="AF44">
-        <v>3.2</v>
-      </c>
-      <c r="AG44">
+      <c r="BA44">
+        <v>10</v>
+      </c>
+      <c r="BB44">
+        <v>1</v>
+      </c>
+      <c r="BC44">
+        <v>11</v>
+      </c>
+      <c r="BD44">
+        <v>1.62</v>
+      </c>
+      <c r="BE44">
+        <v>8.4</v>
+      </c>
+      <c r="BF44">
+        <v>2.86</v>
+      </c>
+      <c r="BG44">
+        <v>1.37</v>
+      </c>
+      <c r="BH44">
+        <v>2.95</v>
+      </c>
+      <c r="BI44">
+        <v>1.67</v>
+      </c>
+      <c r="BJ44">
+        <v>2.12</v>
+      </c>
+      <c r="BK44">
         <v>2.16</v>
       </c>
-      <c r="AH44">
-        <v>1.66</v>
-      </c>
-      <c r="AI44">
-        <v>1.83</v>
-      </c>
-      <c r="AJ44">
-        <v>1.83</v>
-      </c>
-      <c r="AK44">
-        <v>1.51</v>
-      </c>
-      <c r="AL44">
-        <v>1.33</v>
-      </c>
-      <c r="AM44">
-        <v>1.45</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>0.2</v>
-      </c>
-      <c r="AQ44">
-        <v>0.75</v>
-      </c>
-      <c r="AR44">
-        <v>0.8</v>
-      </c>
-      <c r="AS44">
-        <v>1.08</v>
-      </c>
-      <c r="AT44">
-        <v>1.88</v>
-      </c>
-      <c r="AU44">
-        <v>7</v>
-      </c>
-      <c r="AV44">
-        <v>6</v>
-      </c>
-      <c r="AW44">
-        <v>2</v>
-      </c>
-      <c r="AX44">
-        <v>6</v>
-      </c>
-      <c r="AY44">
-        <v>13</v>
-      </c>
-      <c r="AZ44">
-        <v>19</v>
-      </c>
-      <c r="BA44">
-        <v>2</v>
-      </c>
-      <c r="BB44">
-        <v>5</v>
-      </c>
-      <c r="BC44">
-        <v>7</v>
-      </c>
-      <c r="BD44">
-        <v>2.39</v>
-      </c>
-      <c r="BE44">
-        <v>6.35</v>
-      </c>
-      <c r="BF44">
-        <v>1.96</v>
-      </c>
-      <c r="BG44">
-        <v>1.32</v>
-      </c>
-      <c r="BH44">
-        <v>3.2</v>
-      </c>
-      <c r="BI44">
-        <v>1.58</v>
-      </c>
-      <c r="BJ44">
-        <v>2.28</v>
-      </c>
-      <c r="BK44">
-        <v>2.02</v>
-      </c>
       <c r="BL44">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="BM44">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="BN44">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="BO44">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="BP44">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -10035,7 +10041,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7468906</v>
+        <v>7468910</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -10050,103 +10056,103 @@
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O45" t="s">
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="Q45">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T45">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U45">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="V45">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="W45">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="X45">
-        <v>7.9</v>
+        <v>11</v>
       </c>
       <c r="Y45">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z45">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="AA45">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="AB45">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AC45">
         <v>1.07</v>
       </c>
       <c r="AD45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE45">
+        <v>1.5</v>
+      </c>
+      <c r="AF45">
+        <v>2.4</v>
+      </c>
+      <c r="AG45">
+        <v>2.5</v>
+      </c>
+      <c r="AH45">
+        <v>1.5</v>
+      </c>
+      <c r="AI45">
+        <v>2</v>
+      </c>
+      <c r="AJ45">
+        <v>1.73</v>
+      </c>
+      <c r="AK45">
+        <v>1.46</v>
+      </c>
+      <c r="AL45">
         <v>1.36</v>
       </c>
-      <c r="AF45">
-        <v>3.1</v>
-      </c>
-      <c r="AG45">
-        <v>2.08</v>
-      </c>
-      <c r="AH45">
-        <v>1.71</v>
-      </c>
-      <c r="AI45">
-        <v>1.75</v>
-      </c>
-      <c r="AJ45">
-        <v>1.93</v>
-      </c>
-      <c r="AK45">
-        <v>1.48</v>
-      </c>
-      <c r="AL45">
-        <v>1.3</v>
-      </c>
       <c r="AM45">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AN45">
         <v>1.5</v>
@@ -10155,85 +10161,85 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
         <v>1</v>
       </c>
       <c r="AR45">
-        <v>1.75</v>
+        <v>1.39</v>
       </c>
       <c r="AS45">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="AT45">
-        <v>3.17</v>
+        <v>2.49</v>
       </c>
       <c r="AU45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY45">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ45">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA45">
         <v>5</v>
       </c>
       <c r="BB45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC45">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD45">
-        <v>2.19</v>
+        <v>1.97</v>
       </c>
       <c r="BE45">
-        <v>6.4</v>
+        <v>6.45</v>
       </c>
       <c r="BF45">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="BG45">
+        <v>1.27</v>
+      </c>
+      <c r="BH45">
+        <v>3.55</v>
+      </c>
+      <c r="BI45">
+        <v>1.5</v>
+      </c>
+      <c r="BJ45">
+        <v>2.48</v>
+      </c>
+      <c r="BK45">
+        <v>1.95</v>
+      </c>
+      <c r="BL45">
+        <v>1.85</v>
+      </c>
+      <c r="BM45">
+        <v>2.45</v>
+      </c>
+      <c r="BN45">
+        <v>1.5</v>
+      </c>
+      <c r="BO45">
+        <v>3.4</v>
+      </c>
+      <c r="BP45">
         <v>1.29</v>
-      </c>
-      <c r="BH45">
-        <v>3.4</v>
-      </c>
-      <c r="BI45">
-        <v>1.53</v>
-      </c>
-      <c r="BJ45">
-        <v>2.4</v>
-      </c>
-      <c r="BK45">
-        <v>1.98</v>
-      </c>
-      <c r="BL45">
-        <v>1.82</v>
-      </c>
-      <c r="BM45">
-        <v>2.55</v>
-      </c>
-      <c r="BN45">
-        <v>1.48</v>
-      </c>
-      <c r="BO45">
-        <v>3.5</v>
-      </c>
-      <c r="BP45">
-        <v>1.27</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -10283,7 +10289,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10355,25 +10361,25 @@
         <v>1.55</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO46">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP46">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AR46">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="AS46">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="AT46">
-        <v>3.86</v>
+        <v>3.46</v>
       </c>
       <c r="AU46">
         <v>2</v>
@@ -10489,7 +10495,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -10561,25 +10567,25 @@
         <v>1.85</v>
       </c>
       <c r="AN47">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP47">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AR47">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="AS47">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="AT47">
-        <v>2.74</v>
+        <v>2.99</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -10767,25 +10773,25 @@
         <v>2.2</v>
       </c>
       <c r="AN48">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AO48">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="AP48">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="AQ48">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="AS48">
-        <v>0.93</v>
+        <v>1.09</v>
       </c>
       <c r="AT48">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -10973,25 +10979,25 @@
         <v>2.7</v>
       </c>
       <c r="AN49">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AO49">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP49">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR49">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AS49">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="AT49">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11179,22 +11185,22 @@
         <v>1.65</v>
       </c>
       <c r="AN50">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AO50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP50">
         <v>2.25</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR50">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AS50">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="AT50">
         <v>3.1</v>
@@ -11385,25 +11391,25 @@
         <v>1.25</v>
       </c>
       <c r="AN51">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AO51">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP51">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>1.48</v>
       </c>
       <c r="AS51">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AT51">
-        <v>3.41</v>
+        <v>3.35</v>
       </c>
       <c r="AU51">
         <v>8</v>
@@ -11591,25 +11597,25 @@
         <v>1.57</v>
       </c>
       <c r="AN52">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="AO52">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP52">
-        <v>2.5</v>
+        <v>1.22</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>1.78</v>
       </c>
       <c r="AR52">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AS52">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="AT52">
-        <v>2.71</v>
+        <v>2.51</v>
       </c>
       <c r="AU52">
         <v>4</v>
@@ -11725,7 +11731,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11797,25 +11803,25 @@
         <v>1.48</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO53">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AR53">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AS53">
-        <v>0.98</v>
+        <v>1.31</v>
       </c>
       <c r="AT53">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU53">
         <v>4</v>
@@ -11931,7 +11937,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12003,25 +12009,25 @@
         <v>1.77</v>
       </c>
       <c r="AN54">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="AO54">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP54">
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AR54">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="AS54">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT54">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12137,7 +12143,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12209,25 +12215,25 @@
         <v>1.77</v>
       </c>
       <c r="AN55">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AO55">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR55">
-        <v>1.98</v>
+        <v>1.42</v>
       </c>
       <c r="AS55">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AT55">
-        <v>3.22</v>
+        <v>2.78</v>
       </c>
       <c r="AU55">
         <v>7</v>
@@ -12415,22 +12421,22 @@
         <v>2.3</v>
       </c>
       <c r="AN56">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO56">
-        <v>0.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR56">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AS56">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AT56">
         <v>2.84</v>
@@ -12549,7 +12555,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12621,25 +12627,25 @@
         <v>1.57</v>
       </c>
       <c r="AN57">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO57">
-        <v>0.67</v>
+        <v>1.83</v>
       </c>
       <c r="AP57">
+        <v>1.56</v>
+      </c>
+      <c r="AQ57">
         <v>1.75</v>
       </c>
-      <c r="AQ57">
-        <v>1</v>
-      </c>
       <c r="AR57">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="AS57">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AT57">
-        <v>3.03</v>
+        <v>2.9</v>
       </c>
       <c r="AU57">
         <v>6</v>
@@ -12755,7 +12761,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12827,25 +12833,25 @@
         <v>1.57</v>
       </c>
       <c r="AN58">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO58">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP58">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="AR58">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AS58">
-        <v>0.97</v>
+        <v>1.4</v>
       </c>
       <c r="AT58">
-        <v>1.97</v>
+        <v>2.51</v>
       </c>
       <c r="AU58">
         <v>3</v>
@@ -12919,7 +12925,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7468922</v>
+        <v>7468923</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12934,73 +12940,73 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59">
         <v>2</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O59" t="s">
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q59">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T59">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="U59">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="V59">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="W59">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y59">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z59">
-        <v>2.32</v>
+        <v>2.03</v>
       </c>
       <c r="AA59">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="AB59">
-        <v>3.14</v>
+        <v>3.68</v>
       </c>
       <c r="AC59">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD59">
         <v>8</v>
@@ -13009,115 +13015,115 @@
         <v>1.36</v>
       </c>
       <c r="AF59">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="AG59">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="AH59">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AI59">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AJ59">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AK59">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AL59">
         <v>1.28</v>
       </c>
       <c r="AM59">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AN59">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="AO59">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="AP59">
-        <v>3</v>
+        <v>1.63</v>
       </c>
       <c r="AQ59">
+        <v>1.88</v>
+      </c>
+      <c r="AR59">
+        <v>1.31</v>
+      </c>
+      <c r="AS59">
+        <v>1.46</v>
+      </c>
+      <c r="AT59">
+        <v>2.77</v>
+      </c>
+      <c r="AU59">
+        <v>10</v>
+      </c>
+      <c r="AV59">
+        <v>3</v>
+      </c>
+      <c r="AW59">
+        <v>7</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>19</v>
+      </c>
+      <c r="AZ59">
+        <v>10</v>
+      </c>
+      <c r="BA59">
+        <v>3</v>
+      </c>
+      <c r="BB59">
+        <v>3</v>
+      </c>
+      <c r="BC59">
+        <v>6</v>
+      </c>
+      <c r="BD59">
+        <v>1.82</v>
+      </c>
+      <c r="BE59">
+        <v>7.5</v>
+      </c>
+      <c r="BF59">
+        <v>2.34</v>
+      </c>
+      <c r="BG59">
+        <v>1.28</v>
+      </c>
+      <c r="BH59">
+        <v>2.97</v>
+      </c>
+      <c r="BI59">
+        <v>1.7</v>
+      </c>
+      <c r="BJ59">
+        <v>2.05</v>
+      </c>
+      <c r="BK59">
+        <v>2.02</v>
+      </c>
+      <c r="BL59">
+        <v>1.74</v>
+      </c>
+      <c r="BM59">
+        <v>2.6</v>
+      </c>
+      <c r="BN59">
+        <v>1.41</v>
+      </c>
+      <c r="BO59">
+        <v>3.52</v>
+      </c>
+      <c r="BP59">
         <v>1.2</v>
-      </c>
-      <c r="AR59">
-        <v>1.51</v>
-      </c>
-      <c r="AS59">
-        <v>1.04</v>
-      </c>
-      <c r="AT59">
-        <v>2.55</v>
-      </c>
-      <c r="AU59">
-        <v>11</v>
-      </c>
-      <c r="AV59">
-        <v>4</v>
-      </c>
-      <c r="AW59">
-        <v>3</v>
-      </c>
-      <c r="AX59">
-        <v>6</v>
-      </c>
-      <c r="AY59">
-        <v>20</v>
-      </c>
-      <c r="AZ59">
-        <v>13</v>
-      </c>
-      <c r="BA59">
-        <v>5</v>
-      </c>
-      <c r="BB59">
-        <v>4</v>
-      </c>
-      <c r="BC59">
-        <v>9</v>
-      </c>
-      <c r="BD59">
-        <v>1.95</v>
-      </c>
-      <c r="BE59">
-        <v>8</v>
-      </c>
-      <c r="BF59">
-        <v>2.1</v>
-      </c>
-      <c r="BG59">
-        <v>1.15</v>
-      </c>
-      <c r="BH59">
-        <v>3.98</v>
-      </c>
-      <c r="BI59">
-        <v>1.33</v>
-      </c>
-      <c r="BJ59">
-        <v>2.73</v>
-      </c>
-      <c r="BK59">
-        <v>1.7</v>
-      </c>
-      <c r="BL59">
-        <v>2.05</v>
-      </c>
-      <c r="BM59">
-        <v>2.08</v>
-      </c>
-      <c r="BN59">
-        <v>1.7</v>
-      </c>
-      <c r="BO59">
-        <v>2.67</v>
-      </c>
-      <c r="BP59">
-        <v>1.39</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13125,7 +13131,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7468921</v>
+        <v>7468922</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13140,25 +13146,25 @@
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H60" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <v>3</v>
@@ -13167,67 +13173,67 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="Q60">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="R60">
         <v>2</v>
       </c>
       <c r="S60">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T60">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U60">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="V60">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="W60">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y60">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z60">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="AA60">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="AB60">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="AC60">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD60">
         <v>8</v>
       </c>
       <c r="AE60">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AF60">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AG60">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="AH60">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AI60">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AJ60">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AK60">
         <v>1.36</v>
@@ -13239,28 +13245,28 @@
         <v>1.57</v>
       </c>
       <c r="AN60">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO60">
+        <v>0.5</v>
+      </c>
+      <c r="AP60">
+        <v>1.67</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1.38</v>
+      </c>
+      <c r="AS60">
         <v>1.5</v>
       </c>
-      <c r="AP60">
-        <v>2.6</v>
-      </c>
-      <c r="AQ60">
-        <v>1</v>
-      </c>
-      <c r="AR60">
-        <v>1.29</v>
-      </c>
-      <c r="AS60">
-        <v>1.43</v>
-      </c>
       <c r="AT60">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="AU60">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AV60">
         <v>4</v>
@@ -13269,61 +13275,61 @@
         <v>3</v>
       </c>
       <c r="AX60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY60">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ60">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA60">
         <v>5</v>
       </c>
       <c r="BB60">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC60">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD60">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="BE60">
         <v>8</v>
       </c>
       <c r="BF60">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="BG60">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="BH60">
-        <v>3.3</v>
+        <v>3.98</v>
       </c>
       <c r="BI60">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="BJ60">
-        <v>2.4</v>
+        <v>2.73</v>
       </c>
       <c r="BK60">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="BL60">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="BM60">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="BN60">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="BO60">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="BP60">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13331,7 +13337,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7468923</v>
+        <v>7468921</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13346,55 +13352,55 @@
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O61" t="s">
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="Q61">
-        <v>2.62</v>
+        <v>2.95</v>
       </c>
       <c r="R61">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S61">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="T61">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="U61">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="V61">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="W61">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X61">
         <v>9</v>
@@ -13403,13 +13409,13 @@
         <v>1.07</v>
       </c>
       <c r="Z61">
-        <v>2.03</v>
+        <v>2.31</v>
       </c>
       <c r="AA61">
-        <v>3.48</v>
+        <v>3.34</v>
       </c>
       <c r="AB61">
-        <v>3.68</v>
+        <v>3.13</v>
       </c>
       <c r="AC61">
         <v>1.07</v>
@@ -13418,10 +13424,10 @@
         <v>8</v>
       </c>
       <c r="AE61">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AF61">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG61">
         <v>2.06</v>
@@ -13436,100 +13442,100 @@
         <v>1.85</v>
       </c>
       <c r="AK61">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AL61">
         <v>1.28</v>
       </c>
       <c r="AM61">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AN61">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO61">
-        <v>1.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP61">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR61">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AS61">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT61">
-        <v>2.86</v>
+        <v>2.55</v>
       </c>
       <c r="AU61">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW61">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX61">
         <v>4</v>
       </c>
       <c r="AY61">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AZ61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB61">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC61">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD61">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="BE61">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF61">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="BG61">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="BH61">
-        <v>2.97</v>
+        <v>3.3</v>
       </c>
       <c r="BI61">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="BJ61">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="BK61">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="BL61">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="BM61">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="BN61">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="BO61">
-        <v>3.52</v>
+        <v>3</v>
       </c>
       <c r="BP61">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13579,7 +13585,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13651,25 +13657,25 @@
         <v>1.38</v>
       </c>
       <c r="AN62">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AO62">
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ62">
         <v>2.25</v>
       </c>
       <c r="AR62">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AS62">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AT62">
-        <v>2.51</v>
+        <v>2.71</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -13785,7 +13791,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13857,25 +13863,25 @@
         <v>1.3</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AO63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AS63">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="AT63">
-        <v>2.63</v>
+        <v>2.78</v>
       </c>
       <c r="AU63">
         <v>6</v>
@@ -13991,7 +13997,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14063,25 +14069,25 @@
         <v>1.75</v>
       </c>
       <c r="AN64">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO64">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AP64">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AQ64">
-        <v>0.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR64">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AS64">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT64">
-        <v>3.44</v>
+        <v>3.18</v>
       </c>
       <c r="AU64">
         <v>11</v>
@@ -14269,25 +14275,25 @@
         <v>2.11</v>
       </c>
       <c r="AN65">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AO65">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AP65">
         <v>2.25</v>
       </c>
       <c r="AQ65">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR65">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AS65">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AT65">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="AU65">
         <v>8</v>
@@ -14361,7 +14367,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7468933</v>
+        <v>7468937</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14376,133 +14382,133 @@
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O66" t="s">
         <v>141</v>
       </c>
       <c r="P66" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="Q66">
-        <v>2.5</v>
+        <v>2.69</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="S66">
-        <v>4.33</v>
+        <v>4.12</v>
       </c>
       <c r="T66">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="U66">
-        <v>2.6</v>
+        <v>2.99</v>
       </c>
       <c r="V66">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="W66">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="X66">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="Y66">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z66">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="AA66">
         <v>3.4</v>
       </c>
       <c r="AB66">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AC66">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD66">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE66">
         <v>1.3</v>
       </c>
       <c r="AF66">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AG66">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AH66">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AI66">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="AJ66">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AK66">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AL66">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM66">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AN66">
-        <v>2.25</v>
+        <v>1.71</v>
       </c>
       <c r="AO66">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AP66">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="AQ66">
-        <v>0.2</v>
+        <v>0.89</v>
       </c>
       <c r="AR66">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="AS66">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="AT66">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="AU66">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV66">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AW66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX66">
         <v>4</v>
@@ -14511,25 +14517,25 @@
         <v>13</v>
       </c>
       <c r="AZ66">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="BA66">
+        <v>3</v>
+      </c>
+      <c r="BB66">
         <v>5</v>
       </c>
-      <c r="BB66">
+      <c r="BC66">
         <v>8</v>
       </c>
-      <c r="BC66">
-        <v>13</v>
-      </c>
       <c r="BD66">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="BE66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF66">
-        <v>2.77</v>
+        <v>3.58</v>
       </c>
       <c r="BG66">
         <v>1.27</v>
@@ -14567,7 +14573,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7468934</v>
+        <v>7468933</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14582,10 +14588,10 @@
         <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H67" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -14609,163 +14615,163 @@
         <v>142</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="Q67">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="R67">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="T67">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U67">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="V67">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="W67">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X67">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="Y67">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z67">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="AA67">
         <v>3.4</v>
       </c>
       <c r="AB67">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AC67">
         <v>1.05</v>
       </c>
       <c r="AD67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE67">
         <v>1.3</v>
       </c>
       <c r="AF67">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AG67">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="AH67">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AI67">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="AJ67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AK67">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AL67">
         <v>1.25</v>
       </c>
       <c r="AM67">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AN67">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AP67">
-        <v>0.75</v>
+        <v>1.78</v>
       </c>
       <c r="AQ67">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AR67">
-        <v>1.95</v>
+        <v>1.52</v>
       </c>
       <c r="AS67">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AT67">
-        <v>3.17</v>
+        <v>2.7</v>
       </c>
       <c r="AU67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV67">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AW67">
+        <v>2</v>
+      </c>
+      <c r="AX67">
         <v>4</v>
-      </c>
-      <c r="AX67">
-        <v>2</v>
       </c>
       <c r="AY67">
         <v>13</v>
       </c>
       <c r="AZ67">
+        <v>22</v>
+      </c>
+      <c r="BA67">
         <v>5</v>
       </c>
-      <c r="BA67">
-        <v>6</v>
-      </c>
       <c r="BB67">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC67">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD67">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="BE67">
         <v>8</v>
       </c>
       <c r="BF67">
-        <v>2.33</v>
+        <v>2.77</v>
       </c>
       <c r="BG67">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="BH67">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="BI67">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="BJ67">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BK67">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BL67">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="BM67">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="BN67">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="BO67">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="BP67">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14773,7 +14779,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7468937</v>
+        <v>7468934</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14788,190 +14794,190 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O68" t="s">
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="Q68">
-        <v>2.69</v>
+        <v>2.88</v>
       </c>
       <c r="R68">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="S68">
-        <v>4.12</v>
+        <v>3.5</v>
       </c>
       <c r="T68">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U68">
-        <v>2.99</v>
+        <v>2.75</v>
       </c>
       <c r="V68">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="W68">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X68">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y68">
         <v>1.08</v>
       </c>
       <c r="Z68">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="AA68">
         <v>3.4</v>
       </c>
       <c r="AB68">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AC68">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD68">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE68">
         <v>1.3</v>
       </c>
       <c r="AF68">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AG68">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AH68">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AI68">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="AJ68">
         <v>2</v>
       </c>
       <c r="AK68">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AL68">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM68">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="AN68">
-        <v>2</v>
+        <v>0.43</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AP68">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
-        <v>0.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR68">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AS68">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AT68">
-        <v>2.86</v>
+        <v>2.75</v>
       </c>
       <c r="AU68">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY68">
         <v>13</v>
       </c>
       <c r="AZ68">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA68">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC68">
+        <v>6</v>
+      </c>
+      <c r="BD68">
+        <v>1.82</v>
+      </c>
+      <c r="BE68">
         <v>8</v>
       </c>
-      <c r="BD68">
-        <v>1.41</v>
-      </c>
-      <c r="BE68">
-        <v>9</v>
-      </c>
       <c r="BF68">
-        <v>3.58</v>
+        <v>2.33</v>
       </c>
       <c r="BG68">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="BH68">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="BI68">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="BJ68">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BK68">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="BL68">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="BM68">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="BN68">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="BO68">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="BP68">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -14979,7 +14985,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7468930</v>
+        <v>7468936</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -14991,193 +14997,193 @@
         <v>45570.375</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H69" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <v>2</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
       <c r="N69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O69" t="s">
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q69">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="T69">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V69">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="W69">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="X69">
-        <v>10</v>
+        <v>10.7</v>
       </c>
       <c r="Y69">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="Z69">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA69">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AB69">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="AC69">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AD69">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="AE69">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AF69">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AG69">
-        <v>2.01</v>
+        <v>2.75</v>
       </c>
       <c r="AH69">
-        <v>1.81</v>
+        <v>1.4</v>
       </c>
       <c r="AI69">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="AJ69">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AK69">
+        <v>1.17</v>
+      </c>
+      <c r="AL69">
+        <v>1.28</v>
+      </c>
+      <c r="AM69">
+        <v>1.93</v>
+      </c>
+      <c r="AN69">
+        <v>1.43</v>
+      </c>
+      <c r="AO69">
+        <v>0.57</v>
+      </c>
+      <c r="AP69">
+        <v>1.22</v>
+      </c>
+      <c r="AQ69">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR69">
+        <v>1.12</v>
+      </c>
+      <c r="AS69">
+        <v>1.1</v>
+      </c>
+      <c r="AT69">
+        <v>2.22</v>
+      </c>
+      <c r="AU69">
+        <v>2</v>
+      </c>
+      <c r="AV69">
+        <v>2</v>
+      </c>
+      <c r="AW69">
+        <v>2</v>
+      </c>
+      <c r="AX69">
+        <v>2</v>
+      </c>
+      <c r="AY69">
+        <v>4</v>
+      </c>
+      <c r="AZ69">
+        <v>4</v>
+      </c>
+      <c r="BA69">
+        <v>1</v>
+      </c>
+      <c r="BB69">
+        <v>0</v>
+      </c>
+      <c r="BC69">
+        <v>1</v>
+      </c>
+      <c r="BD69">
         <v>1.45</v>
       </c>
-      <c r="AL69">
-        <v>1.3</v>
-      </c>
-      <c r="AM69">
-        <v>1.44</v>
-      </c>
-      <c r="AN69">
-        <v>0.5</v>
-      </c>
-      <c r="AO69">
-        <v>2</v>
-      </c>
-      <c r="AP69">
-        <v>1</v>
-      </c>
-      <c r="AQ69">
-        <v>1.5</v>
-      </c>
-      <c r="AR69">
-        <v>1.24</v>
-      </c>
-      <c r="AS69">
-        <v>1.43</v>
-      </c>
-      <c r="AT69">
-        <v>2.67</v>
-      </c>
-      <c r="AU69">
-        <v>7</v>
-      </c>
-      <c r="AV69">
-        <v>7</v>
-      </c>
-      <c r="AW69">
-        <v>3</v>
-      </c>
-      <c r="AX69">
-        <v>11</v>
-      </c>
-      <c r="AY69">
-        <v>10</v>
-      </c>
-      <c r="AZ69">
-        <v>22</v>
-      </c>
-      <c r="BA69">
-        <v>3</v>
-      </c>
-      <c r="BB69">
-        <v>10</v>
-      </c>
-      <c r="BC69">
-        <v>13</v>
-      </c>
-      <c r="BD69">
-        <v>1.75</v>
-      </c>
       <c r="BE69">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF69">
-        <v>2.44</v>
+        <v>3.33</v>
       </c>
       <c r="BG69">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="BH69">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="BI69">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="BJ69">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="BK69">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="BL69">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="BM69">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="BN69">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="BO69">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="BP69">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15227,7 +15233,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15299,25 +15305,25 @@
         <v>1.33</v>
       </c>
       <c r="AN70">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO70">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AP70">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AQ70">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AR70">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AS70">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="AT70">
-        <v>3.19</v>
+        <v>3.36</v>
       </c>
       <c r="AU70">
         <v>2</v>
@@ -15391,7 +15397,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7468936</v>
+        <v>7468930</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15403,193 +15409,193 @@
         <v>45570.375</v>
       </c>
       <c r="F71">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71">
         <v>2</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M71">
         <v>1</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O71" t="s">
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q71">
+        <v>3.5</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>3.4</v>
+      </c>
+      <c r="T71">
+        <v>1.5</v>
+      </c>
+      <c r="U71">
         <v>2.5</v>
       </c>
-      <c r="R71">
-        <v>1.9</v>
-      </c>
-      <c r="S71">
-        <v>5.25</v>
-      </c>
-      <c r="T71">
-        <v>1.57</v>
-      </c>
-      <c r="U71">
+      <c r="V71">
+        <v>3.4</v>
+      </c>
+      <c r="W71">
+        <v>1.3</v>
+      </c>
+      <c r="X71">
+        <v>10</v>
+      </c>
+      <c r="Y71">
+        <v>1.06</v>
+      </c>
+      <c r="Z71">
+        <v>2.7</v>
+      </c>
+      <c r="AA71">
+        <v>3.1</v>
+      </c>
+      <c r="AB71">
+        <v>2.6</v>
+      </c>
+      <c r="AC71">
+        <v>1.08</v>
+      </c>
+      <c r="AD71">
+        <v>7.5</v>
+      </c>
+      <c r="AE71">
+        <v>1.42</v>
+      </c>
+      <c r="AF71">
+        <v>2.8</v>
+      </c>
+      <c r="AG71">
+        <v>2.01</v>
+      </c>
+      <c r="AH71">
+        <v>1.81</v>
+      </c>
+      <c r="AI71">
+        <v>1.91</v>
+      </c>
+      <c r="AJ71">
+        <v>1.8</v>
+      </c>
+      <c r="AK71">
+        <v>1.45</v>
+      </c>
+      <c r="AL71">
+        <v>1.3</v>
+      </c>
+      <c r="AM71">
+        <v>1.44</v>
+      </c>
+      <c r="AN71">
+        <v>0.71</v>
+      </c>
+      <c r="AO71">
+        <v>1.86</v>
+      </c>
+      <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>1.44</v>
+      </c>
+      <c r="AR71">
+        <v>1.28</v>
+      </c>
+      <c r="AS71">
+        <v>1.67</v>
+      </c>
+      <c r="AT71">
+        <v>2.95</v>
+      </c>
+      <c r="AU71">
+        <v>7</v>
+      </c>
+      <c r="AV71">
+        <v>7</v>
+      </c>
+      <c r="AW71">
+        <v>3</v>
+      </c>
+      <c r="AX71">
+        <v>11</v>
+      </c>
+      <c r="AY71">
+        <v>10</v>
+      </c>
+      <c r="AZ71">
+        <v>22</v>
+      </c>
+      <c r="BA71">
+        <v>3</v>
+      </c>
+      <c r="BB71">
+        <v>10</v>
+      </c>
+      <c r="BC71">
+        <v>13</v>
+      </c>
+      <c r="BD71">
+        <v>1.75</v>
+      </c>
+      <c r="BE71">
+        <v>8</v>
+      </c>
+      <c r="BF71">
+        <v>2.44</v>
+      </c>
+      <c r="BG71">
+        <v>1.33</v>
+      </c>
+      <c r="BH71">
+        <v>3.15</v>
+      </c>
+      <c r="BI71">
+        <v>1.6</v>
+      </c>
+      <c r="BJ71">
         <v>2.25</v>
       </c>
-      <c r="V71">
-        <v>3.75</v>
-      </c>
-      <c r="W71">
-        <v>1.22</v>
-      </c>
-      <c r="X71">
-        <v>10.7</v>
-      </c>
-      <c r="Y71">
-        <v>1.02</v>
-      </c>
-      <c r="Z71">
-        <v>1.75</v>
-      </c>
-      <c r="AA71">
-        <v>3</v>
-      </c>
-      <c r="AB71">
-        <v>4.75</v>
-      </c>
-      <c r="AC71">
-        <v>1.11</v>
-      </c>
-      <c r="AD71">
-        <v>6.25</v>
-      </c>
-      <c r="AE71">
-        <v>1.57</v>
-      </c>
-      <c r="AF71">
-        <v>2.4</v>
-      </c>
-      <c r="AG71">
+      <c r="BK71">
+        <v>2.04</v>
+      </c>
+      <c r="BL71">
+        <v>1.73</v>
+      </c>
+      <c r="BM71">
         <v>2.75</v>
       </c>
-      <c r="AH71">
-        <v>1.4</v>
-      </c>
-      <c r="AI71">
-        <v>2.3</v>
-      </c>
-      <c r="AJ71">
-        <v>1.53</v>
-      </c>
-      <c r="AK71">
-        <v>1.17</v>
-      </c>
-      <c r="AL71">
-        <v>1.28</v>
-      </c>
-      <c r="AM71">
-        <v>1.93</v>
-      </c>
-      <c r="AN71">
-        <v>3</v>
-      </c>
-      <c r="AO71">
-        <v>1</v>
-      </c>
-      <c r="AP71">
-        <v>2.5</v>
-      </c>
-      <c r="AQ71">
-        <v>1</v>
-      </c>
-      <c r="AR71">
-        <v>1.23</v>
-      </c>
-      <c r="AS71">
-        <v>1.23</v>
-      </c>
-      <c r="AT71">
-        <v>2.46</v>
-      </c>
-      <c r="AU71">
-        <v>2</v>
-      </c>
-      <c r="AV71">
-        <v>2</v>
-      </c>
-      <c r="AW71">
-        <v>2</v>
-      </c>
-      <c r="AX71">
-        <v>2</v>
-      </c>
-      <c r="AY71">
-        <v>4</v>
-      </c>
-      <c r="AZ71">
-        <v>4</v>
-      </c>
-      <c r="BA71">
-        <v>1</v>
-      </c>
-      <c r="BB71">
-        <v>0</v>
-      </c>
-      <c r="BC71">
-        <v>1</v>
-      </c>
-      <c r="BD71">
-        <v>1.45</v>
-      </c>
-      <c r="BE71">
-        <v>8.5</v>
-      </c>
-      <c r="BF71">
-        <v>3.33</v>
-      </c>
-      <c r="BG71">
-        <v>1.36</v>
-      </c>
-      <c r="BH71">
-        <v>2.95</v>
-      </c>
-      <c r="BI71">
-        <v>1.67</v>
-      </c>
-      <c r="BJ71">
-        <v>2.12</v>
-      </c>
-      <c r="BK71">
-        <v>2.15</v>
-      </c>
-      <c r="BL71">
-        <v>1.65</v>
-      </c>
-      <c r="BM71">
-        <v>2.95</v>
-      </c>
       <c r="BN71">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="BO71">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="BP71">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -15639,7 +15645,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15711,25 +15717,25 @@
         <v>2.25</v>
       </c>
       <c r="AN72">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AO72">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AP72">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AR72">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="AS72">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="AT72">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -15803,7 +15809,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7468944</v>
+        <v>7468939</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15818,70 +15824,70 @@
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M73">
         <v>2</v>
       </c>
       <c r="N73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O73" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q73">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S73">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="T73">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U73">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V73">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W73">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X73">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y73">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z73">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="AA73">
         <v>3.2</v>
       </c>
       <c r="AB73">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -15896,16 +15902,16 @@
         <v>0</v>
       </c>
       <c r="AG73">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="AH73">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AI73">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AJ73">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AK73">
         <v>0</v>
@@ -15917,52 +15923,52 @@
         <v>0</v>
       </c>
       <c r="AN73">
-        <v>1.33</v>
+        <v>0.63</v>
       </c>
       <c r="AO73">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>1.75</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ73">
         <v>1</v>
       </c>
       <c r="AR73">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="AS73">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="AT73">
-        <v>2.85</v>
+        <v>2.56</v>
       </c>
       <c r="AU73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV73">
         <v>7</v>
       </c>
       <c r="AW73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX73">
         <v>6</v>
       </c>
       <c r="AY73">
+        <v>12</v>
+      </c>
+      <c r="AZ73">
+        <v>13</v>
+      </c>
+      <c r="BA73">
         <v>4</v>
       </c>
-      <c r="AZ73">
-        <v>14</v>
-      </c>
-      <c r="BA73">
-        <v>0</v>
-      </c>
       <c r="BB73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC73">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BD73">
         <v>0</v>
@@ -15986,7 +15992,7 @@
         <v>0</v>
       </c>
       <c r="BK73">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BL73">
         <v>0</v>
@@ -16009,7 +16015,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7468946</v>
+        <v>7468940</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16024,190 +16030,190 @@
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H74" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O74" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="Q74">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S74">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="T74">
+        <v>1.36</v>
+      </c>
+      <c r="U74">
+        <v>3</v>
+      </c>
+      <c r="V74">
+        <v>2.75</v>
+      </c>
+      <c r="W74">
+        <v>1.4</v>
+      </c>
+      <c r="X74">
+        <v>7</v>
+      </c>
+      <c r="Y74">
+        <v>1.1</v>
+      </c>
+      <c r="Z74">
+        <v>1.83</v>
+      </c>
+      <c r="AA74">
+        <v>3.4</v>
+      </c>
+      <c r="AB74">
+        <v>3.6</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>4.61</v>
+      </c>
+      <c r="AF74">
+        <v>1.18</v>
+      </c>
+      <c r="AG74">
+        <v>1.85</v>
+      </c>
+      <c r="AH74">
+        <v>2</v>
+      </c>
+      <c r="AI74">
+        <v>1.8</v>
+      </c>
+      <c r="AJ74">
+        <v>1.91</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>1.63</v>
+      </c>
+      <c r="AO74">
+        <v>1.57</v>
+      </c>
+      <c r="AP74">
         <v>1.44</v>
       </c>
-      <c r="U74">
-        <v>2.63</v>
-      </c>
-      <c r="V74">
-        <v>3.25</v>
-      </c>
-      <c r="W74">
-        <v>1.33</v>
-      </c>
-      <c r="X74">
-        <v>10</v>
-      </c>
-      <c r="Y74">
-        <v>1.06</v>
-      </c>
-      <c r="Z74">
-        <v>2.8</v>
-      </c>
-      <c r="AA74">
-        <v>3.2</v>
-      </c>
-      <c r="AB74">
-        <v>2.25</v>
-      </c>
-      <c r="AC74">
-        <v>1.07</v>
-      </c>
-      <c r="AD74">
-        <v>8</v>
-      </c>
-      <c r="AE74">
-        <v>1.36</v>
-      </c>
-      <c r="AF74">
-        <v>2.95</v>
-      </c>
-      <c r="AG74">
-        <v>2.1</v>
-      </c>
-      <c r="AH74">
-        <v>1.68</v>
-      </c>
-      <c r="AI74">
-        <v>1.91</v>
-      </c>
-      <c r="AJ74">
-        <v>1.8</v>
-      </c>
-      <c r="AK74">
-        <v>1.63</v>
-      </c>
-      <c r="AL74">
-        <v>1.28</v>
-      </c>
-      <c r="AM74">
-        <v>1.33</v>
-      </c>
-      <c r="AN74">
-        <v>2.5</v>
-      </c>
-      <c r="AO74">
-        <v>2</v>
-      </c>
-      <c r="AP74">
-        <v>2.6</v>
-      </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AR74">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AS74">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AT74">
-        <v>2.61</v>
+        <v>3.23</v>
       </c>
       <c r="AU74">
         <v>6</v>
       </c>
       <c r="AV74">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW74">
+        <v>7</v>
+      </c>
+      <c r="AX74">
+        <v>4</v>
+      </c>
+      <c r="AY74">
+        <v>15</v>
+      </c>
+      <c r="AZ74">
+        <v>13</v>
+      </c>
+      <c r="BA74">
         <v>6</v>
       </c>
-      <c r="AX74">
-        <v>5</v>
-      </c>
-      <c r="AY74">
-        <v>14</v>
-      </c>
-      <c r="AZ74">
-        <v>14</v>
-      </c>
-      <c r="BA74">
-        <v>3</v>
-      </c>
       <c r="BB74">
+        <v>4</v>
+      </c>
+      <c r="BC74">
         <v>10</v>
       </c>
-      <c r="BC74">
-        <v>13</v>
-      </c>
       <c r="BD74">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="BE74">
-        <v>8.550000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF74">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="BG74">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="BH74">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="BI74">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="BJ74">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="BK74">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="BL74">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="BM74">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="BN74">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="BO74">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="BP74">
-        <v>1.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16215,7 +16221,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7468947</v>
+        <v>7468943</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16230,190 +16236,190 @@
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O75" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="Q75">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S75">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="T75">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V75">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="W75">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="X75">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y75">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="Z75">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AA75">
         <v>3.2</v>
       </c>
       <c r="AB75">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="AC75">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>2</v>
+      </c>
+      <c r="AH75">
+        <v>1.85</v>
+      </c>
+      <c r="AI75">
+        <v>1.73</v>
+      </c>
+      <c r="AJ75">
+        <v>2</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0.88</v>
+      </c>
+      <c r="AO75">
+        <v>0.88</v>
+      </c>
+      <c r="AP75">
+        <v>0.89</v>
+      </c>
+      <c r="AQ75">
+        <v>0.89</v>
+      </c>
+      <c r="AR75">
+        <v>1.17</v>
+      </c>
+      <c r="AS75">
+        <v>1.44</v>
+      </c>
+      <c r="AT75">
+        <v>2.61</v>
+      </c>
+      <c r="AU75">
+        <v>10</v>
+      </c>
+      <c r="AV75">
+        <v>3</v>
+      </c>
+      <c r="AW75">
+        <v>8</v>
+      </c>
+      <c r="AX75">
+        <v>3</v>
+      </c>
+      <c r="AY75">
+        <v>21</v>
+      </c>
+      <c r="AZ75">
+        <v>10</v>
+      </c>
+      <c r="BA75">
+        <v>10</v>
+      </c>
+      <c r="BB75">
         <v>7</v>
       </c>
-      <c r="AE75">
-        <v>1.42</v>
-      </c>
-      <c r="AF75">
-        <v>2.75</v>
-      </c>
-      <c r="AG75">
-        <v>2.38</v>
-      </c>
-      <c r="AH75">
-        <v>1.55</v>
-      </c>
-      <c r="AI75">
-        <v>2</v>
-      </c>
-      <c r="AJ75">
-        <v>1.73</v>
-      </c>
-      <c r="AK75">
-        <v>1.3</v>
-      </c>
-      <c r="AL75">
-        <v>1.28</v>
-      </c>
-      <c r="AM75">
-        <v>1.66</v>
-      </c>
-      <c r="AN75">
-        <v>2</v>
-      </c>
-      <c r="AO75">
-        <v>1</v>
-      </c>
-      <c r="AP75">
-        <v>1.8</v>
-      </c>
-      <c r="AQ75">
-        <v>1</v>
-      </c>
-      <c r="AR75">
-        <v>1.7</v>
-      </c>
-      <c r="AS75">
-        <v>1.33</v>
-      </c>
-      <c r="AT75">
-        <v>3.03</v>
-      </c>
-      <c r="AU75">
-        <v>5</v>
-      </c>
-      <c r="AV75">
-        <v>3</v>
-      </c>
-      <c r="AW75">
-        <v>9</v>
-      </c>
-      <c r="AX75">
-        <v>1</v>
-      </c>
-      <c r="AY75">
-        <v>19</v>
-      </c>
-      <c r="AZ75">
-        <v>7</v>
-      </c>
-      <c r="BA75">
-        <v>11</v>
-      </c>
-      <c r="BB75">
-        <v>5</v>
-      </c>
       <c r="BC75">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD75">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="BE75">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BF75">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="BG75">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="BH75">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="BI75">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BJ75">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="BK75">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="BL75">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="BM75">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="BN75">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BO75">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="BP75">
-        <v>1.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16421,7 +16427,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7468943</v>
+        <v>7468944</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16436,70 +16442,70 @@
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M76">
         <v>2</v>
       </c>
       <c r="N76">
+        <v>5</v>
+      </c>
+      <c r="O76" t="s">
+        <v>149</v>
+      </c>
+      <c r="P76" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q76">
+        <v>2.88</v>
+      </c>
+      <c r="R76">
+        <v>2.05</v>
+      </c>
+      <c r="S76">
         <v>4</v>
       </c>
-      <c r="O76" t="s">
-        <v>150</v>
-      </c>
-      <c r="P76" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q76">
-        <v>3.5</v>
-      </c>
-      <c r="R76">
+      <c r="T76">
+        <v>1.5</v>
+      </c>
+      <c r="U76">
+        <v>2.5</v>
+      </c>
+      <c r="V76">
+        <v>3.4</v>
+      </c>
+      <c r="W76">
+        <v>1.3</v>
+      </c>
+      <c r="X76">
+        <v>10</v>
+      </c>
+      <c r="Y76">
+        <v>1.06</v>
+      </c>
+      <c r="Z76">
         <v>2.1</v>
-      </c>
-      <c r="S76">
-        <v>3.1</v>
-      </c>
-      <c r="T76">
-        <v>1.4</v>
-      </c>
-      <c r="U76">
-        <v>2.75</v>
-      </c>
-      <c r="V76">
-        <v>3</v>
-      </c>
-      <c r="W76">
-        <v>1.36</v>
-      </c>
-      <c r="X76">
-        <v>8</v>
-      </c>
-      <c r="Y76">
-        <v>1.08</v>
-      </c>
-      <c r="Z76">
-        <v>2.6</v>
       </c>
       <c r="AA76">
         <v>3.2</v>
       </c>
       <c r="AB76">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -16514,16 +16520,16 @@
         <v>0</v>
       </c>
       <c r="AG76">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="AH76">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AI76">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AJ76">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK76">
         <v>0</v>
@@ -16535,52 +16541,52 @@
         <v>0</v>
       </c>
       <c r="AN76">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AO76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AQ76">
-        <v>0.25</v>
+        <v>1.78</v>
       </c>
       <c r="AR76">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AS76">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AT76">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="AU76">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV76">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW76">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AX76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY76">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AZ76">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA76">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BB76">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC76">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BD76">
         <v>0</v>
@@ -16627,7 +16633,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7468940</v>
+        <v>7468946</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16642,190 +16648,190 @@
         <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H77" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O77" t="s">
+        <v>150</v>
+      </c>
+      <c r="P77" t="s">
         <v>90</v>
       </c>
-      <c r="P77" t="s">
-        <v>193</v>
-      </c>
       <c r="Q77">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="R77">
+        <v>2.05</v>
+      </c>
+      <c r="S77">
+        <v>3</v>
+      </c>
+      <c r="T77">
+        <v>1.44</v>
+      </c>
+      <c r="U77">
+        <v>2.63</v>
+      </c>
+      <c r="V77">
+        <v>3.25</v>
+      </c>
+      <c r="W77">
+        <v>1.33</v>
+      </c>
+      <c r="X77">
+        <v>10</v>
+      </c>
+      <c r="Y77">
+        <v>1.06</v>
+      </c>
+      <c r="Z77">
+        <v>2.8</v>
+      </c>
+      <c r="AA77">
+        <v>3.2</v>
+      </c>
+      <c r="AB77">
         <v>2.25</v>
       </c>
-      <c r="S77">
-        <v>4.5</v>
-      </c>
-      <c r="T77">
+      <c r="AC77">
+        <v>1.07</v>
+      </c>
+      <c r="AD77">
+        <v>8</v>
+      </c>
+      <c r="AE77">
         <v>1.36</v>
       </c>
-      <c r="U77">
-        <v>3</v>
-      </c>
-      <c r="V77">
-        <v>2.75</v>
-      </c>
-      <c r="W77">
-        <v>1.4</v>
-      </c>
-      <c r="X77">
-        <v>7</v>
-      </c>
-      <c r="Y77">
-        <v>1.1</v>
-      </c>
-      <c r="Z77">
-        <v>1.83</v>
-      </c>
-      <c r="AA77">
-        <v>3.4</v>
-      </c>
-      <c r="AB77">
-        <v>3.6</v>
-      </c>
-      <c r="AC77">
-        <v>0</v>
-      </c>
-      <c r="AD77">
-        <v>0</v>
-      </c>
-      <c r="AE77">
-        <v>4.61</v>
-      </c>
       <c r="AF77">
-        <v>1.18</v>
+        <v>2.95</v>
       </c>
       <c r="AG77">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AH77">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="AI77">
+        <v>1.91</v>
+      </c>
+      <c r="AJ77">
         <v>1.8</v>
       </c>
-      <c r="AJ77">
-        <v>1.91</v>
-      </c>
       <c r="AK77">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AL77">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM77">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AN77">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO77">
-        <v>0.5</v>
+        <v>1.88</v>
       </c>
       <c r="AP77">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR77">
-        <v>1.85</v>
+        <v>1.2</v>
       </c>
       <c r="AS77">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="AT77">
-        <v>3.26</v>
+        <v>2.8</v>
       </c>
       <c r="AU77">
         <v>6</v>
       </c>
       <c r="AV77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY77">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ77">
+        <v>14</v>
+      </c>
+      <c r="BA77">
+        <v>3</v>
+      </c>
+      <c r="BB77">
+        <v>10</v>
+      </c>
+      <c r="BC77">
         <v>13</v>
       </c>
-      <c r="BA77">
-        <v>6</v>
-      </c>
-      <c r="BB77">
-        <v>4</v>
-      </c>
-      <c r="BC77">
-        <v>10</v>
-      </c>
       <c r="BD77">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="BE77">
-        <v>0</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="BF77">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="BG77">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BH77">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="BI77">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="BJ77">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BK77">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BL77">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="BM77">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="BN77">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BO77">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BP77">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16833,7 +16839,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7468939</v>
+        <v>7468947</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16848,190 +16854,396 @@
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H78" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O78" t="s">
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="Q78">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="R78">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="T78">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V78">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="W78">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="X78">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y78">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="Z78">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA78">
         <v>3.2</v>
       </c>
       <c r="AB78">
+        <v>2.88</v>
+      </c>
+      <c r="AC78">
+        <v>1.09</v>
+      </c>
+      <c r="AD78">
+        <v>7</v>
+      </c>
+      <c r="AE78">
+        <v>1.42</v>
+      </c>
+      <c r="AF78">
+        <v>2.75</v>
+      </c>
+      <c r="AG78">
+        <v>2.38</v>
+      </c>
+      <c r="AH78">
+        <v>1.55</v>
+      </c>
+      <c r="AI78">
+        <v>2</v>
+      </c>
+      <c r="AJ78">
+        <v>1.73</v>
+      </c>
+      <c r="AK78">
+        <v>1.3</v>
+      </c>
+      <c r="AL78">
+        <v>1.28</v>
+      </c>
+      <c r="AM78">
+        <v>1.66</v>
+      </c>
+      <c r="AN78">
+        <v>1.71</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>1.63</v>
+      </c>
+      <c r="AQ78">
+        <v>1</v>
+      </c>
+      <c r="AR78">
+        <v>1.44</v>
+      </c>
+      <c r="AS78">
+        <v>1.3</v>
+      </c>
+      <c r="AT78">
+        <v>2.74</v>
+      </c>
+      <c r="AU78">
+        <v>5</v>
+      </c>
+      <c r="AV78">
+        <v>3</v>
+      </c>
+      <c r="AW78">
+        <v>9</v>
+      </c>
+      <c r="AX78">
+        <v>1</v>
+      </c>
+      <c r="AY78">
+        <v>19</v>
+      </c>
+      <c r="AZ78">
+        <v>7</v>
+      </c>
+      <c r="BA78">
+        <v>11</v>
+      </c>
+      <c r="BB78">
+        <v>5</v>
+      </c>
+      <c r="BC78">
+        <v>16</v>
+      </c>
+      <c r="BD78">
+        <v>1.85</v>
+      </c>
+      <c r="BE78">
+        <v>8</v>
+      </c>
+      <c r="BF78">
+        <v>2.28</v>
+      </c>
+      <c r="BG78">
+        <v>1.27</v>
+      </c>
+      <c r="BH78">
+        <v>3.55</v>
+      </c>
+      <c r="BI78">
+        <v>1.5</v>
+      </c>
+      <c r="BJ78">
+        <v>2.48</v>
+      </c>
+      <c r="BK78">
+        <v>1.87</v>
+      </c>
+      <c r="BL78">
+        <v>1.87</v>
+      </c>
+      <c r="BM78">
+        <v>2.45</v>
+      </c>
+      <c r="BN78">
+        <v>1.5</v>
+      </c>
+      <c r="BO78">
+        <v>3.4</v>
+      </c>
+      <c r="BP78">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7468941</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45584.375</v>
+      </c>
+      <c r="F79">
+        <v>9</v>
+      </c>
+      <c r="G79" t="s">
+        <v>73</v>
+      </c>
+      <c r="H79" t="s">
+        <v>71</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79" t="s">
+        <v>151</v>
+      </c>
+      <c r="P79" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q79">
+        <v>3</v>
+      </c>
+      <c r="R79">
+        <v>1.91</v>
+      </c>
+      <c r="S79">
+        <v>4.5</v>
+      </c>
+      <c r="T79">
+        <v>1.57</v>
+      </c>
+      <c r="U79">
+        <v>2.25</v>
+      </c>
+      <c r="V79">
+        <v>3.75</v>
+      </c>
+      <c r="W79">
+        <v>1.25</v>
+      </c>
+      <c r="X79">
+        <v>13</v>
+      </c>
+      <c r="Y79">
+        <v>1.04</v>
+      </c>
+      <c r="Z79">
         <v>2.1</v>
       </c>
-      <c r="AC78">
-        <v>0</v>
-      </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
-      <c r="AE78">
-        <v>0</v>
-      </c>
-      <c r="AF78">
-        <v>0</v>
-      </c>
-      <c r="AG78">
-        <v>2.05</v>
-      </c>
-      <c r="AH78">
-        <v>1.73</v>
-      </c>
-      <c r="AI78">
-        <v>1.83</v>
-      </c>
-      <c r="AJ78">
-        <v>1.83</v>
-      </c>
-      <c r="AK78">
-        <v>0</v>
-      </c>
-      <c r="AL78">
-        <v>0</v>
-      </c>
-      <c r="AM78">
-        <v>0</v>
-      </c>
-      <c r="AN78">
-        <v>0.25</v>
-      </c>
-      <c r="AO78">
-        <v>0.75</v>
-      </c>
-      <c r="AP78">
-        <v>0.2</v>
-      </c>
-      <c r="AQ78">
-        <v>1.2</v>
-      </c>
-      <c r="AR78">
-        <v>1</v>
-      </c>
-      <c r="AS78">
-        <v>1.14</v>
-      </c>
-      <c r="AT78">
-        <v>2.14</v>
-      </c>
-      <c r="AU78">
+      <c r="AA79">
+        <v>2.98</v>
+      </c>
+      <c r="AB79">
+        <v>3.45</v>
+      </c>
+      <c r="AC79">
+        <v>1.11</v>
+      </c>
+      <c r="AD79">
         <v>6</v>
       </c>
-      <c r="AV78">
+      <c r="AE79">
+        <v>1.5</v>
+      </c>
+      <c r="AF79">
+        <v>2.4</v>
+      </c>
+      <c r="AG79">
+        <v>2.6</v>
+      </c>
+      <c r="AH79">
+        <v>1.44</v>
+      </c>
+      <c r="AI79">
+        <v>2.2</v>
+      </c>
+      <c r="AJ79">
+        <v>1.62</v>
+      </c>
+      <c r="AK79">
+        <v>1.28</v>
+      </c>
+      <c r="AL79">
+        <v>1.3</v>
+      </c>
+      <c r="AM79">
+        <v>1.65</v>
+      </c>
+      <c r="AN79">
+        <v>1.5</v>
+      </c>
+      <c r="AO79">
+        <v>1.38</v>
+      </c>
+      <c r="AP79">
+        <v>1.67</v>
+      </c>
+      <c r="AQ79">
+        <v>1.22</v>
+      </c>
+      <c r="AR79">
+        <v>1.45</v>
+      </c>
+      <c r="AS79">
+        <v>1.05</v>
+      </c>
+      <c r="AT79">
+        <v>2.5</v>
+      </c>
+      <c r="AU79">
+        <v>9</v>
+      </c>
+      <c r="AV79">
+        <v>5</v>
+      </c>
+      <c r="AW79">
+        <v>3</v>
+      </c>
+      <c r="AX79">
         <v>7</v>
       </c>
-      <c r="AW78">
+      <c r="AY79">
+        <v>15</v>
+      </c>
+      <c r="AZ79">
+        <v>14</v>
+      </c>
+      <c r="BA79">
         <v>4</v>
       </c>
-      <c r="AX78">
-        <v>6</v>
-      </c>
-      <c r="AY78">
-        <v>12</v>
-      </c>
-      <c r="AZ78">
-        <v>13</v>
-      </c>
-      <c r="BA78">
+      <c r="BB79">
         <v>4</v>
       </c>
-      <c r="BB78">
-        <v>4</v>
-      </c>
-      <c r="BC78">
+      <c r="BC79">
         <v>8</v>
       </c>
-      <c r="BD78">
-        <v>0</v>
-      </c>
-      <c r="BE78">
-        <v>0</v>
-      </c>
-      <c r="BF78">
-        <v>0</v>
-      </c>
-      <c r="BG78">
-        <v>0</v>
-      </c>
-      <c r="BH78">
-        <v>0</v>
-      </c>
-      <c r="BI78">
-        <v>0</v>
-      </c>
-      <c r="BJ78">
-        <v>0</v>
-      </c>
-      <c r="BK78">
-        <v>2.38</v>
-      </c>
-      <c r="BL78">
-        <v>0</v>
-      </c>
-      <c r="BM78">
-        <v>0</v>
-      </c>
-      <c r="BN78">
-        <v>0</v>
-      </c>
-      <c r="BO78">
-        <v>0</v>
-      </c>
-      <c r="BP78">
-        <v>0</v>
+      <c r="BD79">
+        <v>1.75</v>
+      </c>
+      <c r="BE79">
+        <v>7.5</v>
+      </c>
+      <c r="BF79">
+        <v>2.53</v>
+      </c>
+      <c r="BG79">
+        <v>1.36</v>
+      </c>
+      <c r="BH79">
+        <v>3</v>
+      </c>
+      <c r="BI79">
+        <v>1.66</v>
+      </c>
+      <c r="BJ79">
+        <v>2.15</v>
+      </c>
+      <c r="BK79">
+        <v>2.12</v>
+      </c>
+      <c r="BL79">
+        <v>1.66</v>
+      </c>
+      <c r="BM79">
+        <v>2.88</v>
+      </c>
+      <c r="BN79">
+        <v>1.38</v>
+      </c>
+      <c r="BO79">
+        <v>4.1</v>
+      </c>
+      <c r="BP79">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,9 @@
     <t>['2', '38', '90+3']</t>
   </si>
   <si>
+    <t>['55', '70', '74', '88']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -605,6 +608,9 @@
   </si>
   <si>
     <t>['42']</t>
+  </si>
+  <si>
+    <t>['7', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -966,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1231,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1306,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1509,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1637,7 +1643,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1715,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="AQ4">
-        <v>1.88</v>
+        <v>1.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1921,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2049,7 +2055,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2127,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.78</v>
+        <v>2.6</v>
       </c>
       <c r="AQ6">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2333,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2461,7 +2467,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2539,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
         <v>2.25</v>
@@ -2745,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2873,7 +2879,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2951,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ10">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3154,22 +3160,22 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>1</v>
       </c>
       <c r="AR11">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3360,22 +3366,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>2</v>
@@ -3491,7 +3497,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3566,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -3769,25 +3775,25 @@
         <v>1.56</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AQ14">
-        <v>0.89</v>
+        <v>0.25</v>
       </c>
       <c r="AR14">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -3975,25 +3981,25 @@
         <v>1.53</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AR15">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>5</v>
@@ -4109,7 +4115,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4181,25 +4187,25 @@
         <v>1.8</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="AQ16">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR16">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4315,7 +4321,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4387,7 +4393,7 @@
         <v>2.12</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -4396,16 +4402,16 @@
         <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>1.78</v>
+        <v>1</v>
       </c>
       <c r="AR17">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>5</v>
@@ -4593,25 +4599,25 @@
         <v>1.85</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ18">
-        <v>1.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR18">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="AU18">
         <v>6</v>
@@ -4802,22 +4808,22 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR19">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AU19">
         <v>3</v>
@@ -4933,7 +4939,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5005,25 +5011,25 @@
         <v>1.7</v>
       </c>
       <c r="AN20">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AR20">
-        <v>1.04</v>
+        <v>0.67</v>
       </c>
       <c r="AS20">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="AT20">
-        <v>2.41</v>
+        <v>1.83</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5139,7 +5145,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5211,7 +5217,7 @@
         <v>1.55</v>
       </c>
       <c r="AN21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO21">
         <v>3</v>
@@ -5223,13 +5229,13 @@
         <v>2.25</v>
       </c>
       <c r="AR21">
-        <v>1.31</v>
+        <v>1.81</v>
       </c>
       <c r="AS21">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AT21">
-        <v>2.96</v>
+        <v>3.44</v>
       </c>
       <c r="AU21">
         <v>3</v>
@@ -5345,7 +5351,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5420,22 +5426,22 @@
         <v>3</v>
       </c>
       <c r="AO22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR22">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AS22">
-        <v>1.03</v>
+        <v>1.26</v>
       </c>
       <c r="AT22">
-        <v>2.61</v>
+        <v>2.9</v>
       </c>
       <c r="AU22">
         <v>7</v>
@@ -5629,19 +5635,19 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR23">
-        <v>1.48</v>
+        <v>2.13</v>
       </c>
       <c r="AS23">
-        <v>1.21</v>
+        <v>0.73</v>
       </c>
       <c r="AT23">
-        <v>2.69</v>
+        <v>2.86</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -5757,7 +5763,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5832,22 +5838,22 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24">
-        <v>1.88</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
-        <v>1.73</v>
+        <v>1.39</v>
       </c>
       <c r="AS24">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AT24">
-        <v>3.63</v>
+        <v>3.04</v>
       </c>
       <c r="AU24">
         <v>2</v>
@@ -5963,7 +5969,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6035,25 +6041,25 @@
         <v>1.45</v>
       </c>
       <c r="AN25">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AQ25">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="AS25">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="AT25">
-        <v>2.11</v>
+        <v>1.42</v>
       </c>
       <c r="AU25">
         <v>2</v>
@@ -6169,7 +6175,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6241,25 +6247,25 @@
         <v>1.65</v>
       </c>
       <c r="AN26">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.78</v>
+        <v>2.6</v>
       </c>
       <c r="AQ26">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR26">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AS26">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="AT26">
-        <v>2.19</v>
+        <v>2.5</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6447,25 +6453,25 @@
         <v>1.35</v>
       </c>
       <c r="AN27">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO27">
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AR27">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="AS27">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT27">
-        <v>2.99</v>
+        <v>3.41</v>
       </c>
       <c r="AU27">
         <v>8</v>
@@ -6581,7 +6587,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6653,25 +6659,25 @@
         <v>1.91</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28">
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ28">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="AS28">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT28">
-        <v>3.04</v>
+        <v>3.33</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -6859,25 +6865,25 @@
         <v>1.57</v>
       </c>
       <c r="AN29">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>1.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR29">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="AS29">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AT29">
-        <v>2.61</v>
+        <v>2.88</v>
       </c>
       <c r="AU29">
         <v>5</v>
@@ -6993,7 +6999,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7065,25 +7071,25 @@
         <v>2.4</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ30">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR30">
-        <v>1.82</v>
+        <v>1.49</v>
       </c>
       <c r="AS30">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="AT30">
-        <v>3.02</v>
+        <v>2.9</v>
       </c>
       <c r="AU30">
         <v>9</v>
@@ -7271,25 +7277,25 @@
         <v>2.45</v>
       </c>
       <c r="AN31">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31">
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.78</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AS31">
-        <v>1.44</v>
+        <v>0.83</v>
       </c>
       <c r="AT31">
-        <v>2.63</v>
+        <v>2.21</v>
       </c>
       <c r="AU31">
         <v>2</v>
@@ -7477,25 +7483,25 @@
         <v>1.9</v>
       </c>
       <c r="AN32">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AQ32">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR32">
-        <v>1.22</v>
+        <v>0.82</v>
       </c>
       <c r="AS32">
-        <v>0.95</v>
+        <v>1.24</v>
       </c>
       <c r="AT32">
-        <v>2.17</v>
+        <v>2.06</v>
       </c>
       <c r="AU32">
         <v>10</v>
@@ -7683,25 +7689,25 @@
         <v>1.7</v>
       </c>
       <c r="AN33">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AR33">
-        <v>1.64</v>
+        <v>2.15</v>
       </c>
       <c r="AS33">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="AT33">
-        <v>3.02</v>
+        <v>3.25</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -7889,25 +7895,25 @@
         <v>2</v>
       </c>
       <c r="AN34">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO34">
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AR34">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="AS34">
-        <v>1.22</v>
+        <v>1.04</v>
       </c>
       <c r="AT34">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="AU34">
         <v>4</v>
@@ -8023,7 +8029,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8098,22 +8104,22 @@
         <v>0</v>
       </c>
       <c r="AO35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ35">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
-        <v>1.13</v>
+        <v>1.69</v>
       </c>
       <c r="AS35">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AT35">
-        <v>2.8</v>
+        <v>3.22</v>
       </c>
       <c r="AU35">
         <v>9</v>
@@ -8229,7 +8235,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8304,22 +8310,22 @@
         <v>3</v>
       </c>
       <c r="AO36">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AP36">
         <v>2.25</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="AS36">
-        <v>1.68</v>
+        <v>1.27</v>
       </c>
       <c r="AT36">
-        <v>3.09</v>
+        <v>2.93</v>
       </c>
       <c r="AU36">
         <v>7</v>
@@ -8435,7 +8441,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8507,25 +8513,25 @@
         <v>1.4</v>
       </c>
       <c r="AN37">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO37">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.78</v>
+        <v>2.6</v>
       </c>
       <c r="AQ37">
-        <v>0.89</v>
+        <v>0.25</v>
       </c>
       <c r="AR37">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AS37">
-        <v>1.52</v>
+        <v>2.07</v>
       </c>
       <c r="AT37">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="AU37">
         <v>6</v>
@@ -8641,7 +8647,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8713,25 +8719,25 @@
         <v>1.48</v>
       </c>
       <c r="AN38">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO38">
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR38">
-        <v>1.1</v>
+        <v>1.59</v>
       </c>
       <c r="AS38">
-        <v>1.41</v>
+        <v>0.84</v>
       </c>
       <c r="AT38">
-        <v>2.51</v>
+        <v>2.43</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -8847,7 +8853,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -8919,25 +8925,25 @@
         <v>1.45</v>
       </c>
       <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0.2</v>
+      </c>
+      <c r="AQ39">
         <v>0.75</v>
       </c>
-      <c r="AO39">
-        <v>1.75</v>
-      </c>
-      <c r="AP39">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AQ39">
-        <v>1.78</v>
-      </c>
       <c r="AR39">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="AS39">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="AT39">
-        <v>2.21</v>
+        <v>1.88</v>
       </c>
       <c r="AU39">
         <v>7</v>
@@ -9128,22 +9134,22 @@
         <v>2</v>
       </c>
       <c r="AO40">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40">
         <v>2.25</v>
       </c>
       <c r="AR40">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="AS40">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AT40">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="AU40">
         <v>6</v>
@@ -9259,7 +9265,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9331,25 +9337,25 @@
         <v>1.85</v>
       </c>
       <c r="AN41">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO41">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
-        <v>1.88</v>
+        <v>1.2</v>
       </c>
       <c r="AR41">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="AS41">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AT41">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="AU41">
         <v>9</v>
@@ -9465,7 +9471,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9540,22 +9546,22 @@
         <v>1.5</v>
       </c>
       <c r="AO42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
         <v>1.75</v>
       </c>
-      <c r="AR42">
-        <v>1.36</v>
-      </c>
       <c r="AS42">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT42">
-        <v>2.81</v>
+        <v>3.17</v>
       </c>
       <c r="AU42">
         <v>7</v>
@@ -9671,7 +9677,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9743,25 +9749,25 @@
         <v>1.66</v>
       </c>
       <c r="AN43">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO43">
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
+        <v>0.8</v>
+      </c>
+      <c r="AS43">
         <v>1.14</v>
       </c>
-      <c r="AS43">
-        <v>1.34</v>
-      </c>
       <c r="AT43">
-        <v>2.48</v>
+        <v>1.94</v>
       </c>
       <c r="AU43">
         <v>3</v>
@@ -9949,25 +9955,25 @@
         <v>1.72</v>
       </c>
       <c r="AN44">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO44">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
-        <v>1.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR44">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="AS44">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AT44">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AU44">
         <v>8</v>
@@ -10155,25 +10161,25 @@
         <v>1.47</v>
       </c>
       <c r="AN45">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AQ45">
         <v>1</v>
       </c>
       <c r="AR45">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AS45">
-        <v>1.1</v>
+        <v>0.82</v>
       </c>
       <c r="AT45">
-        <v>2.49</v>
+        <v>2.35</v>
       </c>
       <c r="AU45">
         <v>6</v>
@@ -10289,7 +10295,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10361,25 +10367,25 @@
         <v>1.55</v>
       </c>
       <c r="AN46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ46">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AR46">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="AS46">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="AT46">
-        <v>3.46</v>
+        <v>3.86</v>
       </c>
       <c r="AU46">
         <v>2</v>
@@ -10495,7 +10501,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -10567,25 +10573,25 @@
         <v>1.85</v>
       </c>
       <c r="AN47">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AO47">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AR47">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="AS47">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="AT47">
-        <v>2.99</v>
+        <v>2.74</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -10773,25 +10779,25 @@
         <v>2.2</v>
       </c>
       <c r="AN48">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AO48">
+        <v>0.33</v>
+      </c>
+      <c r="AP48">
+        <v>2.25</v>
+      </c>
+      <c r="AQ48">
         <v>0.2</v>
       </c>
-      <c r="AP48">
-        <v>1.88</v>
-      </c>
-      <c r="AQ48">
-        <v>0.5</v>
-      </c>
       <c r="AR48">
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="AS48">
-        <v>1.09</v>
+        <v>0.93</v>
       </c>
       <c r="AT48">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -10979,25 +10985,25 @@
         <v>2.7</v>
       </c>
       <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>1.5</v>
+      </c>
+      <c r="AP49">
         <v>1.8</v>
       </c>
-      <c r="AO49">
-        <v>0.6</v>
-      </c>
-      <c r="AP49">
-        <v>1.67</v>
-      </c>
       <c r="AQ49">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR49">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AS49">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AT49">
-        <v>2.5</v>
+        <v>2.69</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11185,22 +11191,22 @@
         <v>1.65</v>
       </c>
       <c r="AN50">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP50">
         <v>2.25</v>
       </c>
       <c r="AQ50">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="AS50">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="AT50">
         <v>3.1</v>
@@ -11391,25 +11397,25 @@
         <v>1.25</v>
       </c>
       <c r="AN51">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AO51">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AR51">
         <v>1.48</v>
       </c>
       <c r="AS51">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AT51">
-        <v>3.35</v>
+        <v>3.41</v>
       </c>
       <c r="AU51">
         <v>8</v>
@@ -11597,25 +11603,25 @@
         <v>1.57</v>
       </c>
       <c r="AN52">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="AO52">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="AQ52">
-        <v>1.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="AS52">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AT52">
-        <v>2.51</v>
+        <v>2.71</v>
       </c>
       <c r="AU52">
         <v>4</v>
@@ -11731,7 +11737,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11803,25 +11809,25 @@
         <v>1.48</v>
       </c>
       <c r="AN53">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO53">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="AQ53">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="AS53">
-        <v>1.31</v>
+        <v>0.98</v>
       </c>
       <c r="AT53">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AU53">
         <v>4</v>
@@ -11937,7 +11943,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12009,25 +12015,25 @@
         <v>1.77</v>
       </c>
       <c r="AN54">
+        <v>0.33</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>1</v>
+      </c>
+      <c r="AQ54">
         <v>0.8</v>
       </c>
-      <c r="AO54">
-        <v>1.2</v>
-      </c>
-      <c r="AP54">
-        <v>1</v>
-      </c>
-      <c r="AQ54">
-        <v>0.89</v>
-      </c>
       <c r="AR54">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="AS54">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AT54">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12143,7 +12149,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12215,25 +12221,25 @@
         <v>1.77</v>
       </c>
       <c r="AN55">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AO55">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ55">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
-        <v>1.42</v>
+        <v>1.98</v>
       </c>
       <c r="AS55">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="AT55">
-        <v>2.78</v>
+        <v>3.22</v>
       </c>
       <c r="AU55">
         <v>7</v>
@@ -12421,22 +12427,22 @@
         <v>2.3</v>
       </c>
       <c r="AN56">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO56">
-        <v>1.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ56">
-        <v>1.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR56">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="AS56">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="AT56">
         <v>2.84</v>
@@ -12555,7 +12561,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12627,25 +12633,25 @@
         <v>1.57</v>
       </c>
       <c r="AN57">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO57">
-        <v>1.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR57">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="AS57">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AT57">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="AU57">
         <v>6</v>
@@ -12761,7 +12767,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12833,25 +12839,25 @@
         <v>1.57</v>
       </c>
       <c r="AN58">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO58">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AQ58">
-        <v>1.78</v>
+        <v>1</v>
       </c>
       <c r="AR58">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.4</v>
+        <v>0.97</v>
       </c>
       <c r="AT58">
-        <v>2.51</v>
+        <v>1.97</v>
       </c>
       <c r="AU58">
         <v>3</v>
@@ -12967,7 +12973,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13039,25 +13045,25 @@
         <v>1.75</v>
       </c>
       <c r="AN59">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AO59">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="AQ59">
-        <v>1.88</v>
+        <v>1.2</v>
       </c>
       <c r="AR59">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="AS59">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AT59">
-        <v>2.77</v>
+        <v>2.86</v>
       </c>
       <c r="AU59">
         <v>10</v>
@@ -13173,7 +13179,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13245,25 +13251,25 @@
         <v>1.57</v>
       </c>
       <c r="AN60">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR60">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AS60">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="AT60">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="AU60">
         <v>11</v>
@@ -13451,25 +13457,25 @@
         <v>1.57</v>
       </c>
       <c r="AN61">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO61">
-        <v>0.83</v>
+        <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.78</v>
+        <v>2.6</v>
       </c>
       <c r="AQ61">
         <v>1</v>
       </c>
       <c r="AR61">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AS61">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="AT61">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="AU61">
         <v>6</v>
@@ -13585,7 +13591,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13657,25 +13663,25 @@
         <v>1.38</v>
       </c>
       <c r="AN62">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AO62">
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
         <v>2.25</v>
       </c>
       <c r="AR62">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AS62">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AT62">
-        <v>2.71</v>
+        <v>2.51</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -13791,7 +13797,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13863,25 +13869,25 @@
         <v>1.3</v>
       </c>
       <c r="AN63">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AO63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="AT63">
-        <v>2.78</v>
+        <v>2.63</v>
       </c>
       <c r="AU63">
         <v>6</v>
@@ -13997,7 +14003,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14069,25 +14075,25 @@
         <v>1.75</v>
       </c>
       <c r="AN64">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO64">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ64">
-        <v>0.89</v>
+        <v>0.25</v>
       </c>
       <c r="AR64">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="AS64">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AT64">
-        <v>3.18</v>
+        <v>3.44</v>
       </c>
       <c r="AU64">
         <v>11</v>
@@ -14275,25 +14281,25 @@
         <v>2.11</v>
       </c>
       <c r="AN65">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AO65">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AP65">
         <v>2.25</v>
       </c>
       <c r="AQ65">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR65">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AS65">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AT65">
-        <v>2.81</v>
+        <v>2.89</v>
       </c>
       <c r="AU65">
         <v>8</v>
@@ -14481,25 +14487,25 @@
         <v>1.76</v>
       </c>
       <c r="AN66">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO66">
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="AQ66">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR66">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="AS66">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AT66">
-        <v>2.66</v>
+        <v>2.86</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14687,25 +14693,25 @@
         <v>1.8</v>
       </c>
       <c r="AN67">
-        <v>1.86</v>
+        <v>2.25</v>
       </c>
       <c r="AO67">
-        <v>0.57</v>
+        <v>0.25</v>
       </c>
       <c r="AP67">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="AQ67">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AR67">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="AS67">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AT67">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AU67">
         <v>8</v>
@@ -14821,7 +14827,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14893,25 +14899,25 @@
         <v>1.6</v>
       </c>
       <c r="AN68">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AO68">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ68">
-        <v>1.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR68">
-        <v>1.49</v>
+        <v>1.95</v>
       </c>
       <c r="AS68">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AT68">
-        <v>2.75</v>
+        <v>3.17</v>
       </c>
       <c r="AU68">
         <v>7</v>
@@ -15027,7 +15033,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15099,25 +15105,25 @@
         <v>1.93</v>
       </c>
       <c r="AN69">
-        <v>1.43</v>
+        <v>3</v>
       </c>
       <c r="AO69">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="AQ69">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AR69">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="AS69">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="AT69">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="AU69">
         <v>2</v>
@@ -15233,7 +15239,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15305,25 +15311,25 @@
         <v>1.33</v>
       </c>
       <c r="AN70">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO70">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AR70">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AS70">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="AT70">
-        <v>3.36</v>
+        <v>3.19</v>
       </c>
       <c r="AU70">
         <v>2</v>
@@ -15439,7 +15445,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15511,25 +15517,25 @@
         <v>1.44</v>
       </c>
       <c r="AN71">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AO71">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP71">
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR71">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AS71">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT71">
-        <v>2.95</v>
+        <v>2.67</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -15645,7 +15651,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15717,25 +15723,25 @@
         <v>2.25</v>
       </c>
       <c r="AN72">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AO72">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ72">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AR72">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="AS72">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="AT72">
-        <v>3.03</v>
+        <v>2.97</v>
       </c>
       <c r="AU72">
         <v>7</v>
@@ -15821,7 +15827,7 @@
         <v>45583.625</v>
       </c>
       <c r="F73">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s">
         <v>77</v>
@@ -15851,7 +15857,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -15923,43 +15929,43 @@
         <v>0</v>
       </c>
       <c r="AN73">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="AO73">
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR73">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.51</v>
+        <v>1.14</v>
       </c>
       <c r="AT73">
-        <v>2.56</v>
+        <v>2.14</v>
       </c>
       <c r="AU73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV73">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY73">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ73">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA73">
         <v>4</v>
@@ -16027,7 +16033,7 @@
         <v>45583.625</v>
       </c>
       <c r="F74">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G74" t="s">
         <v>75</v>
@@ -16057,7 +16063,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16129,43 +16135,43 @@
         <v>0</v>
       </c>
       <c r="AN74">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AO74">
-        <v>1.57</v>
+        <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ74">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AS74">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AT74">
-        <v>3.23</v>
+        <v>3.26</v>
       </c>
       <c r="AU74">
         <v>6</v>
       </c>
       <c r="AV74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX74">
         <v>4</v>
       </c>
       <c r="AY74">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ74">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA74">
         <v>6</v>
@@ -16263,7 +16269,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16335,43 +16341,43 @@
         <v>0</v>
       </c>
       <c r="AN75">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO75">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AP75">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.89</v>
+        <v>0.25</v>
       </c>
       <c r="AR75">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AS75">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="AT75">
-        <v>2.61</v>
+        <v>2.74</v>
       </c>
       <c r="AU75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW75">
+        <v>5</v>
+      </c>
+      <c r="AX75">
+        <v>4</v>
+      </c>
+      <c r="AY75">
+        <v>14</v>
+      </c>
+      <c r="AZ75">
         <v>8</v>
-      </c>
-      <c r="AX75">
-        <v>3</v>
-      </c>
-      <c r="AY75">
-        <v>21</v>
-      </c>
-      <c r="AZ75">
-        <v>10</v>
       </c>
       <c r="BA75">
         <v>10</v>
@@ -16469,7 +16475,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16541,43 +16547,43 @@
         <v>0</v>
       </c>
       <c r="AN76">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AO76">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AQ76">
-        <v>1.78</v>
+        <v>1</v>
       </c>
       <c r="AR76">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AS76">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AT76">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AU76">
+        <v>0</v>
+      </c>
+      <c r="AV76">
         <v>4</v>
       </c>
-      <c r="AV76">
-        <v>7</v>
-      </c>
       <c r="AW76">
         <v>0</v>
       </c>
       <c r="AX76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AZ76">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA76">
         <v>0</v>
@@ -16747,43 +16753,43 @@
         <v>1.33</v>
       </c>
       <c r="AN77">
-        <v>1.63</v>
+        <v>2.5</v>
       </c>
       <c r="AO77">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.78</v>
+        <v>2.6</v>
       </c>
       <c r="AQ77">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AS77">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="AT77">
-        <v>2.8</v>
+        <v>2.61</v>
       </c>
       <c r="AU77">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW77">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY77">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AZ77">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA77">
         <v>3</v>
@@ -16953,43 +16959,43 @@
         <v>1.66</v>
       </c>
       <c r="AN78">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO78">
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="AQ78">
         <v>1</v>
       </c>
       <c r="AR78">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="AS78">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AT78">
-        <v>2.74</v>
+        <v>3.03</v>
       </c>
       <c r="AU78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV78">
         <v>3</v>
       </c>
       <c r="AW78">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX78">
         <v>1</v>
       </c>
       <c r="AY78">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AZ78">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BA78">
         <v>11</v>
@@ -17087,7 +17093,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17159,31 +17165,31 @@
         <v>1.65</v>
       </c>
       <c r="AN79">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO79">
-        <v>1.38</v>
+        <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AQ79">
-        <v>1.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR79">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="AS79">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AT79">
-        <v>2.5</v>
+        <v>2.69</v>
       </c>
       <c r="AU79">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW79">
         <v>3</v>
@@ -17192,10 +17198,10 @@
         <v>7</v>
       </c>
       <c r="AY79">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AZ79">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA79">
         <v>4</v>
@@ -17244,6 +17250,212 @@
       </c>
       <c r="BP79">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7468942</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45584.625</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>86</v>
+      </c>
+      <c r="H80" t="s">
+        <v>84</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>6</v>
+      </c>
+      <c r="O80" t="s">
+        <v>152</v>
+      </c>
+      <c r="P80" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q80">
+        <v>2.05</v>
+      </c>
+      <c r="R80">
+        <v>2.4</v>
+      </c>
+      <c r="S80">
+        <v>5.5</v>
+      </c>
+      <c r="T80">
+        <v>1.33</v>
+      </c>
+      <c r="U80">
+        <v>3.25</v>
+      </c>
+      <c r="V80">
+        <v>2.5</v>
+      </c>
+      <c r="W80">
+        <v>1.5</v>
+      </c>
+      <c r="X80">
+        <v>6</v>
+      </c>
+      <c r="Y80">
+        <v>1.13</v>
+      </c>
+      <c r="Z80">
+        <v>1.48</v>
+      </c>
+      <c r="AA80">
+        <v>4.2</v>
+      </c>
+      <c r="AB80">
+        <v>6.2</v>
+      </c>
+      <c r="AC80">
+        <v>1.04</v>
+      </c>
+      <c r="AD80">
+        <v>10</v>
+      </c>
+      <c r="AE80">
+        <v>1.22</v>
+      </c>
+      <c r="AF80">
+        <v>4</v>
+      </c>
+      <c r="AG80">
+        <v>1.66</v>
+      </c>
+      <c r="AH80">
+        <v>2.09</v>
+      </c>
+      <c r="AI80">
+        <v>1.8</v>
+      </c>
+      <c r="AJ80">
+        <v>1.91</v>
+      </c>
+      <c r="AK80">
+        <v>1.08</v>
+      </c>
+      <c r="AL80">
+        <v>1.16</v>
+      </c>
+      <c r="AM80">
+        <v>2.55</v>
+      </c>
+      <c r="AN80">
+        <v>3</v>
+      </c>
+      <c r="AO80">
+        <v>1.5</v>
+      </c>
+      <c r="AP80">
+        <v>3</v>
+      </c>
+      <c r="AQ80">
+        <v>1.2</v>
+      </c>
+      <c r="AR80">
+        <v>2.09</v>
+      </c>
+      <c r="AS80">
+        <v>1.25</v>
+      </c>
+      <c r="AT80">
+        <v>3.34</v>
+      </c>
+      <c r="AU80">
+        <v>4</v>
+      </c>
+      <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>6</v>
+      </c>
+      <c r="AX80">
+        <v>5</v>
+      </c>
+      <c r="AY80">
+        <v>10</v>
+      </c>
+      <c r="AZ80">
+        <v>8</v>
+      </c>
+      <c r="BA80">
+        <v>6</v>
+      </c>
+      <c r="BB80">
+        <v>1</v>
+      </c>
+      <c r="BC80">
+        <v>7</v>
+      </c>
+      <c r="BD80">
+        <v>1.26</v>
+      </c>
+      <c r="BE80">
+        <v>7.5</v>
+      </c>
+      <c r="BF80">
+        <v>5.05</v>
+      </c>
+      <c r="BG80">
+        <v>1.22</v>
+      </c>
+      <c r="BH80">
+        <v>3.35</v>
+      </c>
+      <c r="BI80">
+        <v>1.46</v>
+      </c>
+      <c r="BJ80">
+        <v>2.45</v>
+      </c>
+      <c r="BK80">
+        <v>2.38</v>
+      </c>
+      <c r="BL80">
+        <v>1.85</v>
+      </c>
+      <c r="BM80">
+        <v>2.32</v>
+      </c>
+      <c r="BN80">
+        <v>1.51</v>
+      </c>
+      <c r="BO80">
+        <v>3.02</v>
+      </c>
+      <c r="BP80">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>['7', '90+2']</t>
+  </si>
+  <si>
+    <t>['19', '40', '73']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2548,7 +2551,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3163,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -5226,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -8725,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38">
         <v>1.2</v>
@@ -9140,7 +9143,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ40">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR40">
         <v>1.41</v>
@@ -13672,7 +13675,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR62">
         <v>1.16</v>
@@ -13875,7 +13878,7 @@
         <v>3</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -17186,10 +17189,10 @@
         <v>2.69</v>
       </c>
       <c r="AU79">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW79">
         <v>3</v>
@@ -17198,10 +17201,10 @@
         <v>7</v>
       </c>
       <c r="AY79">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AZ79">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA79">
         <v>4</v>
@@ -17392,10 +17395,10 @@
         <v>3.34</v>
       </c>
       <c r="AU80">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW80">
         <v>6</v>
@@ -17404,10 +17407,10 @@
         <v>5</v>
       </c>
       <c r="AY80">
+        <v>18</v>
+      </c>
+      <c r="AZ80">
         <v>10</v>
-      </c>
-      <c r="AZ80">
-        <v>8</v>
       </c>
       <c r="BA80">
         <v>6</v>
@@ -17456,6 +17459,212 @@
       </c>
       <c r="BP80">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7468945</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45586.65625</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
+        <v>85</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>90</v>
+      </c>
+      <c r="P81" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q81">
+        <v>4.33</v>
+      </c>
+      <c r="R81">
+        <v>2.2</v>
+      </c>
+      <c r="S81">
+        <v>2.6</v>
+      </c>
+      <c r="T81">
+        <v>1.4</v>
+      </c>
+      <c r="U81">
+        <v>2.75</v>
+      </c>
+      <c r="V81">
+        <v>2.75</v>
+      </c>
+      <c r="W81">
+        <v>1.4</v>
+      </c>
+      <c r="X81">
+        <v>8</v>
+      </c>
+      <c r="Y81">
+        <v>1.08</v>
+      </c>
+      <c r="Z81">
+        <v>3.45</v>
+      </c>
+      <c r="AA81">
+        <v>3.4</v>
+      </c>
+      <c r="AB81">
+        <v>2.02</v>
+      </c>
+      <c r="AC81">
+        <v>1.06</v>
+      </c>
+      <c r="AD81">
+        <v>8.5</v>
+      </c>
+      <c r="AE81">
+        <v>1.3</v>
+      </c>
+      <c r="AF81">
+        <v>3.3</v>
+      </c>
+      <c r="AG81">
+        <v>1.97</v>
+      </c>
+      <c r="AH81">
+        <v>1.87</v>
+      </c>
+      <c r="AI81">
+        <v>1.8</v>
+      </c>
+      <c r="AJ81">
+        <v>1.91</v>
+      </c>
+      <c r="AK81">
+        <v>1.85</v>
+      </c>
+      <c r="AL81">
+        <v>1.25</v>
+      </c>
+      <c r="AM81">
+        <v>1.18</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
+        <v>2.25</v>
+      </c>
+      <c r="AP81">
+        <v>0.75</v>
+      </c>
+      <c r="AQ81">
+        <v>2.4</v>
+      </c>
+      <c r="AR81">
+        <v>1.22</v>
+      </c>
+      <c r="AS81">
+        <v>1.34</v>
+      </c>
+      <c r="AT81">
+        <v>2.56</v>
+      </c>
+      <c r="AU81">
+        <v>4</v>
+      </c>
+      <c r="AV81">
+        <v>6</v>
+      </c>
+      <c r="AW81">
+        <v>7</v>
+      </c>
+      <c r="AX81">
+        <v>3</v>
+      </c>
+      <c r="AY81">
+        <v>12</v>
+      </c>
+      <c r="AZ81">
+        <v>11</v>
+      </c>
+      <c r="BA81">
+        <v>6</v>
+      </c>
+      <c r="BB81">
+        <v>3</v>
+      </c>
+      <c r="BC81">
+        <v>9</v>
+      </c>
+      <c r="BD81">
+        <v>2.5</v>
+      </c>
+      <c r="BE81">
+        <v>5.9</v>
+      </c>
+      <c r="BF81">
+        <v>1.8</v>
+      </c>
+      <c r="BG81">
+        <v>1.25</v>
+      </c>
+      <c r="BH81">
+        <v>3.14</v>
+      </c>
+      <c r="BI81">
+        <v>1.52</v>
+      </c>
+      <c r="BJ81">
+        <v>2.3</v>
+      </c>
+      <c r="BK81">
+        <v>1.91</v>
+      </c>
+      <c r="BL81">
+        <v>1.8</v>
+      </c>
+      <c r="BM81">
+        <v>2.48</v>
+      </c>
+      <c r="BN81">
+        <v>1.45</v>
+      </c>
+      <c r="BO81">
+        <v>3.28</v>
+      </c>
+      <c r="BP81">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>['55', '70', '74', '88']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
   <si>
     <t>['16', '45+2']</t>
@@ -975,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1237,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1646,7 +1649,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2058,7 +2061,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2470,7 +2473,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2882,7 +2885,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2963,7 +2966,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3500,7 +3503,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3784,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14">
         <v>0.25</v>
@@ -4118,7 +4121,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4324,7 +4327,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4942,7 +4945,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5148,7 +5151,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5354,7 +5357,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5766,7 +5769,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5972,7 +5975,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6053,7 +6056,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6178,7 +6181,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6590,7 +6593,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7002,7 +7005,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7492,7 +7495,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -8032,7 +8035,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8238,7 +8241,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8444,7 +8447,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8650,7 +8653,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8856,7 +8859,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9268,7 +9271,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9474,7 +9477,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9680,7 +9683,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10298,7 +10301,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10504,7 +10507,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -11406,7 +11409,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ51">
         <v>1.4</v>
@@ -11740,7 +11743,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11821,7 +11824,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>1.76</v>
@@ -11946,7 +11949,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12152,7 +12155,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12564,7 +12567,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12770,7 +12773,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12976,7 +12979,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13182,7 +13185,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13594,7 +13597,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13800,7 +13803,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14006,7 +14009,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14830,7 +14833,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15036,7 +15039,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15242,7 +15245,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15448,7 +15451,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15654,7 +15657,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15860,7 +15863,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16066,7 +16069,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16272,7 +16275,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16478,7 +16481,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17096,7 +17099,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17302,7 +17305,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17475,7 +17478,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45586.65625</v>
+        <v>45585.875</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -17508,7 +17511,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -17665,6 +17668,212 @@
       </c>
       <c r="BP81">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7468935</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45587.60416666666</v>
+      </c>
+      <c r="F82">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>82</v>
+      </c>
+      <c r="H82" t="s">
+        <v>83</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>153</v>
+      </c>
+      <c r="P82" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q82">
+        <v>2.9</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>3.65</v>
+      </c>
+      <c r="T82">
+        <v>1.42</v>
+      </c>
+      <c r="U82">
+        <v>2.62</v>
+      </c>
+      <c r="V82">
+        <v>2.95</v>
+      </c>
+      <c r="W82">
+        <v>1.35</v>
+      </c>
+      <c r="X82">
+        <v>7.7</v>
+      </c>
+      <c r="Y82">
+        <v>1.07</v>
+      </c>
+      <c r="Z82">
+        <v>2.26</v>
+      </c>
+      <c r="AA82">
+        <v>3.1</v>
+      </c>
+      <c r="AB82">
+        <v>3.23</v>
+      </c>
+      <c r="AC82">
+        <v>1.07</v>
+      </c>
+      <c r="AD82">
+        <v>8</v>
+      </c>
+      <c r="AE82">
+        <v>1.35</v>
+      </c>
+      <c r="AF82">
+        <v>3.1</v>
+      </c>
+      <c r="AG82">
+        <v>2.14</v>
+      </c>
+      <c r="AH82">
+        <v>1.63</v>
+      </c>
+      <c r="AI82">
+        <v>1.77</v>
+      </c>
+      <c r="AJ82">
+        <v>1.91</v>
+      </c>
+      <c r="AK82">
+        <v>1.35</v>
+      </c>
+      <c r="AL82">
+        <v>1.28</v>
+      </c>
+      <c r="AM82">
+        <v>1.6</v>
+      </c>
+      <c r="AN82">
+        <v>3</v>
+      </c>
+      <c r="AO82">
+        <v>1.33</v>
+      </c>
+      <c r="AP82">
+        <v>2.5</v>
+      </c>
+      <c r="AQ82">
+        <v>1.25</v>
+      </c>
+      <c r="AR82">
+        <v>1.57</v>
+      </c>
+      <c r="AS82">
+        <v>1.1</v>
+      </c>
+      <c r="AT82">
+        <v>2.67</v>
+      </c>
+      <c r="AU82">
+        <v>5</v>
+      </c>
+      <c r="AV82">
+        <v>5</v>
+      </c>
+      <c r="AW82">
+        <v>2</v>
+      </c>
+      <c r="AX82">
+        <v>4</v>
+      </c>
+      <c r="AY82">
+        <v>11</v>
+      </c>
+      <c r="AZ82">
+        <v>12</v>
+      </c>
+      <c r="BA82">
+        <v>6</v>
+      </c>
+      <c r="BB82">
+        <v>3</v>
+      </c>
+      <c r="BC82">
+        <v>9</v>
+      </c>
+      <c r="BD82">
+        <v>1.64</v>
+      </c>
+      <c r="BE82">
+        <v>8</v>
+      </c>
+      <c r="BF82">
+        <v>2.77</v>
+      </c>
+      <c r="BG82">
+        <v>1.29</v>
+      </c>
+      <c r="BH82">
+        <v>3.4</v>
+      </c>
+      <c r="BI82">
+        <v>1.53</v>
+      </c>
+      <c r="BJ82">
+        <v>2.4</v>
+      </c>
+      <c r="BK82">
+        <v>2</v>
+      </c>
+      <c r="BL82">
+        <v>1.8</v>
+      </c>
+      <c r="BM82">
+        <v>2.55</v>
+      </c>
+      <c r="BN82">
+        <v>1.48</v>
+      </c>
+      <c r="BO82">
+        <v>3.5</v>
+      </c>
+      <c r="BP82">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -17478,10 +17478,10 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45585.875</v>
+        <v>45586.65625</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G81" t="s">
         <v>79</v>
@@ -17684,7 +17684,7 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45587.60416666666</v>
+        <v>45586.875</v>
       </c>
       <c r="F82">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -17684,7 +17684,7 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45586.875</v>
+        <v>45587.60416666666</v>
       </c>
       <c r="F82">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,18 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['31', '63']</t>
+  </si>
+  <si>
+    <t>['28', '70']</t>
+  </si>
+  <si>
+    <t>['78', '89', '90+7']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -617,6 +629,12 @@
   </si>
   <si>
     <t>['19', '40', '73']</t>
+  </si>
+  <si>
+    <t>['10', '30']</t>
+  </si>
+  <si>
+    <t>['32', '56', '85']</t>
   </si>
 </sst>
 </file>
@@ -978,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,7 +1255,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1315,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1649,7 +1667,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1727,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
         <v>1.2</v>
@@ -1936,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2061,7 +2079,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2142,7 +2160,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2473,7 +2491,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2760,7 +2778,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ9">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2885,7 +2903,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2963,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1.25</v>
@@ -3378,7 +3396,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3503,7 +3521,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3581,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -3787,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.25</v>
@@ -3996,7 +4014,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4121,7 +4139,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4199,10 +4217,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4327,7 +4345,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4945,7 +4963,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5151,7 +5169,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5229,7 +5247,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ21">
         <v>2.4</v>
@@ -5357,7 +5375,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5438,7 +5456,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
         <v>1.64</v>
@@ -5641,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ23">
         <v>1.2</v>
@@ -5769,7 +5787,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5975,7 +5993,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6181,7 +6199,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6468,7 +6486,7 @@
         <v>3</v>
       </c>
       <c r="AQ27">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
         <v>1.55</v>
@@ -6593,7 +6611,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6671,10 +6689,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR28">
         <v>1.92</v>
@@ -7005,7 +7023,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7086,7 +7104,7 @@
         <v>3</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7289,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7495,10 +7513,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR32">
         <v>0.82</v>
@@ -7701,10 +7719,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR33">
         <v>2.15</v>
@@ -8035,7 +8053,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8113,10 +8131,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR35">
         <v>1.69</v>
@@ -8241,7 +8259,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8447,7 +8465,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8653,7 +8671,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8859,7 +8877,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9271,7 +9289,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9477,7 +9495,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9555,7 +9573,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9683,7 +9701,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9764,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR43">
         <v>0.8</v>
@@ -10301,7 +10319,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10379,10 +10397,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.88</v>
@@ -10507,7 +10525,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -10588,7 +10606,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR47">
         <v>1.49</v>
@@ -10791,7 +10809,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ48">
         <v>0.2</v>
@@ -10997,10 +11015,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11206,7 +11224,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR50">
         <v>1.61</v>
@@ -11409,10 +11427,10 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>1.48</v>
@@ -11743,7 +11761,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11821,7 +11839,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ53">
         <v>1.25</v>
@@ -11949,7 +11967,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12027,10 +12045,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ54">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR54">
         <v>1.19</v>
@@ -12155,7 +12173,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12233,10 +12251,10 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ55">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR55">
         <v>1.98</v>
@@ -12567,7 +12585,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12773,7 +12791,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12979,7 +12997,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13185,7 +13203,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13597,7 +13615,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13803,7 +13821,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14009,7 +14027,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14296,7 +14314,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ65">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR65">
         <v>1.6</v>
@@ -14499,10 +14517,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ66">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14705,7 +14723,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ67">
         <v>0.2</v>
@@ -14833,7 +14851,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14911,7 +14929,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ68">
         <v>0.75</v>
@@ -15039,7 +15057,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15120,7 +15138,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR69">
         <v>1.23</v>
@@ -15245,7 +15263,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15326,7 +15344,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ70">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>1.55</v>
@@ -15451,7 +15469,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15529,10 +15547,10 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ71">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR71">
         <v>1.24</v>
@@ -15657,7 +15675,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15735,10 +15753,10 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR72">
         <v>1.72</v>
@@ -15863,7 +15881,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16069,7 +16087,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16275,7 +16293,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16481,7 +16499,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17099,7 +17117,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17305,7 +17323,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17511,7 +17529,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -17795,7 +17813,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>1.25</v>
@@ -17874,6 +17892,1242 @@
       </c>
       <c r="BP82">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7468954</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45590.625</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>72</v>
+      </c>
+      <c r="H83" t="s">
+        <v>87</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>154</v>
+      </c>
+      <c r="P83" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q83">
+        <v>2.6</v>
+      </c>
+      <c r="R83">
+        <v>2.1</v>
+      </c>
+      <c r="S83">
+        <v>4</v>
+      </c>
+      <c r="T83">
+        <v>1.4</v>
+      </c>
+      <c r="U83">
+        <v>2.75</v>
+      </c>
+      <c r="V83">
+        <v>2.85</v>
+      </c>
+      <c r="W83">
+        <v>1.37</v>
+      </c>
+      <c r="X83">
+        <v>6.95</v>
+      </c>
+      <c r="Y83">
+        <v>1.07</v>
+      </c>
+      <c r="Z83">
+        <v>2.05</v>
+      </c>
+      <c r="AA83">
+        <v>3.5</v>
+      </c>
+      <c r="AB83">
+        <v>3.4</v>
+      </c>
+      <c r="AC83">
+        <v>1.06</v>
+      </c>
+      <c r="AD83">
+        <v>8.5</v>
+      </c>
+      <c r="AE83">
+        <v>1.3</v>
+      </c>
+      <c r="AF83">
+        <v>3.3</v>
+      </c>
+      <c r="AG83">
+        <v>1.95</v>
+      </c>
+      <c r="AH83">
+        <v>1.8</v>
+      </c>
+      <c r="AI83">
+        <v>1.8</v>
+      </c>
+      <c r="AJ83">
+        <v>1.95</v>
+      </c>
+      <c r="AK83">
+        <v>1.28</v>
+      </c>
+      <c r="AL83">
+        <v>1.25</v>
+      </c>
+      <c r="AM83">
+        <v>1.8</v>
+      </c>
+      <c r="AN83">
+        <v>2.4</v>
+      </c>
+      <c r="AO83">
+        <v>0.8</v>
+      </c>
+      <c r="AP83">
+        <v>2.5</v>
+      </c>
+      <c r="AQ83">
+        <v>0.67</v>
+      </c>
+      <c r="AR83">
+        <v>1.6</v>
+      </c>
+      <c r="AS83">
+        <v>1.12</v>
+      </c>
+      <c r="AT83">
+        <v>2.72</v>
+      </c>
+      <c r="AU83">
+        <v>7</v>
+      </c>
+      <c r="AV83">
+        <v>2</v>
+      </c>
+      <c r="AW83">
+        <v>2</v>
+      </c>
+      <c r="AX83">
+        <v>5</v>
+      </c>
+      <c r="AY83">
+        <v>13</v>
+      </c>
+      <c r="AZ83">
+        <v>8</v>
+      </c>
+      <c r="BA83">
+        <v>5</v>
+      </c>
+      <c r="BB83">
+        <v>5</v>
+      </c>
+      <c r="BC83">
+        <v>10</v>
+      </c>
+      <c r="BD83">
+        <v>1.56</v>
+      </c>
+      <c r="BE83">
+        <v>6.95</v>
+      </c>
+      <c r="BF83">
+        <v>3.24</v>
+      </c>
+      <c r="BG83">
+        <v>1.27</v>
+      </c>
+      <c r="BH83">
+        <v>3.55</v>
+      </c>
+      <c r="BI83">
+        <v>1.5</v>
+      </c>
+      <c r="BJ83">
+        <v>2.48</v>
+      </c>
+      <c r="BK83">
+        <v>1.88</v>
+      </c>
+      <c r="BL83">
+        <v>1.92</v>
+      </c>
+      <c r="BM83">
+        <v>2.45</v>
+      </c>
+      <c r="BN83">
+        <v>1.5</v>
+      </c>
+      <c r="BO83">
+        <v>3.4</v>
+      </c>
+      <c r="BP83">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7468955</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45590.625</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>84</v>
+      </c>
+      <c r="H84" t="s">
+        <v>80</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84" t="s">
+        <v>155</v>
+      </c>
+      <c r="P84" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q84">
+        <v>2.8</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>3.8</v>
+      </c>
+      <c r="T84">
+        <v>1.45</v>
+      </c>
+      <c r="U84">
+        <v>2.55</v>
+      </c>
+      <c r="V84">
+        <v>3</v>
+      </c>
+      <c r="W84">
+        <v>1.33</v>
+      </c>
+      <c r="X84">
+        <v>7.6</v>
+      </c>
+      <c r="Y84">
+        <v>1.05</v>
+      </c>
+      <c r="Z84">
+        <v>2.25</v>
+      </c>
+      <c r="AA84">
+        <v>3.3</v>
+      </c>
+      <c r="AB84">
+        <v>3.1</v>
+      </c>
+      <c r="AC84">
+        <v>1.07</v>
+      </c>
+      <c r="AD84">
+        <v>8</v>
+      </c>
+      <c r="AE84">
+        <v>1.38</v>
+      </c>
+      <c r="AF84">
+        <v>3</v>
+      </c>
+      <c r="AG84">
+        <v>2.05</v>
+      </c>
+      <c r="AH84">
+        <v>1.72</v>
+      </c>
+      <c r="AI84">
+        <v>1.83</v>
+      </c>
+      <c r="AJ84">
+        <v>1.85</v>
+      </c>
+      <c r="AK84">
+        <v>1.33</v>
+      </c>
+      <c r="AL84">
+        <v>1.28</v>
+      </c>
+      <c r="AM84">
+        <v>1.65</v>
+      </c>
+      <c r="AN84">
+        <v>2.25</v>
+      </c>
+      <c r="AO84">
+        <v>1.4</v>
+      </c>
+      <c r="AP84">
+        <v>2.4</v>
+      </c>
+      <c r="AQ84">
+        <v>1.17</v>
+      </c>
+      <c r="AR84">
+        <v>1.51</v>
+      </c>
+      <c r="AS84">
+        <v>1.17</v>
+      </c>
+      <c r="AT84">
+        <v>2.68</v>
+      </c>
+      <c r="AU84">
+        <v>5</v>
+      </c>
+      <c r="AV84">
+        <v>3</v>
+      </c>
+      <c r="AW84">
+        <v>5</v>
+      </c>
+      <c r="AX84">
+        <v>8</v>
+      </c>
+      <c r="AY84">
+        <v>15</v>
+      </c>
+      <c r="AZ84">
+        <v>14</v>
+      </c>
+      <c r="BA84">
+        <v>6</v>
+      </c>
+      <c r="BB84">
+        <v>5</v>
+      </c>
+      <c r="BC84">
+        <v>11</v>
+      </c>
+      <c r="BD84">
+        <v>1.68</v>
+      </c>
+      <c r="BE84">
+        <v>6.65</v>
+      </c>
+      <c r="BF84">
+        <v>2.88</v>
+      </c>
+      <c r="BG84">
+        <v>1.27</v>
+      </c>
+      <c r="BH84">
+        <v>3.55</v>
+      </c>
+      <c r="BI84">
+        <v>1.5</v>
+      </c>
+      <c r="BJ84">
+        <v>2.48</v>
+      </c>
+      <c r="BK84">
+        <v>1.92</v>
+      </c>
+      <c r="BL84">
+        <v>1.88</v>
+      </c>
+      <c r="BM84">
+        <v>2.45</v>
+      </c>
+      <c r="BN84">
+        <v>1.5</v>
+      </c>
+      <c r="BO84">
+        <v>3.4</v>
+      </c>
+      <c r="BP84">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7468952</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45590.625</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>82</v>
+      </c>
+      <c r="H85" t="s">
+        <v>73</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>90</v>
+      </c>
+      <c r="P85" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q85">
+        <v>3.1</v>
+      </c>
+      <c r="R85">
+        <v>2.2</v>
+      </c>
+      <c r="S85">
+        <v>3.5</v>
+      </c>
+      <c r="T85">
+        <v>1.4</v>
+      </c>
+      <c r="U85">
+        <v>2.75</v>
+      </c>
+      <c r="V85">
+        <v>2.75</v>
+      </c>
+      <c r="W85">
+        <v>1.4</v>
+      </c>
+      <c r="X85">
+        <v>8</v>
+      </c>
+      <c r="Y85">
+        <v>1.08</v>
+      </c>
+      <c r="Z85">
+        <v>2.1</v>
+      </c>
+      <c r="AA85">
+        <v>3.4</v>
+      </c>
+      <c r="AB85">
+        <v>3.3</v>
+      </c>
+      <c r="AC85">
+        <v>1.06</v>
+      </c>
+      <c r="AD85">
+        <v>8.5</v>
+      </c>
+      <c r="AE85">
+        <v>1.3</v>
+      </c>
+      <c r="AF85">
+        <v>3.3</v>
+      </c>
+      <c r="AG85">
+        <v>1.9</v>
+      </c>
+      <c r="AH85">
+        <v>1.83</v>
+      </c>
+      <c r="AI85">
+        <v>1.73</v>
+      </c>
+      <c r="AJ85">
+        <v>2</v>
+      </c>
+      <c r="AK85">
+        <v>1.38</v>
+      </c>
+      <c r="AL85">
+        <v>1.28</v>
+      </c>
+      <c r="AM85">
+        <v>1.55</v>
+      </c>
+      <c r="AN85">
+        <v>2.5</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>2</v>
+      </c>
+      <c r="AQ85">
+        <v>0.6</v>
+      </c>
+      <c r="AR85">
+        <v>1.48</v>
+      </c>
+      <c r="AS85">
+        <v>1.24</v>
+      </c>
+      <c r="AT85">
+        <v>2.72</v>
+      </c>
+      <c r="AU85">
+        <v>4</v>
+      </c>
+      <c r="AV85">
+        <v>5</v>
+      </c>
+      <c r="AW85">
+        <v>9</v>
+      </c>
+      <c r="AX85">
+        <v>4</v>
+      </c>
+      <c r="AY85">
+        <v>16</v>
+      </c>
+      <c r="AZ85">
+        <v>11</v>
+      </c>
+      <c r="BA85">
+        <v>5</v>
+      </c>
+      <c r="BB85">
+        <v>2</v>
+      </c>
+      <c r="BC85">
+        <v>7</v>
+      </c>
+      <c r="BD85">
+        <v>1.51</v>
+      </c>
+      <c r="BE85">
+        <v>9</v>
+      </c>
+      <c r="BF85">
+        <v>3.12</v>
+      </c>
+      <c r="BG85">
+        <v>1.27</v>
+      </c>
+      <c r="BH85">
+        <v>3.55</v>
+      </c>
+      <c r="BI85">
+        <v>1.5</v>
+      </c>
+      <c r="BJ85">
+        <v>2.48</v>
+      </c>
+      <c r="BK85">
+        <v>1.95</v>
+      </c>
+      <c r="BL85">
+        <v>1.85</v>
+      </c>
+      <c r="BM85">
+        <v>2.45</v>
+      </c>
+      <c r="BN85">
+        <v>1.5</v>
+      </c>
+      <c r="BO85">
+        <v>3.4</v>
+      </c>
+      <c r="BP85">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7469319</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45590.625</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>81</v>
+      </c>
+      <c r="H86" t="s">
+        <v>86</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>6</v>
+      </c>
+      <c r="O86" t="s">
+        <v>156</v>
+      </c>
+      <c r="P86" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+      <c r="R86">
+        <v>2.15</v>
+      </c>
+      <c r="S86">
+        <v>2.45</v>
+      </c>
+      <c r="T86">
+        <v>1.33</v>
+      </c>
+      <c r="U86">
+        <v>3</v>
+      </c>
+      <c r="V86">
+        <v>2.45</v>
+      </c>
+      <c r="W86">
+        <v>1.48</v>
+      </c>
+      <c r="X86">
+        <v>5.8</v>
+      </c>
+      <c r="Y86">
+        <v>1.1</v>
+      </c>
+      <c r="Z86">
+        <v>3.4</v>
+      </c>
+      <c r="AA86">
+        <v>3.6</v>
+      </c>
+      <c r="AB86">
+        <v>2</v>
+      </c>
+      <c r="AC86">
+        <v>1.05</v>
+      </c>
+      <c r="AD86">
+        <v>9.5</v>
+      </c>
+      <c r="AE86">
+        <v>1.25</v>
+      </c>
+      <c r="AF86">
+        <v>3.95</v>
+      </c>
+      <c r="AG86">
+        <v>1.7</v>
+      </c>
+      <c r="AH86">
+        <v>2.1</v>
+      </c>
+      <c r="AI86">
+        <v>1.6</v>
+      </c>
+      <c r="AJ86">
+        <v>2.15</v>
+      </c>
+      <c r="AK86">
+        <v>1.83</v>
+      </c>
+      <c r="AL86">
+        <v>1.22</v>
+      </c>
+      <c r="AM86">
+        <v>1.25</v>
+      </c>
+      <c r="AN86">
+        <v>0.75</v>
+      </c>
+      <c r="AO86">
+        <v>1.4</v>
+      </c>
+      <c r="AP86">
+        <v>0.8</v>
+      </c>
+      <c r="AQ86">
+        <v>1.33</v>
+      </c>
+      <c r="AR86">
+        <v>1.88</v>
+      </c>
+      <c r="AS86">
+        <v>1.68</v>
+      </c>
+      <c r="AT86">
+        <v>3.56</v>
+      </c>
+      <c r="AU86">
+        <v>6</v>
+      </c>
+      <c r="AV86">
+        <v>5</v>
+      </c>
+      <c r="AW86">
+        <v>6</v>
+      </c>
+      <c r="AX86">
+        <v>6</v>
+      </c>
+      <c r="AY86">
+        <v>16</v>
+      </c>
+      <c r="AZ86">
+        <v>13</v>
+      </c>
+      <c r="BA86">
+        <v>5</v>
+      </c>
+      <c r="BB86">
+        <v>6</v>
+      </c>
+      <c r="BC86">
+        <v>11</v>
+      </c>
+      <c r="BD86">
+        <v>2.8</v>
+      </c>
+      <c r="BE86">
+        <v>6.75</v>
+      </c>
+      <c r="BF86">
+        <v>1.7</v>
+      </c>
+      <c r="BG86">
+        <v>1.22</v>
+      </c>
+      <c r="BH86">
+        <v>4</v>
+      </c>
+      <c r="BI86">
+        <v>1.42</v>
+      </c>
+      <c r="BJ86">
+        <v>2.75</v>
+      </c>
+      <c r="BK86">
+        <v>1.74</v>
+      </c>
+      <c r="BL86">
+        <v>2.02</v>
+      </c>
+      <c r="BM86">
+        <v>2.23</v>
+      </c>
+      <c r="BN86">
+        <v>1.61</v>
+      </c>
+      <c r="BO86">
+        <v>3</v>
+      </c>
+      <c r="BP86">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7468950</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45590.625</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>70</v>
+      </c>
+      <c r="H87" t="s">
+        <v>77</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s">
+        <v>90</v>
+      </c>
+      <c r="P87" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q87">
+        <v>2.2</v>
+      </c>
+      <c r="R87">
+        <v>2.15</v>
+      </c>
+      <c r="S87">
+        <v>5</v>
+      </c>
+      <c r="T87">
+        <v>1.41</v>
+      </c>
+      <c r="U87">
+        <v>2.7</v>
+      </c>
+      <c r="V87">
+        <v>2.95</v>
+      </c>
+      <c r="W87">
+        <v>1.35</v>
+      </c>
+      <c r="X87">
+        <v>7.4</v>
+      </c>
+      <c r="Y87">
+        <v>1.06</v>
+      </c>
+      <c r="Z87">
+        <v>1.62</v>
+      </c>
+      <c r="AA87">
+        <v>3.75</v>
+      </c>
+      <c r="AB87">
+        <v>5.5</v>
+      </c>
+      <c r="AC87">
+        <v>1.06</v>
+      </c>
+      <c r="AD87">
+        <v>8.5</v>
+      </c>
+      <c r="AE87">
+        <v>1.33</v>
+      </c>
+      <c r="AF87">
+        <v>3.2</v>
+      </c>
+      <c r="AG87">
+        <v>2</v>
+      </c>
+      <c r="AH87">
+        <v>1.75</v>
+      </c>
+      <c r="AI87">
+        <v>2</v>
+      </c>
+      <c r="AJ87">
+        <v>1.75</v>
+      </c>
+      <c r="AK87">
+        <v>1.1</v>
+      </c>
+      <c r="AL87">
+        <v>1.2</v>
+      </c>
+      <c r="AM87">
+        <v>2.25</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
+        <v>1</v>
+      </c>
+      <c r="AP87">
+        <v>0.83</v>
+      </c>
+      <c r="AQ87">
+        <v>1.4</v>
+      </c>
+      <c r="AR87">
+        <v>1.28</v>
+      </c>
+      <c r="AS87">
+        <v>1.1</v>
+      </c>
+      <c r="AT87">
+        <v>2.38</v>
+      </c>
+      <c r="AU87">
+        <v>3</v>
+      </c>
+      <c r="AV87">
+        <v>5</v>
+      </c>
+      <c r="AW87">
+        <v>4</v>
+      </c>
+      <c r="AX87">
+        <v>4</v>
+      </c>
+      <c r="AY87">
+        <v>11</v>
+      </c>
+      <c r="AZ87">
+        <v>11</v>
+      </c>
+      <c r="BA87">
+        <v>4</v>
+      </c>
+      <c r="BB87">
+        <v>3</v>
+      </c>
+      <c r="BC87">
+        <v>7</v>
+      </c>
+      <c r="BD87">
+        <v>1.28</v>
+      </c>
+      <c r="BE87">
+        <v>10.25</v>
+      </c>
+      <c r="BF87">
+        <v>4.65</v>
+      </c>
+      <c r="BG87">
+        <v>1.27</v>
+      </c>
+      <c r="BH87">
+        <v>3.55</v>
+      </c>
+      <c r="BI87">
+        <v>1.5</v>
+      </c>
+      <c r="BJ87">
+        <v>2.48</v>
+      </c>
+      <c r="BK87">
+        <v>1.95</v>
+      </c>
+      <c r="BL87">
+        <v>1.85</v>
+      </c>
+      <c r="BM87">
+        <v>2.45</v>
+      </c>
+      <c r="BN87">
+        <v>1.5</v>
+      </c>
+      <c r="BO87">
+        <v>3.4</v>
+      </c>
+      <c r="BP87">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7468948</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45590.625</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s">
+        <v>75</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>157</v>
+      </c>
+      <c r="P88" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q88">
+        <v>2.7</v>
+      </c>
+      <c r="R88">
+        <v>2.05</v>
+      </c>
+      <c r="S88">
+        <v>4</v>
+      </c>
+      <c r="T88">
+        <v>1.42</v>
+      </c>
+      <c r="U88">
+        <v>2.65</v>
+      </c>
+      <c r="V88">
+        <v>2.95</v>
+      </c>
+      <c r="W88">
+        <v>1.35</v>
+      </c>
+      <c r="X88">
+        <v>7.4</v>
+      </c>
+      <c r="Y88">
+        <v>1.06</v>
+      </c>
+      <c r="Z88">
+        <v>2.05</v>
+      </c>
+      <c r="AA88">
+        <v>3.4</v>
+      </c>
+      <c r="AB88">
+        <v>3.5</v>
+      </c>
+      <c r="AC88">
+        <v>1.06</v>
+      </c>
+      <c r="AD88">
+        <v>8.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.33</v>
+      </c>
+      <c r="AF88">
+        <v>3.2</v>
+      </c>
+      <c r="AG88">
+        <v>2</v>
+      </c>
+      <c r="AH88">
+        <v>1.75</v>
+      </c>
+      <c r="AI88">
+        <v>1.8</v>
+      </c>
+      <c r="AJ88">
+        <v>1.95</v>
+      </c>
+      <c r="AK88">
+        <v>1.28</v>
+      </c>
+      <c r="AL88">
+        <v>1.25</v>
+      </c>
+      <c r="AM88">
+        <v>1.75</v>
+      </c>
+      <c r="AN88">
+        <v>1.8</v>
+      </c>
+      <c r="AO88">
+        <v>1.5</v>
+      </c>
+      <c r="AP88">
+        <v>2</v>
+      </c>
+      <c r="AQ88">
+        <v>1.2</v>
+      </c>
+      <c r="AR88">
+        <v>1.77</v>
+      </c>
+      <c r="AS88">
+        <v>1.66</v>
+      </c>
+      <c r="AT88">
+        <v>3.43</v>
+      </c>
+      <c r="AU88">
+        <v>8</v>
+      </c>
+      <c r="AV88">
+        <v>4</v>
+      </c>
+      <c r="AW88">
+        <v>4</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>15</v>
+      </c>
+      <c r="AZ88">
+        <v>11</v>
+      </c>
+      <c r="BA88">
+        <v>3</v>
+      </c>
+      <c r="BB88">
+        <v>8</v>
+      </c>
+      <c r="BC88">
+        <v>11</v>
+      </c>
+      <c r="BD88">
+        <v>1.79</v>
+      </c>
+      <c r="BE88">
+        <v>6.45</v>
+      </c>
+      <c r="BF88">
+        <v>2.63</v>
+      </c>
+      <c r="BG88">
+        <v>1.36</v>
+      </c>
+      <c r="BH88">
+        <v>3</v>
+      </c>
+      <c r="BI88">
+        <v>1.66</v>
+      </c>
+      <c r="BJ88">
+        <v>2.15</v>
+      </c>
+      <c r="BK88">
+        <v>2.12</v>
+      </c>
+      <c r="BL88">
+        <v>1.66</v>
+      </c>
+      <c r="BM88">
+        <v>2.88</v>
+      </c>
+      <c r="BN88">
+        <v>1.38</v>
+      </c>
+      <c r="BO88">
+        <v>4.1</v>
+      </c>
+      <c r="BP88">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,9 @@
     <t>['71']</t>
   </si>
   <si>
+    <t>['37', '45']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -635,6 +638,12 @@
   </si>
   <si>
     <t>['32', '56', '85']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['82']</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,7 +1264,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1667,7 +1676,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2079,7 +2088,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2366,7 +2375,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ7">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2491,7 +2500,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2569,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ8">
         <v>2.4</v>
@@ -2903,7 +2912,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3521,7 +3530,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4139,7 +4148,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4345,7 +4354,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4423,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4632,7 +4641,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4963,7 +4972,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5044,7 +5053,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -5169,7 +5178,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5375,7 +5384,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5787,7 +5796,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5865,7 +5874,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24">
         <v>1.2</v>
@@ -5993,7 +6002,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6199,7 +6208,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6611,7 +6620,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7023,7 +7032,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7928,7 +7937,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ34">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -8053,7 +8062,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8259,7 +8268,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8337,7 +8346,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8465,7 +8474,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8671,7 +8680,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8877,7 +8886,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -8958,7 +8967,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR39">
         <v>0.8</v>
@@ -9289,7 +9298,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9495,7 +9504,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9701,7 +9710,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9985,7 +9994,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44">
         <v>0.2</v>
@@ -10319,7 +10328,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10525,7 +10534,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -10603,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ47">
         <v>0.6</v>
@@ -10812,7 +10821,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ48">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
         <v>1.82</v>
@@ -11221,7 +11230,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ50">
         <v>1.2</v>
@@ -11636,7 +11645,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR52">
         <v>1.34</v>
@@ -11761,7 +11770,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11967,7 +11976,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12173,7 +12182,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12585,7 +12594,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12791,7 +12800,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12997,7 +13006,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13203,7 +13212,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13615,7 +13624,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13821,7 +13830,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14027,7 +14036,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14311,7 +14320,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ65">
         <v>1.17</v>
@@ -14726,7 +14735,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ67">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR67">
         <v>1.61</v>
@@ -14851,7 +14860,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14932,7 +14941,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ68">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR68">
         <v>1.95</v>
@@ -15057,7 +15066,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15263,7 +15272,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15341,7 +15350,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ70">
         <v>1.33</v>
@@ -15469,7 +15478,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15675,7 +15684,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15881,7 +15890,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16087,7 +16096,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16293,7 +16302,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16499,7 +16508,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17117,7 +17126,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17323,7 +17332,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17529,7 +17538,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18353,7 +18362,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18559,7 +18568,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19128,6 +19137,418 @@
       </c>
       <c r="BP88">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7468949</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45591.375</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>76</v>
+      </c>
+      <c r="H89" t="s">
+        <v>79</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89" t="s">
+        <v>90</v>
+      </c>
+      <c r="P89" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q89">
+        <v>2.38</v>
+      </c>
+      <c r="R89">
+        <v>2.2</v>
+      </c>
+      <c r="S89">
+        <v>5</v>
+      </c>
+      <c r="T89">
+        <v>1.4</v>
+      </c>
+      <c r="U89">
+        <v>2.75</v>
+      </c>
+      <c r="V89">
+        <v>2.75</v>
+      </c>
+      <c r="W89">
+        <v>1.4</v>
+      </c>
+      <c r="X89">
+        <v>8</v>
+      </c>
+      <c r="Y89">
+        <v>1.08</v>
+      </c>
+      <c r="Z89">
+        <v>1.85</v>
+      </c>
+      <c r="AA89">
+        <v>3.4</v>
+      </c>
+      <c r="AB89">
+        <v>4.1</v>
+      </c>
+      <c r="AC89">
+        <v>1.05</v>
+      </c>
+      <c r="AD89">
+        <v>9</v>
+      </c>
+      <c r="AE89">
+        <v>1.28</v>
+      </c>
+      <c r="AF89">
+        <v>3.4</v>
+      </c>
+      <c r="AG89">
+        <v>1.98</v>
+      </c>
+      <c r="AH89">
+        <v>1.72</v>
+      </c>
+      <c r="AI89">
+        <v>1.83</v>
+      </c>
+      <c r="AJ89">
+        <v>1.83</v>
+      </c>
+      <c r="AK89">
+        <v>1.15</v>
+      </c>
+      <c r="AL89">
+        <v>1.2</v>
+      </c>
+      <c r="AM89">
+        <v>2.05</v>
+      </c>
+      <c r="AN89">
+        <v>1.4</v>
+      </c>
+      <c r="AO89">
+        <v>0.2</v>
+      </c>
+      <c r="AP89">
+        <v>1.17</v>
+      </c>
+      <c r="AQ89">
+        <v>0.67</v>
+      </c>
+      <c r="AR89">
+        <v>1.42</v>
+      </c>
+      <c r="AS89">
+        <v>1.37</v>
+      </c>
+      <c r="AT89">
+        <v>2.79</v>
+      </c>
+      <c r="AU89">
+        <v>5</v>
+      </c>
+      <c r="AV89">
+        <v>6</v>
+      </c>
+      <c r="AW89">
+        <v>4</v>
+      </c>
+      <c r="AX89">
+        <v>3</v>
+      </c>
+      <c r="AY89">
+        <v>15</v>
+      </c>
+      <c r="AZ89">
+        <v>11</v>
+      </c>
+      <c r="BA89">
+        <v>5</v>
+      </c>
+      <c r="BB89">
+        <v>2</v>
+      </c>
+      <c r="BC89">
+        <v>7</v>
+      </c>
+      <c r="BD89">
+        <v>1.34</v>
+      </c>
+      <c r="BE89">
+        <v>9</v>
+      </c>
+      <c r="BF89">
+        <v>3.88</v>
+      </c>
+      <c r="BG89">
+        <v>1.19</v>
+      </c>
+      <c r="BH89">
+        <v>3.62</v>
+      </c>
+      <c r="BI89">
+        <v>1.41</v>
+      </c>
+      <c r="BJ89">
+        <v>2.6</v>
+      </c>
+      <c r="BK89">
+        <v>1.95</v>
+      </c>
+      <c r="BL89">
+        <v>1.85</v>
+      </c>
+      <c r="BM89">
+        <v>2.19</v>
+      </c>
+      <c r="BN89">
+        <v>1.57</v>
+      </c>
+      <c r="BO89">
+        <v>2.82</v>
+      </c>
+      <c r="BP89">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7468951</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45591.375</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>85</v>
+      </c>
+      <c r="H90" t="s">
+        <v>74</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90" t="s">
+        <v>158</v>
+      </c>
+      <c r="P90" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q90">
+        <v>2.5</v>
+      </c>
+      <c r="R90">
+        <v>2.1</v>
+      </c>
+      <c r="S90">
+        <v>4.75</v>
+      </c>
+      <c r="T90">
+        <v>1.44</v>
+      </c>
+      <c r="U90">
+        <v>2.63</v>
+      </c>
+      <c r="V90">
+        <v>3.25</v>
+      </c>
+      <c r="W90">
+        <v>1.33</v>
+      </c>
+      <c r="X90">
+        <v>9</v>
+      </c>
+      <c r="Y90">
+        <v>1.07</v>
+      </c>
+      <c r="Z90">
+        <v>2</v>
+      </c>
+      <c r="AA90">
+        <v>3.4</v>
+      </c>
+      <c r="AB90">
+        <v>3.6</v>
+      </c>
+      <c r="AC90">
+        <v>1.06</v>
+      </c>
+      <c r="AD90">
+        <v>8.5</v>
+      </c>
+      <c r="AE90">
+        <v>1.3</v>
+      </c>
+      <c r="AF90">
+        <v>3.3</v>
+      </c>
+      <c r="AG90">
+        <v>2.05</v>
+      </c>
+      <c r="AH90">
+        <v>1.68</v>
+      </c>
+      <c r="AI90">
+        <v>2</v>
+      </c>
+      <c r="AJ90">
+        <v>1.73</v>
+      </c>
+      <c r="AK90">
+        <v>1.16</v>
+      </c>
+      <c r="AL90">
+        <v>1.25</v>
+      </c>
+      <c r="AM90">
+        <v>2</v>
+      </c>
+      <c r="AN90">
+        <v>2.25</v>
+      </c>
+      <c r="AO90">
+        <v>0.75</v>
+      </c>
+      <c r="AP90">
+        <v>2.4</v>
+      </c>
+      <c r="AQ90">
+        <v>0.6</v>
+      </c>
+      <c r="AR90">
+        <v>1.72</v>
+      </c>
+      <c r="AS90">
+        <v>1.12</v>
+      </c>
+      <c r="AT90">
+        <v>2.84</v>
+      </c>
+      <c r="AU90">
+        <v>9</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>6</v>
+      </c>
+      <c r="AX90">
+        <v>1</v>
+      </c>
+      <c r="AY90">
+        <v>18</v>
+      </c>
+      <c r="AZ90">
+        <v>9</v>
+      </c>
+      <c r="BA90">
+        <v>6</v>
+      </c>
+      <c r="BB90">
+        <v>5</v>
+      </c>
+      <c r="BC90">
+        <v>11</v>
+      </c>
+      <c r="BD90">
+        <v>1.51</v>
+      </c>
+      <c r="BE90">
+        <v>8.5</v>
+      </c>
+      <c r="BF90">
+        <v>3.07</v>
+      </c>
+      <c r="BG90">
+        <v>1.29</v>
+      </c>
+      <c r="BH90">
+        <v>3.4</v>
+      </c>
+      <c r="BI90">
+        <v>1.53</v>
+      </c>
+      <c r="BJ90">
+        <v>2.4</v>
+      </c>
+      <c r="BK90">
+        <v>2</v>
+      </c>
+      <c r="BL90">
+        <v>1.8</v>
+      </c>
+      <c r="BM90">
+        <v>2.55</v>
+      </c>
+      <c r="BN90">
+        <v>1.48</v>
+      </c>
+      <c r="BO90">
+        <v>3.5</v>
+      </c>
+      <c r="BP90">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -17917,7 +17917,7 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45590.625</v>
+        <v>45589.875</v>
       </c>
       <c r="F83">
         <v>10</v>
@@ -18123,7 +18123,7 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45590.625</v>
+        <v>45589.875</v>
       </c>
       <c r="F84">
         <v>10</v>
@@ -18329,7 +18329,7 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45590.625</v>
+        <v>45589.875</v>
       </c>
       <c r="F85">
         <v>10</v>
@@ -18535,7 +18535,7 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45590.625</v>
+        <v>45589.875</v>
       </c>
       <c r="F86">
         <v>10</v>
@@ -18741,7 +18741,7 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45590.625</v>
+        <v>45589.875</v>
       </c>
       <c r="F87">
         <v>10</v>
@@ -18947,7 +18947,7 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45590.625</v>
+        <v>45589.875</v>
       </c>
       <c r="F88">
         <v>10</v>
@@ -19153,7 +19153,7 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45591.375</v>
+        <v>45590.875</v>
       </c>
       <c r="F89">
         <v>10</v>
@@ -19359,7 +19359,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45591.375</v>
+        <v>45590.875</v>
       </c>
       <c r="F90">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -17917,7 +17917,7 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45589.875</v>
+        <v>45590.625</v>
       </c>
       <c r="F83">
         <v>10</v>
@@ -18046,19 +18046,19 @@
         <v>7</v>
       </c>
       <c r="AV83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY83">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA83">
         <v>5</v>
@@ -18123,10 +18123,10 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45589.875</v>
+        <v>45590.625</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
         <v>84</v>
@@ -18249,7 +18249,7 @@
         <v>2.68</v>
       </c>
       <c r="AU84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV84">
         <v>3</v>
@@ -18258,13 +18258,13 @@
         <v>5</v>
       </c>
       <c r="AX84">
+        <v>6</v>
+      </c>
+      <c r="AY84">
         <v>8</v>
       </c>
-      <c r="AY84">
-        <v>15</v>
-      </c>
       <c r="AZ84">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BA84">
         <v>6</v>
@@ -18329,7 +18329,7 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45589.875</v>
+        <v>45590.625</v>
       </c>
       <c r="F85">
         <v>10</v>
@@ -18458,19 +18458,19 @@
         <v>4</v>
       </c>
       <c r="AV85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW85">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY85">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ85">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA85">
         <v>5</v>
@@ -18535,10 +18535,10 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45589.875</v>
+        <v>45590.625</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
         <v>81</v>
@@ -18661,22 +18661,22 @@
         <v>3.56</v>
       </c>
       <c r="AU86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW86">
         <v>6</v>
       </c>
       <c r="AX86">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY86">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ86">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BA86">
         <v>5</v>
@@ -18741,10 +18741,10 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45589.875</v>
+        <v>45590.625</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G87" t="s">
         <v>70</v>
@@ -18870,7 +18870,7 @@
         <v>3</v>
       </c>
       <c r="AV87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW87">
         <v>4</v>
@@ -18879,10 +18879,10 @@
         <v>4</v>
       </c>
       <c r="AY87">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ87">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA87">
         <v>4</v>
@@ -18947,7 +18947,7 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45589.875</v>
+        <v>45590.625</v>
       </c>
       <c r="F88">
         <v>10</v>
@@ -19073,22 +19073,22 @@
         <v>3.43</v>
       </c>
       <c r="AU88">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW88">
         <v>4</v>
       </c>
       <c r="AX88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY88">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ88">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA88">
         <v>3</v>
@@ -19153,7 +19153,7 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45590.875</v>
+        <v>45591.375</v>
       </c>
       <c r="F89">
         <v>10</v>
@@ -19359,7 +19359,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45590.875</v>
+        <v>45591.375</v>
       </c>
       <c r="F90">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,15 +493,30 @@
     <t>['37', '45']</t>
   </si>
   <si>
+    <t>['54', '67', '87']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['28', '55', '83', '85']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['16', '51']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
     <t>['52', '84']</t>
   </si>
   <si>
-    <t>['90+2']</t>
-  </si>
-  <si>
     <t>['76', '86']</t>
   </si>
   <si>
@@ -535,9 +550,6 @@
     <t>['5']</t>
   </si>
   <si>
-    <t>['47']</t>
-  </si>
-  <si>
     <t>['38', '71']</t>
   </si>
   <si>
@@ -644,6 +656,18 @@
   </si>
   <si>
     <t>['82']</t>
+  </si>
+  <si>
+    <t>['68', '87']</t>
+  </si>
+  <si>
+    <t>['7', '44']</t>
+  </si>
+  <si>
+    <t>['29', '37']</t>
+  </si>
+  <si>
+    <t>['69', '90+1', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1288,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1345,7 +1369,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1551,7 +1575,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ3">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1676,7 +1700,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1757,7 +1781,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ4">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1960,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ5">
         <v>0.67</v>
@@ -2088,7 +2112,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2166,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ6">
         <v>1.17</v>
@@ -2372,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -2500,7 +2524,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2581,7 +2605,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ8">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2784,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ9">
         <v>1.33</v>
@@ -2912,7 +2936,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3196,10 +3220,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3402,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ12">
         <v>1.2</v>
@@ -3530,7 +3554,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3611,7 +3635,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3817,7 +3841,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4020,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>0.6</v>
@@ -4148,7 +4172,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4354,7 +4378,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4435,7 +4459,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4844,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4972,7 +4996,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5178,7 +5202,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5259,7 +5283,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ21">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5384,7 +5408,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5462,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22">
         <v>0.67</v>
@@ -5671,7 +5695,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ23">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR23">
         <v>2.13</v>
@@ -5796,7 +5820,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5877,7 +5901,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR24">
         <v>1.39</v>
@@ -6002,7 +6026,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6080,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ25">
         <v>1.25</v>
@@ -6208,7 +6232,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6286,10 +6310,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR26">
         <v>1.19</v>
@@ -6492,7 +6516,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -6620,7 +6644,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6904,10 +6928,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR29">
         <v>1.48</v>
@@ -7032,7 +7056,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7319,7 +7343,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR31">
         <v>1.38</v>
@@ -7934,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34">
         <v>0.67</v>
@@ -8062,7 +8086,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8268,7 +8292,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8349,7 +8373,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR36">
         <v>1.66</v>
@@ -8474,7 +8498,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8552,10 +8576,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>1.13</v>
@@ -8680,7 +8704,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8758,10 +8782,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -8886,7 +8910,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -8964,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ39">
         <v>0.6</v>
@@ -9170,10 +9194,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR40">
         <v>1.41</v>
@@ -9298,7 +9322,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9376,10 +9400,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR41">
         <v>1.73</v>
@@ -9504,7 +9528,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9585,7 +9609,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR42">
         <v>1.75</v>
@@ -9710,7 +9734,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9788,7 +9812,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
         <v>1.17</v>
@@ -9997,7 +10021,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10200,10 +10224,10 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR45">
         <v>1.53</v>
@@ -10328,7 +10352,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10534,7 +10558,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -11770,7 +11794,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11976,7 +12000,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12182,7 +12206,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12469,7 +12493,7 @@
         <v>3</v>
       </c>
       <c r="AQ56">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR56">
         <v>1.76</v>
@@ -12594,7 +12618,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12672,10 +12696,10 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR57">
         <v>1.54</v>
@@ -12800,7 +12824,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12878,10 +12902,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR58">
         <v>1</v>
@@ -13006,7 +13030,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13084,10 +13108,10 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>1.53</v>
@@ -13212,7 +13236,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13290,10 +13314,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ60">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13496,10 +13520,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR61">
         <v>1.29</v>
@@ -13624,7 +13648,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13702,10 +13726,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ62">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR62">
         <v>1.16</v>
@@ -13830,7 +13854,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13908,10 +13932,10 @@
         <v>3</v>
       </c>
       <c r="AP63">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR63">
         <v>1.33</v>
@@ -14036,7 +14060,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14114,10 +14138,10 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR64">
         <v>1.73</v>
@@ -14860,7 +14884,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15066,7 +15090,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15272,7 +15296,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15478,7 +15502,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15684,7 +15708,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15890,7 +15914,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -15968,10 +15992,10 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ73">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR73">
         <v>1</v>
@@ -16096,7 +16120,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16174,10 +16198,10 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16302,7 +16326,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16380,10 +16404,10 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ75">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR75">
         <v>1.25</v>
@@ -16508,7 +16532,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16586,10 +16610,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -16792,10 +16816,10 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -16998,10 +17022,10 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR78">
         <v>1.7</v>
@@ -17126,7 +17150,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17204,10 +17228,10 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ79">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR79">
         <v>1.66</v>
@@ -17332,7 +17356,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17413,7 +17437,7 @@
         <v>3</v>
       </c>
       <c r="AQ80">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR80">
         <v>2.09</v>
@@ -17538,7 +17562,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -17616,10 +17640,10 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ81">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR81">
         <v>1.22</v>
@@ -18362,7 +18386,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18568,7 +18592,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19186,7 +19210,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q89">
         <v>2.38</v>
@@ -19392,7 +19416,7 @@
         <v>158</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q90">
         <v>2.5</v>
@@ -19549,6 +19573,1860 @@
       </c>
       <c r="BP90">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7468964</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45594.6875</v>
+      </c>
+      <c r="F91">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s">
+        <v>82</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>3</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>159</v>
+      </c>
+      <c r="P91" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q91">
+        <v>3.4</v>
+      </c>
+      <c r="R91">
+        <v>2.2</v>
+      </c>
+      <c r="S91">
+        <v>3.1</v>
+      </c>
+      <c r="T91">
+        <v>1.4</v>
+      </c>
+      <c r="U91">
+        <v>2.75</v>
+      </c>
+      <c r="V91">
+        <v>2.75</v>
+      </c>
+      <c r="W91">
+        <v>1.4</v>
+      </c>
+      <c r="X91">
+        <v>8</v>
+      </c>
+      <c r="Y91">
+        <v>1.08</v>
+      </c>
+      <c r="Z91">
+        <v>2.7</v>
+      </c>
+      <c r="AA91">
+        <v>3.15</v>
+      </c>
+      <c r="AB91">
+        <v>2.4</v>
+      </c>
+      <c r="AC91">
+        <v>1.06</v>
+      </c>
+      <c r="AD91">
+        <v>8.5</v>
+      </c>
+      <c r="AE91">
+        <v>1.28</v>
+      </c>
+      <c r="AF91">
+        <v>3.5</v>
+      </c>
+      <c r="AG91">
+        <v>1.83</v>
+      </c>
+      <c r="AH91">
+        <v>1.88</v>
+      </c>
+      <c r="AI91">
+        <v>1.67</v>
+      </c>
+      <c r="AJ91">
+        <v>2.1</v>
+      </c>
+      <c r="AK91">
+        <v>1.53</v>
+      </c>
+      <c r="AL91">
+        <v>1.25</v>
+      </c>
+      <c r="AM91">
+        <v>1.42</v>
+      </c>
+      <c r="AN91">
+        <v>0.75</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <v>1.2</v>
+      </c>
+      <c r="AQ91">
+        <v>0.83</v>
+      </c>
+      <c r="AR91">
+        <v>1.25</v>
+      </c>
+      <c r="AS91">
+        <v>1.4</v>
+      </c>
+      <c r="AT91">
+        <v>2.65</v>
+      </c>
+      <c r="AU91">
+        <v>11</v>
+      </c>
+      <c r="AV91">
+        <v>3</v>
+      </c>
+      <c r="AW91">
+        <v>7</v>
+      </c>
+      <c r="AX91">
+        <v>4</v>
+      </c>
+      <c r="AY91">
+        <v>19</v>
+      </c>
+      <c r="AZ91">
+        <v>10</v>
+      </c>
+      <c r="BA91">
+        <v>2</v>
+      </c>
+      <c r="BB91">
+        <v>5</v>
+      </c>
+      <c r="BC91">
+        <v>7</v>
+      </c>
+      <c r="BD91">
+        <v>1.98</v>
+      </c>
+      <c r="BE91">
+        <v>8.4</v>
+      </c>
+      <c r="BF91">
+        <v>2.13</v>
+      </c>
+      <c r="BG91">
+        <v>1.22</v>
+      </c>
+      <c r="BH91">
+        <v>3.35</v>
+      </c>
+      <c r="BI91">
+        <v>1.46</v>
+      </c>
+      <c r="BJ91">
+        <v>2.45</v>
+      </c>
+      <c r="BK91">
+        <v>1.98</v>
+      </c>
+      <c r="BL91">
+        <v>1.82</v>
+      </c>
+      <c r="BM91">
+        <v>2.3</v>
+      </c>
+      <c r="BN91">
+        <v>1.52</v>
+      </c>
+      <c r="BO91">
+        <v>3.02</v>
+      </c>
+      <c r="BP91">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7468963</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45594.6875</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>80</v>
+      </c>
+      <c r="H92" t="s">
+        <v>70</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92" t="s">
+        <v>160</v>
+      </c>
+      <c r="P92" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q92">
+        <v>3.1</v>
+      </c>
+      <c r="R92">
+        <v>1.91</v>
+      </c>
+      <c r="S92">
+        <v>3.6</v>
+      </c>
+      <c r="T92">
+        <v>1.53</v>
+      </c>
+      <c r="U92">
+        <v>2.38</v>
+      </c>
+      <c r="V92">
+        <v>3.3</v>
+      </c>
+      <c r="W92">
+        <v>1.28</v>
+      </c>
+      <c r="X92">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y92">
+        <v>1.03</v>
+      </c>
+      <c r="Z92">
+        <v>2.4</v>
+      </c>
+      <c r="AA92">
+        <v>2.9</v>
+      </c>
+      <c r="AB92">
+        <v>3</v>
+      </c>
+      <c r="AC92">
+        <v>1.1</v>
+      </c>
+      <c r="AD92">
+        <v>6.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.45</v>
+      </c>
+      <c r="AF92">
+        <v>2.7</v>
+      </c>
+      <c r="AG92">
+        <v>2.25</v>
+      </c>
+      <c r="AH92">
+        <v>1.53</v>
+      </c>
+      <c r="AI92">
+        <v>1.91</v>
+      </c>
+      <c r="AJ92">
+        <v>1.77</v>
+      </c>
+      <c r="AK92">
+        <v>1.38</v>
+      </c>
+      <c r="AL92">
+        <v>1.33</v>
+      </c>
+      <c r="AM92">
+        <v>1.5</v>
+      </c>
+      <c r="AN92">
+        <v>1.75</v>
+      </c>
+      <c r="AO92">
+        <v>1</v>
+      </c>
+      <c r="AP92">
+        <v>1.4</v>
+      </c>
+      <c r="AQ92">
+        <v>1.4</v>
+      </c>
+      <c r="AR92">
+        <v>1.2</v>
+      </c>
+      <c r="AS92">
+        <v>1.18</v>
+      </c>
+      <c r="AT92">
+        <v>2.38</v>
+      </c>
+      <c r="AU92">
+        <v>5</v>
+      </c>
+      <c r="AV92">
+        <v>5</v>
+      </c>
+      <c r="AW92">
+        <v>6</v>
+      </c>
+      <c r="AX92">
+        <v>2</v>
+      </c>
+      <c r="AY92">
+        <v>15</v>
+      </c>
+      <c r="AZ92">
+        <v>10</v>
+      </c>
+      <c r="BA92">
+        <v>3</v>
+      </c>
+      <c r="BB92">
+        <v>4</v>
+      </c>
+      <c r="BC92">
+        <v>7</v>
+      </c>
+      <c r="BD92">
+        <v>1.79</v>
+      </c>
+      <c r="BE92">
+        <v>8.6</v>
+      </c>
+      <c r="BF92">
+        <v>2.44</v>
+      </c>
+      <c r="BG92">
+        <v>1.22</v>
+      </c>
+      <c r="BH92">
+        <v>3.35</v>
+      </c>
+      <c r="BI92">
+        <v>1.45</v>
+      </c>
+      <c r="BJ92">
+        <v>2.48</v>
+      </c>
+      <c r="BK92">
+        <v>1.88</v>
+      </c>
+      <c r="BL92">
+        <v>1.92</v>
+      </c>
+      <c r="BM92">
+        <v>2.3</v>
+      </c>
+      <c r="BN92">
+        <v>1.52</v>
+      </c>
+      <c r="BO92">
+        <v>2.97</v>
+      </c>
+      <c r="BP92">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7468962</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45594.6875</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>87</v>
+      </c>
+      <c r="H93" t="s">
+        <v>78</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>161</v>
+      </c>
+      <c r="P93" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q93">
+        <v>3.95</v>
+      </c>
+      <c r="R93">
+        <v>2.05</v>
+      </c>
+      <c r="S93">
+        <v>2.62</v>
+      </c>
+      <c r="T93">
+        <v>1.4</v>
+      </c>
+      <c r="U93">
+        <v>2.75</v>
+      </c>
+      <c r="V93">
+        <v>2.8</v>
+      </c>
+      <c r="W93">
+        <v>1.38</v>
+      </c>
+      <c r="X93">
+        <v>6.95</v>
+      </c>
+      <c r="Y93">
+        <v>1.07</v>
+      </c>
+      <c r="Z93">
+        <v>3.45</v>
+      </c>
+      <c r="AA93">
+        <v>3.25</v>
+      </c>
+      <c r="AB93">
+        <v>2.05</v>
+      </c>
+      <c r="AC93">
+        <v>1.05</v>
+      </c>
+      <c r="AD93">
+        <v>9</v>
+      </c>
+      <c r="AE93">
+        <v>1.3</v>
+      </c>
+      <c r="AF93">
+        <v>3.35</v>
+      </c>
+      <c r="AG93">
+        <v>1.92</v>
+      </c>
+      <c r="AH93">
+        <v>1.79</v>
+      </c>
+      <c r="AI93">
+        <v>1.73</v>
+      </c>
+      <c r="AJ93">
+        <v>1.95</v>
+      </c>
+      <c r="AK93">
+        <v>1.73</v>
+      </c>
+      <c r="AL93">
+        <v>1.25</v>
+      </c>
+      <c r="AM93">
+        <v>1.3</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
+        <v>1.5</v>
+      </c>
+      <c r="AP93">
+        <v>1.4</v>
+      </c>
+      <c r="AQ93">
+        <v>1.2</v>
+      </c>
+      <c r="AR93">
+        <v>1.43</v>
+      </c>
+      <c r="AS93">
+        <v>1.42</v>
+      </c>
+      <c r="AT93">
+        <v>2.85</v>
+      </c>
+      <c r="AU93">
+        <v>3</v>
+      </c>
+      <c r="AV93">
+        <v>2</v>
+      </c>
+      <c r="AW93">
+        <v>2</v>
+      </c>
+      <c r="AX93">
+        <v>9</v>
+      </c>
+      <c r="AY93">
+        <v>7</v>
+      </c>
+      <c r="AZ93">
+        <v>16</v>
+      </c>
+      <c r="BA93">
+        <v>0</v>
+      </c>
+      <c r="BB93">
+        <v>13</v>
+      </c>
+      <c r="BC93">
+        <v>13</v>
+      </c>
+      <c r="BD93">
+        <v>2.39</v>
+      </c>
+      <c r="BE93">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF93">
+        <v>1.83</v>
+      </c>
+      <c r="BG93">
+        <v>1.24</v>
+      </c>
+      <c r="BH93">
+        <v>3.22</v>
+      </c>
+      <c r="BI93">
+        <v>1.5</v>
+      </c>
+      <c r="BJ93">
+        <v>2.35</v>
+      </c>
+      <c r="BK93">
+        <v>1.98</v>
+      </c>
+      <c r="BL93">
+        <v>1.82</v>
+      </c>
+      <c r="BM93">
+        <v>2.42</v>
+      </c>
+      <c r="BN93">
+        <v>1.47</v>
+      </c>
+      <c r="BO93">
+        <v>3.14</v>
+      </c>
+      <c r="BP93">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7468961</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45594.6875</v>
+      </c>
+      <c r="F94">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s">
+        <v>86</v>
+      </c>
+      <c r="H94" t="s">
+        <v>72</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <v>3</v>
+      </c>
+      <c r="L94">
+        <v>4</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>6</v>
+      </c>
+      <c r="O94" t="s">
+        <v>162</v>
+      </c>
+      <c r="P94" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q94">
+        <v>1.9</v>
+      </c>
+      <c r="R94">
+        <v>2.3</v>
+      </c>
+      <c r="S94">
+        <v>6.25</v>
+      </c>
+      <c r="T94">
+        <v>1.33</v>
+      </c>
+      <c r="U94">
+        <v>3</v>
+      </c>
+      <c r="V94">
+        <v>2.45</v>
+      </c>
+      <c r="W94">
+        <v>1.48</v>
+      </c>
+      <c r="X94">
+        <v>5.9</v>
+      </c>
+      <c r="Y94">
+        <v>1.1</v>
+      </c>
+      <c r="Z94">
+        <v>1.43</v>
+      </c>
+      <c r="AA94">
+        <v>4.4</v>
+      </c>
+      <c r="AB94">
+        <v>6.5</v>
+      </c>
+      <c r="AC94">
+        <v>1.05</v>
+      </c>
+      <c r="AD94">
+        <v>9.5</v>
+      </c>
+      <c r="AE94">
+        <v>1.22</v>
+      </c>
+      <c r="AF94">
+        <v>4</v>
+      </c>
+      <c r="AG94">
+        <v>1.67</v>
+      </c>
+      <c r="AH94">
+        <v>2</v>
+      </c>
+      <c r="AI94">
+        <v>1.83</v>
+      </c>
+      <c r="AJ94">
+        <v>1.83</v>
+      </c>
+      <c r="AK94">
+        <v>1.08</v>
+      </c>
+      <c r="AL94">
+        <v>1.17</v>
+      </c>
+      <c r="AM94">
+        <v>2.75</v>
+      </c>
+      <c r="AN94">
+        <v>3</v>
+      </c>
+      <c r="AO94">
+        <v>1</v>
+      </c>
+      <c r="AP94">
+        <v>3</v>
+      </c>
+      <c r="AQ94">
+        <v>0.8</v>
+      </c>
+      <c r="AR94">
+        <v>2.11</v>
+      </c>
+      <c r="AS94">
+        <v>1.4</v>
+      </c>
+      <c r="AT94">
+        <v>3.51</v>
+      </c>
+      <c r="AU94">
+        <v>6</v>
+      </c>
+      <c r="AV94">
+        <v>5</v>
+      </c>
+      <c r="AW94">
+        <v>1</v>
+      </c>
+      <c r="AX94">
+        <v>2</v>
+      </c>
+      <c r="AY94">
+        <v>12</v>
+      </c>
+      <c r="AZ94">
+        <v>10</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>1</v>
+      </c>
+      <c r="BC94">
+        <v>5</v>
+      </c>
+      <c r="BD94">
+        <v>1.26</v>
+      </c>
+      <c r="BE94">
+        <v>11</v>
+      </c>
+      <c r="BF94">
+        <v>4.99</v>
+      </c>
+      <c r="BG94">
+        <v>1.18</v>
+      </c>
+      <c r="BH94">
+        <v>3.7</v>
+      </c>
+      <c r="BI94">
+        <v>1.39</v>
+      </c>
+      <c r="BJ94">
+        <v>2.67</v>
+      </c>
+      <c r="BK94">
+        <v>1.82</v>
+      </c>
+      <c r="BL94">
+        <v>1.98</v>
+      </c>
+      <c r="BM94">
+        <v>2.14</v>
+      </c>
+      <c r="BN94">
+        <v>1.6</v>
+      </c>
+      <c r="BO94">
+        <v>2.73</v>
+      </c>
+      <c r="BP94">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7468959</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45594.6875</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>75</v>
+      </c>
+      <c r="H95" t="s">
+        <v>71</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" t="s">
+        <v>163</v>
+      </c>
+      <c r="P95" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q95">
+        <v>2.88</v>
+      </c>
+      <c r="R95">
+        <v>2.05</v>
+      </c>
+      <c r="S95">
+        <v>4</v>
+      </c>
+      <c r="T95">
+        <v>1.5</v>
+      </c>
+      <c r="U95">
+        <v>2.5</v>
+      </c>
+      <c r="V95">
+        <v>3.4</v>
+      </c>
+      <c r="W95">
+        <v>1.3</v>
+      </c>
+      <c r="X95">
+        <v>10</v>
+      </c>
+      <c r="Y95">
+        <v>1.06</v>
+      </c>
+      <c r="Z95">
+        <v>1.8</v>
+      </c>
+      <c r="AA95">
+        <v>3.1</v>
+      </c>
+      <c r="AB95">
+        <v>4.7</v>
+      </c>
+      <c r="AC95">
+        <v>1.09</v>
+      </c>
+      <c r="AD95">
+        <v>7</v>
+      </c>
+      <c r="AE95">
+        <v>1.44</v>
+      </c>
+      <c r="AF95">
+        <v>2.7</v>
+      </c>
+      <c r="AG95">
+        <v>2.15</v>
+      </c>
+      <c r="AH95">
+        <v>1.57</v>
+      </c>
+      <c r="AI95">
+        <v>1.91</v>
+      </c>
+      <c r="AJ95">
+        <v>1.8</v>
+      </c>
+      <c r="AK95">
+        <v>1.22</v>
+      </c>
+      <c r="AL95">
+        <v>1.3</v>
+      </c>
+      <c r="AM95">
+        <v>1.75</v>
+      </c>
+      <c r="AN95">
+        <v>1.4</v>
+      </c>
+      <c r="AO95">
+        <v>0.2</v>
+      </c>
+      <c r="AP95">
+        <v>1.67</v>
+      </c>
+      <c r="AQ95">
+        <v>0.17</v>
+      </c>
+      <c r="AR95">
+        <v>1.8</v>
+      </c>
+      <c r="AS95">
+        <v>1.13</v>
+      </c>
+      <c r="AT95">
+        <v>2.93</v>
+      </c>
+      <c r="AU95">
+        <v>6</v>
+      </c>
+      <c r="AV95">
+        <v>5</v>
+      </c>
+      <c r="AW95">
+        <v>4</v>
+      </c>
+      <c r="AX95">
+        <v>1</v>
+      </c>
+      <c r="AY95">
+        <v>12</v>
+      </c>
+      <c r="AZ95">
+        <v>7</v>
+      </c>
+      <c r="BA95">
+        <v>2</v>
+      </c>
+      <c r="BB95">
+        <v>2</v>
+      </c>
+      <c r="BC95">
+        <v>4</v>
+      </c>
+      <c r="BD95">
+        <v>1.37</v>
+      </c>
+      <c r="BE95">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF95">
+        <v>4.02</v>
+      </c>
+      <c r="BG95">
+        <v>1.39</v>
+      </c>
+      <c r="BH95">
+        <v>2.67</v>
+      </c>
+      <c r="BI95">
+        <v>1.74</v>
+      </c>
+      <c r="BJ95">
+        <v>2.02</v>
+      </c>
+      <c r="BK95">
+        <v>2.19</v>
+      </c>
+      <c r="BL95">
+        <v>1.57</v>
+      </c>
+      <c r="BM95">
+        <v>2.88</v>
+      </c>
+      <c r="BN95">
+        <v>1.3</v>
+      </c>
+      <c r="BO95">
+        <v>4.1</v>
+      </c>
+      <c r="BP95">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7468958</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45594.6875</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>83</v>
+      </c>
+      <c r="H96" t="s">
+        <v>81</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96" t="s">
+        <v>164</v>
+      </c>
+      <c r="P96" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q96">
+        <v>2.75</v>
+      </c>
+      <c r="R96">
+        <v>2.1</v>
+      </c>
+      <c r="S96">
+        <v>4.33</v>
+      </c>
+      <c r="T96">
+        <v>1.44</v>
+      </c>
+      <c r="U96">
+        <v>2.63</v>
+      </c>
+      <c r="V96">
+        <v>3</v>
+      </c>
+      <c r="W96">
+        <v>1.36</v>
+      </c>
+      <c r="X96">
+        <v>9</v>
+      </c>
+      <c r="Y96">
+        <v>1.07</v>
+      </c>
+      <c r="Z96">
+        <v>2.25</v>
+      </c>
+      <c r="AA96">
+        <v>3</v>
+      </c>
+      <c r="AB96">
+        <v>3.25</v>
+      </c>
+      <c r="AC96">
+        <v>1.07</v>
+      </c>
+      <c r="AD96">
+        <v>8</v>
+      </c>
+      <c r="AE96">
+        <v>1.35</v>
+      </c>
+      <c r="AF96">
+        <v>3.1</v>
+      </c>
+      <c r="AG96">
+        <v>1.95</v>
+      </c>
+      <c r="AH96">
+        <v>1.7</v>
+      </c>
+      <c r="AI96">
+        <v>1.83</v>
+      </c>
+      <c r="AJ96">
+        <v>1.83</v>
+      </c>
+      <c r="AK96">
+        <v>1.33</v>
+      </c>
+      <c r="AL96">
+        <v>1.28</v>
+      </c>
+      <c r="AM96">
+        <v>1.62</v>
+      </c>
+      <c r="AN96">
+        <v>1.8</v>
+      </c>
+      <c r="AO96">
+        <v>1.2</v>
+      </c>
+      <c r="AP96">
+        <v>1.67</v>
+      </c>
+      <c r="AQ96">
+        <v>1.17</v>
+      </c>
+      <c r="AR96">
+        <v>1.65</v>
+      </c>
+      <c r="AS96">
+        <v>1.19</v>
+      </c>
+      <c r="AT96">
+        <v>2.84</v>
+      </c>
+      <c r="AU96">
+        <v>7</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>6</v>
+      </c>
+      <c r="AX96">
+        <v>4</v>
+      </c>
+      <c r="AY96">
+        <v>18</v>
+      </c>
+      <c r="AZ96">
+        <v>14</v>
+      </c>
+      <c r="BA96">
+        <v>4</v>
+      </c>
+      <c r="BB96">
+        <v>7</v>
+      </c>
+      <c r="BC96">
+        <v>11</v>
+      </c>
+      <c r="BD96">
+        <v>1.81</v>
+      </c>
+      <c r="BE96">
+        <v>8.5</v>
+      </c>
+      <c r="BF96">
+        <v>2.41</v>
+      </c>
+      <c r="BG96">
+        <v>1.23</v>
+      </c>
+      <c r="BH96">
+        <v>3.28</v>
+      </c>
+      <c r="BI96">
+        <v>1.48</v>
+      </c>
+      <c r="BJ96">
+        <v>2.4</v>
+      </c>
+      <c r="BK96">
+        <v>1.95</v>
+      </c>
+      <c r="BL96">
+        <v>1.85</v>
+      </c>
+      <c r="BM96">
+        <v>2.38</v>
+      </c>
+      <c r="BN96">
+        <v>1.49</v>
+      </c>
+      <c r="BO96">
+        <v>3.08</v>
+      </c>
+      <c r="BP96">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7468957</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45594.6875</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97" t="s">
+        <v>85</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97" t="s">
+        <v>90</v>
+      </c>
+      <c r="P97" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q97">
+        <v>4</v>
+      </c>
+      <c r="R97">
+        <v>2.05</v>
+      </c>
+      <c r="S97">
+        <v>2.88</v>
+      </c>
+      <c r="T97">
+        <v>1.44</v>
+      </c>
+      <c r="U97">
+        <v>2.63</v>
+      </c>
+      <c r="V97">
+        <v>3.25</v>
+      </c>
+      <c r="W97">
+        <v>1.33</v>
+      </c>
+      <c r="X97">
+        <v>10</v>
+      </c>
+      <c r="Y97">
+        <v>1.06</v>
+      </c>
+      <c r="Z97">
+        <v>3.75</v>
+      </c>
+      <c r="AA97">
+        <v>3.05</v>
+      </c>
+      <c r="AB97">
+        <v>2.05</v>
+      </c>
+      <c r="AC97">
+        <v>1.08</v>
+      </c>
+      <c r="AD97">
+        <v>7.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.4</v>
+      </c>
+      <c r="AF97">
+        <v>2.88</v>
+      </c>
+      <c r="AG97">
+        <v>2.1</v>
+      </c>
+      <c r="AH97">
+        <v>1.6</v>
+      </c>
+      <c r="AI97">
+        <v>1.83</v>
+      </c>
+      <c r="AJ97">
+        <v>1.83</v>
+      </c>
+      <c r="AK97">
+        <v>1.65</v>
+      </c>
+      <c r="AL97">
+        <v>1.3</v>
+      </c>
+      <c r="AM97">
+        <v>1.3</v>
+      </c>
+      <c r="AN97">
+        <v>3</v>
+      </c>
+      <c r="AO97">
+        <v>2.4</v>
+      </c>
+      <c r="AP97">
+        <v>2.67</v>
+      </c>
+      <c r="AQ97">
+        <v>2.17</v>
+      </c>
+      <c r="AR97">
+        <v>1.69</v>
+      </c>
+      <c r="AS97">
+        <v>1.32</v>
+      </c>
+      <c r="AT97">
+        <v>3.01</v>
+      </c>
+      <c r="AU97">
+        <v>4</v>
+      </c>
+      <c r="AV97">
+        <v>5</v>
+      </c>
+      <c r="AW97">
+        <v>5</v>
+      </c>
+      <c r="AX97">
+        <v>8</v>
+      </c>
+      <c r="AY97">
+        <v>15</v>
+      </c>
+      <c r="AZ97">
+        <v>14</v>
+      </c>
+      <c r="BA97">
+        <v>6</v>
+      </c>
+      <c r="BB97">
+        <v>2</v>
+      </c>
+      <c r="BC97">
+        <v>8</v>
+      </c>
+      <c r="BD97">
+        <v>2.3</v>
+      </c>
+      <c r="BE97">
+        <v>8.4</v>
+      </c>
+      <c r="BF97">
+        <v>1.88</v>
+      </c>
+      <c r="BG97">
+        <v>1.26</v>
+      </c>
+      <c r="BH97">
+        <v>3.08</v>
+      </c>
+      <c r="BI97">
+        <v>1.52</v>
+      </c>
+      <c r="BJ97">
+        <v>2.3</v>
+      </c>
+      <c r="BK97">
+        <v>2</v>
+      </c>
+      <c r="BL97">
+        <v>1.8</v>
+      </c>
+      <c r="BM97">
+        <v>2.48</v>
+      </c>
+      <c r="BN97">
+        <v>1.45</v>
+      </c>
+      <c r="BO97">
+        <v>3.28</v>
+      </c>
+      <c r="BP97">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7468956</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45594.6875</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s">
+        <v>76</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>3</v>
+      </c>
+      <c r="O98" t="s">
+        <v>90</v>
+      </c>
+      <c r="P98" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q98">
+        <v>4.75</v>
+      </c>
+      <c r="R98">
+        <v>2.1</v>
+      </c>
+      <c r="S98">
+        <v>2.5</v>
+      </c>
+      <c r="T98">
+        <v>1.44</v>
+      </c>
+      <c r="U98">
+        <v>2.63</v>
+      </c>
+      <c r="V98">
+        <v>3.25</v>
+      </c>
+      <c r="W98">
+        <v>1.33</v>
+      </c>
+      <c r="X98">
+        <v>9</v>
+      </c>
+      <c r="Y98">
+        <v>1.07</v>
+      </c>
+      <c r="Z98">
+        <v>3.75</v>
+      </c>
+      <c r="AA98">
+        <v>3.3</v>
+      </c>
+      <c r="AB98">
+        <v>1.95</v>
+      </c>
+      <c r="AC98">
+        <v>1.06</v>
+      </c>
+      <c r="AD98">
+        <v>8.5</v>
+      </c>
+      <c r="AE98">
+        <v>1.36</v>
+      </c>
+      <c r="AF98">
+        <v>3.1</v>
+      </c>
+      <c r="AG98">
+        <v>2</v>
+      </c>
+      <c r="AH98">
+        <v>1.67</v>
+      </c>
+      <c r="AI98">
+        <v>1.91</v>
+      </c>
+      <c r="AJ98">
+        <v>1.8</v>
+      </c>
+      <c r="AK98">
+        <v>1.93</v>
+      </c>
+      <c r="AL98">
+        <v>1.25</v>
+      </c>
+      <c r="AM98">
+        <v>1.2</v>
+      </c>
+      <c r="AN98">
+        <v>0.2</v>
+      </c>
+      <c r="AO98">
+        <v>0.25</v>
+      </c>
+      <c r="AP98">
+        <v>0.17</v>
+      </c>
+      <c r="AQ98">
+        <v>0.8</v>
+      </c>
+      <c r="AR98">
+        <v>1.06</v>
+      </c>
+      <c r="AS98">
+        <v>1.4</v>
+      </c>
+      <c r="AT98">
+        <v>2.46</v>
+      </c>
+      <c r="AU98">
+        <v>2</v>
+      </c>
+      <c r="AV98">
+        <v>8</v>
+      </c>
+      <c r="AW98">
+        <v>4</v>
+      </c>
+      <c r="AX98">
+        <v>6</v>
+      </c>
+      <c r="AY98">
+        <v>11</v>
+      </c>
+      <c r="AZ98">
+        <v>16</v>
+      </c>
+      <c r="BA98">
+        <v>7</v>
+      </c>
+      <c r="BB98">
+        <v>4</v>
+      </c>
+      <c r="BC98">
+        <v>11</v>
+      </c>
+      <c r="BD98">
+        <v>2.88</v>
+      </c>
+      <c r="BE98">
+        <v>8.9</v>
+      </c>
+      <c r="BF98">
+        <v>1.6</v>
+      </c>
+      <c r="BG98">
+        <v>1.22</v>
+      </c>
+      <c r="BH98">
+        <v>3.35</v>
+      </c>
+      <c r="BI98">
+        <v>1.46</v>
+      </c>
+      <c r="BJ98">
+        <v>2.45</v>
+      </c>
+      <c r="BK98">
+        <v>2</v>
+      </c>
+      <c r="BL98">
+        <v>1.8</v>
+      </c>
+      <c r="BM98">
+        <v>2.3</v>
+      </c>
+      <c r="BN98">
+        <v>1.52</v>
+      </c>
+      <c r="BO98">
+        <v>3.02</v>
+      </c>
+      <c r="BP98">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7468960</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45594.6875</v>
+      </c>
+      <c r="F99">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>74</v>
+      </c>
+      <c r="H99" t="s">
+        <v>84</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99" t="s">
+        <v>90</v>
+      </c>
+      <c r="P99" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q99">
+        <v>3</v>
+      </c>
+      <c r="R99">
+        <v>2.1</v>
+      </c>
+      <c r="S99">
+        <v>3.75</v>
+      </c>
+      <c r="T99">
+        <v>1.44</v>
+      </c>
+      <c r="U99">
+        <v>2.63</v>
+      </c>
+      <c r="V99">
+        <v>3</v>
+      </c>
+      <c r="W99">
+        <v>1.36</v>
+      </c>
+      <c r="X99">
+        <v>9</v>
+      </c>
+      <c r="Y99">
+        <v>1.07</v>
+      </c>
+      <c r="Z99">
+        <v>2.25</v>
+      </c>
+      <c r="AA99">
+        <v>3.1</v>
+      </c>
+      <c r="AB99">
+        <v>3.2</v>
+      </c>
+      <c r="AC99">
+        <v>1.07</v>
+      </c>
+      <c r="AD99">
+        <v>8</v>
+      </c>
+      <c r="AE99">
+        <v>1.35</v>
+      </c>
+      <c r="AF99">
+        <v>3.1</v>
+      </c>
+      <c r="AG99">
+        <v>1.95</v>
+      </c>
+      <c r="AH99">
+        <v>1.73</v>
+      </c>
+      <c r="AI99">
+        <v>1.8</v>
+      </c>
+      <c r="AJ99">
+        <v>1.91</v>
+      </c>
+      <c r="AK99">
+        <v>1.35</v>
+      </c>
+      <c r="AL99">
+        <v>1.28</v>
+      </c>
+      <c r="AM99">
+        <v>1.6</v>
+      </c>
+      <c r="AN99">
+        <v>2.6</v>
+      </c>
+      <c r="AO99">
+        <v>1.2</v>
+      </c>
+      <c r="AP99">
+        <v>2.33</v>
+      </c>
+      <c r="AQ99">
+        <v>1.17</v>
+      </c>
+      <c r="AR99">
+        <v>1.21</v>
+      </c>
+      <c r="AS99">
+        <v>1.25</v>
+      </c>
+      <c r="AT99">
+        <v>2.46</v>
+      </c>
+      <c r="AU99">
+        <v>3</v>
+      </c>
+      <c r="AV99">
+        <v>7</v>
+      </c>
+      <c r="AW99">
+        <v>1</v>
+      </c>
+      <c r="AX99">
+        <v>6</v>
+      </c>
+      <c r="AY99">
+        <v>8</v>
+      </c>
+      <c r="AZ99">
+        <v>18</v>
+      </c>
+      <c r="BA99">
+        <v>2</v>
+      </c>
+      <c r="BB99">
+        <v>3</v>
+      </c>
+      <c r="BC99">
+        <v>5</v>
+      </c>
+      <c r="BD99">
+        <v>1.78</v>
+      </c>
+      <c r="BE99">
+        <v>8.4</v>
+      </c>
+      <c r="BF99">
+        <v>2.47</v>
+      </c>
+      <c r="BG99">
+        <v>1.24</v>
+      </c>
+      <c r="BH99">
+        <v>3.22</v>
+      </c>
+      <c r="BI99">
+        <v>1.49</v>
+      </c>
+      <c r="BJ99">
+        <v>2.38</v>
+      </c>
+      <c r="BK99">
+        <v>1.95</v>
+      </c>
+      <c r="BL99">
+        <v>1.85</v>
+      </c>
+      <c r="BM99">
+        <v>2.4</v>
+      </c>
+      <c r="BN99">
+        <v>1.48</v>
+      </c>
+      <c r="BO99">
+        <v>3.14</v>
+      </c>
+      <c r="BP99">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,10 +505,22 @@
     <t>['28', '55', '83', '85']</t>
   </si>
   <si>
+    <t>['16', '51']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
-    <t>['16', '51']</t>
+    <t>['34', '53', '67']</t>
+  </si>
+  <si>
+    <t>['45', '76']</t>
+  </si>
+  <si>
+    <t>['20', '45+2', '85']</t>
+  </si>
+  <si>
+    <t>['5', '89']</t>
   </si>
   <si>
     <t>['16', '45+2']</t>
@@ -652,10 +664,10 @@
     <t>['32', '56', '85']</t>
   </si>
   <si>
-    <t>['45+4']</t>
+    <t>['82']</t>
   </si>
   <si>
-    <t>['82']</t>
+    <t>['45+4']</t>
   </si>
   <si>
     <t>['68', '87']</t>
@@ -668,6 +680,12 @@
   </si>
   <si>
     <t>['69', '90+1', '90+5']</t>
+  </si>
+  <si>
+    <t>['10', '37', '48']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1288,7 +1306,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1366,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ2">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1575,7 +1593,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ3">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1700,7 +1718,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1778,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ4">
         <v>1.17</v>
@@ -1987,7 +2005,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2112,7 +2130,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2193,7 +2211,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ6">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2524,7 +2542,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2808,10 +2826,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2936,7 +2954,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3220,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
         <v>1.4</v>
@@ -3554,7 +3572,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4047,7 +4065,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4172,7 +4190,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4250,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ16">
         <v>1.4</v>
@@ -4378,7 +4396,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4456,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ17">
         <v>0.8</v>
@@ -4996,7 +5014,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5202,7 +5220,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5280,7 +5298,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ21">
         <v>2.17</v>
@@ -5408,7 +5426,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5489,7 +5507,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.64</v>
@@ -5692,10 +5710,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ23">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR23">
         <v>2.13</v>
@@ -5820,7 +5838,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -6026,7 +6044,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6104,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ25">
         <v>1.25</v>
@@ -6232,7 +6250,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6313,7 +6331,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR26">
         <v>1.19</v>
@@ -6519,7 +6537,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR27">
         <v>1.55</v>
@@ -6644,7 +6662,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6725,7 +6743,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR28">
         <v>1.92</v>
@@ -7137,7 +7155,7 @@
         <v>3</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7340,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ31">
         <v>0.8</v>
@@ -7752,10 +7770,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>2.15</v>
@@ -8086,7 +8104,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8292,7 +8310,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8370,7 +8388,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ36">
         <v>1.2</v>
@@ -8498,7 +8516,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8704,7 +8722,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8782,10 +8800,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -8910,7 +8928,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -8988,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ39">
         <v>0.6</v>
@@ -9322,7 +9340,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9528,7 +9546,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9606,10 +9624,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ42">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR42">
         <v>1.75</v>
@@ -9734,7 +9752,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9815,7 +9833,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR43">
         <v>0.8</v>
@@ -10352,7 +10370,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10433,7 +10451,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR46">
         <v>1.88</v>
@@ -10558,7 +10576,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -10639,7 +10657,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ47">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.49</v>
@@ -10842,7 +10860,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ48">
         <v>0.67</v>
@@ -11254,7 +11272,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ50">
         <v>1.2</v>
@@ -11463,7 +11481,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR51">
         <v>1.48</v>
@@ -11794,7 +11812,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11872,7 +11890,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ53">
         <v>1.25</v>
@@ -12000,7 +12018,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12078,10 +12096,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ54">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.19</v>
@@ -12206,7 +12224,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12287,7 +12305,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ55">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR55">
         <v>1.98</v>
@@ -12618,7 +12636,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12699,7 +12717,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ57">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR57">
         <v>1.54</v>
@@ -12824,7 +12842,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12902,7 +12920,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ58">
         <v>0.8</v>
@@ -13030,7 +13048,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13236,7 +13254,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13317,7 +13335,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ60">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13648,7 +13666,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13854,7 +13872,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13932,7 +13950,7 @@
         <v>3</v>
       </c>
       <c r="AP63">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ63">
         <v>1.2</v>
@@ -14060,7 +14078,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14344,10 +14362,10 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ65">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR65">
         <v>1.6</v>
@@ -14550,10 +14568,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ66">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14756,7 +14774,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ67">
         <v>0.67</v>
@@ -14884,7 +14902,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15090,7 +15108,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15296,7 +15314,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15377,7 +15395,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR70">
         <v>1.55</v>
@@ -15502,7 +15520,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15580,7 +15598,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ71">
         <v>1.2</v>
@@ -15708,7 +15726,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15789,7 +15807,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR72">
         <v>1.72</v>
@@ -15914,7 +15932,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -15992,10 +16010,10 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ73">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR73">
         <v>1</v>
@@ -16120,7 +16138,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16201,7 +16219,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16326,7 +16344,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16532,7 +16550,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17150,7 +17168,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17356,7 +17374,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17562,7 +17580,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -17640,7 +17658,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ81">
         <v>2.17</v>
@@ -18052,10 +18070,10 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ83">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.6</v>
@@ -18258,10 +18276,10 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ84">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR84">
         <v>1.51</v>
@@ -18386,7 +18404,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18467,7 +18485,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR85">
         <v>1.48</v>
@@ -18592,7 +18610,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18673,7 +18691,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR86">
         <v>1.88</v>
@@ -18876,7 +18894,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ87">
         <v>1.4</v>
@@ -19168,7 +19186,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7468949</v>
+        <v>7468951</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19183,190 +19201,190 @@
         <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H89" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M89">
         <v>1</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O89" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q89">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R89">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S89">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="T89">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U89">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V89">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W89">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X89">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y89">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z89">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AA89">
         <v>3.4</v>
       </c>
       <c r="AB89">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="AC89">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD89">
+        <v>8.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.3</v>
+      </c>
+      <c r="AF89">
+        <v>3.3</v>
+      </c>
+      <c r="AG89">
+        <v>2.05</v>
+      </c>
+      <c r="AH89">
+        <v>1.68</v>
+      </c>
+      <c r="AI89">
+        <v>2</v>
+      </c>
+      <c r="AJ89">
+        <v>1.73</v>
+      </c>
+      <c r="AK89">
+        <v>1.16</v>
+      </c>
+      <c r="AL89">
+        <v>1.25</v>
+      </c>
+      <c r="AM89">
+        <v>2</v>
+      </c>
+      <c r="AN89">
+        <v>2.25</v>
+      </c>
+      <c r="AO89">
+        <v>0.75</v>
+      </c>
+      <c r="AP89">
+        <v>2.17</v>
+      </c>
+      <c r="AQ89">
+        <v>0.6</v>
+      </c>
+      <c r="AR89">
+        <v>1.72</v>
+      </c>
+      <c r="AS89">
+        <v>1.12</v>
+      </c>
+      <c r="AT89">
+        <v>2.84</v>
+      </c>
+      <c r="AU89">
         <v>9</v>
       </c>
-      <c r="AE89">
-        <v>1.28</v>
-      </c>
-      <c r="AF89">
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>6</v>
+      </c>
+      <c r="AX89">
+        <v>1</v>
+      </c>
+      <c r="AY89">
+        <v>18</v>
+      </c>
+      <c r="AZ89">
+        <v>9</v>
+      </c>
+      <c r="BA89">
+        <v>6</v>
+      </c>
+      <c r="BB89">
+        <v>5</v>
+      </c>
+      <c r="BC89">
+        <v>11</v>
+      </c>
+      <c r="BD89">
+        <v>1.51</v>
+      </c>
+      <c r="BE89">
+        <v>8.5</v>
+      </c>
+      <c r="BF89">
+        <v>3.07</v>
+      </c>
+      <c r="BG89">
+        <v>1.29</v>
+      </c>
+      <c r="BH89">
         <v>3.4</v>
       </c>
-      <c r="AG89">
-        <v>1.98</v>
-      </c>
-      <c r="AH89">
-        <v>1.72</v>
-      </c>
-      <c r="AI89">
-        <v>1.83</v>
-      </c>
-      <c r="AJ89">
-        <v>1.83</v>
-      </c>
-      <c r="AK89">
-        <v>1.15</v>
-      </c>
-      <c r="AL89">
-        <v>1.2</v>
-      </c>
-      <c r="AM89">
-        <v>2.05</v>
-      </c>
-      <c r="AN89">
-        <v>1.4</v>
-      </c>
-      <c r="AO89">
-        <v>0.2</v>
-      </c>
-      <c r="AP89">
-        <v>1.17</v>
-      </c>
-      <c r="AQ89">
-        <v>0.67</v>
-      </c>
-      <c r="AR89">
-        <v>1.42</v>
-      </c>
-      <c r="AS89">
-        <v>1.37</v>
-      </c>
-      <c r="AT89">
-        <v>2.79</v>
-      </c>
-      <c r="AU89">
-        <v>5</v>
-      </c>
-      <c r="AV89">
-        <v>6</v>
-      </c>
-      <c r="AW89">
-        <v>4</v>
-      </c>
-      <c r="AX89">
-        <v>3</v>
-      </c>
-      <c r="AY89">
-        <v>15</v>
-      </c>
-      <c r="AZ89">
-        <v>11</v>
-      </c>
-      <c r="BA89">
-        <v>5</v>
-      </c>
-      <c r="BB89">
-        <v>2</v>
-      </c>
-      <c r="BC89">
-        <v>7</v>
-      </c>
-      <c r="BD89">
-        <v>1.34</v>
-      </c>
-      <c r="BE89">
-        <v>9</v>
-      </c>
-      <c r="BF89">
-        <v>3.88</v>
-      </c>
-      <c r="BG89">
-        <v>1.19</v>
-      </c>
-      <c r="BH89">
-        <v>3.62</v>
-      </c>
       <c r="BI89">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="BJ89">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="BK89">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BL89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BM89">
-        <v>2.19</v>
+        <v>2.55</v>
       </c>
       <c r="BN89">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BO89">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="BP89">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -19374,7 +19392,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7468951</v>
+        <v>7468949</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19389,190 +19407,190 @@
         <v>10</v>
       </c>
       <c r="G90" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H90" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M90">
         <v>1</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O90" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q90">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R90">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S90">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T90">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U90">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V90">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W90">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y90">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z90">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AA90">
         <v>3.4</v>
       </c>
       <c r="AB90">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AC90">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD90">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE90">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AF90">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AG90">
+        <v>1.98</v>
+      </c>
+      <c r="AH90">
+        <v>1.72</v>
+      </c>
+      <c r="AI90">
+        <v>1.83</v>
+      </c>
+      <c r="AJ90">
+        <v>1.83</v>
+      </c>
+      <c r="AK90">
+        <v>1.15</v>
+      </c>
+      <c r="AL90">
+        <v>1.2</v>
+      </c>
+      <c r="AM90">
         <v>2.05</v>
       </c>
-      <c r="AH90">
-        <v>1.68</v>
-      </c>
-      <c r="AI90">
-        <v>2</v>
-      </c>
-      <c r="AJ90">
-        <v>1.73</v>
-      </c>
-      <c r="AK90">
-        <v>1.16</v>
-      </c>
-      <c r="AL90">
-        <v>1.25</v>
-      </c>
-      <c r="AM90">
-        <v>2</v>
-      </c>
       <c r="AN90">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="AO90">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="AP90">
-        <v>2.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ90">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR90">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="AS90">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="AT90">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="AU90">
+        <v>5</v>
+      </c>
+      <c r="AV90">
+        <v>6</v>
+      </c>
+      <c r="AW90">
+        <v>4</v>
+      </c>
+      <c r="AX90">
+        <v>3</v>
+      </c>
+      <c r="AY90">
+        <v>15</v>
+      </c>
+      <c r="AZ90">
+        <v>11</v>
+      </c>
+      <c r="BA90">
+        <v>5</v>
+      </c>
+      <c r="BB90">
+        <v>2</v>
+      </c>
+      <c r="BC90">
+        <v>7</v>
+      </c>
+      <c r="BD90">
+        <v>1.34</v>
+      </c>
+      <c r="BE90">
         <v>9</v>
       </c>
-      <c r="AV90">
-        <v>4</v>
-      </c>
-      <c r="AW90">
-        <v>6</v>
-      </c>
-      <c r="AX90">
-        <v>1</v>
-      </c>
-      <c r="AY90">
-        <v>18</v>
-      </c>
-      <c r="AZ90">
-        <v>9</v>
-      </c>
-      <c r="BA90">
-        <v>6</v>
-      </c>
-      <c r="BB90">
-        <v>5</v>
-      </c>
-      <c r="BC90">
-        <v>11</v>
-      </c>
-      <c r="BD90">
-        <v>1.51</v>
-      </c>
-      <c r="BE90">
-        <v>8.5</v>
-      </c>
       <c r="BF90">
-        <v>3.07</v>
+        <v>3.88</v>
       </c>
       <c r="BG90">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="BH90">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="BI90">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="BJ90">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="BK90">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BL90">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BM90">
-        <v>2.55</v>
+        <v>2.19</v>
       </c>
       <c r="BN90">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BO90">
-        <v>3.5</v>
+        <v>2.82</v>
       </c>
       <c r="BP90">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="91" spans="1:68">
@@ -19592,7 +19610,7 @@
         <v>45594.6875</v>
       </c>
       <c r="F91">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
         <v>79</v>
@@ -19700,10 +19718,10 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ91">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR91">
         <v>1.25</v>
@@ -19828,7 +19846,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20198,7 +20216,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7468961</v>
+        <v>7468960</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20210,193 +20228,193 @@
         <v>45594.6875</v>
       </c>
       <c r="F94">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H94" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" t="s">
+        <v>90</v>
+      </c>
+      <c r="P94" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q94">
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <v>2.1</v>
+      </c>
+      <c r="S94">
+        <v>3.75</v>
+      </c>
+      <c r="T94">
+        <v>1.44</v>
+      </c>
+      <c r="U94">
+        <v>2.63</v>
+      </c>
+      <c r="V94">
+        <v>3</v>
+      </c>
+      <c r="W94">
+        <v>1.36</v>
+      </c>
+      <c r="X94">
+        <v>9</v>
+      </c>
+      <c r="Y94">
+        <v>1.07</v>
+      </c>
+      <c r="Z94">
+        <v>2.25</v>
+      </c>
+      <c r="AA94">
+        <v>3.1</v>
+      </c>
+      <c r="AB94">
+        <v>3.2</v>
+      </c>
+      <c r="AC94">
+        <v>1.07</v>
+      </c>
+      <c r="AD94">
+        <v>8</v>
+      </c>
+      <c r="AE94">
+        <v>1.35</v>
+      </c>
+      <c r="AF94">
+        <v>3.1</v>
+      </c>
+      <c r="AG94">
+        <v>1.95</v>
+      </c>
+      <c r="AH94">
+        <v>1.73</v>
+      </c>
+      <c r="AI94">
+        <v>1.8</v>
+      </c>
+      <c r="AJ94">
+        <v>1.91</v>
+      </c>
+      <c r="AK94">
+        <v>1.35</v>
+      </c>
+      <c r="AL94">
+        <v>1.28</v>
+      </c>
+      <c r="AM94">
+        <v>1.6</v>
+      </c>
+      <c r="AN94">
+        <v>2.6</v>
+      </c>
+      <c r="AO94">
+        <v>1.2</v>
+      </c>
+      <c r="AP94">
+        <v>2.33</v>
+      </c>
+      <c r="AQ94">
+        <v>1.17</v>
+      </c>
+      <c r="AR94">
+        <v>1.21</v>
+      </c>
+      <c r="AS94">
+        <v>1.25</v>
+      </c>
+      <c r="AT94">
+        <v>2.46</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>7</v>
+      </c>
+      <c r="AW94">
+        <v>1</v>
+      </c>
+      <c r="AX94">
         <v>6</v>
       </c>
-      <c r="O94" t="s">
-        <v>162</v>
-      </c>
-      <c r="P94" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q94">
-        <v>1.9</v>
-      </c>
-      <c r="R94">
-        <v>2.3</v>
-      </c>
-      <c r="S94">
-        <v>6.25</v>
-      </c>
-      <c r="T94">
-        <v>1.33</v>
-      </c>
-      <c r="U94">
-        <v>3</v>
-      </c>
-      <c r="V94">
-        <v>2.45</v>
-      </c>
-      <c r="W94">
-        <v>1.48</v>
-      </c>
-      <c r="X94">
-        <v>5.9</v>
-      </c>
-      <c r="Y94">
-        <v>1.1</v>
-      </c>
-      <c r="Z94">
-        <v>1.43</v>
-      </c>
-      <c r="AA94">
-        <v>4.4</v>
-      </c>
-      <c r="AB94">
-        <v>6.5</v>
-      </c>
-      <c r="AC94">
-        <v>1.05</v>
-      </c>
-      <c r="AD94">
-        <v>9.5</v>
-      </c>
-      <c r="AE94">
-        <v>1.22</v>
-      </c>
-      <c r="AF94">
-        <v>4</v>
-      </c>
-      <c r="AG94">
-        <v>1.67</v>
-      </c>
-      <c r="AH94">
-        <v>2</v>
-      </c>
-      <c r="AI94">
-        <v>1.83</v>
-      </c>
-      <c r="AJ94">
-        <v>1.83</v>
-      </c>
-      <c r="AK94">
-        <v>1.08</v>
-      </c>
-      <c r="AL94">
-        <v>1.17</v>
-      </c>
-      <c r="AM94">
-        <v>2.75</v>
-      </c>
-      <c r="AN94">
-        <v>3</v>
-      </c>
-      <c r="AO94">
-        <v>1</v>
-      </c>
-      <c r="AP94">
-        <v>3</v>
-      </c>
-      <c r="AQ94">
-        <v>0.8</v>
-      </c>
-      <c r="AR94">
-        <v>2.11</v>
-      </c>
-      <c r="AS94">
-        <v>1.4</v>
-      </c>
-      <c r="AT94">
-        <v>3.51</v>
-      </c>
-      <c r="AU94">
-        <v>6</v>
-      </c>
-      <c r="AV94">
-        <v>5</v>
-      </c>
-      <c r="AW94">
-        <v>1</v>
-      </c>
-      <c r="AX94">
-        <v>2</v>
-      </c>
       <c r="AY94">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ94">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC94">
         <v>5</v>
       </c>
       <c r="BD94">
-        <v>1.26</v>
+        <v>1.78</v>
       </c>
       <c r="BE94">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="BF94">
-        <v>4.99</v>
+        <v>2.47</v>
       </c>
       <c r="BG94">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="BH94">
-        <v>3.7</v>
+        <v>3.22</v>
       </c>
       <c r="BI94">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="BJ94">
-        <v>2.67</v>
+        <v>2.38</v>
       </c>
       <c r="BK94">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BL94">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="BM94">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="BN94">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="BO94">
-        <v>2.73</v>
+        <v>3.14</v>
       </c>
       <c r="BP94">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20404,7 +20422,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7468959</v>
+        <v>7468961</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20416,127 +20434,127 @@
         <v>45594.6875</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H95" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="Q95">
-        <v>2.88</v>
+        <v>1.9</v>
       </c>
       <c r="R95">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S95">
+        <v>6.25</v>
+      </c>
+      <c r="T95">
+        <v>1.33</v>
+      </c>
+      <c r="U95">
+        <v>3</v>
+      </c>
+      <c r="V95">
+        <v>2.45</v>
+      </c>
+      <c r="W95">
+        <v>1.48</v>
+      </c>
+      <c r="X95">
+        <v>5.9</v>
+      </c>
+      <c r="Y95">
+        <v>1.1</v>
+      </c>
+      <c r="Z95">
+        <v>1.43</v>
+      </c>
+      <c r="AA95">
+        <v>4.4</v>
+      </c>
+      <c r="AB95">
+        <v>6.5</v>
+      </c>
+      <c r="AC95">
+        <v>1.05</v>
+      </c>
+      <c r="AD95">
+        <v>9.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.22</v>
+      </c>
+      <c r="AF95">
         <v>4</v>
       </c>
-      <c r="T95">
-        <v>1.5</v>
-      </c>
-      <c r="U95">
-        <v>2.5</v>
-      </c>
-      <c r="V95">
-        <v>3.4</v>
-      </c>
-      <c r="W95">
-        <v>1.3</v>
-      </c>
-      <c r="X95">
-        <v>10</v>
-      </c>
-      <c r="Y95">
-        <v>1.06</v>
-      </c>
-      <c r="Z95">
-        <v>1.8</v>
-      </c>
-      <c r="AA95">
-        <v>3.1</v>
-      </c>
-      <c r="AB95">
-        <v>4.7</v>
-      </c>
-      <c r="AC95">
-        <v>1.09</v>
-      </c>
-      <c r="AD95">
-        <v>7</v>
-      </c>
-      <c r="AE95">
-        <v>1.44</v>
-      </c>
-      <c r="AF95">
-        <v>2.7</v>
-      </c>
       <c r="AG95">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="AH95">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AI95">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AJ95">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AK95">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="AL95">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AM95">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="AN95">
+        <v>3</v>
+      </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
+      <c r="AP95">
+        <v>3</v>
+      </c>
+      <c r="AQ95">
+        <v>0.8</v>
+      </c>
+      <c r="AR95">
+        <v>2.11</v>
+      </c>
+      <c r="AS95">
         <v>1.4</v>
       </c>
-      <c r="AO95">
-        <v>0.2</v>
-      </c>
-      <c r="AP95">
-        <v>1.67</v>
-      </c>
-      <c r="AQ95">
-        <v>0.17</v>
-      </c>
-      <c r="AR95">
-        <v>1.8</v>
-      </c>
-      <c r="AS95">
-        <v>1.13</v>
-      </c>
       <c r="AT95">
-        <v>2.93</v>
+        <v>3.51</v>
       </c>
       <c r="AU95">
         <v>6</v>
@@ -20545,64 +20563,64 @@
         <v>5</v>
       </c>
       <c r="AW95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY95">
         <v>12</v>
       </c>
       <c r="AZ95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD95">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="BE95">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="BF95">
-        <v>4.02</v>
+        <v>4.99</v>
       </c>
       <c r="BG95">
+        <v>1.18</v>
+      </c>
+      <c r="BH95">
+        <v>3.7</v>
+      </c>
+      <c r="BI95">
         <v>1.39</v>
       </c>
-      <c r="BH95">
+      <c r="BJ95">
         <v>2.67</v>
       </c>
-      <c r="BI95">
-        <v>1.74</v>
-      </c>
-      <c r="BJ95">
-        <v>2.02</v>
-      </c>
       <c r="BK95">
-        <v>2.19</v>
+        <v>1.82</v>
       </c>
       <c r="BL95">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="BM95">
-        <v>2.88</v>
+        <v>2.14</v>
       </c>
       <c r="BN95">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="BO95">
-        <v>4.1</v>
+        <v>2.73</v>
       </c>
       <c r="BP95">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -20649,10 +20667,10 @@
         <v>4</v>
       </c>
       <c r="O96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -20733,7 +20751,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ96">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR96">
         <v>1.65</v>
@@ -21034,7 +21052,7 @@
         <v>45594.6875</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G98" t="s">
         <v>77</v>
@@ -21064,7 +21082,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21142,7 +21160,7 @@
         <v>0.25</v>
       </c>
       <c r="AP98">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ98">
         <v>0.8</v>
@@ -21228,7 +21246,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7468960</v>
+        <v>7468959</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21243,10 +21261,10 @@
         <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H99" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -21258,175 +21276,1411 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99">
         <v>0</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="P99" t="s">
         <v>90</v>
       </c>
       <c r="Q99">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R99">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S99">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T99">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U99">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V99">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="W99">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X99">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y99">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z99">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AA99">
         <v>3.1</v>
       </c>
       <c r="AB99">
+        <v>4.7</v>
+      </c>
+      <c r="AC99">
+        <v>1.09</v>
+      </c>
+      <c r="AD99">
+        <v>7</v>
+      </c>
+      <c r="AE99">
+        <v>1.44</v>
+      </c>
+      <c r="AF99">
+        <v>2.7</v>
+      </c>
+      <c r="AG99">
+        <v>2.15</v>
+      </c>
+      <c r="AH99">
+        <v>1.57</v>
+      </c>
+      <c r="AI99">
+        <v>1.91</v>
+      </c>
+      <c r="AJ99">
+        <v>1.8</v>
+      </c>
+      <c r="AK99">
+        <v>1.22</v>
+      </c>
+      <c r="AL99">
+        <v>1.3</v>
+      </c>
+      <c r="AM99">
+        <v>1.75</v>
+      </c>
+      <c r="AN99">
+        <v>1.4</v>
+      </c>
+      <c r="AO99">
+        <v>0.2</v>
+      </c>
+      <c r="AP99">
+        <v>1.67</v>
+      </c>
+      <c r="AQ99">
+        <v>0.17</v>
+      </c>
+      <c r="AR99">
+        <v>1.8</v>
+      </c>
+      <c r="AS99">
+        <v>1.13</v>
+      </c>
+      <c r="AT99">
+        <v>2.93</v>
+      </c>
+      <c r="AU99">
+        <v>6</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99">
+        <v>4</v>
+      </c>
+      <c r="AX99">
+        <v>1</v>
+      </c>
+      <c r="AY99">
+        <v>12</v>
+      </c>
+      <c r="AZ99">
+        <v>7</v>
+      </c>
+      <c r="BA99">
+        <v>2</v>
+      </c>
+      <c r="BB99">
+        <v>2</v>
+      </c>
+      <c r="BC99">
+        <v>4</v>
+      </c>
+      <c r="BD99">
+        <v>1.37</v>
+      </c>
+      <c r="BE99">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF99">
+        <v>4.02</v>
+      </c>
+      <c r="BG99">
+        <v>1.39</v>
+      </c>
+      <c r="BH99">
+        <v>2.67</v>
+      </c>
+      <c r="BI99">
+        <v>1.74</v>
+      </c>
+      <c r="BJ99">
+        <v>2.02</v>
+      </c>
+      <c r="BK99">
+        <v>2.19</v>
+      </c>
+      <c r="BL99">
+        <v>1.57</v>
+      </c>
+      <c r="BM99">
+        <v>2.88</v>
+      </c>
+      <c r="BN99">
+        <v>1.3</v>
+      </c>
+      <c r="BO99">
+        <v>4.1</v>
+      </c>
+      <c r="BP99">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7468969</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45596.875</v>
+      </c>
+      <c r="F100">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>85</v>
+      </c>
+      <c r="H100" t="s">
+        <v>81</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>3</v>
+      </c>
+      <c r="N100">
+        <v>6</v>
+      </c>
+      <c r="O100" t="s">
+        <v>165</v>
+      </c>
+      <c r="P100" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q100">
+        <v>2.25</v>
+      </c>
+      <c r="R100">
+        <v>2.2</v>
+      </c>
+      <c r="S100">
+        <v>4.5</v>
+      </c>
+      <c r="T100">
+        <v>1.36</v>
+      </c>
+      <c r="U100">
+        <v>2.9</v>
+      </c>
+      <c r="V100">
+        <v>2.62</v>
+      </c>
+      <c r="W100">
+        <v>1.42</v>
+      </c>
+      <c r="X100">
+        <v>6.8</v>
+      </c>
+      <c r="Y100">
+        <v>1.07</v>
+      </c>
+      <c r="Z100">
+        <v>1.75</v>
+      </c>
+      <c r="AA100">
+        <v>3.5</v>
+      </c>
+      <c r="AB100">
+        <v>3.8</v>
+      </c>
+      <c r="AC100">
+        <v>1.05</v>
+      </c>
+      <c r="AD100">
+        <v>9.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.28</v>
+      </c>
+      <c r="AF100">
+        <v>3.65</v>
+      </c>
+      <c r="AG100">
+        <v>1.75</v>
+      </c>
+      <c r="AH100">
+        <v>1.85</v>
+      </c>
+      <c r="AI100">
+        <v>1.73</v>
+      </c>
+      <c r="AJ100">
+        <v>1.95</v>
+      </c>
+      <c r="AK100">
+        <v>1.18</v>
+      </c>
+      <c r="AL100">
+        <v>1.22</v>
+      </c>
+      <c r="AM100">
+        <v>2.05</v>
+      </c>
+      <c r="AN100">
+        <v>2.4</v>
+      </c>
+      <c r="AO100">
+        <v>1.17</v>
+      </c>
+      <c r="AP100">
+        <v>2.17</v>
+      </c>
+      <c r="AQ100">
+        <v>1.14</v>
+      </c>
+      <c r="AR100">
+        <v>1.78</v>
+      </c>
+      <c r="AS100">
+        <v>1.19</v>
+      </c>
+      <c r="AT100">
+        <v>2.97</v>
+      </c>
+      <c r="AU100">
+        <v>8</v>
+      </c>
+      <c r="AV100">
+        <v>8</v>
+      </c>
+      <c r="AW100">
+        <v>4</v>
+      </c>
+      <c r="AX100">
+        <v>4</v>
+      </c>
+      <c r="AY100">
+        <v>18</v>
+      </c>
+      <c r="AZ100">
+        <v>15</v>
+      </c>
+      <c r="BA100">
+        <v>7</v>
+      </c>
+      <c r="BB100">
+        <v>3</v>
+      </c>
+      <c r="BC100">
+        <v>10</v>
+      </c>
+      <c r="BD100">
+        <v>1.42</v>
+      </c>
+      <c r="BE100">
+        <v>7.5</v>
+      </c>
+      <c r="BF100">
+        <v>3.9</v>
+      </c>
+      <c r="BG100">
+        <v>1.18</v>
+      </c>
+      <c r="BH100">
+        <v>3.66</v>
+      </c>
+      <c r="BI100">
+        <v>1.4</v>
+      </c>
+      <c r="BJ100">
+        <v>2.64</v>
+      </c>
+      <c r="BK100">
+        <v>1.8</v>
+      </c>
+      <c r="BL100">
+        <v>2</v>
+      </c>
+      <c r="BM100">
+        <v>2.17</v>
+      </c>
+      <c r="BN100">
+        <v>1.58</v>
+      </c>
+      <c r="BO100">
+        <v>2.82</v>
+      </c>
+      <c r="BP100">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7468973</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45597.66666666666</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>77</v>
+      </c>
+      <c r="H101" t="s">
+        <v>87</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>90</v>
+      </c>
+      <c r="P101" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q101">
+        <v>3.9</v>
+      </c>
+      <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
+        <v>2.75</v>
+      </c>
+      <c r="T101">
+        <v>1.45</v>
+      </c>
+      <c r="U101">
+        <v>2.55</v>
+      </c>
+      <c r="V101">
+        <v>3</v>
+      </c>
+      <c r="W101">
+        <v>1.33</v>
+      </c>
+      <c r="X101">
+        <v>7.8</v>
+      </c>
+      <c r="Y101">
+        <v>1.05</v>
+      </c>
+      <c r="Z101">
+        <v>3.1</v>
+      </c>
+      <c r="AA101">
+        <v>3.1</v>
+      </c>
+      <c r="AB101">
+        <v>2.1</v>
+      </c>
+      <c r="AC101">
+        <v>1.07</v>
+      </c>
+      <c r="AD101">
+        <v>8</v>
+      </c>
+      <c r="AE101">
+        <v>1.38</v>
+      </c>
+      <c r="AF101">
+        <v>3</v>
+      </c>
+      <c r="AG101">
+        <v>2</v>
+      </c>
+      <c r="AH101">
+        <v>1.65</v>
+      </c>
+      <c r="AI101">
+        <v>1.83</v>
+      </c>
+      <c r="AJ101">
+        <v>1.85</v>
+      </c>
+      <c r="AK101">
+        <v>1.67</v>
+      </c>
+      <c r="AL101">
+        <v>1.28</v>
+      </c>
+      <c r="AM101">
+        <v>1.3</v>
+      </c>
+      <c r="AN101">
+        <v>0.17</v>
+      </c>
+      <c r="AO101">
+        <v>0.67</v>
+      </c>
+      <c r="AP101">
+        <v>0.14</v>
+      </c>
+      <c r="AQ101">
+        <v>1</v>
+      </c>
+      <c r="AR101">
+        <v>1.04</v>
+      </c>
+      <c r="AS101">
+        <v>1.08</v>
+      </c>
+      <c r="AT101">
+        <v>2.12</v>
+      </c>
+      <c r="AU101">
+        <v>0</v>
+      </c>
+      <c r="AV101">
+        <v>8</v>
+      </c>
+      <c r="AW101">
+        <v>5</v>
+      </c>
+      <c r="AX101">
+        <v>9</v>
+      </c>
+      <c r="AY101">
+        <v>8</v>
+      </c>
+      <c r="AZ101">
+        <v>20</v>
+      </c>
+      <c r="BA101">
+        <v>5</v>
+      </c>
+      <c r="BB101">
+        <v>11</v>
+      </c>
+      <c r="BC101">
+        <v>16</v>
+      </c>
+      <c r="BD101">
+        <v>2.28</v>
+      </c>
+      <c r="BE101">
+        <v>6.45</v>
+      </c>
+      <c r="BF101">
+        <v>2</v>
+      </c>
+      <c r="BG101">
+        <v>1.22</v>
+      </c>
+      <c r="BH101">
+        <v>3.35</v>
+      </c>
+      <c r="BI101">
+        <v>1.47</v>
+      </c>
+      <c r="BJ101">
+        <v>2.42</v>
+      </c>
+      <c r="BK101">
+        <v>1.88</v>
+      </c>
+      <c r="BL101">
+        <v>1.92</v>
+      </c>
+      <c r="BM101">
+        <v>2.34</v>
+      </c>
+      <c r="BN101">
+        <v>1.5</v>
+      </c>
+      <c r="BO101">
+        <v>3.02</v>
+      </c>
+      <c r="BP101">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7468966</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45597.66666666666</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s">
+        <v>80</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>90</v>
+      </c>
+      <c r="P102" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q102">
+        <v>2.95</v>
+      </c>
+      <c r="R102">
+        <v>1.95</v>
+      </c>
+      <c r="S102">
+        <v>3.65</v>
+      </c>
+      <c r="T102">
+        <v>1.45</v>
+      </c>
+      <c r="U102">
+        <v>2.55</v>
+      </c>
+      <c r="V102">
+        <v>3</v>
+      </c>
+      <c r="W102">
+        <v>1.33</v>
+      </c>
+      <c r="X102">
+        <v>7.9</v>
+      </c>
+      <c r="Y102">
+        <v>1.05</v>
+      </c>
+      <c r="Z102">
+        <v>2.4</v>
+      </c>
+      <c r="AA102">
+        <v>3.1</v>
+      </c>
+      <c r="AB102">
+        <v>2.62</v>
+      </c>
+      <c r="AC102">
+        <v>1.07</v>
+      </c>
+      <c r="AD102">
+        <v>8</v>
+      </c>
+      <c r="AE102">
+        <v>1.38</v>
+      </c>
+      <c r="AF102">
+        <v>3</v>
+      </c>
+      <c r="AG102">
+        <v>2.05</v>
+      </c>
+      <c r="AH102">
+        <v>1.61</v>
+      </c>
+      <c r="AI102">
+        <v>1.83</v>
+      </c>
+      <c r="AJ102">
+        <v>1.85</v>
+      </c>
+      <c r="AK102">
+        <v>1.35</v>
+      </c>
+      <c r="AL102">
+        <v>1.28</v>
+      </c>
+      <c r="AM102">
+        <v>1.57</v>
+      </c>
+      <c r="AN102">
+        <v>1.2</v>
+      </c>
+      <c r="AO102">
+        <v>1.17</v>
+      </c>
+      <c r="AP102">
+        <v>1.17</v>
+      </c>
+      <c r="AQ102">
+        <v>1.14</v>
+      </c>
+      <c r="AR102">
+        <v>1.45</v>
+      </c>
+      <c r="AS102">
+        <v>1.14</v>
+      </c>
+      <c r="AT102">
+        <v>2.59</v>
+      </c>
+      <c r="AU102">
+        <v>6</v>
+      </c>
+      <c r="AV102">
+        <v>2</v>
+      </c>
+      <c r="AW102">
+        <v>3</v>
+      </c>
+      <c r="AX102">
+        <v>2</v>
+      </c>
+      <c r="AY102">
+        <v>10</v>
+      </c>
+      <c r="AZ102">
+        <v>10</v>
+      </c>
+      <c r="BA102">
+        <v>5</v>
+      </c>
+      <c r="BB102">
+        <v>5</v>
+      </c>
+      <c r="BC102">
+        <v>10</v>
+      </c>
+      <c r="BD102">
+        <v>1.94</v>
+      </c>
+      <c r="BE102">
+        <v>6.35</v>
+      </c>
+      <c r="BF102">
+        <v>2.38</v>
+      </c>
+      <c r="BG102">
+        <v>1.25</v>
+      </c>
+      <c r="BH102">
+        <v>3.14</v>
+      </c>
+      <c r="BI102">
+        <v>1.51</v>
+      </c>
+      <c r="BJ102">
+        <v>2.32</v>
+      </c>
+      <c r="BK102">
+        <v>2</v>
+      </c>
+      <c r="BL102">
+        <v>1.8</v>
+      </c>
+      <c r="BM102">
+        <v>2.45</v>
+      </c>
+      <c r="BN102">
+        <v>1.46</v>
+      </c>
+      <c r="BO102">
+        <v>3.22</v>
+      </c>
+      <c r="BP102">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7468967</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45597.66666666666</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>70</v>
+      </c>
+      <c r="H103" t="s">
+        <v>86</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>166</v>
+      </c>
+      <c r="P103" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q103">
+        <v>4.2</v>
+      </c>
+      <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>2.55</v>
+      </c>
+      <c r="T103">
+        <v>1.42</v>
+      </c>
+      <c r="U103">
+        <v>2.65</v>
+      </c>
+      <c r="V103">
+        <v>2.88</v>
+      </c>
+      <c r="W103">
+        <v>1.36</v>
+      </c>
+      <c r="X103">
+        <v>7.9</v>
+      </c>
+      <c r="Y103">
+        <v>1.05</v>
+      </c>
+      <c r="Z103">
+        <v>3.6</v>
+      </c>
+      <c r="AA103">
+        <v>3.4</v>
+      </c>
+      <c r="AB103">
+        <v>1.85</v>
+      </c>
+      <c r="AC103">
+        <v>1.06</v>
+      </c>
+      <c r="AD103">
+        <v>8.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.33</v>
+      </c>
+      <c r="AF103">
+        <v>3.25</v>
+      </c>
+      <c r="AG103">
+        <v>1.85</v>
+      </c>
+      <c r="AH103">
+        <v>1.8</v>
+      </c>
+      <c r="AI103">
+        <v>1.77</v>
+      </c>
+      <c r="AJ103">
+        <v>1.9</v>
+      </c>
+      <c r="AK103">
+        <v>1.85</v>
+      </c>
+      <c r="AL103">
+        <v>1.25</v>
+      </c>
+      <c r="AM103">
+        <v>1.22</v>
+      </c>
+      <c r="AN103">
+        <v>0.83</v>
+      </c>
+      <c r="AO103">
+        <v>1.33</v>
+      </c>
+      <c r="AP103">
+        <v>1.14</v>
+      </c>
+      <c r="AQ103">
+        <v>1.14</v>
+      </c>
+      <c r="AR103">
+        <v>1.26</v>
+      </c>
+      <c r="AS103">
+        <v>1.56</v>
+      </c>
+      <c r="AT103">
+        <v>2.82</v>
+      </c>
+      <c r="AU103">
+        <v>5</v>
+      </c>
+      <c r="AV103">
+        <v>3</v>
+      </c>
+      <c r="AW103">
+        <v>4</v>
+      </c>
+      <c r="AX103">
+        <v>4</v>
+      </c>
+      <c r="AY103">
+        <v>13</v>
+      </c>
+      <c r="AZ103">
+        <v>10</v>
+      </c>
+      <c r="BA103">
+        <v>2</v>
+      </c>
+      <c r="BB103">
+        <v>8</v>
+      </c>
+      <c r="BC103">
+        <v>10</v>
+      </c>
+      <c r="BD103">
+        <v>3.3</v>
+      </c>
+      <c r="BE103">
+        <v>7.1</v>
+      </c>
+      <c r="BF103">
+        <v>1.54</v>
+      </c>
+      <c r="BG103">
+        <v>1.18</v>
+      </c>
+      <c r="BH103">
+        <v>3.65</v>
+      </c>
+      <c r="BI103">
+        <v>1.41</v>
+      </c>
+      <c r="BJ103">
+        <v>2.6</v>
+      </c>
+      <c r="BK103">
+        <v>1.75</v>
+      </c>
+      <c r="BL103">
+        <v>2.01</v>
+      </c>
+      <c r="BM103">
+        <v>2.17</v>
+      </c>
+      <c r="BN103">
+        <v>1.58</v>
+      </c>
+      <c r="BO103">
+        <v>2.82</v>
+      </c>
+      <c r="BP103">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7468972</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45597.66666666666</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>72</v>
+      </c>
+      <c r="H104" t="s">
+        <v>73</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104" t="s">
+        <v>167</v>
+      </c>
+      <c r="P104" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q104">
+        <v>2.75</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>3.95</v>
+      </c>
+      <c r="T104">
+        <v>1.45</v>
+      </c>
+      <c r="U104">
+        <v>2.55</v>
+      </c>
+      <c r="V104">
+        <v>3.1</v>
+      </c>
+      <c r="W104">
+        <v>1.33</v>
+      </c>
+      <c r="X104">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y104">
+        <v>1.03</v>
+      </c>
+      <c r="Z104">
+        <v>2.25</v>
+      </c>
+      <c r="AA104">
+        <v>3</v>
+      </c>
+      <c r="AB104">
+        <v>2.9</v>
+      </c>
+      <c r="AC104">
+        <v>1.07</v>
+      </c>
+      <c r="AD104">
+        <v>8</v>
+      </c>
+      <c r="AE104">
+        <v>1.36</v>
+      </c>
+      <c r="AF104">
+        <v>3.1</v>
+      </c>
+      <c r="AG104">
+        <v>2.1</v>
+      </c>
+      <c r="AH104">
+        <v>1.61</v>
+      </c>
+      <c r="AI104">
+        <v>1.83</v>
+      </c>
+      <c r="AJ104">
+        <v>1.83</v>
+      </c>
+      <c r="AK104">
+        <v>1.28</v>
+      </c>
+      <c r="AL104">
+        <v>1.28</v>
+      </c>
+      <c r="AM104">
+        <v>1.7</v>
+      </c>
+      <c r="AN104">
+        <v>2.5</v>
+      </c>
+      <c r="AO104">
+        <v>0.6</v>
+      </c>
+      <c r="AP104">
+        <v>2.57</v>
+      </c>
+      <c r="AQ104">
+        <v>0.5</v>
+      </c>
+      <c r="AR104">
+        <v>1.57</v>
+      </c>
+      <c r="AS104">
+        <v>1.18</v>
+      </c>
+      <c r="AT104">
+        <v>2.75</v>
+      </c>
+      <c r="AU104">
+        <v>8</v>
+      </c>
+      <c r="AV104">
+        <v>7</v>
+      </c>
+      <c r="AW104">
+        <v>1</v>
+      </c>
+      <c r="AX104">
+        <v>4</v>
+      </c>
+      <c r="AY104">
+        <v>14</v>
+      </c>
+      <c r="AZ104">
+        <v>13</v>
+      </c>
+      <c r="BA104">
+        <v>3</v>
+      </c>
+      <c r="BB104">
+        <v>1</v>
+      </c>
+      <c r="BC104">
+        <v>4</v>
+      </c>
+      <c r="BD104">
+        <v>1.68</v>
+      </c>
+      <c r="BE104">
+        <v>6.65</v>
+      </c>
+      <c r="BF104">
+        <v>2.88</v>
+      </c>
+      <c r="BG104">
+        <v>1.25</v>
+      </c>
+      <c r="BH104">
+        <v>3.14</v>
+      </c>
+      <c r="BI104">
+        <v>1.5</v>
+      </c>
+      <c r="BJ104">
+        <v>2.35</v>
+      </c>
+      <c r="BK104">
+        <v>1.95</v>
+      </c>
+      <c r="BL104">
+        <v>1.85</v>
+      </c>
+      <c r="BM104">
+        <v>2.42</v>
+      </c>
+      <c r="BN104">
+        <v>1.47</v>
+      </c>
+      <c r="BO104">
+        <v>3.22</v>
+      </c>
+      <c r="BP104">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7468971</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45597.66666666666</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>84</v>
+      </c>
+      <c r="H105" t="s">
+        <v>82</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>168</v>
+      </c>
+      <c r="P105" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q105">
+        <v>3</v>
+      </c>
+      <c r="R105">
+        <v>2.05</v>
+      </c>
+      <c r="S105">
+        <v>3.35</v>
+      </c>
+      <c r="T105">
+        <v>1.4</v>
+      </c>
+      <c r="U105">
+        <v>2.75</v>
+      </c>
+      <c r="V105">
+        <v>2.8</v>
+      </c>
+      <c r="W105">
+        <v>1.38</v>
+      </c>
+      <c r="X105">
+        <v>7</v>
+      </c>
+      <c r="Y105">
+        <v>1.06</v>
+      </c>
+      <c r="Z105">
+        <v>2.3</v>
+      </c>
+      <c r="AA105">
         <v>3.2</v>
       </c>
-      <c r="AC99">
-        <v>1.07</v>
-      </c>
-      <c r="AD99">
+      <c r="AB105">
+        <v>2.7</v>
+      </c>
+      <c r="AC105">
+        <v>1.05</v>
+      </c>
+      <c r="AD105">
+        <v>9</v>
+      </c>
+      <c r="AE105">
+        <v>1.3</v>
+      </c>
+      <c r="AF105">
+        <v>3.45</v>
+      </c>
+      <c r="AG105">
+        <v>1.83</v>
+      </c>
+      <c r="AH105">
+        <v>1.83</v>
+      </c>
+      <c r="AI105">
+        <v>1.67</v>
+      </c>
+      <c r="AJ105">
+        <v>2.05</v>
+      </c>
+      <c r="AK105">
+        <v>1.4</v>
+      </c>
+      <c r="AL105">
+        <v>1.25</v>
+      </c>
+      <c r="AM105">
+        <v>1.55</v>
+      </c>
+      <c r="AN105">
+        <v>2.4</v>
+      </c>
+      <c r="AO105">
+        <v>0.83</v>
+      </c>
+      <c r="AP105">
+        <v>2.5</v>
+      </c>
+      <c r="AQ105">
+        <v>0.71</v>
+      </c>
+      <c r="AR105">
+        <v>1.41</v>
+      </c>
+      <c r="AS105">
+        <v>1.38</v>
+      </c>
+      <c r="AT105">
+        <v>2.79</v>
+      </c>
+      <c r="AU105">
+        <v>5</v>
+      </c>
+      <c r="AV105">
+        <v>3</v>
+      </c>
+      <c r="AW105">
+        <v>0</v>
+      </c>
+      <c r="AX105">
         <v>8</v>
       </c>
-      <c r="AE99">
-        <v>1.35</v>
-      </c>
-      <c r="AF99">
-        <v>3.1</v>
-      </c>
-      <c r="AG99">
-        <v>1.95</v>
-      </c>
-      <c r="AH99">
-        <v>1.73</v>
-      </c>
-      <c r="AI99">
-        <v>1.8</v>
-      </c>
-      <c r="AJ99">
-        <v>1.91</v>
-      </c>
-      <c r="AK99">
-        <v>1.35</v>
-      </c>
-      <c r="AL99">
-        <v>1.28</v>
-      </c>
-      <c r="AM99">
-        <v>1.6</v>
-      </c>
-      <c r="AN99">
-        <v>2.6</v>
-      </c>
-      <c r="AO99">
-        <v>1.2</v>
-      </c>
-      <c r="AP99">
-        <v>2.33</v>
-      </c>
-      <c r="AQ99">
-        <v>1.17</v>
-      </c>
-      <c r="AR99">
+      <c r="AY105">
+        <v>8</v>
+      </c>
+      <c r="AZ105">
+        <v>15</v>
+      </c>
+      <c r="BA105">
+        <v>2</v>
+      </c>
+      <c r="BB105">
+        <v>10</v>
+      </c>
+      <c r="BC105">
+        <v>12</v>
+      </c>
+      <c r="BD105">
+        <v>1.77</v>
+      </c>
+      <c r="BE105">
+        <v>6.5</v>
+      </c>
+      <c r="BF105">
+        <v>2.67</v>
+      </c>
+      <c r="BG105">
+        <v>1.27</v>
+      </c>
+      <c r="BH105">
+        <v>3.04</v>
+      </c>
+      <c r="BI105">
+        <v>1.55</v>
+      </c>
+      <c r="BJ105">
+        <v>2.23</v>
+      </c>
+      <c r="BK105">
+        <v>1.98</v>
+      </c>
+      <c r="BL105">
+        <v>1.77</v>
+      </c>
+      <c r="BM105">
+        <v>2.57</v>
+      </c>
+      <c r="BN105">
+        <v>1.42</v>
+      </c>
+      <c r="BO105">
+        <v>3.44</v>
+      </c>
+      <c r="BP105">
         <v>1.21</v>
-      </c>
-      <c r="AS99">
-        <v>1.25</v>
-      </c>
-      <c r="AT99">
-        <v>2.46</v>
-      </c>
-      <c r="AU99">
-        <v>3</v>
-      </c>
-      <c r="AV99">
-        <v>7</v>
-      </c>
-      <c r="AW99">
-        <v>1</v>
-      </c>
-      <c r="AX99">
-        <v>6</v>
-      </c>
-      <c r="AY99">
-        <v>8</v>
-      </c>
-      <c r="AZ99">
-        <v>18</v>
-      </c>
-      <c r="BA99">
-        <v>2</v>
-      </c>
-      <c r="BB99">
-        <v>3</v>
-      </c>
-      <c r="BC99">
-        <v>5</v>
-      </c>
-      <c r="BD99">
-        <v>1.78</v>
-      </c>
-      <c r="BE99">
-        <v>8.4</v>
-      </c>
-      <c r="BF99">
-        <v>2.47</v>
-      </c>
-      <c r="BG99">
-        <v>1.24</v>
-      </c>
-      <c r="BH99">
-        <v>3.22</v>
-      </c>
-      <c r="BI99">
-        <v>1.49</v>
-      </c>
-      <c r="BJ99">
-        <v>2.38</v>
-      </c>
-      <c r="BK99">
-        <v>1.95</v>
-      </c>
-      <c r="BL99">
-        <v>1.85</v>
-      </c>
-      <c r="BM99">
-        <v>2.4</v>
-      </c>
-      <c r="BN99">
-        <v>1.48</v>
-      </c>
-      <c r="BO99">
-        <v>3.14</v>
-      </c>
-      <c r="BP99">
-        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -521,6 +521,12 @@
   </si>
   <si>
     <t>['5', '89']</t>
+  </si>
+  <si>
+    <t>['31', '57']</t>
+  </si>
+  <si>
+    <t>['1', '57', '67']</t>
   </si>
   <si>
     <t>['16', '45+2']</t>
@@ -1047,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1312,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1590,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1.14</v>
@@ -1718,7 +1724,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2414,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -2542,7 +2548,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2620,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ8">
         <v>2.17</v>
@@ -2954,7 +2960,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3035,7 +3041,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3572,7 +3578,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3653,7 +3659,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ13">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4190,7 +4196,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4396,7 +4402,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4683,7 +4689,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5014,7 +5020,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5092,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -5220,7 +5226,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5426,7 +5432,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5504,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5838,7 +5844,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5916,7 +5922,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ24">
         <v>1.17</v>
@@ -6044,7 +6050,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6125,7 +6131,7 @@
         <v>0.14</v>
       </c>
       <c r="AQ25">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6250,7 +6256,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6662,7 +6668,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -8104,7 +8110,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8310,7 +8316,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8391,7 +8397,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ36">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.66</v>
@@ -8516,7 +8522,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8722,7 +8728,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8928,7 +8934,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9009,7 +9015,7 @@
         <v>0.14</v>
       </c>
       <c r="AQ39">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR39">
         <v>0.8</v>
@@ -9340,7 +9346,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9418,7 +9424,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ41">
         <v>1.17</v>
@@ -9546,7 +9552,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9752,7 +9758,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10036,7 +10042,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ44">
         <v>0.17</v>
@@ -10370,7 +10376,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10576,7 +10582,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -10654,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ47">
         <v>0.5</v>
@@ -11684,10 +11690,10 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.34</v>
@@ -11812,7 +11818,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11893,7 +11899,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.76</v>
@@ -12018,7 +12024,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12224,7 +12230,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12636,7 +12642,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12842,7 +12848,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13048,7 +13054,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13254,7 +13260,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13666,7 +13672,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13872,7 +13878,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13953,7 +13959,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ63">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.33</v>
@@ -14078,7 +14084,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14156,7 +14162,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ64">
         <v>0.8</v>
@@ -14902,7 +14908,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14983,7 +14989,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ68">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
         <v>1.95</v>
@@ -15108,7 +15114,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15186,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>1.4</v>
@@ -15314,7 +15320,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15392,7 +15398,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ70">
         <v>1.14</v>
@@ -15520,7 +15526,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15726,7 +15732,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15932,7 +15938,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16138,7 +16144,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16216,7 +16222,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ74">
         <v>0.71</v>
@@ -16344,7 +16350,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16550,7 +16556,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16837,7 +16843,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ77">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -17168,7 +17174,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17374,7 +17380,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17580,7 +17586,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -17867,7 +17873,7 @@
         <v>2</v>
       </c>
       <c r="AQ82">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -18404,7 +18410,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18610,7 +18616,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19228,7 +19234,7 @@
         <v>158</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19309,7 +19315,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ89">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.72</v>
@@ -19434,7 +19440,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19512,7 +19518,7 @@
         <v>0.2</v>
       </c>
       <c r="AP90">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ90">
         <v>0.67</v>
@@ -19846,7 +19852,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20133,7 +20139,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ93">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20464,7 +20470,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -20670,7 +20676,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21082,7 +21088,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21366,7 +21372,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ99">
         <v>0.17</v>
@@ -21461,10 +21467,10 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45596.875</v>
+        <v>45597.66666666666</v>
       </c>
       <c r="F100">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G100" t="s">
         <v>85</v>
@@ -21494,7 +21500,7 @@
         <v>165</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>2.25</v>
@@ -21670,7 +21676,7 @@
         <v>45597.66666666666</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G101" t="s">
         <v>77</v>
@@ -21876,7 +21882,7 @@
         <v>45597.66666666666</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G102" t="s">
         <v>79</v>
@@ -22082,7 +22088,7 @@
         <v>45597.66666666666</v>
       </c>
       <c r="F103">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G103" t="s">
         <v>70</v>
@@ -22112,7 +22118,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>4.2</v>
@@ -22494,7 +22500,7 @@
         <v>45597.66666666666</v>
       </c>
       <c r="F105">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G105" t="s">
         <v>84</v>
@@ -22681,6 +22687,624 @@
       </c>
       <c r="BP105">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7468968</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45598.41666666666</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>76</v>
+      </c>
+      <c r="H106" t="s">
+        <v>83</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>169</v>
+      </c>
+      <c r="P106" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q106">
+        <v>2.75</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>3.9</v>
+      </c>
+      <c r="T106">
+        <v>1.45</v>
+      </c>
+      <c r="U106">
+        <v>2.55</v>
+      </c>
+      <c r="V106">
+        <v>3.1</v>
+      </c>
+      <c r="W106">
+        <v>1.33</v>
+      </c>
+      <c r="X106">
+        <v>7.9</v>
+      </c>
+      <c r="Y106">
+        <v>1.05</v>
+      </c>
+      <c r="Z106">
+        <v>2.13</v>
+      </c>
+      <c r="AA106">
+        <v>3.3</v>
+      </c>
+      <c r="AB106">
+        <v>3.35</v>
+      </c>
+      <c r="AC106">
+        <v>1.07</v>
+      </c>
+      <c r="AD106">
+        <v>8</v>
+      </c>
+      <c r="AE106">
+        <v>1.38</v>
+      </c>
+      <c r="AF106">
+        <v>3</v>
+      </c>
+      <c r="AG106">
+        <v>2.11</v>
+      </c>
+      <c r="AH106">
+        <v>1.68</v>
+      </c>
+      <c r="AI106">
+        <v>1.83</v>
+      </c>
+      <c r="AJ106">
+        <v>1.85</v>
+      </c>
+      <c r="AK106">
+        <v>1.3</v>
+      </c>
+      <c r="AL106">
+        <v>1.28</v>
+      </c>
+      <c r="AM106">
+        <v>1.67</v>
+      </c>
+      <c r="AN106">
+        <v>1.17</v>
+      </c>
+      <c r="AO106">
+        <v>1.25</v>
+      </c>
+      <c r="AP106">
+        <v>1.43</v>
+      </c>
+      <c r="AQ106">
+        <v>1</v>
+      </c>
+      <c r="AR106">
+        <v>1.41</v>
+      </c>
+      <c r="AS106">
+        <v>1.17</v>
+      </c>
+      <c r="AT106">
+        <v>2.58</v>
+      </c>
+      <c r="AU106">
+        <v>3</v>
+      </c>
+      <c r="AV106">
+        <v>2</v>
+      </c>
+      <c r="AW106">
+        <v>3</v>
+      </c>
+      <c r="AX106">
+        <v>9</v>
+      </c>
+      <c r="AY106">
+        <v>7</v>
+      </c>
+      <c r="AZ106">
+        <v>17</v>
+      </c>
+      <c r="BA106">
+        <v>1</v>
+      </c>
+      <c r="BB106">
+        <v>11</v>
+      </c>
+      <c r="BC106">
+        <v>12</v>
+      </c>
+      <c r="BD106">
+        <v>1.45</v>
+      </c>
+      <c r="BE106">
+        <v>8.5</v>
+      </c>
+      <c r="BF106">
+        <v>3.33</v>
+      </c>
+      <c r="BG106">
+        <v>1.34</v>
+      </c>
+      <c r="BH106">
+        <v>2.98</v>
+      </c>
+      <c r="BI106">
+        <v>1.6</v>
+      </c>
+      <c r="BJ106">
+        <v>2.19</v>
+      </c>
+      <c r="BK106">
+        <v>2</v>
+      </c>
+      <c r="BL106">
+        <v>1.72</v>
+      </c>
+      <c r="BM106">
+        <v>2.6</v>
+      </c>
+      <c r="BN106">
+        <v>1.44</v>
+      </c>
+      <c r="BO106">
+        <v>3.5</v>
+      </c>
+      <c r="BP106">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7468970</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45598.66666666666</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>75</v>
+      </c>
+      <c r="H107" t="s">
+        <v>74</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>170</v>
+      </c>
+      <c r="P107" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q107">
+        <v>2.38</v>
+      </c>
+      <c r="R107">
+        <v>2.1</v>
+      </c>
+      <c r="S107">
+        <v>4.5</v>
+      </c>
+      <c r="T107">
+        <v>1.4</v>
+      </c>
+      <c r="U107">
+        <v>2.75</v>
+      </c>
+      <c r="V107">
+        <v>2.9</v>
+      </c>
+      <c r="W107">
+        <v>1.36</v>
+      </c>
+      <c r="X107">
+        <v>7.5</v>
+      </c>
+      <c r="Y107">
+        <v>1.06</v>
+      </c>
+      <c r="Z107">
+        <v>1.65</v>
+      </c>
+      <c r="AA107">
+        <v>3.59</v>
+      </c>
+      <c r="AB107">
+        <v>4.77</v>
+      </c>
+      <c r="AC107">
+        <v>1.05</v>
+      </c>
+      <c r="AD107">
+        <v>9</v>
+      </c>
+      <c r="AE107">
+        <v>1.3</v>
+      </c>
+      <c r="AF107">
+        <v>3.35</v>
+      </c>
+      <c r="AG107">
+        <v>1.96</v>
+      </c>
+      <c r="AH107">
+        <v>1.76</v>
+      </c>
+      <c r="AI107">
+        <v>1.85</v>
+      </c>
+      <c r="AJ107">
+        <v>1.83</v>
+      </c>
+      <c r="AK107">
+        <v>1.2</v>
+      </c>
+      <c r="AL107">
+        <v>1.22</v>
+      </c>
+      <c r="AM107">
+        <v>2</v>
+      </c>
+      <c r="AN107">
+        <v>1.67</v>
+      </c>
+      <c r="AO107">
+        <v>0.6</v>
+      </c>
+      <c r="AP107">
+        <v>1.86</v>
+      </c>
+      <c r="AQ107">
+        <v>0.5</v>
+      </c>
+      <c r="AR107">
+        <v>1.74</v>
+      </c>
+      <c r="AS107">
+        <v>1.06</v>
+      </c>
+      <c r="AT107">
+        <v>2.8</v>
+      </c>
+      <c r="AU107">
+        <v>9</v>
+      </c>
+      <c r="AV107">
+        <v>9</v>
+      </c>
+      <c r="AW107">
+        <v>6</v>
+      </c>
+      <c r="AX107">
+        <v>8</v>
+      </c>
+      <c r="AY107">
+        <v>19</v>
+      </c>
+      <c r="AZ107">
+        <v>20</v>
+      </c>
+      <c r="BA107">
+        <v>4</v>
+      </c>
+      <c r="BB107">
+        <v>8</v>
+      </c>
+      <c r="BC107">
+        <v>12</v>
+      </c>
+      <c r="BD107">
+        <v>1.64</v>
+      </c>
+      <c r="BE107">
+        <v>8</v>
+      </c>
+      <c r="BF107">
+        <v>2.77</v>
+      </c>
+      <c r="BG107">
+        <v>1.31</v>
+      </c>
+      <c r="BH107">
+        <v>3.15</v>
+      </c>
+      <c r="BI107">
+        <v>1.55</v>
+      </c>
+      <c r="BJ107">
+        <v>2.29</v>
+      </c>
+      <c r="BK107">
+        <v>2</v>
+      </c>
+      <c r="BL107">
+        <v>1.8</v>
+      </c>
+      <c r="BM107">
+        <v>2.47</v>
+      </c>
+      <c r="BN107">
+        <v>1.48</v>
+      </c>
+      <c r="BO107">
+        <v>3.3</v>
+      </c>
+      <c r="BP107">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7468965</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45600.69791666666</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>71</v>
+      </c>
+      <c r="H108" t="s">
+        <v>78</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108" t="s">
+        <v>90</v>
+      </c>
+      <c r="P108" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q108">
+        <v>4.5</v>
+      </c>
+      <c r="R108">
+        <v>1.9</v>
+      </c>
+      <c r="S108">
+        <v>2.7</v>
+      </c>
+      <c r="T108">
+        <v>1.55</v>
+      </c>
+      <c r="U108">
+        <v>2.3</v>
+      </c>
+      <c r="V108">
+        <v>3.55</v>
+      </c>
+      <c r="W108">
+        <v>1.25</v>
+      </c>
+      <c r="X108">
+        <v>10.5</v>
+      </c>
+      <c r="Y108">
+        <v>1.01</v>
+      </c>
+      <c r="Z108">
+        <v>4.28</v>
+      </c>
+      <c r="AA108">
+        <v>3.21</v>
+      </c>
+      <c r="AB108">
+        <v>1.91</v>
+      </c>
+      <c r="AC108">
+        <v>1.1</v>
+      </c>
+      <c r="AD108">
+        <v>6.5</v>
+      </c>
+      <c r="AE108">
+        <v>1.48</v>
+      </c>
+      <c r="AF108">
+        <v>2.37</v>
+      </c>
+      <c r="AG108">
+        <v>2.6</v>
+      </c>
+      <c r="AH108">
+        <v>1.47</v>
+      </c>
+      <c r="AI108">
+        <v>2.1</v>
+      </c>
+      <c r="AJ108">
+        <v>1.62</v>
+      </c>
+      <c r="AK108">
+        <v>1.77</v>
+      </c>
+      <c r="AL108">
+        <v>1.3</v>
+      </c>
+      <c r="AM108">
+        <v>1.22</v>
+      </c>
+      <c r="AN108">
+        <v>2.5</v>
+      </c>
+      <c r="AO108">
+        <v>1.2</v>
+      </c>
+      <c r="AP108">
+        <v>2</v>
+      </c>
+      <c r="AQ108">
+        <v>1.5</v>
+      </c>
+      <c r="AR108">
+        <v>1.07</v>
+      </c>
+      <c r="AS108">
+        <v>1.44</v>
+      </c>
+      <c r="AT108">
+        <v>2.51</v>
+      </c>
+      <c r="AU108">
+        <v>5</v>
+      </c>
+      <c r="AV108">
+        <v>7</v>
+      </c>
+      <c r="AW108">
+        <v>4</v>
+      </c>
+      <c r="AX108">
+        <v>3</v>
+      </c>
+      <c r="AY108">
+        <v>16</v>
+      </c>
+      <c r="AZ108">
+        <v>11</v>
+      </c>
+      <c r="BA108">
+        <v>6</v>
+      </c>
+      <c r="BB108">
+        <v>7</v>
+      </c>
+      <c r="BC108">
+        <v>13</v>
+      </c>
+      <c r="BD108">
+        <v>2.52</v>
+      </c>
+      <c r="BE108">
+        <v>7</v>
+      </c>
+      <c r="BF108">
+        <v>1.82</v>
+      </c>
+      <c r="BG108">
+        <v>1.85</v>
+      </c>
+      <c r="BH108">
+        <v>1.85</v>
+      </c>
+      <c r="BI108">
+        <v>2.44</v>
+      </c>
+      <c r="BJ108">
+        <v>1.49</v>
+      </c>
+      <c r="BK108">
+        <v>3.38</v>
+      </c>
+      <c r="BL108">
+        <v>1.27</v>
+      </c>
+      <c r="BM108">
+        <v>4.75</v>
+      </c>
+      <c r="BN108">
+        <v>1.1</v>
+      </c>
+      <c r="BO108">
+        <v>4.9</v>
+      </c>
+      <c r="BP108">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,18 @@
     <t>['1', '57', '67']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['23', '35', '68', '70', '76']</t>
+  </si>
+  <si>
+    <t>['30', '65']</t>
+  </si>
+  <si>
+    <t>['48', '64']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -692,6 +704,12 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['14', '90+4']</t>
+  </si>
+  <si>
+    <t>['45+1', '89', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP108"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,7 +1330,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1596,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ3">
         <v>1.14</v>
@@ -1724,7 +1742,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1805,7 +1823,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ4">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2008,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2214,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1.14</v>
@@ -2423,7 +2441,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2548,7 +2566,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2960,7 +2978,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3247,7 +3265,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ11">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3450,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>1.2</v>
@@ -3578,7 +3596,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3656,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -4196,7 +4214,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4277,7 +4295,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ16">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4402,7 +4420,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4483,7 +4501,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ17">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4892,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ19">
         <v>0.17</v>
@@ -5020,7 +5038,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5098,10 +5116,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -5226,7 +5244,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5432,7 +5450,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5844,7 +5862,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5925,7 +5943,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.39</v>
@@ -6050,7 +6068,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6256,7 +6274,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6334,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>0.71</v>
@@ -6540,7 +6558,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ27">
         <v>1.14</v>
@@ -6668,7 +6686,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6952,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
         <v>0.17</v>
@@ -7367,7 +7385,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ31">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR31">
         <v>1.38</v>
@@ -7573,7 +7591,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>0.82</v>
@@ -7985,7 +8003,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -8110,7 +8128,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8188,7 +8206,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ35">
         <v>1.2</v>
@@ -8316,7 +8334,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8522,7 +8540,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8600,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>0.8</v>
@@ -8728,7 +8746,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8934,7 +8952,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9346,7 +9364,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9427,7 +9445,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ41">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.73</v>
@@ -9552,7 +9570,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9758,7 +9776,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9836,7 +9854,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43">
         <v>1.14</v>
@@ -10248,10 +10266,10 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ45">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR45">
         <v>1.53</v>
@@ -10376,7 +10394,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10582,7 +10600,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -10869,7 +10887,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.82</v>
@@ -11075,7 +11093,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11690,7 +11708,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ52">
         <v>0.5</v>
@@ -11818,7 +11836,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12024,7 +12042,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12230,7 +12248,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12308,7 +12326,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ55">
         <v>1.14</v>
@@ -12642,7 +12660,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12720,7 +12738,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
         <v>0.71</v>
@@ -12848,7 +12866,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12929,7 +12947,7 @@
         <v>0.14</v>
       </c>
       <c r="AQ58">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR58">
         <v>1</v>
@@ -13054,7 +13072,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13135,7 +13153,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.53</v>
@@ -13260,7 +13278,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13338,7 +13356,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ60">
         <v>1.14</v>
@@ -13544,10 +13562,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR61">
         <v>1.29</v>
@@ -13672,7 +13690,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13750,7 +13768,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ62">
         <v>2.17</v>
@@ -13878,7 +13896,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14084,7 +14102,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14783,7 +14801,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.61</v>
@@ -14908,7 +14926,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14986,7 +15004,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ68">
         <v>0.5</v>
@@ -15114,7 +15132,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15192,10 +15210,10 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR69">
         <v>1.23</v>
@@ -15320,7 +15338,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15526,7 +15544,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15732,7 +15750,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15938,7 +15956,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16144,7 +16162,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16350,7 +16368,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16428,7 +16446,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ75">
         <v>0.8</v>
@@ -16556,7 +16574,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16634,10 +16652,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -16840,7 +16858,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>1.5</v>
@@ -17049,7 +17067,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR78">
         <v>1.7</v>
@@ -17174,7 +17192,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17252,7 +17270,7 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ79">
         <v>0.17</v>
@@ -17380,7 +17398,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17461,7 +17479,7 @@
         <v>3</v>
       </c>
       <c r="AQ80">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>2.09</v>
@@ -17586,7 +17604,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18410,7 +18428,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18616,7 +18634,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18694,7 +18712,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ86">
         <v>1.14</v>
@@ -18903,7 +18921,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ87">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.28</v>
@@ -19234,7 +19252,7 @@
         <v>158</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19440,7 +19458,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19521,7 +19539,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ90">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -19852,7 +19870,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -19930,10 +19948,10 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR92">
         <v>1.2</v>
@@ -20136,7 +20154,7 @@
         <v>1.5</v>
       </c>
       <c r="AP93">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ93">
         <v>1.5</v>
@@ -20342,10 +20360,10 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.21</v>
@@ -20470,7 +20488,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -20551,7 +20569,7 @@
         <v>3</v>
       </c>
       <c r="AQ95">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR95">
         <v>2.11</v>
@@ -20676,7 +20694,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -20960,7 +20978,7 @@
         <v>2.4</v>
       </c>
       <c r="AP97">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ97">
         <v>2.17</v>
@@ -21088,7 +21106,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21500,7 +21518,7 @@
         <v>165</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>2.25</v>
@@ -22118,7 +22136,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>4.2</v>
@@ -23148,7 +23166,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23226,7 +23244,7 @@
         <v>1.2</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ108">
         <v>1.5</v>
@@ -23305,6 +23323,1242 @@
       </c>
       <c r="BP108">
         <v>1.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7468975</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F109">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>73</v>
+      </c>
+      <c r="H109" t="s">
+        <v>77</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109" t="s">
+        <v>171</v>
+      </c>
+      <c r="P109" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q109">
+        <v>2.15</v>
+      </c>
+      <c r="R109">
+        <v>2.1</v>
+      </c>
+      <c r="S109">
+        <v>5.5</v>
+      </c>
+      <c r="T109">
+        <v>1.44</v>
+      </c>
+      <c r="U109">
+        <v>2.6</v>
+      </c>
+      <c r="V109">
+        <v>3</v>
+      </c>
+      <c r="W109">
+        <v>1.33</v>
+      </c>
+      <c r="X109">
+        <v>9</v>
+      </c>
+      <c r="Y109">
+        <v>1.07</v>
+      </c>
+      <c r="Z109">
+        <v>1.53</v>
+      </c>
+      <c r="AA109">
+        <v>3.6</v>
+      </c>
+      <c r="AB109">
+        <v>5.5</v>
+      </c>
+      <c r="AC109">
+        <v>1.06</v>
+      </c>
+      <c r="AD109">
+        <v>8.5</v>
+      </c>
+      <c r="AE109">
+        <v>1.36</v>
+      </c>
+      <c r="AF109">
+        <v>3.1</v>
+      </c>
+      <c r="AG109">
+        <v>2</v>
+      </c>
+      <c r="AH109">
+        <v>1.7</v>
+      </c>
+      <c r="AI109">
+        <v>2.1</v>
+      </c>
+      <c r="AJ109">
+        <v>1.62</v>
+      </c>
+      <c r="AK109">
+        <v>1.12</v>
+      </c>
+      <c r="AL109">
+        <v>1.2</v>
+      </c>
+      <c r="AM109">
+        <v>2.3</v>
+      </c>
+      <c r="AN109">
+        <v>2.67</v>
+      </c>
+      <c r="AO109">
+        <v>1.4</v>
+      </c>
+      <c r="AP109">
+        <v>2.43</v>
+      </c>
+      <c r="AQ109">
+        <v>1.33</v>
+      </c>
+      <c r="AR109">
+        <v>1.6</v>
+      </c>
+      <c r="AS109">
+        <v>1.04</v>
+      </c>
+      <c r="AT109">
+        <v>2.64</v>
+      </c>
+      <c r="AU109">
+        <v>10</v>
+      </c>
+      <c r="AV109">
+        <v>5</v>
+      </c>
+      <c r="AW109">
+        <v>4</v>
+      </c>
+      <c r="AX109">
+        <v>3</v>
+      </c>
+      <c r="AY109">
+        <v>25</v>
+      </c>
+      <c r="AZ109">
+        <v>9</v>
+      </c>
+      <c r="BA109">
+        <v>10</v>
+      </c>
+      <c r="BB109">
+        <v>0</v>
+      </c>
+      <c r="BC109">
+        <v>10</v>
+      </c>
+      <c r="BD109">
+        <v>1.34</v>
+      </c>
+      <c r="BE109">
+        <v>9.5</v>
+      </c>
+      <c r="BF109">
+        <v>4.07</v>
+      </c>
+      <c r="BG109">
+        <v>1.28</v>
+      </c>
+      <c r="BH109">
+        <v>3.5</v>
+      </c>
+      <c r="BI109">
+        <v>1.5</v>
+      </c>
+      <c r="BJ109">
+        <v>2.43</v>
+      </c>
+      <c r="BK109">
+        <v>1.92</v>
+      </c>
+      <c r="BL109">
+        <v>1.88</v>
+      </c>
+      <c r="BM109">
+        <v>2.5</v>
+      </c>
+      <c r="BN109">
+        <v>1.49</v>
+      </c>
+      <c r="BO109">
+        <v>3.45</v>
+      </c>
+      <c r="BP109">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7468976</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>81</v>
+      </c>
+      <c r="H110" t="s">
+        <v>84</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>3</v>
+      </c>
+      <c r="L110">
+        <v>5</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>6</v>
+      </c>
+      <c r="O110" t="s">
+        <v>172</v>
+      </c>
+      <c r="P110" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q110">
+        <v>2.55</v>
+      </c>
+      <c r="R110">
+        <v>2.1</v>
+      </c>
+      <c r="S110">
+        <v>4</v>
+      </c>
+      <c r="T110">
+        <v>1.38</v>
+      </c>
+      <c r="U110">
+        <v>2.8</v>
+      </c>
+      <c r="V110">
+        <v>2.65</v>
+      </c>
+      <c r="W110">
+        <v>1.42</v>
+      </c>
+      <c r="X110">
+        <v>7</v>
+      </c>
+      <c r="Y110">
+        <v>1.1</v>
+      </c>
+      <c r="Z110">
+        <v>1.9</v>
+      </c>
+      <c r="AA110">
+        <v>3.3</v>
+      </c>
+      <c r="AB110">
+        <v>3.45</v>
+      </c>
+      <c r="AC110">
+        <v>1.05</v>
+      </c>
+      <c r="AD110">
+        <v>9</v>
+      </c>
+      <c r="AE110">
+        <v>1.3</v>
+      </c>
+      <c r="AF110">
+        <v>3.45</v>
+      </c>
+      <c r="AG110">
+        <v>1.85</v>
+      </c>
+      <c r="AH110">
+        <v>1.85</v>
+      </c>
+      <c r="AI110">
+        <v>1.7</v>
+      </c>
+      <c r="AJ110">
+        <v>2</v>
+      </c>
+      <c r="AK110">
+        <v>1.25</v>
+      </c>
+      <c r="AL110">
+        <v>1.25</v>
+      </c>
+      <c r="AM110">
+        <v>1.77</v>
+      </c>
+      <c r="AN110">
+        <v>0.8</v>
+      </c>
+      <c r="AO110">
+        <v>1.17</v>
+      </c>
+      <c r="AP110">
+        <v>1.17</v>
+      </c>
+      <c r="AQ110">
+        <v>1</v>
+      </c>
+      <c r="AR110">
+        <v>1.85</v>
+      </c>
+      <c r="AS110">
+        <v>1.33</v>
+      </c>
+      <c r="AT110">
+        <v>3.18</v>
+      </c>
+      <c r="AU110">
+        <v>10</v>
+      </c>
+      <c r="AV110">
+        <v>5</v>
+      </c>
+      <c r="AW110">
+        <v>5</v>
+      </c>
+      <c r="AX110">
+        <v>3</v>
+      </c>
+      <c r="AY110">
+        <v>16</v>
+      </c>
+      <c r="AZ110">
+        <v>10</v>
+      </c>
+      <c r="BA110">
+        <v>3</v>
+      </c>
+      <c r="BB110">
+        <v>4</v>
+      </c>
+      <c r="BC110">
+        <v>7</v>
+      </c>
+      <c r="BD110">
+        <v>1.7</v>
+      </c>
+      <c r="BE110">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF110">
+        <v>2.56</v>
+      </c>
+      <c r="BG110">
+        <v>1.29</v>
+      </c>
+      <c r="BH110">
+        <v>3.25</v>
+      </c>
+      <c r="BI110">
+        <v>1.52</v>
+      </c>
+      <c r="BJ110">
+        <v>2.36</v>
+      </c>
+      <c r="BK110">
+        <v>1.85</v>
+      </c>
+      <c r="BL110">
+        <v>1.95</v>
+      </c>
+      <c r="BM110">
+        <v>2.39</v>
+      </c>
+      <c r="BN110">
+        <v>1.51</v>
+      </c>
+      <c r="BO110">
+        <v>3.2</v>
+      </c>
+      <c r="BP110">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7468977</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>74</v>
+      </c>
+      <c r="H111" t="s">
+        <v>72</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" t="s">
+        <v>90</v>
+      </c>
+      <c r="P111" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q111">
+        <v>2.7</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>3.95</v>
+      </c>
+      <c r="T111">
+        <v>1.42</v>
+      </c>
+      <c r="U111">
+        <v>2.65</v>
+      </c>
+      <c r="V111">
+        <v>2.88</v>
+      </c>
+      <c r="W111">
+        <v>1.36</v>
+      </c>
+      <c r="X111">
+        <v>8</v>
+      </c>
+      <c r="Y111">
+        <v>1.08</v>
+      </c>
+      <c r="Z111">
+        <v>2.05</v>
+      </c>
+      <c r="AA111">
+        <v>3.25</v>
+      </c>
+      <c r="AB111">
+        <v>3.15</v>
+      </c>
+      <c r="AC111">
+        <v>1.06</v>
+      </c>
+      <c r="AD111">
+        <v>8.5</v>
+      </c>
+      <c r="AE111">
+        <v>1.33</v>
+      </c>
+      <c r="AF111">
+        <v>3.2</v>
+      </c>
+      <c r="AG111">
+        <v>1.95</v>
+      </c>
+      <c r="AH111">
+        <v>1.75</v>
+      </c>
+      <c r="AI111">
+        <v>1.75</v>
+      </c>
+      <c r="AJ111">
+        <v>1.93</v>
+      </c>
+      <c r="AK111">
+        <v>1.3</v>
+      </c>
+      <c r="AL111">
+        <v>1.28</v>
+      </c>
+      <c r="AM111">
+        <v>1.7</v>
+      </c>
+      <c r="AN111">
+        <v>2.33</v>
+      </c>
+      <c r="AO111">
+        <v>0.8</v>
+      </c>
+      <c r="AP111">
+        <v>2</v>
+      </c>
+      <c r="AQ111">
+        <v>1.17</v>
+      </c>
+      <c r="AR111">
+        <v>1.14</v>
+      </c>
+      <c r="AS111">
+        <v>1.33</v>
+      </c>
+      <c r="AT111">
+        <v>2.47</v>
+      </c>
+      <c r="AU111">
+        <v>0</v>
+      </c>
+      <c r="AV111">
+        <v>5</v>
+      </c>
+      <c r="AW111">
+        <v>7</v>
+      </c>
+      <c r="AX111">
+        <v>2</v>
+      </c>
+      <c r="AY111">
+        <v>12</v>
+      </c>
+      <c r="AZ111">
+        <v>10</v>
+      </c>
+      <c r="BA111">
+        <v>2</v>
+      </c>
+      <c r="BB111">
+        <v>1</v>
+      </c>
+      <c r="BC111">
+        <v>3</v>
+      </c>
+      <c r="BD111">
+        <v>1.64</v>
+      </c>
+      <c r="BE111">
+        <v>8.35</v>
+      </c>
+      <c r="BF111">
+        <v>2.7</v>
+      </c>
+      <c r="BG111">
+        <v>1.29</v>
+      </c>
+      <c r="BH111">
+        <v>3.25</v>
+      </c>
+      <c r="BI111">
+        <v>1.52</v>
+      </c>
+      <c r="BJ111">
+        <v>2.36</v>
+      </c>
+      <c r="BK111">
+        <v>1.88</v>
+      </c>
+      <c r="BL111">
+        <v>1.92</v>
+      </c>
+      <c r="BM111">
+        <v>2.39</v>
+      </c>
+      <c r="BN111">
+        <v>1.51</v>
+      </c>
+      <c r="BO111">
+        <v>3.2</v>
+      </c>
+      <c r="BP111">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7468978</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>80</v>
+      </c>
+      <c r="H112" t="s">
+        <v>83</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112" t="s">
+        <v>173</v>
+      </c>
+      <c r="P112" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q112">
+        <v>3.5</v>
+      </c>
+      <c r="R112">
+        <v>1.87</v>
+      </c>
+      <c r="S112">
+        <v>3.4</v>
+      </c>
+      <c r="T112">
+        <v>1.56</v>
+      </c>
+      <c r="U112">
+        <v>2.29</v>
+      </c>
+      <c r="V112">
+        <v>3.7</v>
+      </c>
+      <c r="W112">
+        <v>1.24</v>
+      </c>
+      <c r="X112">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y112">
+        <v>1.03</v>
+      </c>
+      <c r="Z112">
+        <v>2.6</v>
+      </c>
+      <c r="AA112">
+        <v>2.9</v>
+      </c>
+      <c r="AB112">
+        <v>2.55</v>
+      </c>
+      <c r="AC112">
+        <v>1.1</v>
+      </c>
+      <c r="AD112">
+        <v>7</v>
+      </c>
+      <c r="AE112">
+        <v>1.49</v>
+      </c>
+      <c r="AF112">
+        <v>2.45</v>
+      </c>
+      <c r="AG112">
+        <v>2.4</v>
+      </c>
+      <c r="AH112">
+        <v>1.5</v>
+      </c>
+      <c r="AI112">
+        <v>2.05</v>
+      </c>
+      <c r="AJ112">
+        <v>1.72</v>
+      </c>
+      <c r="AK112">
+        <v>1.45</v>
+      </c>
+      <c r="AL112">
+        <v>1.33</v>
+      </c>
+      <c r="AM112">
+        <v>1.42</v>
+      </c>
+      <c r="AN112">
+        <v>1.4</v>
+      </c>
+      <c r="AO112">
+        <v>1</v>
+      </c>
+      <c r="AP112">
+        <v>1.33</v>
+      </c>
+      <c r="AQ112">
+        <v>1</v>
+      </c>
+      <c r="AR112">
+        <v>1.26</v>
+      </c>
+      <c r="AS112">
+        <v>1.25</v>
+      </c>
+      <c r="AT112">
+        <v>2.51</v>
+      </c>
+      <c r="AU112">
+        <v>6</v>
+      </c>
+      <c r="AV112">
+        <v>8</v>
+      </c>
+      <c r="AW112">
+        <v>5</v>
+      </c>
+      <c r="AX112">
+        <v>6</v>
+      </c>
+      <c r="AY112">
+        <v>13</v>
+      </c>
+      <c r="AZ112">
+        <v>15</v>
+      </c>
+      <c r="BA112">
+        <v>7</v>
+      </c>
+      <c r="BB112">
+        <v>4</v>
+      </c>
+      <c r="BC112">
+        <v>11</v>
+      </c>
+      <c r="BD112">
+        <v>1.7</v>
+      </c>
+      <c r="BE112">
+        <v>8.25</v>
+      </c>
+      <c r="BF112">
+        <v>2.57</v>
+      </c>
+      <c r="BG112">
+        <v>1.31</v>
+      </c>
+      <c r="BH112">
+        <v>3.15</v>
+      </c>
+      <c r="BI112">
+        <v>1.55</v>
+      </c>
+      <c r="BJ112">
+        <v>2.29</v>
+      </c>
+      <c r="BK112">
+        <v>1.98</v>
+      </c>
+      <c r="BL112">
+        <v>1.82</v>
+      </c>
+      <c r="BM112">
+        <v>2.47</v>
+      </c>
+      <c r="BN112">
+        <v>1.48</v>
+      </c>
+      <c r="BO112">
+        <v>3.3</v>
+      </c>
+      <c r="BP112">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7468979</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>71</v>
+      </c>
+      <c r="H113" t="s">
+        <v>70</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>174</v>
+      </c>
+      <c r="P113" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q113">
+        <v>3.6</v>
+      </c>
+      <c r="R113">
+        <v>1.95</v>
+      </c>
+      <c r="S113">
+        <v>3.5</v>
+      </c>
+      <c r="T113">
+        <v>1.57</v>
+      </c>
+      <c r="U113">
+        <v>2.25</v>
+      </c>
+      <c r="V113">
+        <v>3.75</v>
+      </c>
+      <c r="W113">
+        <v>1.25</v>
+      </c>
+      <c r="X113">
+        <v>11</v>
+      </c>
+      <c r="Y113">
+        <v>1.05</v>
+      </c>
+      <c r="Z113">
+        <v>2.94</v>
+      </c>
+      <c r="AA113">
+        <v>4.18</v>
+      </c>
+      <c r="AB113">
+        <v>1.89</v>
+      </c>
+      <c r="AC113">
+        <v>1.11</v>
+      </c>
+      <c r="AD113">
+        <v>6.25</v>
+      </c>
+      <c r="AE113">
+        <v>1.5</v>
+      </c>
+      <c r="AF113">
+        <v>2.4</v>
+      </c>
+      <c r="AG113">
+        <v>2.4</v>
+      </c>
+      <c r="AH113">
+        <v>1.5</v>
+      </c>
+      <c r="AI113">
+        <v>2.1</v>
+      </c>
+      <c r="AJ113">
+        <v>1.67</v>
+      </c>
+      <c r="AK113">
+        <v>1.42</v>
+      </c>
+      <c r="AL113">
+        <v>1.33</v>
+      </c>
+      <c r="AM113">
+        <v>1.42</v>
+      </c>
+      <c r="AN113">
+        <v>2</v>
+      </c>
+      <c r="AO113">
+        <v>1.4</v>
+      </c>
+      <c r="AP113">
+        <v>2.17</v>
+      </c>
+      <c r="AQ113">
+        <v>1.17</v>
+      </c>
+      <c r="AR113">
+        <v>1.1</v>
+      </c>
+      <c r="AS113">
+        <v>1.21</v>
+      </c>
+      <c r="AT113">
+        <v>2.31</v>
+      </c>
+      <c r="AU113">
+        <v>8</v>
+      </c>
+      <c r="AV113">
+        <v>5</v>
+      </c>
+      <c r="AW113">
+        <v>6</v>
+      </c>
+      <c r="AX113">
+        <v>4</v>
+      </c>
+      <c r="AY113">
+        <v>16</v>
+      </c>
+      <c r="AZ113">
+        <v>14</v>
+      </c>
+      <c r="BA113">
+        <v>3</v>
+      </c>
+      <c r="BB113">
+        <v>4</v>
+      </c>
+      <c r="BC113">
+        <v>7</v>
+      </c>
+      <c r="BD113">
+        <v>1.97</v>
+      </c>
+      <c r="BE113">
+        <v>7.9</v>
+      </c>
+      <c r="BF113">
+        <v>2.1</v>
+      </c>
+      <c r="BG113">
+        <v>1.37</v>
+      </c>
+      <c r="BH113">
+        <v>2.83</v>
+      </c>
+      <c r="BI113">
+        <v>1.65</v>
+      </c>
+      <c r="BJ113">
+        <v>2.1</v>
+      </c>
+      <c r="BK113">
+        <v>2.08</v>
+      </c>
+      <c r="BL113">
+        <v>1.67</v>
+      </c>
+      <c r="BM113">
+        <v>2.73</v>
+      </c>
+      <c r="BN113">
+        <v>1.4</v>
+      </c>
+      <c r="BO113">
+        <v>3.7</v>
+      </c>
+      <c r="BP113">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7468980</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45604.66666666666</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>87</v>
+      </c>
+      <c r="H114" t="s">
+        <v>79</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>90</v>
+      </c>
+      <c r="P114" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q114">
+        <v>2.85</v>
+      </c>
+      <c r="R114">
+        <v>2.05</v>
+      </c>
+      <c r="S114">
+        <v>3.55</v>
+      </c>
+      <c r="T114">
+        <v>1.42</v>
+      </c>
+      <c r="U114">
+        <v>2.65</v>
+      </c>
+      <c r="V114">
+        <v>2.95</v>
+      </c>
+      <c r="W114">
+        <v>1.35</v>
+      </c>
+      <c r="X114">
+        <v>8</v>
+      </c>
+      <c r="Y114">
+        <v>1.08</v>
+      </c>
+      <c r="Z114">
+        <v>2.15</v>
+      </c>
+      <c r="AA114">
+        <v>3.3</v>
+      </c>
+      <c r="AB114">
+        <v>2.85</v>
+      </c>
+      <c r="AC114">
+        <v>1.05</v>
+      </c>
+      <c r="AD114">
+        <v>9</v>
+      </c>
+      <c r="AE114">
+        <v>1.33</v>
+      </c>
+      <c r="AF114">
+        <v>3.3</v>
+      </c>
+      <c r="AG114">
+        <v>1.95</v>
+      </c>
+      <c r="AH114">
+        <v>1.75</v>
+      </c>
+      <c r="AI114">
+        <v>1.75</v>
+      </c>
+      <c r="AJ114">
+        <v>1.93</v>
+      </c>
+      <c r="AK114">
+        <v>1.36</v>
+      </c>
+      <c r="AL114">
+        <v>1.25</v>
+      </c>
+      <c r="AM114">
+        <v>1.62</v>
+      </c>
+      <c r="AN114">
+        <v>1.4</v>
+      </c>
+      <c r="AO114">
+        <v>0.67</v>
+      </c>
+      <c r="AP114">
+        <v>1.17</v>
+      </c>
+      <c r="AQ114">
+        <v>1</v>
+      </c>
+      <c r="AR114">
+        <v>1.28</v>
+      </c>
+      <c r="AS114">
+        <v>1.34</v>
+      </c>
+      <c r="AT114">
+        <v>2.62</v>
+      </c>
+      <c r="AU114">
+        <v>3</v>
+      </c>
+      <c r="AV114">
+        <v>6</v>
+      </c>
+      <c r="AW114">
+        <v>6</v>
+      </c>
+      <c r="AX114">
+        <v>3</v>
+      </c>
+      <c r="AY114">
+        <v>10</v>
+      </c>
+      <c r="AZ114">
+        <v>10</v>
+      </c>
+      <c r="BA114">
+        <v>5</v>
+      </c>
+      <c r="BB114">
+        <v>7</v>
+      </c>
+      <c r="BC114">
+        <v>12</v>
+      </c>
+      <c r="BD114">
+        <v>1.89</v>
+      </c>
+      <c r="BE114">
+        <v>8.1</v>
+      </c>
+      <c r="BF114">
+        <v>2.19</v>
+      </c>
+      <c r="BG114">
+        <v>1.29</v>
+      </c>
+      <c r="BH114">
+        <v>3.25</v>
+      </c>
+      <c r="BI114">
+        <v>1.52</v>
+      </c>
+      <c r="BJ114">
+        <v>2.36</v>
+      </c>
+      <c r="BK114">
+        <v>1.9</v>
+      </c>
+      <c r="BL114">
+        <v>1.9</v>
+      </c>
+      <c r="BM114">
+        <v>2.39</v>
+      </c>
+      <c r="BN114">
+        <v>1.51</v>
+      </c>
+      <c r="BO114">
+        <v>3.2</v>
+      </c>
+      <c r="BP114">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,12 @@
     <t>['48', '64']</t>
   </si>
   <si>
+    <t>['8', '42', '68']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -605,9 +611,6 @@
   </si>
   <si>
     <t>['85']</t>
-  </si>
-  <si>
-    <t>['26']</t>
   </si>
   <si>
     <t>['36']</t>
@@ -710,6 +713,9 @@
   </si>
   <si>
     <t>['45+1', '89', '90+3']</t>
+  </si>
+  <si>
+    <t>['57']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1336,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1742,7 +1748,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2566,7 +2572,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2647,7 +2653,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ8">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2978,7 +2984,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3056,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3471,7 +3477,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3596,7 +3602,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3880,10 +3886,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4214,7 +4220,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4420,7 +4426,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5038,7 +5044,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5244,7 +5250,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5325,7 +5331,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ21">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5450,7 +5456,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5862,7 +5868,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -6068,7 +6074,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6274,7 +6280,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6686,7 +6692,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6764,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ28">
         <v>1.14</v>
@@ -7588,7 +7594,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32">
         <v>1.33</v>
@@ -8128,7 +8134,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8209,7 +8215,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ35">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.69</v>
@@ -8334,7 +8340,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8540,7 +8546,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8621,7 +8627,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR37">
         <v>1.13</v>
@@ -8746,7 +8752,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8952,7 +8958,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9239,7 +9245,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>1.41</v>
@@ -9364,7 +9370,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9570,7 +9576,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9776,7 +9782,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10394,7 +10400,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10472,7 +10478,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ46">
         <v>1.14</v>
@@ -10600,7 +10606,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>2.55</v>
@@ -11090,7 +11096,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ49">
         <v>1.33</v>
@@ -11299,7 +11305,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ50">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.61</v>
@@ -11502,7 +11508,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ51">
         <v>1.14</v>
@@ -11836,7 +11842,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12042,7 +12048,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12248,7 +12254,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12660,7 +12666,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12866,7 +12872,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13072,7 +13078,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13278,7 +13284,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13690,7 +13696,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13771,7 +13777,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ62">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR62">
         <v>1.16</v>
@@ -13896,7 +13902,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14102,7 +14108,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14183,7 +14189,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ64">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR64">
         <v>1.73</v>
@@ -14926,7 +14932,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15132,7 +15138,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15338,7 +15344,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15544,7 +15550,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15625,7 +15631,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ71">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.24</v>
@@ -15750,7 +15756,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15828,7 +15834,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ72">
         <v>0.5</v>
@@ -15956,7 +15962,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16162,7 +16168,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16368,7 +16374,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16449,7 +16455,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ75">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR75">
         <v>1.25</v>
@@ -16574,7 +16580,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17192,7 +17198,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17398,7 +17404,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17604,7 +17610,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -17685,7 +17691,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ81">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>1.22</v>
@@ -17888,7 +17894,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18428,7 +18434,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18506,7 +18512,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ85">
         <v>0.5</v>
@@ -18634,7 +18640,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19124,10 +19130,10 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ88">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.77</v>
@@ -19252,7 +19258,7 @@
         <v>158</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19458,7 +19464,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19870,7 +19876,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20488,7 +20494,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -20694,7 +20700,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -20981,7 +20987,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ97">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR97">
         <v>1.69</v>
@@ -21106,7 +21112,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21187,7 +21193,7 @@
         <v>0.14</v>
       </c>
       <c r="AQ98">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR98">
         <v>1.06</v>
@@ -21518,7 +21524,7 @@
         <v>165</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>2.25</v>
@@ -22136,7 +22142,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>4.2</v>
@@ -23166,7 +23172,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23339,7 +23345,7 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45604.66666666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F109">
         <v>13</v>
@@ -23545,7 +23551,7 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45604.66666666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F110">
         <v>13</v>
@@ -23751,7 +23757,7 @@
         <v>69</v>
       </c>
       <c r="E111" s="2">
-        <v>45604.66666666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F111">
         <v>13</v>
@@ -23957,7 +23963,7 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45604.66666666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F112">
         <v>13</v>
@@ -23990,7 +23996,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24163,7 +24169,7 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45604.66666666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F113">
         <v>13</v>
@@ -24369,7 +24375,7 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45604.66666666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -24402,7 +24408,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -24559,6 +24565,624 @@
       </c>
       <c r="BP114">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7468974</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45605.41666666666</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>82</v>
+      </c>
+      <c r="H115" t="s">
+        <v>85</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115" t="s">
+        <v>90</v>
+      </c>
+      <c r="P115" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q115">
+        <v>3.8</v>
+      </c>
+      <c r="R115">
+        <v>2.05</v>
+      </c>
+      <c r="S115">
+        <v>2.7</v>
+      </c>
+      <c r="T115">
+        <v>1.4</v>
+      </c>
+      <c r="U115">
+        <v>2.75</v>
+      </c>
+      <c r="V115">
+        <v>2.8</v>
+      </c>
+      <c r="W115">
+        <v>1.38</v>
+      </c>
+      <c r="X115">
+        <v>8</v>
+      </c>
+      <c r="Y115">
+        <v>1.08</v>
+      </c>
+      <c r="Z115">
+        <v>3.25</v>
+      </c>
+      <c r="AA115">
+        <v>3.3</v>
+      </c>
+      <c r="AB115">
+        <v>2.15</v>
+      </c>
+      <c r="AC115">
+        <v>1.06</v>
+      </c>
+      <c r="AD115">
+        <v>8.5</v>
+      </c>
+      <c r="AE115">
+        <v>1.33</v>
+      </c>
+      <c r="AF115">
+        <v>3.3</v>
+      </c>
+      <c r="AG115">
+        <v>1.86</v>
+      </c>
+      <c r="AH115">
+        <v>1.84</v>
+      </c>
+      <c r="AI115">
+        <v>1.73</v>
+      </c>
+      <c r="AJ115">
+        <v>1.95</v>
+      </c>
+      <c r="AK115">
+        <v>1.67</v>
+      </c>
+      <c r="AL115">
+        <v>1.25</v>
+      </c>
+      <c r="AM115">
+        <v>1.3</v>
+      </c>
+      <c r="AN115">
+        <v>2</v>
+      </c>
+      <c r="AO115">
+        <v>2.17</v>
+      </c>
+      <c r="AP115">
+        <v>1.83</v>
+      </c>
+      <c r="AQ115">
+        <v>2</v>
+      </c>
+      <c r="AR115">
+        <v>1.51</v>
+      </c>
+      <c r="AS115">
+        <v>1.39</v>
+      </c>
+      <c r="AT115">
+        <v>2.9</v>
+      </c>
+      <c r="AU115">
+        <v>3</v>
+      </c>
+      <c r="AV115">
+        <v>6</v>
+      </c>
+      <c r="AW115">
+        <v>5</v>
+      </c>
+      <c r="AX115">
+        <v>4</v>
+      </c>
+      <c r="AY115">
+        <v>12</v>
+      </c>
+      <c r="AZ115">
+        <v>17</v>
+      </c>
+      <c r="BA115">
+        <v>3</v>
+      </c>
+      <c r="BB115">
+        <v>8</v>
+      </c>
+      <c r="BC115">
+        <v>11</v>
+      </c>
+      <c r="BD115">
+        <v>2.1</v>
+      </c>
+      <c r="BE115">
+        <v>7.95</v>
+      </c>
+      <c r="BF115">
+        <v>1.96</v>
+      </c>
+      <c r="BG115">
+        <v>1.34</v>
+      </c>
+      <c r="BH115">
+        <v>2.98</v>
+      </c>
+      <c r="BI115">
+        <v>1.6</v>
+      </c>
+      <c r="BJ115">
+        <v>2.19</v>
+      </c>
+      <c r="BK115">
+        <v>2</v>
+      </c>
+      <c r="BL115">
+        <v>1.72</v>
+      </c>
+      <c r="BM115">
+        <v>2.6</v>
+      </c>
+      <c r="BN115">
+        <v>1.44</v>
+      </c>
+      <c r="BO115">
+        <v>3.5</v>
+      </c>
+      <c r="BP115">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7468982</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45605.41666666666</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>86</v>
+      </c>
+      <c r="H116" t="s">
+        <v>75</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>175</v>
+      </c>
+      <c r="P116" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q116">
+        <v>2.4</v>
+      </c>
+      <c r="R116">
+        <v>2.2</v>
+      </c>
+      <c r="S116">
+        <v>4</v>
+      </c>
+      <c r="T116">
+        <v>1.33</v>
+      </c>
+      <c r="U116">
+        <v>3</v>
+      </c>
+      <c r="V116">
+        <v>2.5</v>
+      </c>
+      <c r="W116">
+        <v>1.48</v>
+      </c>
+      <c r="X116">
+        <v>6.5</v>
+      </c>
+      <c r="Y116">
+        <v>1.11</v>
+      </c>
+      <c r="Z116">
+        <v>1.8</v>
+      </c>
+      <c r="AA116">
+        <v>3.6</v>
+      </c>
+      <c r="AB116">
+        <v>4.2</v>
+      </c>
+      <c r="AC116">
+        <v>1.05</v>
+      </c>
+      <c r="AD116">
+        <v>9.5</v>
+      </c>
+      <c r="AE116">
+        <v>1.25</v>
+      </c>
+      <c r="AF116">
+        <v>3.85</v>
+      </c>
+      <c r="AG116">
+        <v>1.75</v>
+      </c>
+      <c r="AH116">
+        <v>1.96</v>
+      </c>
+      <c r="AI116">
+        <v>1.62</v>
+      </c>
+      <c r="AJ116">
+        <v>2.1</v>
+      </c>
+      <c r="AK116">
+        <v>1.25</v>
+      </c>
+      <c r="AL116">
+        <v>1.22</v>
+      </c>
+      <c r="AM116">
+        <v>1.9</v>
+      </c>
+      <c r="AN116">
+        <v>3</v>
+      </c>
+      <c r="AO116">
+        <v>1.2</v>
+      </c>
+      <c r="AP116">
+        <v>3</v>
+      </c>
+      <c r="AQ116">
+        <v>1</v>
+      </c>
+      <c r="AR116">
+        <v>1.94</v>
+      </c>
+      <c r="AS116">
+        <v>1.59</v>
+      </c>
+      <c r="AT116">
+        <v>3.53</v>
+      </c>
+      <c r="AU116">
+        <v>4</v>
+      </c>
+      <c r="AV116">
+        <v>3</v>
+      </c>
+      <c r="AW116">
+        <v>6</v>
+      </c>
+      <c r="AX116">
+        <v>3</v>
+      </c>
+      <c r="AY116">
+        <v>15</v>
+      </c>
+      <c r="AZ116">
+        <v>10</v>
+      </c>
+      <c r="BA116">
+        <v>6</v>
+      </c>
+      <c r="BB116">
+        <v>3</v>
+      </c>
+      <c r="BC116">
+        <v>9</v>
+      </c>
+      <c r="BD116">
+        <v>1.57</v>
+      </c>
+      <c r="BE116">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="BF116">
+        <v>2.89</v>
+      </c>
+      <c r="BG116">
+        <v>1.29</v>
+      </c>
+      <c r="BH116">
+        <v>3.25</v>
+      </c>
+      <c r="BI116">
+        <v>1.52</v>
+      </c>
+      <c r="BJ116">
+        <v>2.36</v>
+      </c>
+      <c r="BK116">
+        <v>1.92</v>
+      </c>
+      <c r="BL116">
+        <v>1.88</v>
+      </c>
+      <c r="BM116">
+        <v>2.39</v>
+      </c>
+      <c r="BN116">
+        <v>1.51</v>
+      </c>
+      <c r="BO116">
+        <v>3.2</v>
+      </c>
+      <c r="BP116">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7468981</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45605.66666666666</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>78</v>
+      </c>
+      <c r="H117" t="s">
+        <v>76</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117" t="s">
+        <v>176</v>
+      </c>
+      <c r="P117" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q117">
+        <v>2.38</v>
+      </c>
+      <c r="R117">
+        <v>2.2</v>
+      </c>
+      <c r="S117">
+        <v>5</v>
+      </c>
+      <c r="T117">
+        <v>1.4</v>
+      </c>
+      <c r="U117">
+        <v>2.75</v>
+      </c>
+      <c r="V117">
+        <v>2.75</v>
+      </c>
+      <c r="W117">
+        <v>1.4</v>
+      </c>
+      <c r="X117">
+        <v>8</v>
+      </c>
+      <c r="Y117">
+        <v>1.08</v>
+      </c>
+      <c r="Z117">
+        <v>1.77</v>
+      </c>
+      <c r="AA117">
+        <v>3.76</v>
+      </c>
+      <c r="AB117">
+        <v>4.53</v>
+      </c>
+      <c r="AC117">
+        <v>1.06</v>
+      </c>
+      <c r="AD117">
+        <v>8.5</v>
+      </c>
+      <c r="AE117">
+        <v>1.3</v>
+      </c>
+      <c r="AF117">
+        <v>3.4</v>
+      </c>
+      <c r="AG117">
+        <v>1.94</v>
+      </c>
+      <c r="AH117">
+        <v>1.84</v>
+      </c>
+      <c r="AI117">
+        <v>1.83</v>
+      </c>
+      <c r="AJ117">
+        <v>1.83</v>
+      </c>
+      <c r="AK117">
+        <v>1.18</v>
+      </c>
+      <c r="AL117">
+        <v>1.22</v>
+      </c>
+      <c r="AM117">
+        <v>2</v>
+      </c>
+      <c r="AN117">
+        <v>2</v>
+      </c>
+      <c r="AO117">
+        <v>0.8</v>
+      </c>
+      <c r="AP117">
+        <v>2.14</v>
+      </c>
+      <c r="AQ117">
+        <v>0.67</v>
+      </c>
+      <c r="AR117">
+        <v>1.7</v>
+      </c>
+      <c r="AS117">
+        <v>1.49</v>
+      </c>
+      <c r="AT117">
+        <v>3.19</v>
+      </c>
+      <c r="AU117">
+        <v>2</v>
+      </c>
+      <c r="AV117">
+        <v>3</v>
+      </c>
+      <c r="AW117">
+        <v>6</v>
+      </c>
+      <c r="AX117">
+        <v>8</v>
+      </c>
+      <c r="AY117">
+        <v>16</v>
+      </c>
+      <c r="AZ117">
+        <v>14</v>
+      </c>
+      <c r="BA117">
+        <v>5</v>
+      </c>
+      <c r="BB117">
+        <v>5</v>
+      </c>
+      <c r="BC117">
+        <v>10</v>
+      </c>
+      <c r="BD117">
+        <v>1.8</v>
+      </c>
+      <c r="BE117">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="BF117">
+        <v>2.38</v>
+      </c>
+      <c r="BG117">
+        <v>1.34</v>
+      </c>
+      <c r="BH117">
+        <v>2.98</v>
+      </c>
+      <c r="BI117">
+        <v>1.6</v>
+      </c>
+      <c r="BJ117">
+        <v>2.19</v>
+      </c>
+      <c r="BK117">
+        <v>2</v>
+      </c>
+      <c r="BL117">
+        <v>1.72</v>
+      </c>
+      <c r="BM117">
+        <v>2.6</v>
+      </c>
+      <c r="BN117">
+        <v>1.44</v>
+      </c>
+      <c r="BO117">
+        <v>3.5</v>
+      </c>
+      <c r="BP117">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -23345,7 +23345,7 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45603.875</v>
+        <v>45604.66666666666</v>
       </c>
       <c r="F109">
         <v>13</v>
@@ -23551,7 +23551,7 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45603.875</v>
+        <v>45604.66666666666</v>
       </c>
       <c r="F110">
         <v>13</v>
@@ -23757,7 +23757,7 @@
         <v>69</v>
       </c>
       <c r="E111" s="2">
-        <v>45603.875</v>
+        <v>45604.66666666666</v>
       </c>
       <c r="F111">
         <v>13</v>
@@ -23963,7 +23963,7 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45603.875</v>
+        <v>45604.66666666666</v>
       </c>
       <c r="F112">
         <v>13</v>
@@ -24169,10 +24169,10 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45603.875</v>
+        <v>45604.66666666666</v>
       </c>
       <c r="F113">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G113" t="s">
         <v>71</v>
@@ -24375,10 +24375,10 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45603.875</v>
+        <v>45604.66666666666</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
         <v>87</v>
@@ -24584,7 +24584,7 @@
         <v>45605.41666666666</v>
       </c>
       <c r="F115">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G115" t="s">
         <v>82</v>
